--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="5" r:id="rId1"/>
@@ -25,37 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="CB5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC6" authorId="0" shapeId="0">
+    <comment ref="CD14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC7" authorId="0" shapeId="0">
+    <comment ref="CE14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC8" authorId="0" shapeId="0">
+    <comment ref="CD17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,232 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC24" authorId="0" shapeId="0">
+    <comment ref="CE17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC25" authorId="0" shapeId="0">
+    <comment ref="CD31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,472 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC32" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC38" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CA39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC40" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC41" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC42" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC43" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC44" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC45" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC46" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC47" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC48" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC49" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC51" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC52" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC53" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC54" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC55" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CC56" authorId="0" shapeId="0">
+    <comment ref="CE31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1645,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,6 +947,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2372,11 +1653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MG56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:CP56"/>
+      <selection pane="bottomRight" activeCell="CS19" sqref="CS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,12 +2242,14 @@
         <v>8916.4000000000015</v>
       </c>
       <c r="CO5" s="6">
-        <v>9328.7999999999993</v>
+        <v>9329.5</v>
       </c>
       <c r="CP5" s="6">
-        <v>10517.2</v>
-      </c>
-      <c r="CQ5" s="6"/>
+        <v>10509.1</v>
+      </c>
+      <c r="CQ5" s="6">
+        <v>10955.199999999999</v>
+      </c>
       <c r="CR5" s="6"/>
       <c r="CS5" s="6"/>
       <c r="CT5" s="6"/>
@@ -3499,9 +2782,11 @@
         <v>153.69999999999999</v>
       </c>
       <c r="CP6" s="6">
-        <v>162.80000000000001</v>
-      </c>
-      <c r="CQ6" s="6"/>
+        <v>164.1</v>
+      </c>
+      <c r="CQ6" s="6">
+        <v>166.7</v>
+      </c>
       <c r="CR6" s="6"/>
       <c r="CS6" s="6"/>
       <c r="CT6" s="6"/>
@@ -4036,7 +3321,9 @@
       <c r="CP7" s="6">
         <v>28.9</v>
       </c>
-      <c r="CQ7" s="6"/>
+      <c r="CQ7" s="6">
+        <v>30.3</v>
+      </c>
       <c r="CR7" s="6"/>
       <c r="CS7" s="6"/>
       <c r="CT7" s="6"/>
@@ -4569,9 +3856,11 @@
         <v>190.79999999999998</v>
       </c>
       <c r="CP8" s="6">
-        <v>203.4</v>
-      </c>
-      <c r="CQ8" s="6"/>
+        <v>203.6</v>
+      </c>
+      <c r="CQ8" s="6">
+        <v>204.6</v>
+      </c>
       <c r="CR8" s="6"/>
       <c r="CS8" s="6"/>
       <c r="CT8" s="6"/>
@@ -5106,7 +4395,9 @@
       <c r="CP9" s="6">
         <v>103</v>
       </c>
-      <c r="CQ9" s="6"/>
+      <c r="CQ9" s="6">
+        <v>104.4</v>
+      </c>
       <c r="CR9" s="6"/>
       <c r="CS9" s="6"/>
       <c r="CT9" s="6"/>
@@ -5641,7 +4932,9 @@
       <c r="CP10" s="6">
         <v>1227.3</v>
       </c>
-      <c r="CQ10" s="6"/>
+      <c r="CQ10" s="6">
+        <v>1298.5</v>
+      </c>
       <c r="CR10" s="6"/>
       <c r="CS10" s="6"/>
       <c r="CT10" s="6"/>
@@ -6174,9 +5467,11 @@
         <v>196.4</v>
       </c>
       <c r="CP11" s="6">
-        <v>218.7</v>
-      </c>
-      <c r="CQ11" s="6"/>
+        <v>217.8</v>
+      </c>
+      <c r="CQ11" s="6">
+        <v>223.5</v>
+      </c>
       <c r="CR11" s="6"/>
       <c r="CS11" s="6"/>
       <c r="CT11" s="6"/>
@@ -6711,7 +6006,9 @@
       <c r="CP12" s="6">
         <v>121.5</v>
       </c>
-      <c r="CQ12" s="6"/>
+      <c r="CQ12" s="6">
+        <v>125.3</v>
+      </c>
       <c r="CR12" s="6"/>
       <c r="CS12" s="6"/>
       <c r="CT12" s="6"/>
@@ -7244,9 +6541,11 @@
         <v>31.1</v>
       </c>
       <c r="CP13" s="6">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="CQ13" s="6"/>
+        <v>35.6</v>
+      </c>
+      <c r="CQ13" s="6">
+        <v>37</v>
+      </c>
       <c r="CR13" s="6"/>
       <c r="CS13" s="6"/>
       <c r="CT13" s="6"/>
@@ -7594,8 +6893,8 @@
       <c r="CM14" s="8"/>
       <c r="CN14" s="8"/>
       <c r="CO14" s="8"/>
-      <c r="CP14" s="6"/>
-      <c r="CQ14" s="6"/>
+      <c r="CP14" s="8"/>
+      <c r="CQ14" s="8"/>
       <c r="CR14" s="6"/>
       <c r="CS14" s="6"/>
       <c r="CT14" s="6"/>
@@ -8128,9 +7427,11 @@
         <v>484</v>
       </c>
       <c r="CP15" s="6">
-        <v>504.90000000000003</v>
-      </c>
-      <c r="CQ15" s="6"/>
+        <v>505.3</v>
+      </c>
+      <c r="CQ15" s="6">
+        <v>513.5</v>
+      </c>
       <c r="CR15" s="6"/>
       <c r="CS15" s="6"/>
       <c r="CT15" s="6"/>
@@ -8663,9 +7964,11 @@
         <v>349.1</v>
       </c>
       <c r="CP16" s="6">
-        <v>356.1</v>
-      </c>
-      <c r="CQ16" s="6"/>
+        <v>355.7</v>
+      </c>
+      <c r="CQ16" s="6">
+        <v>358.1</v>
+      </c>
       <c r="CR16" s="6"/>
       <c r="CS16" s="6"/>
       <c r="CT16" s="6"/>
@@ -9013,8 +8316,8 @@
       <c r="CM17" s="8"/>
       <c r="CN17" s="8"/>
       <c r="CO17" s="8"/>
-      <c r="CP17" s="6"/>
-      <c r="CQ17" s="6"/>
+      <c r="CP17" s="8"/>
+      <c r="CQ17" s="8"/>
       <c r="CR17" s="6"/>
       <c r="CS17" s="6"/>
       <c r="CT17" s="6"/>
@@ -9547,9 +8850,11 @@
         <v>50.900000000000006</v>
       </c>
       <c r="CP18" s="6">
-        <v>59.1</v>
-      </c>
-      <c r="CQ18" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="CQ18" s="6">
+        <v>63.4</v>
+      </c>
       <c r="CR18" s="6"/>
       <c r="CS18" s="6"/>
       <c r="CT18" s="6"/>
@@ -10084,7 +9389,9 @@
       <c r="CP19" s="6">
         <v>438.7</v>
       </c>
-      <c r="CQ19" s="6"/>
+      <c r="CQ19" s="6">
+        <v>453.1</v>
+      </c>
       <c r="CR19" s="6"/>
       <c r="CS19" s="6"/>
       <c r="CT19" s="6"/>
@@ -10617,9 +9924,11 @@
         <v>212.3</v>
       </c>
       <c r="CP20" s="6">
-        <v>238.3</v>
-      </c>
-      <c r="CQ20" s="6"/>
+        <v>235.6</v>
+      </c>
+      <c r="CQ20" s="6">
+        <v>237.6</v>
+      </c>
       <c r="CR20" s="6"/>
       <c r="CS20" s="6"/>
       <c r="CT20" s="6"/>
@@ -11154,7 +10463,9 @@
       <c r="CP21" s="6">
         <v>146.1</v>
       </c>
-      <c r="CQ21" s="6"/>
+      <c r="CQ21" s="6">
+        <v>153.19999999999999</v>
+      </c>
       <c r="CR21" s="6"/>
       <c r="CS21" s="6"/>
       <c r="CT21" s="6"/>
@@ -11687,9 +10998,11 @@
         <v>115.9</v>
       </c>
       <c r="CP22" s="6">
-        <v>139.1</v>
-      </c>
-      <c r="CQ22" s="6"/>
+        <v>138.5</v>
+      </c>
+      <c r="CQ22" s="6">
+        <v>144.80000000000001</v>
+      </c>
       <c r="CR22" s="6"/>
       <c r="CS22" s="6"/>
       <c r="CT22" s="6"/>
@@ -12224,7 +11537,9 @@
       <c r="CP23" s="6">
         <v>161.80000000000001</v>
       </c>
-      <c r="CQ23" s="6"/>
+      <c r="CQ23" s="6">
+        <v>163.30000000000001</v>
+      </c>
       <c r="CR23" s="6"/>
       <c r="CS23" s="6"/>
       <c r="CT23" s="6"/>
@@ -12759,7 +12074,9 @@
       <c r="CP24" s="6">
         <v>152.1</v>
       </c>
-      <c r="CQ24" s="6"/>
+      <c r="CQ24" s="6">
+        <v>157.1</v>
+      </c>
       <c r="CR24" s="6"/>
       <c r="CS24" s="6"/>
       <c r="CT24" s="6"/>
@@ -13294,7 +12611,9 @@
       <c r="CP25" s="6">
         <v>49.900000000000006</v>
       </c>
-      <c r="CQ25" s="6"/>
+      <c r="CQ25" s="6">
+        <v>51.6</v>
+      </c>
       <c r="CR25" s="6"/>
       <c r="CS25" s="6"/>
       <c r="CT25" s="6"/>
@@ -13829,7 +13148,9 @@
       <c r="CP26" s="6">
         <v>212.29999999999998</v>
       </c>
-      <c r="CQ26" s="6"/>
+      <c r="CQ26" s="6">
+        <v>225.4</v>
+      </c>
       <c r="CR26" s="6"/>
       <c r="CS26" s="6"/>
       <c r="CT26" s="6"/>
@@ -14364,7 +13685,9 @@
       <c r="CP27" s="6">
         <v>236.70000000000002</v>
       </c>
-      <c r="CQ27" s="6"/>
+      <c r="CQ27" s="6">
+        <v>246.7</v>
+      </c>
       <c r="CR27" s="6"/>
       <c r="CS27" s="6"/>
       <c r="CT27" s="6"/>
@@ -14897,9 +14220,11 @@
         <v>266.70000000000005</v>
       </c>
       <c r="CP28" s="6">
-        <v>322.5</v>
-      </c>
-      <c r="CQ28" s="6"/>
+        <v>322.20000000000005</v>
+      </c>
+      <c r="CQ28" s="6">
+        <v>336.1</v>
+      </c>
       <c r="CR28" s="6"/>
       <c r="CS28" s="6"/>
       <c r="CT28" s="6"/>
@@ -15434,7 +14759,9 @@
       <c r="CP29" s="6">
         <v>196.9</v>
       </c>
-      <c r="CQ29" s="6"/>
+      <c r="CQ29" s="6">
+        <v>212.5</v>
+      </c>
       <c r="CR29" s="6"/>
       <c r="CS29" s="6"/>
       <c r="CT29" s="6"/>
@@ -15969,7 +15296,9 @@
       <c r="CP30" s="6">
         <v>108.5</v>
       </c>
-      <c r="CQ30" s="6"/>
+      <c r="CQ30" s="6">
+        <v>109.2</v>
+      </c>
       <c r="CR30" s="6"/>
       <c r="CS30" s="6"/>
       <c r="CT30" s="6"/>
@@ -16317,8 +15646,8 @@
       <c r="CM31" s="8"/>
       <c r="CN31" s="8"/>
       <c r="CO31" s="8"/>
-      <c r="CP31" s="6"/>
-      <c r="CQ31" s="6"/>
+      <c r="CP31" s="8"/>
+      <c r="CQ31" s="8"/>
       <c r="CR31" s="6"/>
       <c r="CS31" s="6"/>
       <c r="CT31" s="6"/>
@@ -16853,7 +16182,9 @@
       <c r="CP32" s="6">
         <v>42</v>
       </c>
-      <c r="CQ32" s="6"/>
+      <c r="CQ32" s="6">
+        <v>45.1</v>
+      </c>
       <c r="CR32" s="6"/>
       <c r="CS32" s="6"/>
       <c r="CT32" s="6"/>
@@ -17386,9 +16717,11 @@
         <v>83.1</v>
       </c>
       <c r="CP33" s="6">
-        <v>93.2</v>
-      </c>
-      <c r="CQ33" s="6"/>
+        <v>93.4</v>
+      </c>
+      <c r="CQ33" s="6">
+        <v>97</v>
+      </c>
       <c r="CR33" s="6"/>
       <c r="CS33" s="6"/>
       <c r="CT33" s="6"/>
@@ -17921,9 +17254,11 @@
         <v>69.099999999999994</v>
       </c>
       <c r="CP34" s="6">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="CQ34" s="6"/>
+        <v>77.8</v>
+      </c>
+      <c r="CQ34" s="6">
+        <v>76.099999999999994</v>
+      </c>
       <c r="CR34" s="6"/>
       <c r="CS34" s="6"/>
       <c r="CT34" s="6"/>
@@ -18456,9 +17791,11 @@
         <v>35.6</v>
       </c>
       <c r="CP35" s="6">
-        <v>45</v>
-      </c>
-      <c r="CQ35" s="6"/>
+        <v>45.099999999999994</v>
+      </c>
+      <c r="CQ35" s="6">
+        <v>47.6</v>
+      </c>
       <c r="CR35" s="6"/>
       <c r="CS35" s="6"/>
       <c r="CT35" s="6"/>
@@ -18993,7 +18330,9 @@
       <c r="CP36" s="6">
         <v>293.89999999999998</v>
       </c>
-      <c r="CQ36" s="6"/>
+      <c r="CQ36" s="6">
+        <v>318.5</v>
+      </c>
       <c r="CR36" s="6"/>
       <c r="CS36" s="6"/>
       <c r="CT36" s="6"/>
@@ -19526,9 +18865,11 @@
         <v>70.099999999999994</v>
       </c>
       <c r="CP37" s="6">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="CQ37" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="CQ37" s="6">
+        <v>78.2</v>
+      </c>
       <c r="CR37" s="6"/>
       <c r="CS37" s="6"/>
       <c r="CT37" s="6"/>
@@ -20063,7 +19404,9 @@
       <c r="CP38" s="6">
         <v>637.9</v>
       </c>
-      <c r="CQ38" s="6"/>
+      <c r="CQ38" s="6">
+        <v>675.1</v>
+      </c>
       <c r="CR38" s="6"/>
       <c r="CS38" s="6"/>
       <c r="CT38" s="6"/>
@@ -20598,7 +19941,9 @@
       <c r="CP39" s="6">
         <v>330.4</v>
       </c>
-      <c r="CQ39" s="6"/>
+      <c r="CQ39" s="6">
+        <v>338.1</v>
+      </c>
       <c r="CR39" s="6"/>
       <c r="CS39" s="6"/>
       <c r="CT39" s="6"/>
@@ -21133,7 +20478,9 @@
       <c r="CP40" s="6">
         <v>36.6</v>
       </c>
-      <c r="CQ40" s="6"/>
+      <c r="CQ40" s="6">
+        <v>38.9</v>
+      </c>
       <c r="CR40" s="6"/>
       <c r="CS40" s="6"/>
       <c r="CT40" s="6"/>
@@ -21666,9 +21013,11 @@
         <v>355</v>
       </c>
       <c r="CP41" s="6">
-        <v>392.7</v>
-      </c>
-      <c r="CQ41" s="6"/>
+        <v>392.2</v>
+      </c>
+      <c r="CQ41" s="6">
+        <v>408.8</v>
+      </c>
       <c r="CR41" s="6"/>
       <c r="CS41" s="6"/>
       <c r="CT41" s="6"/>
@@ -22203,7 +21552,9 @@
       <c r="CP42" s="6">
         <v>143.80000000000001</v>
       </c>
-      <c r="CQ42" s="6"/>
+      <c r="CQ42" s="6">
+        <v>148.19999999999999</v>
+      </c>
       <c r="CR42" s="6"/>
       <c r="CS42" s="6"/>
       <c r="CT42" s="6"/>
@@ -22736,9 +22087,11 @@
         <v>107.30000000000001</v>
       </c>
       <c r="CP43" s="6">
-        <v>120.39999999999999</v>
-      </c>
-      <c r="CQ43" s="6"/>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="CQ43" s="6">
+        <v>140.60000000000002</v>
+      </c>
       <c r="CR43" s="6"/>
       <c r="CS43" s="6"/>
       <c r="CT43" s="6"/>
@@ -23271,9 +22624,11 @@
         <v>283</v>
       </c>
       <c r="CP44" s="6">
-        <v>336.5</v>
-      </c>
-      <c r="CQ44" s="6"/>
+        <v>336.7</v>
+      </c>
+      <c r="CQ44" s="6">
+        <v>345.5</v>
+      </c>
       <c r="CR44" s="6"/>
       <c r="CS44" s="6"/>
       <c r="CT44" s="6"/>
@@ -23808,7 +23163,9 @@
       <c r="CP45" s="6">
         <v>26.2</v>
       </c>
-      <c r="CQ45" s="6"/>
+      <c r="CQ45" s="6">
+        <v>27.900000000000002</v>
+      </c>
       <c r="CR45" s="6"/>
       <c r="CS45" s="6"/>
       <c r="CT45" s="6"/>
@@ -24341,9 +23698,11 @@
         <v>152.1</v>
       </c>
       <c r="CP46" s="6">
-        <v>164.5</v>
-      </c>
-      <c r="CQ46" s="6"/>
+        <v>164.4</v>
+      </c>
+      <c r="CQ46" s="6">
+        <v>168.2</v>
+      </c>
       <c r="CR46" s="6"/>
       <c r="CS46" s="6"/>
       <c r="CT46" s="6"/>
@@ -24876,9 +24235,11 @@
         <v>28.799999999999997</v>
       </c>
       <c r="CP47" s="6">
-        <v>36</v>
-      </c>
-      <c r="CQ47" s="6"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="CQ47" s="6">
+        <v>37.9</v>
+      </c>
       <c r="CR47" s="6"/>
       <c r="CS47" s="6"/>
       <c r="CT47" s="6"/>
@@ -25411,9 +24772,11 @@
         <v>183.5</v>
       </c>
       <c r="CP48" s="6">
-        <v>208.5</v>
-      </c>
-      <c r="CQ48" s="6"/>
+        <v>208.29999999999998</v>
+      </c>
+      <c r="CQ48" s="6">
+        <v>212.8</v>
+      </c>
       <c r="CR48" s="6"/>
       <c r="CS48" s="6"/>
       <c r="CT48" s="6"/>
@@ -25948,7 +25311,9 @@
       <c r="CP49" s="6">
         <v>1095.1000000000001</v>
       </c>
-      <c r="CQ49" s="6"/>
+      <c r="CQ49" s="6">
+        <v>1140.2</v>
+      </c>
       <c r="CR49" s="6"/>
       <c r="CS49" s="6"/>
       <c r="CT49" s="6"/>
@@ -26481,9 +25846,11 @@
         <v>103.3</v>
       </c>
       <c r="CP50" s="6">
-        <v>123.1</v>
-      </c>
-      <c r="CQ50" s="6"/>
+        <v>122.69999999999999</v>
+      </c>
+      <c r="CQ50" s="6">
+        <v>127.30000000000001</v>
+      </c>
       <c r="CR50" s="6"/>
       <c r="CS50" s="6"/>
       <c r="CT50" s="6"/>
@@ -27018,7 +26385,9 @@
       <c r="CP51" s="6">
         <v>31.400000000000002</v>
       </c>
-      <c r="CQ51" s="6"/>
+      <c r="CQ51" s="6">
+        <v>33.4</v>
+      </c>
       <c r="CR51" s="6"/>
       <c r="CS51" s="6"/>
       <c r="CT51" s="6"/>
@@ -27551,9 +26920,11 @@
         <v>275.3</v>
       </c>
       <c r="CP52" s="6">
-        <v>309.2</v>
-      </c>
-      <c r="CQ52" s="6"/>
+        <v>302.89999999999998</v>
+      </c>
+      <c r="CQ52" s="6">
+        <v>310.7</v>
+      </c>
       <c r="CR52" s="6"/>
       <c r="CS52" s="6"/>
       <c r="CT52" s="6"/>
@@ -28086,9 +27457,11 @@
         <v>226.3</v>
       </c>
       <c r="CP53" s="6">
-        <v>241.3</v>
-      </c>
-      <c r="CQ53" s="6"/>
+        <v>241.8</v>
+      </c>
+      <c r="CQ53" s="6">
+        <v>264.5</v>
+      </c>
       <c r="CR53" s="6"/>
       <c r="CS53" s="6"/>
       <c r="CT53" s="6"/>
@@ -28623,7 +27996,9 @@
       <c r="CP54" s="6">
         <v>61.4</v>
       </c>
-      <c r="CQ54" s="6"/>
+      <c r="CQ54" s="6">
+        <v>64.599999999999994</v>
+      </c>
       <c r="CR54" s="6"/>
       <c r="CS54" s="6"/>
       <c r="CT54" s="6"/>
@@ -29156,9 +28531,11 @@
         <v>165.2</v>
       </c>
       <c r="CP55" s="6">
-        <v>199</v>
-      </c>
-      <c r="CQ55" s="6"/>
+        <v>198.60000000000002</v>
+      </c>
+      <c r="CQ55" s="6">
+        <v>216.8</v>
+      </c>
       <c r="CR55" s="6"/>
       <c r="CS55" s="6"/>
       <c r="CT55" s="6"/>
@@ -29693,7 +29070,9 @@
       <c r="CP56" s="6">
         <v>29.6</v>
       </c>
-      <c r="CQ56" s="6"/>
+      <c r="CQ56" s="6">
+        <v>31</v>
+      </c>
       <c r="CR56" s="6"/>
       <c r="CS56" s="6"/>
       <c r="CT56" s="6"/>
@@ -29955,17 +29334,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="BZ30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="BV5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CE35" sqref="CE35"/>
+      <selection pane="bottomRight" activeCell="CC8" sqref="CC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="81" max="95" width="9.140625" style="9"/>
+    <col min="81" max="82" width="9.140625" style="9"/>
+    <col min="83" max="83" width="9.140625" style="9" customWidth="1"/>
+    <col min="84" max="95" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -30531,14 +29912,16 @@
         <v>0.25298238118262878</v>
       </c>
       <c r="CC5" s="6">
-        <v>0.44468371467024786</v>
+        <v>0.45222072678331088</v>
       </c>
       <c r="CD5" s="10">
-        <v>0.61417774801493086</v>
-      </c>
-      <c r="CE5" s="9"/>
-      <c r="CF5" s="9"/>
-      <c r="CG5" s="9"/>
+        <v>0.53668803214388561</v>
+      </c>
+      <c r="CE5" s="11">
+        <v>0.63382998658852496</v>
+      </c>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
       <c r="CH5" s="9"/>
       <c r="CI5" s="9"/>
       <c r="CJ5" s="9"/>
@@ -30795,11 +30178,13 @@
         <v>-1.2210796915167133</v>
       </c>
       <c r="CD6" s="10">
-        <v>-0.36719706242347977</v>
-      </c>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9"/>
-      <c r="CG6" s="9"/>
+        <v>0.42839657282742788</v>
+      </c>
+      <c r="CE6" s="11">
+        <v>0.24052916416114084</v>
+      </c>
+      <c r="CF6" s="11"/>
+      <c r="CG6" s="11"/>
       <c r="CH6" s="9"/>
       <c r="CI6" s="9"/>
       <c r="CJ6" s="9"/>
@@ -31058,9 +30443,11 @@
       <c r="CD7" s="10">
         <v>-2.0338983050847506</v>
       </c>
-      <c r="CE7" s="9"/>
-      <c r="CF7" s="9"/>
-      <c r="CG7" s="9"/>
+      <c r="CE7" s="11">
+        <v>-1.9417475728155384</v>
+      </c>
+      <c r="CF7" s="11"/>
+      <c r="CG7" s="11"/>
       <c r="CH7" s="9"/>
       <c r="CI7" s="9"/>
       <c r="CJ7" s="9"/>
@@ -31317,11 +30704,13 @@
         <v>4.2053522665210048</v>
       </c>
       <c r="CD8" s="10">
-        <v>-0.82886396879571766</v>
-      </c>
-      <c r="CE8" s="9"/>
-      <c r="CF8" s="9"/>
-      <c r="CG8" s="9"/>
+        <v>-0.73135056070211035</v>
+      </c>
+      <c r="CE8" s="11">
+        <v>-1.0159651669085605</v>
+      </c>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
       <c r="CH8" s="9"/>
       <c r="CI8" s="9"/>
       <c r="CJ8" s="9"/>
@@ -31580,9 +30969,11 @@
       <c r="CD9" s="10">
         <v>1.079489695780171</v>
       </c>
-      <c r="CE9" s="9"/>
-      <c r="CF9" s="9"/>
-      <c r="CG9" s="9"/>
+      <c r="CE9" s="11">
+        <v>0.19193857965451327</v>
+      </c>
+      <c r="CF9" s="11"/>
+      <c r="CG9" s="11"/>
       <c r="CH9" s="9"/>
       <c r="CI9" s="9"/>
       <c r="CJ9" s="9"/>
@@ -31841,9 +31232,11 @@
       <c r="CD10" s="10">
         <v>1.977565434150391</v>
       </c>
-      <c r="CE10" s="9"/>
-      <c r="CF10" s="9"/>
-      <c r="CG10" s="9"/>
+      <c r="CE10" s="11">
+        <v>1.4770240700218891</v>
+      </c>
+      <c r="CF10" s="11"/>
+      <c r="CG10" s="11"/>
       <c r="CH10" s="9"/>
       <c r="CI10" s="9"/>
       <c r="CJ10" s="9"/>
@@ -32100,11 +31493,13 @@
         <v>-0.55696202531645278</v>
       </c>
       <c r="CD11" s="10">
-        <v>2.1485287248948928</v>
-      </c>
-      <c r="CE11" s="9"/>
-      <c r="CF11" s="9"/>
-      <c r="CG11" s="9"/>
+        <v>1.7281644091545951</v>
+      </c>
+      <c r="CE11" s="11">
+        <v>2.2415370539798745</v>
+      </c>
+      <c r="CF11" s="11"/>
+      <c r="CG11" s="11"/>
       <c r="CH11" s="9"/>
       <c r="CI11" s="9"/>
       <c r="CJ11" s="9"/>
@@ -32363,9 +31758,11 @@
       <c r="CD12" s="10">
         <v>-1.5397082658022623</v>
       </c>
-      <c r="CE12" s="9"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="9"/>
+      <c r="CE12" s="11">
+        <v>-0.94861660079051613</v>
+      </c>
+      <c r="CF12" s="11"/>
+      <c r="CG12" s="11"/>
       <c r="CH12" s="9"/>
       <c r="CI12" s="9"/>
       <c r="CJ12" s="9"/>
@@ -32622,11 +32019,13 @@
         <v>3.6666666666666714</v>
       </c>
       <c r="CD13" s="10">
-        <v>3.779069767441873</v>
-      </c>
-      <c r="CE13" s="9"/>
-      <c r="CF13" s="9"/>
-      <c r="CG13" s="9"/>
+        <v>3.4883720930232642</v>
+      </c>
+      <c r="CE13" s="11">
+        <v>1.0928961748633841</v>
+      </c>
+      <c r="CF13" s="11"/>
+      <c r="CG13" s="11"/>
       <c r="CH13" s="9"/>
       <c r="CI13" s="9"/>
       <c r="CJ13" s="9"/>
@@ -32722,10 +32121,10 @@
       <c r="CA14" s="8"/>
       <c r="CB14" s="8"/>
       <c r="CC14" s="8"/>
-      <c r="CD14" s="10"/>
-      <c r="CE14" s="9"/>
-      <c r="CF14" s="9"/>
-      <c r="CG14" s="9"/>
+      <c r="CD14" s="8"/>
+      <c r="CE14" s="8"/>
+      <c r="CF14" s="11"/>
+      <c r="CG14" s="11"/>
       <c r="CH14" s="9"/>
       <c r="CI14" s="9"/>
       <c r="CJ14" s="9"/>
@@ -32982,11 +32381,13 @@
         <v>-0.12381345439538231</v>
       </c>
       <c r="CD15" s="10">
-        <v>0.69804547267651718</v>
-      </c>
-      <c r="CE15" s="9"/>
-      <c r="CF15" s="9"/>
-      <c r="CG15" s="9"/>
+        <v>0.77782209812525616</v>
+      </c>
+      <c r="CE15" s="11">
+        <v>1.1424069332282867</v>
+      </c>
+      <c r="CF15" s="11"/>
+      <c r="CG15" s="11"/>
       <c r="CH15" s="9"/>
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
@@ -33243,11 +32644,13 @@
         <v>1.0127314814814814</v>
       </c>
       <c r="CD16" s="10">
-        <v>1.1647727272727337</v>
-      </c>
-      <c r="CE16" s="9"/>
-      <c r="CF16" s="9"/>
-      <c r="CG16" s="9"/>
+        <v>1.0511363636363604</v>
+      </c>
+      <c r="CE16" s="11">
+        <v>0.61815116605789422</v>
+      </c>
+      <c r="CF16" s="11"/>
+      <c r="CG16" s="11"/>
       <c r="CH16" s="9"/>
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
@@ -33343,10 +32746,10 @@
       <c r="CA17" s="8"/>
       <c r="CB17" s="8"/>
       <c r="CC17" s="8"/>
-      <c r="CD17" s="10"/>
-      <c r="CE17" s="9"/>
-      <c r="CF17" s="9"/>
-      <c r="CG17" s="9"/>
+      <c r="CD17" s="8"/>
+      <c r="CE17" s="8"/>
+      <c r="CF17" s="11"/>
+      <c r="CG17" s="11"/>
       <c r="CH17" s="9"/>
       <c r="CI17" s="9"/>
       <c r="CJ17" s="9"/>
@@ -33603,11 +33006,13 @@
         <v>4.3032786885246077</v>
       </c>
       <c r="CD18" s="10">
-        <v>1.546391752577317</v>
-      </c>
-      <c r="CE18" s="9"/>
-      <c r="CF18" s="9"/>
-      <c r="CG18" s="9"/>
+        <v>1.3745704467353903</v>
+      </c>
+      <c r="CE18" s="11">
+        <v>1.4399999999999977</v>
+      </c>
+      <c r="CF18" s="11"/>
+      <c r="CG18" s="11"/>
       <c r="CH18" s="9"/>
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
@@ -33866,9 +33271,11 @@
       <c r="CD19" s="10">
         <v>1.3163972286374108</v>
       </c>
-      <c r="CE19" s="9"/>
-      <c r="CF19" s="9"/>
-      <c r="CG19" s="9"/>
+      <c r="CE19" s="11">
+        <v>2.9071087894617333</v>
+      </c>
+      <c r="CF19" s="11"/>
+      <c r="CG19" s="11"/>
       <c r="CH19" s="9"/>
       <c r="CI19" s="9"/>
       <c r="CJ19" s="9"/>
@@ -34125,11 +33532,13 @@
         <v>-0.23496240601503759</v>
       </c>
       <c r="CD20" s="10">
-        <v>-0.33458803847761731</v>
-      </c>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
+        <v>-1.4638226683396069</v>
+      </c>
+      <c r="CE20" s="11">
+        <v>-1.2058212058212081</v>
+      </c>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
       <c r="CH20" s="9"/>
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
@@ -34388,9 +33797,11 @@
       <c r="CD21" s="10">
         <v>1.882845188284531</v>
       </c>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
+      <c r="CE21" s="11">
+        <v>1.6589250165892504</v>
+      </c>
+      <c r="CF21" s="11"/>
+      <c r="CG21" s="11"/>
       <c r="CH21" s="9"/>
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
@@ -34647,11 +34058,13 @@
         <v>0.95818815331009943</v>
       </c>
       <c r="CD22" s="10">
-        <v>1.7556693489392874</v>
-      </c>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
+        <v>1.3167520117044706</v>
+      </c>
+      <c r="CE22" s="11">
+        <v>2.9871977240398415</v>
+      </c>
+      <c r="CF22" s="11"/>
+      <c r="CG22" s="11"/>
       <c r="CH22" s="9"/>
       <c r="CI22" s="9"/>
       <c r="CJ22" s="9"/>
@@ -34910,9 +34323,11 @@
       <c r="CD23" s="10">
         <v>-1.1002444987775128</v>
       </c>
-      <c r="CE23" s="9"/>
-      <c r="CF23" s="9"/>
-      <c r="CG23" s="9"/>
+      <c r="CE23" s="11">
+        <v>-1.0902483343428122</v>
+      </c>
+      <c r="CF23" s="11"/>
+      <c r="CG23" s="11"/>
       <c r="CH23" s="9"/>
       <c r="CI23" s="9"/>
       <c r="CJ23" s="9"/>
@@ -35171,9 +34586,11 @@
       <c r="CD24" s="10">
         <v>0.19762845849801247</v>
       </c>
-      <c r="CE24" s="9"/>
-      <c r="CF24" s="9"/>
-      <c r="CG24" s="9"/>
+      <c r="CE24" s="11">
+        <v>0.31928480204340454</v>
+      </c>
+      <c r="CF24" s="11"/>
+      <c r="CG24" s="11"/>
       <c r="CH24" s="9"/>
       <c r="CI24" s="9"/>
       <c r="CJ24" s="9"/>
@@ -35432,9 +34849,11 @@
       <c r="CD25" s="10">
         <v>1.4239333381965937E-14</v>
       </c>
-      <c r="CE25" s="9"/>
-      <c r="CF25" s="9"/>
-      <c r="CG25" s="9"/>
+      <c r="CE25" s="11">
+        <v>-0.38610038610037789</v>
+      </c>
+      <c r="CF25" s="11"/>
+      <c r="CG25" s="11"/>
       <c r="CH25" s="9"/>
       <c r="CI25" s="9"/>
       <c r="CJ25" s="9"/>
@@ -35693,9 +35112,11 @@
       <c r="CD26" s="10">
         <v>3.2085561497326176</v>
       </c>
-      <c r="CE26" s="9"/>
-      <c r="CF26" s="9"/>
-      <c r="CG26" s="9"/>
+      <c r="CE26" s="11">
+        <v>2.5944469731452058</v>
+      </c>
+      <c r="CF26" s="11"/>
+      <c r="CG26" s="11"/>
       <c r="CH26" s="9"/>
       <c r="CI26" s="9"/>
       <c r="CJ26" s="9"/>
@@ -35954,9 +35375,11 @@
       <c r="CD27" s="10">
         <v>0.63775510204081631</v>
       </c>
-      <c r="CE27" s="9"/>
-      <c r="CF27" s="9"/>
-      <c r="CG27" s="9"/>
+      <c r="CE27" s="11">
+        <v>0.52974735126323669</v>
+      </c>
+      <c r="CF27" s="11"/>
+      <c r="CG27" s="11"/>
       <c r="CH27" s="9"/>
       <c r="CI27" s="9"/>
       <c r="CJ27" s="9"/>
@@ -36213,11 +35636,13 @@
         <v>4.5062695924765119</v>
       </c>
       <c r="CD28" s="10">
-        <v>1.9601644008852319</v>
-      </c>
-      <c r="CE28" s="9"/>
-      <c r="CF28" s="9"/>
-      <c r="CG28" s="9"/>
+        <v>1.8653177363262832</v>
+      </c>
+      <c r="CE28" s="11">
+        <v>2.2824102251978089</v>
+      </c>
+      <c r="CF28" s="11"/>
+      <c r="CG28" s="11"/>
       <c r="CH28" s="9"/>
       <c r="CI28" s="9"/>
       <c r="CJ28" s="9"/>
@@ -36476,9 +35901,11 @@
       <c r="CD29" s="10">
         <v>-0.55555555555555269</v>
       </c>
-      <c r="CE29" s="9"/>
-      <c r="CF29" s="9"/>
-      <c r="CG29" s="9"/>
+      <c r="CE29" s="11">
+        <v>-0.14097744360902789</v>
+      </c>
+      <c r="CF29" s="11"/>
+      <c r="CG29" s="11"/>
       <c r="CH29" s="9"/>
       <c r="CI29" s="9"/>
       <c r="CJ29" s="9"/>
@@ -36737,9 +36164,11 @@
       <c r="CD30" s="10">
         <v>1.4018691588785046</v>
       </c>
-      <c r="CE30" s="9"/>
-      <c r="CF30" s="9"/>
-      <c r="CG30" s="9"/>
+      <c r="CE30" s="11">
+        <v>0.64516129032258329</v>
+      </c>
+      <c r="CF30" s="11"/>
+      <c r="CG30" s="11"/>
       <c r="CH30" s="9"/>
       <c r="CI30" s="9"/>
       <c r="CJ30" s="9"/>
@@ -36835,10 +36264,10 @@
       <c r="CA31" s="8"/>
       <c r="CB31" s="8"/>
       <c r="CC31" s="8"/>
-      <c r="CD31" s="10"/>
-      <c r="CE31" s="9"/>
-      <c r="CF31" s="9"/>
-      <c r="CG31" s="9"/>
+      <c r="CD31" s="8"/>
+      <c r="CE31" s="8"/>
+      <c r="CF31" s="11"/>
+      <c r="CG31" s="11"/>
       <c r="CH31" s="9"/>
       <c r="CI31" s="9"/>
       <c r="CJ31" s="9"/>
@@ -37097,9 +36526,11 @@
       <c r="CD32" s="10">
         <v>1.2048192771084338</v>
       </c>
-      <c r="CE32" s="9"/>
-      <c r="CF32" s="9"/>
-      <c r="CG32" s="9"/>
+      <c r="CE32" s="11">
+        <v>1.1210762331838564</v>
+      </c>
+      <c r="CF32" s="11"/>
+      <c r="CG32" s="11"/>
       <c r="CH32" s="9"/>
       <c r="CI32" s="9"/>
       <c r="CJ32" s="9"/>
@@ -37356,11 +36787,13 @@
         <v>2.0884520884520743</v>
       </c>
       <c r="CD33" s="10">
-        <v>1.0845986984815774</v>
-      </c>
-      <c r="CE33" s="9"/>
-      <c r="CF33" s="9"/>
-      <c r="CG33" s="9"/>
+        <v>1.3015184381778928</v>
+      </c>
+      <c r="CE33" s="11">
+        <v>1.7838405036726006</v>
+      </c>
+      <c r="CF33" s="11"/>
+      <c r="CG33" s="11"/>
       <c r="CH33" s="9"/>
       <c r="CI33" s="9"/>
       <c r="CJ33" s="9"/>
@@ -37617,11 +37050,13 @@
         <v>4.5385779122541612</v>
       </c>
       <c r="CD34" s="10">
-        <v>4.5811518324607325</v>
-      </c>
-      <c r="CE34" s="9"/>
-      <c r="CF34" s="9"/>
-      <c r="CG34" s="9"/>
+        <v>1.8324607329842819</v>
+      </c>
+      <c r="CE34" s="11">
+        <v>-1.4248704663212546</v>
+      </c>
+      <c r="CF34" s="11"/>
+      <c r="CG34" s="11"/>
       <c r="CH34" s="9"/>
       <c r="CI34" s="9"/>
       <c r="CJ34" s="9"/>
@@ -37878,11 +37313,13 @@
         <v>4.0935672514619839</v>
       </c>
       <c r="CD35" s="10">
-        <v>-3.8461538461538547</v>
-      </c>
-      <c r="CE35" s="9"/>
-      <c r="CF35" s="9"/>
-      <c r="CG35" s="9"/>
+        <v>-3.6324786324786533</v>
+      </c>
+      <c r="CE35" s="11">
+        <v>-3.4482758620689711</v>
+      </c>
+      <c r="CF35" s="11"/>
+      <c r="CG35" s="11"/>
       <c r="CH35" s="9"/>
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
@@ -38141,9 +37578,11 @@
       <c r="CD36" s="10">
         <v>-0.1019714479945654</v>
       </c>
-      <c r="CE36" s="9"/>
-      <c r="CF36" s="9"/>
-      <c r="CG36" s="9"/>
+      <c r="CE36" s="11">
+        <v>-1.1176653213287868</v>
+      </c>
+      <c r="CF36" s="11"/>
+      <c r="CG36" s="11"/>
       <c r="CH36" s="9"/>
       <c r="CI36" s="9"/>
       <c r="CJ36" s="9"/>
@@ -38400,11 +37839,13 @@
         <v>-1.1283497884344307</v>
       </c>
       <c r="CD37" s="10">
-        <v>-2.3166023166023129</v>
-      </c>
-      <c r="CE37" s="9"/>
-      <c r="CF37" s="9"/>
-      <c r="CG37" s="9"/>
+        <v>-2.1879021879021914</v>
+      </c>
+      <c r="CE37" s="11">
+        <v>-1.3871374527112337</v>
+      </c>
+      <c r="CF37" s="11"/>
+      <c r="CG37" s="11"/>
       <c r="CH37" s="9"/>
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
@@ -38663,9 +38104,11 @@
       <c r="CD38" s="10">
         <v>0.71045153141774553</v>
       </c>
-      <c r="CE38" s="9"/>
-      <c r="CF38" s="9"/>
-      <c r="CG38" s="9"/>
+      <c r="CE38" s="11">
+        <v>0.58104886769963904</v>
+      </c>
+      <c r="CF38" s="11"/>
+      <c r="CG38" s="11"/>
       <c r="CH38" s="9"/>
       <c r="CI38" s="9"/>
       <c r="CJ38" s="9"/>
@@ -38924,9 +38367,11 @@
       <c r="CD39" s="10">
         <v>-0.36188178528348774</v>
       </c>
-      <c r="CE39" s="9"/>
-      <c r="CF39" s="9"/>
-      <c r="CG39" s="9"/>
+      <c r="CE39" s="11">
+        <v>-0.11816838995568013</v>
+      </c>
+      <c r="CF39" s="11"/>
+      <c r="CG39" s="11"/>
       <c r="CH39" s="9"/>
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
@@ -39185,9 +38630,11 @@
       <c r="CD40" s="10">
         <v>0.54945054945055727</v>
       </c>
-      <c r="CE40" s="9"/>
-      <c r="CF40" s="9"/>
-      <c r="CG40" s="9"/>
+      <c r="CE40" s="11">
+        <v>1.0389610389610353</v>
+      </c>
+      <c r="CF40" s="11"/>
+      <c r="CG40" s="11"/>
       <c r="CH40" s="9"/>
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
@@ -39444,11 +38891,13 @@
         <v>1.9236290554120146</v>
       </c>
       <c r="CD41" s="10">
-        <v>0.95115681233932869</v>
-      </c>
-      <c r="CE41" s="9"/>
-      <c r="CF41" s="9"/>
-      <c r="CG41" s="9"/>
+        <v>0.8226221079691487</v>
+      </c>
+      <c r="CE41" s="11">
+        <v>2.5589563472152506</v>
+      </c>
+      <c r="CF41" s="11"/>
+      <c r="CG41" s="11"/>
       <c r="CH41" s="9"/>
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
@@ -39707,9 +39156,11 @@
       <c r="CD42" s="10">
         <v>-0.69060773480662974</v>
       </c>
-      <c r="CE42" s="9"/>
-      <c r="CF42" s="9"/>
-      <c r="CG42" s="9"/>
+      <c r="CE42" s="11">
+        <v>-0.60362173038229761</v>
+      </c>
+      <c r="CF42" s="11"/>
+      <c r="CG42" s="11"/>
       <c r="CH42" s="9"/>
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
@@ -39966,11 +39417,13 @@
         <v>1.0357815442561285</v>
       </c>
       <c r="CD43" s="10">
-        <v>-2.9814665592264329</v>
-      </c>
-      <c r="CE43" s="9"/>
-      <c r="CF43" s="9"/>
-      <c r="CG43" s="9"/>
+        <v>-1.3698630136986325</v>
+      </c>
+      <c r="CE43" s="11">
+        <v>0.93323761665471017</v>
+      </c>
+      <c r="CF43" s="11"/>
+      <c r="CG43" s="11"/>
       <c r="CH43" s="9"/>
       <c r="CI43" s="9"/>
       <c r="CJ43" s="9"/>
@@ -40227,11 +39680,13 @@
         <v>2.3508137432188065</v>
       </c>
       <c r="CD44" s="10">
-        <v>0.65809153454980218</v>
-      </c>
-      <c r="CE44" s="9"/>
-      <c r="CF44" s="9"/>
-      <c r="CG44" s="9"/>
+        <v>0.71791803769069018</v>
+      </c>
+      <c r="CE44" s="11">
+        <v>0.81704114385758797</v>
+      </c>
+      <c r="CF44" s="11"/>
+      <c r="CG44" s="11"/>
       <c r="CH44" s="9"/>
       <c r="CI44" s="9"/>
       <c r="CJ44" s="9"/>
@@ -40490,9 +39945,11 @@
       <c r="CD45" s="10">
         <v>-0.7575757575757549</v>
       </c>
-      <c r="CE45" s="9"/>
-      <c r="CF45" s="9"/>
-      <c r="CG45" s="9"/>
+      <c r="CE45" s="11">
+        <v>-0.71174377224199037</v>
+      </c>
+      <c r="CF45" s="11"/>
+      <c r="CG45" s="11"/>
       <c r="CH45" s="9"/>
       <c r="CI45" s="9"/>
       <c r="CJ45" s="9"/>
@@ -40749,11 +40206,13 @@
         <v>0.86206896551723</v>
       </c>
       <c r="CD46" s="10">
-        <v>0.67319461444308093</v>
-      </c>
-      <c r="CE46" s="9"/>
-      <c r="CF46" s="9"/>
-      <c r="CG46" s="9"/>
+        <v>0.61199510403916768</v>
+      </c>
+      <c r="CE46" s="11">
+        <v>1.386377335744414</v>
+      </c>
+      <c r="CF46" s="11"/>
+      <c r="CG46" s="11"/>
       <c r="CH46" s="9"/>
       <c r="CI46" s="9"/>
       <c r="CJ46" s="9"/>
@@ -41010,11 +40469,13 @@
         <v>-0.34602076124567965</v>
       </c>
       <c r="CD47" s="10">
-        <v>-0.82644628099172779</v>
-      </c>
-      <c r="CE47" s="9"/>
-      <c r="CF47" s="9"/>
-      <c r="CG47" s="9"/>
+        <v>-0.2754820936638962</v>
+      </c>
+      <c r="CE47" s="11">
+        <v>0.26455026455026831</v>
+      </c>
+      <c r="CF47" s="11"/>
+      <c r="CG47" s="11"/>
       <c r="CH47" s="9"/>
       <c r="CI47" s="9"/>
       <c r="CJ47" s="9"/>
@@ -41271,11 +40732,13 @@
         <v>1.2134583563154928</v>
       </c>
       <c r="CD48" s="10">
-        <v>0.919651500484016</v>
-      </c>
-      <c r="CE48" s="9"/>
-      <c r="CF48" s="9"/>
-      <c r="CG48" s="9"/>
+        <v>0.82284607938042598</v>
+      </c>
+      <c r="CE48" s="11">
+        <v>1.092636579572452</v>
+      </c>
+      <c r="CF48" s="11"/>
+      <c r="CG48" s="11"/>
       <c r="CH48" s="9"/>
       <c r="CI48" s="9"/>
       <c r="CJ48" s="9"/>
@@ -41534,9 +40997,11 @@
       <c r="CD49" s="10">
         <v>0.32982134677051184</v>
       </c>
-      <c r="CE49" s="9"/>
-      <c r="CF49" s="9"/>
-      <c r="CG49" s="9"/>
+      <c r="CE49" s="11">
+        <v>0.4847096148761787</v>
+      </c>
+      <c r="CF49" s="11"/>
+      <c r="CG49" s="11"/>
       <c r="CH49" s="9"/>
       <c r="CI49" s="9"/>
       <c r="CJ49" s="9"/>
@@ -41793,11 +41258,13 @@
         <v>-2.0853080568720408</v>
       </c>
       <c r="CD50" s="10">
-        <v>0.24429967426709867</v>
-      </c>
-      <c r="CE50" s="9"/>
-      <c r="CF50" s="9"/>
-      <c r="CG50" s="9"/>
+        <v>-8.1433224755707273E-2</v>
+      </c>
+      <c r="CE50" s="11">
+        <v>0.31520882584712817</v>
+      </c>
+      <c r="CF50" s="11"/>
+      <c r="CG50" s="11"/>
       <c r="CH50" s="9"/>
       <c r="CI50" s="9"/>
       <c r="CJ50" s="9"/>
@@ -42056,9 +41523,11 @@
       <c r="CD51" s="10">
         <v>-3.3846153846153779</v>
       </c>
-      <c r="CE51" s="9"/>
-      <c r="CF51" s="9"/>
-      <c r="CG51" s="9"/>
+      <c r="CE51" s="11">
+        <v>-5.3824362606232254</v>
+      </c>
+      <c r="CF51" s="11"/>
+      <c r="CG51" s="11"/>
       <c r="CH51" s="9"/>
       <c r="CI51" s="9"/>
       <c r="CJ51" s="9"/>
@@ -42315,11 +41784,13 @@
         <v>-1.1490125673249509</v>
       </c>
       <c r="CD52" s="10">
-        <v>-1.4344915524386357</v>
-      </c>
-      <c r="CE52" s="9"/>
-      <c r="CF52" s="9"/>
-      <c r="CG52" s="9"/>
+        <v>-3.4427797258527293</v>
+      </c>
+      <c r="CE52" s="11">
+        <v>-1.9873817034700352</v>
+      </c>
+      <c r="CF52" s="11"/>
+      <c r="CG52" s="11"/>
       <c r="CH52" s="9"/>
       <c r="CI52" s="9"/>
       <c r="CJ52" s="9"/>
@@ -42576,11 +42047,13 @@
         <v>0.75690115761354282</v>
       </c>
       <c r="CD53" s="10">
-        <v>-1.4297385620914917</v>
-      </c>
-      <c r="CE53" s="9"/>
-      <c r="CF53" s="9"/>
-      <c r="CG53" s="9"/>
+        <v>-1.2254901960784199</v>
+      </c>
+      <c r="CE53" s="11">
+        <v>-0.52651372696501597</v>
+      </c>
+      <c r="CF53" s="11"/>
+      <c r="CG53" s="11"/>
       <c r="CH53" s="9"/>
       <c r="CI53" s="9"/>
       <c r="CJ53" s="9"/>
@@ -42839,9 +42312,11 @@
       <c r="CD54" s="10">
         <v>-1.2861736334405212</v>
       </c>
-      <c r="CE54" s="9"/>
-      <c r="CF54" s="9"/>
-      <c r="CG54" s="9"/>
+      <c r="CE54" s="11">
+        <v>-0.9202453987729976</v>
+      </c>
+      <c r="CF54" s="11"/>
+      <c r="CG54" s="11"/>
       <c r="CH54" s="9"/>
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
@@ -43098,11 +42573,13 @@
         <v>-1.3142174432497113</v>
       </c>
       <c r="CD55" s="10">
-        <v>-2.3073146784487073</v>
-      </c>
-      <c r="CE55" s="9"/>
-      <c r="CF55" s="9"/>
-      <c r="CG55" s="9"/>
+        <v>-2.503681885125181</v>
+      </c>
+      <c r="CE55" s="11">
+        <v>-0.13818516812528003</v>
+      </c>
+      <c r="CF55" s="11"/>
+      <c r="CG55" s="11"/>
       <c r="CH55" s="9"/>
       <c r="CI55" s="9"/>
       <c r="CJ55" s="9"/>
@@ -43361,9 +42838,11 @@
       <c r="CD56" s="10">
         <v>-0.33670033670034144</v>
       </c>
-      <c r="CE56" s="9"/>
-      <c r="CF56" s="9"/>
-      <c r="CG56" s="9"/>
+      <c r="CE56" s="11">
+        <v>-0.64102564102563875</v>
+      </c>
+      <c r="CF56" s="11"/>
+      <c r="CG56" s="11"/>
       <c r="CH56" s="9"/>
       <c r="CI56" s="9"/>
       <c r="CJ56" s="9"/>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="5" r:id="rId1"/>
@@ -856,7 +856,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,11 +1562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CW11" sqref="CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,6 +1875,9 @@
       <c r="CT4" s="4">
         <v>43831</v>
       </c>
+      <c r="CU4" s="4">
+        <v>43862</v>
+      </c>
     </row>
     <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2171,7 +2174,9 @@
       <c r="CT5" s="6">
         <v>10568.6</v>
       </c>
-      <c r="CU5" s="6"/>
+      <c r="CU5" s="6">
+        <v>10978.3</v>
+      </c>
       <c r="CV5" s="6"/>
       <c r="CW5" s="6"/>
       <c r="CX5" s="6"/>
@@ -2712,9 +2717,11 @@
         <v>169.3</v>
       </c>
       <c r="CT6" s="6">
-        <v>166.60000000000002</v>
-      </c>
-      <c r="CU6" s="6"/>
+        <v>166.5</v>
+      </c>
+      <c r="CU6" s="6">
+        <v>169.6</v>
+      </c>
       <c r="CV6" s="6"/>
       <c r="CW6" s="6"/>
       <c r="CX6" s="6"/>
@@ -3255,9 +3262,11 @@
         <v>29.900000000000002</v>
       </c>
       <c r="CT7" s="6">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="CU7" s="6"/>
+        <v>29.3</v>
+      </c>
+      <c r="CU7" s="6">
+        <v>30.599999999999998</v>
+      </c>
       <c r="CV7" s="6"/>
       <c r="CW7" s="6"/>
       <c r="CX7" s="6"/>
@@ -3798,9 +3807,11 @@
         <v>209.7</v>
       </c>
       <c r="CT8" s="6">
-        <v>206.10000000000002</v>
-      </c>
-      <c r="CU8" s="6"/>
+        <v>206.2</v>
+      </c>
+      <c r="CU8" s="6">
+        <v>212.7</v>
+      </c>
       <c r="CV8" s="6"/>
       <c r="CW8" s="6"/>
       <c r="CX8" s="6"/>
@@ -4343,7 +4354,9 @@
       <c r="CT9" s="6">
         <v>98.899999999999991</v>
       </c>
-      <c r="CU9" s="6"/>
+      <c r="CU9" s="6">
+        <v>101.1</v>
+      </c>
       <c r="CV9" s="6"/>
       <c r="CW9" s="6"/>
       <c r="CX9" s="6"/>
@@ -4884,9 +4897,11 @@
         <v>1298.6999999999998</v>
       </c>
       <c r="CT10" s="6">
-        <v>1275.5999999999999</v>
-      </c>
-      <c r="CU10" s="6"/>
+        <v>1277.9000000000001</v>
+      </c>
+      <c r="CU10" s="6">
+        <v>1293.9000000000001</v>
+      </c>
       <c r="CV10" s="6"/>
       <c r="CW10" s="6"/>
       <c r="CX10" s="6"/>
@@ -5427,9 +5442,11 @@
         <v>231.6</v>
       </c>
       <c r="CT11" s="6">
-        <v>219.8</v>
-      </c>
-      <c r="CU11" s="6"/>
+        <v>219.3</v>
+      </c>
+      <c r="CU11" s="6">
+        <v>232.3</v>
+      </c>
       <c r="CV11" s="6"/>
       <c r="CW11" s="6"/>
       <c r="CX11" s="6"/>
@@ -5972,7 +5989,9 @@
       <c r="CT12" s="6">
         <v>122.6</v>
       </c>
-      <c r="CU12" s="6"/>
+      <c r="CU12" s="6">
+        <v>128.80000000000001</v>
+      </c>
       <c r="CV12" s="6"/>
       <c r="CW12" s="6"/>
       <c r="CX12" s="6"/>
@@ -6513,9 +6532,11 @@
         <v>37.099999999999994</v>
       </c>
       <c r="CT13" s="6">
-        <v>35.1</v>
-      </c>
-      <c r="CU13" s="6"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="CU13" s="6">
+        <v>35.799999999999997</v>
+      </c>
       <c r="CV13" s="6"/>
       <c r="CW13" s="6"/>
       <c r="CX13" s="6"/>
@@ -6864,7 +6885,7 @@
       <c r="CR14" s="8"/>
       <c r="CS14" s="8"/>
       <c r="CT14" s="8"/>
-      <c r="CU14" s="6"/>
+      <c r="CU14" s="8"/>
       <c r="CV14" s="6"/>
       <c r="CW14" s="6"/>
       <c r="CX14" s="6"/>
@@ -7405,9 +7426,11 @@
         <v>510.5</v>
       </c>
       <c r="CT15" s="6">
-        <v>510.29999999999995</v>
-      </c>
-      <c r="CU15" s="6"/>
+        <v>510.2</v>
+      </c>
+      <c r="CU15" s="6">
+        <v>519.1</v>
+      </c>
       <c r="CV15" s="6"/>
       <c r="CW15" s="6"/>
       <c r="CX15" s="6"/>
@@ -7948,9 +7971,11 @@
         <v>349.6</v>
       </c>
       <c r="CT16" s="6">
-        <v>344.9</v>
-      </c>
-      <c r="CU16" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="CU16" s="6">
+        <v>350.9</v>
+      </c>
       <c r="CV16" s="6"/>
       <c r="CW16" s="6"/>
       <c r="CX16" s="6"/>
@@ -8299,7 +8324,7 @@
       <c r="CR17" s="8"/>
       <c r="CS17" s="8"/>
       <c r="CT17" s="8"/>
-      <c r="CU17" s="6"/>
+      <c r="CU17" s="8"/>
       <c r="CV17" s="6"/>
       <c r="CW17" s="6"/>
       <c r="CX17" s="6"/>
@@ -8840,9 +8865,11 @@
         <v>63.9</v>
       </c>
       <c r="CT18" s="6">
-        <v>60.900000000000006</v>
-      </c>
-      <c r="CU18" s="6"/>
+        <v>60.699999999999996</v>
+      </c>
+      <c r="CU18" s="6">
+        <v>63.7</v>
+      </c>
       <c r="CV18" s="6"/>
       <c r="CW18" s="6"/>
       <c r="CX18" s="6"/>
@@ -9385,7 +9412,9 @@
       <c r="CT19" s="6">
         <v>437.3</v>
       </c>
-      <c r="CU19" s="6"/>
+      <c r="CU19" s="6">
+        <v>457.6</v>
+      </c>
       <c r="CV19" s="6"/>
       <c r="CW19" s="6"/>
       <c r="CX19" s="6"/>
@@ -9926,9 +9955,11 @@
         <v>243.3</v>
       </c>
       <c r="CT20" s="6">
-        <v>233.7</v>
-      </c>
-      <c r="CU20" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="CU20" s="6">
+        <v>243.7</v>
+      </c>
       <c r="CV20" s="6"/>
       <c r="CW20" s="6"/>
       <c r="CX20" s="6"/>
@@ -10469,9 +10500,11 @@
         <v>149.10000000000002</v>
       </c>
       <c r="CT21" s="6">
-        <v>144.10000000000002</v>
-      </c>
-      <c r="CU21" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="CU21" s="6">
+        <v>150</v>
+      </c>
       <c r="CV21" s="6"/>
       <c r="CW21" s="6"/>
       <c r="CX21" s="6"/>
@@ -11012,9 +11045,11 @@
         <v>141.1</v>
       </c>
       <c r="CT22" s="6">
-        <v>134.1</v>
-      </c>
-      <c r="CU22" s="6"/>
+        <v>134.4</v>
+      </c>
+      <c r="CU22" s="6">
+        <v>140.5</v>
+      </c>
       <c r="CV22" s="6"/>
       <c r="CW22" s="6"/>
       <c r="CX22" s="6"/>
@@ -11557,7 +11592,9 @@
       <c r="CT23" s="6">
         <v>159.9</v>
       </c>
-      <c r="CU23" s="6"/>
+      <c r="CU23" s="6">
+        <v>164.3</v>
+      </c>
       <c r="CV23" s="6"/>
       <c r="CW23" s="6"/>
       <c r="CX23" s="6"/>
@@ -12100,7 +12137,9 @@
       <c r="CT24" s="6">
         <v>150.19999999999999</v>
       </c>
-      <c r="CU24" s="6"/>
+      <c r="CU24" s="6">
+        <v>155.6</v>
+      </c>
       <c r="CV24" s="6"/>
       <c r="CW24" s="6"/>
       <c r="CX24" s="6"/>
@@ -12643,7 +12682,9 @@
       <c r="CT25" s="6">
         <v>49.599999999999994</v>
       </c>
-      <c r="CU25" s="6"/>
+      <c r="CU25" s="6">
+        <v>51.1</v>
+      </c>
       <c r="CV25" s="6"/>
       <c r="CW25" s="6"/>
       <c r="CX25" s="6"/>
@@ -13186,7 +13227,9 @@
       <c r="CT26" s="6">
         <v>198.4</v>
       </c>
-      <c r="CU26" s="6"/>
+      <c r="CU26" s="6">
+        <v>212.9</v>
+      </c>
       <c r="CV26" s="6"/>
       <c r="CW26" s="6"/>
       <c r="CX26" s="6"/>
@@ -13729,7 +13772,9 @@
       <c r="CT27" s="6">
         <v>235.3</v>
       </c>
-      <c r="CU27" s="6"/>
+      <c r="CU27" s="6">
+        <v>249.5</v>
+      </c>
       <c r="CV27" s="6"/>
       <c r="CW27" s="6"/>
       <c r="CX27" s="6"/>
@@ -14270,9 +14315,11 @@
         <v>335.4</v>
       </c>
       <c r="CT28" s="6">
-        <v>314</v>
-      </c>
-      <c r="CU28" s="6"/>
+        <v>315.39999999999998</v>
+      </c>
+      <c r="CU28" s="6">
+        <v>332.20000000000005</v>
+      </c>
       <c r="CV28" s="6"/>
       <c r="CW28" s="6"/>
       <c r="CX28" s="6"/>
@@ -14813,9 +14860,11 @@
         <v>209</v>
       </c>
       <c r="CT29" s="6">
-        <v>209</v>
-      </c>
-      <c r="CU29" s="6"/>
+        <v>209.10000000000002</v>
+      </c>
+      <c r="CU29" s="6">
+        <v>214.5</v>
+      </c>
       <c r="CV29" s="6"/>
       <c r="CW29" s="6"/>
       <c r="CX29" s="6"/>
@@ -15358,7 +15407,9 @@
       <c r="CT30" s="6">
         <v>104.4</v>
       </c>
-      <c r="CU30" s="6"/>
+      <c r="CU30" s="6">
+        <v>108</v>
+      </c>
       <c r="CV30" s="6"/>
       <c r="CW30" s="6"/>
       <c r="CX30" s="6"/>
@@ -15707,7 +15758,7 @@
       <c r="CR31" s="8"/>
       <c r="CS31" s="8"/>
       <c r="CT31" s="8"/>
-      <c r="CU31" s="6"/>
+      <c r="CU31" s="8"/>
       <c r="CV31" s="6"/>
       <c r="CW31" s="6"/>
       <c r="CX31" s="6"/>
@@ -16250,7 +16301,9 @@
       <c r="CT32" s="6">
         <v>43.599999999999994</v>
       </c>
-      <c r="CU32" s="6"/>
+      <c r="CU32" s="6">
+        <v>45.1</v>
+      </c>
       <c r="CV32" s="6"/>
       <c r="CW32" s="6"/>
       <c r="CX32" s="6"/>
@@ -16793,7 +16846,9 @@
       <c r="CT33" s="6">
         <v>93.8</v>
       </c>
-      <c r="CU33" s="6"/>
+      <c r="CU33" s="6">
+        <v>95</v>
+      </c>
       <c r="CV33" s="6"/>
       <c r="CW33" s="6"/>
       <c r="CX33" s="6"/>
@@ -17336,7 +17391,9 @@
       <c r="CT34" s="6">
         <v>74.8</v>
       </c>
-      <c r="CU34" s="6"/>
+      <c r="CU34" s="6">
+        <v>80.900000000000006</v>
+      </c>
       <c r="CV34" s="6"/>
       <c r="CW34" s="6"/>
       <c r="CX34" s="6"/>
@@ -17877,9 +17934,11 @@
         <v>49.9</v>
       </c>
       <c r="CT35" s="6">
-        <v>45.1</v>
-      </c>
-      <c r="CU35" s="6"/>
+        <v>44.9</v>
+      </c>
+      <c r="CU35" s="6">
+        <v>49.9</v>
+      </c>
       <c r="CV35" s="6"/>
       <c r="CW35" s="6"/>
       <c r="CX35" s="6"/>
@@ -18422,7 +18481,9 @@
       <c r="CT36" s="6">
         <v>314.89999999999998</v>
       </c>
-      <c r="CU36" s="6"/>
+      <c r="CU36" s="6">
+        <v>323.3</v>
+      </c>
       <c r="CV36" s="6"/>
       <c r="CW36" s="6"/>
       <c r="CX36" s="6"/>
@@ -18963,9 +19024,11 @@
         <v>79.400000000000006</v>
       </c>
       <c r="CT37" s="6">
-        <v>75.3</v>
-      </c>
-      <c r="CU37" s="6"/>
+        <v>75.400000000000006</v>
+      </c>
+      <c r="CU37" s="6">
+        <v>80.5</v>
+      </c>
       <c r="CV37" s="6"/>
       <c r="CW37" s="6"/>
       <c r="CX37" s="6"/>
@@ -19508,7 +19571,9 @@
       <c r="CT38" s="6">
         <v>641.1</v>
       </c>
-      <c r="CU38" s="6"/>
+      <c r="CU38" s="6">
+        <v>668.4</v>
+      </c>
       <c r="CV38" s="6"/>
       <c r="CW38" s="6"/>
       <c r="CX38" s="6"/>
@@ -20051,7 +20116,9 @@
       <c r="CT39" s="6">
         <v>329.9</v>
       </c>
-      <c r="CU39" s="6"/>
+      <c r="CU39" s="6">
+        <v>337.9</v>
+      </c>
       <c r="CV39" s="6"/>
       <c r="CW39" s="6"/>
       <c r="CX39" s="6"/>
@@ -20594,7 +20661,9 @@
       <c r="CT40" s="6">
         <v>38.200000000000003</v>
       </c>
-      <c r="CU40" s="6"/>
+      <c r="CU40" s="6">
+        <v>39</v>
+      </c>
       <c r="CV40" s="6"/>
       <c r="CW40" s="6"/>
       <c r="CX40" s="6"/>
@@ -21135,9 +21204,11 @@
         <v>401.5</v>
       </c>
       <c r="CT41" s="6">
-        <v>374.2</v>
-      </c>
-      <c r="CU41" s="6"/>
+        <v>382.5</v>
+      </c>
+      <c r="CU41" s="6">
+        <v>402.79999999999995</v>
+      </c>
       <c r="CV41" s="6"/>
       <c r="CW41" s="6"/>
       <c r="CX41" s="6"/>
@@ -21680,7 +21751,9 @@
       <c r="CT42" s="6">
         <v>145.5</v>
       </c>
-      <c r="CU42" s="6"/>
+      <c r="CU42" s="6">
+        <v>153.30000000000001</v>
+      </c>
       <c r="CV42" s="6"/>
       <c r="CW42" s="6"/>
       <c r="CX42" s="6"/>
@@ -22221,9 +22294,11 @@
         <v>143.80000000000001</v>
       </c>
       <c r="CT43" s="6">
-        <v>141.20000000000002</v>
-      </c>
-      <c r="CU43" s="6"/>
+        <v>141.30000000000001</v>
+      </c>
+      <c r="CU43" s="6">
+        <v>144.9</v>
+      </c>
       <c r="CV43" s="6"/>
       <c r="CW43" s="6"/>
       <c r="CX43" s="6"/>
@@ -22764,9 +22839,11 @@
         <v>342</v>
       </c>
       <c r="CT44" s="6">
-        <v>325.5</v>
-      </c>
-      <c r="CU44" s="6"/>
+        <v>325.7</v>
+      </c>
+      <c r="CU44" s="6">
+        <v>346.09999999999997</v>
+      </c>
       <c r="CV44" s="6"/>
       <c r="CW44" s="6"/>
       <c r="CX44" s="6"/>
@@ -23309,7 +23386,9 @@
       <c r="CT45" s="6">
         <v>30.7</v>
       </c>
-      <c r="CU45" s="6"/>
+      <c r="CU45" s="6">
+        <v>30.8</v>
+      </c>
       <c r="CV45" s="6"/>
       <c r="CW45" s="6"/>
       <c r="CX45" s="6"/>
@@ -23850,9 +23929,11 @@
         <v>168.3</v>
       </c>
       <c r="CT46" s="6">
-        <v>165.10000000000002</v>
-      </c>
-      <c r="CU46" s="6"/>
+        <v>165.2</v>
+      </c>
+      <c r="CU46" s="6">
+        <v>167.8</v>
+      </c>
       <c r="CV46" s="6"/>
       <c r="CW46" s="6"/>
       <c r="CX46" s="6"/>
@@ -24393,9 +24474,11 @@
         <v>38</v>
       </c>
       <c r="CT47" s="6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="CU47" s="6"/>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="CU47" s="6">
+        <v>37.5</v>
+      </c>
       <c r="CV47" s="6"/>
       <c r="CW47" s="6"/>
       <c r="CX47" s="6"/>
@@ -24936,9 +25019,11 @@
         <v>206</v>
       </c>
       <c r="CT48" s="6">
-        <v>198.8</v>
-      </c>
-      <c r="CU48" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="CU48" s="6">
+        <v>206.8</v>
+      </c>
       <c r="CV48" s="6"/>
       <c r="CW48" s="6"/>
       <c r="CX48" s="6"/>
@@ -25479,9 +25564,11 @@
         <v>1152</v>
       </c>
       <c r="CT49" s="6">
-        <v>1125</v>
-      </c>
-      <c r="CU49" s="6"/>
+        <v>1121.3</v>
+      </c>
+      <c r="CU49" s="6">
+        <v>1150.2</v>
+      </c>
       <c r="CV49" s="6"/>
       <c r="CW49" s="6"/>
       <c r="CX49" s="6"/>
@@ -26022,9 +26109,11 @@
         <v>132.1</v>
       </c>
       <c r="CT50" s="6">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="CU50" s="6"/>
+        <v>129.30000000000001</v>
+      </c>
+      <c r="CU50" s="6">
+        <v>132.6</v>
+      </c>
       <c r="CV50" s="6"/>
       <c r="CW50" s="6"/>
       <c r="CX50" s="6"/>
@@ -26567,7 +26656,9 @@
       <c r="CT51" s="6">
         <v>32</v>
       </c>
-      <c r="CU51" s="6"/>
+      <c r="CU51" s="6">
+        <v>34.900000000000006</v>
+      </c>
       <c r="CV51" s="6"/>
       <c r="CW51" s="6"/>
       <c r="CX51" s="6"/>
@@ -27108,9 +27199,11 @@
         <v>321.5</v>
       </c>
       <c r="CT52" s="6">
-        <v>311.39999999999998</v>
-      </c>
-      <c r="CU52" s="6"/>
+        <v>311.5</v>
+      </c>
+      <c r="CU52" s="6">
+        <v>323.60000000000002</v>
+      </c>
       <c r="CV52" s="6"/>
       <c r="CW52" s="6"/>
       <c r="CX52" s="6"/>
@@ -27651,9 +27744,11 @@
         <v>263</v>
       </c>
       <c r="CT53" s="6">
-        <v>266.2</v>
-      </c>
-      <c r="CU53" s="6"/>
+        <v>268.39999999999998</v>
+      </c>
+      <c r="CU53" s="6">
+        <v>269.89999999999998</v>
+      </c>
       <c r="CV53" s="6"/>
       <c r="CW53" s="6"/>
       <c r="CX53" s="6"/>
@@ -28196,7 +28291,9 @@
       <c r="CT54" s="6">
         <v>61.099999999999994</v>
       </c>
-      <c r="CU54" s="6"/>
+      <c r="CU54" s="6">
+        <v>63.1</v>
+      </c>
       <c r="CV54" s="6"/>
       <c r="CW54" s="6"/>
       <c r="CX54" s="6"/>
@@ -28737,9 +28834,11 @@
         <v>219.5</v>
       </c>
       <c r="CT55" s="6">
-        <v>202.10000000000002</v>
-      </c>
-      <c r="CU55" s="6"/>
+        <v>202.39999999999998</v>
+      </c>
+      <c r="CU55" s="6">
+        <v>219.70000000000002</v>
+      </c>
       <c r="CV55" s="6"/>
       <c r="CW55" s="6"/>
       <c r="CX55" s="6"/>
@@ -29280,9 +29379,11 @@
         <v>31</v>
       </c>
       <c r="CT56" s="6">
-        <v>29.4</v>
-      </c>
-      <c r="CU56" s="6"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="CU56" s="6">
+        <v>30.4</v>
+      </c>
       <c r="CV56" s="6"/>
       <c r="CW56" s="6"/>
       <c r="CX56" s="6"/>
@@ -29540,11 +29641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="CC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CK53" sqref="CK53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29868,7 +29969,9 @@
       <c r="CH4" s="4">
         <v>43831</v>
       </c>
-      <c r="CI4" s="9"/>
+      <c r="CI4" s="4">
+        <v>43862</v>
+      </c>
       <c r="CJ4" s="9"/>
       <c r="CK4" s="9"/>
       <c r="CL4" s="9"/>
@@ -30137,7 +30240,9 @@
       <c r="CH5" s="10">
         <v>0.68401798643397127</v>
       </c>
-      <c r="CI5" s="9"/>
+      <c r="CI5" s="10">
+        <v>0.74885056943845729</v>
+      </c>
       <c r="CJ5" s="9"/>
       <c r="CK5" s="9"/>
       <c r="CL5" s="9"/>
@@ -30404,9 +30509,11 @@
         <v>0.95408467501492122</v>
       </c>
       <c r="CH6" s="10">
-        <v>1.153612629022486</v>
-      </c>
-      <c r="CI6" s="9"/>
+        <v>1.092896174863395</v>
+      </c>
+      <c r="CI6" s="10">
+        <v>1.3747758517632891</v>
+      </c>
       <c r="CJ6" s="9"/>
       <c r="CK6" s="9"/>
       <c r="CL6" s="9"/>
@@ -30673,9 +30780,11 @@
         <v>-1.6447368421052515</v>
       </c>
       <c r="CH7" s="10">
-        <v>-1.9801980198019731</v>
-      </c>
-      <c r="CI7" s="9"/>
+        <v>-3.3003300330033003</v>
+      </c>
+      <c r="CI7" s="10">
+        <v>-2.8571428571428639</v>
+      </c>
       <c r="CJ7" s="9"/>
       <c r="CK7" s="9"/>
       <c r="CL7" s="9"/>
@@ -30942,9 +31051,11 @@
         <v>3.1480570585341745</v>
       </c>
       <c r="CH8" s="10">
-        <v>2.7930174563591135</v>
-      </c>
-      <c r="CI8" s="9"/>
+        <v>2.8428927680797949</v>
+      </c>
+      <c r="CI8" s="10">
+        <v>2.6049204052098296</v>
+      </c>
       <c r="CJ8" s="9"/>
       <c r="CK8" s="9"/>
       <c r="CL8" s="9"/>
@@ -31213,7 +31324,9 @@
       <c r="CH9" s="10">
         <v>-1.9821605550049695</v>
       </c>
-      <c r="CI9" s="9"/>
+      <c r="CI9" s="10">
+        <v>-1.9398642095053347</v>
+      </c>
       <c r="CJ9" s="9"/>
       <c r="CK9" s="9"/>
       <c r="CL9" s="9"/>
@@ -31480,9 +31593,11 @@
         <v>0.67441860465114867</v>
       </c>
       <c r="CH10" s="10">
-        <v>0.71056371387967798</v>
-      </c>
-      <c r="CI10" s="9"/>
+        <v>0.89215221853783222</v>
+      </c>
+      <c r="CI10" s="10">
+        <v>0.93611046103440199</v>
+      </c>
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
       <c r="CL10" s="9"/>
@@ -31749,9 +31864,11 @@
         <v>4.0898876404494358</v>
       </c>
       <c r="CH11" s="10">
-        <v>2.950819672131153</v>
-      </c>
-      <c r="CI11" s="9"/>
+        <v>2.7166276346604268</v>
+      </c>
+      <c r="CI11" s="10">
+        <v>2.9242357111209674</v>
+      </c>
       <c r="CJ11" s="9"/>
       <c r="CK11" s="9"/>
       <c r="CL11" s="9"/>
@@ -32020,7 +32137,9 @@
       <c r="CH12" s="10">
         <v>-0.32520325203252493</v>
       </c>
-      <c r="CI12" s="9"/>
+      <c r="CI12" s="10">
+        <v>0.62500000000000888</v>
+      </c>
       <c r="CJ12" s="9"/>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
@@ -32287,9 +32406,11 @@
         <v>1.6438356164383405</v>
       </c>
       <c r="CH13" s="10">
-        <v>2.332361516034998</v>
-      </c>
-      <c r="CI13" s="9"/>
+        <v>1.1661807580175094</v>
+      </c>
+      <c r="CI13" s="10">
+        <v>0.84507042253520326</v>
+      </c>
       <c r="CJ13" s="9"/>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
@@ -32388,7 +32509,7 @@
       <c r="CF14" s="8"/>
       <c r="CG14" s="8"/>
       <c r="CH14" s="8"/>
-      <c r="CI14" s="9"/>
+      <c r="CI14" s="8"/>
       <c r="CJ14" s="9"/>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
@@ -32655,9 +32776,11 @@
         <v>-0.46792747124195311</v>
       </c>
       <c r="CH15" s="10">
-        <v>0.33425088478174042</v>
-      </c>
-      <c r="CI15" s="9"/>
+        <v>0.31458906802987924</v>
+      </c>
+      <c r="CI15" s="10">
+        <v>-7.6997112608272814E-2</v>
+      </c>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
@@ -32924,9 +33047,11 @@
         <v>-0.37047591906524785</v>
       </c>
       <c r="CH16" s="10">
-        <v>-0.14475969889982629</v>
-      </c>
-      <c r="CI16" s="9"/>
+        <v>-0.11580775911985446</v>
+      </c>
+      <c r="CI16" s="10">
+        <v>0.25714285714285062</v>
+      </c>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
@@ -33025,7 +33150,7 @@
       <c r="CF17" s="8"/>
       <c r="CG17" s="8"/>
       <c r="CH17" s="8"/>
-      <c r="CI17" s="9"/>
+      <c r="CI17" s="8"/>
       <c r="CJ17" s="9"/>
       <c r="CK17" s="9"/>
       <c r="CL17" s="9"/>
@@ -33292,9 +33417,11 @@
         <v>3.2310177705977265</v>
       </c>
       <c r="CH18" s="10">
-        <v>4.6391752577319636</v>
-      </c>
-      <c r="CI18" s="9"/>
+        <v>4.2955326460480974</v>
+      </c>
+      <c r="CI18" s="10">
+        <v>1.594896331738437</v>
+      </c>
       <c r="CJ18" s="9"/>
       <c r="CK18" s="9"/>
       <c r="CL18" s="9"/>
@@ -33563,7 +33690,9 @@
       <c r="CH19" s="10">
         <v>2.7249236551562186</v>
       </c>
-      <c r="CI19" s="9"/>
+      <c r="CI19" s="10">
+        <v>2.8083576724331611</v>
+      </c>
       <c r="CJ19" s="9"/>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
@@ -33830,9 +33959,11 @@
         <v>1.1681754800823678E-14</v>
       </c>
       <c r="CH20" s="10">
-        <v>-1.6827934371055953</v>
-      </c>
-      <c r="CI20" s="9"/>
+        <v>-0.71518721076987324</v>
+      </c>
+      <c r="CI20" s="10">
+        <v>1.0364842454394694</v>
+      </c>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
       <c r="CL20" s="9"/>
@@ -34099,9 +34230,11 @@
         <v>-0.40080160320639008</v>
       </c>
       <c r="CH21" s="10">
-        <v>-0.41465100207323147</v>
-      </c>
-      <c r="CI21" s="9"/>
+        <v>0.20732550103663538</v>
+      </c>
+      <c r="CI21" s="10">
+        <v>0.8742434431741839</v>
+      </c>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
       <c r="CL21" s="9"/>
@@ -34368,9 +34501,11 @@
         <v>-0.49365303244006842</v>
       </c>
       <c r="CH22" s="10">
-        <v>1.0550113036925439</v>
-      </c>
-      <c r="CI22" s="9"/>
+        <v>1.2810851544838111</v>
+      </c>
+      <c r="CI22" s="10">
+        <v>-1.056338028169014</v>
+      </c>
       <c r="CJ22" s="9"/>
       <c r="CK22" s="9"/>
       <c r="CL22" s="9"/>
@@ -34639,7 +34774,9 @@
       <c r="CH23" s="10">
         <v>6.2578222778469528E-2</v>
       </c>
-      <c r="CI23" s="9"/>
+      <c r="CI23" s="10">
+        <v>-0.18226002430134344</v>
+      </c>
       <c r="CJ23" s="9"/>
       <c r="CK23" s="9"/>
       <c r="CL23" s="9"/>
@@ -34908,7 +35045,9 @@
       <c r="CH24" s="10">
         <v>0.67024128686327078</v>
       </c>
-      <c r="CI24" s="9"/>
+      <c r="CI24" s="10">
+        <v>0.45190445448677674</v>
+      </c>
       <c r="CJ24" s="9"/>
       <c r="CK24" s="9"/>
       <c r="CL24" s="9"/>
@@ -35177,7 +35316,9 @@
       <c r="CH25" s="10">
         <v>-0.80000000000001137</v>
       </c>
-      <c r="CI25" s="9"/>
+      <c r="CI25" s="10">
+        <v>-0.96899224806201545</v>
+      </c>
       <c r="CJ25" s="9"/>
       <c r="CK25" s="9"/>
       <c r="CL25" s="9"/>
@@ -35446,7 +35587,9 @@
       <c r="CH26" s="10">
         <v>-2.9828850855745692</v>
       </c>
-      <c r="CI26" s="9"/>
+      <c r="CI26" s="10">
+        <v>-2.3842274186153087</v>
+      </c>
       <c r="CJ26" s="9"/>
       <c r="CK26" s="9"/>
       <c r="CL26" s="9"/>
@@ -35715,7 +35858,9 @@
       <c r="CH27" s="10">
         <v>2.1267361111111134</v>
       </c>
-      <c r="CI27" s="9"/>
+      <c r="CI27" s="10">
+        <v>1.0121457489878543</v>
+      </c>
       <c r="CJ27" s="9"/>
       <c r="CK27" s="9"/>
       <c r="CL27" s="9"/>
@@ -35982,9 +36127,11 @@
         <v>1.7288444040036188</v>
       </c>
       <c r="CH28" s="10">
-        <v>0.28744809964866724</v>
-      </c>
-      <c r="CI28" s="9"/>
+        <v>0.73458958799104257</v>
+      </c>
+      <c r="CI28" s="10">
+        <v>1.2496190185918996</v>
+      </c>
       <c r="CJ28" s="9"/>
       <c r="CK28" s="9"/>
       <c r="CL28" s="9"/>
@@ -36251,9 +36398,11 @@
         <v>0.28790786948177677</v>
       </c>
       <c r="CH29" s="10">
-        <v>-4.7824007651838508E-2</v>
-      </c>
-      <c r="CI29" s="9"/>
+        <v>1.3592400492780492E-14</v>
+      </c>
+      <c r="CI29" s="10">
+        <v>1.0838831291234738</v>
+      </c>
       <c r="CJ29" s="9"/>
       <c r="CK29" s="9"/>
       <c r="CL29" s="9"/>
@@ -36522,7 +36671,9 @@
       <c r="CH30" s="10">
         <v>0.67502410800386003</v>
       </c>
-      <c r="CI30" s="9"/>
+      <c r="CI30" s="10">
+        <v>0.65237651444548261</v>
+      </c>
       <c r="CJ30" s="9"/>
       <c r="CK30" s="9"/>
       <c r="CL30" s="9"/>
@@ -36621,7 +36772,7 @@
       <c r="CF31" s="8"/>
       <c r="CG31" s="8"/>
       <c r="CH31" s="8"/>
-      <c r="CI31" s="9"/>
+      <c r="CI31" s="8"/>
       <c r="CJ31" s="9"/>
       <c r="CK31" s="9"/>
       <c r="CL31" s="9"/>
@@ -36890,7 +37041,9 @@
       <c r="CH32" s="10">
         <v>0.22988505747125129</v>
       </c>
-      <c r="CI32" s="9"/>
+      <c r="CI32" s="10">
+        <v>0.22222222222222537</v>
+      </c>
       <c r="CJ32" s="9"/>
       <c r="CK32" s="9"/>
       <c r="CL32" s="9"/>
@@ -37159,7 +37312,9 @@
       <c r="CH33" s="10">
         <v>0.10672358591248059</v>
       </c>
-      <c r="CI33" s="9"/>
+      <c r="CI33" s="10">
+        <v>0.42283298097250682</v>
+      </c>
       <c r="CJ33" s="9"/>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
@@ -37428,7 +37583,9 @@
       <c r="CH34" s="10">
         <v>2.0463847203274215</v>
       </c>
-      <c r="CI34" s="9"/>
+      <c r="CI34" s="10">
+        <v>1.5056461731493134</v>
+      </c>
       <c r="CJ34" s="9"/>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
@@ -37695,9 +37852,11 @@
         <v>1.4227642276422823</v>
       </c>
       <c r="CH35" s="10">
-        <v>-0.22123893805310046</v>
-      </c>
-      <c r="CI35" s="9"/>
+        <v>-0.66371681415930139</v>
+      </c>
+      <c r="CI35" s="10">
+        <v>0.80808080808080518</v>
+      </c>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
@@ -37966,7 +38125,9 @@
       <c r="CH36" s="10">
         <v>2.2734654108476779</v>
       </c>
-      <c r="CI36" s="9"/>
+      <c r="CI36" s="10">
+        <v>0.46612802983219387</v>
+      </c>
       <c r="CJ36" s="9"/>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
@@ -38233,9 +38394,11 @@
         <v>0.3792667509481813</v>
       </c>
       <c r="CH37" s="10">
-        <v>-0.13262599469497152</v>
-      </c>
-      <c r="CI37" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="CI37" s="10">
+        <v>0.37406483790525114</v>
+      </c>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
@@ -38504,7 +38667,9 @@
       <c r="CH38" s="10">
         <v>0.10930668332293028</v>
       </c>
-      <c r="CI38" s="9"/>
+      <c r="CI38" s="10">
+        <v>0.11983223487117353</v>
+      </c>
       <c r="CJ38" s="9"/>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
@@ -38773,7 +38938,9 @@
       <c r="CH39" s="10">
         <v>-0.54265902924329557</v>
       </c>
-      <c r="CI39" s="9"/>
+      <c r="CI39" s="10">
+        <v>-0.14775413711583926</v>
+      </c>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
       <c r="CL39" s="9"/>
@@ -39042,7 +39209,9 @@
       <c r="CH40" s="10">
         <v>0.79155672823220125</v>
       </c>
-      <c r="CI40" s="9"/>
+      <c r="CI40" s="10">
+        <v>0</v>
+      </c>
       <c r="CJ40" s="9"/>
       <c r="CK40" s="9"/>
       <c r="CL40" s="9"/>
@@ -39309,9 +39478,11 @@
         <v>-1.8577364947445667</v>
       </c>
       <c r="CH41" s="10">
-        <v>-3.6560247167868289</v>
-      </c>
-      <c r="CI41" s="9"/>
+        <v>-1.5190525231719962</v>
+      </c>
+      <c r="CI41" s="10">
+        <v>-1.3470487386725585</v>
+      </c>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
       <c r="CL41" s="9"/>
@@ -39580,7 +39751,9 @@
       <c r="CH42" s="10">
         <v>1.7482517482517483</v>
       </c>
-      <c r="CI42" s="9"/>
+      <c r="CI42" s="10">
+        <v>1.5904572564612363</v>
+      </c>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
       <c r="CL42" s="9"/>
@@ -39847,9 +40020,11 @@
         <v>2.2032693674484678</v>
       </c>
       <c r="CH43" s="10">
-        <v>2.3188405797101574</v>
-      </c>
-      <c r="CI43" s="9"/>
+        <v>2.3913043478260954</v>
+      </c>
+      <c r="CI43" s="10">
+        <v>2.7659574468085149</v>
+      </c>
       <c r="CJ43" s="9"/>
       <c r="CK43" s="9"/>
       <c r="CL43" s="9"/>
@@ -40116,9 +40291,11 @@
         <v>0.52910052910053251</v>
       </c>
       <c r="CH44" s="10">
-        <v>0.27726432532346801</v>
-      </c>
-      <c r="CI44" s="9"/>
+        <v>0.33887861983979228</v>
+      </c>
+      <c r="CI44" s="10">
+        <v>1.3469985358711467</v>
+      </c>
       <c r="CJ44" s="9"/>
       <c r="CK44" s="9"/>
       <c r="CL44" s="9"/>
@@ -40387,7 +40564,9 @@
       <c r="CH45" s="10">
         <v>-0.64724919093850908</v>
       </c>
-      <c r="CI45" s="9"/>
+      <c r="CI45" s="10">
+        <v>-0.32362459546924877</v>
+      </c>
       <c r="CJ45" s="9"/>
       <c r="CK45" s="9"/>
       <c r="CL45" s="9"/>
@@ -40654,9 +40833,11 @@
         <v>1.5078407720144751</v>
       </c>
       <c r="CH46" s="10">
-        <v>1.0403916768665955</v>
-      </c>
-      <c r="CI46" s="9"/>
+        <v>1.1015911872704913</v>
+      </c>
+      <c r="CI46" s="10">
+        <v>1.1452682338758322</v>
+      </c>
       <c r="CJ46" s="9"/>
       <c r="CK46" s="9"/>
       <c r="CL46" s="9"/>
@@ -40923,9 +41104,11 @@
         <v>0.52910052910053662</v>
       </c>
       <c r="CH47" s="10">
-        <v>0.82417582417581625</v>
-      </c>
-      <c r="CI47" s="9"/>
+        <v>-0.27472527472529812</v>
+      </c>
+      <c r="CI47" s="10">
+        <v>0</v>
+      </c>
       <c r="CJ47" s="9"/>
       <c r="CK47" s="9"/>
       <c r="CL47" s="9"/>
@@ -41192,9 +41375,11 @@
         <v>-2.0446980504041896</v>
       </c>
       <c r="CH48" s="10">
-        <v>0</v>
-      </c>
-      <c r="CI48" s="9"/>
+        <v>-0.40241448692153486</v>
+      </c>
+      <c r="CI48" s="10">
+        <v>-0.72011521843494952</v>
+      </c>
       <c r="CJ48" s="9"/>
       <c r="CK48" s="9"/>
       <c r="CL48" s="9"/>
@@ -41461,9 +41646,11 @@
         <v>1.0171869519466774</v>
       </c>
       <c r="CH49" s="10">
-        <v>1.4153069503290405</v>
-      </c>
-      <c r="CI49" s="9"/>
+        <v>1.081763274136843</v>
+      </c>
+      <c r="CI49" s="10">
+        <v>0.78864353312302837</v>
+      </c>
       <c r="CJ49" s="9"/>
       <c r="CK49" s="9"/>
       <c r="CL49" s="9"/>
@@ -41730,9 +41917,11 @@
         <v>3.7706205813039926</v>
       </c>
       <c r="CH50" s="10">
-        <v>2.8869286287089198</v>
-      </c>
-      <c r="CI50" s="9"/>
+        <v>3.688853247794726</v>
+      </c>
+      <c r="CI50" s="10">
+        <v>3.9999999999999956</v>
+      </c>
       <c r="CJ50" s="9"/>
       <c r="CK50" s="9"/>
       <c r="CL50" s="9"/>
@@ -42001,7 +42190,9 @@
       <c r="CH51" s="10">
         <v>1.9108280254777117</v>
       </c>
-      <c r="CI51" s="9"/>
+      <c r="CI51" s="10">
+        <v>2.0467836257310021</v>
+      </c>
       <c r="CJ51" s="9"/>
       <c r="CK51" s="9"/>
       <c r="CL51" s="9"/>
@@ -42268,9 +42459,11 @@
         <v>-0.15527950310559005</v>
       </c>
       <c r="CH52" s="10">
-        <v>0.1608234158893535</v>
-      </c>
-      <c r="CI52" s="9"/>
+        <v>0.19298809906723152</v>
+      </c>
+      <c r="CI52" s="10">
+        <v>-0.2466091245375939</v>
+      </c>
       <c r="CJ52" s="9"/>
       <c r="CK52" s="9"/>
       <c r="CL52" s="9"/>
@@ -42537,9 +42730,11 @@
         <v>0.38167938931297712</v>
       </c>
       <c r="CH53" s="10">
-        <v>0.33923859781378712</v>
-      </c>
-      <c r="CI53" s="9"/>
+        <v>1.168488503580839</v>
+      </c>
+      <c r="CI53" s="10">
+        <v>1.389932381667893</v>
+      </c>
       <c r="CJ53" s="9"/>
       <c r="CK53" s="9"/>
       <c r="CL53" s="9"/>
@@ -42808,7 +43003,9 @@
       <c r="CH54" s="10">
         <v>-0.81168831168831179</v>
       </c>
-      <c r="CI54" s="9"/>
+      <c r="CI54" s="10">
+        <v>-0.78616352201257855</v>
+      </c>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
@@ -43075,9 +43272,11 @@
         <v>0.7342817806333285</v>
       </c>
       <c r="CH55" s="10">
-        <v>1.4049172102358454</v>
-      </c>
-      <c r="CI55" s="9"/>
+        <v>1.555444054189661</v>
+      </c>
+      <c r="CI55" s="10">
+        <v>2.0436600092893662</v>
+      </c>
       <c r="CJ55" s="9"/>
       <c r="CK55" s="9"/>
       <c r="CL55" s="9"/>
@@ -43344,9 +43543,11 @@
         <v>0</v>
       </c>
       <c r="CH56" s="10">
-        <v>0</v>
-      </c>
-      <c r="CI56" s="9"/>
+        <v>-0.68027210884352296</v>
+      </c>
+      <c r="CI56" s="10">
+        <v>-1.2987012987012942</v>
+      </c>
       <c r="CJ56" s="9"/>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\u6kUBr_AokeMEg0_HmJZDg==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1566,7 +1566,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CW11" sqref="CW11"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:CV56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,6 +1878,9 @@
       <c r="CU4" s="4">
         <v>43862</v>
       </c>
+      <c r="CV4" s="4">
+        <v>43891</v>
+      </c>
     </row>
     <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2172,12 +2175,14 @@
         <v>10940.5</v>
       </c>
       <c r="CT5" s="6">
-        <v>10568.6</v>
+        <v>10573.1</v>
       </c>
       <c r="CU5" s="6">
-        <v>10978.3</v>
-      </c>
-      <c r="CV5" s="6"/>
+        <v>10972.5</v>
+      </c>
+      <c r="CV5" s="6">
+        <v>11007.2</v>
+      </c>
       <c r="CW5" s="6"/>
       <c r="CX5" s="6"/>
       <c r="CY5" s="6"/>
@@ -2720,9 +2725,11 @@
         <v>166.5</v>
       </c>
       <c r="CU6" s="6">
-        <v>169.6</v>
-      </c>
-      <c r="CV6" s="6"/>
+        <v>171.5</v>
+      </c>
+      <c r="CV6" s="6">
+        <v>172.5</v>
+      </c>
       <c r="CW6" s="6"/>
       <c r="CX6" s="6"/>
       <c r="CY6" s="6"/>
@@ -3265,9 +3272,11 @@
         <v>29.3</v>
       </c>
       <c r="CU7" s="6">
-        <v>30.599999999999998</v>
-      </c>
-      <c r="CV7" s="6"/>
+        <v>30.5</v>
+      </c>
+      <c r="CV7" s="6">
+        <v>30.2</v>
+      </c>
       <c r="CW7" s="6"/>
       <c r="CX7" s="6"/>
       <c r="CY7" s="6"/>
@@ -3812,7 +3821,9 @@
       <c r="CU8" s="6">
         <v>212.7</v>
       </c>
-      <c r="CV8" s="6"/>
+      <c r="CV8" s="6">
+        <v>207.8</v>
+      </c>
       <c r="CW8" s="6"/>
       <c r="CX8" s="6"/>
       <c r="CY8" s="6"/>
@@ -4357,7 +4368,9 @@
       <c r="CU9" s="6">
         <v>101.1</v>
       </c>
-      <c r="CV9" s="6"/>
+      <c r="CV9" s="6">
+        <v>101.4</v>
+      </c>
       <c r="CW9" s="6"/>
       <c r="CX9" s="6"/>
       <c r="CY9" s="6"/>
@@ -4902,7 +4915,9 @@
       <c r="CU10" s="6">
         <v>1293.9000000000001</v>
       </c>
-      <c r="CV10" s="6"/>
+      <c r="CV10" s="6">
+        <v>1310.5</v>
+      </c>
       <c r="CW10" s="6"/>
       <c r="CX10" s="6"/>
       <c r="CY10" s="6"/>
@@ -5445,9 +5460,11 @@
         <v>219.3</v>
       </c>
       <c r="CU11" s="6">
-        <v>232.3</v>
-      </c>
-      <c r="CV11" s="6"/>
+        <v>231.7</v>
+      </c>
+      <c r="CV11" s="6">
+        <v>233.6</v>
+      </c>
       <c r="CW11" s="6"/>
       <c r="CX11" s="6"/>
       <c r="CY11" s="6"/>
@@ -5992,7 +6009,9 @@
       <c r="CU12" s="6">
         <v>128.80000000000001</v>
       </c>
-      <c r="CV12" s="6"/>
+      <c r="CV12" s="6">
+        <v>128.30000000000001</v>
+      </c>
       <c r="CW12" s="6"/>
       <c r="CX12" s="6"/>
       <c r="CY12" s="6"/>
@@ -6535,9 +6554,11 @@
         <v>34.700000000000003</v>
       </c>
       <c r="CU13" s="6">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="CV13" s="6"/>
+        <v>37.6</v>
+      </c>
+      <c r="CV13" s="6">
+        <v>38.200000000000003</v>
+      </c>
       <c r="CW13" s="6"/>
       <c r="CX13" s="6"/>
       <c r="CY13" s="6"/>
@@ -6886,7 +6907,7 @@
       <c r="CS14" s="8"/>
       <c r="CT14" s="8"/>
       <c r="CU14" s="8"/>
-      <c r="CV14" s="6"/>
+      <c r="CV14" s="8"/>
       <c r="CW14" s="6"/>
       <c r="CX14" s="6"/>
       <c r="CY14" s="6"/>
@@ -7431,7 +7452,9 @@
       <c r="CU15" s="6">
         <v>519.1</v>
       </c>
-      <c r="CV15" s="6"/>
+      <c r="CV15" s="6">
+        <v>520.20000000000005</v>
+      </c>
       <c r="CW15" s="6"/>
       <c r="CX15" s="6"/>
       <c r="CY15" s="6"/>
@@ -7974,9 +7997,11 @@
         <v>345</v>
       </c>
       <c r="CU16" s="6">
-        <v>350.9</v>
-      </c>
-      <c r="CV16" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="CV16" s="6">
+        <v>349.4</v>
+      </c>
       <c r="CW16" s="6"/>
       <c r="CX16" s="6"/>
       <c r="CY16" s="6"/>
@@ -8325,7 +8350,7 @@
       <c r="CS17" s="8"/>
       <c r="CT17" s="8"/>
       <c r="CU17" s="8"/>
-      <c r="CV17" s="6"/>
+      <c r="CV17" s="8"/>
       <c r="CW17" s="6"/>
       <c r="CX17" s="6"/>
       <c r="CY17" s="6"/>
@@ -8870,7 +8895,9 @@
       <c r="CU18" s="6">
         <v>63.7</v>
       </c>
-      <c r="CV18" s="6"/>
+      <c r="CV18" s="6">
+        <v>64.3</v>
+      </c>
       <c r="CW18" s="6"/>
       <c r="CX18" s="6"/>
       <c r="CY18" s="6"/>
@@ -9415,7 +9442,9 @@
       <c r="CU19" s="6">
         <v>457.6</v>
       </c>
-      <c r="CV19" s="6"/>
+      <c r="CV19" s="6">
+        <v>463.29999999999995</v>
+      </c>
       <c r="CW19" s="6"/>
       <c r="CX19" s="6"/>
       <c r="CY19" s="6"/>
@@ -9958,9 +9987,11 @@
         <v>236</v>
       </c>
       <c r="CU20" s="6">
-        <v>243.7</v>
-      </c>
-      <c r="CV20" s="6"/>
+        <v>243.70000000000002</v>
+      </c>
+      <c r="CV20" s="6">
+        <v>245.39999999999998</v>
+      </c>
       <c r="CW20" s="6"/>
       <c r="CX20" s="6"/>
       <c r="CY20" s="6"/>
@@ -10503,9 +10534,11 @@
         <v>145</v>
       </c>
       <c r="CU21" s="6">
-        <v>150</v>
-      </c>
-      <c r="CV21" s="6"/>
+        <v>148.9</v>
+      </c>
+      <c r="CV21" s="6">
+        <v>148.89999999999998</v>
+      </c>
       <c r="CW21" s="6"/>
       <c r="CX21" s="6"/>
       <c r="CY21" s="6"/>
@@ -11048,9 +11081,11 @@
         <v>134.4</v>
       </c>
       <c r="CU22" s="6">
-        <v>140.5</v>
-      </c>
-      <c r="CV22" s="6"/>
+        <v>140.6</v>
+      </c>
+      <c r="CV22" s="6">
+        <v>141.19999999999999</v>
+      </c>
       <c r="CW22" s="6"/>
       <c r="CX22" s="6"/>
       <c r="CY22" s="6"/>
@@ -11595,7 +11630,9 @@
       <c r="CU23" s="6">
         <v>164.3</v>
       </c>
-      <c r="CV23" s="6"/>
+      <c r="CV23" s="6">
+        <v>165</v>
+      </c>
       <c r="CW23" s="6"/>
       <c r="CX23" s="6"/>
       <c r="CY23" s="6"/>
@@ -12140,7 +12177,9 @@
       <c r="CU24" s="6">
         <v>155.6</v>
       </c>
-      <c r="CV24" s="6"/>
+      <c r="CV24" s="6">
+        <v>155.1</v>
+      </c>
       <c r="CW24" s="6"/>
       <c r="CX24" s="6"/>
       <c r="CY24" s="6"/>
@@ -12685,7 +12724,9 @@
       <c r="CU25" s="6">
         <v>51.1</v>
       </c>
-      <c r="CV25" s="6"/>
+      <c r="CV25" s="6">
+        <v>51.2</v>
+      </c>
       <c r="CW25" s="6"/>
       <c r="CX25" s="6"/>
       <c r="CY25" s="6"/>
@@ -13230,7 +13271,9 @@
       <c r="CU26" s="6">
         <v>212.9</v>
       </c>
-      <c r="CV26" s="6"/>
+      <c r="CV26" s="6">
+        <v>216.89999999999998</v>
+      </c>
       <c r="CW26" s="6"/>
       <c r="CX26" s="6"/>
       <c r="CY26" s="6"/>
@@ -13775,7 +13818,9 @@
       <c r="CU27" s="6">
         <v>249.5</v>
       </c>
-      <c r="CV27" s="6"/>
+      <c r="CV27" s="6">
+        <v>250</v>
+      </c>
       <c r="CW27" s="6"/>
       <c r="CX27" s="6"/>
       <c r="CY27" s="6"/>
@@ -14318,9 +14363,11 @@
         <v>315.39999999999998</v>
       </c>
       <c r="CU28" s="6">
-        <v>332.20000000000005</v>
-      </c>
-      <c r="CV28" s="6"/>
+        <v>335.8</v>
+      </c>
+      <c r="CV28" s="6">
+        <v>332.6</v>
+      </c>
       <c r="CW28" s="6"/>
       <c r="CX28" s="6"/>
       <c r="CY28" s="6"/>
@@ -14863,9 +14910,11 @@
         <v>209.10000000000002</v>
       </c>
       <c r="CU29" s="6">
-        <v>214.5</v>
-      </c>
-      <c r="CV29" s="6"/>
+        <v>214.3</v>
+      </c>
+      <c r="CV29" s="6">
+        <v>214.60000000000002</v>
+      </c>
       <c r="CW29" s="6"/>
       <c r="CX29" s="6"/>
       <c r="CY29" s="6"/>
@@ -15410,7 +15459,9 @@
       <c r="CU30" s="6">
         <v>108</v>
       </c>
-      <c r="CV30" s="6"/>
+      <c r="CV30" s="6">
+        <v>106.9</v>
+      </c>
       <c r="CW30" s="6"/>
       <c r="CX30" s="6"/>
       <c r="CY30" s="6"/>
@@ -15759,7 +15810,7 @@
       <c r="CS31" s="8"/>
       <c r="CT31" s="8"/>
       <c r="CU31" s="8"/>
-      <c r="CV31" s="6"/>
+      <c r="CV31" s="8"/>
       <c r="CW31" s="6"/>
       <c r="CX31" s="6"/>
       <c r="CY31" s="6"/>
@@ -16304,7 +16355,9 @@
       <c r="CU32" s="6">
         <v>45.1</v>
       </c>
-      <c r="CV32" s="6"/>
+      <c r="CV32" s="6">
+        <v>45.2</v>
+      </c>
       <c r="CW32" s="6"/>
       <c r="CX32" s="6"/>
       <c r="CY32" s="6"/>
@@ -16847,9 +16900,11 @@
         <v>93.8</v>
       </c>
       <c r="CU33" s="6">
-        <v>95</v>
-      </c>
-      <c r="CV33" s="6"/>
+        <v>95.100000000000009</v>
+      </c>
+      <c r="CV33" s="6">
+        <v>96.1</v>
+      </c>
       <c r="CW33" s="6"/>
       <c r="CX33" s="6"/>
       <c r="CY33" s="6"/>
@@ -17394,7 +17449,9 @@
       <c r="CU34" s="6">
         <v>80.900000000000006</v>
       </c>
-      <c r="CV34" s="6"/>
+      <c r="CV34" s="6">
+        <v>81.599999999999994</v>
+      </c>
       <c r="CW34" s="6"/>
       <c r="CX34" s="6"/>
       <c r="CY34" s="6"/>
@@ -17937,9 +17994,11 @@
         <v>44.9</v>
       </c>
       <c r="CU35" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="CV35" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="CV35" s="6">
+        <v>50.1</v>
+      </c>
       <c r="CW35" s="6"/>
       <c r="CX35" s="6"/>
       <c r="CY35" s="6"/>
@@ -18482,9 +18541,11 @@
         <v>314.89999999999998</v>
       </c>
       <c r="CU36" s="6">
-        <v>323.3</v>
-      </c>
-      <c r="CV36" s="6"/>
+        <v>322.39999999999998</v>
+      </c>
+      <c r="CV36" s="6">
+        <v>314.39999999999998</v>
+      </c>
       <c r="CW36" s="6"/>
       <c r="CX36" s="6"/>
       <c r="CY36" s="6"/>
@@ -19029,7 +19090,9 @@
       <c r="CU37" s="6">
         <v>80.5</v>
       </c>
-      <c r="CV37" s="6"/>
+      <c r="CV37" s="6">
+        <v>81.099999999999994</v>
+      </c>
       <c r="CW37" s="6"/>
       <c r="CX37" s="6"/>
       <c r="CY37" s="6"/>
@@ -19574,7 +19637,9 @@
       <c r="CU38" s="6">
         <v>668.4</v>
       </c>
-      <c r="CV38" s="6"/>
+      <c r="CV38" s="6">
+        <v>673.69999999999993</v>
+      </c>
       <c r="CW38" s="6"/>
       <c r="CX38" s="6"/>
       <c r="CY38" s="6"/>
@@ -20119,7 +20184,9 @@
       <c r="CU39" s="6">
         <v>337.9</v>
       </c>
-      <c r="CV39" s="6"/>
+      <c r="CV39" s="6">
+        <v>340.2</v>
+      </c>
       <c r="CW39" s="6"/>
       <c r="CX39" s="6"/>
       <c r="CY39" s="6"/>
@@ -20664,7 +20731,9 @@
       <c r="CU40" s="6">
         <v>39</v>
       </c>
-      <c r="CV40" s="6"/>
+      <c r="CV40" s="6">
+        <v>39.299999999999997</v>
+      </c>
       <c r="CW40" s="6"/>
       <c r="CX40" s="6"/>
       <c r="CY40" s="6"/>
@@ -21207,9 +21276,11 @@
         <v>382.5</v>
       </c>
       <c r="CU41" s="6">
-        <v>402.79999999999995</v>
-      </c>
-      <c r="CV41" s="6"/>
+        <v>402.4</v>
+      </c>
+      <c r="CV41" s="6">
+        <v>403.3</v>
+      </c>
       <c r="CW41" s="6"/>
       <c r="CX41" s="6"/>
       <c r="CY41" s="6"/>
@@ -21754,7 +21825,9 @@
       <c r="CU42" s="6">
         <v>153.30000000000001</v>
       </c>
-      <c r="CV42" s="6"/>
+      <c r="CV42" s="6">
+        <v>154</v>
+      </c>
       <c r="CW42" s="6"/>
       <c r="CX42" s="6"/>
       <c r="CY42" s="6"/>
@@ -22299,7 +22372,9 @@
       <c r="CU43" s="6">
         <v>144.9</v>
       </c>
-      <c r="CV43" s="6"/>
+      <c r="CV43" s="6">
+        <v>145.20000000000002</v>
+      </c>
       <c r="CW43" s="6"/>
       <c r="CX43" s="6"/>
       <c r="CY43" s="6"/>
@@ -22842,9 +22917,11 @@
         <v>325.7</v>
       </c>
       <c r="CU44" s="6">
-        <v>346.09999999999997</v>
-      </c>
-      <c r="CV44" s="6"/>
+        <v>343.8</v>
+      </c>
+      <c r="CV44" s="6">
+        <v>342.9</v>
+      </c>
       <c r="CW44" s="6"/>
       <c r="CX44" s="6"/>
       <c r="CY44" s="6"/>
@@ -23389,7 +23466,9 @@
       <c r="CU45" s="6">
         <v>30.8</v>
       </c>
-      <c r="CV45" s="6"/>
+      <c r="CV45" s="6">
+        <v>30.7</v>
+      </c>
       <c r="CW45" s="6"/>
       <c r="CX45" s="6"/>
       <c r="CY45" s="6"/>
@@ -23934,7 +24013,9 @@
       <c r="CU46" s="6">
         <v>167.8</v>
       </c>
-      <c r="CV46" s="6"/>
+      <c r="CV46" s="6">
+        <v>168.8</v>
+      </c>
       <c r="CW46" s="6"/>
       <c r="CX46" s="6"/>
       <c r="CY46" s="6"/>
@@ -24477,9 +24558,11 @@
         <v>36.299999999999997</v>
       </c>
       <c r="CU47" s="6">
-        <v>37.5</v>
-      </c>
-      <c r="CV47" s="6"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="CV47" s="6">
+        <v>37.799999999999997</v>
+      </c>
       <c r="CW47" s="6"/>
       <c r="CX47" s="6"/>
       <c r="CY47" s="6"/>
@@ -25022,9 +25105,11 @@
         <v>198</v>
       </c>
       <c r="CU48" s="6">
-        <v>206.8</v>
-      </c>
-      <c r="CV48" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="CV48" s="6">
+        <v>208.3</v>
+      </c>
       <c r="CW48" s="6"/>
       <c r="CX48" s="6"/>
       <c r="CY48" s="6"/>
@@ -25567,9 +25652,11 @@
         <v>1121.3</v>
       </c>
       <c r="CU49" s="6">
-        <v>1150.2</v>
-      </c>
-      <c r="CV49" s="6"/>
+        <v>1155.8</v>
+      </c>
+      <c r="CV49" s="6">
+        <v>1163.0999999999999</v>
+      </c>
       <c r="CW49" s="6"/>
       <c r="CX49" s="6"/>
       <c r="CY49" s="6"/>
@@ -26112,9 +26199,11 @@
         <v>129.30000000000001</v>
       </c>
       <c r="CU50" s="6">
-        <v>132.6</v>
-      </c>
-      <c r="CV50" s="6"/>
+        <v>131.9</v>
+      </c>
+      <c r="CV50" s="6">
+        <v>132.9</v>
+      </c>
       <c r="CW50" s="6"/>
       <c r="CX50" s="6"/>
       <c r="CY50" s="6"/>
@@ -26659,7 +26748,9 @@
       <c r="CU51" s="6">
         <v>34.900000000000006</v>
       </c>
-      <c r="CV51" s="6"/>
+      <c r="CV51" s="6">
+        <v>34.700000000000003</v>
+      </c>
       <c r="CW51" s="6"/>
       <c r="CX51" s="6"/>
       <c r="CY51" s="6"/>
@@ -27204,7 +27295,9 @@
       <c r="CU52" s="6">
         <v>323.60000000000002</v>
       </c>
-      <c r="CV52" s="6"/>
+      <c r="CV52" s="6">
+        <v>324.5</v>
+      </c>
       <c r="CW52" s="6"/>
       <c r="CX52" s="6"/>
       <c r="CY52" s="6"/>
@@ -27747,9 +27840,11 @@
         <v>268.39999999999998</v>
       </c>
       <c r="CU53" s="6">
-        <v>269.89999999999998</v>
-      </c>
-      <c r="CV53" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="CV53" s="6">
+        <v>270.3</v>
+      </c>
       <c r="CW53" s="6"/>
       <c r="CX53" s="6"/>
       <c r="CY53" s="6"/>
@@ -28294,7 +28389,9 @@
       <c r="CU54" s="6">
         <v>63.1</v>
       </c>
-      <c r="CV54" s="6"/>
+      <c r="CV54" s="6">
+        <v>64.2</v>
+      </c>
       <c r="CW54" s="6"/>
       <c r="CX54" s="6"/>
       <c r="CY54" s="6"/>
@@ -28837,9 +28934,11 @@
         <v>202.39999999999998</v>
       </c>
       <c r="CU55" s="6">
-        <v>219.70000000000002</v>
-      </c>
-      <c r="CV55" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="CV55" s="6">
+        <v>218.1</v>
+      </c>
       <c r="CW55" s="6"/>
       <c r="CX55" s="6"/>
       <c r="CY55" s="6"/>
@@ -29384,7 +29483,9 @@
       <c r="CU56" s="6">
         <v>30.4</v>
       </c>
-      <c r="CV56" s="6"/>
+      <c r="CV56" s="6">
+        <v>30.8</v>
+      </c>
       <c r="CW56" s="6"/>
       <c r="CX56" s="6"/>
       <c r="CY56" s="6"/>
@@ -29642,10 +29743,10 @@
   <dimension ref="A1:CQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="CC5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="BZ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CK53" sqref="CK53"/>
+      <selection pane="bottomRight" activeCell="CH11" sqref="CH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29972,7 +30073,9 @@
       <c r="CI4" s="4">
         <v>43862</v>
       </c>
-      <c r="CJ4" s="9"/>
+      <c r="CJ4" s="4">
+        <v>43891</v>
+      </c>
       <c r="CK4" s="9"/>
       <c r="CL4" s="9"/>
       <c r="CM4" s="9"/>
@@ -30238,12 +30341,14 @@
         <v>0.38629523599794802</v>
       </c>
       <c r="CH5" s="10">
-        <v>0.68401798643397127</v>
+        <v>0.72688819449738107</v>
       </c>
       <c r="CI5" s="10">
-        <v>0.74885056943845729</v>
-      </c>
-      <c r="CJ5" s="9"/>
+        <v>0.69562344563033851</v>
+      </c>
+      <c r="CJ5" s="10">
+        <v>0.39218547636854489</v>
+      </c>
       <c r="CK5" s="9"/>
       <c r="CL5" s="9"/>
       <c r="CM5" s="9"/>
@@ -30512,9 +30617,11 @@
         <v>1.092896174863395</v>
       </c>
       <c r="CI6" s="10">
-        <v>1.3747758517632891</v>
-      </c>
-      <c r="CJ6" s="9"/>
+        <v>2.5104602510460183</v>
+      </c>
+      <c r="CJ6" s="10">
+        <v>2.6174895895300452</v>
+      </c>
       <c r="CK6" s="9"/>
       <c r="CL6" s="9"/>
       <c r="CM6" s="9"/>
@@ -30783,9 +30890,11 @@
         <v>-3.3003300330033003</v>
       </c>
       <c r="CI7" s="10">
-        <v>-2.8571428571428639</v>
-      </c>
-      <c r="CJ7" s="9"/>
+        <v>-3.1746031746031744</v>
+      </c>
+      <c r="CJ7" s="10">
+        <v>-3.8216560509554118</v>
+      </c>
       <c r="CK7" s="9"/>
       <c r="CL7" s="9"/>
       <c r="CM7" s="9"/>
@@ -31056,7 +31165,9 @@
       <c r="CI8" s="10">
         <v>2.6049204052098296</v>
       </c>
-      <c r="CJ8" s="9"/>
+      <c r="CJ8" s="10">
+        <v>0.48355899419729204</v>
+      </c>
       <c r="CK8" s="9"/>
       <c r="CL8" s="9"/>
       <c r="CM8" s="9"/>
@@ -31327,7 +31438,9 @@
       <c r="CI9" s="10">
         <v>-1.9398642095053347</v>
       </c>
-      <c r="CJ9" s="9"/>
+      <c r="CJ9" s="10">
+        <v>-2.0289855072463712</v>
+      </c>
       <c r="CK9" s="9"/>
       <c r="CL9" s="9"/>
       <c r="CM9" s="9"/>
@@ -31598,7 +31711,9 @@
       <c r="CI10" s="10">
         <v>0.93611046103440199</v>
       </c>
-      <c r="CJ10" s="9"/>
+      <c r="CJ10" s="10">
+        <v>0.94746572176859911</v>
+      </c>
       <c r="CK10" s="9"/>
       <c r="CL10" s="9"/>
       <c r="CM10" s="9"/>
@@ -31867,9 +31982,11 @@
         <v>2.7166276346604268</v>
       </c>
       <c r="CI11" s="10">
-        <v>2.9242357111209674</v>
-      </c>
-      <c r="CJ11" s="9"/>
+        <v>2.658396101019052</v>
+      </c>
+      <c r="CJ11" s="10">
+        <v>2.6362038664323375</v>
+      </c>
       <c r="CK11" s="9"/>
       <c r="CL11" s="9"/>
       <c r="CM11" s="9"/>
@@ -32140,7 +32257,9 @@
       <c r="CI12" s="10">
         <v>0.62500000000000888</v>
       </c>
-      <c r="CJ12" s="9"/>
+      <c r="CJ12" s="10">
+        <v>-0.23328149300156401</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -32409,9 +32528,11 @@
         <v>1.1661807580175094</v>
       </c>
       <c r="CI13" s="10">
-        <v>0.84507042253520326</v>
-      </c>
-      <c r="CJ13" s="9"/>
+        <v>5.9154929577464825</v>
+      </c>
+      <c r="CJ13" s="10">
+        <v>4.6575342465753504</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -32510,7 +32631,7 @@
       <c r="CG14" s="8"/>
       <c r="CH14" s="8"/>
       <c r="CI14" s="8"/>
-      <c r="CJ14" s="9"/>
+      <c r="CJ14" s="8"/>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -32781,7 +32902,9 @@
       <c r="CI15" s="10">
         <v>-7.6997112608272814E-2</v>
       </c>
-      <c r="CJ15" s="9"/>
+      <c r="CJ15" s="10">
+        <v>-0.11520737327187194</v>
+      </c>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -33050,9 +33173,11 @@
         <v>-0.11580775911985446</v>
       </c>
       <c r="CI16" s="10">
-        <v>0.25714285714285062</v>
-      </c>
-      <c r="CJ16" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="10">
+        <v>-0.3706871970345057</v>
+      </c>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -33151,7 +33276,7 @@
       <c r="CG17" s="8"/>
       <c r="CH17" s="8"/>
       <c r="CI17" s="8"/>
-      <c r="CJ17" s="9"/>
+      <c r="CJ17" s="8"/>
       <c r="CK17" s="9"/>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
@@ -33422,7 +33547,9 @@
       <c r="CI18" s="10">
         <v>1.594896331738437</v>
       </c>
-      <c r="CJ18" s="9"/>
+      <c r="CJ18" s="10">
+        <v>2.0634920634920588</v>
+      </c>
       <c r="CK18" s="9"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
@@ -33693,7 +33820,9 @@
       <c r="CI19" s="10">
         <v>2.8083576724331611</v>
       </c>
-      <c r="CJ19" s="9"/>
+      <c r="CJ19" s="10">
+        <v>2.8184642698623903</v>
+      </c>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
@@ -33962,9 +34091,11 @@
         <v>-0.71518721076987324</v>
       </c>
       <c r="CI20" s="10">
-        <v>1.0364842454394694</v>
-      </c>
-      <c r="CJ20" s="9"/>
+        <v>1.0364842454394811</v>
+      </c>
+      <c r="CJ20" s="10">
+        <v>1.0708401976935609</v>
+      </c>
       <c r="CK20" s="9"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
@@ -34233,9 +34364,11 @@
         <v>0.20732550103663538</v>
       </c>
       <c r="CI21" s="10">
-        <v>0.8742434431741839</v>
-      </c>
-      <c r="CJ21" s="9"/>
+        <v>0.13449899125757706</v>
+      </c>
+      <c r="CJ21" s="10">
+        <v>-0.40133779264215569</v>
+      </c>
       <c r="CK21" s="9"/>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
@@ -34504,9 +34637,11 @@
         <v>1.2810851544838111</v>
       </c>
       <c r="CI22" s="10">
-        <v>-1.056338028169014</v>
-      </c>
-      <c r="CJ22" s="9"/>
+        <v>-0.98591549295775049</v>
+      </c>
+      <c r="CJ22" s="10">
+        <v>7.0871722182845015E-2</v>
+      </c>
       <c r="CK22" s="9"/>
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
@@ -34777,7 +34912,9 @@
       <c r="CI23" s="10">
         <v>-0.18226002430134344</v>
       </c>
-      <c r="CJ23" s="9"/>
+      <c r="CJ23" s="10">
+        <v>-0.12106537530265657</v>
+      </c>
       <c r="CK23" s="9"/>
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
@@ -35048,7 +35185,9 @@
       <c r="CI24" s="10">
         <v>0.45190445448677674</v>
       </c>
-      <c r="CJ24" s="9"/>
+      <c r="CJ24" s="10">
+        <v>0.51847051198961946</v>
+      </c>
       <c r="CK24" s="9"/>
       <c r="CL24" s="9"/>
       <c r="CM24" s="9"/>
@@ -35319,7 +35458,9 @@
       <c r="CI25" s="10">
         <v>-0.96899224806201545</v>
       </c>
-      <c r="CJ25" s="9"/>
+      <c r="CJ25" s="10">
+        <v>-0.77519379844960967</v>
+      </c>
       <c r="CK25" s="9"/>
       <c r="CL25" s="9"/>
       <c r="CM25" s="9"/>
@@ -35590,7 +35731,9 @@
       <c r="CI26" s="10">
         <v>-2.3842274186153087</v>
       </c>
-      <c r="CJ26" s="9"/>
+      <c r="CJ26" s="10">
+        <v>-2.2532672374943794</v>
+      </c>
       <c r="CK26" s="9"/>
       <c r="CL26" s="9"/>
       <c r="CM26" s="9"/>
@@ -35861,7 +36004,9 @@
       <c r="CI27" s="10">
         <v>1.0121457489878543</v>
       </c>
-      <c r="CJ27" s="9"/>
+      <c r="CJ27" s="10">
+        <v>0.92854259184496679</v>
+      </c>
       <c r="CK27" s="9"/>
       <c r="CL27" s="9"/>
       <c r="CM27" s="9"/>
@@ -36130,9 +36275,11 @@
         <v>0.73458958799104257</v>
       </c>
       <c r="CI28" s="10">
-        <v>1.2496190185918996</v>
-      </c>
-      <c r="CJ28" s="9"/>
+        <v>2.346845473940868</v>
+      </c>
+      <c r="CJ28" s="10">
+        <v>0.48338368580061108</v>
+      </c>
       <c r="CK28" s="9"/>
       <c r="CL28" s="9"/>
       <c r="CM28" s="9"/>
@@ -36401,9 +36548,11 @@
         <v>1.3592400492780492E-14</v>
       </c>
       <c r="CI29" s="10">
-        <v>1.0838831291234738</v>
-      </c>
-      <c r="CJ29" s="9"/>
+        <v>0.9896324222431776</v>
+      </c>
+      <c r="CJ29" s="10">
+        <v>0.98823529411765776</v>
+      </c>
       <c r="CK29" s="9"/>
       <c r="CL29" s="9"/>
       <c r="CM29" s="9"/>
@@ -36674,7 +36823,9 @@
       <c r="CI30" s="10">
         <v>0.65237651444548261</v>
       </c>
-      <c r="CJ30" s="9"/>
+      <c r="CJ30" s="10">
+        <v>-0.92678405931417973</v>
+      </c>
       <c r="CK30" s="9"/>
       <c r="CL30" s="9"/>
       <c r="CM30" s="9"/>
@@ -36773,7 +36924,7 @@
       <c r="CG31" s="8"/>
       <c r="CH31" s="8"/>
       <c r="CI31" s="8"/>
-      <c r="CJ31" s="9"/>
+      <c r="CJ31" s="8"/>
       <c r="CK31" s="9"/>
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
@@ -37044,7 +37195,9 @@
       <c r="CI32" s="10">
         <v>0.22222222222222537</v>
       </c>
-      <c r="CJ32" s="9"/>
+      <c r="CJ32" s="10">
+        <v>0.2217294900221761</v>
+      </c>
       <c r="CK32" s="9"/>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
@@ -37313,9 +37466,11 @@
         <v>0.10672358591248059</v>
       </c>
       <c r="CI33" s="10">
-        <v>0.42283298097250682</v>
-      </c>
-      <c r="CJ33" s="9"/>
+        <v>0.52854122621564481</v>
+      </c>
+      <c r="CJ33" s="10">
+        <v>1.9088016967126009</v>
+      </c>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
@@ -37586,7 +37741,9 @@
       <c r="CI34" s="10">
         <v>1.5056461731493134</v>
       </c>
-      <c r="CJ34" s="9"/>
+      <c r="CJ34" s="10">
+        <v>1.240694789081886</v>
+      </c>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
@@ -37855,9 +38012,11 @@
         <v>-0.66371681415930139</v>
       </c>
       <c r="CI35" s="10">
-        <v>0.80808080808080518</v>
-      </c>
-      <c r="CJ35" s="9"/>
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="CJ35" s="10">
+        <v>-0.39761431411529968</v>
+      </c>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
@@ -38126,9 +38285,11 @@
         <v>2.2734654108476779</v>
       </c>
       <c r="CI36" s="10">
-        <v>0.46612802983219387</v>
-      </c>
-      <c r="CJ36" s="9"/>
+        <v>0.18645121193286696</v>
+      </c>
+      <c r="CJ36" s="10">
+        <v>-2.2083981337480632</v>
+      </c>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -38399,7 +38560,9 @@
       <c r="CI37" s="10">
         <v>0.37406483790525114</v>
       </c>
-      <c r="CJ37" s="9"/>
+      <c r="CJ37" s="10">
+        <v>0.62034739454094301</v>
+      </c>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -38670,7 +38833,9 @@
       <c r="CI38" s="10">
         <v>0.11983223487117353</v>
       </c>
-      <c r="CJ38" s="9"/>
+      <c r="CJ38" s="10">
+        <v>0.16354445435623297</v>
+      </c>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
@@ -38941,7 +39106,9 @@
       <c r="CI39" s="10">
         <v>-0.14775413711583926</v>
       </c>
-      <c r="CJ39" s="9"/>
+      <c r="CJ39" s="10">
+        <v>-0.17605633802817569</v>
+      </c>
       <c r="CK39" s="9"/>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
@@ -39212,7 +39379,9 @@
       <c r="CI40" s="10">
         <v>0</v>
       </c>
-      <c r="CJ40" s="9"/>
+      <c r="CJ40" s="10">
+        <v>1.028277634961436</v>
+      </c>
       <c r="CK40" s="9"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
@@ -39481,9 +39650,11 @@
         <v>-1.5190525231719962</v>
       </c>
       <c r="CI41" s="10">
-        <v>-1.3470487386725585</v>
-      </c>
-      <c r="CJ41" s="9"/>
+        <v>-1.4450159196669199</v>
+      </c>
+      <c r="CJ41" s="10">
+        <v>-2.1116504854368903</v>
+      </c>
       <c r="CK41" s="9"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
@@ -39754,7 +39925,9 @@
       <c r="CI42" s="10">
         <v>1.5904572564612363</v>
       </c>
-      <c r="CJ42" s="9"/>
+      <c r="CJ42" s="10">
+        <v>1.7173051519154519</v>
+      </c>
       <c r="CK42" s="9"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
@@ -40025,7 +40198,9 @@
       <c r="CI43" s="10">
         <v>2.7659574468085149</v>
       </c>
-      <c r="CJ43" s="9"/>
+      <c r="CJ43" s="10">
+        <v>1.894736842105275</v>
+      </c>
       <c r="CK43" s="9"/>
       <c r="CL43" s="9"/>
       <c r="CM43" s="9"/>
@@ -40294,9 +40469,11 @@
         <v>0.33887861983979228</v>
       </c>
       <c r="CI44" s="10">
-        <v>1.3469985358711467</v>
-      </c>
-      <c r="CJ44" s="9"/>
+        <v>0.67349926793558168</v>
+      </c>
+      <c r="CJ44" s="10">
+        <v>-0.26178010471205182</v>
+      </c>
       <c r="CK44" s="9"/>
       <c r="CL44" s="9"/>
       <c r="CM44" s="9"/>
@@ -40567,7 +40744,9 @@
       <c r="CI45" s="10">
         <v>-0.32362459546924877</v>
       </c>
-      <c r="CJ45" s="9"/>
+      <c r="CJ45" s="10">
+        <v>-1.9169329073482362</v>
+      </c>
       <c r="CK45" s="9"/>
       <c r="CL45" s="9"/>
       <c r="CM45" s="9"/>
@@ -40838,7 +41017,9 @@
       <c r="CI46" s="10">
         <v>1.1452682338758322</v>
       </c>
-      <c r="CJ46" s="9"/>
+      <c r="CJ46" s="10">
+        <v>1.2597480503899356</v>
+      </c>
       <c r="CK46" s="9"/>
       <c r="CL46" s="9"/>
       <c r="CM46" s="9"/>
@@ -41107,9 +41288,11 @@
         <v>-0.27472527472529812</v>
       </c>
       <c r="CI47" s="10">
-        <v>0</v>
-      </c>
-      <c r="CJ47" s="9"/>
+        <v>0.79999999999999238</v>
+      </c>
+      <c r="CJ47" s="10">
+        <v>0.26525198938990535</v>
+      </c>
       <c r="CK47" s="9"/>
       <c r="CL47" s="9"/>
       <c r="CM47" s="9"/>
@@ -41378,9 +41561,11 @@
         <v>-0.40241448692153486</v>
       </c>
       <c r="CI48" s="10">
-        <v>-0.72011521843494952</v>
-      </c>
-      <c r="CJ48" s="9"/>
+        <v>-0.14402304368699537</v>
+      </c>
+      <c r="CJ48" s="10">
+        <v>-0.23946360153256704</v>
+      </c>
       <c r="CK48" s="9"/>
       <c r="CL48" s="9"/>
       <c r="CM48" s="9"/>
@@ -41649,9 +41834,11 @@
         <v>1.081763274136843</v>
       </c>
       <c r="CI49" s="10">
-        <v>0.78864353312302837</v>
-      </c>
-      <c r="CJ49" s="9"/>
+        <v>1.2793550648440157</v>
+      </c>
+      <c r="CJ49" s="10">
+        <v>1.3329848405645544</v>
+      </c>
       <c r="CK49" s="9"/>
       <c r="CL49" s="9"/>
       <c r="CM49" s="9"/>
@@ -41920,9 +42107,11 @@
         <v>3.688853247794726</v>
       </c>
       <c r="CI50" s="10">
-        <v>3.9999999999999956</v>
-      </c>
-      <c r="CJ50" s="9"/>
+        <v>3.4509803921568674</v>
+      </c>
+      <c r="CJ50" s="10">
+        <v>3.9093041438623923</v>
+      </c>
       <c r="CK50" s="9"/>
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
@@ -42193,7 +42382,9 @@
       <c r="CI51" s="10">
         <v>2.0467836257310021</v>
       </c>
-      <c r="CJ51" s="9"/>
+      <c r="CJ51" s="10">
+        <v>2.0588235294117729</v>
+      </c>
       <c r="CK51" s="9"/>
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
@@ -42464,7 +42655,9 @@
       <c r="CI52" s="10">
         <v>-0.2466091245375939</v>
       </c>
-      <c r="CJ52" s="9"/>
+      <c r="CJ52" s="10">
+        <v>-0.18455859735466709</v>
+      </c>
       <c r="CK52" s="9"/>
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
@@ -42733,9 +42926,11 @@
         <v>1.168488503580839</v>
       </c>
       <c r="CI53" s="10">
-        <v>1.389932381667893</v>
-      </c>
-      <c r="CJ53" s="9"/>
+        <v>1.4274981217129805</v>
+      </c>
+      <c r="CJ53" s="10">
+        <v>1.1601796407185498</v>
+      </c>
       <c r="CK53" s="9"/>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
@@ -43006,7 +43201,9 @@
       <c r="CI54" s="10">
         <v>-0.78616352201257855</v>
       </c>
-      <c r="CJ54" s="9"/>
+      <c r="CJ54" s="10">
+        <v>-0.31055900621118449</v>
+      </c>
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
@@ -43275,9 +43472,11 @@
         <v>1.555444054189661</v>
       </c>
       <c r="CI55" s="10">
-        <v>2.0436600092893662</v>
-      </c>
-      <c r="CJ55" s="9"/>
+        <v>1.254064096609377</v>
+      </c>
+      <c r="CJ55" s="10">
+        <v>4.5871559633024916E-2</v>
+      </c>
       <c r="CK55" s="9"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
@@ -43548,7 +43747,9 @@
       <c r="CI56" s="10">
         <v>-1.2987012987012942</v>
       </c>
-      <c r="CJ56" s="9"/>
+      <c r="CJ56" s="10">
+        <v>-1.9108280254777004</v>
+      </c>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\u6kUBr_AokeMEg0_HmJZDg==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,556 +17,6 @@
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="R25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BB25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BH25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BJ25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BL25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BM25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BN25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BO25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BP25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BQ25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BR25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Correction
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,7 +1016,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:CV56"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,6 +1331,9 @@
       <c r="CV4" s="4">
         <v>43891</v>
       </c>
+      <c r="CW4" s="4">
+        <v>43922</v>
+      </c>
     </row>
     <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2178,12 +1631,14 @@
         <v>10573.1</v>
       </c>
       <c r="CU5" s="6">
-        <v>10972.5</v>
+        <v>10979.5</v>
       </c>
       <c r="CV5" s="6">
-        <v>11007.2</v>
-      </c>
-      <c r="CW5" s="6"/>
+        <v>10952.4</v>
+      </c>
+      <c r="CW5" s="6">
+        <v>10316.9</v>
+      </c>
       <c r="CX5" s="6"/>
       <c r="CY5" s="6"/>
       <c r="CZ5" s="6"/>
@@ -2728,9 +2183,11 @@
         <v>171.5</v>
       </c>
       <c r="CV6" s="6">
-        <v>172.5</v>
-      </c>
-      <c r="CW6" s="6"/>
+        <v>172.6</v>
+      </c>
+      <c r="CW6" s="6">
+        <v>167.7</v>
+      </c>
       <c r="CX6" s="6"/>
       <c r="CY6" s="6"/>
       <c r="CZ6" s="6"/>
@@ -3277,7 +2734,9 @@
       <c r="CV7" s="6">
         <v>30.2</v>
       </c>
-      <c r="CW7" s="6"/>
+      <c r="CW7" s="6">
+        <v>26.4</v>
+      </c>
       <c r="CX7" s="6"/>
       <c r="CY7" s="6"/>
       <c r="CZ7" s="6"/>
@@ -3822,9 +3281,11 @@
         <v>212.7</v>
       </c>
       <c r="CV8" s="6">
-        <v>207.8</v>
-      </c>
-      <c r="CW8" s="6"/>
+        <v>207.5</v>
+      </c>
+      <c r="CW8" s="6">
+        <v>203</v>
+      </c>
       <c r="CX8" s="6"/>
       <c r="CY8" s="6"/>
       <c r="CZ8" s="6"/>
@@ -4371,7 +3832,9 @@
       <c r="CV9" s="6">
         <v>101.4</v>
       </c>
-      <c r="CW9" s="6"/>
+      <c r="CW9" s="6">
+        <v>97.3</v>
+      </c>
       <c r="CX9" s="6"/>
       <c r="CY9" s="6"/>
       <c r="CZ9" s="6"/>
@@ -4918,7 +4381,9 @@
       <c r="CV10" s="6">
         <v>1310.5</v>
       </c>
-      <c r="CW10" s="6"/>
+      <c r="CW10" s="6">
+        <v>1242.5</v>
+      </c>
       <c r="CX10" s="6"/>
       <c r="CY10" s="6"/>
       <c r="CZ10" s="6"/>
@@ -5463,9 +4928,11 @@
         <v>231.7</v>
       </c>
       <c r="CV11" s="6">
-        <v>233.6</v>
-      </c>
-      <c r="CW11" s="6"/>
+        <v>234.4</v>
+      </c>
+      <c r="CW11" s="6">
+        <v>227.5</v>
+      </c>
       <c r="CX11" s="6"/>
       <c r="CY11" s="6"/>
       <c r="CZ11" s="6"/>
@@ -6010,9 +5477,11 @@
         <v>128.80000000000001</v>
       </c>
       <c r="CV12" s="6">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="CW12" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="CW12" s="6">
+        <v>120.9</v>
+      </c>
       <c r="CX12" s="6"/>
       <c r="CY12" s="6"/>
       <c r="CZ12" s="6"/>
@@ -6557,9 +6026,11 @@
         <v>37.6</v>
       </c>
       <c r="CV13" s="6">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="CW13" s="6"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="CW13" s="6">
+        <v>36.099999999999994</v>
+      </c>
       <c r="CX13" s="6"/>
       <c r="CY13" s="6"/>
       <c r="CZ13" s="6"/>
@@ -6908,7 +6379,7 @@
       <c r="CT14" s="8"/>
       <c r="CU14" s="8"/>
       <c r="CV14" s="8"/>
-      <c r="CW14" s="6"/>
+      <c r="CW14" s="8"/>
       <c r="CX14" s="6"/>
       <c r="CY14" s="6"/>
       <c r="CZ14" s="6"/>
@@ -7453,9 +6924,11 @@
         <v>519.1</v>
       </c>
       <c r="CV15" s="6">
-        <v>520.20000000000005</v>
-      </c>
-      <c r="CW15" s="6"/>
+        <v>519.29999999999995</v>
+      </c>
+      <c r="CW15" s="6">
+        <v>494.5</v>
+      </c>
       <c r="CX15" s="6"/>
       <c r="CY15" s="6"/>
       <c r="CZ15" s="6"/>
@@ -8000,9 +7473,11 @@
         <v>350</v>
       </c>
       <c r="CV16" s="6">
-        <v>349.4</v>
-      </c>
-      <c r="CW16" s="6"/>
+        <v>347.2</v>
+      </c>
+      <c r="CW16" s="6">
+        <v>335</v>
+      </c>
       <c r="CX16" s="6"/>
       <c r="CY16" s="6"/>
       <c r="CZ16" s="6"/>
@@ -8351,7 +7826,7 @@
       <c r="CT17" s="8"/>
       <c r="CU17" s="8"/>
       <c r="CV17" s="8"/>
-      <c r="CW17" s="6"/>
+      <c r="CW17" s="8"/>
       <c r="CX17" s="6"/>
       <c r="CY17" s="6"/>
       <c r="CZ17" s="6"/>
@@ -8896,9 +8371,11 @@
         <v>63.7</v>
       </c>
       <c r="CV18" s="6">
-        <v>64.3</v>
-      </c>
-      <c r="CW18" s="6"/>
+        <v>63.7</v>
+      </c>
+      <c r="CW18" s="6">
+        <v>59.7</v>
+      </c>
       <c r="CX18" s="6"/>
       <c r="CY18" s="6"/>
       <c r="CZ18" s="6"/>
@@ -9445,7 +8922,9 @@
       <c r="CV19" s="6">
         <v>463.29999999999995</v>
       </c>
-      <c r="CW19" s="6"/>
+      <c r="CW19" s="6">
+        <v>434.09999999999997</v>
+      </c>
       <c r="CX19" s="6"/>
       <c r="CY19" s="6"/>
       <c r="CZ19" s="6"/>
@@ -9990,9 +9469,11 @@
         <v>243.70000000000002</v>
       </c>
       <c r="CV20" s="6">
-        <v>245.39999999999998</v>
-      </c>
-      <c r="CW20" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="CW20" s="6">
+        <v>223.8</v>
+      </c>
       <c r="CX20" s="6"/>
       <c r="CY20" s="6"/>
       <c r="CZ20" s="6"/>
@@ -10537,9 +10018,11 @@
         <v>148.9</v>
       </c>
       <c r="CV21" s="6">
-        <v>148.89999999999998</v>
-      </c>
-      <c r="CW21" s="6"/>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="CW21" s="6">
+        <v>130</v>
+      </c>
       <c r="CX21" s="6"/>
       <c r="CY21" s="6"/>
       <c r="CZ21" s="6"/>
@@ -11084,9 +10567,11 @@
         <v>140.6</v>
       </c>
       <c r="CV22" s="6">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="CW22" s="6"/>
+        <v>141.1</v>
+      </c>
+      <c r="CW22" s="6">
+        <v>136.20000000000002</v>
+      </c>
       <c r="CX22" s="6"/>
       <c r="CY22" s="6"/>
       <c r="CZ22" s="6"/>
@@ -11633,7 +11118,9 @@
       <c r="CV23" s="6">
         <v>165</v>
       </c>
-      <c r="CW23" s="6"/>
+      <c r="CW23" s="6">
+        <v>151.80000000000001</v>
+      </c>
       <c r="CX23" s="6"/>
       <c r="CY23" s="6"/>
       <c r="CZ23" s="6"/>
@@ -12180,7 +11667,9 @@
       <c r="CV24" s="6">
         <v>155.1</v>
       </c>
-      <c r="CW24" s="6"/>
+      <c r="CW24" s="6">
+        <v>150.30000000000001</v>
+      </c>
       <c r="CX24" s="6"/>
       <c r="CY24" s="6"/>
       <c r="CZ24" s="6"/>
@@ -12725,9 +12214,11 @@
         <v>51.1</v>
       </c>
       <c r="CV25" s="6">
-        <v>51.2</v>
-      </c>
-      <c r="CW25" s="6"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="CW25" s="6">
+        <v>47.5</v>
+      </c>
       <c r="CX25" s="6"/>
       <c r="CY25" s="6"/>
       <c r="CZ25" s="6"/>
@@ -13272,9 +12763,11 @@
         <v>212.9</v>
       </c>
       <c r="CV26" s="6">
-        <v>216.89999999999998</v>
-      </c>
-      <c r="CW26" s="6"/>
+        <v>216.7</v>
+      </c>
+      <c r="CW26" s="6">
+        <v>205.2</v>
+      </c>
       <c r="CX26" s="6"/>
       <c r="CY26" s="6"/>
       <c r="CZ26" s="6"/>
@@ -13819,9 +13312,11 @@
         <v>249.5</v>
       </c>
       <c r="CV27" s="6">
-        <v>250</v>
-      </c>
-      <c r="CW27" s="6"/>
+        <v>250.1</v>
+      </c>
+      <c r="CW27" s="6">
+        <v>231.7</v>
+      </c>
       <c r="CX27" s="6"/>
       <c r="CY27" s="6"/>
       <c r="CZ27" s="6"/>
@@ -14366,9 +13861,11 @@
         <v>335.8</v>
       </c>
       <c r="CV28" s="6">
-        <v>332.6</v>
-      </c>
-      <c r="CW28" s="6"/>
+        <v>332.9</v>
+      </c>
+      <c r="CW28" s="6">
+        <v>314.5</v>
+      </c>
       <c r="CX28" s="6"/>
       <c r="CY28" s="6"/>
       <c r="CZ28" s="6"/>
@@ -14913,9 +14410,11 @@
         <v>214.3</v>
       </c>
       <c r="CV29" s="6">
-        <v>214.60000000000002</v>
-      </c>
-      <c r="CW29" s="6"/>
+        <v>214.3</v>
+      </c>
+      <c r="CW29" s="6">
+        <v>199.1</v>
+      </c>
       <c r="CX29" s="6"/>
       <c r="CY29" s="6"/>
       <c r="CZ29" s="6"/>
@@ -15460,9 +14959,11 @@
         <v>108</v>
       </c>
       <c r="CV30" s="6">
-        <v>106.9</v>
-      </c>
-      <c r="CW30" s="6"/>
+        <v>106.1</v>
+      </c>
+      <c r="CW30" s="6">
+        <v>101.9</v>
+      </c>
       <c r="CX30" s="6"/>
       <c r="CY30" s="6"/>
       <c r="CZ30" s="6"/>
@@ -15811,7 +15312,7 @@
       <c r="CT31" s="8"/>
       <c r="CU31" s="8"/>
       <c r="CV31" s="8"/>
-      <c r="CW31" s="6"/>
+      <c r="CW31" s="8"/>
       <c r="CX31" s="6"/>
       <c r="CY31" s="6"/>
       <c r="CZ31" s="6"/>
@@ -16358,7 +15859,9 @@
       <c r="CV32" s="6">
         <v>45.2</v>
       </c>
-      <c r="CW32" s="6"/>
+      <c r="CW32" s="6">
+        <v>41.7</v>
+      </c>
       <c r="CX32" s="6"/>
       <c r="CY32" s="6"/>
       <c r="CZ32" s="6"/>
@@ -16905,7 +16408,9 @@
       <c r="CV33" s="6">
         <v>96.1</v>
       </c>
-      <c r="CW33" s="6"/>
+      <c r="CW33" s="6">
+        <v>90.3</v>
+      </c>
       <c r="CX33" s="6"/>
       <c r="CY33" s="6"/>
       <c r="CZ33" s="6"/>
@@ -17452,7 +16957,9 @@
       <c r="CV34" s="6">
         <v>81.599999999999994</v>
       </c>
-      <c r="CW34" s="6"/>
+      <c r="CW34" s="6">
+        <v>74.8</v>
+      </c>
       <c r="CX34" s="6"/>
       <c r="CY34" s="6"/>
       <c r="CZ34" s="6"/>
@@ -17997,9 +17504,11 @@
         <v>50</v>
       </c>
       <c r="CV35" s="6">
-        <v>50.1</v>
-      </c>
-      <c r="CW35" s="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="CW35" s="6">
+        <v>44.5</v>
+      </c>
       <c r="CX35" s="6"/>
       <c r="CY35" s="6"/>
       <c r="CZ35" s="6"/>
@@ -18544,9 +18053,11 @@
         <v>322.39999999999998</v>
       </c>
       <c r="CV36" s="6">
-        <v>314.39999999999998</v>
-      </c>
-      <c r="CW36" s="6"/>
+        <v>304.89999999999998</v>
+      </c>
+      <c r="CW36" s="6">
+        <v>308.39999999999998</v>
+      </c>
       <c r="CX36" s="6"/>
       <c r="CY36" s="6"/>
       <c r="CZ36" s="6"/>
@@ -19091,9 +18602,11 @@
         <v>80.5</v>
       </c>
       <c r="CV37" s="6">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="CW37" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="CW37" s="6">
+        <v>76.7</v>
+      </c>
       <c r="CX37" s="6"/>
       <c r="CY37" s="6"/>
       <c r="CZ37" s="6"/>
@@ -19640,7 +19153,9 @@
       <c r="CV38" s="6">
         <v>673.69999999999993</v>
       </c>
-      <c r="CW38" s="6"/>
+      <c r="CW38" s="6">
+        <v>630.70000000000005</v>
+      </c>
       <c r="CX38" s="6"/>
       <c r="CY38" s="6"/>
       <c r="CZ38" s="6"/>
@@ -20187,7 +19702,9 @@
       <c r="CV39" s="6">
         <v>340.2</v>
       </c>
-      <c r="CW39" s="6"/>
+      <c r="CW39" s="6">
+        <v>325.29999999999995</v>
+      </c>
       <c r="CX39" s="6"/>
       <c r="CY39" s="6"/>
       <c r="CZ39" s="6"/>
@@ -20734,7 +20251,9 @@
       <c r="CV40" s="6">
         <v>39.299999999999997</v>
       </c>
-      <c r="CW40" s="6"/>
+      <c r="CW40" s="6">
+        <v>36.299999999999997</v>
+      </c>
       <c r="CX40" s="6"/>
       <c r="CY40" s="6"/>
       <c r="CZ40" s="6"/>
@@ -21279,9 +20798,11 @@
         <v>402.4</v>
       </c>
       <c r="CV41" s="6">
-        <v>403.3</v>
-      </c>
-      <c r="CW41" s="6"/>
+        <v>402.3</v>
+      </c>
+      <c r="CW41" s="6">
+        <v>371</v>
+      </c>
       <c r="CX41" s="6"/>
       <c r="CY41" s="6"/>
       <c r="CZ41" s="6"/>
@@ -21826,9 +21347,11 @@
         <v>153.30000000000001</v>
       </c>
       <c r="CV42" s="6">
-        <v>154</v>
-      </c>
-      <c r="CW42" s="6"/>
+        <v>153.4</v>
+      </c>
+      <c r="CW42" s="6">
+        <v>147.39999999999998</v>
+      </c>
       <c r="CX42" s="6"/>
       <c r="CY42" s="6"/>
       <c r="CZ42" s="6"/>
@@ -22373,9 +21896,11 @@
         <v>144.9</v>
       </c>
       <c r="CV43" s="6">
-        <v>145.20000000000002</v>
-      </c>
-      <c r="CW43" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="CW43" s="6">
+        <v>135</v>
+      </c>
       <c r="CX43" s="6"/>
       <c r="CY43" s="6"/>
       <c r="CZ43" s="6"/>
@@ -22920,9 +22445,11 @@
         <v>343.8</v>
       </c>
       <c r="CV44" s="6">
-        <v>342.9</v>
-      </c>
-      <c r="CW44" s="6"/>
+        <v>342.6</v>
+      </c>
+      <c r="CW44" s="6">
+        <v>332</v>
+      </c>
       <c r="CX44" s="6"/>
       <c r="CY44" s="6"/>
       <c r="CZ44" s="6"/>
@@ -23469,7 +22996,9 @@
       <c r="CV45" s="6">
         <v>30.7</v>
       </c>
-      <c r="CW45" s="6"/>
+      <c r="CW45" s="6">
+        <v>29.1</v>
+      </c>
       <c r="CX45" s="6"/>
       <c r="CY45" s="6"/>
       <c r="CZ45" s="6"/>
@@ -24014,9 +23543,11 @@
         <v>167.8</v>
       </c>
       <c r="CV46" s="6">
-        <v>168.8</v>
-      </c>
-      <c r="CW46" s="6"/>
+        <v>168.89999999999998</v>
+      </c>
+      <c r="CW46" s="6">
+        <v>156.9</v>
+      </c>
       <c r="CX46" s="6"/>
       <c r="CY46" s="6"/>
       <c r="CZ46" s="6"/>
@@ -24563,7 +24094,9 @@
       <c r="CV47" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="CW47" s="6"/>
+      <c r="CW47" s="6">
+        <v>34.299999999999997</v>
+      </c>
       <c r="CX47" s="6"/>
       <c r="CY47" s="6"/>
       <c r="CZ47" s="6"/>
@@ -25108,9 +24641,11 @@
         <v>208</v>
       </c>
       <c r="CV48" s="6">
-        <v>208.3</v>
-      </c>
-      <c r="CW48" s="6"/>
+        <v>208.5</v>
+      </c>
+      <c r="CW48" s="6">
+        <v>200.6</v>
+      </c>
       <c r="CX48" s="6"/>
       <c r="CY48" s="6"/>
       <c r="CZ48" s="6"/>
@@ -25655,9 +25190,11 @@
         <v>1155.8</v>
       </c>
       <c r="CV49" s="6">
-        <v>1163.0999999999999</v>
-      </c>
-      <c r="CW49" s="6"/>
+        <v>1161.9000000000001</v>
+      </c>
+      <c r="CW49" s="6">
+        <v>1115.5999999999999</v>
+      </c>
       <c r="CX49" s="6"/>
       <c r="CY49" s="6"/>
       <c r="CZ49" s="6"/>
@@ -26202,9 +25739,11 @@
         <v>131.9</v>
       </c>
       <c r="CV50" s="6">
-        <v>132.9</v>
-      </c>
-      <c r="CW50" s="6"/>
+        <v>132.4</v>
+      </c>
+      <c r="CW50" s="6">
+        <v>128.60000000000002</v>
+      </c>
       <c r="CX50" s="6"/>
       <c r="CY50" s="6"/>
       <c r="CZ50" s="6"/>
@@ -26751,7 +26290,9 @@
       <c r="CV51" s="6">
         <v>34.700000000000003</v>
       </c>
-      <c r="CW51" s="6"/>
+      <c r="CW51" s="6">
+        <v>32.200000000000003</v>
+      </c>
       <c r="CX51" s="6"/>
       <c r="CY51" s="6"/>
       <c r="CZ51" s="6"/>
@@ -27296,9 +26837,11 @@
         <v>323.60000000000002</v>
       </c>
       <c r="CV52" s="6">
-        <v>324.5</v>
-      </c>
-      <c r="CW52" s="6"/>
+        <v>322.39999999999998</v>
+      </c>
+      <c r="CW52" s="6">
+        <v>303.7</v>
+      </c>
       <c r="CX52" s="6"/>
       <c r="CY52" s="6"/>
       <c r="CZ52" s="6"/>
@@ -27843,9 +27386,11 @@
         <v>270</v>
       </c>
       <c r="CV53" s="6">
-        <v>270.3</v>
-      </c>
-      <c r="CW53" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="CW53" s="6">
+        <v>251</v>
+      </c>
       <c r="CX53" s="6"/>
       <c r="CY53" s="6"/>
       <c r="CZ53" s="6"/>
@@ -28392,7 +27937,9 @@
       <c r="CV54" s="6">
         <v>64.2</v>
       </c>
-      <c r="CW54" s="6"/>
+      <c r="CW54" s="6">
+        <v>56.8</v>
+      </c>
       <c r="CX54" s="6"/>
       <c r="CY54" s="6"/>
       <c r="CZ54" s="6"/>
@@ -28937,9 +28484,11 @@
         <v>218</v>
       </c>
       <c r="CV55" s="6">
-        <v>218.1</v>
-      </c>
-      <c r="CW55" s="6"/>
+        <v>218.8</v>
+      </c>
+      <c r="CW55" s="6">
+        <v>174.79999999999998</v>
+      </c>
       <c r="CX55" s="6"/>
       <c r="CY55" s="6"/>
       <c r="CZ55" s="6"/>
@@ -29484,9 +29033,11 @@
         <v>30.4</v>
       </c>
       <c r="CV56" s="6">
-        <v>30.8</v>
-      </c>
-      <c r="CW56" s="6"/>
+        <v>30.7</v>
+      </c>
+      <c r="CW56" s="6">
+        <v>29.5</v>
+      </c>
       <c r="CX56" s="6"/>
       <c r="CY56" s="6"/>
       <c r="CZ56" s="6"/>
@@ -29739,14 +29290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="BZ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CH11" sqref="CH11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30076,7 +29627,9 @@
       <c r="CJ4" s="4">
         <v>43891</v>
       </c>
-      <c r="CK4" s="9"/>
+      <c r="CK4" s="4">
+        <v>43922</v>
+      </c>
       <c r="CL4" s="9"/>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -30344,12 +29897,14 @@
         <v>0.72688819449738107</v>
       </c>
       <c r="CI5" s="10">
-        <v>0.69562344563033851</v>
+        <v>0.7598630778125588</v>
       </c>
       <c r="CJ5" s="10">
-        <v>0.39218547636854489</v>
-      </c>
-      <c r="CK5" s="9"/>
+        <v>-0.10762299118951761</v>
+      </c>
+      <c r="CK5" s="10">
+        <v>-5.9423632700320095</v>
+      </c>
       <c r="CL5" s="9"/>
       <c r="CM5" s="9"/>
       <c r="CN5" s="9"/>
@@ -30620,9 +30175,11 @@
         <v>2.5104602510460183</v>
       </c>
       <c r="CJ6" s="10">
-        <v>2.6174895895300452</v>
-      </c>
-      <c r="CK6" s="9"/>
+        <v>2.6769779892920882</v>
+      </c>
+      <c r="CK6" s="10">
+        <v>-0.29726516052318669</v>
+      </c>
       <c r="CL6" s="9"/>
       <c r="CM6" s="9"/>
       <c r="CN6" s="9"/>
@@ -30895,7 +30452,9 @@
       <c r="CJ7" s="10">
         <v>-3.8216560509554118</v>
       </c>
-      <c r="CK7" s="9"/>
+      <c r="CK7" s="10">
+        <v>-16.190476190476193</v>
+      </c>
       <c r="CL7" s="9"/>
       <c r="CM7" s="9"/>
       <c r="CN7" s="9"/>
@@ -31166,9 +30725,11 @@
         <v>2.6049204052098296</v>
       </c>
       <c r="CJ8" s="10">
-        <v>0.48355899419729204</v>
-      </c>
-      <c r="CK8" s="9"/>
+        <v>0.33849129593809896</v>
+      </c>
+      <c r="CK8" s="10">
+        <v>-1.6949152542372881</v>
+      </c>
       <c r="CL8" s="9"/>
       <c r="CM8" s="9"/>
       <c r="CN8" s="9"/>
@@ -31441,7 +31002,9 @@
       <c r="CJ9" s="10">
         <v>-2.0289855072463712</v>
       </c>
-      <c r="CK9" s="9"/>
+      <c r="CK9" s="10">
+        <v>-6.3522617901828635</v>
+      </c>
       <c r="CL9" s="9"/>
       <c r="CM9" s="9"/>
       <c r="CN9" s="9"/>
@@ -31714,7 +31277,9 @@
       <c r="CJ10" s="10">
         <v>0.94746572176859911</v>
       </c>
-      <c r="CK10" s="9"/>
+      <c r="CK10" s="10">
+        <v>-4.5918759118482653</v>
+      </c>
       <c r="CL10" s="9"/>
       <c r="CM10" s="9"/>
       <c r="CN10" s="9"/>
@@ -31985,9 +31550,11 @@
         <v>2.658396101019052</v>
       </c>
       <c r="CJ11" s="10">
-        <v>2.6362038664323375</v>
-      </c>
-      <c r="CK11" s="9"/>
+        <v>2.9876977152899875</v>
+      </c>
+      <c r="CK11" s="10">
+        <v>0.53026955368978723</v>
+      </c>
       <c r="CL11" s="9"/>
       <c r="CM11" s="9"/>
       <c r="CN11" s="9"/>
@@ -32258,9 +31825,11 @@
         <v>0.62500000000000888</v>
       </c>
       <c r="CJ12" s="10">
-        <v>-0.23328149300156401</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>-0.46656298600312801</v>
+      </c>
+      <c r="CK12" s="10">
+        <v>-5.2507836990595624</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -32531,9 +32100,11 @@
         <v>5.9154929577464825</v>
       </c>
       <c r="CJ13" s="10">
-        <v>4.6575342465753504</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>3.5616438356164304</v>
+      </c>
+      <c r="CK13" s="10">
+        <v>-1.0958904109589196</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -32632,7 +32203,7 @@
       <c r="CH14" s="8"/>
       <c r="CI14" s="8"/>
       <c r="CJ14" s="8"/>
-      <c r="CK14" s="9"/>
+      <c r="CK14" s="8"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -32903,9 +32474,11 @@
         <v>-7.6997112608272814E-2</v>
       </c>
       <c r="CJ15" s="10">
-        <v>-0.11520737327187194</v>
-      </c>
-      <c r="CK15" s="9"/>
+        <v>-0.28801843317972353</v>
+      </c>
+      <c r="CK15" s="10">
+        <v>-4.5735237360092711</v>
+      </c>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -33176,9 +32749,11 @@
         <v>0</v>
       </c>
       <c r="CJ16" s="10">
-        <v>-0.3706871970345057</v>
-      </c>
-      <c r="CK16" s="9"/>
+        <v>-0.99800399201596812</v>
+      </c>
+      <c r="CK16" s="10">
+        <v>-4.2309891366495167</v>
+      </c>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -33277,7 +32852,7 @@
       <c r="CH17" s="8"/>
       <c r="CI17" s="8"/>
       <c r="CJ17" s="8"/>
-      <c r="CK17" s="9"/>
+      <c r="CK17" s="8"/>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
@@ -33548,9 +33123,11 @@
         <v>1.594896331738437</v>
       </c>
       <c r="CJ18" s="10">
-        <v>2.0634920634920588</v>
-      </c>
-      <c r="CK18" s="9"/>
+        <v>1.1111111111111156</v>
+      </c>
+      <c r="CK18" s="10">
+        <v>-4.3269230769230811</v>
+      </c>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
@@ -33823,7 +33400,9 @@
       <c r="CJ19" s="10">
         <v>2.8184642698623903</v>
       </c>
-      <c r="CK19" s="9"/>
+      <c r="CK19" s="10">
+        <v>-3.4045393858477997</v>
+      </c>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
@@ -34094,9 +33673,11 @@
         <v>1.0364842454394811</v>
       </c>
       <c r="CJ20" s="10">
-        <v>1.0708401976935609</v>
-      </c>
-      <c r="CK20" s="9"/>
+        <v>-0.74135090609555654</v>
+      </c>
+      <c r="CK20" s="10">
+        <v>-5.8477071939419449</v>
+      </c>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
@@ -34367,9 +33948,11 @@
         <v>0.13449899125757706</v>
       </c>
       <c r="CJ21" s="10">
-        <v>-0.40133779264215569</v>
-      </c>
-      <c r="CK21" s="9"/>
+        <v>-0.20066889632107784</v>
+      </c>
+      <c r="CK21" s="10">
+        <v>-13.275517011340897</v>
+      </c>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
@@ -34640,9 +34223,11 @@
         <v>-0.98591549295775049</v>
       </c>
       <c r="CJ22" s="10">
-        <v>7.0871722182845015E-2</v>
-      </c>
-      <c r="CK22" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="CK22" s="10">
+        <v>-3.9492242595204279</v>
+      </c>
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
@@ -34915,7 +34500,9 @@
       <c r="CJ23" s="10">
         <v>-0.12106537530265657</v>
       </c>
-      <c r="CK23" s="9"/>
+      <c r="CK23" s="10">
+        <v>-7.8883495145631066</v>
+      </c>
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
@@ -35188,7 +34775,9 @@
       <c r="CJ24" s="10">
         <v>0.51847051198961946</v>
       </c>
-      <c r="CK24" s="9"/>
+      <c r="CK24" s="10">
+        <v>-3.2818532818532602</v>
+      </c>
       <c r="CL24" s="9"/>
       <c r="CM24" s="9"/>
       <c r="CN24" s="9"/>
@@ -35459,9 +35048,11 @@
         <v>-0.96899224806201545</v>
       </c>
       <c r="CJ25" s="10">
-        <v>-0.77519379844960967</v>
-      </c>
-      <c r="CK25" s="9"/>
+        <v>-1.9379844961240447</v>
+      </c>
+      <c r="CK25" s="10">
+        <v>-8.8291746641074749</v>
+      </c>
       <c r="CL25" s="9"/>
       <c r="CM25" s="9"/>
       <c r="CN25" s="9"/>
@@ -35732,9 +35323,11 @@
         <v>-2.3842274186153087</v>
       </c>
       <c r="CJ26" s="10">
-        <v>-2.2532672374943794</v>
-      </c>
-      <c r="CK26" s="9"/>
+        <v>-2.3433979269941489</v>
+      </c>
+      <c r="CK26" s="10">
+        <v>-7.0652173913043574</v>
+      </c>
       <c r="CL26" s="9"/>
       <c r="CM26" s="9"/>
       <c r="CN26" s="9"/>
@@ -36005,9 +35598,11 @@
         <v>1.0121457489878543</v>
       </c>
       <c r="CJ27" s="10">
-        <v>0.92854259184496679</v>
-      </c>
-      <c r="CK27" s="9"/>
+        <v>0.96891400888170254</v>
+      </c>
+      <c r="CK27" s="10">
+        <v>-6.6102378073357535</v>
+      </c>
       <c r="CL27" s="9"/>
       <c r="CM27" s="9"/>
       <c r="CN27" s="9"/>
@@ -36278,9 +35873,11 @@
         <v>2.346845473940868</v>
       </c>
       <c r="CJ28" s="10">
-        <v>0.48338368580061108</v>
-      </c>
-      <c r="CK28" s="9"/>
+        <v>0.57401812688821063</v>
+      </c>
+      <c r="CK28" s="10">
+        <v>-4.5523520485584221</v>
+      </c>
       <c r="CL28" s="9"/>
       <c r="CM28" s="9"/>
       <c r="CN28" s="9"/>
@@ -36551,9 +36148,11 @@
         <v>0.9896324222431776</v>
       </c>
       <c r="CJ29" s="10">
-        <v>0.98823529411765776</v>
-      </c>
-      <c r="CK29" s="9"/>
+        <v>0.84705882352941708</v>
+      </c>
+      <c r="CK29" s="10">
+        <v>-6.040585181689468</v>
+      </c>
       <c r="CL29" s="9"/>
       <c r="CM29" s="9"/>
       <c r="CN29" s="9"/>
@@ -36824,9 +36423,11 @@
         <v>0.65237651444548261</v>
       </c>
       <c r="CJ30" s="10">
-        <v>-0.92678405931417973</v>
-      </c>
-      <c r="CK30" s="9"/>
+        <v>-1.668211306765534</v>
+      </c>
+      <c r="CK30" s="10">
+        <v>-4.9440298507462668</v>
+      </c>
       <c r="CL30" s="9"/>
       <c r="CM30" s="9"/>
       <c r="CN30" s="9"/>
@@ -36925,7 +36526,7 @@
       <c r="CH31" s="8"/>
       <c r="CI31" s="8"/>
       <c r="CJ31" s="8"/>
-      <c r="CK31" s="9"/>
+      <c r="CK31" s="8"/>
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
       <c r="CN31" s="9"/>
@@ -37198,7 +36799,9 @@
       <c r="CJ32" s="10">
         <v>0.2217294900221761</v>
       </c>
-      <c r="CK32" s="9"/>
+      <c r="CK32" s="10">
+        <v>-6.2921348314606682</v>
+      </c>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
@@ -37471,7 +37074,9 @@
       <c r="CJ33" s="10">
         <v>1.9088016967126009</v>
       </c>
-      <c r="CK33" s="9"/>
+      <c r="CK33" s="10">
+        <v>-5.1470588235294175</v>
+      </c>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
@@ -37744,7 +37349,9 @@
       <c r="CJ34" s="10">
         <v>1.240694789081886</v>
       </c>
-      <c r="CK34" s="9"/>
+      <c r="CK34" s="10">
+        <v>-4.9555273189326456</v>
+      </c>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
@@ -38015,9 +37622,11 @@
         <v>1.0101010101010102</v>
       </c>
       <c r="CJ35" s="10">
-        <v>-0.39761431411529968</v>
-      </c>
-      <c r="CK35" s="9"/>
+        <v>-3.578528827037768</v>
+      </c>
+      <c r="CK35" s="10">
+        <v>-11</v>
+      </c>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
@@ -38288,9 +37897,11 @@
         <v>0.18645121193286696</v>
       </c>
       <c r="CJ36" s="10">
-        <v>-2.2083981337480632</v>
-      </c>
-      <c r="CK36" s="9"/>
+        <v>-5.1632970451010953</v>
+      </c>
+      <c r="CK36" s="10">
+        <v>-4.814814814814822</v>
+      </c>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -38561,9 +38172,11 @@
         <v>0.37406483790525114</v>
       </c>
       <c r="CJ37" s="10">
-        <v>0.62034739454094301</v>
-      </c>
-      <c r="CK37" s="9"/>
+        <v>0.49627791563276141</v>
+      </c>
+      <c r="CK37" s="10">
+        <v>-4.7204968944099344</v>
+      </c>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -38836,7 +38449,9 @@
       <c r="CJ38" s="10">
         <v>0.16354445435623297</v>
       </c>
-      <c r="CK38" s="9"/>
+      <c r="CK38" s="10">
+        <v>-6.8252326783867527</v>
+      </c>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
@@ -39109,7 +38724,9 @@
       <c r="CJ39" s="10">
         <v>-0.17605633802817569</v>
       </c>
-      <c r="CK39" s="9"/>
+      <c r="CK39" s="10">
+        <v>-4.604105571847521</v>
+      </c>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
@@ -39382,7 +38999,9 @@
       <c r="CJ40" s="10">
         <v>1.028277634961436</v>
       </c>
-      <c r="CK40" s="9"/>
+      <c r="CK40" s="10">
+        <v>-5.7142857142857215</v>
+      </c>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
@@ -39653,9 +39272,11 @@
         <v>-1.4450159196669199</v>
       </c>
       <c r="CJ41" s="10">
-        <v>-2.1116504854368903</v>
-      </c>
-      <c r="CK41" s="9"/>
+        <v>-2.3543689320388324</v>
+      </c>
+      <c r="CK41" s="10">
+        <v>-9.7982008266472054</v>
+      </c>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
@@ -39926,9 +39547,11 @@
         <v>1.5904572564612363</v>
       </c>
       <c r="CJ42" s="10">
-        <v>1.7173051519154519</v>
-      </c>
-      <c r="CK42" s="9"/>
+        <v>1.321003963011889</v>
+      </c>
+      <c r="CK42" s="10">
+        <v>-2.254641909814346</v>
+      </c>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
@@ -40199,9 +39822,11 @@
         <v>2.7659574468085149</v>
       </c>
       <c r="CJ43" s="10">
-        <v>1.894736842105275</v>
-      </c>
-      <c r="CK43" s="9"/>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="CK43" s="10">
+        <v>-4.8625792811839359</v>
+      </c>
       <c r="CL43" s="9"/>
       <c r="CM43" s="9"/>
       <c r="CN43" s="9"/>
@@ -40472,9 +40097,11 @@
         <v>0.67349926793558168</v>
       </c>
       <c r="CJ44" s="10">
-        <v>-0.26178010471205182</v>
-      </c>
-      <c r="CK44" s="9"/>
+        <v>-0.34904013961605251</v>
+      </c>
+      <c r="CK44" s="10">
+        <v>-3.1787693205015977</v>
+      </c>
       <c r="CL44" s="9"/>
       <c r="CM44" s="9"/>
       <c r="CN44" s="9"/>
@@ -40747,7 +40374,9 @@
       <c r="CJ45" s="10">
         <v>-1.9169329073482362</v>
       </c>
-      <c r="CK45" s="9"/>
+      <c r="CK45" s="10">
+        <v>-5.8252427184465931</v>
+      </c>
       <c r="CL45" s="9"/>
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
@@ -41018,9 +40647,11 @@
         <v>1.1452682338758322</v>
       </c>
       <c r="CJ46" s="10">
-        <v>1.2597480503899356</v>
-      </c>
-      <c r="CK46" s="9"/>
+        <v>1.3197360527894353</v>
+      </c>
+      <c r="CK46" s="10">
+        <v>-5.9916117435590168</v>
+      </c>
       <c r="CL46" s="9"/>
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
@@ -41293,7 +40924,9 @@
       <c r="CJ47" s="10">
         <v>0.26525198938990535</v>
       </c>
-      <c r="CK47" s="9"/>
+      <c r="CK47" s="10">
+        <v>-9.0185676392573093</v>
+      </c>
       <c r="CL47" s="9"/>
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
@@ -41564,9 +41197,11 @@
         <v>-0.14402304368699537</v>
       </c>
       <c r="CJ48" s="10">
-        <v>-0.23946360153256704</v>
-      </c>
-      <c r="CK48" s="9"/>
+        <v>-0.14367816091954566</v>
+      </c>
+      <c r="CK48" s="10">
+        <v>-3.1853281853281827</v>
+      </c>
       <c r="CL48" s="9"/>
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
@@ -41837,9 +41472,11 @@
         <v>1.2793550648440157</v>
       </c>
       <c r="CJ49" s="10">
-        <v>1.3329848405645544</v>
-      </c>
-      <c r="CK49" s="9"/>
+        <v>1.2284370099320558</v>
+      </c>
+      <c r="CK49" s="10">
+        <v>-1.795774647887332</v>
+      </c>
       <c r="CL49" s="9"/>
       <c r="CM49" s="9"/>
       <c r="CN49" s="9"/>
@@ -42110,9 +41747,11 @@
         <v>3.4509803921568674</v>
       </c>
       <c r="CJ50" s="10">
-        <v>3.9093041438623923</v>
-      </c>
-      <c r="CK50" s="9"/>
+        <v>3.5183737294761532</v>
+      </c>
+      <c r="CK50" s="10">
+        <v>-0.84811102544330452</v>
+      </c>
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
       <c r="CN50" s="9"/>
@@ -42385,7 +42024,9 @@
       <c r="CJ51" s="10">
         <v>2.0588235294117729</v>
       </c>
-      <c r="CK51" s="9"/>
+      <c r="CK51" s="10">
+        <v>-5.5718475073313742</v>
+      </c>
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
       <c r="CN51" s="9"/>
@@ -42656,9 +42297,11 @@
         <v>-0.2466091245375939</v>
       </c>
       <c r="CJ52" s="10">
-        <v>-0.18455859735466709</v>
-      </c>
-      <c r="CK52" s="9"/>
+        <v>-0.83051368809598436</v>
+      </c>
+      <c r="CK52" s="10">
+        <v>-7.0685434516523937</v>
+      </c>
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
@@ -42929,9 +42572,11 @@
         <v>1.4274981217129805</v>
       </c>
       <c r="CJ53" s="10">
-        <v>1.1601796407185498</v>
-      </c>
-      <c r="CK53" s="9"/>
+        <v>1.0479041916167493</v>
+      </c>
+      <c r="CK53" s="10">
+        <v>-6.6220238095237933</v>
+      </c>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
@@ -43204,7 +42849,9 @@
       <c r="CJ54" s="10">
         <v>-0.31055900621118449</v>
       </c>
-      <c r="CK54" s="9"/>
+      <c r="CK54" s="10">
+        <v>-12.210200927357041</v>
+      </c>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
@@ -43475,9 +43122,11 @@
         <v>1.254064096609377</v>
       </c>
       <c r="CJ55" s="10">
-        <v>4.5871559633024916E-2</v>
-      </c>
-      <c r="CK55" s="9"/>
+        <v>0.36697247706422542</v>
+      </c>
+      <c r="CK55" s="10">
+        <v>-19.595216191352353</v>
+      </c>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
@@ -43748,9 +43397,11 @@
         <v>-1.2987012987012942</v>
       </c>
       <c r="CJ56" s="10">
-        <v>-1.9108280254777004</v>
-      </c>
-      <c r="CK56" s="9"/>
+        <v>-2.2292993630573226</v>
+      </c>
+      <c r="CK56" s="10">
+        <v>-5.4487179487179569</v>
+      </c>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
@@ -43761,6 +43412,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\48vEuo3W0UGhYS3_fBzFUw==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="TABLE_1" sheetId="5" r:id="rId1"/>
     <sheet name="TABLE_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +307,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,10 +1014,10 @@
   <dimension ref="A1:MG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="CL47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CX31" sqref="CX31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,6 +1335,9 @@
       <c r="CW4" s="4">
         <v>43922</v>
       </c>
+      <c r="CX4" s="4">
+        <v>43952</v>
+      </c>
     </row>
     <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1634,12 +1638,14 @@
         <v>10979.5</v>
       </c>
       <c r="CV5" s="6">
-        <v>10952.4</v>
+        <v>10960.699999999999</v>
       </c>
       <c r="CW5" s="6">
-        <v>10316.9</v>
-      </c>
-      <c r="CX5" s="6"/>
+        <v>10358.1</v>
+      </c>
+      <c r="CX5" s="6">
+        <v>9802.2999999999993</v>
+      </c>
       <c r="CY5" s="6"/>
       <c r="CZ5" s="6"/>
       <c r="DA5" s="6"/>
@@ -2186,9 +2192,11 @@
         <v>172.6</v>
       </c>
       <c r="CW6" s="6">
-        <v>167.7</v>
-      </c>
-      <c r="CX6" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="CX6" s="6">
+        <v>155.30000000000001</v>
+      </c>
       <c r="CY6" s="6"/>
       <c r="CZ6" s="6"/>
       <c r="DA6" s="6"/>
@@ -2735,9 +2743,11 @@
         <v>30.2</v>
       </c>
       <c r="CW7" s="6">
-        <v>26.4</v>
-      </c>
-      <c r="CX7" s="6"/>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="CX7" s="6">
+        <v>24.2</v>
+      </c>
       <c r="CY7" s="6"/>
       <c r="CZ7" s="6"/>
       <c r="DA7" s="6"/>
@@ -3284,9 +3294,11 @@
         <v>207.5</v>
       </c>
       <c r="CW8" s="6">
-        <v>203</v>
-      </c>
-      <c r="CX8" s="6"/>
+        <v>202.60000000000002</v>
+      </c>
+      <c r="CX8" s="6">
+        <v>191.3</v>
+      </c>
       <c r="CY8" s="6"/>
       <c r="CZ8" s="6"/>
       <c r="DA8" s="6"/>
@@ -3833,9 +3845,11 @@
         <v>101.4</v>
       </c>
       <c r="CW9" s="6">
-        <v>97.3</v>
-      </c>
-      <c r="CX9" s="6"/>
+        <v>97.2</v>
+      </c>
+      <c r="CX9" s="6">
+        <v>92.800000000000011</v>
+      </c>
       <c r="CY9" s="6"/>
       <c r="CZ9" s="6"/>
       <c r="DA9" s="6"/>
@@ -4382,9 +4396,11 @@
         <v>1310.5</v>
       </c>
       <c r="CW10" s="6">
-        <v>1242.5</v>
-      </c>
-      <c r="CX10" s="6"/>
+        <v>1250</v>
+      </c>
+      <c r="CX10" s="6">
+        <v>1171.4000000000001</v>
+      </c>
       <c r="CY10" s="6"/>
       <c r="CZ10" s="6"/>
       <c r="DA10" s="6"/>
@@ -4931,9 +4947,11 @@
         <v>234.4</v>
       </c>
       <c r="CW11" s="6">
-        <v>227.5</v>
-      </c>
-      <c r="CX11" s="6"/>
+        <v>228.3</v>
+      </c>
+      <c r="CX11" s="6">
+        <v>225.9</v>
+      </c>
       <c r="CY11" s="6"/>
       <c r="CZ11" s="6"/>
       <c r="DA11" s="6"/>
@@ -5480,9 +5498,11 @@
         <v>128</v>
       </c>
       <c r="CW12" s="6">
-        <v>120.9</v>
-      </c>
-      <c r="CX12" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="CX12" s="6">
+        <v>114.69999999999999</v>
+      </c>
       <c r="CY12" s="6"/>
       <c r="CZ12" s="6"/>
       <c r="DA12" s="6"/>
@@ -6029,9 +6049,11 @@
         <v>37.799999999999997</v>
       </c>
       <c r="CW13" s="6">
-        <v>36.099999999999994</v>
-      </c>
-      <c r="CX13" s="6"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="CX13" s="6">
+        <v>34</v>
+      </c>
       <c r="CY13" s="6"/>
       <c r="CZ13" s="6"/>
       <c r="DA13" s="6"/>
@@ -6380,7 +6402,7 @@
       <c r="CU14" s="8"/>
       <c r="CV14" s="8"/>
       <c r="CW14" s="8"/>
-      <c r="CX14" s="6"/>
+      <c r="CX14" s="8"/>
       <c r="CY14" s="6"/>
       <c r="CZ14" s="6"/>
       <c r="DA14" s="6"/>
@@ -6927,9 +6949,11 @@
         <v>519.29999999999995</v>
       </c>
       <c r="CW15" s="6">
-        <v>494.5</v>
-      </c>
-      <c r="CX15" s="6"/>
+        <v>494.7</v>
+      </c>
+      <c r="CX15" s="6">
+        <v>479.9</v>
+      </c>
       <c r="CY15" s="6"/>
       <c r="CZ15" s="6"/>
       <c r="DA15" s="6"/>
@@ -7476,9 +7500,11 @@
         <v>347.2</v>
       </c>
       <c r="CW16" s="6">
-        <v>335</v>
-      </c>
-      <c r="CX16" s="6"/>
+        <v>335.3</v>
+      </c>
+      <c r="CX16" s="6">
+        <v>322.7</v>
+      </c>
       <c r="CY16" s="6"/>
       <c r="CZ16" s="6"/>
       <c r="DA16" s="6"/>
@@ -7827,7 +7853,7 @@
       <c r="CU17" s="8"/>
       <c r="CV17" s="8"/>
       <c r="CW17" s="8"/>
-      <c r="CX17" s="6"/>
+      <c r="CX17" s="8"/>
       <c r="CY17" s="6"/>
       <c r="CZ17" s="6"/>
       <c r="DA17" s="6"/>
@@ -8376,7 +8402,9 @@
       <c r="CW18" s="6">
         <v>59.7</v>
       </c>
-      <c r="CX18" s="6"/>
+      <c r="CX18" s="6">
+        <v>54.4</v>
+      </c>
       <c r="CY18" s="6"/>
       <c r="CZ18" s="6"/>
       <c r="DA18" s="6"/>
@@ -8923,9 +8951,11 @@
         <v>463.29999999999995</v>
       </c>
       <c r="CW19" s="6">
-        <v>434.09999999999997</v>
-      </c>
-      <c r="CX19" s="6"/>
+        <v>438.9</v>
+      </c>
+      <c r="CX19" s="6">
+        <v>429.59999999999997</v>
+      </c>
       <c r="CY19" s="6"/>
       <c r="CZ19" s="6"/>
       <c r="DA19" s="6"/>
@@ -9472,9 +9502,11 @@
         <v>241</v>
       </c>
       <c r="CW20" s="6">
-        <v>223.8</v>
-      </c>
-      <c r="CX20" s="6"/>
+        <v>224.7</v>
+      </c>
+      <c r="CX20" s="6">
+        <v>213.7</v>
+      </c>
       <c r="CY20" s="6"/>
       <c r="CZ20" s="6"/>
       <c r="DA20" s="6"/>
@@ -10021,9 +10053,11 @@
         <v>149.19999999999999</v>
       </c>
       <c r="CW21" s="6">
-        <v>130</v>
-      </c>
-      <c r="CX21" s="6"/>
+        <v>131.5</v>
+      </c>
+      <c r="CX21" s="6">
+        <v>123.3</v>
+      </c>
       <c r="CY21" s="6"/>
       <c r="CZ21" s="6"/>
       <c r="DA21" s="6"/>
@@ -10570,9 +10604,11 @@
         <v>141.1</v>
       </c>
       <c r="CW22" s="6">
-        <v>136.20000000000002</v>
-      </c>
-      <c r="CX22" s="6"/>
+        <v>136.5</v>
+      </c>
+      <c r="CX22" s="6">
+        <v>131.9</v>
+      </c>
       <c r="CY22" s="6"/>
       <c r="CZ22" s="6"/>
       <c r="DA22" s="6"/>
@@ -11121,7 +11157,9 @@
       <c r="CW23" s="6">
         <v>151.80000000000001</v>
       </c>
-      <c r="CX23" s="6"/>
+      <c r="CX23" s="6">
+        <v>142.5</v>
+      </c>
       <c r="CY23" s="6"/>
       <c r="CZ23" s="6"/>
       <c r="DA23" s="6"/>
@@ -11670,7 +11708,9 @@
       <c r="CW24" s="6">
         <v>150.30000000000001</v>
       </c>
-      <c r="CX24" s="6"/>
+      <c r="CX24" s="6">
+        <v>144.5</v>
+      </c>
       <c r="CY24" s="6"/>
       <c r="CZ24" s="6"/>
       <c r="DA24" s="6"/>
@@ -12219,7 +12259,9 @@
       <c r="CW25" s="6">
         <v>47.5</v>
       </c>
-      <c r="CX25" s="6"/>
+      <c r="CX25" s="6">
+        <v>42.7</v>
+      </c>
       <c r="CY25" s="6"/>
       <c r="CZ25" s="6"/>
       <c r="DA25" s="6"/>
@@ -12768,7 +12810,9 @@
       <c r="CW26" s="6">
         <v>205.2</v>
       </c>
-      <c r="CX26" s="6"/>
+      <c r="CX26" s="6">
+        <v>201.60000000000002</v>
+      </c>
       <c r="CY26" s="6"/>
       <c r="CZ26" s="6"/>
       <c r="DA26" s="6"/>
@@ -13315,9 +13359,11 @@
         <v>250.1</v>
       </c>
       <c r="CW27" s="6">
-        <v>231.7</v>
-      </c>
-      <c r="CX27" s="6"/>
+        <v>228.39999999999998</v>
+      </c>
+      <c r="CX27" s="6">
+        <v>221.89999999999998</v>
+      </c>
       <c r="CY27" s="6"/>
       <c r="CZ27" s="6"/>
       <c r="DA27" s="6"/>
@@ -13864,9 +13910,11 @@
         <v>332.9</v>
       </c>
       <c r="CW28" s="6">
-        <v>314.5</v>
-      </c>
-      <c r="CX28" s="6"/>
+        <v>311.10000000000002</v>
+      </c>
+      <c r="CX28" s="6">
+        <v>288.89999999999998</v>
+      </c>
       <c r="CY28" s="6"/>
       <c r="CZ28" s="6"/>
       <c r="DA28" s="6"/>
@@ -14413,9 +14461,11 @@
         <v>214.3</v>
       </c>
       <c r="CW29" s="6">
-        <v>199.1</v>
-      </c>
-      <c r="CX29" s="6"/>
+        <v>198.9</v>
+      </c>
+      <c r="CX29" s="6">
+        <v>189.3</v>
+      </c>
       <c r="CY29" s="6"/>
       <c r="CZ29" s="6"/>
       <c r="DA29" s="6"/>
@@ -14962,9 +15012,11 @@
         <v>106.1</v>
       </c>
       <c r="CW30" s="6">
-        <v>101.9</v>
-      </c>
-      <c r="CX30" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="CX30" s="6">
+        <v>98.300000000000011</v>
+      </c>
       <c r="CY30" s="6"/>
       <c r="CZ30" s="6"/>
       <c r="DA30" s="6"/>
@@ -15313,7 +15365,7 @@
       <c r="CU31" s="8"/>
       <c r="CV31" s="8"/>
       <c r="CW31" s="8"/>
-      <c r="CX31" s="6"/>
+      <c r="CX31" s="8"/>
       <c r="CY31" s="6"/>
       <c r="CZ31" s="6"/>
       <c r="DA31" s="6"/>
@@ -15860,9 +15912,11 @@
         <v>45.2</v>
       </c>
       <c r="CW32" s="6">
-        <v>41.7</v>
-      </c>
-      <c r="CX32" s="6"/>
+        <v>42.5</v>
+      </c>
+      <c r="CX32" s="6">
+        <v>39.700000000000003</v>
+      </c>
       <c r="CY32" s="6"/>
       <c r="CZ32" s="6"/>
       <c r="DA32" s="6"/>
@@ -16409,9 +16463,11 @@
         <v>96.1</v>
       </c>
       <c r="CW33" s="6">
-        <v>90.3</v>
-      </c>
-      <c r="CX33" s="6"/>
+        <v>90.6</v>
+      </c>
+      <c r="CX33" s="6">
+        <v>84.4</v>
+      </c>
       <c r="CY33" s="6"/>
       <c r="CZ33" s="6"/>
       <c r="DA33" s="6"/>
@@ -16958,9 +17014,11 @@
         <v>81.599999999999994</v>
       </c>
       <c r="CW34" s="6">
-        <v>74.8</v>
-      </c>
-      <c r="CX34" s="6"/>
+        <v>75.400000000000006</v>
+      </c>
+      <c r="CX34" s="6">
+        <v>74.599999999999994</v>
+      </c>
       <c r="CY34" s="6"/>
       <c r="CZ34" s="6"/>
       <c r="DA34" s="6"/>
@@ -17507,9 +17565,11 @@
         <v>48.5</v>
       </c>
       <c r="CW35" s="6">
-        <v>44.5</v>
-      </c>
-      <c r="CX35" s="6"/>
+        <v>44.300000000000004</v>
+      </c>
+      <c r="CX35" s="6">
+        <v>43.1</v>
+      </c>
       <c r="CY35" s="6"/>
       <c r="CZ35" s="6"/>
       <c r="DA35" s="6"/>
@@ -18056,9 +18116,11 @@
         <v>304.89999999999998</v>
       </c>
       <c r="CW36" s="6">
-        <v>308.39999999999998</v>
-      </c>
-      <c r="CX36" s="6"/>
+        <v>310.10000000000002</v>
+      </c>
+      <c r="CX36" s="6">
+        <v>301.39999999999998</v>
+      </c>
       <c r="CY36" s="6"/>
       <c r="CZ36" s="6"/>
       <c r="DA36" s="6"/>
@@ -18605,9 +18667,11 @@
         <v>81</v>
       </c>
       <c r="CW37" s="6">
-        <v>76.7</v>
-      </c>
-      <c r="CX37" s="6"/>
+        <v>76.3</v>
+      </c>
+      <c r="CX37" s="6">
+        <v>74.599999999999994</v>
+      </c>
       <c r="CY37" s="6"/>
       <c r="CZ37" s="6"/>
       <c r="DA37" s="6"/>
@@ -19154,9 +19218,11 @@
         <v>673.69999999999993</v>
       </c>
       <c r="CW38" s="6">
-        <v>630.70000000000005</v>
-      </c>
-      <c r="CX38" s="6"/>
+        <v>630.20000000000005</v>
+      </c>
+      <c r="CX38" s="6">
+        <v>607.1</v>
+      </c>
       <c r="CY38" s="6"/>
       <c r="CZ38" s="6"/>
       <c r="DA38" s="6"/>
@@ -19703,9 +19769,11 @@
         <v>340.2</v>
       </c>
       <c r="CW39" s="6">
-        <v>325.29999999999995</v>
-      </c>
-      <c r="CX39" s="6"/>
+        <v>324.89999999999998</v>
+      </c>
+      <c r="CX39" s="6">
+        <v>297.7</v>
+      </c>
       <c r="CY39" s="6"/>
       <c r="CZ39" s="6"/>
       <c r="DA39" s="6"/>
@@ -20252,9 +20320,11 @@
         <v>39.299999999999997</v>
       </c>
       <c r="CW40" s="6">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="CX40" s="6"/>
+        <v>35.6</v>
+      </c>
+      <c r="CX40" s="6">
+        <v>34</v>
+      </c>
       <c r="CY40" s="6"/>
       <c r="CZ40" s="6"/>
       <c r="DA40" s="6"/>
@@ -20801,9 +20871,11 @@
         <v>402.3</v>
       </c>
       <c r="CW41" s="6">
-        <v>371</v>
-      </c>
-      <c r="CX41" s="6"/>
+        <v>371.5</v>
+      </c>
+      <c r="CX41" s="6">
+        <v>349.1</v>
+      </c>
       <c r="CY41" s="6"/>
       <c r="CZ41" s="6"/>
       <c r="DA41" s="6"/>
@@ -21350,9 +21422,11 @@
         <v>153.4</v>
       </c>
       <c r="CW42" s="6">
-        <v>147.39999999999998</v>
-      </c>
-      <c r="CX42" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="CX42" s="6">
+        <v>141.9</v>
+      </c>
       <c r="CY42" s="6"/>
       <c r="CZ42" s="6"/>
       <c r="DA42" s="6"/>
@@ -21899,9 +21973,11 @@
         <v>145</v>
       </c>
       <c r="CW43" s="6">
-        <v>135</v>
-      </c>
-      <c r="CX43" s="6"/>
+        <v>135.1</v>
+      </c>
+      <c r="CX43" s="6">
+        <v>126.7</v>
+      </c>
       <c r="CY43" s="6"/>
       <c r="CZ43" s="6"/>
       <c r="DA43" s="6"/>
@@ -22448,9 +22524,11 @@
         <v>342.6</v>
       </c>
       <c r="CW44" s="6">
-        <v>332</v>
-      </c>
-      <c r="CX44" s="6"/>
+        <v>331.29999999999995</v>
+      </c>
+      <c r="CX44" s="6">
+        <v>321.59999999999997</v>
+      </c>
       <c r="CY44" s="6"/>
       <c r="CZ44" s="6"/>
       <c r="DA44" s="6"/>
@@ -22999,7 +23077,9 @@
       <c r="CW45" s="6">
         <v>29.1</v>
       </c>
-      <c r="CX45" s="6"/>
+      <c r="CX45" s="6">
+        <v>29.400000000000002</v>
+      </c>
       <c r="CY45" s="6"/>
       <c r="CZ45" s="6"/>
       <c r="DA45" s="6"/>
@@ -23546,9 +23626,11 @@
         <v>168.89999999999998</v>
       </c>
       <c r="CW46" s="6">
-        <v>156.9</v>
-      </c>
-      <c r="CX46" s="6"/>
+        <v>158.6</v>
+      </c>
+      <c r="CX46" s="6">
+        <v>153.30000000000001</v>
+      </c>
       <c r="CY46" s="6"/>
       <c r="CZ46" s="6"/>
       <c r="DA46" s="6"/>
@@ -24097,7 +24179,9 @@
       <c r="CW47" s="6">
         <v>34.299999999999997</v>
       </c>
-      <c r="CX47" s="6"/>
+      <c r="CX47" s="6">
+        <v>31.2</v>
+      </c>
       <c r="CY47" s="6"/>
       <c r="CZ47" s="6"/>
       <c r="DA47" s="6"/>
@@ -24644,9 +24728,11 @@
         <v>208.5</v>
       </c>
       <c r="CW48" s="6">
-        <v>200.6</v>
-      </c>
-      <c r="CX48" s="6"/>
+        <v>200.60000000000002</v>
+      </c>
+      <c r="CX48" s="6">
+        <v>189.20000000000002</v>
+      </c>
       <c r="CY48" s="6"/>
       <c r="CZ48" s="6"/>
       <c r="DA48" s="6"/>
@@ -25193,9 +25279,11 @@
         <v>1161.9000000000001</v>
       </c>
       <c r="CW49" s="6">
-        <v>1115.5999999999999</v>
-      </c>
-      <c r="CX49" s="6"/>
+        <v>1116.7</v>
+      </c>
+      <c r="CX49" s="6">
+        <v>1074.0999999999999</v>
+      </c>
       <c r="CY49" s="6"/>
       <c r="CZ49" s="6"/>
       <c r="DA49" s="6"/>
@@ -25742,9 +25830,11 @@
         <v>132.4</v>
       </c>
       <c r="CW50" s="6">
-        <v>128.60000000000002</v>
-      </c>
-      <c r="CX50" s="6"/>
+        <v>127.7</v>
+      </c>
+      <c r="CX50" s="6">
+        <v>119.2</v>
+      </c>
       <c r="CY50" s="6"/>
       <c r="CZ50" s="6"/>
       <c r="DA50" s="6"/>
@@ -26291,9 +26381,11 @@
         <v>34.700000000000003</v>
       </c>
       <c r="CW51" s="6">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="CX51" s="6"/>
+        <v>31.3</v>
+      </c>
+      <c r="CX51" s="6">
+        <v>28.700000000000003</v>
+      </c>
       <c r="CY51" s="6"/>
       <c r="CZ51" s="6"/>
       <c r="DA51" s="6"/>
@@ -26840,9 +26932,11 @@
         <v>322.39999999999998</v>
       </c>
       <c r="CW52" s="6">
-        <v>303.7</v>
-      </c>
-      <c r="CX52" s="6"/>
+        <v>305.5</v>
+      </c>
+      <c r="CX52" s="6">
+        <v>285.10000000000002</v>
+      </c>
       <c r="CY52" s="6"/>
       <c r="CZ52" s="6"/>
       <c r="DA52" s="6"/>
@@ -27389,9 +27483,11 @@
         <v>270</v>
       </c>
       <c r="CW53" s="6">
-        <v>251</v>
-      </c>
-      <c r="CX53" s="6"/>
+        <v>251.3</v>
+      </c>
+      <c r="CX53" s="6">
+        <v>230.8</v>
+      </c>
       <c r="CY53" s="6"/>
       <c r="CZ53" s="6"/>
       <c r="DA53" s="6"/>
@@ -27940,7 +28036,9 @@
       <c r="CW54" s="6">
         <v>56.8</v>
       </c>
-      <c r="CX54" s="6"/>
+      <c r="CX54" s="6">
+        <v>54.099999999999994</v>
+      </c>
       <c r="CY54" s="6"/>
       <c r="CZ54" s="6"/>
       <c r="DA54" s="6"/>
@@ -28487,9 +28585,11 @@
         <v>218.8</v>
       </c>
       <c r="CW55" s="6">
-        <v>174.79999999999998</v>
-      </c>
-      <c r="CX55" s="6"/>
+        <v>174.1</v>
+      </c>
+      <c r="CX55" s="6">
+        <v>168.2</v>
+      </c>
       <c r="CY55" s="6"/>
       <c r="CZ55" s="6"/>
       <c r="DA55" s="6"/>
@@ -29038,7 +29138,9 @@
       <c r="CW56" s="6">
         <v>29.5</v>
       </c>
-      <c r="CX56" s="6"/>
+      <c r="CX56" s="6">
+        <v>27.7</v>
+      </c>
       <c r="CY56" s="6"/>
       <c r="CZ56" s="6"/>
       <c r="DA56" s="6"/>
@@ -29294,10 +29396,10 @@
   <dimension ref="A1:CQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="BZ29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CO35" sqref="CO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29630,7 +29732,9 @@
       <c r="CK4" s="4">
         <v>43922</v>
       </c>
-      <c r="CL4" s="9"/>
+      <c r="CL4" s="4">
+        <v>43952</v>
+      </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
       <c r="CO4" s="9"/>
@@ -29900,12 +30004,14 @@
         <v>0.7598630778125588</v>
       </c>
       <c r="CJ5" s="10">
-        <v>-0.10762299118951761</v>
+        <v>-3.1922073657921407E-2</v>
       </c>
       <c r="CK5" s="10">
-        <v>-5.9423632700320095</v>
-      </c>
-      <c r="CL5" s="9"/>
+        <v>-5.5667490222177678</v>
+      </c>
+      <c r="CL5" s="11">
+        <v>-8.9885241030973813</v>
+      </c>
       <c r="CM5" s="9"/>
       <c r="CN5" s="9"/>
       <c r="CO5" s="9"/>
@@ -30178,9 +30284,11 @@
         <v>2.6769779892920882</v>
       </c>
       <c r="CK6" s="10">
-        <v>-0.29726516052318669</v>
-      </c>
-      <c r="CL6" s="9"/>
+        <v>-0.11890606420926793</v>
+      </c>
+      <c r="CL6" s="11">
+        <v>-7.8338278931750676</v>
+      </c>
       <c r="CM6" s="9"/>
       <c r="CN6" s="9"/>
       <c r="CO6" s="9"/>
@@ -30453,9 +30561,11 @@
         <v>-3.8216560509554118</v>
       </c>
       <c r="CK7" s="10">
-        <v>-16.190476190476193</v>
-      </c>
-      <c r="CL7" s="9"/>
+        <v>-16.507936507936517</v>
+      </c>
+      <c r="CL7" s="11">
+        <v>-17.96610169491526</v>
+      </c>
       <c r="CM7" s="9"/>
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
@@ -30728,9 +30838,11 @@
         <v>0.33849129593809896</v>
       </c>
       <c r="CK8" s="10">
-        <v>-1.6949152542372881</v>
-      </c>
-      <c r="CL8" s="9"/>
+        <v>-1.8886198547215387</v>
+      </c>
+      <c r="CL8" s="11">
+        <v>-3.2372281234193108</v>
+      </c>
       <c r="CM8" s="9"/>
       <c r="CN8" s="9"/>
       <c r="CO8" s="9"/>
@@ -31003,9 +31115,11 @@
         <v>-2.0289855072463712</v>
       </c>
       <c r="CK9" s="10">
-        <v>-6.3522617901828635</v>
-      </c>
-      <c r="CL9" s="9"/>
+        <v>-6.4485081809432039</v>
+      </c>
+      <c r="CL9" s="11">
+        <v>-9.6397273612463277</v>
+      </c>
       <c r="CM9" s="9"/>
       <c r="CN9" s="9"/>
       <c r="CO9" s="9"/>
@@ -31278,9 +31392,11 @@
         <v>0.94746572176859911</v>
       </c>
       <c r="CK10" s="10">
-        <v>-4.5918759118482653</v>
-      </c>
-      <c r="CL10" s="9"/>
+        <v>-4.015971742302078</v>
+      </c>
+      <c r="CL10" s="11">
+        <v>-10.161822225630798</v>
+      </c>
       <c r="CM10" s="9"/>
       <c r="CN10" s="9"/>
       <c r="CO10" s="9"/>
@@ -31553,9 +31669,11 @@
         <v>2.9876977152899875</v>
       </c>
       <c r="CK11" s="10">
-        <v>0.53026955368978723</v>
-      </c>
-      <c r="CL11" s="9"/>
+        <v>0.88378258948298716</v>
+      </c>
+      <c r="CL11" s="11">
+        <v>-2.2077922077922052</v>
+      </c>
       <c r="CM11" s="9"/>
       <c r="CN11" s="9"/>
       <c r="CO11" s="9"/>
@@ -31828,9 +31946,11 @@
         <v>-0.46656298600312801</v>
       </c>
       <c r="CK12" s="10">
-        <v>-5.2507836990595624</v>
-      </c>
-      <c r="CL12" s="9"/>
+        <v>-6.7398119122257123</v>
+      </c>
+      <c r="CL12" s="11">
+        <v>-8.3865814696485632</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -32103,9 +32223,11 @@
         <v>3.5616438356164304</v>
       </c>
       <c r="CK13" s="10">
-        <v>-1.0958904109589196</v>
-      </c>
-      <c r="CL13" s="9"/>
+        <v>-3.2876712328767201</v>
+      </c>
+      <c r="CL13" s="11">
+        <v>-5.8171745152354424</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -32204,7 +32326,7 @@
       <c r="CI14" s="8"/>
       <c r="CJ14" s="8"/>
       <c r="CK14" s="8"/>
-      <c r="CL14" s="9"/>
+      <c r="CL14" s="8"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -32477,9 +32599,11 @@
         <v>-0.28801843317972353</v>
       </c>
       <c r="CK15" s="10">
-        <v>-4.5735237360092711</v>
-      </c>
-      <c r="CL15" s="9"/>
+        <v>-4.5349285989965367</v>
+      </c>
+      <c r="CL15" s="11">
+        <v>-5.4197871501773749</v>
+      </c>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -32752,9 +32876,11 @@
         <v>-0.99800399201596812</v>
       </c>
       <c r="CK16" s="10">
-        <v>-4.2309891366495167</v>
-      </c>
-      <c r="CL16" s="9"/>
+        <v>-4.145225843339051</v>
+      </c>
+      <c r="CL16" s="11">
+        <v>-7.4562661313449956</v>
+      </c>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -32853,7 +32979,7 @@
       <c r="CI17" s="8"/>
       <c r="CJ17" s="8"/>
       <c r="CK17" s="8"/>
-      <c r="CL17" s="9"/>
+      <c r="CL17" s="8"/>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
@@ -33128,7 +33254,9 @@
       <c r="CK18" s="10">
         <v>-4.3269230769230811</v>
       </c>
-      <c r="CL18" s="9"/>
+      <c r="CL18" s="11">
+        <v>-11.400651465798045</v>
+      </c>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
@@ -33401,9 +33529,11 @@
         <v>2.8184642698623903</v>
       </c>
       <c r="CK19" s="10">
-        <v>-3.4045393858477997</v>
-      </c>
-      <c r="CL19" s="9"/>
+        <v>-2.3364485981308412</v>
+      </c>
+      <c r="CL19" s="11">
+        <v>-4.2353990191707656</v>
+      </c>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
@@ -33676,9 +33806,11 @@
         <v>-0.74135090609555654</v>
       </c>
       <c r="CK20" s="10">
-        <v>-5.8477071939419449</v>
-      </c>
-      <c r="CL20" s="9"/>
+        <v>-5.4690786705931957</v>
+      </c>
+      <c r="CL20" s="11">
+        <v>-10.473397570171775</v>
+      </c>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -33951,9 +34083,11 @@
         <v>-0.20066889632107784</v>
       </c>
       <c r="CK21" s="10">
-        <v>-13.275517011340897</v>
-      </c>
-      <c r="CL21" s="9"/>
+        <v>-12.274849899933292</v>
+      </c>
+      <c r="CL21" s="11">
+        <v>-16.913746630727768</v>
+      </c>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
@@ -34226,9 +34360,11 @@
         <v>0</v>
       </c>
       <c r="CK22" s="10">
-        <v>-3.9492242595204279</v>
-      </c>
-      <c r="CL22" s="9"/>
+        <v>-3.737658674188987</v>
+      </c>
+      <c r="CL22" s="11">
+        <v>-6.5864022662889399</v>
+      </c>
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
@@ -34503,7 +34639,9 @@
       <c r="CK23" s="10">
         <v>-7.8883495145631066</v>
       </c>
-      <c r="CL23" s="9"/>
+      <c r="CL23" s="11">
+        <v>-13.897280966767372</v>
+      </c>
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
@@ -34778,7 +34916,9 @@
       <c r="CK24" s="10">
         <v>-3.2818532818532602</v>
       </c>
-      <c r="CL24" s="9"/>
+      <c r="CL24" s="11">
+        <v>-5.3079947575360382</v>
+      </c>
       <c r="CM24" s="9"/>
       <c r="CN24" s="9"/>
       <c r="CO24" s="9"/>
@@ -35053,7 +35193,9 @@
       <c r="CK25" s="10">
         <v>-8.8291746641074749</v>
       </c>
-      <c r="CL25" s="9"/>
+      <c r="CL25" s="11">
+        <v>-16.274509803921564</v>
+      </c>
       <c r="CM25" s="9"/>
       <c r="CN25" s="9"/>
       <c r="CO25" s="9"/>
@@ -35328,7 +35470,9 @@
       <c r="CK26" s="10">
         <v>-7.0652173913043574</v>
       </c>
-      <c r="CL26" s="9"/>
+      <c r="CL26" s="11">
+        <v>-8.529945553539001</v>
+      </c>
       <c r="CM26" s="9"/>
       <c r="CN26" s="9"/>
       <c r="CO26" s="9"/>
@@ -35601,9 +35745,11 @@
         <v>0.96891400888170254</v>
       </c>
       <c r="CK27" s="10">
-        <v>-6.6102378073357535</v>
-      </c>
-      <c r="CL27" s="9"/>
+        <v>-7.940346634421612</v>
+      </c>
+      <c r="CL27" s="11">
+        <v>-11.026463512429833</v>
+      </c>
       <c r="CM27" s="9"/>
       <c r="CN27" s="9"/>
       <c r="CO27" s="9"/>
@@ -35876,9 +36022,11 @@
         <v>0.57401812688821063</v>
       </c>
       <c r="CK28" s="10">
-        <v>-4.5523520485584221</v>
-      </c>
-      <c r="CL28" s="9"/>
+        <v>-5.5842185128983237</v>
+      </c>
+      <c r="CL28" s="11">
+        <v>-7.7586206896551753</v>
+      </c>
       <c r="CM28" s="9"/>
       <c r="CN28" s="9"/>
       <c r="CO28" s="9"/>
@@ -36151,9 +36299,11 @@
         <v>0.84705882352941708</v>
       </c>
       <c r="CK29" s="10">
-        <v>-6.040585181689468</v>
-      </c>
-      <c r="CL29" s="9"/>
+        <v>-6.1349693251533619</v>
+      </c>
+      <c r="CL29" s="11">
+        <v>-10.113960113960106</v>
+      </c>
       <c r="CM29" s="9"/>
       <c r="CN29" s="9"/>
       <c r="CO29" s="9"/>
@@ -36426,9 +36576,11 @@
         <v>-1.668211306765534</v>
       </c>
       <c r="CK30" s="10">
-        <v>-4.9440298507462668</v>
-      </c>
-      <c r="CL30" s="9"/>
+        <v>-4.8507462686567182</v>
+      </c>
+      <c r="CL30" s="11">
+        <v>-7.2641509433962153</v>
+      </c>
       <c r="CM30" s="9"/>
       <c r="CN30" s="9"/>
       <c r="CO30" s="9"/>
@@ -36527,7 +36679,7 @@
       <c r="CI31" s="8"/>
       <c r="CJ31" s="8"/>
       <c r="CK31" s="8"/>
-      <c r="CL31" s="9"/>
+      <c r="CL31" s="8"/>
       <c r="CM31" s="9"/>
       <c r="CN31" s="9"/>
       <c r="CO31" s="9"/>
@@ -36800,9 +36952,11 @@
         <v>0.2217294900221761</v>
       </c>
       <c r="CK32" s="10">
-        <v>-6.2921348314606682</v>
-      </c>
-      <c r="CL32" s="9"/>
+        <v>-4.4943820224719104</v>
+      </c>
+      <c r="CL32" s="11">
+        <v>-11.581291759465469</v>
+      </c>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
@@ -37075,9 +37229,11 @@
         <v>1.9088016967126009</v>
       </c>
       <c r="CK33" s="10">
-        <v>-5.1470588235294175</v>
-      </c>
-      <c r="CL33" s="9"/>
+        <v>-4.8319327731092523</v>
+      </c>
+      <c r="CL33" s="11">
+        <v>-11.623036649214654</v>
+      </c>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
@@ -37350,9 +37506,11 @@
         <v>1.240694789081886</v>
       </c>
       <c r="CK34" s="10">
-        <v>-4.9555273189326456</v>
-      </c>
-      <c r="CL34" s="9"/>
+        <v>-4.1931385006353032</v>
+      </c>
+      <c r="CL34" s="11">
+        <v>-5.9268600252206847</v>
+      </c>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
@@ -37625,9 +37783,11 @@
         <v>-3.578528827037768</v>
       </c>
       <c r="CK35" s="10">
-        <v>-11</v>
-      </c>
-      <c r="CL35" s="9"/>
+        <v>-11.399999999999991</v>
+      </c>
+      <c r="CL35" s="11">
+        <v>-12.929292929292927</v>
+      </c>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
@@ -37900,9 +38060,11 @@
         <v>-5.1632970451010953</v>
       </c>
       <c r="CK36" s="10">
-        <v>-4.814814814814822</v>
-      </c>
-      <c r="CL36" s="9"/>
+        <v>-4.2901234567901163</v>
+      </c>
+      <c r="CL36" s="11">
+        <v>-4.7408343868520859</v>
+      </c>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
@@ -38175,9 +38337,11 @@
         <v>0.49627791563276141</v>
       </c>
       <c r="CK37" s="10">
-        <v>-4.7204968944099344</v>
-      </c>
-      <c r="CL37" s="9"/>
+        <v>-5.2173913043478297</v>
+      </c>
+      <c r="CL37" s="11">
+        <v>-4.4814340588988477</v>
+      </c>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -38450,9 +38614,11 @@
         <v>0.16354445435623297</v>
       </c>
       <c r="CK38" s="10">
-        <v>-6.8252326783867527</v>
-      </c>
-      <c r="CL38" s="9"/>
+        <v>-6.8990988329147482</v>
+      </c>
+      <c r="CL38" s="11">
+        <v>-9.4826300879677827</v>
+      </c>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -38725,9 +38891,11 @@
         <v>-0.17605633802817569</v>
       </c>
       <c r="CK39" s="10">
-        <v>-4.604105571847521</v>
-      </c>
-      <c r="CL39" s="9"/>
+        <v>-4.7214076246334375</v>
+      </c>
+      <c r="CL39" s="11">
+        <v>-12.079149438865928</v>
+      </c>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
@@ -39000,9 +39168,11 @@
         <v>1.028277634961436</v>
       </c>
       <c r="CK40" s="10">
-        <v>-5.7142857142857215</v>
-      </c>
-      <c r="CL40" s="9"/>
+        <v>-7.5324675324675292</v>
+      </c>
+      <c r="CL40" s="11">
+        <v>-11.917098445595858</v>
+      </c>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
@@ -39275,9 +39445,11 @@
         <v>-2.3543689320388324</v>
       </c>
       <c r="CK41" s="10">
-        <v>-9.7982008266472054</v>
-      </c>
-      <c r="CL41" s="9"/>
+        <v>-9.6766350595672161</v>
+      </c>
+      <c r="CL41" s="11">
+        <v>-12.48433191276008</v>
+      </c>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
@@ -39550,9 +39722,11 @@
         <v>1.321003963011889</v>
       </c>
       <c r="CK42" s="10">
-        <v>-2.254641909814346</v>
-      </c>
-      <c r="CL42" s="9"/>
+        <v>-2.5198938992042512</v>
+      </c>
+      <c r="CL42" s="11">
+        <v>-6.2128222075347024</v>
+      </c>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -39825,9 +39999,11 @@
         <v>1.7543859649122806</v>
       </c>
       <c r="CK43" s="10">
-        <v>-4.8625792811839359</v>
-      </c>
-      <c r="CL43" s="9"/>
+        <v>-4.7921071176885208</v>
+      </c>
+      <c r="CL43" s="11">
+        <v>-11.460517120894474</v>
+      </c>
       <c r="CM43" s="9"/>
       <c r="CN43" s="9"/>
       <c r="CO43" s="9"/>
@@ -40100,9 +40276,11 @@
         <v>-0.34904013961605251</v>
       </c>
       <c r="CK44" s="10">
-        <v>-3.1787693205015977</v>
-      </c>
-      <c r="CL44" s="9"/>
+        <v>-3.3829104695246497</v>
+      </c>
+      <c r="CL44" s="11">
+        <v>-3.9426523297491176</v>
+      </c>
       <c r="CM44" s="9"/>
       <c r="CN44" s="9"/>
       <c r="CO44" s="9"/>
@@ -40377,7 +40555,9 @@
       <c r="CK45" s="10">
         <v>-5.8252427184465931</v>
       </c>
-      <c r="CL45" s="9"/>
+      <c r="CL45" s="11">
+        <v>-5.1612903225806379</v>
+      </c>
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
@@ -40650,9 +40830,11 @@
         <v>1.3197360527894353</v>
       </c>
       <c r="CK46" s="10">
-        <v>-5.9916117435590168</v>
-      </c>
-      <c r="CL46" s="9"/>
+        <v>-4.9730377471539908</v>
+      </c>
+      <c r="CL46" s="11">
+        <v>-7.5392038600723756</v>
+      </c>
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
@@ -40927,7 +41109,9 @@
       <c r="CK47" s="10">
         <v>-9.0185676392573093</v>
       </c>
-      <c r="CL47" s="9"/>
+      <c r="CL47" s="11">
+        <v>-16.129032258064523</v>
+      </c>
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
       <c r="CO47" s="9"/>
@@ -41200,9 +41384,11 @@
         <v>-0.14367816091954566</v>
       </c>
       <c r="CK48" s="10">
-        <v>-3.1853281853281827</v>
-      </c>
-      <c r="CL48" s="9"/>
+        <v>-3.185328185328169</v>
+      </c>
+      <c r="CL48" s="11">
+        <v>-5.9642147117296087</v>
+      </c>
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
       <c r="CO48" s="9"/>
@@ -41475,9 +41661,11 @@
         <v>1.2284370099320558</v>
       </c>
       <c r="CK49" s="10">
-        <v>-1.795774647887332</v>
-      </c>
-      <c r="CL49" s="9"/>
+        <v>-1.698943661971827</v>
+      </c>
+      <c r="CL49" s="11">
+        <v>-5.8302647729265304</v>
+      </c>
       <c r="CM49" s="9"/>
       <c r="CN49" s="9"/>
       <c r="CO49" s="9"/>
@@ -41750,9 +41938,11 @@
         <v>3.5183737294761532</v>
       </c>
       <c r="CK50" s="10">
-        <v>-0.84811102544330452</v>
-      </c>
-      <c r="CL50" s="9"/>
+        <v>-1.5420200462605906</v>
+      </c>
+      <c r="CL50" s="11">
+        <v>-7.8112915699922727</v>
+      </c>
       <c r="CM50" s="9"/>
       <c r="CN50" s="9"/>
       <c r="CO50" s="9"/>
@@ -42025,9 +42215,11 @@
         <v>2.0588235294117729</v>
       </c>
       <c r="CK51" s="10">
-        <v>-5.5718475073313742</v>
-      </c>
-      <c r="CL51" s="9"/>
+        <v>-8.2111436950146643</v>
+      </c>
+      <c r="CL51" s="11">
+        <v>-14.328358208955216</v>
+      </c>
       <c r="CM51" s="9"/>
       <c r="CN51" s="9"/>
       <c r="CO51" s="9"/>
@@ -42300,9 +42492,11 @@
         <v>-0.83051368809598436</v>
       </c>
       <c r="CK52" s="10">
-        <v>-7.0685434516523937</v>
-      </c>
-      <c r="CL52" s="9"/>
+        <v>-6.5177478580171382</v>
+      </c>
+      <c r="CL52" s="11">
+        <v>-10.822646230841404</v>
+      </c>
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
@@ -42575,9 +42769,11 @@
         <v>1.0479041916167493</v>
       </c>
       <c r="CK53" s="10">
-        <v>-6.6220238095237933</v>
-      </c>
-      <c r="CL53" s="9"/>
+        <v>-6.5104166666666465</v>
+      </c>
+      <c r="CL53" s="11">
+        <v>-14.423433444568031</v>
+      </c>
       <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
@@ -42852,7 +43048,9 @@
       <c r="CK54" s="10">
         <v>-12.210200927357041</v>
       </c>
-      <c r="CL54" s="9"/>
+      <c r="CL54" s="11">
+        <v>-15.070643642072227</v>
+      </c>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
@@ -43125,9 +43323,11 @@
         <v>0.36697247706422542</v>
       </c>
       <c r="CK55" s="10">
-        <v>-19.595216191352353</v>
-      </c>
-      <c r="CL55" s="9"/>
+        <v>-19.917203311867528</v>
+      </c>
+      <c r="CL55" s="11">
+        <v>-19.751908396946568</v>
+      </c>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
@@ -43402,7 +43602,9 @@
       <c r="CK56" s="10">
         <v>-5.4487179487179569</v>
       </c>
-      <c r="CL56" s="9"/>
+      <c r="CL56" s="11">
+        <v>-11.783439490445859</v>
+      </c>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\48vEuo3W0UGhYS3_fBzFUw==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\SHhUM7ckv0yAwcE6j2Yq6A==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,7 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,10 +1013,10 @@
   <dimension ref="A1:MG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="CL47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="CS24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CX31" sqref="CX31"/>
+      <selection pane="bottomRight" activeCell="CY31" sqref="CY31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1337,9 @@
       <c r="CX4" s="4">
         <v>43952</v>
       </c>
+      <c r="CY4" s="4">
+        <v>43983</v>
+      </c>
     </row>
     <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1641,12 +1643,14 @@
         <v>10960.699999999999</v>
       </c>
       <c r="CW5" s="6">
-        <v>10358.1</v>
+        <v>10364.700000000001</v>
       </c>
       <c r="CX5" s="6">
-        <v>9802.2999999999993</v>
-      </c>
-      <c r="CY5" s="6"/>
+        <v>9851.4</v>
+      </c>
+      <c r="CY5" s="6">
+        <v>9265.8000000000011</v>
+      </c>
       <c r="CZ5" s="6"/>
       <c r="DA5" s="6"/>
       <c r="DB5" s="6"/>
@@ -2195,9 +2199,11 @@
         <v>168</v>
       </c>
       <c r="CX6" s="6">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="CY6" s="6"/>
+        <v>155.19999999999999</v>
+      </c>
+      <c r="CY6" s="6">
+        <v>143.19999999999999</v>
+      </c>
       <c r="CZ6" s="6"/>
       <c r="DA6" s="6"/>
       <c r="DB6" s="6"/>
@@ -2746,9 +2752,11 @@
         <v>26.299999999999997</v>
       </c>
       <c r="CX7" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="CY7" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="CY7" s="6">
+        <v>22</v>
+      </c>
       <c r="CZ7" s="6"/>
       <c r="DA7" s="6"/>
       <c r="DB7" s="6"/>
@@ -3297,9 +3305,11 @@
         <v>202.60000000000002</v>
       </c>
       <c r="CX8" s="6">
-        <v>191.3</v>
-      </c>
-      <c r="CY8" s="6"/>
+        <v>190.1</v>
+      </c>
+      <c r="CY8" s="6">
+        <v>140.9</v>
+      </c>
       <c r="CZ8" s="6"/>
       <c r="DA8" s="6"/>
       <c r="DB8" s="6"/>
@@ -3848,9 +3858,11 @@
         <v>97.2</v>
       </c>
       <c r="CX9" s="6">
-        <v>92.800000000000011</v>
-      </c>
-      <c r="CY9" s="6"/>
+        <v>93.199999999999989</v>
+      </c>
+      <c r="CY9" s="6">
+        <v>90</v>
+      </c>
       <c r="CZ9" s="6"/>
       <c r="DA9" s="6"/>
       <c r="DB9" s="6"/>
@@ -4399,9 +4411,11 @@
         <v>1250</v>
       </c>
       <c r="CX10" s="6">
-        <v>1171.4000000000001</v>
-      </c>
-      <c r="CY10" s="6"/>
+        <v>1164</v>
+      </c>
+      <c r="CY10" s="6">
+        <v>1098.5999999999999</v>
+      </c>
       <c r="CZ10" s="6"/>
       <c r="DA10" s="6"/>
       <c r="DB10" s="6"/>
@@ -4950,9 +4964,11 @@
         <v>228.3</v>
       </c>
       <c r="CX11" s="6">
-        <v>225.9</v>
-      </c>
-      <c r="CY11" s="6"/>
+        <v>225.5</v>
+      </c>
+      <c r="CY11" s="6">
+        <v>205.10000000000002</v>
+      </c>
       <c r="CZ11" s="6"/>
       <c r="DA11" s="6"/>
       <c r="DB11" s="6"/>
@@ -5501,9 +5517,11 @@
         <v>119</v>
       </c>
       <c r="CX12" s="6">
-        <v>114.69999999999999</v>
-      </c>
-      <c r="CY12" s="6"/>
+        <v>114.9</v>
+      </c>
+      <c r="CY12" s="6">
+        <v>102.9</v>
+      </c>
       <c r="CZ12" s="6"/>
       <c r="DA12" s="6"/>
       <c r="DB12" s="6"/>
@@ -6052,9 +6070,11 @@
         <v>35.299999999999997</v>
       </c>
       <c r="CX13" s="6">
-        <v>34</v>
-      </c>
-      <c r="CY13" s="6"/>
+        <v>34.4</v>
+      </c>
+      <c r="CY13" s="6">
+        <v>31.2</v>
+      </c>
       <c r="CZ13" s="6"/>
       <c r="DA13" s="6"/>
       <c r="DB13" s="6"/>
@@ -6403,7 +6423,7 @@
       <c r="CV14" s="8"/>
       <c r="CW14" s="8"/>
       <c r="CX14" s="8"/>
-      <c r="CY14" s="6"/>
+      <c r="CY14" s="8"/>
       <c r="CZ14" s="6"/>
       <c r="DA14" s="6"/>
       <c r="DB14" s="6"/>
@@ -6954,7 +6974,9 @@
       <c r="CX15" s="6">
         <v>479.9</v>
       </c>
-      <c r="CY15" s="6"/>
+      <c r="CY15" s="6">
+        <v>393.3</v>
+      </c>
       <c r="CZ15" s="6"/>
       <c r="DA15" s="6"/>
       <c r="DB15" s="6"/>
@@ -7503,9 +7525,11 @@
         <v>335.3</v>
       </c>
       <c r="CX16" s="6">
-        <v>322.7</v>
-      </c>
-      <c r="CY16" s="6"/>
+        <v>322.39999999999998</v>
+      </c>
+      <c r="CY16" s="6">
+        <v>313.60000000000002</v>
+      </c>
       <c r="CZ16" s="6"/>
       <c r="DA16" s="6"/>
       <c r="DB16" s="6"/>
@@ -7854,7 +7878,7 @@
       <c r="CV17" s="8"/>
       <c r="CW17" s="8"/>
       <c r="CX17" s="8"/>
-      <c r="CY17" s="6"/>
+      <c r="CY17" s="8"/>
       <c r="CZ17" s="6"/>
       <c r="DA17" s="6"/>
       <c r="DB17" s="6"/>
@@ -8403,9 +8427,11 @@
         <v>59.7</v>
       </c>
       <c r="CX18" s="6">
-        <v>54.4</v>
-      </c>
-      <c r="CY18" s="6"/>
+        <v>54.199999999999996</v>
+      </c>
+      <c r="CY18" s="6">
+        <v>50.7</v>
+      </c>
       <c r="CZ18" s="6"/>
       <c r="DA18" s="6"/>
       <c r="DB18" s="6"/>
@@ -8954,9 +8980,11 @@
         <v>438.9</v>
       </c>
       <c r="CX19" s="6">
-        <v>429.59999999999997</v>
-      </c>
-      <c r="CY19" s="6"/>
+        <v>430.4</v>
+      </c>
+      <c r="CY19" s="6">
+        <v>386.09999999999997</v>
+      </c>
       <c r="CZ19" s="6"/>
       <c r="DA19" s="6"/>
       <c r="DB19" s="6"/>
@@ -9505,9 +9533,11 @@
         <v>224.7</v>
       </c>
       <c r="CX20" s="6">
-        <v>213.7</v>
-      </c>
-      <c r="CY20" s="6"/>
+        <v>212.3</v>
+      </c>
+      <c r="CY20" s="6">
+        <v>181.1</v>
+      </c>
       <c r="CZ20" s="6"/>
       <c r="DA20" s="6"/>
       <c r="DB20" s="6"/>
@@ -10056,9 +10086,11 @@
         <v>131.5</v>
       </c>
       <c r="CX21" s="6">
-        <v>123.3</v>
-      </c>
-      <c r="CY21" s="6"/>
+        <v>125.6</v>
+      </c>
+      <c r="CY21" s="6">
+        <v>120.69999999999999</v>
+      </c>
       <c r="CZ21" s="6"/>
       <c r="DA21" s="6"/>
       <c r="DB21" s="6"/>
@@ -10609,7 +10641,9 @@
       <c r="CX22" s="6">
         <v>131.9</v>
       </c>
-      <c r="CY22" s="6"/>
+      <c r="CY22" s="6">
+        <v>113.5</v>
+      </c>
       <c r="CZ22" s="6"/>
       <c r="DA22" s="6"/>
       <c r="DB22" s="6"/>
@@ -11158,9 +11192,11 @@
         <v>151.80000000000001</v>
       </c>
       <c r="CX23" s="6">
-        <v>142.5</v>
-      </c>
-      <c r="CY23" s="6"/>
+        <v>143.1</v>
+      </c>
+      <c r="CY23" s="6">
+        <v>137.5</v>
+      </c>
       <c r="CZ23" s="6"/>
       <c r="DA23" s="6"/>
       <c r="DB23" s="6"/>
@@ -11709,9 +11745,11 @@
         <v>150.30000000000001</v>
       </c>
       <c r="CX24" s="6">
-        <v>144.5</v>
-      </c>
-      <c r="CY24" s="6"/>
+        <v>145.30000000000001</v>
+      </c>
+      <c r="CY24" s="6">
+        <v>139.10000000000002</v>
+      </c>
       <c r="CZ24" s="6"/>
       <c r="DA24" s="6"/>
       <c r="DB24" s="6"/>
@@ -12260,9 +12298,11 @@
         <v>47.5</v>
       </c>
       <c r="CX25" s="6">
-        <v>42.7</v>
-      </c>
-      <c r="CY25" s="6"/>
+        <v>43.4</v>
+      </c>
+      <c r="CY25" s="6">
+        <v>41.4</v>
+      </c>
       <c r="CZ25" s="6"/>
       <c r="DA25" s="6"/>
       <c r="DB25" s="6"/>
@@ -12811,9 +12851,11 @@
         <v>205.2</v>
       </c>
       <c r="CX26" s="6">
-        <v>201.60000000000002</v>
-      </c>
-      <c r="CY26" s="6"/>
+        <v>201.3</v>
+      </c>
+      <c r="CY26" s="6">
+        <v>196.60000000000002</v>
+      </c>
       <c r="CZ26" s="6"/>
       <c r="DA26" s="6"/>
       <c r="DB26" s="6"/>
@@ -13362,9 +13404,11 @@
         <v>228.39999999999998</v>
       </c>
       <c r="CX27" s="6">
-        <v>221.89999999999998</v>
-      </c>
-      <c r="CY27" s="6"/>
+        <v>221.4</v>
+      </c>
+      <c r="CY27" s="6">
+        <v>196.4</v>
+      </c>
       <c r="CZ27" s="6"/>
       <c r="DA27" s="6"/>
       <c r="DB27" s="6"/>
@@ -13913,9 +13957,11 @@
         <v>311.10000000000002</v>
       </c>
       <c r="CX28" s="6">
-        <v>288.89999999999998</v>
-      </c>
-      <c r="CY28" s="6"/>
+        <v>287.39999999999998</v>
+      </c>
+      <c r="CY28" s="6">
+        <v>269.70000000000005</v>
+      </c>
       <c r="CZ28" s="6"/>
       <c r="DA28" s="6"/>
       <c r="DB28" s="6"/>
@@ -14464,9 +14510,11 @@
         <v>198.9</v>
       </c>
       <c r="CX29" s="6">
-        <v>189.3</v>
-      </c>
-      <c r="CY29" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="CY29" s="6">
+        <v>183.1</v>
+      </c>
       <c r="CZ29" s="6"/>
       <c r="DA29" s="6"/>
       <c r="DB29" s="6"/>
@@ -15015,9 +15063,11 @@
         <v>102</v>
       </c>
       <c r="CX30" s="6">
-        <v>98.300000000000011</v>
-      </c>
-      <c r="CY30" s="6"/>
+        <v>97.9</v>
+      </c>
+      <c r="CY30" s="6">
+        <v>95</v>
+      </c>
       <c r="CZ30" s="6"/>
       <c r="DA30" s="6"/>
       <c r="DB30" s="6"/>
@@ -15366,7 +15416,7 @@
       <c r="CV31" s="8"/>
       <c r="CW31" s="8"/>
       <c r="CX31" s="8"/>
-      <c r="CY31" s="6"/>
+      <c r="CY31" s="8"/>
       <c r="CZ31" s="6"/>
       <c r="DA31" s="6"/>
       <c r="DB31" s="6"/>
@@ -15915,9 +15965,11 @@
         <v>42.5</v>
       </c>
       <c r="CX32" s="6">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="CY32" s="6"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="CY32" s="6">
+        <v>38.4</v>
+      </c>
       <c r="CZ32" s="6"/>
       <c r="DA32" s="6"/>
       <c r="DB32" s="6"/>
@@ -16466,9 +16518,11 @@
         <v>90.6</v>
       </c>
       <c r="CX33" s="6">
-        <v>84.4</v>
-      </c>
-      <c r="CY33" s="6"/>
+        <v>84.2</v>
+      </c>
+      <c r="CY33" s="6">
+        <v>79.7</v>
+      </c>
       <c r="CZ33" s="6"/>
       <c r="DA33" s="6"/>
       <c r="DB33" s="6"/>
@@ -17019,7 +17073,9 @@
       <c r="CX34" s="6">
         <v>74.599999999999994</v>
       </c>
-      <c r="CY34" s="6"/>
+      <c r="CY34" s="6">
+        <v>68.8</v>
+      </c>
       <c r="CZ34" s="6"/>
       <c r="DA34" s="6"/>
       <c r="DB34" s="6"/>
@@ -17568,9 +17624,11 @@
         <v>44.300000000000004</v>
       </c>
       <c r="CX35" s="6">
-        <v>43.1</v>
-      </c>
-      <c r="CY35" s="6"/>
+        <v>43.400000000000006</v>
+      </c>
+      <c r="CY35" s="6">
+        <v>38.6</v>
+      </c>
       <c r="CZ35" s="6"/>
       <c r="DA35" s="6"/>
       <c r="DB35" s="6"/>
@@ -18119,9 +18177,11 @@
         <v>310.10000000000002</v>
       </c>
       <c r="CX36" s="6">
-        <v>301.39999999999998</v>
-      </c>
-      <c r="CY36" s="6"/>
+        <v>301.7</v>
+      </c>
+      <c r="CY36" s="6">
+        <v>295.89999999999998</v>
+      </c>
       <c r="CZ36" s="6"/>
       <c r="DA36" s="6"/>
       <c r="DB36" s="6"/>
@@ -18670,9 +18730,11 @@
         <v>76.3</v>
       </c>
       <c r="CX37" s="6">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="CY37" s="6"/>
+        <v>74.5</v>
+      </c>
+      <c r="CY37" s="6">
+        <v>66.400000000000006</v>
+      </c>
       <c r="CZ37" s="6"/>
       <c r="DA37" s="6"/>
       <c r="DB37" s="6"/>
@@ -19221,9 +19283,11 @@
         <v>630.20000000000005</v>
       </c>
       <c r="CX38" s="6">
-        <v>607.1</v>
-      </c>
-      <c r="CY38" s="6"/>
+        <v>623</v>
+      </c>
+      <c r="CY38" s="6">
+        <v>610.20000000000005</v>
+      </c>
       <c r="CZ38" s="6"/>
       <c r="DA38" s="6"/>
       <c r="DB38" s="6"/>
@@ -19772,9 +19836,11 @@
         <v>324.89999999999998</v>
       </c>
       <c r="CX39" s="6">
-        <v>297.7</v>
-      </c>
-      <c r="CY39" s="6"/>
+        <v>298.39999999999998</v>
+      </c>
+      <c r="CY39" s="6">
+        <v>275.89999999999998</v>
+      </c>
       <c r="CZ39" s="6"/>
       <c r="DA39" s="6"/>
       <c r="DB39" s="6"/>
@@ -20325,7 +20391,9 @@
       <c r="CX40" s="6">
         <v>34</v>
       </c>
-      <c r="CY40" s="6"/>
+      <c r="CY40" s="6">
+        <v>31.1</v>
+      </c>
       <c r="CZ40" s="6"/>
       <c r="DA40" s="6"/>
       <c r="DB40" s="6"/>
@@ -20874,9 +20942,11 @@
         <v>371.5</v>
       </c>
       <c r="CX41" s="6">
-        <v>349.1</v>
-      </c>
-      <c r="CY41" s="6"/>
+        <v>342.5</v>
+      </c>
+      <c r="CY41" s="6">
+        <v>321.5</v>
+      </c>
       <c r="CZ41" s="6"/>
       <c r="DA41" s="6"/>
       <c r="DB41" s="6"/>
@@ -21425,9 +21495,11 @@
         <v>147</v>
       </c>
       <c r="CX42" s="6">
-        <v>141.9</v>
-      </c>
-      <c r="CY42" s="6"/>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="CY42" s="6">
+        <v>127.19999999999999</v>
+      </c>
       <c r="CZ42" s="6"/>
       <c r="DA42" s="6"/>
       <c r="DB42" s="6"/>
@@ -21976,9 +22048,11 @@
         <v>135.1</v>
       </c>
       <c r="CX43" s="6">
-        <v>126.7</v>
-      </c>
-      <c r="CY43" s="6"/>
+        <v>127.5</v>
+      </c>
+      <c r="CY43" s="6">
+        <v>125.2</v>
+      </c>
       <c r="CZ43" s="6"/>
       <c r="DA43" s="6"/>
       <c r="DB43" s="6"/>
@@ -22527,9 +22601,11 @@
         <v>331.29999999999995</v>
       </c>
       <c r="CX44" s="6">
-        <v>321.59999999999997</v>
-      </c>
-      <c r="CY44" s="6"/>
+        <v>321.89999999999998</v>
+      </c>
+      <c r="CY44" s="6">
+        <v>300</v>
+      </c>
       <c r="CZ44" s="6"/>
       <c r="DA44" s="6"/>
       <c r="DB44" s="6"/>
@@ -23080,7 +23156,9 @@
       <c r="CX45" s="6">
         <v>29.400000000000002</v>
       </c>
-      <c r="CY45" s="6"/>
+      <c r="CY45" s="6">
+        <v>25.6</v>
+      </c>
       <c r="CZ45" s="6"/>
       <c r="DA45" s="6"/>
       <c r="DB45" s="6"/>
@@ -23631,7 +23709,9 @@
       <c r="CX46" s="6">
         <v>153.30000000000001</v>
       </c>
-      <c r="CY46" s="6"/>
+      <c r="CY46" s="6">
+        <v>144.5</v>
+      </c>
       <c r="CZ46" s="6"/>
       <c r="DA46" s="6"/>
       <c r="DB46" s="6"/>
@@ -24180,9 +24260,11 @@
         <v>34.299999999999997</v>
       </c>
       <c r="CX47" s="6">
-        <v>31.2</v>
-      </c>
-      <c r="CY47" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="CY47" s="6">
+        <v>28.7</v>
+      </c>
       <c r="CZ47" s="6"/>
       <c r="DA47" s="6"/>
       <c r="DB47" s="6"/>
@@ -24731,9 +24813,11 @@
         <v>200.60000000000002</v>
       </c>
       <c r="CX48" s="6">
-        <v>189.20000000000002</v>
-      </c>
-      <c r="CY48" s="6"/>
+        <v>189.4</v>
+      </c>
+      <c r="CY48" s="6">
+        <v>176</v>
+      </c>
       <c r="CZ48" s="6"/>
       <c r="DA48" s="6"/>
       <c r="DB48" s="6"/>
@@ -25282,9 +25366,11 @@
         <v>1116.7</v>
       </c>
       <c r="CX49" s="6">
-        <v>1074.0999999999999</v>
-      </c>
-      <c r="CY49" s="6"/>
+        <v>1076.8</v>
+      </c>
+      <c r="CY49" s="6">
+        <v>1026.7</v>
+      </c>
       <c r="CZ49" s="6"/>
       <c r="DA49" s="6"/>
       <c r="DB49" s="6"/>
@@ -25833,9 +25919,11 @@
         <v>127.7</v>
       </c>
       <c r="CX50" s="6">
-        <v>119.2</v>
-      </c>
-      <c r="CY50" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="CY50" s="6">
+        <v>112</v>
+      </c>
       <c r="CZ50" s="6"/>
       <c r="DA50" s="6"/>
       <c r="DB50" s="6"/>
@@ -26384,9 +26472,11 @@
         <v>31.3</v>
       </c>
       <c r="CX51" s="6">
-        <v>28.700000000000003</v>
-      </c>
-      <c r="CY51" s="6"/>
+        <v>29.6</v>
+      </c>
+      <c r="CY51" s="6">
+        <v>28.5</v>
+      </c>
       <c r="CZ51" s="6"/>
       <c r="DA51" s="6"/>
       <c r="DB51" s="6"/>
@@ -26935,9 +27025,11 @@
         <v>305.5</v>
       </c>
       <c r="CX52" s="6">
-        <v>285.10000000000002</v>
-      </c>
-      <c r="CY52" s="6"/>
+        <v>284.79999999999995</v>
+      </c>
+      <c r="CY52" s="6">
+        <v>274.89999999999998</v>
+      </c>
       <c r="CZ52" s="6"/>
       <c r="DA52" s="6"/>
       <c r="DB52" s="6"/>
@@ -27486,9 +27578,11 @@
         <v>251.3</v>
       </c>
       <c r="CX53" s="6">
-        <v>230.8</v>
-      </c>
-      <c r="CY53" s="6"/>
+        <v>234.70000000000002</v>
+      </c>
+      <c r="CY53" s="6">
+        <v>226.5</v>
+      </c>
       <c r="CZ53" s="6"/>
       <c r="DA53" s="6"/>
       <c r="DB53" s="6"/>
@@ -28037,9 +28131,11 @@
         <v>56.8</v>
       </c>
       <c r="CX54" s="6">
-        <v>54.099999999999994</v>
-      </c>
-      <c r="CY54" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="CY54" s="6">
+        <v>50.6</v>
+      </c>
       <c r="CZ54" s="6"/>
       <c r="DA54" s="6"/>
       <c r="DB54" s="6"/>
@@ -28588,9 +28684,11 @@
         <v>174.1</v>
       </c>
       <c r="CX55" s="6">
-        <v>168.2</v>
-      </c>
-      <c r="CY55" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="CY55" s="6">
+        <v>157.4</v>
+      </c>
       <c r="CZ55" s="6"/>
       <c r="DA55" s="6"/>
       <c r="DB55" s="6"/>
@@ -29141,7 +29239,9 @@
       <c r="CX56" s="6">
         <v>27.7</v>
       </c>
-      <c r="CY56" s="6"/>
+      <c r="CY56" s="6">
+        <v>26.4</v>
+      </c>
       <c r="CZ56" s="6"/>
       <c r="DA56" s="6"/>
       <c r="DB56" s="6"/>
@@ -29396,10 +29496,10 @@
   <dimension ref="A1:CQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="BZ29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="CH5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CO35" sqref="CO35"/>
+      <selection pane="bottomRight" activeCell="CM67" sqref="CM67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29735,7 +29835,9 @@
       <c r="CL4" s="4">
         <v>43952</v>
       </c>
-      <c r="CM4" s="9"/>
+      <c r="CM4" s="4">
+        <v>43983</v>
+      </c>
       <c r="CN4" s="9"/>
       <c r="CO4" s="9"/>
       <c r="CP4" s="9"/>
@@ -30007,12 +30109,14 @@
         <v>-3.1922073657921407E-2</v>
       </c>
       <c r="CK5" s="10">
-        <v>-5.5667490222177678</v>
-      </c>
-      <c r="CL5" s="11">
-        <v>-8.9885241030973813</v>
-      </c>
-      <c r="CM5" s="9"/>
+        <v>-5.5065778077620866</v>
+      </c>
+      <c r="CL5" s="10">
+        <v>-8.532645027111343</v>
+      </c>
+      <c r="CM5" s="10">
+        <v>-8.5635904318307343</v>
+      </c>
       <c r="CN5" s="9"/>
       <c r="CO5" s="9"/>
       <c r="CP5" s="9"/>
@@ -30286,10 +30390,12 @@
       <c r="CK6" s="10">
         <v>-0.11890606420926793</v>
       </c>
-      <c r="CL6" s="11">
-        <v>-7.8338278931750676</v>
-      </c>
-      <c r="CM6" s="9"/>
+      <c r="CL6" s="10">
+        <v>-7.8931750741839828</v>
+      </c>
+      <c r="CM6" s="10">
+        <v>-13.212121212121218</v>
+      </c>
       <c r="CN6" s="9"/>
       <c r="CO6" s="9"/>
       <c r="CP6" s="9"/>
@@ -30563,10 +30669,12 @@
       <c r="CK7" s="10">
         <v>-16.507936507936517</v>
       </c>
-      <c r="CL7" s="11">
-        <v>-17.96610169491526</v>
-      </c>
-      <c r="CM7" s="9"/>
+      <c r="CL7" s="10">
+        <v>-18.64406779661017</v>
+      </c>
+      <c r="CM7" s="10">
+        <v>-21.708185053380785</v>
+      </c>
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
@@ -30840,10 +30948,12 @@
       <c r="CK8" s="10">
         <v>-1.8886198547215387</v>
       </c>
-      <c r="CL8" s="11">
-        <v>-3.2372281234193108</v>
-      </c>
-      <c r="CM8" s="9"/>
+      <c r="CL8" s="10">
+        <v>-3.8442083965604423</v>
+      </c>
+      <c r="CM8" s="10">
+        <v>-8.5658663205710504</v>
+      </c>
       <c r="CN8" s="9"/>
       <c r="CO8" s="9"/>
       <c r="CP8" s="9"/>
@@ -31117,10 +31227,12 @@
       <c r="CK9" s="10">
         <v>-6.4485081809432039</v>
       </c>
-      <c r="CL9" s="11">
-        <v>-9.6397273612463277</v>
-      </c>
-      <c r="CM9" s="9"/>
+      <c r="CL9" s="10">
+        <v>-9.2502434274586189</v>
+      </c>
+      <c r="CM9" s="10">
+        <v>-4.3570669500531434</v>
+      </c>
       <c r="CN9" s="9"/>
       <c r="CO9" s="9"/>
       <c r="CP9" s="9"/>
@@ -31394,10 +31506,12 @@
       <c r="CK10" s="10">
         <v>-4.015971742302078</v>
       </c>
-      <c r="CL10" s="11">
-        <v>-10.161822225630798</v>
-      </c>
-      <c r="CM10" s="9"/>
+      <c r="CL10" s="10">
+        <v>-10.729350410307545</v>
+      </c>
+      <c r="CM10" s="10">
+        <v>-13.943286855710483</v>
+      </c>
       <c r="CN10" s="9"/>
       <c r="CO10" s="9"/>
       <c r="CP10" s="9"/>
@@ -31671,10 +31785,12 @@
       <c r="CK11" s="10">
         <v>0.88378258948298716</v>
       </c>
-      <c r="CL11" s="11">
-        <v>-2.2077922077922052</v>
-      </c>
-      <c r="CM11" s="9"/>
+      <c r="CL11" s="10">
+        <v>-2.3809523809523809</v>
+      </c>
+      <c r="CM11" s="10">
+        <v>-0.82205029013539099</v>
+      </c>
       <c r="CN11" s="9"/>
       <c r="CO11" s="9"/>
       <c r="CP11" s="9"/>
@@ -31948,10 +32064,12 @@
       <c r="CK12" s="10">
         <v>-6.7398119122257123</v>
       </c>
-      <c r="CL12" s="11">
-        <v>-8.3865814696485632</v>
-      </c>
-      <c r="CM12" s="9"/>
+      <c r="CL12" s="10">
+        <v>-8.2268370607028611</v>
+      </c>
+      <c r="CM12" s="10">
+        <v>-9.9737532808398868</v>
+      </c>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
@@ -32225,10 +32343,12 @@
       <c r="CK13" s="10">
         <v>-3.2876712328767201</v>
       </c>
-      <c r="CL13" s="11">
-        <v>-5.8171745152354424</v>
-      </c>
-      <c r="CM13" s="9"/>
+      <c r="CL13" s="10">
+        <v>-4.7091412742382159</v>
+      </c>
+      <c r="CM13" s="10">
+        <v>-4.5871559633027621</v>
+      </c>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
@@ -32327,7 +32447,7 @@
       <c r="CJ14" s="8"/>
       <c r="CK14" s="8"/>
       <c r="CL14" s="8"/>
-      <c r="CM14" s="9"/>
+      <c r="CM14" s="8"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
@@ -32601,10 +32721,12 @@
       <c r="CK15" s="10">
         <v>-4.5349285989965367</v>
       </c>
-      <c r="CL15" s="11">
+      <c r="CL15" s="10">
         <v>-5.4197871501773749</v>
       </c>
-      <c r="CM15" s="9"/>
+      <c r="CM15" s="10">
+        <v>-6.4462416745956146</v>
+      </c>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
@@ -32878,10 +33000,12 @@
       <c r="CK16" s="10">
         <v>-4.145225843339051</v>
       </c>
-      <c r="CL16" s="11">
-        <v>-7.4562661313449956</v>
-      </c>
-      <c r="CM16" s="9"/>
+      <c r="CL16" s="10">
+        <v>-7.5422999713220564</v>
+      </c>
+      <c r="CM16" s="10">
+        <v>-5.570611261668172</v>
+      </c>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
@@ -32980,7 +33104,7 @@
       <c r="CJ17" s="8"/>
       <c r="CK17" s="8"/>
       <c r="CL17" s="8"/>
-      <c r="CM17" s="9"/>
+      <c r="CM17" s="8"/>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
@@ -33254,10 +33378,12 @@
       <c r="CK18" s="10">
         <v>-4.3269230769230811</v>
       </c>
-      <c r="CL18" s="11">
-        <v>-11.400651465798045</v>
-      </c>
-      <c r="CM18" s="9"/>
+      <c r="CL18" s="10">
+        <v>-11.72638436482085</v>
+      </c>
+      <c r="CM18" s="10">
+        <v>-10.896309314586997</v>
+      </c>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
@@ -33531,10 +33657,12 @@
       <c r="CK19" s="10">
         <v>-2.3364485981308412</v>
       </c>
-      <c r="CL19" s="11">
-        <v>-4.2353990191707656</v>
-      </c>
-      <c r="CM19" s="9"/>
+      <c r="CL19" s="10">
+        <v>-4.0570664288898897</v>
+      </c>
+      <c r="CM19" s="10">
+        <v>-6.829150579150582</v>
+      </c>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
@@ -33808,10 +33936,12 @@
       <c r="CK20" s="10">
         <v>-5.4690786705931957</v>
       </c>
-      <c r="CL20" s="11">
-        <v>-10.473397570171775</v>
-      </c>
-      <c r="CM20" s="9"/>
+      <c r="CL20" s="10">
+        <v>-11.059907834101384</v>
+      </c>
+      <c r="CM20" s="10">
+        <v>-12.342691190706692</v>
+      </c>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
       <c r="CP20" s="9"/>
@@ -34085,10 +34215,12 @@
       <c r="CK21" s="10">
         <v>-12.274849899933292</v>
       </c>
-      <c r="CL21" s="11">
-        <v>-16.913746630727768</v>
-      </c>
-      <c r="CM21" s="9"/>
+      <c r="CL21" s="10">
+        <v>-15.363881401617256</v>
+      </c>
+      <c r="CM21" s="10">
+        <v>-9.8581030619865704</v>
+      </c>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
       <c r="CP21" s="9"/>
@@ -34362,10 +34494,12 @@
       <c r="CK22" s="10">
         <v>-3.737658674188987</v>
       </c>
-      <c r="CL22" s="11">
+      <c r="CL22" s="10">
         <v>-6.5864022662889399</v>
       </c>
-      <c r="CM22" s="9"/>
+      <c r="CM22" s="10">
+        <v>-6.1207609594706298</v>
+      </c>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
       <c r="CP22" s="9"/>
@@ -34639,10 +34773,12 @@
       <c r="CK23" s="10">
         <v>-7.8883495145631066</v>
       </c>
-      <c r="CL23" s="11">
-        <v>-13.897280966767372</v>
-      </c>
-      <c r="CM23" s="9"/>
+      <c r="CL23" s="10">
+        <v>-13.534743202416921</v>
+      </c>
+      <c r="CM23" s="10">
+        <v>-12.919569347688412</v>
+      </c>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
       <c r="CP23" s="9"/>
@@ -34916,10 +35052,12 @@
       <c r="CK24" s="10">
         <v>-3.2818532818532602</v>
       </c>
-      <c r="CL24" s="11">
-        <v>-5.3079947575360382</v>
-      </c>
-      <c r="CM24" s="9"/>
+      <c r="CL24" s="10">
+        <v>-4.7837483617300025</v>
+      </c>
+      <c r="CM24" s="10">
+        <v>-3.3356497567755077</v>
+      </c>
       <c r="CN24" s="9"/>
       <c r="CO24" s="9"/>
       <c r="CP24" s="9"/>
@@ -35193,10 +35331,12 @@
       <c r="CK25" s="10">
         <v>-8.8291746641074749</v>
       </c>
-      <c r="CL25" s="11">
-        <v>-16.274509803921564</v>
-      </c>
-      <c r="CM25" s="9"/>
+      <c r="CL25" s="10">
+        <v>-14.901960784313728</v>
+      </c>
+      <c r="CM25" s="10">
+        <v>-14.107883817427394</v>
+      </c>
       <c r="CN25" s="9"/>
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
@@ -35470,10 +35610,12 @@
       <c r="CK26" s="10">
         <v>-7.0652173913043574</v>
       </c>
-      <c r="CL26" s="11">
-        <v>-8.529945553539001</v>
-      </c>
-      <c r="CM26" s="9"/>
+      <c r="CL26" s="10">
+        <v>-8.6660617059890956</v>
+      </c>
+      <c r="CM26" s="10">
+        <v>-5.7074340527577831</v>
+      </c>
       <c r="CN26" s="9"/>
       <c r="CO26" s="9"/>
       <c r="CP26" s="9"/>
@@ -35747,10 +35889,12 @@
       <c r="CK27" s="10">
         <v>-7.940346634421612</v>
       </c>
-      <c r="CL27" s="11">
-        <v>-11.026463512429833</v>
-      </c>
-      <c r="CM27" s="9"/>
+      <c r="CL27" s="10">
+        <v>-11.226944667201273</v>
+      </c>
+      <c r="CM27" s="10">
+        <v>-16.60297239915074</v>
+      </c>
       <c r="CN27" s="9"/>
       <c r="CO27" s="9"/>
       <c r="CP27" s="9"/>
@@ -36024,10 +36168,12 @@
       <c r="CK28" s="10">
         <v>-5.5842185128983237</v>
       </c>
-      <c r="CL28" s="11">
-        <v>-7.7586206896551753</v>
-      </c>
-      <c r="CM28" s="9"/>
+      <c r="CL28" s="10">
+        <v>-8.2375478927203094</v>
+      </c>
+      <c r="CM28" s="10">
+        <v>-7.8893442622950696</v>
+      </c>
       <c r="CN28" s="9"/>
       <c r="CO28" s="9"/>
       <c r="CP28" s="9"/>
@@ -36301,10 +36447,12 @@
       <c r="CK29" s="10">
         <v>-6.1349693251533619</v>
       </c>
-      <c r="CL29" s="11">
-        <v>-10.113960113960106</v>
-      </c>
-      <c r="CM29" s="9"/>
+      <c r="CL29" s="10">
+        <v>-9.7815764482431131</v>
+      </c>
+      <c r="CM29" s="10">
+        <v>-9.6694622594967914</v>
+      </c>
       <c r="CN29" s="9"/>
       <c r="CO29" s="9"/>
       <c r="CP29" s="9"/>
@@ -36578,10 +36726,12 @@
       <c r="CK30" s="10">
         <v>-4.8507462686567182</v>
       </c>
-      <c r="CL30" s="11">
-        <v>-7.2641509433962153</v>
-      </c>
-      <c r="CM30" s="9"/>
+      <c r="CL30" s="10">
+        <v>-7.6415094339622591</v>
+      </c>
+      <c r="CM30" s="10">
+        <v>-5</v>
+      </c>
       <c r="CN30" s="9"/>
       <c r="CO30" s="9"/>
       <c r="CP30" s="9"/>
@@ -36680,7 +36830,7 @@
       <c r="CJ31" s="8"/>
       <c r="CK31" s="8"/>
       <c r="CL31" s="8"/>
-      <c r="CM31" s="9"/>
+      <c r="CM31" s="8"/>
       <c r="CN31" s="9"/>
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
@@ -36954,10 +37104,12 @@
       <c r="CK32" s="10">
         <v>-4.4943820224719104</v>
       </c>
-      <c r="CL32" s="11">
-        <v>-11.581291759465469</v>
-      </c>
-      <c r="CM32" s="9"/>
+      <c r="CL32" s="10">
+        <v>-12.472160356347441</v>
+      </c>
+      <c r="CM32" s="10">
+        <v>-3.7593984962406015</v>
+      </c>
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
@@ -37231,10 +37383,12 @@
       <c r="CK33" s="10">
         <v>-4.8319327731092523</v>
       </c>
-      <c r="CL33" s="11">
-        <v>-11.623036649214654</v>
-      </c>
-      <c r="CM33" s="9"/>
+      <c r="CL33" s="10">
+        <v>-11.832460732984291</v>
+      </c>
+      <c r="CM33" s="10">
+        <v>-9.6371882086167791</v>
+      </c>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
@@ -37508,10 +37662,12 @@
       <c r="CK34" s="10">
         <v>-4.1931385006353032</v>
       </c>
-      <c r="CL34" s="11">
+      <c r="CL34" s="10">
         <v>-5.9268600252206847</v>
       </c>
-      <c r="CM34" s="9"/>
+      <c r="CM34" s="10">
+        <v>-1.8544935805991403</v>
+      </c>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
@@ -37785,10 +37941,12 @@
       <c r="CK35" s="10">
         <v>-11.399999999999991</v>
       </c>
-      <c r="CL35" s="11">
-        <v>-12.929292929292927</v>
-      </c>
-      <c r="CM35" s="9"/>
+      <c r="CL35" s="10">
+        <v>-12.323232323232311</v>
+      </c>
+      <c r="CM35" s="10">
+        <v>-8.9622641509433905</v>
+      </c>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
@@ -38062,10 +38220,12 @@
       <c r="CK36" s="10">
         <v>-4.2901234567901163</v>
       </c>
-      <c r="CL36" s="11">
-        <v>-4.7408343868520859</v>
-      </c>
-      <c r="CM36" s="9"/>
+      <c r="CL36" s="10">
+        <v>-4.646017699115041</v>
+      </c>
+      <c r="CM36" s="10">
+        <v>-5.4632587859424993</v>
+      </c>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
@@ -38339,10 +38499,12 @@
       <c r="CK37" s="10">
         <v>-5.2173913043478297</v>
       </c>
-      <c r="CL37" s="11">
-        <v>-4.4814340588988477</v>
-      </c>
-      <c r="CM37" s="9"/>
+      <c r="CL37" s="10">
+        <v>-4.609475032010236</v>
+      </c>
+      <c r="CM37" s="10">
+        <v>-4.8710601719197584</v>
+      </c>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
@@ -38616,10 +38778,12 @@
       <c r="CK38" s="10">
         <v>-6.8990988329147482</v>
       </c>
-      <c r="CL38" s="11">
-        <v>-9.4826300879677827</v>
-      </c>
-      <c r="CM38" s="9"/>
+      <c r="CL38" s="10">
+        <v>-7.1119725659758357</v>
+      </c>
+      <c r="CM38" s="10">
+        <v>-7.2080291970802719</v>
+      </c>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
@@ -38893,10 +39057,12 @@
       <c r="CK39" s="10">
         <v>-4.7214076246334375</v>
       </c>
-      <c r="CL39" s="11">
-        <v>-12.079149438865928</v>
-      </c>
-      <c r="CM39" s="9"/>
+      <c r="CL39" s="10">
+        <v>-11.872415829887785</v>
+      </c>
+      <c r="CM39" s="10">
+        <v>-6.0286103542234484</v>
+      </c>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
       <c r="CP39" s="9"/>
@@ -39170,10 +39336,12 @@
       <c r="CK40" s="10">
         <v>-7.5324675324675292</v>
       </c>
-      <c r="CL40" s="11">
+      <c r="CL40" s="10">
         <v>-11.917098445595858</v>
       </c>
-      <c r="CM40" s="9"/>
+      <c r="CM40" s="10">
+        <v>-6.0422960725075523</v>
+      </c>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
@@ -39447,10 +39615,12 @@
       <c r="CK41" s="10">
         <v>-9.6766350595672161</v>
       </c>
-      <c r="CL41" s="11">
-        <v>-12.48433191276008</v>
-      </c>
-      <c r="CM41" s="9"/>
+      <c r="CL41" s="10">
+        <v>-14.138881925294557</v>
+      </c>
+      <c r="CM41" s="10">
+        <v>-11.015776363133119</v>
+      </c>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
@@ -39724,10 +39894,12 @@
       <c r="CK42" s="10">
         <v>-2.5198938992042512</v>
       </c>
-      <c r="CL42" s="11">
-        <v>-6.2128222075347024</v>
-      </c>
-      <c r="CM42" s="9"/>
+      <c r="CL42" s="10">
+        <v>-7.9973562458691489</v>
+      </c>
+      <c r="CM42" s="10">
+        <v>-4.3609022556391066</v>
+      </c>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
       <c r="CP42" s="9"/>
@@ -40001,10 +40173,12 @@
       <c r="CK43" s="10">
         <v>-4.7921071176885208</v>
       </c>
-      <c r="CL43" s="11">
-        <v>-11.460517120894474</v>
-      </c>
-      <c r="CM43" s="9"/>
+      <c r="CL43" s="10">
+        <v>-10.901467505241087</v>
+      </c>
+      <c r="CM43" s="10">
+        <v>-11.519434628975263</v>
+      </c>
       <c r="CN43" s="9"/>
       <c r="CO43" s="9"/>
       <c r="CP43" s="9"/>
@@ -40278,10 +40452,12 @@
       <c r="CK44" s="10">
         <v>-3.3829104695246497</v>
       </c>
-      <c r="CL44" s="11">
-        <v>-3.9426523297491176</v>
-      </c>
-      <c r="CM44" s="9"/>
+      <c r="CL44" s="10">
+        <v>-3.8530465949820889</v>
+      </c>
+      <c r="CM44" s="10">
+        <v>-1.9928128062724673</v>
+      </c>
       <c r="CN44" s="9"/>
       <c r="CO44" s="9"/>
       <c r="CP44" s="9"/>
@@ -40555,10 +40731,12 @@
       <c r="CK45" s="10">
         <v>-5.8252427184465931</v>
       </c>
-      <c r="CL45" s="11">
+      <c r="CL45" s="10">
         <v>-5.1612903225806379</v>
       </c>
-      <c r="CM45" s="9"/>
+      <c r="CM45" s="10">
+        <v>-7.2463768115942022</v>
+      </c>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
       <c r="CP45" s="9"/>
@@ -40832,10 +41010,12 @@
       <c r="CK46" s="10">
         <v>-4.9730377471539908</v>
       </c>
-      <c r="CL46" s="11">
+      <c r="CL46" s="10">
         <v>-7.5392038600723756</v>
       </c>
-      <c r="CM46" s="9"/>
+      <c r="CM46" s="10">
+        <v>-9.6875</v>
+      </c>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
       <c r="CP46" s="9"/>
@@ -41109,10 +41289,12 @@
       <c r="CK47" s="10">
         <v>-9.0185676392573093</v>
       </c>
-      <c r="CL47" s="11">
-        <v>-16.129032258064523</v>
-      </c>
-      <c r="CM47" s="9"/>
+      <c r="CL47" s="10">
+        <v>-16.666666666666671</v>
+      </c>
+      <c r="CM47" s="10">
+        <v>-14.583333333333339</v>
+      </c>
       <c r="CN47" s="9"/>
       <c r="CO47" s="9"/>
       <c r="CP47" s="9"/>
@@ -41386,10 +41568,12 @@
       <c r="CK48" s="10">
         <v>-3.185328185328169</v>
       </c>
-      <c r="CL48" s="11">
-        <v>-5.9642147117296087</v>
-      </c>
-      <c r="CM48" s="9"/>
+      <c r="CL48" s="10">
+        <v>-5.8648111332007868</v>
+      </c>
+      <c r="CM48" s="10">
+        <v>4.7619047619047619</v>
+      </c>
       <c r="CN48" s="9"/>
       <c r="CO48" s="9"/>
       <c r="CP48" s="9"/>
@@ -41663,10 +41847,12 @@
       <c r="CK49" s="10">
         <v>-1.698943661971827</v>
       </c>
-      <c r="CL49" s="11">
-        <v>-5.8302647729265304</v>
-      </c>
-      <c r="CM49" s="9"/>
+      <c r="CL49" s="10">
+        <v>-5.593547255830261</v>
+      </c>
+      <c r="CM49" s="10">
+        <v>-7.1951550212419697</v>
+      </c>
       <c r="CN49" s="9"/>
       <c r="CO49" s="9"/>
       <c r="CP49" s="9"/>
@@ -41940,10 +42126,12 @@
       <c r="CK50" s="10">
         <v>-1.5420200462605906</v>
       </c>
-      <c r="CL50" s="11">
-        <v>-7.8112915699922727</v>
-      </c>
-      <c r="CM50" s="9"/>
+      <c r="CL50" s="10">
+        <v>-8.7393658159319489</v>
+      </c>
+      <c r="CM50" s="10">
+        <v>-4.4368600682593762</v>
+      </c>
       <c r="CN50" s="9"/>
       <c r="CO50" s="9"/>
       <c r="CP50" s="9"/>
@@ -42217,10 +42405,12 @@
       <c r="CK51" s="10">
         <v>-8.2111436950146643</v>
       </c>
-      <c r="CL51" s="11">
-        <v>-14.328358208955216</v>
-      </c>
-      <c r="CM51" s="9"/>
+      <c r="CL51" s="10">
+        <v>-11.641791044776117</v>
+      </c>
+      <c r="CM51" s="10">
+        <v>-5.6291390728476802</v>
+      </c>
       <c r="CN51" s="9"/>
       <c r="CO51" s="9"/>
       <c r="CP51" s="9"/>
@@ -42494,10 +42684,12 @@
       <c r="CK52" s="10">
         <v>-6.5177478580171382</v>
       </c>
-      <c r="CL52" s="11">
-        <v>-10.822646230841404</v>
-      </c>
-      <c r="CM52" s="9"/>
+      <c r="CL52" s="10">
+        <v>-10.916484203941206</v>
+      </c>
+      <c r="CM52" s="10">
+        <v>-11.493882807469427</v>
+      </c>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
@@ -42771,10 +42963,12 @@
       <c r="CK53" s="10">
         <v>-6.5104166666666465</v>
       </c>
-      <c r="CL53" s="11">
-        <v>-14.423433444568031</v>
-      </c>
-      <c r="CM53" s="9"/>
+      <c r="CL53" s="10">
+        <v>-12.977382276603624</v>
+      </c>
+      <c r="CM53" s="10">
+        <v>-13.714285714285714</v>
+      </c>
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
@@ -43048,10 +43242,12 @@
       <c r="CK54" s="10">
         <v>-12.210200927357041</v>
       </c>
-      <c r="CL54" s="11">
-        <v>-15.070643642072227</v>
-      </c>
-      <c r="CM54" s="9"/>
+      <c r="CL54" s="10">
+        <v>-15.227629513343802</v>
+      </c>
+      <c r="CM54" s="10">
+        <v>-12.908777969018933</v>
+      </c>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
@@ -43325,10 +43521,12 @@
       <c r="CK55" s="10">
         <v>-19.917203311867528</v>
       </c>
-      <c r="CL55" s="11">
-        <v>-19.751908396946568</v>
-      </c>
-      <c r="CM55" s="9"/>
+      <c r="CL55" s="10">
+        <v>-19.370229007633586</v>
+      </c>
+      <c r="CM55" s="10">
+        <v>-18.949536560247171</v>
+      </c>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
@@ -43602,10 +43800,12 @@
       <c r="CK56" s="10">
         <v>-5.4487179487179569</v>
       </c>
-      <c r="CL56" s="11">
+      <c r="CL56" s="10">
         <v>-11.783439490445859</v>
       </c>
-      <c r="CM56" s="9"/>
+      <c r="CM56" s="10">
+        <v>-7.6923076923077023</v>
+      </c>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\SHhUM7ckv0yAwcE6j2Yq6A==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM Updates\8.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28400" windowHeight="10850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="5" r:id="rId1"/>
     <sheet name="TABLE_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1013,24 +1013,24 @@
   <dimension ref="A1:MG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="CS24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="CQ32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CY31" sqref="CY31"/>
+      <selection pane="bottomRight" activeCell="DA31" sqref="DA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="17.54296875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:345" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:345" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:345" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:345" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1340,8 +1340,11 @@
       <c r="CY4" s="4">
         <v>43983</v>
       </c>
+      <c r="CZ4" s="4">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:345" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1646,12 +1649,14 @@
         <v>10364.700000000001</v>
       </c>
       <c r="CX5" s="6">
-        <v>9851.4</v>
+        <v>9865.2000000000007</v>
       </c>
       <c r="CY5" s="6">
-        <v>9265.8000000000011</v>
-      </c>
-      <c r="CZ5" s="6"/>
+        <v>9304.7999999999993</v>
+      </c>
+      <c r="CZ5" s="6">
+        <v>8344.6</v>
+      </c>
       <c r="DA5" s="6"/>
       <c r="DB5" s="6"/>
       <c r="DC5" s="6"/>
@@ -1894,7 +1899,7 @@
       <c r="MF5" s="6"/>
       <c r="MG5" s="6"/>
     </row>
-    <row r="6" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2202,9 +2207,11 @@
         <v>155.19999999999999</v>
       </c>
       <c r="CY6" s="6">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="CZ6" s="6"/>
+        <v>144.19999999999999</v>
+      </c>
+      <c r="CZ6" s="6">
+        <v>142.4</v>
+      </c>
       <c r="DA6" s="6"/>
       <c r="DB6" s="6"/>
       <c r="DC6" s="6"/>
@@ -2447,7 +2454,7 @@
       <c r="MF6" s="6"/>
       <c r="MG6" s="6"/>
     </row>
-    <row r="7" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,9 +2762,11 @@
         <v>24</v>
       </c>
       <c r="CY7" s="6">
-        <v>22</v>
-      </c>
-      <c r="CZ7" s="6"/>
+        <v>21.7</v>
+      </c>
+      <c r="CZ7" s="6">
+        <v>19.399999999999999</v>
+      </c>
       <c r="DA7" s="6"/>
       <c r="DB7" s="6"/>
       <c r="DC7" s="6"/>
@@ -3000,7 +3009,7 @@
       <c r="MF7" s="6"/>
       <c r="MG7" s="6"/>
     </row>
-    <row r="8" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3308,9 +3317,11 @@
         <v>190.1</v>
       </c>
       <c r="CY8" s="6">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="CZ8" s="6">
         <v>140.9</v>
       </c>
-      <c r="CZ8" s="6"/>
       <c r="DA8" s="6"/>
       <c r="DB8" s="6"/>
       <c r="DC8" s="6"/>
@@ -3553,7 +3564,7 @@
       <c r="MF8" s="6"/>
       <c r="MG8" s="6"/>
     </row>
-    <row r="9" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -3861,9 +3872,11 @@
         <v>93.199999999999989</v>
       </c>
       <c r="CY9" s="6">
-        <v>90</v>
-      </c>
-      <c r="CZ9" s="6"/>
+        <v>90.300000000000011</v>
+      </c>
+      <c r="CZ9" s="6">
+        <v>77.5</v>
+      </c>
       <c r="DA9" s="6"/>
       <c r="DB9" s="6"/>
       <c r="DC9" s="6"/>
@@ -4106,7 +4119,7 @@
       <c r="MF9" s="6"/>
       <c r="MG9" s="6"/>
     </row>
-    <row r="10" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4414,9 +4427,11 @@
         <v>1164</v>
       </c>
       <c r="CY10" s="6">
-        <v>1098.5999999999999</v>
-      </c>
-      <c r="CZ10" s="6"/>
+        <v>1100.0999999999999</v>
+      </c>
+      <c r="CZ10" s="6">
+        <v>947.7</v>
+      </c>
       <c r="DA10" s="6"/>
       <c r="DB10" s="6"/>
       <c r="DC10" s="6"/>
@@ -4659,7 +4674,7 @@
       <c r="MF10" s="6"/>
       <c r="MG10" s="6"/>
     </row>
-    <row r="11" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4967,9 +4982,11 @@
         <v>225.5</v>
       </c>
       <c r="CY11" s="6">
-        <v>205.10000000000002</v>
-      </c>
-      <c r="CZ11" s="6"/>
+        <v>202.5</v>
+      </c>
+      <c r="CZ11" s="6">
+        <v>168.7</v>
+      </c>
       <c r="DA11" s="6"/>
       <c r="DB11" s="6"/>
       <c r="DC11" s="6"/>
@@ -5212,7 +5229,7 @@
       <c r="MF11" s="6"/>
       <c r="MG11" s="6"/>
     </row>
-    <row r="12" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5520,9 +5537,11 @@
         <v>114.9</v>
       </c>
       <c r="CY12" s="6">
-        <v>102.9</v>
-      </c>
-      <c r="CZ12" s="6"/>
+        <v>108.8</v>
+      </c>
+      <c r="CZ12" s="6">
+        <v>90.699999999999989</v>
+      </c>
       <c r="DA12" s="6"/>
       <c r="DB12" s="6"/>
       <c r="DC12" s="6"/>
@@ -5765,7 +5784,7 @@
       <c r="MF12" s="6"/>
       <c r="MG12" s="6"/>
     </row>
-    <row r="13" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -6073,9 +6092,11 @@
         <v>34.4</v>
       </c>
       <c r="CY13" s="6">
-        <v>31.2</v>
-      </c>
-      <c r="CZ13" s="6"/>
+        <v>30.9</v>
+      </c>
+      <c r="CZ13" s="6">
+        <v>30.4</v>
+      </c>
       <c r="DA13" s="6"/>
       <c r="DB13" s="6"/>
       <c r="DC13" s="6"/>
@@ -6318,7 +6339,7 @@
       <c r="MF13" s="6"/>
       <c r="MG13" s="6"/>
     </row>
-    <row r="14" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -6424,7 +6445,7 @@
       <c r="CW14" s="8"/>
       <c r="CX14" s="8"/>
       <c r="CY14" s="8"/>
-      <c r="CZ14" s="6"/>
+      <c r="CZ14" s="8"/>
       <c r="DA14" s="6"/>
       <c r="DB14" s="6"/>
       <c r="DC14" s="6"/>
@@ -6667,7 +6688,7 @@
       <c r="MF14" s="6"/>
       <c r="MG14" s="6"/>
     </row>
-    <row r="15" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -6975,9 +6996,11 @@
         <v>479.9</v>
       </c>
       <c r="CY15" s="6">
-        <v>393.3</v>
-      </c>
-      <c r="CZ15" s="6"/>
+        <v>395.3</v>
+      </c>
+      <c r="CZ15" s="6">
+        <v>383.7</v>
+      </c>
       <c r="DA15" s="6"/>
       <c r="DB15" s="6"/>
       <c r="DC15" s="6"/>
@@ -7220,7 +7243,7 @@
       <c r="MF15" s="6"/>
       <c r="MG15" s="6"/>
     </row>
-    <row r="16" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -7530,7 +7553,9 @@
       <c r="CY16" s="6">
         <v>313.60000000000002</v>
       </c>
-      <c r="CZ16" s="6"/>
+      <c r="CZ16" s="6">
+        <v>310.7</v>
+      </c>
       <c r="DA16" s="6"/>
       <c r="DB16" s="6"/>
       <c r="DC16" s="6"/>
@@ -7773,7 +7798,7 @@
       <c r="MF16" s="6"/>
       <c r="MG16" s="6"/>
     </row>
-    <row r="17" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -7879,7 +7904,7 @@
       <c r="CW17" s="8"/>
       <c r="CX17" s="8"/>
       <c r="CY17" s="8"/>
-      <c r="CZ17" s="6"/>
+      <c r="CZ17" s="8"/>
       <c r="DA17" s="6"/>
       <c r="DB17" s="6"/>
       <c r="DC17" s="6"/>
@@ -8122,7 +8147,7 @@
       <c r="MF17" s="6"/>
       <c r="MG17" s="6"/>
     </row>
-    <row r="18" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -8430,9 +8455,11 @@
         <v>54.199999999999996</v>
       </c>
       <c r="CY18" s="6">
-        <v>50.7</v>
-      </c>
-      <c r="CZ18" s="6"/>
+        <v>51.3</v>
+      </c>
+      <c r="CZ18" s="6">
+        <v>49</v>
+      </c>
       <c r="DA18" s="6"/>
       <c r="DB18" s="6"/>
       <c r="DC18" s="6"/>
@@ -8675,7 +8702,7 @@
       <c r="MF18" s="6"/>
       <c r="MG18" s="6"/>
     </row>
-    <row r="19" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -8983,9 +9010,11 @@
         <v>430.4</v>
       </c>
       <c r="CY19" s="6">
-        <v>386.09999999999997</v>
-      </c>
-      <c r="CZ19" s="6"/>
+        <v>389.3</v>
+      </c>
+      <c r="CZ19" s="6">
+        <v>349.79999999999995</v>
+      </c>
       <c r="DA19" s="6"/>
       <c r="DB19" s="6"/>
       <c r="DC19" s="6"/>
@@ -9228,7 +9257,7 @@
       <c r="MF19" s="6"/>
       <c r="MG19" s="6"/>
     </row>
-    <row r="20" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -9536,9 +9565,11 @@
         <v>212.3</v>
       </c>
       <c r="CY20" s="6">
-        <v>181.1</v>
-      </c>
-      <c r="CZ20" s="6"/>
+        <v>180.1</v>
+      </c>
+      <c r="CZ20" s="6">
+        <v>163.69999999999999</v>
+      </c>
       <c r="DA20" s="6"/>
       <c r="DB20" s="6"/>
       <c r="DC20" s="6"/>
@@ -9781,7 +9812,7 @@
       <c r="MF20" s="6"/>
       <c r="MG20" s="6"/>
     </row>
-    <row r="21" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -10089,9 +10120,11 @@
         <v>125.6</v>
       </c>
       <c r="CY21" s="6">
-        <v>120.69999999999999</v>
-      </c>
-      <c r="CZ21" s="6"/>
+        <v>121.6</v>
+      </c>
+      <c r="CZ21" s="6">
+        <v>109.80000000000001</v>
+      </c>
       <c r="DA21" s="6"/>
       <c r="DB21" s="6"/>
       <c r="DC21" s="6"/>
@@ -10334,7 +10367,7 @@
       <c r="MF21" s="6"/>
       <c r="MG21" s="6"/>
     </row>
-    <row r="22" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -10642,9 +10675,11 @@
         <v>131.9</v>
       </c>
       <c r="CY22" s="6">
-        <v>113.5</v>
-      </c>
-      <c r="CZ22" s="6"/>
+        <v>111.9</v>
+      </c>
+      <c r="CZ22" s="6">
+        <v>95.8</v>
+      </c>
       <c r="DA22" s="6"/>
       <c r="DB22" s="6"/>
       <c r="DC22" s="6"/>
@@ -10887,7 +10922,7 @@
       <c r="MF22" s="6"/>
       <c r="MG22" s="6"/>
     </row>
-    <row r="23" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -11195,9 +11230,11 @@
         <v>143.1</v>
       </c>
       <c r="CY23" s="6">
-        <v>137.5</v>
-      </c>
-      <c r="CZ23" s="6"/>
+        <v>135.5</v>
+      </c>
+      <c r="CZ23" s="6">
+        <v>117.4</v>
+      </c>
       <c r="DA23" s="6"/>
       <c r="DB23" s="6"/>
       <c r="DC23" s="6"/>
@@ -11440,7 +11477,7 @@
       <c r="MF23" s="6"/>
       <c r="MG23" s="6"/>
     </row>
-    <row r="24" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -11748,9 +11785,11 @@
         <v>145.30000000000001</v>
       </c>
       <c r="CY24" s="6">
-        <v>139.10000000000002</v>
-      </c>
-      <c r="CZ24" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="CZ24" s="6">
+        <v>135.30000000000001</v>
+      </c>
       <c r="DA24" s="6"/>
       <c r="DB24" s="6"/>
       <c r="DC24" s="6"/>
@@ -11993,7 +12032,7 @@
       <c r="MF24" s="6"/>
       <c r="MG24" s="6"/>
     </row>
-    <row r="25" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -12301,9 +12340,11 @@
         <v>43.4</v>
       </c>
       <c r="CY25" s="6">
-        <v>41.4</v>
-      </c>
-      <c r="CZ25" s="6"/>
+        <v>41.1</v>
+      </c>
+      <c r="CZ25" s="6">
+        <v>34.5</v>
+      </c>
       <c r="DA25" s="6"/>
       <c r="DB25" s="6"/>
       <c r="DC25" s="6"/>
@@ -12546,7 +12587,7 @@
       <c r="MF25" s="6"/>
       <c r="MG25" s="6"/>
     </row>
-    <row r="26" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -12854,9 +12895,11 @@
         <v>201.3</v>
       </c>
       <c r="CY26" s="6">
-        <v>196.60000000000002</v>
-      </c>
-      <c r="CZ26" s="6"/>
+        <v>195.7</v>
+      </c>
+      <c r="CZ26" s="6">
+        <v>177.39999999999998</v>
+      </c>
       <c r="DA26" s="6"/>
       <c r="DB26" s="6"/>
       <c r="DC26" s="6"/>
@@ -13099,7 +13142,7 @@
       <c r="MF26" s="6"/>
       <c r="MG26" s="6"/>
     </row>
-    <row r="27" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -13407,9 +13450,11 @@
         <v>221.4</v>
       </c>
       <c r="CY27" s="6">
-        <v>196.4</v>
-      </c>
-      <c r="CZ27" s="6"/>
+        <v>214.10000000000002</v>
+      </c>
+      <c r="CZ27" s="6">
+        <v>183</v>
+      </c>
       <c r="DA27" s="6"/>
       <c r="DB27" s="6"/>
       <c r="DC27" s="6"/>
@@ -13652,7 +13697,7 @@
       <c r="MF27" s="6"/>
       <c r="MG27" s="6"/>
     </row>
-    <row r="28" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -13960,9 +14005,11 @@
         <v>287.39999999999998</v>
       </c>
       <c r="CY28" s="6">
-        <v>269.70000000000005</v>
-      </c>
-      <c r="CZ28" s="6"/>
+        <v>271.2</v>
+      </c>
+      <c r="CZ28" s="6">
+        <v>237.60000000000002</v>
+      </c>
       <c r="DA28" s="6"/>
       <c r="DB28" s="6"/>
       <c r="DC28" s="6"/>
@@ -14205,7 +14252,7 @@
       <c r="MF28" s="6"/>
       <c r="MG28" s="6"/>
     </row>
-    <row r="29" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -14513,9 +14560,11 @@
         <v>190</v>
       </c>
       <c r="CY29" s="6">
-        <v>183.1</v>
-      </c>
-      <c r="CZ29" s="6"/>
+        <v>183.3</v>
+      </c>
+      <c r="CZ29" s="6">
+        <v>154.80000000000001</v>
+      </c>
       <c r="DA29" s="6"/>
       <c r="DB29" s="6"/>
       <c r="DC29" s="6"/>
@@ -14758,7 +14807,7 @@
       <c r="MF29" s="6"/>
       <c r="MG29" s="6"/>
     </row>
-    <row r="30" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -15066,9 +15115,11 @@
         <v>97.9</v>
       </c>
       <c r="CY30" s="6">
-        <v>95</v>
-      </c>
-      <c r="CZ30" s="6"/>
+        <v>95.800000000000011</v>
+      </c>
+      <c r="CZ30" s="6">
+        <v>91.800000000000011</v>
+      </c>
       <c r="DA30" s="6"/>
       <c r="DB30" s="6"/>
       <c r="DC30" s="6"/>
@@ -15311,7 +15362,7 @@
       <c r="MF30" s="6"/>
       <c r="MG30" s="6"/>
     </row>
-    <row r="31" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -15417,7 +15468,7 @@
       <c r="CW31" s="8"/>
       <c r="CX31" s="8"/>
       <c r="CY31" s="8"/>
-      <c r="CZ31" s="6"/>
+      <c r="CZ31" s="8"/>
       <c r="DA31" s="6"/>
       <c r="DB31" s="6"/>
       <c r="DC31" s="6"/>
@@ -15660,7 +15711,7 @@
       <c r="MF31" s="6"/>
       <c r="MG31" s="6"/>
     </row>
-    <row r="32" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -15968,9 +16019,11 @@
         <v>39.299999999999997</v>
       </c>
       <c r="CY32" s="6">
-        <v>38.4</v>
-      </c>
-      <c r="CZ32" s="6"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="CZ32" s="6">
+        <v>34.5</v>
+      </c>
       <c r="DA32" s="6"/>
       <c r="DB32" s="6"/>
       <c r="DC32" s="6"/>
@@ -16213,7 +16266,7 @@
       <c r="MF32" s="6"/>
       <c r="MG32" s="6"/>
     </row>
-    <row r="33" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -16521,9 +16574,11 @@
         <v>84.2</v>
       </c>
       <c r="CY33" s="6">
-        <v>79.7</v>
-      </c>
-      <c r="CZ33" s="6"/>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="CZ33" s="6">
+        <v>73.599999999999994</v>
+      </c>
       <c r="DA33" s="6"/>
       <c r="DB33" s="6"/>
       <c r="DC33" s="6"/>
@@ -16766,7 +16821,7 @@
       <c r="MF33" s="6"/>
       <c r="MG33" s="6"/>
     </row>
-    <row r="34" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -17074,9 +17129,11 @@
         <v>74.599999999999994</v>
       </c>
       <c r="CY34" s="6">
-        <v>68.8</v>
-      </c>
-      <c r="CZ34" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="CZ34" s="6">
+        <v>61</v>
+      </c>
       <c r="DA34" s="6"/>
       <c r="DB34" s="6"/>
       <c r="DC34" s="6"/>
@@ -17319,7 +17376,7 @@
       <c r="MF34" s="6"/>
       <c r="MG34" s="6"/>
     </row>
-    <row r="35" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -17627,9 +17684,11 @@
         <v>43.400000000000006</v>
       </c>
       <c r="CY35" s="6">
-        <v>38.6</v>
-      </c>
-      <c r="CZ35" s="6"/>
+        <v>37.1</v>
+      </c>
+      <c r="CZ35" s="6">
+        <v>29.700000000000003</v>
+      </c>
       <c r="DA35" s="6"/>
       <c r="DB35" s="6"/>
       <c r="DC35" s="6"/>
@@ -17872,7 +17931,7 @@
       <c r="MF35" s="6"/>
       <c r="MG35" s="6"/>
     </row>
-    <row r="36" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -18180,9 +18239,11 @@
         <v>301.7</v>
       </c>
       <c r="CY36" s="6">
-        <v>295.89999999999998</v>
-      </c>
-      <c r="CZ36" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="CZ36" s="6">
+        <v>233.8</v>
+      </c>
       <c r="DA36" s="6"/>
       <c r="DB36" s="6"/>
       <c r="DC36" s="6"/>
@@ -18425,7 +18486,7 @@
       <c r="MF36" s="6"/>
       <c r="MG36" s="6"/>
     </row>
-    <row r="37" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -18733,9 +18794,11 @@
         <v>74.5</v>
       </c>
       <c r="CY37" s="6">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="CZ37" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="CZ37" s="6">
+        <v>56.400000000000006</v>
+      </c>
       <c r="DA37" s="6"/>
       <c r="DB37" s="6"/>
       <c r="DC37" s="6"/>
@@ -18978,7 +19041,7 @@
       <c r="MF37" s="6"/>
       <c r="MG37" s="6"/>
     </row>
-    <row r="38" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -19286,9 +19349,11 @@
         <v>623</v>
       </c>
       <c r="CY38" s="6">
-        <v>610.20000000000005</v>
-      </c>
-      <c r="CZ38" s="6"/>
+        <v>607</v>
+      </c>
+      <c r="CZ38" s="6">
+        <v>483.70000000000005</v>
+      </c>
       <c r="DA38" s="6"/>
       <c r="DB38" s="6"/>
       <c r="DC38" s="6"/>
@@ -19531,7 +19596,7 @@
       <c r="MF38" s="6"/>
       <c r="MG38" s="6"/>
     </row>
-    <row r="39" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -19839,9 +19904,11 @@
         <v>298.39999999999998</v>
       </c>
       <c r="CY39" s="6">
-        <v>275.89999999999998</v>
-      </c>
-      <c r="CZ39" s="6"/>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="CZ39" s="6">
+        <v>246.3</v>
+      </c>
       <c r="DA39" s="6"/>
       <c r="DB39" s="6"/>
       <c r="DC39" s="6"/>
@@ -20084,7 +20151,7 @@
       <c r="MF39" s="6"/>
       <c r="MG39" s="6"/>
     </row>
-    <row r="40" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -20392,9 +20459,11 @@
         <v>34</v>
       </c>
       <c r="CY40" s="6">
-        <v>31.1</v>
-      </c>
-      <c r="CZ40" s="6"/>
+        <v>30.4</v>
+      </c>
+      <c r="CZ40" s="6">
+        <v>26.6</v>
+      </c>
       <c r="DA40" s="6"/>
       <c r="DB40" s="6"/>
       <c r="DC40" s="6"/>
@@ -20637,7 +20706,7 @@
       <c r="MF40" s="6"/>
       <c r="MG40" s="6"/>
     </row>
-    <row r="41" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -20945,9 +21014,11 @@
         <v>342.5</v>
       </c>
       <c r="CY41" s="6">
-        <v>321.5</v>
-      </c>
-      <c r="CZ41" s="6"/>
+        <v>317.5</v>
+      </c>
+      <c r="CZ41" s="6">
+        <v>307.2</v>
+      </c>
       <c r="DA41" s="6"/>
       <c r="DB41" s="6"/>
       <c r="DC41" s="6"/>
@@ -21190,7 +21261,7 @@
       <c r="MF41" s="6"/>
       <c r="MG41" s="6"/>
     </row>
-    <row r="42" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -21498,9 +21569,11 @@
         <v>139.19999999999999</v>
       </c>
       <c r="CY42" s="6">
-        <v>127.19999999999999</v>
-      </c>
-      <c r="CZ42" s="6"/>
+        <v>128.6</v>
+      </c>
+      <c r="CZ42" s="6">
+        <v>119.8</v>
+      </c>
       <c r="DA42" s="6"/>
       <c r="DB42" s="6"/>
       <c r="DC42" s="6"/>
@@ -21743,7 +21816,7 @@
       <c r="MF42" s="6"/>
       <c r="MG42" s="6"/>
     </row>
-    <row r="43" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -22051,9 +22124,11 @@
         <v>127.5</v>
       </c>
       <c r="CY43" s="6">
-        <v>125.2</v>
-      </c>
-      <c r="CZ43" s="6"/>
+        <v>123.10000000000001</v>
+      </c>
+      <c r="CZ43" s="6">
+        <v>98.300000000000011</v>
+      </c>
       <c r="DA43" s="6"/>
       <c r="DB43" s="6"/>
       <c r="DC43" s="6"/>
@@ -22296,7 +22371,7 @@
       <c r="MF43" s="6"/>
       <c r="MG43" s="6"/>
     </row>
-    <row r="44" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -22604,9 +22679,11 @@
         <v>321.89999999999998</v>
       </c>
       <c r="CY44" s="6">
-        <v>300</v>
-      </c>
-      <c r="CZ44" s="6"/>
+        <v>297.8</v>
+      </c>
+      <c r="CZ44" s="6">
+        <v>270.3</v>
+      </c>
       <c r="DA44" s="6"/>
       <c r="DB44" s="6"/>
       <c r="DC44" s="6"/>
@@ -22849,7 +22926,7 @@
       <c r="MF44" s="6"/>
       <c r="MG44" s="6"/>
     </row>
-    <row r="45" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -23157,9 +23234,11 @@
         <v>29.400000000000002</v>
       </c>
       <c r="CY45" s="6">
-        <v>25.6</v>
-      </c>
-      <c r="CZ45" s="6"/>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="CZ45" s="6">
+        <v>23.2</v>
+      </c>
       <c r="DA45" s="6"/>
       <c r="DB45" s="6"/>
       <c r="DC45" s="6"/>
@@ -23402,7 +23481,7 @@
       <c r="MF45" s="6"/>
       <c r="MG45" s="6"/>
     </row>
-    <row r="46" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -23710,9 +23789,11 @@
         <v>153.30000000000001</v>
       </c>
       <c r="CY46" s="6">
-        <v>144.5</v>
-      </c>
-      <c r="CZ46" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="CZ46" s="6">
+        <v>135</v>
+      </c>
       <c r="DA46" s="6"/>
       <c r="DB46" s="6"/>
       <c r="DC46" s="6"/>
@@ -23955,7 +24036,7 @@
       <c r="MF46" s="6"/>
       <c r="MG46" s="6"/>
     </row>
-    <row r="47" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -24263,9 +24344,11 @@
         <v>31</v>
       </c>
       <c r="CY47" s="6">
-        <v>28.7</v>
-      </c>
-      <c r="CZ47" s="6"/>
+        <v>29.5</v>
+      </c>
+      <c r="CZ47" s="6">
+        <v>26.7</v>
+      </c>
       <c r="DA47" s="6"/>
       <c r="DB47" s="6"/>
       <c r="DC47" s="6"/>
@@ -24508,7 +24591,7 @@
       <c r="MF47" s="6"/>
       <c r="MG47" s="6"/>
     </row>
-    <row r="48" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -24818,7 +24901,9 @@
       <c r="CY48" s="6">
         <v>176</v>
       </c>
-      <c r="CZ48" s="6"/>
+      <c r="CZ48" s="6">
+        <v>152.30000000000001</v>
+      </c>
       <c r="DA48" s="6"/>
       <c r="DB48" s="6"/>
       <c r="DC48" s="6"/>
@@ -25061,7 +25146,7 @@
       <c r="MF48" s="6"/>
       <c r="MG48" s="6"/>
     </row>
-    <row r="49" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -25369,9 +25454,11 @@
         <v>1076.8</v>
       </c>
       <c r="CY49" s="6">
-        <v>1026.7</v>
-      </c>
-      <c r="CZ49" s="6"/>
+        <v>1031.5999999999999</v>
+      </c>
+      <c r="CZ49" s="6">
+        <v>990.9</v>
+      </c>
       <c r="DA49" s="6"/>
       <c r="DB49" s="6"/>
       <c r="DC49" s="6"/>
@@ -25614,7 +25701,7 @@
       <c r="MF49" s="6"/>
       <c r="MG49" s="6"/>
     </row>
-    <row r="50" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -25922,9 +26009,11 @@
         <v>118</v>
       </c>
       <c r="CY50" s="6">
-        <v>112</v>
-      </c>
-      <c r="CZ50" s="6"/>
+        <v>111.30000000000001</v>
+      </c>
+      <c r="CZ50" s="6">
+        <v>104.4</v>
+      </c>
       <c r="DA50" s="6"/>
       <c r="DB50" s="6"/>
       <c r="DC50" s="6"/>
@@ -26167,7 +26256,7 @@
       <c r="MF50" s="6"/>
       <c r="MG50" s="6"/>
     </row>
-    <row r="51" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -26475,9 +26564,11 @@
         <v>29.6</v>
       </c>
       <c r="CY51" s="6">
-        <v>28.5</v>
-      </c>
-      <c r="CZ51" s="6"/>
+        <v>28.6</v>
+      </c>
+      <c r="CZ51" s="6">
+        <v>24.9</v>
+      </c>
       <c r="DA51" s="6"/>
       <c r="DB51" s="6"/>
       <c r="DC51" s="6"/>
@@ -26720,7 +26811,7 @@
       <c r="MF51" s="6"/>
       <c r="MG51" s="6"/>
     </row>
-    <row r="52" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -27028,9 +27119,11 @@
         <v>284.79999999999995</v>
       </c>
       <c r="CY52" s="6">
-        <v>274.89999999999998</v>
-      </c>
-      <c r="CZ52" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="CZ52" s="6">
+        <v>234.2</v>
+      </c>
       <c r="DA52" s="6"/>
       <c r="DB52" s="6"/>
       <c r="DC52" s="6"/>
@@ -27273,7 +27366,7 @@
       <c r="MF52" s="6"/>
       <c r="MG52" s="6"/>
     </row>
-    <row r="53" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -27583,7 +27676,9 @@
       <c r="CY53" s="6">
         <v>226.5</v>
       </c>
-      <c r="CZ53" s="6"/>
+      <c r="CZ53" s="6">
+        <v>216.4</v>
+      </c>
       <c r="DA53" s="6"/>
       <c r="DB53" s="6"/>
       <c r="DC53" s="6"/>
@@ -27826,7 +27921,7 @@
       <c r="MF53" s="6"/>
       <c r="MG53" s="6"/>
     </row>
-    <row r="54" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -28134,9 +28229,11 @@
         <v>54</v>
       </c>
       <c r="CY54" s="6">
-        <v>50.6</v>
-      </c>
-      <c r="CZ54" s="6"/>
+        <v>50.699999999999996</v>
+      </c>
+      <c r="CZ54" s="6">
+        <v>45.7</v>
+      </c>
       <c r="DA54" s="6"/>
       <c r="DB54" s="6"/>
       <c r="DC54" s="6"/>
@@ -28379,7 +28476,7 @@
       <c r="MF54" s="6"/>
       <c r="MG54" s="6"/>
     </row>
-    <row r="55" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -28687,9 +28784,11 @@
         <v>169</v>
       </c>
       <c r="CY55" s="6">
-        <v>157.4</v>
-      </c>
-      <c r="CZ55" s="6"/>
+        <v>156.29999999999998</v>
+      </c>
+      <c r="CZ55" s="6">
+        <v>139.69999999999999</v>
+      </c>
       <c r="DA55" s="6"/>
       <c r="DB55" s="6"/>
       <c r="DC55" s="6"/>
@@ -28932,7 +29031,7 @@
       <c r="MF55" s="6"/>
       <c r="MG55" s="6"/>
     </row>
-    <row r="56" spans="1:345" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:345" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -29240,9 +29339,11 @@
         <v>27.7</v>
       </c>
       <c r="CY56" s="6">
-        <v>26.4</v>
-      </c>
-      <c r="CZ56" s="6"/>
+        <v>25.5</v>
+      </c>
+      <c r="CZ56" s="6">
+        <v>22.200000000000003</v>
+      </c>
       <c r="DA56" s="6"/>
       <c r="DB56" s="6"/>
       <c r="DC56" s="6"/>
@@ -29496,21 +29597,21 @@
   <dimension ref="A1:CQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="CH5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="BR29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CM67" sqref="CM67"/>
+      <selection pane="bottomRight" activeCell="CM31" sqref="CM31:CN31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="81" max="82" width="9.140625" style="9"/>
-    <col min="83" max="83" width="9.140625" style="9" customWidth="1"/>
-    <col min="84" max="95" width="9.140625" style="9"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="81" max="82" width="9.1796875" style="9"/>
+    <col min="83" max="83" width="9.1796875" style="9" customWidth="1"/>
+    <col min="84" max="95" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -29530,7 +29631,7 @@
       <c r="CP1" s="9"/>
       <c r="CQ1" s="9"/>
     </row>
-    <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="CC2" s="9"/>
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
@@ -29547,7 +29648,7 @@
       <c r="CP2" s="9"/>
       <c r="CQ2" s="9"/>
     </row>
-    <row r="3" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="CC3" s="9"/>
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
@@ -29564,7 +29665,7 @@
       <c r="CP3" s="9"/>
       <c r="CQ3" s="9"/>
     </row>
-    <row r="4" spans="1:95" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -29838,12 +29939,14 @@
       <c r="CM4" s="4">
         <v>43983</v>
       </c>
-      <c r="CN4" s="9"/>
+      <c r="CN4" s="4">
+        <v>44013</v>
+      </c>
       <c r="CO4" s="9"/>
       <c r="CP4" s="9"/>
       <c r="CQ4" s="9"/>
     </row>
-    <row r="5" spans="1:95" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -30112,17 +30215,19 @@
         <v>-5.5065778077620866</v>
       </c>
       <c r="CL5" s="10">
-        <v>-8.532645027111343</v>
+        <v>-8.4045160811111828</v>
       </c>
       <c r="CM5" s="10">
-        <v>-8.5635904318307343</v>
-      </c>
-      <c r="CN5" s="9"/>
+        <v>-8.1787321386279412</v>
+      </c>
+      <c r="CN5" s="10">
+        <v>-6.4496238747071075</v>
+      </c>
       <c r="CO5" s="9"/>
       <c r="CP5" s="9"/>
       <c r="CQ5" s="9"/>
     </row>
-    <row r="6" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -30394,14 +30499,16 @@
         <v>-7.8931750741839828</v>
       </c>
       <c r="CM6" s="10">
-        <v>-13.212121212121218</v>
-      </c>
-      <c r="CN6" s="9"/>
+        <v>-12.606060606060611</v>
+      </c>
+      <c r="CN6" s="10">
+        <v>-8.7179487179487154</v>
+      </c>
       <c r="CO6" s="9"/>
       <c r="CP6" s="9"/>
       <c r="CQ6" s="9"/>
     </row>
-    <row r="7" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -30673,14 +30780,16 @@
         <v>-18.64406779661017</v>
       </c>
       <c r="CM7" s="10">
-        <v>-21.708185053380785</v>
-      </c>
-      <c r="CN7" s="9"/>
+        <v>-22.775800711743781</v>
+      </c>
+      <c r="CN7" s="10">
+        <v>-12.217194570135746</v>
+      </c>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="9"/>
     </row>
-    <row r="8" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -30952,14 +31061,16 @@
         <v>-3.8442083965604423</v>
       </c>
       <c r="CM8" s="10">
-        <v>-8.5658663205710504</v>
-      </c>
-      <c r="CN8" s="9"/>
+        <v>-8.3062946138870757</v>
+      </c>
+      <c r="CN8" s="10">
+        <v>-1.330532212885158</v>
+      </c>
       <c r="CO8" s="9"/>
       <c r="CP8" s="9"/>
       <c r="CQ8" s="9"/>
     </row>
-    <row r="9" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -31231,14 +31342,16 @@
         <v>-9.2502434274586189</v>
       </c>
       <c r="CM9" s="10">
-        <v>-4.3570669500531434</v>
-      </c>
-      <c r="CN9" s="9"/>
+        <v>-4.038257173219975</v>
+      </c>
+      <c r="CN9" s="10">
+        <v>-5.4878048780487809</v>
+      </c>
       <c r="CO9" s="9"/>
       <c r="CP9" s="9"/>
       <c r="CQ9" s="9"/>
     </row>
-    <row r="10" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -31510,14 +31623,16 @@
         <v>-10.729350410307545</v>
       </c>
       <c r="CM10" s="10">
-        <v>-13.943286855710483</v>
-      </c>
-      <c r="CN10" s="9"/>
+        <v>-13.825787247375843</v>
+      </c>
+      <c r="CN10" s="10">
+        <v>-12.565734846388045</v>
+      </c>
       <c r="CO10" s="9"/>
       <c r="CP10" s="9"/>
       <c r="CQ10" s="9"/>
     </row>
-    <row r="11" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -31789,14 +31904,16 @@
         <v>-2.3809523809523809</v>
       </c>
       <c r="CM11" s="10">
-        <v>-0.82205029013539099</v>
-      </c>
-      <c r="CN11" s="9"/>
+        <v>-2.0793036750483611</v>
+      </c>
+      <c r="CN11" s="10">
+        <v>-12.135416666666671</v>
+      </c>
       <c r="CO11" s="9"/>
       <c r="CP11" s="9"/>
       <c r="CQ11" s="9"/>
     </row>
-    <row r="12" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -32068,14 +32185,16 @@
         <v>-8.2268370607028611</v>
       </c>
       <c r="CM12" s="10">
-        <v>-9.9737532808398868</v>
-      </c>
-      <c r="CN12" s="9"/>
+        <v>-4.8118985126859144</v>
+      </c>
+      <c r="CN12" s="10">
+        <v>-6.7831449126413377</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
     </row>
-    <row r="13" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -32347,14 +32466,16 @@
         <v>-4.7091412742382159</v>
       </c>
       <c r="CM13" s="10">
-        <v>-4.5871559633027621</v>
-      </c>
-      <c r="CN13" s="9"/>
+        <v>-5.504587155963315</v>
+      </c>
+      <c r="CN13" s="10">
+        <v>-3.7974683544303884</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
     </row>
-    <row r="14" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -32448,12 +32569,12 @@
       <c r="CK14" s="8"/>
       <c r="CL14" s="8"/>
       <c r="CM14" s="8"/>
-      <c r="CN14" s="9"/>
+      <c r="CN14" s="8"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
     </row>
-    <row r="15" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -32725,14 +32846,16 @@
         <v>-5.4197871501773749</v>
       </c>
       <c r="CM15" s="10">
-        <v>-6.4462416745956146</v>
-      </c>
-      <c r="CN15" s="9"/>
+        <v>-5.9705042816365284</v>
+      </c>
+      <c r="CN15" s="10">
+        <v>-5.9789267336437231</v>
+      </c>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
     </row>
-    <row r="16" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -33006,12 +33129,14 @@
       <c r="CM16" s="10">
         <v>-5.570611261668172</v>
       </c>
-      <c r="CN16" s="9"/>
+      <c r="CN16" s="10">
+        <v>-1.5213946117274204</v>
+      </c>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
     </row>
-    <row r="17" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -33105,12 +33230,12 @@
       <c r="CK17" s="8"/>
       <c r="CL17" s="8"/>
       <c r="CM17" s="8"/>
-      <c r="CN17" s="9"/>
+      <c r="CN17" s="8"/>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
     </row>
-    <row r="18" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -33382,14 +33507,16 @@
         <v>-11.72638436482085</v>
       </c>
       <c r="CM18" s="10">
-        <v>-10.896309314586997</v>
-      </c>
-      <c r="CN18" s="9"/>
+        <v>-9.841827768014074</v>
+      </c>
+      <c r="CN18" s="10">
+        <v>-0.80971659919028049</v>
+      </c>
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
     </row>
-    <row r="19" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -33661,14 +33788,16 @@
         <v>-4.0570664288898897</v>
       </c>
       <c r="CM19" s="10">
-        <v>-6.829150579150582</v>
-      </c>
-      <c r="CN19" s="9"/>
+        <v>-6.0569498069497989</v>
+      </c>
+      <c r="CN19" s="10">
+        <v>-6.043513295729265</v>
+      </c>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
     </row>
-    <row r="20" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -33940,14 +34069,16 @@
         <v>-11.059907834101384</v>
       </c>
       <c r="CM20" s="10">
-        <v>-12.342691190706692</v>
-      </c>
-      <c r="CN20" s="9"/>
+        <v>-12.8267182962246</v>
+      </c>
+      <c r="CN20" s="10">
+        <v>-5.5395268320831059</v>
+      </c>
       <c r="CO20" s="9"/>
       <c r="CP20" s="9"/>
       <c r="CQ20" s="9"/>
     </row>
-    <row r="21" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -34219,14 +34350,16 @@
         <v>-15.363881401617256</v>
       </c>
       <c r="CM21" s="10">
-        <v>-9.8581030619865704</v>
-      </c>
-      <c r="CN21" s="9"/>
+        <v>-9.1859596713965725</v>
+      </c>
+      <c r="CN21" s="10">
+        <v>-5.9125964010282699</v>
+      </c>
       <c r="CO21" s="9"/>
       <c r="CP21" s="9"/>
       <c r="CQ21" s="9"/>
     </row>
-    <row r="22" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -34498,14 +34631,16 @@
         <v>-6.5864022662889399</v>
       </c>
       <c r="CM22" s="10">
-        <v>-6.1207609594706298</v>
-      </c>
-      <c r="CN22" s="9"/>
+        <v>-7.4441687344913046</v>
+      </c>
+      <c r="CN22" s="10">
+        <v>-5.0545094152626442</v>
+      </c>
       <c r="CO22" s="9"/>
       <c r="CP22" s="9"/>
       <c r="CQ22" s="9"/>
     </row>
-    <row r="23" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -34777,14 +34912,16 @@
         <v>-13.534743202416921</v>
       </c>
       <c r="CM23" s="10">
-        <v>-12.919569347688412</v>
-      </c>
-      <c r="CN23" s="9"/>
+        <v>-14.186193793540218</v>
+      </c>
+      <c r="CN23" s="10">
+        <v>-17.323943661971828</v>
+      </c>
       <c r="CO23" s="9"/>
       <c r="CP23" s="9"/>
       <c r="CQ23" s="9"/>
     </row>
-    <row r="24" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -35056,14 +35193,16 @@
         <v>-4.7837483617300025</v>
       </c>
       <c r="CM24" s="10">
-        <v>-3.3356497567755077</v>
-      </c>
-      <c r="CN24" s="9"/>
+        <v>-2.7102154273801098</v>
+      </c>
+      <c r="CN24" s="10">
+        <v>0.5200594353640543</v>
+      </c>
       <c r="CO24" s="9"/>
       <c r="CP24" s="9"/>
       <c r="CQ24" s="9"/>
     </row>
-    <row r="25" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -35335,14 +35474,16 @@
         <v>-14.901960784313728</v>
       </c>
       <c r="CM25" s="10">
-        <v>-14.107883817427394</v>
-      </c>
-      <c r="CN25" s="9"/>
+        <v>-14.730290456431536</v>
+      </c>
+      <c r="CN25" s="10">
+        <v>-8.9709762532981507</v>
+      </c>
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
       <c r="CQ25" s="9"/>
     </row>
-    <row r="26" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -35614,14 +35755,16 @@
         <v>-8.6660617059890956</v>
       </c>
       <c r="CM26" s="10">
-        <v>-5.7074340527577831</v>
-      </c>
-      <c r="CN26" s="9"/>
+        <v>-6.1390887290167919</v>
+      </c>
+      <c r="CN26" s="10">
+        <v>-1.2249443207127044</v>
+      </c>
       <c r="CO26" s="9"/>
       <c r="CP26" s="9"/>
       <c r="CQ26" s="9"/>
     </row>
-    <row r="27" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -35893,14 +36036,16 @@
         <v>-11.226944667201273</v>
       </c>
       <c r="CM27" s="10">
-        <v>-16.60297239915074</v>
-      </c>
-      <c r="CN27" s="9"/>
+        <v>-9.0870488322717531</v>
+      </c>
+      <c r="CN27" s="10">
+        <v>-5.9609455292908509</v>
+      </c>
       <c r="CO27" s="9"/>
       <c r="CP27" s="9"/>
       <c r="CQ27" s="9"/>
     </row>
-    <row r="28" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -36172,14 +36317,16 @@
         <v>-8.2375478927203094</v>
       </c>
       <c r="CM28" s="10">
-        <v>-7.8893442622950696</v>
-      </c>
-      <c r="CN28" s="9"/>
+        <v>-7.3770491803278766</v>
+      </c>
+      <c r="CN28" s="10">
+        <v>-8.191653786707878</v>
+      </c>
       <c r="CO28" s="9"/>
       <c r="CP28" s="9"/>
       <c r="CQ28" s="9"/>
     </row>
-    <row r="29" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -36451,14 +36598,16 @@
         <v>-9.7815764482431131</v>
       </c>
       <c r="CM29" s="10">
-        <v>-9.6694622594967914</v>
-      </c>
-      <c r="CN29" s="9"/>
+        <v>-9.5707942772570203</v>
+      </c>
+      <c r="CN29" s="10">
+        <v>-10.829493087557594</v>
+      </c>
       <c r="CO29" s="9"/>
       <c r="CP29" s="9"/>
       <c r="CQ29" s="9"/>
     </row>
-    <row r="30" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -36730,14 +36879,16 @@
         <v>-7.6415094339622591</v>
       </c>
       <c r="CM30" s="10">
-        <v>-5</v>
-      </c>
-      <c r="CN30" s="9"/>
+        <v>-4.1999999999999886</v>
+      </c>
+      <c r="CN30" s="10">
+        <v>-2.6511134676564008</v>
+      </c>
       <c r="CO30" s="9"/>
       <c r="CP30" s="9"/>
       <c r="CQ30" s="9"/>
     </row>
-    <row r="31" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -36831,12 +36982,12 @@
       <c r="CK31" s="8"/>
       <c r="CL31" s="8"/>
       <c r="CM31" s="8"/>
-      <c r="CN31" s="9"/>
+      <c r="CN31" s="8"/>
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
     </row>
-    <row r="32" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -37108,14 +37259,16 @@
         <v>-12.472160356347441</v>
       </c>
       <c r="CM32" s="10">
-        <v>-3.7593984962406015</v>
-      </c>
-      <c r="CN32" s="9"/>
+        <v>-3.0075187969924708</v>
+      </c>
+      <c r="CN32" s="10">
+        <v>-3.3613445378151336</v>
+      </c>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
     </row>
-    <row r="33" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -37387,14 +37540,16 @@
         <v>-11.832460732984291</v>
       </c>
       <c r="CM33" s="10">
-        <v>-9.6371882086167791</v>
-      </c>
-      <c r="CN33" s="9"/>
+        <v>-9.977324263038545</v>
+      </c>
+      <c r="CN33" s="10">
+        <v>-7.1878940731399776</v>
+      </c>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
     </row>
-    <row r="34" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -37666,14 +37821,16 @@
         <v>-5.9268600252206847</v>
       </c>
       <c r="CM34" s="10">
-        <v>-1.8544935805991403</v>
-      </c>
-      <c r="CN34" s="9"/>
+        <v>-7.2753209700427881</v>
+      </c>
+      <c r="CN34" s="10">
+        <v>-8.8191330343796785</v>
+      </c>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
     </row>
-    <row r="35" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -37945,14 +38102,16 @@
         <v>-12.323232323232311</v>
       </c>
       <c r="CM35" s="10">
-        <v>-8.9622641509433905</v>
-      </c>
-      <c r="CN35" s="9"/>
+        <v>-12.499999999999995</v>
+      </c>
+      <c r="CN35" s="10">
+        <v>-9.1743119266055047</v>
+      </c>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
     </row>
-    <row r="36" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -38224,14 +38383,16 @@
         <v>-4.646017699115041</v>
       </c>
       <c r="CM36" s="10">
-        <v>-5.4632587859424993</v>
-      </c>
-      <c r="CN36" s="9"/>
+        <v>-5.7507987220447285</v>
+      </c>
+      <c r="CN36" s="10">
+        <v>-12.434456928838948</v>
+      </c>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
     </row>
-    <row r="37" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -38503,14 +38664,16 @@
         <v>-4.609475032010236</v>
       </c>
       <c r="CM37" s="10">
-        <v>-4.8710601719197584</v>
-      </c>
-      <c r="CN37" s="9"/>
+        <v>-5.4441260744985636</v>
+      </c>
+      <c r="CN37" s="10">
+        <v>-12.693498452012367</v>
+      </c>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
     </row>
-    <row r="38" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -38782,14 +38945,16 @@
         <v>-7.1119725659758357</v>
       </c>
       <c r="CM38" s="10">
-        <v>-7.2080291970802719</v>
-      </c>
-      <c r="CN38" s="9"/>
+        <v>-7.6946472019464593</v>
+      </c>
+      <c r="CN38" s="10">
+        <v>-8.5806085806085761</v>
+      </c>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
     </row>
-    <row r="39" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -39061,14 +39226,16 @@
         <v>-11.872415829887785</v>
       </c>
       <c r="CM39" s="10">
-        <v>-6.0286103542234484</v>
-      </c>
-      <c r="CN39" s="9"/>
+        <v>-6.1989100817438842</v>
+      </c>
+      <c r="CN39" s="10">
+        <v>9.078830823737821</v>
+      </c>
       <c r="CO39" s="9"/>
       <c r="CP39" s="9"/>
       <c r="CQ39" s="9"/>
     </row>
-    <row r="40" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -39340,14 +39507,16 @@
         <v>-11.917098445595858</v>
       </c>
       <c r="CM40" s="10">
-        <v>-6.0422960725075523</v>
-      </c>
-      <c r="CN40" s="9"/>
+        <v>-8.1570996978852044</v>
+      </c>
+      <c r="CN40" s="10">
+        <v>-2.2058823529411686</v>
+      </c>
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
     </row>
-    <row r="41" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -39619,14 +39788,16 @@
         <v>-14.138881925294557</v>
       </c>
       <c r="CM41" s="10">
-        <v>-11.015776363133119</v>
-      </c>
-      <c r="CN41" s="9"/>
+        <v>-12.122889565458056</v>
+      </c>
+      <c r="CN41" s="10">
+        <v>-11.213872832369946</v>
+      </c>
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
       <c r="CQ41" s="9"/>
     </row>
-    <row r="42" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -39898,14 +40069,16 @@
         <v>-7.9973562458691489</v>
       </c>
       <c r="CM42" s="10">
-        <v>-4.3609022556391066</v>
-      </c>
-      <c r="CN42" s="9"/>
+        <v>-3.3082706766917336</v>
+      </c>
+      <c r="CN42" s="10">
+        <v>-1.5612161051766571</v>
+      </c>
       <c r="CO42" s="9"/>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
     </row>
-    <row r="43" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -40177,14 +40350,16 @@
         <v>-10.901467505241087</v>
       </c>
       <c r="CM43" s="10">
-        <v>-11.519434628975263</v>
-      </c>
-      <c r="CN43" s="9"/>
+        <v>-13.003533568904587</v>
+      </c>
+      <c r="CN43" s="10">
+        <v>-8.8971269694161084</v>
+      </c>
       <c r="CO43" s="9"/>
       <c r="CP43" s="9"/>
       <c r="CQ43" s="9"/>
     </row>
-    <row r="44" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -40456,14 +40631,16 @@
         <v>-3.8530465949820889</v>
       </c>
       <c r="CM44" s="10">
-        <v>-1.9928128062724673</v>
-      </c>
-      <c r="CN44" s="9"/>
+        <v>-2.7115321790264653</v>
+      </c>
+      <c r="CN44" s="10">
+        <v>-0.91642228739002929</v>
+      </c>
       <c r="CO44" s="9"/>
       <c r="CP44" s="9"/>
       <c r="CQ44" s="9"/>
     </row>
-    <row r="45" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -40735,14 +40912,16 @@
         <v>-5.1612903225806379</v>
       </c>
       <c r="CM45" s="10">
-        <v>-7.2463768115942022</v>
-      </c>
-      <c r="CN45" s="9"/>
+        <v>-6.8840579710144869</v>
+      </c>
+      <c r="CN45" s="10">
+        <v>-2.521008403361336</v>
+      </c>
       <c r="CO45" s="9"/>
       <c r="CP45" s="9"/>
       <c r="CQ45" s="9"/>
     </row>
-    <row r="46" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -41014,14 +41193,16 @@
         <v>-7.5392038600723756</v>
       </c>
       <c r="CM46" s="10">
-        <v>-9.6875</v>
-      </c>
-      <c r="CN46" s="9"/>
+        <v>-10.625</v>
+      </c>
+      <c r="CN46" s="10">
+        <v>-8.4745762711864412</v>
+      </c>
       <c r="CO46" s="9"/>
       <c r="CP46" s="9"/>
       <c r="CQ46" s="9"/>
     </row>
-    <row r="47" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -41293,14 +41474,16 @@
         <v>-16.666666666666671</v>
       </c>
       <c r="CM47" s="10">
-        <v>-14.583333333333339</v>
-      </c>
-      <c r="CN47" s="9"/>
+        <v>-12.202380952380956</v>
+      </c>
+      <c r="CN47" s="10">
+        <v>-5.3191489361702127</v>
+      </c>
       <c r="CO47" s="9"/>
       <c r="CP47" s="9"/>
       <c r="CQ47" s="9"/>
     </row>
-    <row r="48" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -41574,12 +41757,14 @@
       <c r="CM48" s="10">
         <v>4.7619047619047619</v>
       </c>
-      <c r="CN48" s="9"/>
+      <c r="CN48" s="10">
+        <v>-7.1341463414634081</v>
+      </c>
       <c r="CO48" s="9"/>
       <c r="CP48" s="9"/>
       <c r="CQ48" s="9"/>
     </row>
-    <row r="49" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -41851,14 +42036,16 @@
         <v>-5.593547255830261</v>
       </c>
       <c r="CM49" s="10">
-        <v>-7.1951550212419697</v>
-      </c>
-      <c r="CN49" s="9"/>
+        <v>-6.7522371870197997</v>
+      </c>
+      <c r="CN49" s="10">
+        <v>-4.1033581728442838</v>
+      </c>
       <c r="CO49" s="9"/>
       <c r="CP49" s="9"/>
       <c r="CQ49" s="9"/>
     </row>
-    <row r="50" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -42130,14 +42317,16 @@
         <v>-8.7393658159319489</v>
       </c>
       <c r="CM50" s="10">
-        <v>-4.4368600682593762</v>
-      </c>
-      <c r="CN50" s="9"/>
+        <v>-5.0341296928327459</v>
+      </c>
+      <c r="CN50" s="10">
+        <v>1.4577259475218658</v>
+      </c>
       <c r="CO50" s="9"/>
       <c r="CP50" s="9"/>
       <c r="CQ50" s="9"/>
     </row>
-    <row r="51" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -42409,14 +42598,16 @@
         <v>-11.641791044776117</v>
       </c>
       <c r="CM51" s="10">
-        <v>-5.6291390728476802</v>
-      </c>
-      <c r="CN51" s="9"/>
+        <v>-5.298013245033105</v>
+      </c>
+      <c r="CN51" s="10">
+        <v>2.0491803278688527</v>
+      </c>
       <c r="CO51" s="9"/>
       <c r="CP51" s="9"/>
       <c r="CQ51" s="9"/>
     </row>
-    <row r="52" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -42688,14 +42879,16 @@
         <v>-10.916484203941206</v>
       </c>
       <c r="CM52" s="10">
-        <v>-11.493882807469427</v>
-      </c>
-      <c r="CN52" s="9"/>
+        <v>-11.461687057308442</v>
+      </c>
+      <c r="CN52" s="10">
+        <v>-18.083245890171387</v>
+      </c>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
       <c r="CQ52" s="9"/>
     </row>
-    <row r="53" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -42969,12 +43162,14 @@
       <c r="CM53" s="10">
         <v>-13.714285714285714</v>
       </c>
-      <c r="CN53" s="9"/>
+      <c r="CN53" s="10">
+        <v>-9.7204839382561463</v>
+      </c>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
     </row>
-    <row r="54" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -43246,14 +43441,16 @@
         <v>-15.227629513343802</v>
       </c>
       <c r="CM54" s="10">
-        <v>-12.908777969018933</v>
-      </c>
-      <c r="CN54" s="9"/>
+        <v>-12.736660929432023</v>
+      </c>
+      <c r="CN54" s="10">
+        <v>-12.786259541984725</v>
+      </c>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
     </row>
-    <row r="55" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -43525,14 +43722,16 @@
         <v>-19.370229007633586</v>
       </c>
       <c r="CM55" s="10">
-        <v>-18.949536560247171</v>
-      </c>
-      <c r="CN55" s="9"/>
+        <v>-19.515962924819789</v>
+      </c>
+      <c r="CN55" s="10">
+        <v>-20.080091533180791</v>
+      </c>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
     </row>
-    <row r="56" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -43804,9 +44003,11 @@
         <v>-11.783439490445859</v>
       </c>
       <c r="CM56" s="10">
-        <v>-7.6923076923077023</v>
-      </c>
-      <c r="CN56" s="9"/>
+        <v>-10.839160839160842</v>
+      </c>
+      <c r="CN56" s="10">
+        <v>-9.0163934426229346</v>
+      </c>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM Updates\8.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28400" windowHeight="10850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="10845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="5" r:id="rId1"/>
@@ -1013,24 +1013,24 @@
   <dimension ref="A1:MG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="CQ32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DA31" sqref="DA31"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="17.5703125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:345" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:345" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:345" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:345" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1343,11 @@
       <c r="CZ4" s="4">
         <v>44013</v>
       </c>
+      <c r="DA4" s="4">
+        <v>44044</v>
+      </c>
     </row>
-    <row r="5" spans="1:345" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:345" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1652,12 +1655,14 @@
         <v>9865.2000000000007</v>
       </c>
       <c r="CY5" s="6">
-        <v>9304.7999999999993</v>
+        <v>9306.2999999999993</v>
       </c>
       <c r="CZ5" s="6">
-        <v>8344.6</v>
-      </c>
-      <c r="DA5" s="6"/>
+        <v>8290</v>
+      </c>
+      <c r="DA5" s="6">
+        <v>8637.2000000000007</v>
+      </c>
       <c r="DB5" s="6"/>
       <c r="DC5" s="6"/>
       <c r="DD5" s="6"/>
@@ -1899,7 +1904,7 @@
       <c r="MF5" s="6"/>
       <c r="MG5" s="6"/>
     </row>
-    <row r="6" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2210,9 +2215,11 @@
         <v>144.19999999999999</v>
       </c>
       <c r="CZ6" s="6">
-        <v>142.4</v>
-      </c>
-      <c r="DA6" s="6"/>
+        <v>142.30000000000001</v>
+      </c>
+      <c r="DA6" s="6">
+        <v>149.5</v>
+      </c>
       <c r="DB6" s="6"/>
       <c r="DC6" s="6"/>
       <c r="DD6" s="6"/>
@@ -2454,7 +2461,7 @@
       <c r="MF6" s="6"/>
       <c r="MG6" s="6"/>
     </row>
-    <row r="7" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,9 +2772,11 @@
         <v>21.7</v>
       </c>
       <c r="CZ7" s="6">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="DA7" s="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="DA7" s="6">
+        <v>22.5</v>
+      </c>
       <c r="DB7" s="6"/>
       <c r="DC7" s="6"/>
       <c r="DD7" s="6"/>
@@ -3009,7 +3018,7 @@
       <c r="MF7" s="6"/>
       <c r="MG7" s="6"/>
     </row>
-    <row r="8" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3322,7 +3331,9 @@
       <c r="CZ8" s="6">
         <v>140.9</v>
       </c>
-      <c r="DA8" s="6"/>
+      <c r="DA8" s="6">
+        <v>185.5</v>
+      </c>
       <c r="DB8" s="6"/>
       <c r="DC8" s="6"/>
       <c r="DD8" s="6"/>
@@ -3564,7 +3575,7 @@
       <c r="MF8" s="6"/>
       <c r="MG8" s="6"/>
     </row>
-    <row r="9" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -3875,9 +3886,11 @@
         <v>90.300000000000011</v>
       </c>
       <c r="CZ9" s="6">
-        <v>77.5</v>
-      </c>
-      <c r="DA9" s="6"/>
+        <v>78.5</v>
+      </c>
+      <c r="DA9" s="6">
+        <v>82.9</v>
+      </c>
       <c r="DB9" s="6"/>
       <c r="DC9" s="6"/>
       <c r="DD9" s="6"/>
@@ -4119,7 +4132,7 @@
       <c r="MF9" s="6"/>
       <c r="MG9" s="6"/>
     </row>
-    <row r="10" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4421,18 +4434,20 @@
         <v>1310.5</v>
       </c>
       <c r="CW10" s="6">
-        <v>1250</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="CX10" s="6">
-        <v>1164</v>
+        <v>1188.9000000000001</v>
       </c>
       <c r="CY10" s="6">
-        <v>1100.0999999999999</v>
+        <v>1133.9000000000001</v>
       </c>
       <c r="CZ10" s="6">
-        <v>947.7</v>
-      </c>
-      <c r="DA10" s="6"/>
+        <v>929.59999999999991</v>
+      </c>
+      <c r="DA10" s="6">
+        <v>999.7</v>
+      </c>
       <c r="DB10" s="6"/>
       <c r="DC10" s="6"/>
       <c r="DD10" s="6"/>
@@ -4674,7 +4689,7 @@
       <c r="MF10" s="6"/>
       <c r="MG10" s="6"/>
     </row>
-    <row r="11" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4985,9 +5000,11 @@
         <v>202.5</v>
       </c>
       <c r="CZ11" s="6">
-        <v>168.7</v>
-      </c>
-      <c r="DA11" s="6"/>
+        <v>171.4</v>
+      </c>
+      <c r="DA11" s="6">
+        <v>181</v>
+      </c>
       <c r="DB11" s="6"/>
       <c r="DC11" s="6"/>
       <c r="DD11" s="6"/>
@@ -5229,7 +5246,7 @@
       <c r="MF11" s="6"/>
       <c r="MG11" s="6"/>
     </row>
-    <row r="12" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5540,9 +5557,11 @@
         <v>108.8</v>
       </c>
       <c r="CZ12" s="6">
-        <v>90.699999999999989</v>
-      </c>
-      <c r="DA12" s="6"/>
+        <v>91.1</v>
+      </c>
+      <c r="DA12" s="6">
+        <v>91.5</v>
+      </c>
       <c r="DB12" s="6"/>
       <c r="DC12" s="6"/>
       <c r="DD12" s="6"/>
@@ -5784,7 +5803,7 @@
       <c r="MF12" s="6"/>
       <c r="MG12" s="6"/>
     </row>
-    <row r="13" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -6097,7 +6116,9 @@
       <c r="CZ13" s="6">
         <v>30.4</v>
       </c>
-      <c r="DA13" s="6"/>
+      <c r="DA13" s="6">
+        <v>29.599999999999998</v>
+      </c>
       <c r="DB13" s="6"/>
       <c r="DC13" s="6"/>
       <c r="DD13" s="6"/>
@@ -6339,7 +6360,7 @@
       <c r="MF13" s="6"/>
       <c r="MG13" s="6"/>
     </row>
-    <row r="14" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -6446,7 +6467,7 @@
       <c r="CX14" s="8"/>
       <c r="CY14" s="8"/>
       <c r="CZ14" s="8"/>
-      <c r="DA14" s="6"/>
+      <c r="DA14" s="8"/>
       <c r="DB14" s="6"/>
       <c r="DC14" s="6"/>
       <c r="DD14" s="6"/>
@@ -6688,7 +6709,7 @@
       <c r="MF14" s="6"/>
       <c r="MG14" s="6"/>
     </row>
-    <row r="15" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -6999,9 +7020,11 @@
         <v>395.3</v>
       </c>
       <c r="CZ15" s="6">
-        <v>383.7</v>
-      </c>
-      <c r="DA15" s="6"/>
+        <v>383.6</v>
+      </c>
+      <c r="DA15" s="6">
+        <v>460.5</v>
+      </c>
       <c r="DB15" s="6"/>
       <c r="DC15" s="6"/>
       <c r="DD15" s="6"/>
@@ -7243,7 +7266,7 @@
       <c r="MF15" s="6"/>
       <c r="MG15" s="6"/>
     </row>
-    <row r="16" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -7554,9 +7577,11 @@
         <v>313.60000000000002</v>
       </c>
       <c r="CZ16" s="6">
-        <v>310.7</v>
-      </c>
-      <c r="DA16" s="6"/>
+        <v>311.10000000000002</v>
+      </c>
+      <c r="DA16" s="6">
+        <v>318.7</v>
+      </c>
       <c r="DB16" s="6"/>
       <c r="DC16" s="6"/>
       <c r="DD16" s="6"/>
@@ -7798,7 +7823,7 @@
       <c r="MF16" s="6"/>
       <c r="MG16" s="6"/>
     </row>
-    <row r="17" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -7905,7 +7930,7 @@
       <c r="CX17" s="8"/>
       <c r="CY17" s="8"/>
       <c r="CZ17" s="8"/>
-      <c r="DA17" s="6"/>
+      <c r="DA17" s="8"/>
       <c r="DB17" s="6"/>
       <c r="DC17" s="6"/>
       <c r="DD17" s="6"/>
@@ -8147,7 +8172,7 @@
       <c r="MF17" s="6"/>
       <c r="MG17" s="6"/>
     </row>
-    <row r="18" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -8460,7 +8485,9 @@
       <c r="CZ18" s="6">
         <v>49</v>
       </c>
-      <c r="DA18" s="6"/>
+      <c r="DA18" s="6">
+        <v>49.8</v>
+      </c>
       <c r="DB18" s="6"/>
       <c r="DC18" s="6"/>
       <c r="DD18" s="6"/>
@@ -8702,7 +8729,7 @@
       <c r="MF18" s="6"/>
       <c r="MG18" s="6"/>
     </row>
-    <row r="19" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -9013,9 +9040,11 @@
         <v>389.3</v>
       </c>
       <c r="CZ19" s="6">
-        <v>349.79999999999995</v>
-      </c>
-      <c r="DA19" s="6"/>
+        <v>359.5</v>
+      </c>
+      <c r="DA19" s="6">
+        <v>365.79999999999995</v>
+      </c>
       <c r="DB19" s="6"/>
       <c r="DC19" s="6"/>
       <c r="DD19" s="6"/>
@@ -9257,7 +9286,7 @@
       <c r="MF19" s="6"/>
       <c r="MG19" s="6"/>
     </row>
-    <row r="20" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -9568,9 +9597,11 @@
         <v>180.1</v>
       </c>
       <c r="CZ20" s="6">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="DA20" s="6"/>
+        <v>163.30000000000001</v>
+      </c>
+      <c r="DA20" s="6">
+        <v>200.5</v>
+      </c>
       <c r="DB20" s="6"/>
       <c r="DC20" s="6"/>
       <c r="DD20" s="6"/>
@@ -9812,7 +9843,7 @@
       <c r="MF20" s="6"/>
       <c r="MG20" s="6"/>
     </row>
-    <row r="21" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -10123,9 +10154,11 @@
         <v>121.6</v>
       </c>
       <c r="CZ21" s="6">
-        <v>109.80000000000001</v>
-      </c>
-      <c r="DA21" s="6"/>
+        <v>109.6</v>
+      </c>
+      <c r="DA21" s="6">
+        <v>114.1</v>
+      </c>
       <c r="DB21" s="6"/>
       <c r="DC21" s="6"/>
       <c r="DD21" s="6"/>
@@ -10367,7 +10400,7 @@
       <c r="MF21" s="6"/>
       <c r="MG21" s="6"/>
     </row>
-    <row r="22" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -10678,9 +10711,11 @@
         <v>111.9</v>
       </c>
       <c r="CZ22" s="6">
-        <v>95.8</v>
-      </c>
-      <c r="DA22" s="6"/>
+        <v>96.8</v>
+      </c>
+      <c r="DA22" s="6">
+        <v>108.9</v>
+      </c>
       <c r="DB22" s="6"/>
       <c r="DC22" s="6"/>
       <c r="DD22" s="6"/>
@@ -10922,7 +10957,7 @@
       <c r="MF22" s="6"/>
       <c r="MG22" s="6"/>
     </row>
-    <row r="23" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -11235,7 +11270,9 @@
       <c r="CZ23" s="6">
         <v>117.4</v>
       </c>
-      <c r="DA23" s="6"/>
+      <c r="DA23" s="6">
+        <v>136.9</v>
+      </c>
       <c r="DB23" s="6"/>
       <c r="DC23" s="6"/>
       <c r="DD23" s="6"/>
@@ -11477,7 +11514,7 @@
       <c r="MF23" s="6"/>
       <c r="MG23" s="6"/>
     </row>
-    <row r="24" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -11788,9 +11825,11 @@
         <v>140</v>
       </c>
       <c r="CZ24" s="6">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="DA24" s="6"/>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="DA24" s="6">
+        <v>143.5</v>
+      </c>
       <c r="DB24" s="6"/>
       <c r="DC24" s="6"/>
       <c r="DD24" s="6"/>
@@ -12032,7 +12071,7 @@
       <c r="MF24" s="6"/>
       <c r="MG24" s="6"/>
     </row>
-    <row r="25" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -12343,9 +12382,11 @@
         <v>41.1</v>
       </c>
       <c r="CZ25" s="6">
-        <v>34.5</v>
-      </c>
-      <c r="DA25" s="6"/>
+        <v>34.6</v>
+      </c>
+      <c r="DA25" s="6">
+        <v>34.799999999999997</v>
+      </c>
       <c r="DB25" s="6"/>
       <c r="DC25" s="6"/>
       <c r="DD25" s="6"/>
@@ -12587,7 +12628,7 @@
       <c r="MF25" s="6"/>
       <c r="MG25" s="6"/>
     </row>
-    <row r="26" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -12900,7 +12941,9 @@
       <c r="CZ26" s="6">
         <v>177.39999999999998</v>
       </c>
-      <c r="DA26" s="6"/>
+      <c r="DA26" s="6">
+        <v>180.3</v>
+      </c>
       <c r="DB26" s="6"/>
       <c r="DC26" s="6"/>
       <c r="DD26" s="6"/>
@@ -13142,7 +13185,7 @@
       <c r="MF26" s="6"/>
       <c r="MG26" s="6"/>
     </row>
-    <row r="27" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -13453,9 +13496,11 @@
         <v>214.10000000000002</v>
       </c>
       <c r="CZ27" s="6">
-        <v>183</v>
-      </c>
-      <c r="DA27" s="6"/>
+        <v>183.3</v>
+      </c>
+      <c r="DA27" s="6">
+        <v>170.8</v>
+      </c>
       <c r="DB27" s="6"/>
       <c r="DC27" s="6"/>
       <c r="DD27" s="6"/>
@@ -13697,7 +13742,7 @@
       <c r="MF27" s="6"/>
       <c r="MG27" s="6"/>
     </row>
-    <row r="28" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -14008,9 +14053,11 @@
         <v>271.2</v>
       </c>
       <c r="CZ28" s="6">
-        <v>237.60000000000002</v>
-      </c>
-      <c r="DA28" s="6"/>
+        <v>237.7</v>
+      </c>
+      <c r="DA28" s="6">
+        <v>244.5</v>
+      </c>
       <c r="DB28" s="6"/>
       <c r="DC28" s="6"/>
       <c r="DD28" s="6"/>
@@ -14252,7 +14299,7 @@
       <c r="MF28" s="6"/>
       <c r="MG28" s="6"/>
     </row>
-    <row r="29" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -14563,9 +14610,11 @@
         <v>183.3</v>
       </c>
       <c r="CZ29" s="6">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="DA29" s="6"/>
+        <v>156.5</v>
+      </c>
+      <c r="DA29" s="6">
+        <v>156.5</v>
+      </c>
       <c r="DB29" s="6"/>
       <c r="DC29" s="6"/>
       <c r="DD29" s="6"/>
@@ -14807,7 +14856,7 @@
       <c r="MF29" s="6"/>
       <c r="MG29" s="6"/>
     </row>
-    <row r="30" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -15118,9 +15167,11 @@
         <v>95.800000000000011</v>
       </c>
       <c r="CZ30" s="6">
-        <v>91.800000000000011</v>
-      </c>
-      <c r="DA30" s="6"/>
+        <v>92.9</v>
+      </c>
+      <c r="DA30" s="6">
+        <v>99.3</v>
+      </c>
       <c r="DB30" s="6"/>
       <c r="DC30" s="6"/>
       <c r="DD30" s="6"/>
@@ -15362,7 +15413,7 @@
       <c r="MF30" s="6"/>
       <c r="MG30" s="6"/>
     </row>
-    <row r="31" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -15469,7 +15520,7 @@
       <c r="CX31" s="8"/>
       <c r="CY31" s="8"/>
       <c r="CZ31" s="8"/>
-      <c r="DA31" s="6"/>
+      <c r="DA31" s="8"/>
       <c r="DB31" s="6"/>
       <c r="DC31" s="6"/>
       <c r="DD31" s="6"/>
@@ -15711,7 +15762,7 @@
       <c r="MF31" s="6"/>
       <c r="MG31" s="6"/>
     </row>
-    <row r="32" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -16022,9 +16073,11 @@
         <v>38.700000000000003</v>
       </c>
       <c r="CZ32" s="6">
-        <v>34.5</v>
-      </c>
-      <c r="DA32" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="DA32" s="6">
+        <v>33.900000000000006</v>
+      </c>
       <c r="DB32" s="6"/>
       <c r="DC32" s="6"/>
       <c r="DD32" s="6"/>
@@ -16266,7 +16319,7 @@
       <c r="MF32" s="6"/>
       <c r="MG32" s="6"/>
     </row>
-    <row r="33" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -16577,9 +16630,11 @@
         <v>79.400000000000006</v>
       </c>
       <c r="CZ33" s="6">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="DA33" s="6"/>
+        <v>74.800000000000011</v>
+      </c>
+      <c r="DA33" s="6">
+        <v>77.8</v>
+      </c>
       <c r="DB33" s="6"/>
       <c r="DC33" s="6"/>
       <c r="DD33" s="6"/>
@@ -16821,7 +16876,7 @@
       <c r="MF33" s="6"/>
       <c r="MG33" s="6"/>
     </row>
-    <row r="34" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -17134,7 +17189,9 @@
       <c r="CZ34" s="6">
         <v>61</v>
       </c>
-      <c r="DA34" s="6"/>
+      <c r="DA34" s="6">
+        <v>62.7</v>
+      </c>
       <c r="DB34" s="6"/>
       <c r="DC34" s="6"/>
       <c r="DD34" s="6"/>
@@ -17376,7 +17433,7 @@
       <c r="MF34" s="6"/>
       <c r="MG34" s="6"/>
     </row>
-    <row r="35" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -17687,9 +17744,11 @@
         <v>37.1</v>
       </c>
       <c r="CZ35" s="6">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="DA35" s="6"/>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="DA35" s="6">
+        <v>33.200000000000003</v>
+      </c>
       <c r="DB35" s="6"/>
       <c r="DC35" s="6"/>
       <c r="DD35" s="6"/>
@@ -17931,7 +17990,7 @@
       <c r="MF35" s="6"/>
       <c r="MG35" s="6"/>
     </row>
-    <row r="36" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -18242,9 +18301,11 @@
         <v>295</v>
       </c>
       <c r="CZ36" s="6">
-        <v>233.8</v>
-      </c>
-      <c r="DA36" s="6"/>
+        <v>234.6</v>
+      </c>
+      <c r="DA36" s="6">
+        <v>239.5</v>
+      </c>
       <c r="DB36" s="6"/>
       <c r="DC36" s="6"/>
       <c r="DD36" s="6"/>
@@ -18486,7 +18547,7 @@
       <c r="MF36" s="6"/>
       <c r="MG36" s="6"/>
     </row>
-    <row r="37" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -18797,9 +18858,11 @@
         <v>66</v>
       </c>
       <c r="CZ37" s="6">
-        <v>56.400000000000006</v>
-      </c>
-      <c r="DA37" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="DA37" s="6">
+        <v>67.400000000000006</v>
+      </c>
       <c r="DB37" s="6"/>
       <c r="DC37" s="6"/>
       <c r="DD37" s="6"/>
@@ -19041,7 +19104,7 @@
       <c r="MF37" s="6"/>
       <c r="MG37" s="6"/>
     </row>
-    <row r="38" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -19352,9 +19415,11 @@
         <v>607</v>
       </c>
       <c r="CZ38" s="6">
-        <v>483.70000000000005</v>
-      </c>
-      <c r="DA38" s="6"/>
+        <v>484</v>
+      </c>
+      <c r="DA38" s="6">
+        <v>475</v>
+      </c>
       <c r="DB38" s="6"/>
       <c r="DC38" s="6"/>
       <c r="DD38" s="6"/>
@@ -19596,7 +19661,7 @@
       <c r="MF38" s="6"/>
       <c r="MG38" s="6"/>
     </row>
-    <row r="39" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -19907,9 +19972,11 @@
         <v>275.39999999999998</v>
       </c>
       <c r="CZ39" s="6">
-        <v>246.3</v>
-      </c>
-      <c r="DA39" s="6"/>
+        <v>206.3</v>
+      </c>
+      <c r="DA39" s="6">
+        <v>259.5</v>
+      </c>
       <c r="DB39" s="6"/>
       <c r="DC39" s="6"/>
       <c r="DD39" s="6"/>
@@ -20151,7 +20218,7 @@
       <c r="MF39" s="6"/>
       <c r="MG39" s="6"/>
     </row>
-    <row r="40" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -20462,9 +20529,11 @@
         <v>30.4</v>
       </c>
       <c r="CZ40" s="6">
-        <v>26.6</v>
-      </c>
-      <c r="DA40" s="6"/>
+        <v>28.5</v>
+      </c>
+      <c r="DA40" s="6">
+        <v>27.900000000000002</v>
+      </c>
       <c r="DB40" s="6"/>
       <c r="DC40" s="6"/>
       <c r="DD40" s="6"/>
@@ -20706,7 +20775,7 @@
       <c r="MF40" s="6"/>
       <c r="MG40" s="6"/>
     </row>
-    <row r="41" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -21017,9 +21086,11 @@
         <v>317.5</v>
       </c>
       <c r="CZ41" s="6">
-        <v>307.2</v>
-      </c>
-      <c r="DA41" s="6"/>
+        <v>307.5</v>
+      </c>
+      <c r="DA41" s="6">
+        <v>312.3</v>
+      </c>
       <c r="DB41" s="6"/>
       <c r="DC41" s="6"/>
       <c r="DD41" s="6"/>
@@ -21261,7 +21332,7 @@
       <c r="MF41" s="6"/>
       <c r="MG41" s="6"/>
     </row>
-    <row r="42" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -21572,9 +21643,11 @@
         <v>128.6</v>
       </c>
       <c r="CZ42" s="6">
-        <v>119.8</v>
-      </c>
-      <c r="DA42" s="6"/>
+        <v>120.30000000000001</v>
+      </c>
+      <c r="DA42" s="6">
+        <v>124.9</v>
+      </c>
       <c r="DB42" s="6"/>
       <c r="DC42" s="6"/>
       <c r="DD42" s="6"/>
@@ -21816,7 +21889,7 @@
       <c r="MF42" s="6"/>
       <c r="MG42" s="6"/>
     </row>
-    <row r="43" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -22127,9 +22200,11 @@
         <v>123.10000000000001</v>
       </c>
       <c r="CZ43" s="6">
-        <v>98.300000000000011</v>
-      </c>
-      <c r="DA43" s="6"/>
+        <v>97.2</v>
+      </c>
+      <c r="DA43" s="6">
+        <v>98.800000000000011</v>
+      </c>
       <c r="DB43" s="6"/>
       <c r="DC43" s="6"/>
       <c r="DD43" s="6"/>
@@ -22371,7 +22446,7 @@
       <c r="MF43" s="6"/>
       <c r="MG43" s="6"/>
     </row>
-    <row r="44" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -22682,9 +22757,11 @@
         <v>297.8</v>
       </c>
       <c r="CZ44" s="6">
-        <v>270.3</v>
-      </c>
-      <c r="DA44" s="6"/>
+        <v>270.39999999999998</v>
+      </c>
+      <c r="DA44" s="6">
+        <v>279.10000000000002</v>
+      </c>
       <c r="DB44" s="6"/>
       <c r="DC44" s="6"/>
       <c r="DD44" s="6"/>
@@ -22926,7 +23003,7 @@
       <c r="MF44" s="6"/>
       <c r="MG44" s="6"/>
     </row>
-    <row r="45" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -23239,7 +23316,9 @@
       <c r="CZ45" s="6">
         <v>23.2</v>
       </c>
-      <c r="DA45" s="6"/>
+      <c r="DA45" s="6">
+        <v>22.8</v>
+      </c>
       <c r="DB45" s="6"/>
       <c r="DC45" s="6"/>
       <c r="DD45" s="6"/>
@@ -23481,7 +23560,7 @@
       <c r="MF45" s="6"/>
       <c r="MG45" s="6"/>
     </row>
-    <row r="46" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -23792,9 +23871,11 @@
         <v>143</v>
       </c>
       <c r="CZ46" s="6">
-        <v>135</v>
-      </c>
-      <c r="DA46" s="6"/>
+        <v>133.1</v>
+      </c>
+      <c r="DA46" s="6">
+        <v>143.1</v>
+      </c>
       <c r="DB46" s="6"/>
       <c r="DC46" s="6"/>
       <c r="DD46" s="6"/>
@@ -24036,7 +24117,7 @@
       <c r="MF46" s="6"/>
       <c r="MG46" s="6"/>
     </row>
-    <row r="47" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -24347,9 +24428,11 @@
         <v>29.5</v>
       </c>
       <c r="CZ47" s="6">
-        <v>26.7</v>
-      </c>
-      <c r="DA47" s="6"/>
+        <v>24.9</v>
+      </c>
+      <c r="DA47" s="6">
+        <v>26</v>
+      </c>
       <c r="DB47" s="6"/>
       <c r="DC47" s="6"/>
       <c r="DD47" s="6"/>
@@ -24591,7 +24674,7 @@
       <c r="MF47" s="6"/>
       <c r="MG47" s="6"/>
     </row>
-    <row r="48" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -24902,9 +24985,11 @@
         <v>176</v>
       </c>
       <c r="CZ48" s="6">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="DA48" s="6"/>
+        <v>151.6</v>
+      </c>
+      <c r="DA48" s="6">
+        <v>169.89999999999998</v>
+      </c>
       <c r="DB48" s="6"/>
       <c r="DC48" s="6"/>
       <c r="DD48" s="6"/>
@@ -25146,7 +25231,7 @@
       <c r="MF48" s="6"/>
       <c r="MG48" s="6"/>
     </row>
-    <row r="49" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -25457,9 +25542,11 @@
         <v>1031.5999999999999</v>
       </c>
       <c r="CZ49" s="6">
-        <v>990.9</v>
-      </c>
-      <c r="DA49" s="6"/>
+        <v>989.6</v>
+      </c>
+      <c r="DA49" s="6">
+        <v>996.19999999999993</v>
+      </c>
       <c r="DB49" s="6"/>
       <c r="DC49" s="6"/>
       <c r="DD49" s="6"/>
@@ -25701,7 +25788,7 @@
       <c r="MF49" s="6"/>
       <c r="MG49" s="6"/>
     </row>
-    <row r="50" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -26014,7 +26101,9 @@
       <c r="CZ50" s="6">
         <v>104.4</v>
       </c>
-      <c r="DA50" s="6"/>
+      <c r="DA50" s="6">
+        <v>101.1</v>
+      </c>
       <c r="DB50" s="6"/>
       <c r="DC50" s="6"/>
       <c r="DD50" s="6"/>
@@ -26256,7 +26345,7 @@
       <c r="MF50" s="6"/>
       <c r="MG50" s="6"/>
     </row>
-    <row r="51" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -26567,9 +26656,11 @@
         <v>28.6</v>
       </c>
       <c r="CZ51" s="6">
-        <v>24.9</v>
-      </c>
-      <c r="DA51" s="6"/>
+        <v>24.7</v>
+      </c>
+      <c r="DA51" s="6">
+        <v>25.099999999999998</v>
+      </c>
       <c r="DB51" s="6"/>
       <c r="DC51" s="6"/>
       <c r="DD51" s="6"/>
@@ -26811,7 +26902,7 @@
       <c r="MF51" s="6"/>
       <c r="MG51" s="6"/>
     </row>
-    <row r="52" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -27122,9 +27213,11 @@
         <v>275</v>
       </c>
       <c r="CZ52" s="6">
-        <v>234.2</v>
-      </c>
-      <c r="DA52" s="6"/>
+        <v>237.29999999999998</v>
+      </c>
+      <c r="DA52" s="6">
+        <v>268.5</v>
+      </c>
       <c r="DB52" s="6"/>
       <c r="DC52" s="6"/>
       <c r="DD52" s="6"/>
@@ -27366,7 +27459,7 @@
       <c r="MF52" s="6"/>
       <c r="MG52" s="6"/>
     </row>
-    <row r="53" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -27677,9 +27770,11 @@
         <v>226.5</v>
       </c>
       <c r="CZ53" s="6">
-        <v>216.4</v>
-      </c>
-      <c r="DA53" s="6"/>
+        <v>215.3</v>
+      </c>
+      <c r="DA53" s="6">
+        <v>216.8</v>
+      </c>
       <c r="DB53" s="6"/>
       <c r="DC53" s="6"/>
       <c r="DD53" s="6"/>
@@ -27921,7 +28016,7 @@
       <c r="MF53" s="6"/>
       <c r="MG53" s="6"/>
     </row>
-    <row r="54" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -28234,7 +28329,9 @@
       <c r="CZ54" s="6">
         <v>45.7</v>
       </c>
-      <c r="DA54" s="6"/>
+      <c r="DA54" s="6">
+        <v>48.9</v>
+      </c>
       <c r="DB54" s="6"/>
       <c r="DC54" s="6"/>
       <c r="DD54" s="6"/>
@@ -28476,7 +28573,7 @@
       <c r="MF54" s="6"/>
       <c r="MG54" s="6"/>
     </row>
-    <row r="55" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -28787,9 +28884,11 @@
         <v>156.29999999999998</v>
       </c>
       <c r="CZ55" s="6">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="DA55" s="6"/>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="DA55" s="6">
+        <v>141.19999999999999</v>
+      </c>
       <c r="DB55" s="6"/>
       <c r="DC55" s="6"/>
       <c r="DD55" s="6"/>
@@ -29031,7 +29130,7 @@
       <c r="MF55" s="6"/>
       <c r="MG55" s="6"/>
     </row>
-    <row r="56" spans="1:345" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:345" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -29342,9 +29441,11 @@
         <v>25.5</v>
       </c>
       <c r="CZ56" s="6">
-        <v>22.200000000000003</v>
-      </c>
-      <c r="DA56" s="6"/>
+        <v>22.299999999999997</v>
+      </c>
+      <c r="DA56" s="6">
+        <v>23.9</v>
+      </c>
       <c r="DB56" s="6"/>
       <c r="DC56" s="6"/>
       <c r="DD56" s="6"/>
@@ -29597,21 +29698,21 @@
   <dimension ref="A1:CQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="BR29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CM31" sqref="CM31:CN31"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="81" max="82" width="9.1796875" style="9"/>
-    <col min="83" max="83" width="9.1796875" style="9" customWidth="1"/>
-    <col min="84" max="95" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="81" max="82" width="9.140625" style="9"/>
+    <col min="83" max="83" width="9.140625" style="9" customWidth="1"/>
+    <col min="84" max="95" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -29631,7 +29732,7 @@
       <c r="CP1" s="9"/>
       <c r="CQ1" s="9"/>
     </row>
-    <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CC2" s="9"/>
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
@@ -29648,7 +29749,7 @@
       <c r="CP2" s="9"/>
       <c r="CQ2" s="9"/>
     </row>
-    <row r="3" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CC3" s="9"/>
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
@@ -29665,7 +29766,7 @@
       <c r="CP3" s="9"/>
       <c r="CQ3" s="9"/>
     </row>
-    <row r="4" spans="1:95" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:95" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -29942,11 +30043,13 @@
       <c r="CN4" s="4">
         <v>44013</v>
       </c>
-      <c r="CO4" s="9"/>
+      <c r="CO4" s="4">
+        <v>44044</v>
+      </c>
       <c r="CP4" s="9"/>
       <c r="CQ4" s="9"/>
     </row>
-    <row r="5" spans="1:95" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:95" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -30218,16 +30321,18 @@
         <v>-8.4045160811111828</v>
       </c>
       <c r="CM5" s="10">
-        <v>-8.1787321386279412</v>
+        <v>-8.1639298965816796</v>
       </c>
       <c r="CN5" s="10">
-        <v>-6.4496238747071075</v>
-      </c>
-      <c r="CO5" s="9"/>
+        <v>-7.0617383602955153</v>
+      </c>
+      <c r="CO5" s="10">
+        <v>-7.4622068418740684</v>
+      </c>
       <c r="CP5" s="9"/>
       <c r="CQ5" s="9"/>
     </row>
-    <row r="6" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -30502,13 +30607,15 @@
         <v>-12.606060606060611</v>
       </c>
       <c r="CN6" s="10">
-        <v>-8.7179487179487154</v>
-      </c>
-      <c r="CO6" s="9"/>
+        <v>-8.7820512820512739</v>
+      </c>
+      <c r="CO6" s="10">
+        <v>-6.1519146264909041</v>
+      </c>
       <c r="CP6" s="9"/>
       <c r="CQ6" s="9"/>
     </row>
-    <row r="7" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -30783,13 +30890,15 @@
         <v>-22.775800711743781</v>
       </c>
       <c r="CN7" s="10">
-        <v>-12.217194570135746</v>
-      </c>
-      <c r="CO7" s="9"/>
+        <v>-13.122171945701353</v>
+      </c>
+      <c r="CO7" s="10">
+        <v>-3.8461538461538405</v>
+      </c>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="9"/>
     </row>
-    <row r="8" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -31066,11 +31175,13 @@
       <c r="CN8" s="10">
         <v>-1.330532212885158</v>
       </c>
-      <c r="CO8" s="9"/>
+      <c r="CO8" s="10">
+        <v>-3.9855072463768058</v>
+      </c>
       <c r="CP8" s="9"/>
       <c r="CQ8" s="9"/>
     </row>
-    <row r="9" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -31345,13 +31456,15 @@
         <v>-4.038257173219975</v>
       </c>
       <c r="CN9" s="10">
-        <v>-5.4878048780487809</v>
-      </c>
-      <c r="CO9" s="9"/>
+        <v>-4.2682926829268295</v>
+      </c>
+      <c r="CO9" s="10">
+        <v>-4.1618497109826524</v>
+      </c>
       <c r="CP9" s="9"/>
       <c r="CQ9" s="9"/>
     </row>
-    <row r="10" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -31617,22 +31730,24 @@
         <v>0.94746572176859911</v>
       </c>
       <c r="CK10" s="10">
-        <v>-4.015971742302078</v>
+        <v>-3.2557782385011032</v>
       </c>
       <c r="CL10" s="10">
-        <v>-10.729350410307545</v>
+        <v>-8.8196947618682415</v>
       </c>
       <c r="CM10" s="10">
-        <v>-13.825787247375843</v>
+        <v>-11.1781294062353</v>
       </c>
       <c r="CN10" s="10">
-        <v>-12.565734846388045</v>
-      </c>
-      <c r="CO10" s="9"/>
+        <v>-14.235630593228173</v>
+      </c>
+      <c r="CO10" s="10">
+        <v>-11.389824499202268</v>
+      </c>
       <c r="CP10" s="9"/>
       <c r="CQ10" s="9"/>
     </row>
-    <row r="11" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -31907,13 +32022,15 @@
         <v>-2.0793036750483611</v>
       </c>
       <c r="CN11" s="10">
-        <v>-12.135416666666671</v>
-      </c>
-      <c r="CO11" s="9"/>
+        <v>-10.729166666666664</v>
+      </c>
+      <c r="CO11" s="10">
+        <v>-11.361410381978448</v>
+      </c>
       <c r="CP11" s="9"/>
       <c r="CQ11" s="9"/>
     </row>
-    <row r="12" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -32188,13 +32305,15 @@
         <v>-4.8118985126859144</v>
       </c>
       <c r="CN12" s="10">
-        <v>-6.7831449126413377</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>-6.3720452209661014</v>
+      </c>
+      <c r="CO12" s="10">
+        <v>-7.8549848942598297</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
     </row>
-    <row r="13" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -32471,11 +32590,13 @@
       <c r="CN13" s="10">
         <v>-3.7974683544303884</v>
       </c>
-      <c r="CO13" s="9"/>
+      <c r="CO13" s="10">
+        <v>-3.5830618892508301</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
     </row>
-    <row r="14" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -32570,11 +32691,11 @@
       <c r="CL14" s="8"/>
       <c r="CM14" s="8"/>
       <c r="CN14" s="8"/>
-      <c r="CO14" s="9"/>
+      <c r="CO14" s="8"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
     </row>
-    <row r="15" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -32849,13 +32970,15 @@
         <v>-5.9705042816365284</v>
       </c>
       <c r="CN15" s="10">
-        <v>-5.9789267336437231</v>
-      </c>
-      <c r="CO15" s="9"/>
+        <v>-6.0034305317324179</v>
+      </c>
+      <c r="CO15" s="10">
+        <v>-5.1883878937615791</v>
+      </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
     </row>
-    <row r="16" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -33130,13 +33253,15 @@
         <v>-5.570611261668172</v>
       </c>
       <c r="CN16" s="10">
-        <v>-1.5213946117274204</v>
-      </c>
-      <c r="CO16" s="9"/>
+        <v>-1.3946117274167915</v>
+      </c>
+      <c r="CO16" s="10">
+        <v>-6.3748531139835469</v>
+      </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
     </row>
-    <row r="17" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -33231,11 +33356,11 @@
       <c r="CL17" s="8"/>
       <c r="CM17" s="8"/>
       <c r="CN17" s="8"/>
-      <c r="CO17" s="9"/>
+      <c r="CO17" s="8"/>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
     </row>
-    <row r="18" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -33512,11 +33637,13 @@
       <c r="CN18" s="10">
         <v>-0.80971659919028049</v>
       </c>
-      <c r="CO18" s="9"/>
+      <c r="CO18" s="10">
+        <v>0.6060606060606003</v>
+      </c>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
     </row>
-    <row r="19" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -33791,13 +33918,15 @@
         <v>-6.0569498069497989</v>
       </c>
       <c r="CN19" s="10">
-        <v>-6.043513295729265</v>
-      </c>
-      <c r="CO19" s="9"/>
+        <v>-3.4380875637926431</v>
+      </c>
+      <c r="CO19" s="10">
+        <v>-3.4318901795142707</v>
+      </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
     </row>
-    <row r="20" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -34072,13 +34201,15 @@
         <v>-12.8267182962246</v>
       </c>
       <c r="CN20" s="10">
-        <v>-5.5395268320831059</v>
-      </c>
-      <c r="CO20" s="9"/>
+        <v>-5.7703404500865547</v>
+      </c>
+      <c r="CO20" s="10">
+        <v>-5.6470588235294121</v>
+      </c>
       <c r="CP20" s="9"/>
       <c r="CQ20" s="9"/>
     </row>
-    <row r="21" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -34353,13 +34484,15 @@
         <v>-9.1859596713965725</v>
       </c>
       <c r="CN21" s="10">
-        <v>-5.9125964010282699</v>
-      </c>
-      <c r="CO21" s="9"/>
+        <v>-6.0839760068551918</v>
+      </c>
+      <c r="CO21" s="10">
+        <v>-5.0748752079866959</v>
+      </c>
       <c r="CP21" s="9"/>
       <c r="CQ21" s="9"/>
     </row>
-    <row r="22" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -34634,13 +34767,15 @@
         <v>-7.4441687344913046</v>
       </c>
       <c r="CN22" s="10">
-        <v>-5.0545094152626442</v>
-      </c>
-      <c r="CO22" s="9"/>
+        <v>-4.063429137760167</v>
+      </c>
+      <c r="CO22" s="10">
+        <v>-4.7244094488188901</v>
+      </c>
       <c r="CP22" s="9"/>
       <c r="CQ22" s="9"/>
     </row>
-    <row r="23" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -34917,11 +35052,13 @@
       <c r="CN23" s="10">
         <v>-17.323943661971828</v>
       </c>
-      <c r="CO23" s="9"/>
+      <c r="CO23" s="10">
+        <v>-8.243967828418219</v>
+      </c>
       <c r="CP23" s="9"/>
       <c r="CQ23" s="9"/>
     </row>
-    <row r="24" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -35196,13 +35333,15 @@
         <v>-2.7102154273801098</v>
       </c>
       <c r="CN24" s="10">
-        <v>0.5200594353640543</v>
-      </c>
-      <c r="CO24" s="9"/>
+        <v>1.1887072808320909</v>
+      </c>
+      <c r="CO24" s="10">
+        <v>1.6288951841359856</v>
+      </c>
       <c r="CP24" s="9"/>
       <c r="CQ24" s="9"/>
     </row>
-    <row r="25" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -35477,13 +35616,15 @@
         <v>-14.730290456431536</v>
       </c>
       <c r="CN25" s="10">
-        <v>-8.9709762532981507</v>
-      </c>
-      <c r="CO25" s="9"/>
+        <v>-8.7071240105540824</v>
+      </c>
+      <c r="CO25" s="10">
+        <v>-7.6923076923077067</v>
+      </c>
       <c r="CP25" s="9"/>
       <c r="CQ25" s="9"/>
     </row>
-    <row r="26" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -35760,11 +35901,13 @@
       <c r="CN26" s="10">
         <v>-1.2249443207127044</v>
       </c>
-      <c r="CO26" s="9"/>
+      <c r="CO26" s="10">
+        <v>-0.44174489232467307</v>
+      </c>
       <c r="CP26" s="9"/>
       <c r="CQ26" s="9"/>
     </row>
-    <row r="27" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -36039,13 +36182,15 @@
         <v>-9.0870488322717531</v>
       </c>
       <c r="CN27" s="10">
-        <v>-5.9609455292908509</v>
-      </c>
-      <c r="CO27" s="9"/>
+        <v>-5.8067831449126324</v>
+      </c>
+      <c r="CO27" s="10">
+        <v>-8.7606837606837615</v>
+      </c>
       <c r="CP27" s="9"/>
       <c r="CQ27" s="9"/>
     </row>
-    <row r="28" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -36320,13 +36465,15 @@
         <v>-7.3770491803278766</v>
       </c>
       <c r="CN28" s="10">
-        <v>-8.191653786707878</v>
-      </c>
-      <c r="CO28" s="9"/>
+        <v>-8.1530139103554955</v>
+      </c>
+      <c r="CO28" s="10">
+        <v>-8.3926564256275675</v>
+      </c>
       <c r="CP28" s="9"/>
       <c r="CQ28" s="9"/>
     </row>
-    <row r="29" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -36601,13 +36748,15 @@
         <v>-9.5707942772570203</v>
       </c>
       <c r="CN29" s="10">
-        <v>-10.829493087557594</v>
-      </c>
-      <c r="CO29" s="9"/>
+        <v>-9.8502304147465409</v>
+      </c>
+      <c r="CO29" s="10">
+        <v>-8.3186877562975923</v>
+      </c>
       <c r="CP29" s="9"/>
       <c r="CQ29" s="9"/>
     </row>
-    <row r="30" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -36882,13 +37031,15 @@
         <v>-4.1999999999999886</v>
       </c>
       <c r="CN30" s="10">
-        <v>-2.6511134676564008</v>
-      </c>
-      <c r="CO30" s="9"/>
+        <v>-1.4846235418875837</v>
+      </c>
+      <c r="CO30" s="10">
+        <v>-0.99700897308075775</v>
+      </c>
       <c r="CP30" s="9"/>
       <c r="CQ30" s="9"/>
     </row>
-    <row r="31" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -36983,11 +37134,11 @@
       <c r="CL31" s="8"/>
       <c r="CM31" s="8"/>
       <c r="CN31" s="8"/>
-      <c r="CO31" s="9"/>
+      <c r="CO31" s="8"/>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
     </row>
-    <row r="32" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -37262,13 +37413,15 @@
         <v>-3.0075187969924708</v>
       </c>
       <c r="CN32" s="10">
-        <v>-3.3613445378151336</v>
-      </c>
-      <c r="CO32" s="9"/>
+        <v>-4.7619047619047699</v>
+      </c>
+      <c r="CO32" s="10">
+        <v>-5.0420168067226809</v>
+      </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
     </row>
-    <row r="33" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -37543,13 +37696,15 @@
         <v>-9.977324263038545</v>
       </c>
       <c r="CN33" s="10">
-        <v>-7.1878940731399776</v>
-      </c>
-      <c r="CO33" s="9"/>
+        <v>-5.6746532156368046</v>
+      </c>
+      <c r="CO33" s="10">
+        <v>-5.1219512195121988</v>
+      </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
     </row>
-    <row r="34" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -37826,11 +37981,13 @@
       <c r="CN34" s="10">
         <v>-8.8191330343796785</v>
       </c>
-      <c r="CO34" s="9"/>
+      <c r="CO34" s="10">
+        <v>-11.06382978723404</v>
+      </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
     </row>
-    <row r="35" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -38105,13 +38262,15 @@
         <v>-12.499999999999995</v>
       </c>
       <c r="CN35" s="10">
-        <v>-9.1743119266055047</v>
-      </c>
-      <c r="CO35" s="9"/>
+        <v>-7.6452599388379197</v>
+      </c>
+      <c r="CO35" s="10">
+        <v>-5.1428571428571344</v>
+      </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
     </row>
-    <row r="36" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -38386,13 +38545,15 @@
         <v>-5.7507987220447285</v>
       </c>
       <c r="CN36" s="10">
-        <v>-12.434456928838948</v>
-      </c>
-      <c r="CO36" s="9"/>
+        <v>-12.134831460674159</v>
+      </c>
+      <c r="CO36" s="10">
+        <v>-7.5289575289575286</v>
+      </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
     </row>
-    <row r="37" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -38667,13 +38828,15 @@
         <v>-5.4441260744985636</v>
       </c>
       <c r="CN37" s="10">
-        <v>-12.693498452012367</v>
-      </c>
-      <c r="CO37" s="9"/>
+        <v>-10.216718266253862</v>
+      </c>
+      <c r="CO37" s="10">
+        <v>-7.2902338376891107</v>
+      </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
     </row>
-    <row r="38" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -38948,13 +39111,15 @@
         <v>-7.6946472019464593</v>
       </c>
       <c r="CN38" s="10">
-        <v>-8.5806085806085761</v>
-      </c>
-      <c r="CO38" s="9"/>
+        <v>-8.5239085239085277</v>
+      </c>
+      <c r="CO38" s="10">
+        <v>-9.3684411371875633</v>
+      </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
     </row>
-    <row r="39" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -39229,13 +39394,15 @@
         <v>-6.1989100817438842</v>
       </c>
       <c r="CN39" s="10">
-        <v>9.078830823737821</v>
-      </c>
-      <c r="CO39" s="9"/>
+        <v>-8.6359610274579275</v>
+      </c>
+      <c r="CO39" s="10">
+        <v>-7.6840981856990469</v>
+      </c>
       <c r="CP39" s="9"/>
       <c r="CQ39" s="9"/>
     </row>
-    <row r="40" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -39510,13 +39677,15 @@
         <v>-8.1570996978852044</v>
       </c>
       <c r="CN40" s="10">
-        <v>-2.2058823529411686</v>
-      </c>
-      <c r="CO40" s="9"/>
+        <v>4.7794117647058849</v>
+      </c>
+      <c r="CO40" s="10">
+        <v>1.2733740784231186E-14</v>
+      </c>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
     </row>
-    <row r="41" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -39791,13 +39960,15 @@
         <v>-12.122889565458056</v>
       </c>
       <c r="CN41" s="10">
-        <v>-11.213872832369946</v>
-      </c>
-      <c r="CO41" s="9"/>
+        <v>-11.127167630057803</v>
+      </c>
+      <c r="CO41" s="10">
+        <v>-11.629881154499142</v>
+      </c>
       <c r="CP41" s="9"/>
       <c r="CQ41" s="9"/>
     </row>
-    <row r="42" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -40072,13 +40243,15 @@
         <v>-3.3082706766917336</v>
       </c>
       <c r="CN42" s="10">
-        <v>-1.5612161051766571</v>
-      </c>
-      <c r="CO42" s="9"/>
+        <v>-1.1503697617091022</v>
+      </c>
+      <c r="CO42" s="10">
+        <v>-3.6265432098765347</v>
+      </c>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
     </row>
-    <row r="43" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -40353,13 +40526,15 @@
         <v>-13.003533568904587</v>
       </c>
       <c r="CN43" s="10">
-        <v>-8.8971269694161084</v>
-      </c>
-      <c r="CO43" s="9"/>
+        <v>-9.9165894346617147</v>
+      </c>
+      <c r="CO43" s="10">
+        <v>-8.7719298245613917</v>
+      </c>
       <c r="CP43" s="9"/>
       <c r="CQ43" s="9"/>
     </row>
-    <row r="44" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -40634,13 +40809,15 @@
         <v>-2.7115321790264653</v>
       </c>
       <c r="CN44" s="10">
-        <v>-0.91642228739002929</v>
-      </c>
-      <c r="CO44" s="9"/>
+        <v>-0.87976539589444058</v>
+      </c>
+      <c r="CO44" s="10">
+        <v>-0.57000356252225359</v>
+      </c>
       <c r="CP44" s="9"/>
       <c r="CQ44" s="9"/>
     </row>
-    <row r="45" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -40917,11 +41094,13 @@
       <c r="CN45" s="10">
         <v>-2.521008403361336</v>
       </c>
-      <c r="CO45" s="9"/>
+      <c r="CO45" s="10">
+        <v>-2.9787234042553163</v>
+      </c>
       <c r="CP45" s="9"/>
       <c r="CQ45" s="9"/>
     </row>
-    <row r="46" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -41196,13 +41375,15 @@
         <v>-10.625</v>
       </c>
       <c r="CN46" s="10">
-        <v>-8.4745762711864412</v>
-      </c>
-      <c r="CO46" s="9"/>
+        <v>-9.7627118644067821</v>
+      </c>
+      <c r="CO46" s="10">
+        <v>-6.1639344262295115</v>
+      </c>
       <c r="CP46" s="9"/>
       <c r="CQ46" s="9"/>
     </row>
-    <row r="47" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -41477,13 +41658,15 @@
         <v>-12.202380952380956</v>
       </c>
       <c r="CN47" s="10">
-        <v>-5.3191489361702127</v>
-      </c>
-      <c r="CO47" s="9"/>
+        <v>-11.702127659574471</v>
+      </c>
+      <c r="CO47" s="10">
+        <v>-9.7222222222222126</v>
+      </c>
       <c r="CP47" s="9"/>
       <c r="CQ47" s="9"/>
     </row>
-    <row r="48" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -41758,13 +41941,15 @@
         <v>4.7619047619047619</v>
       </c>
       <c r="CN48" s="10">
-        <v>-7.1341463414634081</v>
-      </c>
-      <c r="CO48" s="9"/>
+        <v>-7.5609756097561007</v>
+      </c>
+      <c r="CO48" s="10">
+        <v>-4.6576879910213309</v>
+      </c>
       <c r="CP48" s="9"/>
       <c r="CQ48" s="9"/>
     </row>
-    <row r="49" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -42039,13 +42224,15 @@
         <v>-6.7522371870197997</v>
       </c>
       <c r="CN49" s="10">
-        <v>-4.1033581728442838</v>
-      </c>
-      <c r="CO49" s="9"/>
+        <v>-4.2291686828607302</v>
+      </c>
+      <c r="CO49" s="10">
+        <v>-3.7115793543398397</v>
+      </c>
       <c r="CP49" s="9"/>
       <c r="CQ49" s="9"/>
     </row>
-    <row r="50" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -42322,11 +42509,13 @@
       <c r="CN50" s="10">
         <v>1.4577259475218658</v>
       </c>
-      <c r="CO50" s="9"/>
+      <c r="CO50" s="10">
+        <v>-5.9534883720930285</v>
+      </c>
       <c r="CP50" s="9"/>
       <c r="CQ50" s="9"/>
     </row>
-    <row r="51" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -42601,13 +42790,15 @@
         <v>-5.298013245033105</v>
       </c>
       <c r="CN51" s="10">
-        <v>2.0491803278688527</v>
-      </c>
-      <c r="CO51" s="9"/>
+        <v>1.2295081967213144</v>
+      </c>
+      <c r="CO51" s="10">
+        <v>-3.831417624521086</v>
+      </c>
       <c r="CP51" s="9"/>
       <c r="CQ51" s="9"/>
     </row>
-    <row r="52" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -42882,13 +43073,15 @@
         <v>-11.461687057308442</v>
       </c>
       <c r="CN52" s="10">
-        <v>-18.083245890171387</v>
-      </c>
-      <c r="CO52" s="9"/>
+        <v>-16.998950682056662</v>
+      </c>
+      <c r="CO52" s="10">
+        <v>-6.3480990582490371</v>
+      </c>
       <c r="CP52" s="9"/>
       <c r="CQ52" s="9"/>
     </row>
-    <row r="53" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -43163,13 +43356,15 @@
         <v>-13.714285714285714</v>
       </c>
       <c r="CN53" s="10">
-        <v>-9.7204839382561463</v>
-      </c>
-      <c r="CO53" s="9"/>
+        <v>-10.179390905298281</v>
+      </c>
+      <c r="CO53" s="10">
+        <v>-4.2825607064017612</v>
+      </c>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
     </row>
-    <row r="54" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -43446,11 +43641,13 @@
       <c r="CN54" s="10">
         <v>-12.786259541984725</v>
       </c>
-      <c r="CO54" s="9"/>
+      <c r="CO54" s="10">
+        <v>-12.522361359570663</v>
+      </c>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
     </row>
-    <row r="55" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -43725,13 +43922,15 @@
         <v>-19.515962924819789</v>
       </c>
       <c r="CN55" s="10">
-        <v>-20.080091533180791</v>
-      </c>
-      <c r="CO55" s="9"/>
+        <v>-20.022883295194507</v>
+      </c>
+      <c r="CO55" s="10">
+        <v>-16.152019002375308</v>
+      </c>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
     </row>
-    <row r="56" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -44006,9 +44205,11 @@
         <v>-10.839160839160842</v>
       </c>
       <c r="CN56" s="10">
-        <v>-9.0163934426229346</v>
-      </c>
-      <c r="CO56" s="9"/>
+        <v>-8.606557377049187</v>
+      </c>
+      <c r="CO56" s="10">
+        <v>-6.2745098039215739</v>
+      </c>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
     </row>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t xml:space="preserve">09/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/01/2020</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1137,10 +1140,13 @@
       <c r="DB4" t="s">
         <v>105</v>
       </c>
+      <c r="DC4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1452,15 +1458,18 @@
         <v>8272.6</v>
       </c>
       <c r="DA5" t="n">
-        <v>8749.4</v>
+        <v>8746</v>
       </c>
       <c r="DB5" t="n">
-        <v>9697.6</v>
+        <v>9685.8</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>9970.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1775,12 +1784,15 @@
         <v>150</v>
       </c>
       <c r="DB6" t="n">
-        <v>156.1</v>
+        <v>157.1</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>160.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2095,12 +2107,15 @@
         <v>22.6</v>
       </c>
       <c r="DB7" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>27.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2415,12 +2430,15 @@
         <v>187.7</v>
       </c>
       <c r="DB8" t="n">
-        <v>199.4</v>
+        <v>198.6</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>200.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2735,12 +2753,15 @@
         <v>82.9</v>
       </c>
       <c r="DB9" t="n">
-        <v>93.2</v>
+        <v>93.1</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>94.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3055,12 +3076,15 @@
         <v>998.8</v>
       </c>
       <c r="DB10" t="n">
-        <v>1076.9</v>
+        <v>1074.5</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>1108.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3375,12 +3399,15 @@
         <v>179.4</v>
       </c>
       <c r="DB11" t="n">
-        <v>195.8</v>
+        <v>193.5</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>199.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3695,12 +3722,15 @@
         <v>92.1</v>
       </c>
       <c r="DB12" t="n">
-        <v>115.3</v>
+        <v>110.9</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>118.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4015,12 +4045,15 @@
         <v>29.6</v>
       </c>
       <c r="DB13" t="n">
-        <v>33.5</v>
+        <v>32.6</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4127,10 +4160,11 @@
       <c r="CZ14"/>
       <c r="DA14"/>
       <c r="DB14"/>
+      <c r="DC14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4445,12 +4479,15 @@
         <v>417.3</v>
       </c>
       <c r="DB15" t="n">
-        <v>446.4</v>
+        <v>447.7</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>458.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -4765,12 +4802,15 @@
         <v>317.8</v>
       </c>
       <c r="DB16" t="n">
-        <v>321.3</v>
+        <v>323.5</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>327.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -4877,10 +4917,11 @@
       <c r="CZ17"/>
       <c r="DA17"/>
       <c r="DB17"/>
+      <c r="DC17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5195,12 +5236,15 @@
         <v>49.8</v>
       </c>
       <c r="DB18" t="n">
-        <v>55</v>
+        <v>54.9</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5515,12 +5559,15 @@
         <v>377.8</v>
       </c>
       <c r="DB19" t="n">
-        <v>421.2</v>
+        <v>420.7</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>428.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -5835,12 +5882,15 @@
         <v>194.6</v>
       </c>
       <c r="DB20" t="n">
-        <v>219</v>
+        <v>224.7</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>227.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6155,12 +6205,15 @@
         <v>116.1</v>
       </c>
       <c r="DB21" t="n">
-        <v>137.6</v>
+        <v>137.5</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>143.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6475,12 +6528,15 @@
         <v>109.1</v>
       </c>
       <c r="DB22" t="n">
-        <v>124.9</v>
+        <v>124.6</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>130.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -6795,12 +6851,15 @@
         <v>136.8</v>
       </c>
       <c r="DB23" t="n">
-        <v>144.7</v>
+        <v>143.5</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>146.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7115,12 +7174,15 @@
         <v>139.4</v>
       </c>
       <c r="DB24" t="n">
-        <v>146.6</v>
+        <v>145.3</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>147.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7435,12 +7497,15 @@
         <v>35.1</v>
       </c>
       <c r="DB25" t="n">
-        <v>43.3</v>
+        <v>44.1</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -7756,11 +7821,14 @@
       </c>
       <c r="DB26" t="n">
         <v>182.2</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8075,12 +8143,15 @@
         <v>183.7</v>
       </c>
       <c r="DB27" t="n">
-        <v>215.7</v>
+        <v>217.5</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>224.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8395,12 +8466,15 @@
         <v>246.3</v>
       </c>
       <c r="DB28" t="n">
-        <v>290.3</v>
+        <v>292</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>304.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -8715,12 +8789,15 @@
         <v>156.2</v>
       </c>
       <c r="DB29" t="n">
-        <v>180.4</v>
+        <v>179.6</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9035,12 +9112,15 @@
         <v>97.3</v>
       </c>
       <c r="DB30" t="n">
-        <v>102.2</v>
+        <v>100.1</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>101.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9147,10 +9227,11 @@
       <c r="CZ31"/>
       <c r="DA31"/>
       <c r="DB31"/>
+      <c r="DC31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -9465,12 +9546,15 @@
         <v>35.2</v>
       </c>
       <c r="DB32" t="n">
-        <v>41.2</v>
+        <v>42.9</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>44.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -9785,12 +9869,15 @@
         <v>77.9</v>
       </c>
       <c r="DB33" t="n">
-        <v>87.7</v>
+        <v>87.9</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>89.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10105,12 +10192,15 @@
         <v>62.7</v>
       </c>
       <c r="DB34" t="n">
-        <v>66.8</v>
+        <v>69</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>68.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -10425,12 +10515,15 @@
         <v>32.7</v>
       </c>
       <c r="DB35" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
+      </c>
+      <c r="DC35" t="n">
+        <v>42.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -10745,12 +10838,15 @@
         <v>238.9</v>
       </c>
       <c r="DB36" t="n">
-        <v>286.5</v>
+        <v>288.2</v>
+      </c>
+      <c r="DC36" t="n">
+        <v>298.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11065,12 +11161,15 @@
         <v>72.4</v>
       </c>
       <c r="DB37" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
+      </c>
+      <c r="DC37" t="n">
+        <v>79.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -11385,12 +11484,15 @@
         <v>474.5</v>
       </c>
       <c r="DB38" t="n">
-        <v>576.6</v>
+        <v>596.5</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>622.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -11706,11 +11808,14 @@
       </c>
       <c r="DB39" t="n">
         <v>310.2</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>314.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12025,12 +12130,15 @@
         <v>27.9</v>
       </c>
       <c r="DB40" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
+      </c>
+      <c r="DC40" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -12345,12 +12453,15 @@
         <v>312.9</v>
       </c>
       <c r="DB41" t="n">
-        <v>349.1</v>
+        <v>348.9</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>361.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -12665,12 +12776,15 @@
         <v>125.6</v>
       </c>
       <c r="DB42" t="n">
-        <v>140</v>
+        <v>143.7</v>
+      </c>
+      <c r="DC42" t="n">
+        <v>147.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -12985,12 +13099,15 @@
         <v>98.4</v>
       </c>
       <c r="DB43" t="n">
-        <v>112.6</v>
+        <v>112.8</v>
+      </c>
+      <c r="DC43" t="n">
+        <v>121.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -13305,12 +13422,15 @@
         <v>276.2</v>
       </c>
       <c r="DB44" t="n">
-        <v>310.6</v>
+        <v>312.6</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>319.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -13625,12 +13745,15 @@
         <v>22.8</v>
       </c>
       <c r="DB45" t="n">
-        <v>27.7</v>
+        <v>28</v>
+      </c>
+      <c r="DC45" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -13945,12 +14068,15 @@
         <v>142.5</v>
       </c>
       <c r="DB46" t="n">
-        <v>153</v>
+        <v>152.9</v>
+      </c>
+      <c r="DC46" t="n">
+        <v>158.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -14265,12 +14391,15 @@
         <v>28.2</v>
       </c>
       <c r="DB47" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
+      </c>
+      <c r="DC47" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -14585,12 +14714,15 @@
         <v>170.5</v>
       </c>
       <c r="DB48" t="n">
-        <v>193.6</v>
+        <v>192.4</v>
+      </c>
+      <c r="DC48" t="n">
+        <v>196.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="n">
         <v>1026.2</v>
@@ -14905,12 +15037,15 @@
         <v>998.8</v>
       </c>
       <c r="DB49" t="n">
-        <v>1067.5</v>
+        <v>1060.6</v>
+      </c>
+      <c r="DC49" t="n">
+        <v>1093</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -15225,12 +15360,15 @@
         <v>103.8</v>
       </c>
       <c r="DB50" t="n">
-        <v>126.1</v>
+        <v>126.2</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>126.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -15545,12 +15683,15 @@
         <v>25.2</v>
       </c>
       <c r="DB51" t="n">
-        <v>31</v>
+        <v>31.4</v>
+      </c>
+      <c r="DC51" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -15865,12 +16006,15 @@
         <v>268.1</v>
       </c>
       <c r="DB52" t="n">
-        <v>286.3</v>
+        <v>288.9</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>293.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -16185,12 +16329,15 @@
         <v>216.3</v>
       </c>
       <c r="DB53" t="n">
-        <v>222.6</v>
+        <v>223.3</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>225.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -16505,12 +16652,15 @@
         <v>48.9</v>
       </c>
       <c r="DB54" t="n">
-        <v>53.7</v>
+        <v>54</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>56.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -16825,12 +16975,15 @@
         <v>141.2</v>
       </c>
       <c r="DB55" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>197.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -17145,7 +17298,10 @@
         <v>24.1</v>
       </c>
       <c r="DB56" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>28.7</v>
       </c>
     </row>
   </sheetData>
@@ -17445,10 +17601,13 @@
       <c r="CP4" t="s">
         <v>105</v>
       </c>
+      <c r="CQ4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -17724,15 +17883,18 @@
         <v>-7.25680781174676</v>
       </c>
       <c r="CO5" t="n">
-        <v>-6.26011120991676</v>
+        <v>-6.2965383502791</v>
       </c>
       <c r="CP5" t="n">
-        <v>-7.6946506758043</v>
+        <v>-7.80696744717305</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>-8.83788973210204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -18011,12 +18173,15 @@
         <v>-5.83804143126178</v>
       </c>
       <c r="CP6" t="n">
-        <v>-5.85042219541616</v>
+        <v>-5.24728588661037</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>-5.5391868002357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -18295,12 +18460,15 @@
         <v>-3.41880341880341</v>
       </c>
       <c r="CP7" t="n">
-        <v>-9.02777777777776</v>
+        <v>-7.29166666666665</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>-6.41891891891893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -18579,12 +18747,15 @@
         <v>-2.84679089026915</v>
       </c>
       <c r="CP8" t="n">
-        <v>-3.53168843734881</v>
+        <v>-3.91872278664731</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>-3.69304556354917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -18863,12 +19034,15 @@
         <v>-4.16184971098265</v>
       </c>
       <c r="CP9" t="n">
-        <v>-6.7067067067067</v>
+        <v>-6.80680680680681</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>-7.00197238658778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -19147,12 +19321,15 @@
         <v>-11.46959758908</v>
       </c>
       <c r="CP10" t="n">
-        <v>-11.0955172129118</v>
+        <v>-11.2936514488566</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>-13.9729855612483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -19431,12 +19608,15 @@
         <v>-12.1449559255632</v>
       </c>
       <c r="CP11" t="n">
-        <v>-11.9604316546762</v>
+        <v>-12.9946043165468</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>-13.529921942758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -19715,12 +19895,15 @@
         <v>-7.25075528700908</v>
       </c>
       <c r="CP12" t="n">
-        <v>-6.94108151735271</v>
+        <v>-10.4923325262308</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>-7.29411764705883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -19999,12 +20182,15 @@
         <v>-3.58306188925082</v>
       </c>
       <c r="CP13" t="n">
-        <v>-4.82954545454546</v>
+        <v>-7.38636363636364</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>-8.84718498659517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -20099,10 +20285,11 @@
       <c r="CN14"/>
       <c r="CO14"/>
       <c r="CP14"/>
+      <c r="CQ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -20381,12 +20568,15 @@
         <v>-14.08276714021</v>
       </c>
       <c r="CP15" t="n">
-        <v>-11.4461416385638</v>
+        <v>-11.1882562983535</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>-10.8801243442782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -20665,12 +20855,15 @@
         <v>-6.63924794359576</v>
       </c>
       <c r="CP16" t="n">
-        <v>-7.29948066935949</v>
+        <v>-6.66474321984998</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>-6.32151029748284</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -20765,10 +20958,11 @@
       <c r="CN17"/>
       <c r="CO17"/>
       <c r="CP17"/>
+      <c r="CQ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -21047,12 +21241,15 @@
         <v>0.6060606060606</v>
       </c>
       <c r="CP18" t="n">
-        <v>-7.71812080536912</v>
+        <v>-7.88590604026845</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>-9.375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -21331,12 +21528,15 @@
         <v>-0.263991552270342</v>
       </c>
       <c r="CP19" t="n">
-        <v>-4.85656200587304</v>
+        <v>-4.9695053083352</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>-6.44386194844912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -21615,12 +21815,15 @@
         <v>-8.42352941176471</v>
       </c>
       <c r="CP20" t="n">
-        <v>-8.55949895615866</v>
+        <v>-6.1795407098121</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>-5.63146997929608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -21899,12 +22102,15 @@
         <v>-3.41098169717138</v>
       </c>
       <c r="CP21" t="n">
-        <v>-3.84346610761705</v>
+        <v>-3.91334730957372</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>-3.4228187919463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -22183,12 +22389,15 @@
         <v>-4.54943132108485</v>
       </c>
       <c r="CP22" t="n">
-        <v>-8.36390315480558</v>
+        <v>-8.58400586940574</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>-7.43626062322948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -22467,12 +22676,15 @@
         <v>-8.31099195710454</v>
       </c>
       <c r="CP23" t="n">
-        <v>-11.7144600366077</v>
+        <v>-12.4466137888957</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>-11.084191399152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -22751,12 +22963,15 @@
         <v>-1.27478753541075</v>
       </c>
       <c r="CP24" t="n">
-        <v>-3.74261326329614</v>
+        <v>-4.59619172685489</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>-5.98345003182688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -23035,12 +23250,15 @@
         <v>-6.89655172413793</v>
       </c>
       <c r="CP25" t="n">
-        <v>-13.7450199203187</v>
+        <v>-12.1513944223108</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>-13.5238095238095</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -23320,11 +23538,14 @@
       </c>
       <c r="CP26" t="n">
         <v>-12.1504339440694</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>-12.0761727821644</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -23603,12 +23824,15 @@
         <v>-1.86965811965812</v>
       </c>
       <c r="CP27" t="n">
-        <v>-9.17894736842106</v>
+        <v>-8.42105263157895</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>-9.24132364810331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -23887,12 +24111,15 @@
         <v>-7.71824653428249</v>
       </c>
       <c r="CP28" t="n">
-        <v>-10.040285094515</v>
+        <v>-9.51348001239543</v>
+      </c>
+      <c r="CQ28" t="n">
+        <v>-8.96860986547085</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -24171,12 +24398,15 @@
         <v>-8.49443468072642</v>
       </c>
       <c r="CP29" t="n">
-        <v>-8.70445344129556</v>
+        <v>-9.1093117408907</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>-9.51932139491046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -24455,12 +24685,15 @@
         <v>-2.99102691924227</v>
       </c>
       <c r="CP30" t="n">
-        <v>-5.0185873605948</v>
+        <v>-6.97026022304833</v>
+      </c>
+      <c r="CQ30" t="n">
+        <v>-6.80772769089236</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -24555,10 +24788,11 @@
       <c r="CN31"/>
       <c r="CO31"/>
       <c r="CP31"/>
+      <c r="CQ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -24837,12 +25071,15 @@
         <v>-1.40056022408964</v>
       </c>
       <c r="CP32" t="n">
-        <v>-1.6706443914081</v>
+        <v>2.38663484486874</v>
+      </c>
+      <c r="CQ32" t="n">
+        <v>-0.225225225225228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -25121,12 +25358,15 @@
         <v>-4.99999999999999</v>
       </c>
       <c r="CP33" t="n">
-        <v>-4.77741585233441</v>
+        <v>-4.56026058631921</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>-6.26304801670148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -25405,12 +25645,15 @@
         <v>-11.063829787234</v>
       </c>
       <c r="CP34" t="n">
-        <v>-17.0186335403727</v>
+        <v>-14.2857142857143</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>-16.2591687041565</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -25689,12 +25932,15 @@
         <v>-6.57142857142856</v>
       </c>
       <c r="CP35" t="n">
-        <v>-11.3006396588486</v>
+        <v>-11.0874200426439</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>-14.0845070422535</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -25973,12 +26219,15 @@
         <v>-7.76061776061777</v>
       </c>
       <c r="CP36" t="n">
-        <v>-3.53535353535354</v>
+        <v>-2.96296296296297</v>
+      </c>
+      <c r="CQ36" t="n">
+        <v>-6.73946957878314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -26257,12 +26506,15 @@
         <v>-0.41265474552955</v>
       </c>
       <c r="CP37" t="n">
-        <v>-0.761421319796965</v>
+        <v>-0.380710659898474</v>
+      </c>
+      <c r="CQ37" t="n">
+        <v>-1.60098522167487</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -26541,12 +26793,15 @@
         <v>-9.46384277809579</v>
       </c>
       <c r="CP38" t="n">
-        <v>-9.60965668600093</v>
+        <v>-6.49004546167111</v>
+      </c>
+      <c r="CQ38" t="n">
+        <v>-7.30144538816869</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -26826,11 +27081,14 @@
       </c>
       <c r="CP39" t="n">
         <v>-5.48446069469836</v>
+      </c>
+      <c r="CQ39" t="n">
+        <v>-5.75367096194186</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -27109,12 +27367,15 @@
         <v>0.0000000000000127337407842312</v>
       </c>
       <c r="CP40" t="n">
-        <v>-0.542005420054189</v>
+        <v>-0.271002710027104</v>
+      </c>
+      <c r="CQ40" t="n">
+        <v>-1.27226463104326</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -27393,12 +27654,15 @@
         <v>-11.4601018675722</v>
       </c>
       <c r="CP41" t="n">
-        <v>-11.0119806270711</v>
+        <v>-11.0629620188631</v>
+      </c>
+      <c r="CQ41" t="n">
+        <v>-10.6640335719575</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -27677,12 +27941,15 @@
         <v>-3.08641975308642</v>
       </c>
       <c r="CP42" t="n">
-        <v>-5.53306342780026</v>
+        <v>-3.03643724696356</v>
+      </c>
+      <c r="CQ42" t="n">
+        <v>-3.84364820846904</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -27961,12 +28228,15 @@
         <v>-9.14127423822714</v>
       </c>
       <c r="CP43" t="n">
-        <v>-9.12025827280064</v>
+        <v>-8.95883777239708</v>
+      </c>
+      <c r="CQ43" t="n">
+        <v>-14.5377558221595</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -28245,12 +28515,15 @@
         <v>-1.60313501959387</v>
       </c>
       <c r="CP44" t="n">
-        <v>-7.28358208955223</v>
+        <v>-6.6865671641791</v>
+      </c>
+      <c r="CQ44" t="n">
+        <v>-6.95171611401976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -28529,12 +28802,15 @@
         <v>-2.97872340425532</v>
       </c>
       <c r="CP45" t="n">
-        <v>-8.27814569536424</v>
+        <v>-7.28476821192053</v>
+      </c>
+      <c r="CQ45" t="n">
+        <v>-5.19480519480519</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -28813,12 +29089,15 @@
         <v>-6.55737704918033</v>
       </c>
       <c r="CP46" t="n">
-        <v>-6.93430656934307</v>
+        <v>-6.99513381995135</v>
+      </c>
+      <c r="CQ46" t="n">
+        <v>-5.66487775790101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -29097,12 +29376,15 @@
         <v>-2.08333333333331</v>
       </c>
       <c r="CP47" t="n">
-        <v>-1.65745856353592</v>
+        <v>-2.20994475138123</v>
+      </c>
+      <c r="CQ47" t="n">
+        <v>-2.36220472440945</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -29381,12 +29663,15 @@
         <v>-4.32098765432098</v>
       </c>
       <c r="CP48" t="n">
-        <v>-4.58353868900936</v>
+        <v>-5.17496303597831</v>
+      </c>
+      <c r="CQ48" t="n">
+        <v>-5.6540488739818</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="n">
         <v>0.535957902942896</v>
@@ -29665,12 +29950,15 @@
         <v>-3.46027450222307</v>
       </c>
       <c r="CP49" t="n">
-        <v>-3.63784076548113</v>
+        <v>-4.26069687669255</v>
+      </c>
+      <c r="CQ49" t="n">
+        <v>-4.76605384682409</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -29949,12 +30237,15 @@
         <v>-3.44186046511628</v>
       </c>
       <c r="CP50" t="n">
-        <v>0.23847376788553</v>
+        <v>0.317965023847381</v>
+      </c>
+      <c r="CQ50" t="n">
+        <v>-1.47744945567651</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -30233,12 +30524,15 @@
         <v>-3.44827586206897</v>
       </c>
       <c r="CP51" t="n">
-        <v>-6.06060606060606</v>
+        <v>-4.84848484848485</v>
+      </c>
+      <c r="CQ51" t="n">
+        <v>-5.47550432276659</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -30517,12 +30811,15 @@
         <v>-6.48761771886989</v>
       </c>
       <c r="CP52" t="n">
-        <v>-9.39873417721519</v>
+        <v>-8.57594936708862</v>
+      </c>
+      <c r="CQ52" t="n">
+        <v>-8.7173100871731</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -30801,12 +31098,15 @@
         <v>-4.50331125827814</v>
       </c>
       <c r="CP53" t="n">
-        <v>-8.95705521472392</v>
+        <v>-8.67075664621676</v>
+      </c>
+      <c r="CQ53" t="n">
+        <v>-15.0566037735849</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -31085,12 +31385,15 @@
         <v>-12.5223613595707</v>
       </c>
       <c r="CP54" t="n">
-        <v>-12.9659643435981</v>
+        <v>-12.4797406807131</v>
+      </c>
+      <c r="CQ54" t="n">
+        <v>-11.8380062305296</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -31369,12 +31672,15 @@
         <v>-16.1520190023753</v>
       </c>
       <c r="CP55" t="n">
-        <v>-5.84999999999999</v>
+        <v>-5.59999999999999</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>-9.34493815849748</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -31653,7 +31959,10 @@
         <v>-5.49019607843137</v>
       </c>
       <c r="CP56" t="n">
-        <v>-5.4421768707483</v>
+        <v>-5.78231292517008</v>
+      </c>
+      <c r="CQ56" t="n">
+        <v>-6.20915032679739</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2020</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1143,10 +1146,13 @@
       <c r="DC4" t="s">
         <v>106</v>
       </c>
+      <c r="DD4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1461,15 +1467,18 @@
         <v>8746</v>
       </c>
       <c r="DB5" t="n">
-        <v>9685.8</v>
+        <v>9690.6</v>
       </c>
       <c r="DC5" t="n">
-        <v>9970.4</v>
+        <v>9979.6</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>10049.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1787,12 +1796,15 @@
         <v>157.1</v>
       </c>
       <c r="DC6" t="n">
-        <v>160.3</v>
+        <v>161.5</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>163.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2111,11 +2123,14 @@
       </c>
       <c r="DC7" t="n">
         <v>27.7</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2433,12 +2448,15 @@
         <v>198.6</v>
       </c>
       <c r="DC8" t="n">
-        <v>200.8</v>
+        <v>200.7</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>202.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2756,12 +2774,15 @@
         <v>93.1</v>
       </c>
       <c r="DC9" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3079,12 +3100,15 @@
         <v>1074.5</v>
       </c>
       <c r="DC10" t="n">
-        <v>1108.2</v>
+        <v>1110.8</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>1122.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3402,12 +3426,15 @@
         <v>193.5</v>
       </c>
       <c r="DC11" t="n">
-        <v>199.4</v>
+        <v>199.9</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>203.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3725,12 +3752,15 @@
         <v>110.9</v>
       </c>
       <c r="DC12" t="n">
-        <v>118.2</v>
+        <v>116.2</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>117.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4048,12 +4078,15 @@
         <v>32.6</v>
       </c>
       <c r="DC13" t="n">
-        <v>34</v>
+        <v>33.8</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4161,10 +4194,11 @@
       <c r="DA14"/>
       <c r="DB14"/>
       <c r="DC14"/>
+      <c r="DD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4482,12 +4516,15 @@
         <v>447.7</v>
       </c>
       <c r="DC15" t="n">
-        <v>458.7</v>
+        <v>458.4</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>460.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -4805,12 +4842,15 @@
         <v>323.5</v>
       </c>
       <c r="DC16" t="n">
-        <v>327.5</v>
+        <v>327.4</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>327.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -4918,10 +4958,11 @@
       <c r="DA17"/>
       <c r="DB17"/>
       <c r="DC17"/>
+      <c r="DD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5240,11 +5281,14 @@
       </c>
       <c r="DC18" t="n">
         <v>58</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>58.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5562,12 +5606,15 @@
         <v>420.7</v>
       </c>
       <c r="DC19" t="n">
-        <v>428.3</v>
+        <v>429</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>432.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -5885,12 +5932,15 @@
         <v>224.7</v>
       </c>
       <c r="DC20" t="n">
-        <v>227.9</v>
+        <v>228.5</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6208,12 +6258,15 @@
         <v>137.5</v>
       </c>
       <c r="DC21" t="n">
-        <v>143.9</v>
+        <v>143.1</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>144.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6531,12 +6584,15 @@
         <v>124.6</v>
       </c>
       <c r="DC22" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>131.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -6854,12 +6910,15 @@
         <v>143.5</v>
       </c>
       <c r="DC23" t="n">
-        <v>146.8</v>
+        <v>146.9</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>148.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7177,12 +7236,15 @@
         <v>145.3</v>
       </c>
       <c r="DC24" t="n">
-        <v>147.7</v>
+        <v>147.8</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>148.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7501,11 +7563,14 @@
       </c>
       <c r="DC25" t="n">
         <v>45.4</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -7823,12 +7888,15 @@
         <v>182.2</v>
       </c>
       <c r="DC26" t="n">
-        <v>189.3</v>
+        <v>195.2</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>194.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8146,12 +8214,15 @@
         <v>217.5</v>
       </c>
       <c r="DC27" t="n">
-        <v>224.9</v>
+        <v>224.4</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8469,12 +8540,15 @@
         <v>292</v>
       </c>
       <c r="DC28" t="n">
-        <v>304.5</v>
+        <v>305.2</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -8792,12 +8866,15 @@
         <v>179.6</v>
       </c>
       <c r="DC29" t="n">
-        <v>192</v>
+        <v>191.1</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>192.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9115,12 +9192,15 @@
         <v>100.1</v>
       </c>
       <c r="DC30" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
+      </c>
+      <c r="DD30" t="n">
+        <v>101.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9228,10 +9308,11 @@
       <c r="DA31"/>
       <c r="DB31"/>
       <c r="DC31"/>
+      <c r="DD31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -9549,12 +9630,15 @@
         <v>42.9</v>
       </c>
       <c r="DC32" t="n">
-        <v>44.3</v>
+        <v>44.7</v>
+      </c>
+      <c r="DD32" t="n">
+        <v>45.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -9872,12 +9956,15 @@
         <v>87.9</v>
       </c>
       <c r="DC33" t="n">
-        <v>89.8</v>
+        <v>89.7</v>
+      </c>
+      <c r="DD33" t="n">
+        <v>90.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10195,12 +10282,15 @@
         <v>69</v>
       </c>
       <c r="DC34" t="n">
-        <v>68.5</v>
+        <v>70.3</v>
+      </c>
+      <c r="DD34" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -10518,12 +10608,15 @@
         <v>41.7</v>
       </c>
       <c r="DC35" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
+      </c>
+      <c r="DD35" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -10841,12 +10934,15 @@
         <v>288.2</v>
       </c>
       <c r="DC36" t="n">
-        <v>298.9</v>
+        <v>299</v>
+      </c>
+      <c r="DD36" t="n">
+        <v>301.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11164,12 +11260,15 @@
         <v>78.5</v>
       </c>
       <c r="DC37" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="DD37" t="n">
         <v>79.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -11487,12 +11586,15 @@
         <v>596.5</v>
       </c>
       <c r="DC38" t="n">
-        <v>622.1</v>
+        <v>635.5</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>640.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -11811,11 +11913,14 @@
       </c>
       <c r="DC39" t="n">
         <v>314.5</v>
+      </c>
+      <c r="DD39" t="n">
+        <v>319.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12133,12 +12238,15 @@
         <v>36.8</v>
       </c>
       <c r="DC40" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
+      </c>
+      <c r="DD40" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -12456,12 +12564,15 @@
         <v>348.9</v>
       </c>
       <c r="DC41" t="n">
-        <v>361.9</v>
+        <v>360.8</v>
+      </c>
+      <c r="DD41" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -12780,11 +12891,14 @@
       </c>
       <c r="DC42" t="n">
         <v>147.6</v>
+      </c>
+      <c r="DD42" t="n">
+        <v>148.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -13103,11 +13217,14 @@
       </c>
       <c r="DC43" t="n">
         <v>121.1</v>
+      </c>
+      <c r="DD43" t="n">
+        <v>122.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -13425,12 +13542,15 @@
         <v>312.6</v>
       </c>
       <c r="DC44" t="n">
-        <v>319.9</v>
+        <v>320.6</v>
+      </c>
+      <c r="DD44" t="n">
+        <v>323.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -13749,11 +13869,14 @@
       </c>
       <c r="DC45" t="n">
         <v>29.2</v>
+      </c>
+      <c r="DD45" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -14071,12 +14194,15 @@
         <v>152.9</v>
       </c>
       <c r="DC46" t="n">
-        <v>158.2</v>
+        <v>157.8</v>
+      </c>
+      <c r="DD46" t="n">
+        <v>158.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -14394,12 +14520,15 @@
         <v>35.4</v>
       </c>
       <c r="DC47" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
+      </c>
+      <c r="DD47" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -14717,12 +14846,15 @@
         <v>192.4</v>
       </c>
       <c r="DC48" t="n">
-        <v>196.9</v>
+        <v>197.9</v>
+      </c>
+      <c r="DD48" t="n">
+        <v>197.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" t="n">
         <v>1026.2</v>
@@ -15040,12 +15172,15 @@
         <v>1060.6</v>
       </c>
       <c r="DC49" t="n">
-        <v>1093</v>
+        <v>1092.3</v>
+      </c>
+      <c r="DD49" t="n">
+        <v>1102.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -15363,12 +15498,15 @@
         <v>126.2</v>
       </c>
       <c r="DC50" t="n">
-        <v>126.7</v>
+        <v>126.8</v>
+      </c>
+      <c r="DD50" t="n">
+        <v>127.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -15686,12 +15824,15 @@
         <v>31.4</v>
       </c>
       <c r="DC51" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
+      </c>
+      <c r="DD51" t="n">
+        <v>33.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -16009,12 +16150,15 @@
         <v>288.9</v>
       </c>
       <c r="DC52" t="n">
-        <v>293.2</v>
+        <v>293.3</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>295.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -16332,12 +16476,15 @@
         <v>223.3</v>
       </c>
       <c r="DC53" t="n">
-        <v>225.1</v>
+        <v>222.5</v>
+      </c>
+      <c r="DD53" t="n">
+        <v>226.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -16655,12 +16802,15 @@
         <v>54</v>
       </c>
       <c r="DC54" t="n">
-        <v>56.6</v>
+        <v>56.7</v>
+      </c>
+      <c r="DD54" t="n">
+        <v>57.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -16978,12 +17128,15 @@
         <v>188.8</v>
       </c>
       <c r="DC55" t="n">
-        <v>197.9</v>
+        <v>197.6</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>198.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -17301,6 +17454,9 @@
         <v>27.7</v>
       </c>
       <c r="DC56" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DD56" t="n">
         <v>28.7</v>
       </c>
     </row>
@@ -17604,10 +17760,13 @@
       <c r="CQ4" t="s">
         <v>106</v>
       </c>
+      <c r="CR4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -17886,15 +18045,18 @@
         <v>-6.2965383502791</v>
       </c>
       <c r="CP5" t="n">
-        <v>-7.80696744717305</v>
+        <v>-7.76127926898915</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-8.83788973210204</v>
+        <v>-8.75377160098747</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>-9.11853278710764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -18176,12 +18338,15 @@
         <v>-5.24728588661037</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-5.5391868002357</v>
+        <v>-4.83205657041838</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>-5.00290866783013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -18464,11 +18629,14 @@
       </c>
       <c r="CQ7" t="n">
         <v>-6.41891891891893</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>-7.64119601328904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -18750,12 +18918,15 @@
         <v>-3.91872278664731</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-3.69304556354917</v>
+        <v>-3.74100719424461</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>-3.84798099762471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -19037,12 +19208,15 @@
         <v>-6.80680680680681</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-7.00197238658778</v>
+        <v>-7.10059171597633</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>-7.15686274509805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -19324,12 +19498,15 @@
         <v>-11.2936514488566</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-13.9729855612483</v>
+        <v>-13.7711535475858</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>-14.3238909673971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -19611,12 +19788,15 @@
         <v>-12.9946043165468</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-13.529921942758</v>
+        <v>-13.3130962705984</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>-13.1623931623932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -19898,12 +20078,15 @@
         <v>-10.4923325262308</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-7.29411764705883</v>
+        <v>-8.86274509803923</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>-8.48249027237354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -20185,12 +20368,15 @@
         <v>-7.38636363636364</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-8.84718498659517</v>
+        <v>-9.38337801608579</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>-9.06666666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -20286,10 +20472,11 @@
       <c r="CO14"/>
       <c r="CP14"/>
       <c r="CQ14"/>
+      <c r="CR14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -20571,12 +20758,15 @@
         <v>-11.1882562983535</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-10.8801243442782</v>
+        <v>-10.938410724694</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>-11.0015467904099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -20858,12 +21048,15 @@
         <v>-6.66474321984998</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-6.32151029748284</v>
+        <v>-6.35011441647598</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>-6.72748004561004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -20959,10 +21152,11 @@
       <c r="CO17"/>
       <c r="CP17"/>
       <c r="CQ17"/>
+      <c r="CR17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -21245,11 +21439,14 @@
       </c>
       <c r="CQ18" t="n">
         <v>-9.375</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>-9.44272445820433</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -21531,12 +21728,15 @@
         <v>-4.9695053083352</v>
       </c>
       <c r="CQ19" t="n">
-        <v>-6.44386194844912</v>
+        <v>-6.29095674967235</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>-6.84902003015291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -21818,12 +22018,15 @@
         <v>-6.1795407098121</v>
       </c>
       <c r="CQ20" t="n">
-        <v>-5.63146997929608</v>
+        <v>-5.38302277432712</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>-6.9483949613978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -22105,12 +22308,15 @@
         <v>-3.91334730957372</v>
       </c>
       <c r="CQ21" t="n">
-        <v>-3.4228187919463</v>
+        <v>-3.95973154362415</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>-4.24684804246847</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -22392,12 +22598,15 @@
         <v>-8.58400586940574</v>
       </c>
       <c r="CQ22" t="n">
-        <v>-7.43626062322948</v>
+        <v>-7.57790368271956</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>-7.37877723120169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -22679,12 +22888,15 @@
         <v>-12.4466137888957</v>
       </c>
       <c r="CQ23" t="n">
-        <v>-11.084191399152</v>
+        <v>-11.0236220472441</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>-10.1212121212121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -22966,12 +23178,15 @@
         <v>-4.59619172685489</v>
       </c>
       <c r="CQ24" t="n">
-        <v>-5.98345003182688</v>
+        <v>-5.91979630808403</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>-5.8860759493671</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -23254,11 +23469,14 @@
       </c>
       <c r="CQ25" t="n">
         <v>-13.5238095238095</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>-11.605415860735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -23540,12 +23758,15 @@
         <v>-12.1504339440694</v>
       </c>
       <c r="CQ26" t="n">
-        <v>-12.0761727821644</v>
+        <v>-9.33581049698097</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>-10.5553005966039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -23827,12 +24048,15 @@
         <v>-8.42105263157895</v>
       </c>
       <c r="CQ27" t="n">
-        <v>-9.24132364810331</v>
+        <v>-9.44309927360776</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>-9.63375796178344</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -24114,12 +24338,15 @@
         <v>-9.51348001239543</v>
       </c>
       <c r="CQ28" t="n">
-        <v>-8.96860986547085</v>
+        <v>-8.7593423019432</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>-9.70988750740083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -24401,12 +24628,15 @@
         <v>-9.1093117408907</v>
       </c>
       <c r="CQ29" t="n">
-        <v>-9.51932139491046</v>
+        <v>-9.94344957587182</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>-10.4283054003725</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -24688,12 +24918,15 @@
         <v>-6.97026022304833</v>
       </c>
       <c r="CQ30" t="n">
-        <v>-6.80772769089236</v>
+        <v>-6.71573137074517</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>-6.26728110599078</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -24789,10 +25022,11 @@
       <c r="CO31"/>
       <c r="CP31"/>
       <c r="CQ31"/>
+      <c r="CR31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -25074,12 +25308,15 @@
         <v>2.38663484486874</v>
       </c>
       <c r="CQ32" t="n">
-        <v>-0.225225225225228</v>
+        <v>0.675675675675685</v>
+      </c>
+      <c r="CR32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -25361,12 +25598,15 @@
         <v>-4.56026058631921</v>
       </c>
       <c r="CQ33" t="n">
-        <v>-6.26304801670148</v>
+        <v>-6.36743215031316</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>-6.90010298661174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -25648,12 +25888,15 @@
         <v>-14.2857142857143</v>
       </c>
       <c r="CQ34" t="n">
-        <v>-16.2591687041565</v>
+        <v>-14.0586797066015</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>-13.6752136752137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -25935,12 +26178,15 @@
         <v>-11.0874200426439</v>
       </c>
       <c r="CQ35" t="n">
-        <v>-14.0845070422535</v>
+        <v>-13.8832997987928</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -26222,12 +26468,15 @@
         <v>-2.96296296296297</v>
       </c>
       <c r="CQ36" t="n">
-        <v>-6.73946957878314</v>
+        <v>-6.70826833073323</v>
+      </c>
+      <c r="CR36" t="n">
+        <v>-6.85185185185185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -26509,12 +26758,15 @@
         <v>-0.380710659898474</v>
       </c>
       <c r="CQ37" t="n">
-        <v>-1.60098522167487</v>
+        <v>-1.72413793103449</v>
+      </c>
+      <c r="CR37" t="n">
+        <v>-1.23609394313968</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -26796,12 +27048,15 @@
         <v>-6.49004546167111</v>
       </c>
       <c r="CQ38" t="n">
-        <v>-7.30144538816869</v>
+        <v>-5.30472358813888</v>
+      </c>
+      <c r="CR38" t="n">
+        <v>-5.28262799644864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -27084,11 +27339,14 @@
       </c>
       <c r="CQ39" t="n">
         <v>-5.75367096194186</v>
+      </c>
+      <c r="CR39" t="n">
+        <v>-5.5621301775148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -27370,12 +27628,15 @@
         <v>-0.271002710027104</v>
       </c>
       <c r="CQ40" t="n">
-        <v>-1.27226463104326</v>
+        <v>-1.52671755725189</v>
+      </c>
+      <c r="CR40" t="n">
+        <v>-1.51898734177216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -27657,12 +27918,15 @@
         <v>-11.0629620188631</v>
       </c>
       <c r="CQ41" t="n">
-        <v>-10.6640335719575</v>
+        <v>-10.9355714638361</v>
+      </c>
+      <c r="CR41" t="n">
+        <v>-9.98283051263184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -27945,11 +28209,14 @@
       </c>
       <c r="CQ42" t="n">
         <v>-3.84364820846904</v>
+      </c>
+      <c r="CR42" t="n">
+        <v>-3.93802453195608</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -28232,11 +28499,14 @@
       </c>
       <c r="CQ43" t="n">
         <v>-14.5377558221595</v>
+      </c>
+      <c r="CR43" t="n">
+        <v>-14.9895905621096</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -28518,12 +28788,15 @@
         <v>-6.6865671641791</v>
       </c>
       <c r="CQ44" t="n">
-        <v>-6.95171611401976</v>
+        <v>-6.74810936591039</v>
+      </c>
+      <c r="CR44" t="n">
+        <v>-7.12848519689565</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -28806,11 +29079,14 @@
       </c>
       <c r="CQ45" t="n">
         <v>-5.19480519480519</v>
+      </c>
+      <c r="CR45" t="n">
+        <v>-4.53074433656958</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -29092,12 +29368,15 @@
         <v>-6.99513381995135</v>
       </c>
       <c r="CQ46" t="n">
-        <v>-5.66487775790101</v>
+        <v>-5.90339892665473</v>
+      </c>
+      <c r="CR46" t="n">
+        <v>-6.03550295857988</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -29379,12 +29658,15 @@
         <v>-2.20994475138123</v>
       </c>
       <c r="CQ47" t="n">
-        <v>-2.36220472440945</v>
+        <v>-3.67454068241469</v>
+      </c>
+      <c r="CR47" t="n">
+        <v>-3.64583333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -29666,12 +29948,15 @@
         <v>-5.17496303597831</v>
       </c>
       <c r="CQ48" t="n">
-        <v>-5.6540488739818</v>
+        <v>-5.17489218974605</v>
+      </c>
+      <c r="CR48" t="n">
+        <v>-6.00571973307912</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" t="n">
         <v>0.535957902942896</v>
@@ -29953,12 +30238,15 @@
         <v>-4.26069687669255</v>
       </c>
       <c r="CQ49" t="n">
-        <v>-4.76605384682409</v>
+        <v>-4.82704539513811</v>
+      </c>
+      <c r="CR49" t="n">
+        <v>-4.81823676711855</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -30240,12 +30528,15 @@
         <v>0.317965023847381</v>
       </c>
       <c r="CQ50" t="n">
-        <v>-1.47744945567651</v>
+        <v>-1.39968895800933</v>
+      </c>
+      <c r="CR50" t="n">
+        <v>-2.073732718894</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -30527,12 +30818,15 @@
         <v>-4.84848484848485</v>
       </c>
       <c r="CQ51" t="n">
-        <v>-5.47550432276659</v>
+        <v>-5.18731988472624</v>
+      </c>
+      <c r="CR51" t="n">
+        <v>-2.60869565217391</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -30814,12 +31108,15 @@
         <v>-8.57594936708862</v>
       </c>
       <c r="CQ52" t="n">
-        <v>-8.7173100871731</v>
+        <v>-8.68617683686176</v>
+      </c>
+      <c r="CR52" t="n">
+        <v>-8.73726458783574</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -31101,12 +31398,15 @@
         <v>-8.67075664621676</v>
       </c>
       <c r="CQ53" t="n">
-        <v>-15.0566037735849</v>
+        <v>-16.0377358490566</v>
+      </c>
+      <c r="CR53" t="n">
+        <v>-15.6168468132687</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -31388,12 +31688,15 @@
         <v>-12.4797406807131</v>
       </c>
       <c r="CQ54" t="n">
-        <v>-11.8380062305296</v>
+        <v>-11.6822429906542</v>
+      </c>
+      <c r="CR54" t="n">
+        <v>-11.402157164869</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -31675,12 +31978,15 @@
         <v>-5.59999999999999</v>
       </c>
       <c r="CQ55" t="n">
-        <v>-9.34493815849748</v>
+        <v>-9.48236371965184</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>-10.9613656783468</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -31963,6 +32269,9 @@
       </c>
       <c r="CQ56" t="n">
         <v>-6.20915032679739</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>-7.11974110032362</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t xml:space="preserve">11/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/01/2020</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1149,10 +1152,13 @@
       <c r="DD4" t="s">
         <v>107</v>
       </c>
+      <c r="DE4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1470,15 +1476,18 @@
         <v>9690.6</v>
       </c>
       <c r="DC5" t="n">
-        <v>9979.6</v>
+        <v>9972.9</v>
       </c>
       <c r="DD5" t="n">
-        <v>10049.4</v>
+        <v>10051.3</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>9932.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1799,12 +1808,15 @@
         <v>161.5</v>
       </c>
       <c r="DD6" t="n">
-        <v>163.3</v>
+        <v>163</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2125,12 +2137,15 @@
         <v>27.7</v>
       </c>
       <c r="DD7" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2452,11 +2467,14 @@
       </c>
       <c r="DD8" t="n">
         <v>202.4</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>199.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2777,12 +2795,15 @@
         <v>94.2</v>
       </c>
       <c r="DD9" t="n">
-        <v>94.7</v>
+        <v>94.6</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>94.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3104,11 +3125,14 @@
       </c>
       <c r="DD10" t="n">
         <v>1122.1</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>1123.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3429,12 +3453,15 @@
         <v>199.9</v>
       </c>
       <c r="DD11" t="n">
-        <v>203.2</v>
+        <v>202.1</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>199.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3755,12 +3782,15 @@
         <v>116.2</v>
       </c>
       <c r="DD12" t="n">
-        <v>117.6</v>
+        <v>117.7</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>116.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4081,12 +4111,15 @@
         <v>33.8</v>
       </c>
       <c r="DD13" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4195,10 +4228,11 @@
       <c r="DB14"/>
       <c r="DC14"/>
       <c r="DD14"/>
+      <c r="DE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4519,12 +4553,15 @@
         <v>458.4</v>
       </c>
       <c r="DD15" t="n">
-        <v>460.3</v>
+        <v>460.1</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>450.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -4846,11 +4883,14 @@
       </c>
       <c r="DD16" t="n">
         <v>327.2</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>325.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -4959,10 +4999,11 @@
       <c r="DB17"/>
       <c r="DC17"/>
       <c r="DD17"/>
+      <c r="DE17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5283,12 +5324,15 @@
         <v>58</v>
       </c>
       <c r="DD18" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>57.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5610,11 +5654,14 @@
       </c>
       <c r="DD19" t="n">
         <v>432.5</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -5935,12 +5982,15 @@
         <v>228.5</v>
       </c>
       <c r="DD20" t="n">
-        <v>229</v>
+        <v>229.7</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>225.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6262,11 +6312,14 @@
       </c>
       <c r="DD21" t="n">
         <v>144.3</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>141.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6587,12 +6640,15 @@
         <v>130.5</v>
       </c>
       <c r="DD22" t="n">
-        <v>131.8</v>
+        <v>131.6</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -6913,12 +6969,15 @@
         <v>146.9</v>
       </c>
       <c r="DD23" t="n">
-        <v>148.3</v>
+        <v>148.2</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>142.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7239,12 +7298,15 @@
         <v>147.8</v>
       </c>
       <c r="DD24" t="n">
-        <v>148.7</v>
+        <v>148.8</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>145.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7565,12 +7627,15 @@
         <v>45.4</v>
       </c>
       <c r="DD25" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -7891,12 +7956,15 @@
         <v>195.2</v>
       </c>
       <c r="DD26" t="n">
-        <v>194.9</v>
+        <v>195.2</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>191.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8217,12 +8285,15 @@
         <v>224.4</v>
       </c>
       <c r="DD27" t="n">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>224.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8543,12 +8614,15 @@
         <v>305.2</v>
       </c>
       <c r="DD28" t="n">
-        <v>305</v>
+        <v>305.1</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -8869,12 +8943,15 @@
         <v>191.1</v>
       </c>
       <c r="DD29" t="n">
-        <v>192.4</v>
+        <v>193.2</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9195,12 +9272,15 @@
         <v>101.4</v>
       </c>
       <c r="DD30" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
+      </c>
+      <c r="DE30" t="n">
+        <v>99.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9309,10 +9389,11 @@
       <c r="DB31"/>
       <c r="DC31"/>
       <c r="DD31"/>
+      <c r="DE31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -9633,12 +9714,15 @@
         <v>44.7</v>
       </c>
       <c r="DD32" t="n">
-        <v>45.1</v>
+        <v>45</v>
+      </c>
+      <c r="DE32" t="n">
+        <v>44.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -9959,12 +10043,15 @@
         <v>89.7</v>
       </c>
       <c r="DD33" t="n">
-        <v>90.4</v>
+        <v>90.3</v>
+      </c>
+      <c r="DE33" t="n">
+        <v>90.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10286,11 +10373,14 @@
       </c>
       <c r="DD34" t="n">
         <v>70.7</v>
+      </c>
+      <c r="DE34" t="n">
+        <v>70.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -10611,12 +10701,15 @@
         <v>42.8</v>
       </c>
       <c r="DD35" t="n">
-        <v>43</v>
+        <v>42.9</v>
+      </c>
+      <c r="DE35" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -10938,11 +11031,14 @@
       </c>
       <c r="DD36" t="n">
         <v>301.8</v>
+      </c>
+      <c r="DE36" t="n">
+        <v>301.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11264,11 +11360,14 @@
       </c>
       <c r="DD37" t="n">
         <v>79.9</v>
+      </c>
+      <c r="DE37" t="n">
+        <v>79.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -11589,12 +11688,15 @@
         <v>635.5</v>
       </c>
       <c r="DD38" t="n">
-        <v>640.1</v>
+        <v>639.6</v>
+      </c>
+      <c r="DE38" t="n">
+        <v>632.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -11916,11 +12018,14 @@
       </c>
       <c r="DD39" t="n">
         <v>319.2</v>
+      </c>
+      <c r="DE39" t="n">
+        <v>317.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12241,12 +12346,15 @@
         <v>38.7</v>
       </c>
       <c r="DD40" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
+      </c>
+      <c r="DE40" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -12567,12 +12675,15 @@
         <v>360.8</v>
       </c>
       <c r="DD41" t="n">
-        <v>367</v>
+        <v>364.9</v>
+      </c>
+      <c r="DE41" t="n">
+        <v>357.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -12893,12 +13004,15 @@
         <v>147.6</v>
       </c>
       <c r="DD42" t="n">
-        <v>148.8</v>
+        <v>148.3</v>
+      </c>
+      <c r="DE42" t="n">
+        <v>147.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -13219,12 +13333,15 @@
         <v>121.1</v>
       </c>
       <c r="DD43" t="n">
-        <v>122.5</v>
+        <v>122.4</v>
+      </c>
+      <c r="DE43" t="n">
+        <v>121.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -13545,12 +13662,15 @@
         <v>320.6</v>
       </c>
       <c r="DD44" t="n">
-        <v>323.1</v>
+        <v>323.2</v>
+      </c>
+      <c r="DE44" t="n">
+        <v>316.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -13872,11 +13992,14 @@
       </c>
       <c r="DD45" t="n">
         <v>29.5</v>
+      </c>
+      <c r="DE45" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -14198,11 +14321,14 @@
       </c>
       <c r="DD46" t="n">
         <v>158.8</v>
+      </c>
+      <c r="DE46" t="n">
+        <v>157.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -14523,12 +14649,15 @@
         <v>36.7</v>
       </c>
       <c r="DD47" t="n">
-        <v>37</v>
+        <v>36.6</v>
+      </c>
+      <c r="DE47" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -14849,12 +14978,15 @@
         <v>197.9</v>
       </c>
       <c r="DD48" t="n">
-        <v>197.2</v>
+        <v>197.8</v>
+      </c>
+      <c r="DE48" t="n">
+        <v>192.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B49" t="n">
         <v>1026.2</v>
@@ -15175,12 +15307,15 @@
         <v>1092.3</v>
       </c>
       <c r="DD49" t="n">
-        <v>1102.3</v>
+        <v>1101.3</v>
+      </c>
+      <c r="DE49" t="n">
+        <v>1099.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -15501,12 +15636,15 @@
         <v>126.8</v>
       </c>
       <c r="DD50" t="n">
-        <v>127.5</v>
+        <v>127.4</v>
+      </c>
+      <c r="DE50" t="n">
+        <v>127.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -15827,12 +15965,15 @@
         <v>32.9</v>
       </c>
       <c r="DD51" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
+      </c>
+      <c r="DE51" t="n">
+        <v>33.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -16153,12 +16294,15 @@
         <v>293.3</v>
       </c>
       <c r="DD52" t="n">
-        <v>295.6</v>
+        <v>295.5</v>
+      </c>
+      <c r="DE52" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -16479,12 +16623,15 @@
         <v>222.5</v>
       </c>
       <c r="DD53" t="n">
-        <v>226.4</v>
+        <v>223.9</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>224.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -16806,11 +16953,14 @@
       </c>
       <c r="DD54" t="n">
         <v>57.5</v>
+      </c>
+      <c r="DE54" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -17131,12 +17281,15 @@
         <v>197.6</v>
       </c>
       <c r="DD55" t="n">
-        <v>198.2</v>
+        <v>198.1</v>
+      </c>
+      <c r="DE55" t="n">
+        <v>193.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -17458,6 +17611,9 @@
       </c>
       <c r="DD56" t="n">
         <v>28.7</v>
+      </c>
+      <c r="DE56" t="n">
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
@@ -17763,10 +17919,13 @@
       <c r="CR4" t="s">
         <v>107</v>
       </c>
+      <c r="CS4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -18048,15 +18207,18 @@
         <v>-7.76127926898915</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-8.75377160098747</v>
+        <v>-8.81503154429915</v>
       </c>
       <c r="CR5" t="n">
-        <v>-9.11853278710764</v>
+        <v>-9.1013501903651</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>-9.21255884100361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -18341,12 +18503,15 @@
         <v>-4.83205657041838</v>
       </c>
       <c r="CR6" t="n">
-        <v>-5.00290866783013</v>
+        <v>-5.17742873763816</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>-5.49320732427644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -18631,12 +18796,15 @@
         <v>-6.41891891891893</v>
       </c>
       <c r="CR7" t="n">
-        <v>-7.64119601328904</v>
+        <v>-8.30564784053156</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>-8.69565217391305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -18922,11 +19090,14 @@
       </c>
       <c r="CR8" t="n">
         <v>-3.84798099762471</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>-4.91177873152121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -19211,12 +19382,15 @@
         <v>-7.10059171597633</v>
       </c>
       <c r="CR9" t="n">
-        <v>-7.15686274509805</v>
+        <v>-7.25490196078432</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>-7.09359605911329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -19502,11 +19676,14 @@
       </c>
       <c r="CR10" t="n">
         <v>-14.3238909673971</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>-13.4596134596134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -19791,12 +19968,15 @@
         <v>-13.3130962705984</v>
       </c>
       <c r="CR11" t="n">
-        <v>-13.1623931623932</v>
+        <v>-13.6324786324786</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>-13.7305699481865</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -20081,12 +20261,15 @@
         <v>-8.86274509803923</v>
       </c>
       <c r="CR12" t="n">
-        <v>-8.48249027237354</v>
+        <v>-8.40466926070039</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>-9.36768149882906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -20371,12 +20554,15 @@
         <v>-9.38337801608579</v>
       </c>
       <c r="CR13" t="n">
-        <v>-9.06666666666666</v>
+        <v>-8.79999999999999</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>-8.89487870619945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -20473,10 +20659,11 @@
       <c r="CP14"/>
       <c r="CQ14"/>
       <c r="CR14"/>
+      <c r="CS14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -20761,12 +20948,15 @@
         <v>-10.938410724694</v>
       </c>
       <c r="CR15" t="n">
-        <v>-11.0015467904099</v>
+        <v>-11.0402165506574</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>-11.7335945151812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -21052,11 +21242,14 @@
       </c>
       <c r="CR16" t="n">
         <v>-6.72748004561004</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>-6.77917620137301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -21153,10 +21346,11 @@
       <c r="CP17"/>
       <c r="CQ17"/>
       <c r="CR17"/>
+      <c r="CS17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -21441,12 +21635,15 @@
         <v>-9.375</v>
       </c>
       <c r="CR18" t="n">
-        <v>-9.44272445820433</v>
+        <v>-9.13312693498451</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>-10.0156494522692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -21732,11 +21929,14 @@
       </c>
       <c r="CR19" t="n">
         <v>-6.84902003015291</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>-6.86061658706036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -22021,12 +22221,15 @@
         <v>-5.38302277432712</v>
       </c>
       <c r="CR20" t="n">
-        <v>-6.9483949613978</v>
+        <v>-6.66395774075579</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>-7.19276613234691</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -22312,11 +22515,14 @@
       </c>
       <c r="CR21" t="n">
         <v>-4.24684804246847</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>-5.03018108651913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -22601,12 +22807,15 @@
         <v>-7.57790368271956</v>
       </c>
       <c r="CR22" t="n">
-        <v>-7.37877723120169</v>
+        <v>-7.51932536893887</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>-9.28419560595322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -22891,12 +23100,15 @@
         <v>-11.0236220472441</v>
       </c>
       <c r="CR23" t="n">
-        <v>-10.1212121212121</v>
+        <v>-10.1818181818182</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>-13.6281041792853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -23181,12 +23393,15 @@
         <v>-5.91979630808403</v>
       </c>
       <c r="CR24" t="n">
-        <v>-5.8860759493671</v>
+        <v>-5.82278481012658</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>-6.35430038510912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -23471,12 +23686,15 @@
         <v>-13.5238095238095</v>
       </c>
       <c r="CR25" t="n">
-        <v>-11.605415860735</v>
+        <v>-11.4119922630561</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>-13.7596899224806</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -23761,12 +23979,15 @@
         <v>-9.33581049698097</v>
       </c>
       <c r="CR26" t="n">
-        <v>-10.5553005966039</v>
+        <v>-10.4176227627352</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>-11.2192860454335</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -24051,12 +24272,15 @@
         <v>-9.44309927360776</v>
       </c>
       <c r="CR27" t="n">
-        <v>-9.63375796178344</v>
+        <v>-9.23566878980891</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>-10.2758896441423</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -24341,12 +24565,15 @@
         <v>-8.7593423019432</v>
       </c>
       <c r="CR28" t="n">
-        <v>-9.70988750740083</v>
+        <v>-9.68028419182948</v>
+      </c>
+      <c r="CS28" t="n">
+        <v>-11.747167561121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -24631,12 +24858,15 @@
         <v>-9.94344957587182</v>
       </c>
       <c r="CR29" t="n">
-        <v>-10.4283054003725</v>
+        <v>-10.0558659217877</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>-9.80861244019139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -24921,12 +25151,15 @@
         <v>-6.71573137074517</v>
       </c>
       <c r="CR30" t="n">
-        <v>-6.26728110599078</v>
+        <v>-6.45161290322581</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>-4.42307692307692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -25023,10 +25256,11 @@
       <c r="CP31"/>
       <c r="CQ31"/>
       <c r="CR31"/>
+      <c r="CS31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -25311,12 +25545,15 @@
         <v>0.675675675675685</v>
       </c>
       <c r="CR32" t="n">
-        <v>0</v>
+        <v>-0.221729490022176</v>
+      </c>
+      <c r="CS32" t="n">
+        <v>-1.11607142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -25601,12 +25838,15 @@
         <v>-6.36743215031316</v>
       </c>
       <c r="CR33" t="n">
-        <v>-6.90010298661174</v>
+        <v>-7.00308959835221</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>-5.63086548488009</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -25892,11 +26132,14 @@
       </c>
       <c r="CR34" t="n">
         <v>-13.6752136752137</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>-14.7878787878788</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -26181,12 +26424,15 @@
         <v>-13.8832997987928</v>
       </c>
       <c r="CR35" t="n">
-        <v>-14</v>
+        <v>-14.2</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>-15.2304609218437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -26472,11 +26718,14 @@
       </c>
       <c r="CR36" t="n">
         <v>-6.85185185185185</v>
+      </c>
+      <c r="CS36" t="n">
+        <v>-7.0856438693777</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -26762,11 +27011,14 @@
       </c>
       <c r="CR37" t="n">
         <v>-1.23609394313968</v>
+      </c>
+      <c r="CS37" t="n">
+        <v>-0.251889168765747</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -27051,12 +27303,15 @@
         <v>-5.30472358813888</v>
       </c>
       <c r="CR38" t="n">
-        <v>-5.28262799644864</v>
+        <v>-5.35661438295353</v>
+      </c>
+      <c r="CS38" t="n">
+        <v>-6.48928307464893</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -27342,11 +27597,14 @@
       </c>
       <c r="CR39" t="n">
         <v>-5.5621301775148</v>
+      </c>
+      <c r="CS39" t="n">
+        <v>-5.47945205479453</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -27631,12 +27889,15 @@
         <v>-1.52671755725189</v>
       </c>
       <c r="CR40" t="n">
-        <v>-1.51898734177216</v>
+        <v>-0.759493670886069</v>
+      </c>
+      <c r="CS40" t="n">
+        <v>-1.75879396984924</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -27921,12 +28182,15 @@
         <v>-10.9355714638361</v>
       </c>
       <c r="CR41" t="n">
-        <v>-9.98283051263184</v>
+        <v>-10.4979151336767</v>
+      </c>
+      <c r="CS41" t="n">
+        <v>-10.8592777085928</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -28211,12 +28475,15 @@
         <v>-3.84364820846904</v>
       </c>
       <c r="CR42" t="n">
-        <v>-3.93802453195608</v>
+        <v>-4.26081342801805</v>
+      </c>
+      <c r="CS42" t="n">
+        <v>-3.89863547758285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -28501,12 +28768,15 @@
         <v>-14.5377558221595</v>
       </c>
       <c r="CR43" t="n">
-        <v>-14.9895905621096</v>
+        <v>-15.058986814712</v>
+      </c>
+      <c r="CS43" t="n">
+        <v>-15.2294853963839</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -28791,12 +29061,15 @@
         <v>-6.74810936591039</v>
       </c>
       <c r="CR44" t="n">
-        <v>-7.12848519689565</v>
+        <v>-7.09974130497269</v>
+      </c>
+      <c r="CS44" t="n">
+        <v>-7.48538011695907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -29082,11 +29355,14 @@
       </c>
       <c r="CR45" t="n">
         <v>-4.53074433656958</v>
+      </c>
+      <c r="CS45" t="n">
+        <v>-7.09677419354839</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -29372,11 +29648,14 @@
       </c>
       <c r="CR46" t="n">
         <v>-6.03550295857988</v>
+      </c>
+      <c r="CS46" t="n">
+        <v>-6.17944147355912</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -29661,12 +29940,15 @@
         <v>-3.67454068241469</v>
       </c>
       <c r="CR47" t="n">
-        <v>-3.64583333333333</v>
+        <v>-4.68749999999999</v>
+      </c>
+      <c r="CS47" t="n">
+        <v>-6.57894736842105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -29951,12 +30233,15 @@
         <v>-5.17489218974605</v>
       </c>
       <c r="CR48" t="n">
-        <v>-6.00571973307912</v>
+        <v>-5.71973307912296</v>
+      </c>
+      <c r="CS48" t="n">
+        <v>-6.6504854368932</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B49" t="n">
         <v>0.535957902942896</v>
@@ -30241,12 +30526,15 @@
         <v>-4.82704539513811</v>
       </c>
       <c r="CR49" t="n">
-        <v>-4.81823676711855</v>
+        <v>-4.90458509627838</v>
+      </c>
+      <c r="CS49" t="n">
+        <v>-4.55729166666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -30531,12 +30819,15 @@
         <v>-1.39968895800933</v>
       </c>
       <c r="CR50" t="n">
-        <v>-2.073732718894</v>
+        <v>-2.15053763440859</v>
+      </c>
+      <c r="CS50" t="n">
+        <v>-3.70931112793339</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -30821,12 +31112,15 @@
         <v>-5.18731988472624</v>
       </c>
       <c r="CR51" t="n">
-        <v>-2.60869565217391</v>
+        <v>-2.89855072463768</v>
+      </c>
+      <c r="CS51" t="n">
+        <v>-4.59770114942527</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -31111,12 +31405,15 @@
         <v>-8.68617683686176</v>
       </c>
       <c r="CR52" t="n">
-        <v>-8.73726458783574</v>
+        <v>-8.76813831429453</v>
+      </c>
+      <c r="CS52" t="n">
+        <v>-9.17573872472784</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -31401,12 +31698,15 @@
         <v>-16.0377358490566</v>
       </c>
       <c r="CR53" t="n">
-        <v>-15.6168468132687</v>
+        <v>-16.5486395825569</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>-14.7148288973384</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -31692,11 +31992,14 @@
       </c>
       <c r="CR54" t="n">
         <v>-11.402157164869</v>
+      </c>
+      <c r="CS54" t="n">
+        <v>-13.4796238244514</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -31981,12 +32284,15 @@
         <v>-9.48236371965184</v>
       </c>
       <c r="CR55" t="n">
-        <v>-10.9613656783468</v>
+        <v>-11.0062893081761</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>-11.753986332574</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -32272,6 +32578,9 @@
       </c>
       <c r="CR56" t="n">
         <v>-7.11974110032362</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>-8.06451612903226</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">02/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1167,10 +1170,13 @@
       <c r="DG4" t="s">
         <v>110</v>
       </c>
+      <c r="DH4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1497,15 +1503,18 @@
         <v>9995.2</v>
       </c>
       <c r="DF5" t="n">
-        <v>9737.8</v>
+        <v>9763.7</v>
       </c>
       <c r="DG5" t="n">
-        <v>10057.4</v>
+        <v>10069.6</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>10248.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1835,12 +1844,15 @@
         <v>159.7</v>
       </c>
       <c r="DG6" t="n">
-        <v>162.4</v>
+        <v>163.5</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>165.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2170,12 +2182,15 @@
         <v>26.2</v>
       </c>
       <c r="DG7" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2505,12 +2520,15 @@
         <v>185.7</v>
       </c>
       <c r="DG8" t="n">
-        <v>189.7</v>
+        <v>190.1</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>190.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2841,11 +2859,14 @@
       </c>
       <c r="DG9" t="n">
         <v>98.6</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>98.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3175,12 +3196,15 @@
         <v>1098.9</v>
       </c>
       <c r="DG10" t="n">
-        <v>1108.5</v>
+        <v>1102.4</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>1118.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3510,12 +3534,15 @@
         <v>198.7</v>
       </c>
       <c r="DG11" t="n">
-        <v>208.6</v>
+        <v>208.5</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>210.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3846,11 +3873,14 @@
       </c>
       <c r="DG12" t="n">
         <v>121.4</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>123.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4180,12 +4210,15 @@
         <v>33.2</v>
       </c>
       <c r="DG13" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4297,10 +4330,11 @@
       <c r="DE14"/>
       <c r="DF14"/>
       <c r="DG14"/>
+      <c r="DH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4630,12 +4664,15 @@
         <v>466.5</v>
       </c>
       <c r="DG15" t="n">
-        <v>474.5</v>
+        <v>474.9</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>475.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -4965,12 +5002,15 @@
         <v>328.7</v>
       </c>
       <c r="DG16" t="n">
-        <v>330.4</v>
+        <v>330.5</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>331.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5082,10 +5122,11 @@
       <c r="DE17"/>
       <c r="DF17"/>
       <c r="DG17"/>
+      <c r="DH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5416,11 +5457,14 @@
       </c>
       <c r="DG18" t="n">
         <v>61.7</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>62.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5750,12 +5794,15 @@
         <v>399.8</v>
       </c>
       <c r="DG19" t="n">
-        <v>418.3</v>
+        <v>427</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6085,12 +6132,15 @@
         <v>208.9</v>
       </c>
       <c r="DG20" t="n">
-        <v>219.3</v>
+        <v>218.6</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>219.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6420,12 +6470,15 @@
         <v>134.4</v>
       </c>
       <c r="DG21" t="n">
-        <v>138.2</v>
+        <v>139.9</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>140.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6755,12 +6808,15 @@
         <v>125.3</v>
       </c>
       <c r="DG22" t="n">
-        <v>130.6</v>
+        <v>130.8</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>132.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7090,12 +7146,15 @@
         <v>142.4</v>
       </c>
       <c r="DG23" t="n">
-        <v>151.2</v>
+        <v>151.8</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>154.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7425,12 +7484,15 @@
         <v>142.9</v>
       </c>
       <c r="DG24" t="n">
-        <v>146.9</v>
+        <v>143.9</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>144.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7761,11 +7823,14 @@
       </c>
       <c r="DG25" t="n">
         <v>47.9</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8096,11 +8161,14 @@
       </c>
       <c r="DG26" t="n">
         <v>206.5</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>212.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8430,12 +8498,15 @@
         <v>208.7</v>
       </c>
       <c r="DG27" t="n">
-        <v>213.4</v>
+        <v>215.8</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>218.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8765,12 +8836,15 @@
         <v>281.2</v>
       </c>
       <c r="DG28" t="n">
-        <v>295.9</v>
+        <v>294.5</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>296.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9101,11 +9175,14 @@
       </c>
       <c r="DG29" t="n">
         <v>201.9</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>198.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9435,12 +9512,15 @@
         <v>100.6</v>
       </c>
       <c r="DG30" t="n">
-        <v>101.5</v>
+        <v>102.3</v>
+      </c>
+      <c r="DH30" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9552,10 +9632,11 @@
       <c r="DE31"/>
       <c r="DF31"/>
       <c r="DG31"/>
+      <c r="DH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -9885,12 +9966,15 @@
         <v>40.8</v>
       </c>
       <c r="DG32" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
+      </c>
+      <c r="DH32" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10221,11 +10305,14 @@
       </c>
       <c r="DG33" t="n">
         <v>89.6</v>
+      </c>
+      <c r="DH33" t="n">
+        <v>90.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10555,12 +10642,15 @@
         <v>74.8</v>
       </c>
       <c r="DG34" t="n">
-        <v>77.1</v>
+        <v>76.7</v>
+      </c>
+      <c r="DH34" t="n">
+        <v>77.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -10890,12 +10980,15 @@
         <v>41.4</v>
       </c>
       <c r="DG35" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
+      </c>
+      <c r="DH35" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11225,12 +11318,15 @@
         <v>283.9</v>
       </c>
       <c r="DG36" t="n">
-        <v>293.1</v>
+        <v>291.6</v>
+      </c>
+      <c r="DH36" t="n">
+        <v>293.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11560,12 +11656,15 @@
         <v>66.9</v>
       </c>
       <c r="DG37" t="n">
-        <v>70.8</v>
+        <v>70.7</v>
+      </c>
+      <c r="DH37" t="n">
+        <v>71.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -11895,12 +11994,15 @@
         <v>626.7</v>
       </c>
       <c r="DG38" t="n">
-        <v>647.7</v>
+        <v>648.1</v>
+      </c>
+      <c r="DH38" t="n">
+        <v>656.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12230,12 +12332,15 @@
         <v>300</v>
       </c>
       <c r="DG39" t="n">
-        <v>305.2</v>
+        <v>304.9</v>
+      </c>
+      <c r="DH39" t="n">
+        <v>307.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12565,12 +12670,15 @@
         <v>35.9</v>
       </c>
       <c r="DG40" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
+      </c>
+      <c r="DH40" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -12900,12 +13008,15 @@
         <v>352.6</v>
       </c>
       <c r="DG41" t="n">
-        <v>374.1</v>
+        <v>371.9</v>
+      </c>
+      <c r="DH41" t="n">
+        <v>377.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13235,12 +13346,15 @@
         <v>134.3</v>
       </c>
       <c r="DG42" t="n">
-        <v>140.5</v>
+        <v>142.1</v>
+      </c>
+      <c r="DH42" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -13571,11 +13685,14 @@
       </c>
       <c r="DG43" t="n">
         <v>121.4</v>
+      </c>
+      <c r="DH43" t="n">
+        <v>123.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -13906,11 +14023,14 @@
       </c>
       <c r="DG44" t="n">
         <v>313.9</v>
+      </c>
+      <c r="DH44" t="n">
+        <v>319.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14241,11 +14361,14 @@
       </c>
       <c r="DG45" t="n">
         <v>27.3</v>
+      </c>
+      <c r="DH45" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -14575,12 +14698,15 @@
         <v>152.4</v>
       </c>
       <c r="DG46" t="n">
-        <v>152.9</v>
+        <v>157.1</v>
+      </c>
+      <c r="DH46" t="n">
+        <v>158.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -14910,12 +15036,15 @@
         <v>34.9</v>
       </c>
       <c r="DG47" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
+      </c>
+      <c r="DH47" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -15245,12 +15374,15 @@
         <v>189</v>
       </c>
       <c r="DG48" t="n">
-        <v>199.2</v>
+        <v>198.4</v>
+      </c>
+      <c r="DH48" t="n">
+        <v>202.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -15580,12 +15712,15 @@
         <v>1099.1</v>
       </c>
       <c r="DG49" t="n">
-        <v>1123.7</v>
+        <v>1125.9</v>
+      </c>
+      <c r="DH49" t="n">
+        <v>1121.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -15915,12 +16050,15 @@
         <v>114.8</v>
       </c>
       <c r="DG50" t="n">
-        <v>119.4</v>
+        <v>118.5</v>
+      </c>
+      <c r="DH50" t="n">
+        <v>119.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -16250,12 +16388,15 @@
         <v>27.6</v>
       </c>
       <c r="DG51" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
+      </c>
+      <c r="DH51" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -16585,12 +16726,15 @@
         <v>291.6</v>
       </c>
       <c r="DG52" t="n">
-        <v>299.7</v>
+        <v>299.9</v>
+      </c>
+      <c r="DH52" t="n">
+        <v>303.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -16920,12 +17064,15 @@
         <v>227.3</v>
       </c>
       <c r="DG53" t="n">
-        <v>228.6</v>
+        <v>230</v>
+      </c>
+      <c r="DH53" t="n">
+        <v>236.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -17255,12 +17402,15 @@
         <v>55.4</v>
       </c>
       <c r="DG54" t="n">
-        <v>59.5</v>
+        <v>59.7</v>
+      </c>
+      <c r="DH54" t="n">
+        <v>60.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -17591,11 +17741,14 @@
       </c>
       <c r="DG55" t="n">
         <v>194.2</v>
+      </c>
+      <c r="DH55" t="n">
+        <v>195.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -17925,7 +18078,10 @@
         <v>27.1</v>
       </c>
       <c r="DG56" t="n">
-        <v>27.9</v>
+        <v>28</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>28.4</v>
       </c>
     </row>
   </sheetData>
@@ -18240,10 +18396,13 @@
       <c r="CU4" t="s">
         <v>110</v>
       </c>
+      <c r="CV4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -18534,15 +18693,18 @@
         <v>-9.08495543023467</v>
       </c>
       <c r="CT5" t="n">
-        <v>-8.41476604749589</v>
+        <v>-8.17117328944274</v>
       </c>
       <c r="CU5" t="n">
-        <v>-8.93995364334347</v>
+        <v>-8.82949442271475</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-7.10116026105874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -18836,12 +18998,15 @@
         <v>-4.31396045536249</v>
       </c>
       <c r="CU6" t="n">
-        <v>-3.8484310242747</v>
+        <v>-3.19715808170514</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-2.30769230769231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -19135,12 +19300,15 @@
         <v>-9.96563573883162</v>
       </c>
       <c r="CU7" t="n">
-        <v>-9.57095709570958</v>
+        <v>-10.2310231023102</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-10.3333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -19434,12 +19602,15 @@
         <v>-5.8793715154587</v>
       </c>
       <c r="CU8" t="n">
-        <v>-9.06040268456375</v>
+        <v>-8.86864813039308</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>-6.24385447394298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -19734,11 +19905,14 @@
       </c>
       <c r="CU9" t="n">
         <v>-4.54985479186836</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-4.62873674059788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -20032,12 +20206,15 @@
         <v>-13.2196162046908</v>
       </c>
       <c r="CU10" t="n">
-        <v>-13.1949882537197</v>
+        <v>-13.672670321065</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-13.2599255583127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -20331,12 +20508,15 @@
         <v>-9.31081697854862</v>
       </c>
       <c r="CU11" t="n">
-        <v>-9.2254134029591</v>
+        <v>-9.26892950391645</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>-9.11840968020742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -20631,11 +20811,14 @@
       </c>
       <c r="CU12" t="n">
         <v>-4.78431372549019</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>-3.2967032967033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -20929,12 +21112,15 @@
         <v>-4.59770114942527</v>
       </c>
       <c r="CU13" t="n">
-        <v>-4.67032967032968</v>
+        <v>-4.39560439560442</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>-6.13333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -21034,10 +21220,11 @@
       <c r="CS14"/>
       <c r="CT14"/>
       <c r="CU14"/>
+      <c r="CV14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -21331,12 +21518,15 @@
         <v>-9.22358435493286</v>
       </c>
       <c r="CU15" t="n">
-        <v>-9.02990797546013</v>
+        <v>-8.95322085889571</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-8.65809176425417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -21630,12 +21820,15 @@
         <v>-5.57311117494972</v>
       </c>
       <c r="CU16" t="n">
-        <v>-5.97609561752988</v>
+        <v>-5.94763801935116</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>-5.52706552706552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -21735,10 +21928,11 @@
       <c r="CS17"/>
       <c r="CT17"/>
       <c r="CU17"/>
+      <c r="CV17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -22033,11 +22227,14 @@
       </c>
       <c r="CU18" t="n">
         <v>-1.90779014308426</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0.792393026941374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -22331,12 +22528,15 @@
         <v>-9.30127041742287</v>
       </c>
       <c r="CU19" t="n">
-        <v>-7.49668288367978</v>
+        <v>-5.57275541795665</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>-5.54821664464994</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -22630,12 +22830,15 @@
         <v>-9.64532871972319</v>
       </c>
       <c r="CU20" t="n">
-        <v>-7.27272727272727</v>
+        <v>-7.56871035940804</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>-7.26658217152514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -22929,12 +23132,15 @@
         <v>-8.57142857142857</v>
       </c>
       <c r="CU21" t="n">
-        <v>-7.92804796802132</v>
+        <v>-6.79546968687541</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>-6.57370517928287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -23228,12 +23434,15 @@
         <v>-8.93895348837209</v>
       </c>
       <c r="CU22" t="n">
-        <v>-8.28651685393259</v>
+        <v>-8.14606741573035</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>-7.16795502459594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -23527,12 +23736,15 @@
         <v>-11.5527950310559</v>
       </c>
       <c r="CU23" t="n">
-        <v>-8.91566265060242</v>
+        <v>-8.55421686746987</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>-6.66262870987279</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -23826,12 +24038,15 @@
         <v>-5.36423841059602</v>
       </c>
       <c r="CU24" t="n">
-        <v>-5.04201680672268</v>
+        <v>-6.98125404007756</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>-6.42023346303501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -24126,11 +24341,14 @@
       </c>
       <c r="CU25" t="n">
         <v>-7.88461538461537</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>-6.23781676413255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -24425,11 +24643,14 @@
       </c>
       <c r="CU26" t="n">
         <v>-5.57841792409693</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>-3.66681756450881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -24723,12 +24944,15 @@
         <v>-11.3423959218352</v>
       </c>
       <c r="CU27" t="n">
-        <v>-14.2627561269586</v>
+        <v>-13.2985134592206</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>-12.1236451224408</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -25022,12 +25246,15 @@
         <v>-11.7665516159397</v>
       </c>
       <c r="CU28" t="n">
-        <v>-10.6582125603865</v>
+        <v>-11.0809178743961</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>-9.96052232007287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -25322,11 +25549,14 @@
       </c>
       <c r="CU29" t="n">
         <v>-6.09302325581396</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>-7.22947761194029</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -25620,12 +25850,15 @@
         <v>-3.08285163776495</v>
       </c>
       <c r="CU30" t="n">
-        <v>-5.58139534883721</v>
+        <v>-4.83720930232558</v>
+      </c>
+      <c r="CV30" t="n">
+        <v>-4.64684014869889</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -25725,10 +25958,11 @@
       <c r="CS31"/>
       <c r="CT31"/>
       <c r="CU31"/>
+      <c r="CV31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -26022,12 +26256,15 @@
         <v>-8.10810810810811</v>
       </c>
       <c r="CU32" t="n">
-        <v>-5.94713656387666</v>
+        <v>-6.16740088105728</v>
+      </c>
+      <c r="CV32" t="n">
+        <v>-4.18502202643173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -26322,11 +26559,14 @@
       </c>
       <c r="CU33" t="n">
         <v>-6.47181628392485</v>
+      </c>
+      <c r="CV33" t="n">
+        <v>-6.04796663190825</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -26620,12 +26860,15 @@
         <v>-1.83727034120736</v>
       </c>
       <c r="CU34" t="n">
-        <v>-5.39877300613498</v>
+        <v>-5.88957055214724</v>
+      </c>
+      <c r="CV34" t="n">
+        <v>-5.71081409477523</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -26919,12 +27162,15 @@
         <v>-7.58928571428571</v>
       </c>
       <c r="CU35" t="n">
-        <v>-5.87044534412955</v>
+        <v>-6.2753036437247</v>
+      </c>
+      <c r="CV35" t="n">
+        <v>-2.69151138716356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -27218,12 +27464,15 @@
         <v>-8.1824062095731</v>
       </c>
       <c r="CU36" t="n">
-        <v>-8.9751552795031</v>
+        <v>-9.44099378881987</v>
+      </c>
+      <c r="CV36" t="n">
+        <v>-8.52785558667913</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -27517,12 +27766,15 @@
         <v>-10.3217158176944</v>
       </c>
       <c r="CU37" t="n">
-        <v>-10.6060606060606</v>
+        <v>-10.7323232323232</v>
+      </c>
+      <c r="CV37" t="n">
+        <v>-10.125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -27816,12 +28068,15 @@
         <v>-3.89510811225272</v>
       </c>
       <c r="CU38" t="n">
-        <v>-4.27135678391961</v>
+        <v>-4.21223765888265</v>
+      </c>
+      <c r="CV38" t="n">
+        <v>-3.21344339622644</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -28115,12 +28370,15 @@
         <v>-9.82867448151489</v>
       </c>
       <c r="CU39" t="n">
-        <v>-9.89075878358429</v>
+        <v>-9.97933274284027</v>
+      </c>
+      <c r="CV39" t="n">
+        <v>-9.59105619299793</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -28414,12 +28672,15 @@
         <v>-3.2345013477089</v>
       </c>
       <c r="CU40" t="n">
-        <v>-3.84615384615385</v>
+        <v>-4.61538461538461</v>
+      </c>
+      <c r="CV40" t="n">
+        <v>-4.81012658227848</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -28713,12 +28974,15 @@
         <v>-11.0718789407314</v>
       </c>
       <c r="CU41" t="n">
-        <v>-9.39694841365947</v>
+        <v>-9.92976507628966</v>
+      </c>
+      <c r="CV41" t="n">
+        <v>-7.65468329664955</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -29012,12 +29276,15 @@
         <v>-6.80083275503122</v>
       </c>
       <c r="CU42" t="n">
-        <v>-7.1994715984148</v>
+        <v>-6.14266842800529</v>
+      </c>
+      <c r="CV42" t="n">
+        <v>-5.10948905109488</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -29312,11 +29579,14 @@
       </c>
       <c r="CU43" t="n">
         <v>-14.9859943977591</v>
+      </c>
+      <c r="CV43" t="n">
+        <v>-14.0864714086471</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -29610,12 +29880,15 @@
         <v>-8.85999395222256</v>
       </c>
       <c r="CU44" t="n">
-        <v>-8.85598141695701</v>
+        <v>-8.85598141695703</v>
+      </c>
+      <c r="CV44" t="n">
+        <v>-7.1033478893741</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -29910,11 +30183,14 @@
       </c>
       <c r="CU45" t="n">
         <v>-10.7843137254902</v>
+      </c>
+      <c r="CV45" t="n">
+        <v>-10.7491856677524</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -30208,12 +30484,15 @@
         <v>-6.67483159828537</v>
       </c>
       <c r="CU46" t="n">
-        <v>-8.00240673886882</v>
+        <v>-5.47533092659446</v>
+      </c>
+      <c r="CV46" t="n">
+        <v>-4.92788461538461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -30507,12 +30786,15 @@
         <v>-3.85674931129476</v>
       </c>
       <c r="CU47" t="n">
-        <v>-4.21052631578948</v>
+        <v>-4.73684210526315</v>
+      </c>
+      <c r="CV47" t="n">
+        <v>-4.48548812664907</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -30806,12 +31088,15 @@
         <v>-5.26315789473684</v>
       </c>
       <c r="CU48" t="n">
-        <v>-5.05243088655862</v>
+        <v>-5.43374642516683</v>
+      </c>
+      <c r="CV48" t="n">
+        <v>-3.48448687350836</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -31105,12 +31390,15 @@
         <v>-3.3673289959557</v>
       </c>
       <c r="CU49" t="n">
-        <v>-3.51193542847328</v>
+        <v>-3.32302936630601</v>
+      </c>
+      <c r="CV49" t="n">
+        <v>-3.84879135950625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -31404,12 +31692,15 @@
         <v>-8.30670926517572</v>
       </c>
       <c r="CU50" t="n">
-        <v>-6.64581704456607</v>
+        <v>-7.3494917904613</v>
+      </c>
+      <c r="CV50" t="n">
+        <v>-6.77570093457945</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -31703,12 +31994,15 @@
         <v>-12.6582278481013</v>
       </c>
       <c r="CU51" t="n">
-        <v>-9.82142857142859</v>
+        <v>-11.0119047619048</v>
+      </c>
+      <c r="CV51" t="n">
+        <v>-8.58895705521473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -32002,12 +32296,15 @@
         <v>-7.89639924194567</v>
       </c>
       <c r="CU52" t="n">
-        <v>-8.68372943327238</v>
+        <v>-8.62279098110908</v>
+      </c>
+      <c r="CV52" t="n">
+        <v>-7.4367570862542</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -32301,12 +32598,15 @@
         <v>-15.1232262882748</v>
       </c>
       <c r="CU53" t="n">
-        <v>-15.2391546162403</v>
+        <v>-14.7200593251761</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>-12.3145400593472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -32600,12 +32900,15 @@
         <v>-12.202852614897</v>
       </c>
       <c r="CU54" t="n">
-        <v>-8.32049306625579</v>
+        <v>-8.01232665639446</v>
+      </c>
+      <c r="CV54" t="n">
+        <v>-7.36196319018406</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -32900,11 +33203,14 @@
       </c>
       <c r="CU55" t="n">
         <v>-11.4051094890511</v>
+      </c>
+      <c r="CV55" t="n">
+        <v>-10.7159142726858</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -33198,7 +33504,10 @@
         <v>-7.19178082191781</v>
       </c>
       <c r="CU56" t="n">
-        <v>-7.92079207920793</v>
+        <v>-7.59075907590759</v>
+      </c>
+      <c r="CV56" t="n">
+        <v>-6.88524590163935</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t xml:space="preserve">03/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1173,10 +1176,13 @@
       <c r="DH4" t="s">
         <v>111</v>
       </c>
+      <c r="DI4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1506,15 +1512,18 @@
         <v>9763.7</v>
       </c>
       <c r="DG5" t="n">
-        <v>10069.6</v>
+        <v>10067.5</v>
       </c>
       <c r="DH5" t="n">
-        <v>10248.6</v>
+        <v>10165.8</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>10207.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1847,12 +1856,15 @@
         <v>163.5</v>
       </c>
       <c r="DH6" t="n">
-        <v>165.1</v>
+        <v>164.9</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>165.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2185,12 +2197,15 @@
         <v>27.2</v>
       </c>
       <c r="DH7" t="n">
-        <v>26.9</v>
+        <v>27</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2523,12 +2538,15 @@
         <v>190.1</v>
       </c>
       <c r="DH8" t="n">
-        <v>190.7</v>
+        <v>190.8</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>191.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2862,11 +2880,14 @@
       </c>
       <c r="DH9" t="n">
         <v>98.9</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3200,11 +3221,14 @@
       </c>
       <c r="DH10" t="n">
         <v>1118.6</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>1124.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3537,12 +3561,15 @@
         <v>208.5</v>
       </c>
       <c r="DH11" t="n">
-        <v>210.3</v>
+        <v>211.6</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3876,11 +3903,14 @@
       </c>
       <c r="DH12" t="n">
         <v>123.2</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>123.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4214,11 +4244,14 @@
       </c>
       <c r="DH13" t="n">
         <v>35.2</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4331,10 +4364,11 @@
       <c r="DF14"/>
       <c r="DG14"/>
       <c r="DH14"/>
+      <c r="DI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4667,12 +4701,15 @@
         <v>474.9</v>
       </c>
       <c r="DH15" t="n">
-        <v>475.8</v>
+        <v>475.6</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>471.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5005,12 +5042,15 @@
         <v>330.5</v>
       </c>
       <c r="DH16" t="n">
-        <v>331.6</v>
+        <v>331.5</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5123,10 +5163,11 @@
       <c r="DF17"/>
       <c r="DG17"/>
       <c r="DH17"/>
+      <c r="DI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5460,11 +5501,14 @@
       </c>
       <c r="DH18" t="n">
         <v>62.6</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5798,11 +5842,14 @@
       </c>
       <c r="DH19" t="n">
         <v>429</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>432.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6135,12 +6182,15 @@
         <v>218.6</v>
       </c>
       <c r="DH20" t="n">
-        <v>219.5</v>
+        <v>220.5</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6474,11 +6524,14 @@
       </c>
       <c r="DH21" t="n">
         <v>140.7</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>141.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6811,12 +6864,15 @@
         <v>130.8</v>
       </c>
       <c r="DH22" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="DI22" t="n">
         <v>132.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7149,12 +7205,15 @@
         <v>151.8</v>
       </c>
       <c r="DH23" t="n">
-        <v>154.1</v>
+        <v>154.2</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>156.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7487,12 +7546,15 @@
         <v>143.9</v>
       </c>
       <c r="DH24" t="n">
-        <v>144.3</v>
+        <v>144</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>143.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7825,12 +7887,15 @@
         <v>47.9</v>
       </c>
       <c r="DH25" t="n">
-        <v>48.1</v>
+        <v>49</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8164,11 +8229,14 @@
       </c>
       <c r="DH26" t="n">
         <v>212.8</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8501,12 +8569,15 @@
         <v>215.8</v>
       </c>
       <c r="DH27" t="n">
-        <v>218.9</v>
+        <v>219.3</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8839,12 +8910,15 @@
         <v>294.5</v>
       </c>
       <c r="DH28" t="n">
-        <v>296.5</v>
+        <v>296.7</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>296.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9177,12 +9251,15 @@
         <v>201.9</v>
       </c>
       <c r="DH29" t="n">
-        <v>198.9</v>
+        <v>200</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>201.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9515,12 +9592,15 @@
         <v>102.3</v>
       </c>
       <c r="DH30" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="DI30" t="n">
         <v>102.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9633,10 +9713,11 @@
       <c r="DF31"/>
       <c r="DG31"/>
       <c r="DH31"/>
+      <c r="DI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -9969,12 +10050,15 @@
         <v>42.6</v>
       </c>
       <c r="DH32" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
+      </c>
+      <c r="DI32" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10307,12 +10391,15 @@
         <v>89.6</v>
       </c>
       <c r="DH33" t="n">
-        <v>90.1</v>
+        <v>90.2</v>
+      </c>
+      <c r="DI33" t="n">
+        <v>90.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10645,12 +10732,15 @@
         <v>76.7</v>
       </c>
       <c r="DH34" t="n">
-        <v>77.6</v>
+        <v>77.3</v>
+      </c>
+      <c r="DI34" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -10983,12 +11073,15 @@
         <v>46.3</v>
       </c>
       <c r="DH35" t="n">
-        <v>47</v>
+        <v>46.5</v>
+      </c>
+      <c r="DI35" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11322,11 +11415,14 @@
       </c>
       <c r="DH36" t="n">
         <v>293.9</v>
+      </c>
+      <c r="DI36" t="n">
+        <v>295.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11659,12 +11755,15 @@
         <v>70.7</v>
       </c>
       <c r="DH37" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="DI37" t="n">
         <v>71.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -11997,12 +12096,15 @@
         <v>648.1</v>
       </c>
       <c r="DH38" t="n">
-        <v>656.6</v>
+        <v>656.9</v>
+      </c>
+      <c r="DI38" t="n">
+        <v>655.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12335,12 +12437,15 @@
         <v>304.9</v>
       </c>
       <c r="DH39" t="n">
-        <v>307.3</v>
+        <v>307.7</v>
+      </c>
+      <c r="DI39" t="n">
+        <v>307.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12673,12 +12778,15 @@
         <v>37.2</v>
       </c>
       <c r="DH40" t="n">
-        <v>37.6</v>
+        <v>37.1</v>
+      </c>
+      <c r="DI40" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13012,11 +13120,14 @@
       </c>
       <c r="DH41" t="n">
         <v>377.6</v>
+      </c>
+      <c r="DI41" t="n">
+        <v>376.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13349,12 +13460,15 @@
         <v>142.1</v>
       </c>
       <c r="DH42" t="n">
-        <v>143</v>
+        <v>142.7</v>
+      </c>
+      <c r="DI42" t="n">
+        <v>142.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -13687,12 +13801,15 @@
         <v>121.4</v>
       </c>
       <c r="DH43" t="n">
-        <v>123.2</v>
+        <v>122.9</v>
+      </c>
+      <c r="DI43" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14026,11 +14143,14 @@
       </c>
       <c r="DH44" t="n">
         <v>319.1</v>
+      </c>
+      <c r="DI44" t="n">
+        <v>320.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14364,11 +14484,14 @@
       </c>
       <c r="DH45" t="n">
         <v>27.4</v>
+      </c>
+      <c r="DI45" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -14702,11 +14825,14 @@
       </c>
       <c r="DH46" t="n">
         <v>158.2</v>
+      </c>
+      <c r="DI46" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15039,12 +15165,15 @@
         <v>36.2</v>
       </c>
       <c r="DH47" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
+      </c>
+      <c r="DI47" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -15377,12 +15506,15 @@
         <v>198.4</v>
       </c>
       <c r="DH48" t="n">
-        <v>202.2</v>
+        <v>200.8</v>
+      </c>
+      <c r="DI48" t="n">
+        <v>201.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -15715,12 +15847,15 @@
         <v>1125.9</v>
       </c>
       <c r="DH49" t="n">
-        <v>1121.7</v>
+        <v>1125.8</v>
+      </c>
+      <c r="DI49" t="n">
+        <v>1123.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16053,12 +16188,15 @@
         <v>118.5</v>
       </c>
       <c r="DH50" t="n">
-        <v>119.7</v>
+        <v>119.3</v>
+      </c>
+      <c r="DI50" t="n">
+        <v>119.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -16392,11 +16530,14 @@
       </c>
       <c r="DH51" t="n">
         <v>29.8</v>
+      </c>
+      <c r="DI51" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -16729,12 +16870,15 @@
         <v>299.9</v>
       </c>
       <c r="DH52" t="n">
-        <v>303.7</v>
+        <v>304.7</v>
+      </c>
+      <c r="DI52" t="n">
+        <v>306</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17067,12 +17211,15 @@
         <v>230</v>
       </c>
       <c r="DH53" t="n">
-        <v>236.4</v>
+        <v>234.3</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>238.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -17405,12 +17552,15 @@
         <v>59.7</v>
       </c>
       <c r="DH54" t="n">
-        <v>60.4</v>
+        <v>60.7</v>
+      </c>
+      <c r="DI54" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -17744,11 +17894,14 @@
       </c>
       <c r="DH55" t="n">
         <v>195.8</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>196.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -18082,6 +18235,9 @@
       </c>
       <c r="DH56" t="n">
         <v>28.4</v>
+      </c>
+      <c r="DI56" t="n">
+        <v>28.3</v>
       </c>
     </row>
   </sheetData>
@@ -18399,10 +18555,13 @@
       <c r="CV4" t="s">
         <v>111</v>
       </c>
+      <c r="CW4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -18696,15 +18855,18 @@
         <v>-8.17117328944274</v>
       </c>
       <c r="CU5" t="n">
-        <v>-8.82949442271475</v>
+        <v>-8.84850789511806</v>
       </c>
       <c r="CV5" t="n">
-        <v>-7.10116026105874</v>
+        <v>-7.85170413343003</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-2.17264215136616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19001,12 +19163,15 @@
         <v>-3.19715808170514</v>
       </c>
       <c r="CV6" t="n">
-        <v>-2.30769230769231</v>
+        <v>-2.42603550295859</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.913520097442144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -19303,12 +19468,15 @@
         <v>-10.2310231023102</v>
       </c>
       <c r="CV7" t="n">
-        <v>-10.3333333333333</v>
+        <v>-10</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>2.64150943396227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -19605,12 +19773,15 @@
         <v>-8.86864813039308</v>
       </c>
       <c r="CV8" t="n">
-        <v>-6.24385447394298</v>
+        <v>-6.19469026548672</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-2.9367088607595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -19908,11 +20079,14 @@
       </c>
       <c r="CV9" t="n">
         <v>-4.62873674059788</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.607902735562304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -20210,11 +20384,14 @@
       </c>
       <c r="CV10" t="n">
         <v>-13.2599255583127</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-9.09237856623293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -20511,12 +20688,15 @@
         <v>-9.26892950391645</v>
       </c>
       <c r="CV11" t="n">
-        <v>-9.11840968020742</v>
+        <v>-8.55661192739844</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-4.97534737785747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -20814,11 +20994,14 @@
       </c>
       <c r="CV12" t="n">
         <v>-3.2967032967033</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>3.87531592249369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -21116,11 +21299,14 @@
       </c>
       <c r="CV13" t="n">
         <v>-6.13333333333333</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>-0.282485875706219</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -21221,10 +21407,11 @@
       <c r="CT14"/>
       <c r="CU14"/>
       <c r="CV14"/>
+      <c r="CW14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -21521,12 +21708,15 @@
         <v>-8.95322085889571</v>
       </c>
       <c r="CV15" t="n">
-        <v>-8.65809176425417</v>
+        <v>-8.69648684968324</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-5.83533173461231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -21823,12 +22013,15 @@
         <v>-5.94763801935116</v>
       </c>
       <c r="CV16" t="n">
-        <v>-5.52706552706552</v>
+        <v>-5.55555555555556</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>-2.09377764671189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -21929,10 +22122,11 @@
       <c r="CT17"/>
       <c r="CU17"/>
       <c r="CV17"/>
+      <c r="CW17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -22230,11 +22424,14 @@
       </c>
       <c r="CV18" t="n">
         <v>-0.792393026941374</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>5.30821917808219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -22532,11 +22729,14 @@
       </c>
       <c r="CV19" t="n">
         <v>-5.54821664464994</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0.981079187105814</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -22833,12 +23033,15 @@
         <v>-7.56871035940804</v>
       </c>
       <c r="CV20" t="n">
-        <v>-7.26658217152514</v>
+        <v>-6.84410646387833</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0.828729281767948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -23136,11 +23339,14 @@
       </c>
       <c r="CV21" t="n">
         <v>-6.57370517928287</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0.212615166548555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -23438,11 +23644,14 @@
       </c>
       <c r="CV22" t="n">
         <v>-7.16795502459594</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>-3.64697301239971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -23739,12 +23948,15 @@
         <v>-8.55421686746987</v>
       </c>
       <c r="CV23" t="n">
-        <v>-6.66262870987279</v>
+        <v>-6.60205935796487</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>1.09748224661071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -24041,12 +24253,15 @@
         <v>-6.98125404007756</v>
       </c>
       <c r="CV24" t="n">
-        <v>-6.42023346303501</v>
+        <v>-6.61478599221789</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>-2.37610319076714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -24343,12 +24558,15 @@
         <v>-7.88461538461537</v>
       </c>
       <c r="CV25" t="n">
-        <v>-6.23781676413255</v>
+        <v>-4.48343079922027</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0.83333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -24646,11 +24864,14 @@
       </c>
       <c r="CV26" t="n">
         <v>-3.66681756450881</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>1.81644359464628</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -24947,12 +25168,15 @@
         <v>-13.2985134592206</v>
       </c>
       <c r="CV27" t="n">
-        <v>-12.1236451224408</v>
+        <v>-11.9630670413489</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>-3.07017543859649</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -25249,12 +25473,15 @@
         <v>-11.0809178743961</v>
       </c>
       <c r="CV28" t="n">
-        <v>-9.96052232007287</v>
+        <v>-9.89978742787731</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>-3.515625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -25551,12 +25778,15 @@
         <v>-6.09302325581396</v>
       </c>
       <c r="CV29" t="n">
-        <v>-7.22947761194029</v>
+        <v>-6.71641791044775</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>0.298062593144558</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -25853,12 +26083,15 @@
         <v>-4.83720930232558</v>
       </c>
       <c r="CV30" t="n">
-        <v>-4.64684014869889</v>
+        <v>-4.5539033457249</v>
+      </c>
+      <c r="CW30" t="n">
+        <v>5.55555555555558</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -25959,10 +26192,11 @@
       <c r="CT31"/>
       <c r="CU31"/>
       <c r="CV31"/>
+      <c r="CW31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -26259,12 +26493,15 @@
         <v>-6.16740088105728</v>
       </c>
       <c r="CV32" t="n">
-        <v>-4.18502202643173</v>
+        <v>-4.62555066079297</v>
+      </c>
+      <c r="CW32" t="n">
+        <v>0.235294117647062</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -26561,12 +26798,15 @@
         <v>-6.47181628392485</v>
       </c>
       <c r="CV33" t="n">
-        <v>-6.04796663190825</v>
+        <v>-5.94369134515122</v>
+      </c>
+      <c r="CW33" t="n">
+        <v>0.110375275938199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -26863,12 +27103,15 @@
         <v>-5.88957055214724</v>
       </c>
       <c r="CV34" t="n">
-        <v>-5.71081409477523</v>
+        <v>-6.0753341433779</v>
+      </c>
+      <c r="CW34" t="n">
+        <v>2.11360634081901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -27165,12 +27408,15 @@
         <v>-6.2753036437247</v>
       </c>
       <c r="CV35" t="n">
-        <v>-2.69151138716356</v>
+        <v>-3.72670807453416</v>
+      </c>
+      <c r="CW35" t="n">
+        <v>4.04494382022471</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -27468,11 +27714,14 @@
       </c>
       <c r="CV36" t="n">
         <v>-8.52785558667913</v>
+      </c>
+      <c r="CW36" t="n">
+        <v>-2.5090789039287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -27769,12 +28018,15 @@
         <v>-10.7323232323232</v>
       </c>
       <c r="CV37" t="n">
-        <v>-10.125</v>
+        <v>-10.25</v>
+      </c>
+      <c r="CW37" t="n">
+        <v>-5.89005235602094</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -28071,12 +28323,15 @@
         <v>-4.21223765888265</v>
       </c>
       <c r="CV38" t="n">
-        <v>-3.21344339622644</v>
+        <v>-3.16922169811322</v>
+      </c>
+      <c r="CW38" t="n">
+        <v>2.82175889637874</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -28373,12 +28628,15 @@
         <v>-9.97933274284027</v>
       </c>
       <c r="CV39" t="n">
-        <v>-9.59105619299793</v>
+        <v>-9.47337452191821</v>
+      </c>
+      <c r="CW39" t="n">
+        <v>-6.27283800243604</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -28675,12 +28933,15 @@
         <v>-4.61538461538461</v>
       </c>
       <c r="CV40" t="n">
-        <v>-4.81012658227848</v>
+        <v>-6.0759493670886</v>
+      </c>
+      <c r="CW40" t="n">
+        <v>8.30860534124628</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -28977,12 +29238,15 @@
         <v>-9.92976507628966</v>
       </c>
       <c r="CV41" t="n">
-        <v>-7.65468329664955</v>
+        <v>-7.65468329664954</v>
+      </c>
+      <c r="CW41" t="n">
+        <v>-2.53491981376101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -29279,12 +29543,15 @@
         <v>-6.14266842800529</v>
       </c>
       <c r="CV42" t="n">
-        <v>-5.10948905109488</v>
+        <v>-5.3085600530856</v>
+      </c>
+      <c r="CW42" t="n">
+        <v>-2.12912087912088</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -29581,12 +29848,15 @@
         <v>-14.9859943977591</v>
       </c>
       <c r="CV43" t="n">
-        <v>-14.0864714086471</v>
+        <v>-14.2956764295676</v>
+      </c>
+      <c r="CW43" t="n">
+        <v>-6.57698056801197</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -29883,12 +30153,15 @@
         <v>-8.85598141695703</v>
       </c>
       <c r="CV44" t="n">
-        <v>-7.1033478893741</v>
+        <v>-7.10334788937408</v>
+      </c>
+      <c r="CW44" t="n">
+        <v>-1.99020208205758</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -30186,11 +30459,14 @@
       </c>
       <c r="CV45" t="n">
         <v>-10.7491856677524</v>
+      </c>
+      <c r="CW45" t="n">
+        <v>-3.53356890459364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -30488,11 +30764,14 @@
       </c>
       <c r="CV46" t="n">
         <v>-4.92788461538461</v>
+      </c>
+      <c r="CW46" t="n">
+        <v>-0.315457413249211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -30789,12 +31068,15 @@
         <v>-4.73684210526315</v>
       </c>
       <c r="CV47" t="n">
-        <v>-4.48548812664907</v>
+        <v>-3.95778364116095</v>
+      </c>
+      <c r="CW47" t="n">
+        <v>7.05882352941178</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -31091,12 +31373,15 @@
         <v>-5.43374642516683</v>
       </c>
       <c r="CV48" t="n">
-        <v>-3.48448687350836</v>
+        <v>-4.15274463007159</v>
+      </c>
+      <c r="CW48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -31393,12 +31678,15 @@
         <v>-3.32302936630601</v>
       </c>
       <c r="CV49" t="n">
-        <v>-3.84879135950625</v>
+        <v>-3.49734270529744</v>
+      </c>
+      <c r="CW49" t="n">
+        <v>0.924928160919557</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -31695,12 +31983,15 @@
         <v>-7.3494917904613</v>
       </c>
       <c r="CV50" t="n">
-        <v>-6.77570093457945</v>
+        <v>-7.08722741433021</v>
+      </c>
+      <c r="CW50" t="n">
+        <v>-0.665557404326121</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -31998,11 +32289,14 @@
       </c>
       <c r="CV51" t="n">
         <v>-8.58895705521473</v>
+      </c>
+      <c r="CW51" t="n">
+        <v>-0.337837837837831</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -32299,12 +32593,15 @@
         <v>-8.62279098110908</v>
       </c>
       <c r="CV52" t="n">
-        <v>-7.4367570862542</v>
+        <v>-7.13197195976837</v>
+      </c>
+      <c r="CW52" t="n">
+        <v>-3.13390313390313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -32601,12 +32898,15 @@
         <v>-14.7200593251761</v>
       </c>
       <c r="CV53" t="n">
-        <v>-12.3145400593472</v>
+        <v>-13.093471810089</v>
+      </c>
+      <c r="CW53" t="n">
+        <v>-4.97215592680988</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -32903,12 +33203,15 @@
         <v>-8.01232665639446</v>
       </c>
       <c r="CV54" t="n">
-        <v>-7.36196319018406</v>
+        <v>-6.90184049079755</v>
+      </c>
+      <c r="CW54" t="n">
+        <v>6.26086956521739</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -33206,11 +33509,14 @@
       </c>
       <c r="CV55" t="n">
         <v>-10.7159142726858</v>
+      </c>
+      <c r="CW55" t="n">
+        <v>1.34366925064599</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -33508,6 +33814,9 @@
       </c>
       <c r="CV56" t="n">
         <v>-6.88524590163935</v>
+      </c>
+      <c r="CW56" t="n">
+        <v>-2.07612456747407</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1179,10 +1182,13 @@
       <c r="DI4" t="s">
         <v>112</v>
       </c>
+      <c r="DJ4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1515,15 +1521,18 @@
         <v>10067.5</v>
       </c>
       <c r="DH5" t="n">
-        <v>10165.8</v>
+        <v>10166.3</v>
       </c>
       <c r="DI5" t="n">
-        <v>10207.6</v>
+        <v>10213.2</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>10130.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1859,12 +1868,15 @@
         <v>164.9</v>
       </c>
       <c r="DI6" t="n">
-        <v>165.7</v>
+        <v>165.6</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2201,11 +2213,14 @@
       </c>
       <c r="DI7" t="n">
         <v>27.2</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2541,12 +2556,15 @@
         <v>190.8</v>
       </c>
       <c r="DI8" t="n">
-        <v>191.7</v>
+        <v>191.6</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>184.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2883,11 +2901,14 @@
       </c>
       <c r="DI9" t="n">
         <v>99.3</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>98.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3223,12 +3244,15 @@
         <v>1118.6</v>
       </c>
       <c r="DI10" t="n">
-        <v>1124.8</v>
+        <v>1121.2</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>1132.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3564,12 +3588,15 @@
         <v>211.6</v>
       </c>
       <c r="DI11" t="n">
-        <v>212</v>
+        <v>212.5</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>215.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3905,12 +3932,15 @@
         <v>123.2</v>
       </c>
       <c r="DI12" t="n">
-        <v>123.3</v>
+        <v>123.1</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>119.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4247,11 +4277,14 @@
       </c>
       <c r="DI13" t="n">
         <v>35.3</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4365,10 +4398,11 @@
       <c r="DG14"/>
       <c r="DH14"/>
       <c r="DI14"/>
+      <c r="DJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4704,12 +4738,15 @@
         <v>475.6</v>
       </c>
       <c r="DI15" t="n">
-        <v>471.2</v>
+        <v>471.4</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>466.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5046,11 +5083,14 @@
       </c>
       <c r="DI16" t="n">
         <v>332</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>329.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5164,10 +5204,11 @@
       <c r="DG17"/>
       <c r="DH17"/>
       <c r="DI17"/>
+      <c r="DJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5503,12 +5544,15 @@
         <v>62.6</v>
       </c>
       <c r="DI18" t="n">
-        <v>61.5</v>
+        <v>62.3</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>61.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5845,11 +5889,14 @@
       </c>
       <c r="DI19" t="n">
         <v>432.3</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>419.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6185,12 +6232,15 @@
         <v>220.5</v>
       </c>
       <c r="DI20" t="n">
-        <v>219</v>
+        <v>218.4</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>214.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6526,12 +6576,15 @@
         <v>140.7</v>
       </c>
       <c r="DI21" t="n">
-        <v>141.4</v>
+        <v>141</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>140.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6868,11 +6921,14 @@
       </c>
       <c r="DI22" t="n">
         <v>132.1</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7208,12 +7264,15 @@
         <v>154.2</v>
       </c>
       <c r="DI23" t="n">
-        <v>156.6</v>
+        <v>156.5</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>153.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7549,12 +7608,15 @@
         <v>144</v>
       </c>
       <c r="DI24" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="DJ24" t="n">
         <v>143.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7891,11 +7953,14 @@
       </c>
       <c r="DI25" t="n">
         <v>48.4</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>47.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8231,12 +8296,15 @@
         <v>212.8</v>
       </c>
       <c r="DI26" t="n">
-        <v>213</v>
+        <v>213.1</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>212.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8572,12 +8640,15 @@
         <v>219.3</v>
       </c>
       <c r="DI27" t="n">
-        <v>221</v>
+        <v>223.6</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>224.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8913,12 +8984,15 @@
         <v>296.7</v>
       </c>
       <c r="DI28" t="n">
-        <v>296.4</v>
+        <v>295.4</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>276.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9254,12 +9328,15 @@
         <v>200</v>
       </c>
       <c r="DI29" t="n">
-        <v>201.9</v>
+        <v>201.8</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>196.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9596,11 +9673,14 @@
       </c>
       <c r="DI30" t="n">
         <v>102.6</v>
+      </c>
+      <c r="DJ30" t="n">
+        <v>99.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9714,10 +9794,11 @@
       <c r="DG31"/>
       <c r="DH31"/>
       <c r="DI31"/>
+      <c r="DJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10053,12 +10134,15 @@
         <v>43.3</v>
       </c>
       <c r="DI32" t="n">
-        <v>42.6</v>
+        <v>43.3</v>
+      </c>
+      <c r="DJ32" t="n">
+        <v>42.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10395,11 +10479,14 @@
       </c>
       <c r="DI33" t="n">
         <v>90.7</v>
+      </c>
+      <c r="DJ33" t="n">
+        <v>91.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10735,12 +10822,15 @@
         <v>77.3</v>
       </c>
       <c r="DI34" t="n">
-        <v>77.3</v>
+        <v>77.1</v>
+      </c>
+      <c r="DJ34" t="n">
+        <v>77.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11077,11 +11167,14 @@
       </c>
       <c r="DI35" t="n">
         <v>46.3</v>
+      </c>
+      <c r="DJ35" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11418,11 +11511,14 @@
       </c>
       <c r="DI36" t="n">
         <v>295.3</v>
+      </c>
+      <c r="DJ36" t="n">
+        <v>293.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11758,12 +11854,15 @@
         <v>71.8</v>
       </c>
       <c r="DI37" t="n">
-        <v>71.9</v>
+        <v>72.2</v>
+      </c>
+      <c r="DJ37" t="n">
+        <v>72.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12099,12 +12198,15 @@
         <v>656.9</v>
       </c>
       <c r="DI38" t="n">
-        <v>655.9</v>
+        <v>655.5</v>
+      </c>
+      <c r="DJ38" t="n">
+        <v>663.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12441,11 +12543,14 @@
       </c>
       <c r="DI39" t="n">
         <v>307.8</v>
+      </c>
+      <c r="DJ39" t="n">
+        <v>301.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12781,12 +12886,15 @@
         <v>37.1</v>
       </c>
       <c r="DI40" t="n">
-        <v>36.5</v>
+        <v>37.3</v>
+      </c>
+      <c r="DJ40" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13122,12 +13230,15 @@
         <v>377.6</v>
       </c>
       <c r="DI41" t="n">
-        <v>376.8</v>
+        <v>377</v>
+      </c>
+      <c r="DJ41" t="n">
+        <v>366.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13463,12 +13574,15 @@
         <v>142.7</v>
       </c>
       <c r="DI42" t="n">
-        <v>142.5</v>
+        <v>143.4</v>
+      </c>
+      <c r="DJ42" t="n">
+        <v>144.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -13805,11 +13919,14 @@
       </c>
       <c r="DI43" t="n">
         <v>125</v>
+      </c>
+      <c r="DJ43" t="n">
+        <v>125.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14146,11 +14263,14 @@
       </c>
       <c r="DI44" t="n">
         <v>320.1</v>
+      </c>
+      <c r="DJ44" t="n">
+        <v>318.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14487,11 +14607,14 @@
       </c>
       <c r="DI45" t="n">
         <v>27.3</v>
+      </c>
+      <c r="DJ45" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -14828,11 +14951,14 @@
       </c>
       <c r="DI46" t="n">
         <v>158</v>
+      </c>
+      <c r="DJ46" t="n">
+        <v>153.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15169,11 +15295,14 @@
       </c>
       <c r="DI47" t="n">
         <v>36.4</v>
+      </c>
+      <c r="DJ47" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -15509,12 +15638,15 @@
         <v>200.8</v>
       </c>
       <c r="DI48" t="n">
-        <v>201.3</v>
+        <v>201.1</v>
+      </c>
+      <c r="DJ48" t="n">
+        <v>195.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -15850,12 +15982,15 @@
         <v>1125.8</v>
       </c>
       <c r="DI49" t="n">
-        <v>1123.9</v>
+        <v>1123.6</v>
+      </c>
+      <c r="DJ49" t="n">
+        <v>1120.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16191,12 +16326,15 @@
         <v>119.3</v>
       </c>
       <c r="DI50" t="n">
-        <v>119.4</v>
+        <v>119.5</v>
+      </c>
+      <c r="DJ50" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -16533,11 +16671,14 @@
       </c>
       <c r="DI51" t="n">
         <v>29.5</v>
+      </c>
+      <c r="DJ51" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -16874,11 +17015,14 @@
       </c>
       <c r="DI52" t="n">
         <v>306</v>
+      </c>
+      <c r="DJ52" t="n">
+        <v>295.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17214,12 +17358,15 @@
         <v>234.3</v>
       </c>
       <c r="DI53" t="n">
-        <v>238.9</v>
+        <v>240.7</v>
+      </c>
+      <c r="DJ53" t="n">
+        <v>243.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -17556,11 +17703,14 @@
       </c>
       <c r="DI54" t="n">
         <v>61.1</v>
+      </c>
+      <c r="DJ54" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -17896,12 +18046,15 @@
         <v>195.8</v>
       </c>
       <c r="DI55" t="n">
-        <v>196.1</v>
+        <v>196.2</v>
+      </c>
+      <c r="DJ55" t="n">
+        <v>193.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -18237,7 +18390,10 @@
         <v>28.4</v>
       </c>
       <c r="DI56" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
+      </c>
+      <c r="DJ56" t="n">
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>
@@ -18558,10 +18714,13 @@
       <c r="CW4" t="s">
         <v>112</v>
       </c>
+      <c r="CX4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -18858,15 +19017,18 @@
         <v>-8.84850789511806</v>
       </c>
       <c r="CV5" t="n">
-        <v>-7.85170413343003</v>
+        <v>-7.84717186366933</v>
       </c>
       <c r="CW5" t="n">
-        <v>-2.17264215136616</v>
+        <v>-2.11897300250135</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>2.04283095271673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19166,12 +19328,15 @@
         <v>-2.42603550295859</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.913520097442144</v>
+        <v>0.852618757612671</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>6.36900853578463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -19472,11 +19637,14 @@
       </c>
       <c r="CW7" t="n">
         <v>2.64150943396227</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>6.9672131147541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -19776,12 +19944,15 @@
         <v>-6.19469026548672</v>
       </c>
       <c r="CW8" t="n">
-        <v>-2.9367088607595</v>
+        <v>-2.9873417721519</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-3.04621848739496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -20082,11 +20253,14 @@
       </c>
       <c r="CW9" t="n">
         <v>0.607902735562304</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>3.48101265822783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -20386,12 +20560,15 @@
         <v>-13.2599255583127</v>
       </c>
       <c r="CW10" t="n">
-        <v>-9.09237856623293</v>
+        <v>-9.38333468035237</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-2.86400274395473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -20691,12 +20868,15 @@
         <v>-8.55661192739844</v>
       </c>
       <c r="CW11" t="n">
-        <v>-4.97534737785747</v>
+        <v>-4.75123263110714</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-1.95721438324988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -20996,12 +21176,15 @@
         <v>-3.2967032967033</v>
       </c>
       <c r="CW12" t="n">
-        <v>3.87531592249369</v>
+        <v>3.70682392586353</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>4.177545691906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -21302,11 +21485,14 @@
       </c>
       <c r="CW13" t="n">
         <v>-0.282485875706219</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>1.77514792899409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -21408,10 +21594,11 @@
       <c r="CU14"/>
       <c r="CV14"/>
       <c r="CW14"/>
+      <c r="CX14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -21711,12 +21898,15 @@
         <v>-8.69648684968324</v>
       </c>
       <c r="CW15" t="n">
-        <v>-5.83533173461231</v>
+        <v>-5.79536370903277</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-5.0854353132628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -22017,11 +22207,14 @@
       </c>
       <c r="CW16" t="n">
         <v>-2.09377764671189</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>-0.392512077294689</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -22123,10 +22316,11 @@
       <c r="CU17"/>
       <c r="CV17"/>
       <c r="CW17"/>
+      <c r="CX17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -22426,12 +22620,15 @@
         <v>-0.792393026941374</v>
       </c>
       <c r="CW18" t="n">
-        <v>5.30821917808219</v>
+        <v>6.67808219178082</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>13.7546468401487</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -22732,11 +22929,14 @@
       </c>
       <c r="CW19" t="n">
         <v>0.981079187105814</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>1.01058710298362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -23036,12 +23236,15 @@
         <v>-6.84410646387833</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.828729281767948</v>
+        <v>0.552486187845299</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>3.02303262955856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -23341,12 +23544,15 @@
         <v>-6.57370517928287</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.212615166548555</v>
+        <v>-0.070871722182845</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>9.64980544747082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -23647,11 +23853,14 @@
       </c>
       <c r="CW22" t="n">
         <v>-3.64697301239971</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>-0.75187969924812</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -23951,12 +24160,15 @@
         <v>-6.60205935796487</v>
       </c>
       <c r="CW23" t="n">
-        <v>1.09748224661071</v>
+        <v>1.03292446739832</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>1.72299536116633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -24256,12 +24468,15 @@
         <v>-6.61478599221789</v>
       </c>
       <c r="CW24" t="n">
-        <v>-2.37610319076714</v>
+        <v>-2.3082145281738</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>1.55367231638419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -24562,11 +24777,14 @@
       </c>
       <c r="CW25" t="n">
         <v>0.83333333333333</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>6.77200902934537</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -24866,12 +25084,15 @@
         <v>-3.66681756450881</v>
       </c>
       <c r="CW26" t="n">
-        <v>1.81644359464628</v>
+        <v>1.86424474187381</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>3.50194552529182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -25171,12 +25392,15 @@
         <v>-11.9630670413489</v>
       </c>
       <c r="CW27" t="n">
-        <v>-3.07017543859649</v>
+        <v>-1.92982456140351</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>1.86025408348457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -25476,12 +25700,15 @@
         <v>-9.89978742787731</v>
       </c>
       <c r="CW28" t="n">
-        <v>-3.515625</v>
+        <v>-3.84114583333334</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>-2.73972602739726</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -25781,12 +26008,15 @@
         <v>-6.71641791044775</v>
       </c>
       <c r="CW29" t="n">
-        <v>0.298062593144558</v>
+        <v>0.248385494287148</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>1.23520329387545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -26087,11 +26317,14 @@
       </c>
       <c r="CW30" t="n">
         <v>5.55555555555558</v>
+      </c>
+      <c r="CX30" t="n">
+        <v>2.26804123711339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -26193,10 +26426,11 @@
       <c r="CU31"/>
       <c r="CV31"/>
       <c r="CW31"/>
+      <c r="CX31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -26496,12 +26730,15 @@
         <v>-4.62555066079297</v>
       </c>
       <c r="CW32" t="n">
-        <v>0.235294117647062</v>
+        <v>1.88235294117646</v>
+      </c>
+      <c r="CX32" t="n">
+        <v>5.95533498759307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -26802,11 +27039,14 @@
       </c>
       <c r="CW33" t="n">
         <v>0.110375275938199</v>
+      </c>
+      <c r="CX33" t="n">
+        <v>8.18505338078293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -27106,12 +27346,15 @@
         <v>-6.0753341433779</v>
       </c>
       <c r="CW34" t="n">
-        <v>2.11360634081901</v>
+        <v>1.84940554821663</v>
+      </c>
+      <c r="CX34" t="n">
+        <v>4.87804878048782</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -27412,11 +27655,14 @@
       </c>
       <c r="CW35" t="n">
         <v>4.04494382022471</v>
+      </c>
+      <c r="CX35" t="n">
+        <v>4.5766590389016</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -27717,11 +27963,14 @@
       </c>
       <c r="CW36" t="n">
         <v>-2.5090789039287</v>
+      </c>
+      <c r="CX36" t="n">
+        <v>0.0682593856655251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -28021,12 +28270,15 @@
         <v>-10.25</v>
       </c>
       <c r="CW37" t="n">
-        <v>-5.89005235602094</v>
+        <v>-5.49738219895288</v>
+      </c>
+      <c r="CX37" t="n">
+        <v>-1.76390773405698</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -28326,12 +28578,15 @@
         <v>-3.16922169811322</v>
       </c>
       <c r="CW38" t="n">
-        <v>2.82175889637874</v>
+        <v>2.75905314312587</v>
+      </c>
+      <c r="CX38" t="n">
+        <v>5.71747093486222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -28632,11 +28887,14 @@
       </c>
       <c r="CW39" t="n">
         <v>-6.27283800243604</v>
+      </c>
+      <c r="CX39" t="n">
+        <v>-2.8957528957529</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -28936,12 +29194,15 @@
         <v>-6.0759493670886</v>
       </c>
       <c r="CW40" t="n">
-        <v>8.30860534124628</v>
+        <v>10.6824925816024</v>
+      </c>
+      <c r="CX40" t="n">
+        <v>13.7614678899083</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -29241,12 +29502,15 @@
         <v>-7.65468329664954</v>
       </c>
       <c r="CW41" t="n">
-        <v>-2.53491981376101</v>
+        <v>-2.48318675633731</v>
+      </c>
+      <c r="CX41" t="n">
+        <v>-0.597014925373147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -29546,12 +29810,15 @@
         <v>-5.3085600530856</v>
       </c>
       <c r="CW42" t="n">
-        <v>-2.12912087912088</v>
+        <v>-1.510989010989</v>
+      </c>
+      <c r="CX42" t="n">
+        <v>5.49048316251828</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -29852,11 +30119,14 @@
       </c>
       <c r="CW43" t="n">
         <v>-6.57698056801197</v>
+      </c>
+      <c r="CX43" t="n">
+        <v>-0.31771247021446</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -30157,11 +30427,14 @@
       </c>
       <c r="CW44" t="n">
         <v>-1.99020208205758</v>
+      </c>
+      <c r="CX44" t="n">
+        <v>0.726698262243289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -30462,11 +30735,14 @@
       </c>
       <c r="CW45" t="n">
         <v>-3.53356890459364</v>
+      </c>
+      <c r="CX45" t="n">
+        <v>-3.16901408450705</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -30767,11 +31043,14 @@
       </c>
       <c r="CW46" t="n">
         <v>-0.315457413249211</v>
+      </c>
+      <c r="CX46" t="n">
+        <v>0.326157860404436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -31071,12 +31350,15 @@
         <v>-3.95778364116095</v>
       </c>
       <c r="CW47" t="n">
-        <v>7.05882352941178</v>
+        <v>7.05882352941176</v>
+      </c>
+      <c r="CX47" t="n">
+        <v>14.6964856230032</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -31376,12 +31658,15 @@
         <v>-4.15274463007159</v>
       </c>
       <c r="CW48" t="n">
-        <v>0</v>
+        <v>-0.0993541977148619</v>
+      </c>
+      <c r="CX48" t="n">
+        <v>2.89473684210526</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -31681,12 +31966,15 @@
         <v>-3.49734270529744</v>
       </c>
       <c r="CW49" t="n">
-        <v>0.924928160919557</v>
+        <v>0.897988505747147</v>
+      </c>
+      <c r="CX49" t="n">
+        <v>3.25285661629192</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -31986,12 +32274,15 @@
         <v>-7.08722741433021</v>
       </c>
       <c r="CW50" t="n">
-        <v>-0.665557404326121</v>
+        <v>-0.58236272878536</v>
+      </c>
+      <c r="CX50" t="n">
+        <v>0.343642611683854</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -32292,11 +32583,14 @@
       </c>
       <c r="CW51" t="n">
         <v>-0.337837837837831</v>
+      </c>
+      <c r="CX51" t="n">
+        <v>-3.50877192982456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -32597,11 +32891,14 @@
       </c>
       <c r="CW52" t="n">
         <v>-3.13390313390313</v>
+      </c>
+      <c r="CX52" t="n">
+        <v>-1.20320855614974</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -32901,12 +33198,15 @@
         <v>-13.093471810089</v>
       </c>
       <c r="CW53" t="n">
-        <v>-4.97215592680988</v>
+        <v>-4.25616547334925</v>
+      </c>
+      <c r="CX53" t="n">
+        <v>2.26415094339623</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -33207,11 +33507,14 @@
       </c>
       <c r="CW54" t="n">
         <v>6.26086956521739</v>
+      </c>
+      <c r="CX54" t="n">
+        <v>10.4587155963303</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -33511,12 +33814,15 @@
         <v>-10.7159142726858</v>
       </c>
       <c r="CW55" t="n">
-        <v>1.34366925064599</v>
+        <v>1.3953488372093</v>
+      </c>
+      <c r="CX55" t="n">
+        <v>6.21220450797142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -33816,7 +34122,10 @@
         <v>-6.88524590163935</v>
       </c>
       <c r="CW56" t="n">
-        <v>-2.07612456747407</v>
+        <v>-2.42214532871972</v>
+      </c>
+      <c r="CX56" t="n">
+        <v>2.1978021978022</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">05/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1185,10 +1188,13 @@
       <c r="DJ4" t="s">
         <v>113</v>
       </c>
+      <c r="DK4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1524,15 +1530,18 @@
         <v>10166.3</v>
       </c>
       <c r="DI5" t="n">
-        <v>10213.2</v>
+        <v>10203.7</v>
       </c>
       <c r="DJ5" t="n">
-        <v>10130.2</v>
+        <v>10119.2</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>9706.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1871,12 +1880,15 @@
         <v>165.6</v>
       </c>
       <c r="DJ6" t="n">
-        <v>162</v>
+        <v>160.6</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>156.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2215,12 +2227,15 @@
         <v>27.2</v>
       </c>
       <c r="DJ7" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2559,12 +2574,15 @@
         <v>191.6</v>
       </c>
       <c r="DJ8" t="n">
-        <v>184.6</v>
+        <v>182.2</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2904,11 +2922,14 @@
       </c>
       <c r="DJ9" t="n">
         <v>98.1</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>89.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3247,12 +3268,15 @@
         <v>1121.2</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1132.8</v>
+        <v>1131.3</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>1115.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3592,11 +3616,14 @@
       </c>
       <c r="DJ11" t="n">
         <v>215.4</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>192.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3935,12 +3962,15 @@
         <v>123.1</v>
       </c>
       <c r="DJ12" t="n">
-        <v>119.7</v>
+        <v>119.8</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>111.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4279,12 +4309,15 @@
         <v>35.3</v>
       </c>
       <c r="DJ13" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>32.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4399,10 +4432,11 @@
       <c r="DH14"/>
       <c r="DI14"/>
       <c r="DJ14"/>
+      <c r="DK14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4741,12 +4775,15 @@
         <v>471.4</v>
       </c>
       <c r="DJ15" t="n">
-        <v>466.6</v>
+        <v>466.4</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>395.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5085,12 +5122,15 @@
         <v>332</v>
       </c>
       <c r="DJ16" t="n">
-        <v>329.9</v>
+        <v>330.1</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5205,10 +5245,11 @@
       <c r="DH17"/>
       <c r="DI17"/>
       <c r="DJ17"/>
+      <c r="DK17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5548,11 +5589,14 @@
       </c>
       <c r="DJ18" t="n">
         <v>61.2</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>58.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5892,11 +5936,14 @@
       </c>
       <c r="DJ19" t="n">
         <v>419.8</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>381.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6235,12 +6282,15 @@
         <v>218.4</v>
       </c>
       <c r="DJ20" t="n">
-        <v>214.7</v>
+        <v>219.5</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6579,12 +6629,15 @@
         <v>141</v>
       </c>
       <c r="DJ21" t="n">
-        <v>140.9</v>
+        <v>141.3</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>130.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6923,12 +6976,15 @@
         <v>132.1</v>
       </c>
       <c r="DJ22" t="n">
-        <v>132</v>
+        <v>131.9</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>120.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7267,12 +7323,15 @@
         <v>156.5</v>
       </c>
       <c r="DJ23" t="n">
-        <v>153.5</v>
+        <v>152.4</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>146.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7612,11 +7671,14 @@
       </c>
       <c r="DJ24" t="n">
         <v>143.8</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>133.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -7955,12 +8017,15 @@
         <v>48.4</v>
       </c>
       <c r="DJ25" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8300,11 +8365,14 @@
       </c>
       <c r="DJ26" t="n">
         <v>212.8</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>198.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8643,12 +8711,15 @@
         <v>223.6</v>
       </c>
       <c r="DJ27" t="n">
-        <v>224.5</v>
+        <v>223.2</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>218.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -8987,12 +9058,15 @@
         <v>295.4</v>
       </c>
       <c r="DJ28" t="n">
-        <v>276.9</v>
+        <v>282.6</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9331,12 +9405,15 @@
         <v>201.8</v>
       </c>
       <c r="DJ29" t="n">
-        <v>196.7</v>
+        <v>196.8</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>190.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9675,12 +9752,15 @@
         <v>102.6</v>
       </c>
       <c r="DJ30" t="n">
-        <v>99.2</v>
+        <v>99.1</v>
+      </c>
+      <c r="DK30" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9795,10 +9875,11 @@
       <c r="DH31"/>
       <c r="DI31"/>
       <c r="DJ31"/>
+      <c r="DK31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10137,12 +10218,15 @@
         <v>43.3</v>
       </c>
       <c r="DJ32" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
+      </c>
+      <c r="DK32" t="n">
+        <v>40.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10481,12 +10565,15 @@
         <v>90.7</v>
       </c>
       <c r="DJ33" t="n">
-        <v>91.2</v>
+        <v>91.1</v>
+      </c>
+      <c r="DK33" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10825,12 +10912,15 @@
         <v>77.1</v>
       </c>
       <c r="DJ34" t="n">
-        <v>77.4</v>
+        <v>77.2</v>
+      </c>
+      <c r="DK34" t="n">
+        <v>69.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11169,12 +11259,15 @@
         <v>46.3</v>
       </c>
       <c r="DJ35" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
+      </c>
+      <c r="DK35" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11513,12 +11606,15 @@
         <v>295.3</v>
       </c>
       <c r="DJ36" t="n">
-        <v>293.2</v>
+        <v>292.6</v>
+      </c>
+      <c r="DK36" t="n">
+        <v>290.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11858,11 +11954,14 @@
       </c>
       <c r="DJ37" t="n">
         <v>72.4</v>
+      </c>
+      <c r="DK37" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12201,12 +12300,15 @@
         <v>655.5</v>
       </c>
       <c r="DJ38" t="n">
-        <v>663.8</v>
+        <v>663.1</v>
+      </c>
+      <c r="DK38" t="n">
+        <v>644</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12545,12 +12647,15 @@
         <v>307.8</v>
       </c>
       <c r="DJ39" t="n">
-        <v>301.8</v>
+        <v>302.2</v>
+      </c>
+      <c r="DK39" t="n">
+        <v>271.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12889,12 +12994,15 @@
         <v>37.3</v>
       </c>
       <c r="DJ40" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
+      </c>
+      <c r="DK40" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13233,12 +13341,15 @@
         <v>377</v>
       </c>
       <c r="DJ41" t="n">
-        <v>366.3</v>
+        <v>365.9</v>
+      </c>
+      <c r="DK41" t="n">
+        <v>346.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13577,12 +13688,15 @@
         <v>143.4</v>
       </c>
       <c r="DJ42" t="n">
-        <v>144.1</v>
+        <v>143.2</v>
+      </c>
+      <c r="DK42" t="n">
+        <v>134.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -13921,12 +14035,15 @@
         <v>125</v>
       </c>
       <c r="DJ43" t="n">
-        <v>125.5</v>
+        <v>125.6</v>
+      </c>
+      <c r="DK43" t="n">
+        <v>125.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14265,12 +14382,15 @@
         <v>320.1</v>
       </c>
       <c r="DJ44" t="n">
-        <v>318.8</v>
+        <v>318.3</v>
+      </c>
+      <c r="DK44" t="n">
+        <v>302.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14610,11 +14730,14 @@
       </c>
       <c r="DJ45" t="n">
         <v>27.5</v>
+      </c>
+      <c r="DK45" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -14953,12 +15076,15 @@
         <v>158</v>
       </c>
       <c r="DJ46" t="n">
-        <v>153.8</v>
+        <v>153.7</v>
+      </c>
+      <c r="DK46" t="n">
+        <v>147.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15297,12 +15423,15 @@
         <v>36.4</v>
       </c>
       <c r="DJ47" t="n">
-        <v>35.9</v>
+        <v>36</v>
+      </c>
+      <c r="DK47" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -15641,12 +15770,15 @@
         <v>201.1</v>
       </c>
       <c r="DJ48" t="n">
-        <v>195.5</v>
+        <v>195.7</v>
+      </c>
+      <c r="DK48" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -15985,12 +16117,15 @@
         <v>1123.6</v>
       </c>
       <c r="DJ49" t="n">
-        <v>1120.5</v>
+        <v>1120.7</v>
+      </c>
+      <c r="DK49" t="n">
+        <v>1086.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16329,12 +16464,15 @@
         <v>119.5</v>
       </c>
       <c r="DJ50" t="n">
-        <v>116.8</v>
+        <v>116.7</v>
+      </c>
+      <c r="DK50" t="n">
+        <v>110.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -16673,12 +16811,15 @@
         <v>29.5</v>
       </c>
       <c r="DJ51" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
+      </c>
+      <c r="DK51" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17017,12 +17158,15 @@
         <v>306</v>
       </c>
       <c r="DJ52" t="n">
-        <v>295.6</v>
+        <v>294.9</v>
+      </c>
+      <c r="DK52" t="n">
+        <v>286.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17361,12 +17505,15 @@
         <v>240.7</v>
       </c>
       <c r="DJ53" t="n">
-        <v>243.9</v>
+        <v>241.1</v>
+      </c>
+      <c r="DK53" t="n">
+        <v>237.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -17705,12 +17852,15 @@
         <v>61.1</v>
       </c>
       <c r="DJ54" t="n">
-        <v>60.2</v>
+        <v>59.9</v>
+      </c>
+      <c r="DK54" t="n">
+        <v>55.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18050,11 +18200,14 @@
       </c>
       <c r="DJ55" t="n">
         <v>193.2</v>
+      </c>
+      <c r="DK55" t="n">
+        <v>178.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -18393,7 +18546,10 @@
         <v>28.2</v>
       </c>
       <c r="DJ56" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
+      </c>
+      <c r="DK56" t="n">
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
@@ -18717,10 +18873,13 @@
       <c r="CX4" t="s">
         <v>113</v>
       </c>
+      <c r="CY4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19020,15 +19179,18 @@
         <v>-7.84717186366933</v>
       </c>
       <c r="CW5" t="n">
-        <v>-2.11897300250135</v>
+        <v>-2.21001888003985</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.04283095271673</v>
+        <v>1.93202651248062</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>3.71739664697018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19331,12 +19493,15 @@
         <v>0.852618757612671</v>
       </c>
       <c r="CX6" t="n">
-        <v>6.36900853578463</v>
+        <v>5.44977019041365</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>6.45819170632223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -19639,12 +19804,15 @@
         <v>2.64150943396227</v>
       </c>
       <c r="CX7" t="n">
-        <v>6.9672131147541</v>
+        <v>6.14754098360656</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>7.87037037037035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -19947,12 +20115,15 @@
         <v>-2.9873417721519</v>
       </c>
       <c r="CX8" t="n">
-        <v>-3.04621848739496</v>
+        <v>-4.30672268907564</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>5.67936736161036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -20256,11 +20427,14 @@
       </c>
       <c r="CX9" t="n">
         <v>3.48101265822783</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>-3.35135135135135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -20563,12 +20737,15 @@
         <v>-9.38333468035237</v>
       </c>
       <c r="CX10" t="n">
-        <v>-2.86400274395473</v>
+        <v>-2.99262562167725</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>-0.125313283208028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -20872,11 +21049,14 @@
       </c>
       <c r="CX11" t="n">
         <v>-1.95721438324988</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>-1.48565573770492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -21179,12 +21359,15 @@
         <v>3.70682392586353</v>
       </c>
       <c r="CX12" t="n">
-        <v>4.177545691906</v>
+        <v>4.26457789382071</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>3.71402042711235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -21487,12 +21670,15 @@
         <v>-0.282485875706219</v>
       </c>
       <c r="CX13" t="n">
-        <v>1.77514792899409</v>
+        <v>3.25443786982249</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>2.54777070063696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -21595,10 +21781,11 @@
       <c r="CV14"/>
       <c r="CW14"/>
       <c r="CX14"/>
+      <c r="CY14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -21901,12 +22088,15 @@
         <v>-5.79536370903277</v>
       </c>
       <c r="CX15" t="n">
-        <v>-5.0854353132628</v>
+        <v>-5.12611879576892</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>-3.32681017612524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -22209,12 +22399,15 @@
         <v>-2.09377764671189</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.392512077294689</v>
+        <v>-0.332125603864724</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>2.2977651872836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -22317,10 +22510,11 @@
       <c r="CV17"/>
       <c r="CW17"/>
       <c r="CX17"/>
+      <c r="CY17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -22624,11 +22818,14 @@
       </c>
       <c r="CX18" t="n">
         <v>13.7546468401487</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>16.2376237623762</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -22932,11 +23129,14 @@
       </c>
       <c r="CX19" t="n">
         <v>1.01058710298362</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>1.06072659771944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -23239,12 +23439,15 @@
         <v>0.552486187845299</v>
       </c>
       <c r="CX20" t="n">
-        <v>3.02303262955856</v>
+        <v>5.32629558541268</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>11.1111111111111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -23547,12 +23750,15 @@
         <v>-0.070871722182845</v>
       </c>
       <c r="CX21" t="n">
-        <v>9.64980544747082</v>
+        <v>9.96108949416343</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>7.33113673805602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -23855,12 +24061,15 @@
         <v>-3.64697301239971</v>
       </c>
       <c r="CX22" t="n">
-        <v>-0.75187969924812</v>
+        <v>-0.827067669172928</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>6.55447298494242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -24163,12 +24372,15 @@
         <v>1.03292446739832</v>
       </c>
       <c r="CX23" t="n">
-        <v>1.72299536116633</v>
+        <v>0.99403578528827</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>2.73492286115005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -24472,11 +24684,14 @@
       </c>
       <c r="CX24" t="n">
         <v>1.55367231638419</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>1.75038051750379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -24779,12 +24994,15 @@
         <v>0.83333333333333</v>
       </c>
       <c r="CX25" t="n">
-        <v>6.77200902934537</v>
+        <v>7.2234762979684</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>6.52680652680652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -25088,11 +25306,14 @@
       </c>
       <c r="CX26" t="n">
         <v>3.50194552529182</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>4.73933649289101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -25395,12 +25616,15 @@
         <v>-1.92982456140351</v>
       </c>
       <c r="CX27" t="n">
-        <v>1.86025408348457</v>
+        <v>1.27041742286751</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>3.75832540437679</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -25703,12 +25927,15 @@
         <v>-3.84114583333334</v>
       </c>
       <c r="CX28" t="n">
-        <v>-2.73972602739726</v>
+        <v>-0.737618545837712</v>
+      </c>
+      <c r="CY28" t="n">
+        <v>2.85285285285286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -26011,12 +26238,15 @@
         <v>0.248385494287148</v>
       </c>
       <c r="CX29" t="n">
-        <v>1.23520329387545</v>
+        <v>1.28667009778694</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>2.36305048335124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -26319,12 +26549,15 @@
         <v>5.55555555555558</v>
       </c>
       <c r="CX30" t="n">
-        <v>2.26804123711339</v>
+        <v>2.16494845360824</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>4.19727177334732</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -26427,10 +26660,11 @@
       <c r="CV31"/>
       <c r="CW31"/>
       <c r="CX31"/>
+      <c r="CY31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -26733,12 +26967,15 @@
         <v>1.88235294117646</v>
       </c>
       <c r="CX32" t="n">
-        <v>5.95533498759307</v>
+        <v>5.4590570719603</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>5.80474934036938</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -27041,12 +27278,15 @@
         <v>0.110375275938199</v>
       </c>
       <c r="CX33" t="n">
-        <v>8.18505338078293</v>
+        <v>8.0664294187426</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>7.54716981132075</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -27349,12 +27589,15 @@
         <v>1.84940554821663</v>
       </c>
       <c r="CX34" t="n">
-        <v>4.87804878048782</v>
+        <v>4.60704607046071</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>11.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -27657,12 +27900,15 @@
         <v>4.04494382022471</v>
       </c>
       <c r="CX35" t="n">
-        <v>4.5766590389016</v>
+        <v>5.03432494279175</v>
+      </c>
+      <c r="CY35" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -27965,12 +28211,15 @@
         <v>-2.5090789039287</v>
       </c>
       <c r="CX36" t="n">
-        <v>0.0682593856655251</v>
+        <v>-0.13651877133107</v>
+      </c>
+      <c r="CY36" t="n">
+        <v>1.50087260034904</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -28274,11 +28523,14 @@
       </c>
       <c r="CX37" t="n">
         <v>-1.76390773405698</v>
+      </c>
+      <c r="CY37" t="n">
+        <v>-3.7821482602118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -28581,12 +28833,15 @@
         <v>2.75905314312587</v>
       </c>
       <c r="CX38" t="n">
-        <v>5.71747093486222</v>
+        <v>5.60598821468386</v>
+      </c>
+      <c r="CY38" t="n">
+        <v>5.177200718602</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -28889,12 +29144,15 @@
         <v>-6.27283800243604</v>
       </c>
       <c r="CX39" t="n">
-        <v>-2.8957528957529</v>
+        <v>-2.76705276705276</v>
+      </c>
+      <c r="CY39" t="n">
+        <v>3.42335488779003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -29197,12 +29455,15 @@
         <v>10.6824925816024</v>
       </c>
       <c r="CX40" t="n">
-        <v>13.7614678899083</v>
+        <v>13.4556574923547</v>
+      </c>
+      <c r="CY40" t="n">
+        <v>14.1342756183745</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -29505,12 +29766,15 @@
         <v>-2.48318675633731</v>
       </c>
       <c r="CX41" t="n">
-        <v>-0.597014925373147</v>
+        <v>-0.705563093622801</v>
+      </c>
+      <c r="CY41" t="n">
+        <v>1.07840279801805</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -29813,12 +30077,15 @@
         <v>-1.510989010989</v>
       </c>
       <c r="CX42" t="n">
-        <v>5.49048316251828</v>
+        <v>4.83162518301608</v>
+      </c>
+      <c r="CY42" t="n">
+        <v>6.3341250989707</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -30121,12 +30388,15 @@
         <v>-6.57698056801197</v>
       </c>
       <c r="CX43" t="n">
-        <v>-0.31771247021446</v>
+        <v>-0.23828435266084</v>
+      </c>
+      <c r="CY43" t="n">
+        <v>3.04526748971194</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -30429,12 +30699,15 @@
         <v>-1.99020208205758</v>
       </c>
       <c r="CX44" t="n">
-        <v>0.726698262243289</v>
+        <v>0.568720379146923</v>
+      </c>
+      <c r="CY44" t="n">
+        <v>2.99523485364194</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -30738,11 +31011,14 @@
       </c>
       <c r="CX45" t="n">
         <v>-3.16901408450705</v>
+      </c>
+      <c r="CY45" t="n">
+        <v>7.75510204081634</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -31045,12 +31321,15 @@
         <v>-0.315457413249211</v>
       </c>
       <c r="CX46" t="n">
-        <v>0.326157860404436</v>
+        <v>0.260926288323534</v>
+      </c>
+      <c r="CY46" t="n">
+        <v>3.87323943661972</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -31353,12 +31632,15 @@
         <v>7.05882352941176</v>
       </c>
       <c r="CX47" t="n">
-        <v>14.6964856230032</v>
+        <v>15.0159744408946</v>
+      </c>
+      <c r="CY47" t="n">
+        <v>8.1081081081081</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -31661,12 +31943,15 @@
         <v>-0.0993541977148619</v>
       </c>
       <c r="CX48" t="n">
-        <v>2.89473684210526</v>
+        <v>3.00000000000001</v>
+      </c>
+      <c r="CY48" t="n">
+        <v>6.09480812641084</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -31969,12 +32254,15 @@
         <v>0.897988505747147</v>
       </c>
       <c r="CX49" t="n">
-        <v>3.25285661629192</v>
+        <v>3.27128639882049</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>3.37709284627093</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -32277,12 +32565,15 @@
         <v>-0.58236272878536</v>
       </c>
       <c r="CX50" t="n">
-        <v>0.343642611683854</v>
+        <v>0.257731958762872</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>5.25812619502868</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -32585,12 +32876,15 @@
         <v>-0.337837837837831</v>
       </c>
       <c r="CX51" t="n">
-        <v>-3.50877192982456</v>
+        <v>-2.10526315789474</v>
+      </c>
+      <c r="CY51" t="n">
+        <v>2.62172284644195</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -32893,12 +33187,15 @@
         <v>-3.13390313390313</v>
       </c>
       <c r="CX52" t="n">
-        <v>-1.20320855614974</v>
+        <v>-1.43716577540109</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>-0.20876826722339</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -33201,12 +33498,15 @@
         <v>-4.25616547334925</v>
       </c>
       <c r="CX53" t="n">
-        <v>2.26415094339623</v>
+        <v>1.09014675052412</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>2.1973287376131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -33509,12 +33809,15 @@
         <v>6.26086956521739</v>
       </c>
       <c r="CX54" t="n">
-        <v>10.4587155963303</v>
+        <v>9.90825688073394</v>
+      </c>
+      <c r="CY54" t="n">
+        <v>5.51330798479089</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -33818,11 +34121,14 @@
       </c>
       <c r="CX55" t="n">
         <v>6.21220450797142</v>
+      </c>
+      <c r="CY55" t="n">
+        <v>12.0376175548589</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -34125,7 +34431,10 @@
         <v>-2.42214532871972</v>
       </c>
       <c r="CX56" t="n">
-        <v>2.1978021978022</v>
+        <v>2.93040293040295</v>
+      </c>
+      <c r="CY56" t="n">
+        <v>5.15873015873015</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">06/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1191,10 +1194,13 @@
       <c r="DK4" t="s">
         <v>114</v>
       </c>
+      <c r="DL4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1533,15 +1539,18 @@
         <v>10203.7</v>
       </c>
       <c r="DJ5" t="n">
-        <v>10119.2</v>
+        <v>10109.4</v>
       </c>
       <c r="DK5" t="n">
-        <v>9706.6</v>
+        <v>9676</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>8713.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1883,12 +1892,15 @@
         <v>160.6</v>
       </c>
       <c r="DK6" t="n">
-        <v>156.6</v>
+        <v>155.7</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2230,12 +2242,15 @@
         <v>25.9</v>
       </c>
       <c r="DK7" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2577,12 +2592,15 @@
         <v>182.2</v>
       </c>
       <c r="DK8" t="n">
-        <v>147</v>
+        <v>149.6</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>139.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2925,11 +2943,14 @@
       </c>
       <c r="DK9" t="n">
         <v>89.4</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>78.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3271,12 +3292,15 @@
         <v>1131.3</v>
       </c>
       <c r="DK10" t="n">
-        <v>1115.8</v>
+        <v>1114.8</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>951.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3618,12 +3642,15 @@
         <v>215.4</v>
       </c>
       <c r="DK11" t="n">
-        <v>192.3</v>
+        <v>194.7</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>183.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3965,12 +3992,15 @@
         <v>119.8</v>
       </c>
       <c r="DK12" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>96.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4312,12 +4342,15 @@
         <v>34.9</v>
       </c>
       <c r="DK13" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4433,10 +4466,11 @@
       <c r="DI14"/>
       <c r="DJ14"/>
       <c r="DK14"/>
+      <c r="DL14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4778,12 +4812,15 @@
         <v>466.4</v>
       </c>
       <c r="DK15" t="n">
-        <v>395.2</v>
+        <v>392.9</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>388.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5125,12 +5162,15 @@
         <v>330.1</v>
       </c>
       <c r="DK16" t="n">
-        <v>325</v>
+        <v>325.3</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>315.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5246,10 +5286,11 @@
       <c r="DI17"/>
       <c r="DJ17"/>
       <c r="DK17"/>
+      <c r="DL17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5591,12 +5632,15 @@
         <v>61.2</v>
       </c>
       <c r="DK18" t="n">
-        <v>58.7</v>
+        <v>58.4</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5939,11 +5983,14 @@
       </c>
       <c r="DK19" t="n">
         <v>381.1</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>352.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6285,12 +6332,15 @@
         <v>219.5</v>
       </c>
       <c r="DK20" t="n">
-        <v>198</v>
+        <v>189.1</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>163.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6632,12 +6682,15 @@
         <v>141.3</v>
       </c>
       <c r="DK21" t="n">
-        <v>130.3</v>
+        <v>130.7</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>112.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -6979,12 +7032,15 @@
         <v>131.9</v>
       </c>
       <c r="DK22" t="n">
-        <v>120.3</v>
+        <v>118.7</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>99.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7326,12 +7382,15 @@
         <v>152.4</v>
       </c>
       <c r="DK23" t="n">
-        <v>146.5</v>
+        <v>143.4</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7673,12 +7732,15 @@
         <v>143.8</v>
       </c>
       <c r="DK24" t="n">
-        <v>133.7</v>
+        <v>136.2</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>131.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8020,12 +8082,15 @@
         <v>47.5</v>
       </c>
       <c r="DK25" t="n">
-        <v>45.7</v>
+        <v>45</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8367,12 +8432,15 @@
         <v>212.8</v>
       </c>
       <c r="DK26" t="n">
-        <v>198.9</v>
+        <v>198.8</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8714,12 +8782,15 @@
         <v>223.2</v>
       </c>
       <c r="DK27" t="n">
-        <v>218.1</v>
+        <v>216.9</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>191.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9061,12 +9132,15 @@
         <v>282.6</v>
       </c>
       <c r="DK28" t="n">
-        <v>274</v>
+        <v>272.3</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>242.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9408,12 +9482,15 @@
         <v>196.8</v>
       </c>
       <c r="DK29" t="n">
-        <v>190.6</v>
+        <v>190.3</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>164.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9755,12 +9832,15 @@
         <v>99.1</v>
       </c>
       <c r="DK30" t="n">
-        <v>99.3</v>
+        <v>98.2</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9876,10 +9956,11 @@
       <c r="DI31"/>
       <c r="DJ31"/>
       <c r="DK31"/>
+      <c r="DL31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10221,12 +10302,15 @@
         <v>42.5</v>
       </c>
       <c r="DK32" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
+      </c>
+      <c r="DL32" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10568,12 +10652,15 @@
         <v>91.1</v>
       </c>
       <c r="DK33" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
+      </c>
+      <c r="DL33" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -10916,11 +11003,14 @@
       </c>
       <c r="DK34" t="n">
         <v>69.6</v>
+      </c>
+      <c r="DL34" t="n">
+        <v>64.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11262,12 +11352,15 @@
         <v>45.9</v>
       </c>
       <c r="DK35" t="n">
-        <v>39.6</v>
+        <v>37.2</v>
+      </c>
+      <c r="DL35" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11609,12 +11702,15 @@
         <v>292.6</v>
       </c>
       <c r="DK36" t="n">
-        <v>290.8</v>
+        <v>289.8</v>
+      </c>
+      <c r="DL36" t="n">
+        <v>237.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -11956,12 +12052,15 @@
         <v>72.4</v>
       </c>
       <c r="DK37" t="n">
-        <v>63.6</v>
+        <v>64.1</v>
+      </c>
+      <c r="DL37" t="n">
+        <v>61.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12303,12 +12402,15 @@
         <v>663.1</v>
       </c>
       <c r="DK38" t="n">
-        <v>644</v>
+        <v>643.4</v>
+      </c>
+      <c r="DL38" t="n">
+        <v>526.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12650,12 +12752,15 @@
         <v>302.2</v>
       </c>
       <c r="DK39" t="n">
-        <v>271.9</v>
+        <v>272.3</v>
+      </c>
+      <c r="DL39" t="n">
+        <v>249.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -12998,11 +13103,14 @@
       </c>
       <c r="DK40" t="n">
         <v>32.3</v>
+      </c>
+      <c r="DL40" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13344,12 +13452,15 @@
         <v>365.9</v>
       </c>
       <c r="DK41" t="n">
-        <v>346.8</v>
+        <v>346.1</v>
+      </c>
+      <c r="DL41" t="n">
+        <v>329.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13691,12 +13802,15 @@
         <v>143.2</v>
       </c>
       <c r="DK42" t="n">
-        <v>134.3</v>
+        <v>130.8</v>
+      </c>
+      <c r="DL42" t="n">
+        <v>118.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14038,12 +14152,15 @@
         <v>125.6</v>
       </c>
       <c r="DK43" t="n">
-        <v>125.2</v>
+        <v>124.9</v>
+      </c>
+      <c r="DL43" t="n">
+        <v>105.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14385,12 +14502,15 @@
         <v>318.3</v>
       </c>
       <c r="DK44" t="n">
-        <v>302.6</v>
+        <v>302</v>
+      </c>
+      <c r="DL44" t="n">
+        <v>275.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14732,12 +14852,15 @@
         <v>27.5</v>
       </c>
       <c r="DK45" t="n">
-        <v>26.4</v>
+        <v>25.8</v>
+      </c>
+      <c r="DL45" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -15079,12 +15202,15 @@
         <v>153.7</v>
       </c>
       <c r="DK46" t="n">
-        <v>147.5</v>
+        <v>147.6</v>
+      </c>
+      <c r="DL46" t="n">
+        <v>139.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15426,12 +15552,15 @@
         <v>36</v>
       </c>
       <c r="DK47" t="n">
-        <v>32</v>
+        <v>32.1</v>
+      </c>
+      <c r="DL47" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -15773,12 +15902,15 @@
         <v>195.7</v>
       </c>
       <c r="DK48" t="n">
-        <v>188</v>
+        <v>189.8</v>
+      </c>
+      <c r="DL48" t="n">
+        <v>165.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -16120,12 +16252,15 @@
         <v>1120.7</v>
       </c>
       <c r="DK49" t="n">
-        <v>1086.7</v>
+        <v>1083.4</v>
+      </c>
+      <c r="DL49" t="n">
+        <v>1023</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16467,12 +16602,15 @@
         <v>116.7</v>
       </c>
       <c r="DK50" t="n">
-        <v>110.1</v>
+        <v>106.5</v>
+      </c>
+      <c r="DL50" t="n">
+        <v>95.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -16814,12 +16952,15 @@
         <v>27.9</v>
       </c>
       <c r="DK51" t="n">
-        <v>27.4</v>
+        <v>27</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17161,12 +17302,15 @@
         <v>294.9</v>
       </c>
       <c r="DK52" t="n">
-        <v>286.8</v>
+        <v>288.1</v>
+      </c>
+      <c r="DL52" t="n">
+        <v>255.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17508,12 +17652,15 @@
         <v>241.1</v>
       </c>
       <c r="DK53" t="n">
-        <v>237.2</v>
+        <v>238.7</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>219.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -17855,12 +18002,15 @@
         <v>59.9</v>
       </c>
       <c r="DK54" t="n">
-        <v>55.5</v>
+        <v>54.7</v>
+      </c>
+      <c r="DL54" t="n">
+        <v>49.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18202,12 +18352,15 @@
         <v>193.2</v>
       </c>
       <c r="DK55" t="n">
-        <v>178.7</v>
+        <v>177.6</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>159.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -18550,6 +18703,9 @@
       </c>
       <c r="DK56" t="n">
         <v>26.5</v>
+      </c>
+      <c r="DL56" t="n">
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>
@@ -18876,10 +19032,13 @@
       <c r="CY4" t="s">
         <v>114</v>
       </c>
+      <c r="CZ4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19182,15 +19341,18 @@
         <v>-2.21001888003985</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.93202651248062</v>
+        <v>1.83330982936116</v>
       </c>
       <c r="CY5" t="n">
-        <v>3.71739664697018</v>
+        <v>3.39042815775695</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>4.67415460388012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19496,12 +19658,15 @@
         <v>5.44977019041365</v>
       </c>
       <c r="CY6" t="n">
-        <v>6.45819170632223</v>
+        <v>5.84636301835486</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>2.68780151619573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -19807,12 +19972,15 @@
         <v>6.14754098360656</v>
       </c>
       <c r="CY7" t="n">
-        <v>7.87037037037035</v>
+        <v>4.16666666666666</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.534759358288778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -20118,12 +20286,15 @@
         <v>-4.30672268907564</v>
       </c>
       <c r="CY8" t="n">
-        <v>5.67936736161036</v>
+        <v>7.54852624011503</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>2.57163850110213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -20430,11 +20601,14 @@
       </c>
       <c r="CY9" t="n">
         <v>-3.35135135135135</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>-2.96662546353524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -20740,12 +20914,15 @@
         <v>-2.99262562167725</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.125313283208028</v>
+        <v>-0.214822771213757</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>-2.44102564102564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -21051,12 +21228,15 @@
         <v>-1.95721438324988</v>
       </c>
       <c r="CY11" t="n">
-        <v>-1.48565573770492</v>
+        <v>-0.256147540983621</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>3.0933633295838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -21362,12 +21542,15 @@
         <v>4.26457789382071</v>
       </c>
       <c r="CY12" t="n">
-        <v>3.71402042711235</v>
+        <v>3.80687093779018</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>6.75526024363233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -21673,12 +21856,15 @@
         <v>3.25443786982249</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.54777070063696</v>
+        <v>3.18471337579618</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>1.94174757281554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -21782,10 +21968,11 @@
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
+      <c r="CZ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -22091,12 +22278,15 @@
         <v>-5.12611879576892</v>
       </c>
       <c r="CY15" t="n">
-        <v>-3.32681017612524</v>
+        <v>-3.88943248532289</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>-3.23463548146305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -22402,12 +22592,15 @@
         <v>-0.332125603864724</v>
       </c>
       <c r="CY16" t="n">
-        <v>2.2977651872836</v>
+        <v>2.39219389361033</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>1.80936995153474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -22511,10 +22704,11 @@
       <c r="CW17"/>
       <c r="CX17"/>
       <c r="CY17"/>
+      <c r="CZ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -22820,12 +23014,15 @@
         <v>13.7546468401487</v>
       </c>
       <c r="CY18" t="n">
-        <v>16.2376237623762</v>
+        <v>15.6435643564357</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>10.4166666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -23132,11 +23329,14 @@
       </c>
       <c r="CY19" t="n">
         <v>1.06072659771944</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>1.00171722953636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -23442,12 +23642,15 @@
         <v>5.32629558541268</v>
       </c>
       <c r="CY20" t="n">
-        <v>11.1111111111111</v>
+        <v>6.11672278338945</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0.184049079754608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -23753,12 +23956,15 @@
         <v>9.96108949416343</v>
       </c>
       <c r="CY21" t="n">
-        <v>7.33113673805602</v>
+        <v>7.66062602965405</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>2.91704649042846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -24064,12 +24270,15 @@
         <v>-0.827067669172928</v>
       </c>
       <c r="CY22" t="n">
-        <v>6.55447298494242</v>
+        <v>5.13728963684676</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>1.5353121801433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -24375,12 +24584,15 @@
         <v>0.99403578528827</v>
       </c>
       <c r="CY23" t="n">
-        <v>2.73492286115005</v>
+        <v>0.561009817671797</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>-2.10355987055017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -24686,12 +24898,15 @@
         <v>1.55367231638419</v>
       </c>
       <c r="CY24" t="n">
-        <v>1.75038051750379</v>
+        <v>3.65296803652967</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>3.54609929078012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -24997,12 +25212,15 @@
         <v>7.2234762979684</v>
       </c>
       <c r="CY25" t="n">
-        <v>6.52680652680652</v>
+        <v>4.8951048951049</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>3.91061452513968</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -25308,12 +25526,15 @@
         <v>3.50194552529182</v>
       </c>
       <c r="CY26" t="n">
-        <v>4.73933649289101</v>
+        <v>4.68667719852556</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>3.5164835164835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -25619,12 +25840,15 @@
         <v>1.27041742286751</v>
       </c>
       <c r="CY27" t="n">
-        <v>3.75832540437679</v>
+        <v>3.18744053282589</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>6.72969966629588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -25930,12 +26154,15 @@
         <v>-0.737618545837712</v>
       </c>
       <c r="CY28" t="n">
-        <v>2.85285285285286</v>
+        <v>2.21471471471473</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>4.25440481306405</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -26241,12 +26468,15 @@
         <v>1.28667009778694</v>
       </c>
       <c r="CY29" t="n">
-        <v>2.36305048335124</v>
+        <v>2.20193340494092</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>3.07210031347963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -26552,12 +26782,15 @@
         <v>2.16494845360824</v>
       </c>
       <c r="CY30" t="n">
-        <v>4.19727177334732</v>
+        <v>3.0430220356768</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>3.43680709534367</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -26661,10 +26894,11 @@
       <c r="CW31"/>
       <c r="CX31"/>
       <c r="CY31"/>
+      <c r="CZ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -26970,12 +27204,15 @@
         <v>5.4590570719603</v>
       </c>
       <c r="CY32" t="n">
-        <v>5.80474934036938</v>
+        <v>6.33245382585752</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>7.66871165644172</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -27281,12 +27518,15 @@
         <v>8.0664294187426</v>
       </c>
       <c r="CY33" t="n">
-        <v>7.54716981132075</v>
+        <v>7.29559748427673</v>
+      </c>
+      <c r="CZ33" t="n">
+        <v>3.60962566844918</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -27593,11 +27833,14 @@
       </c>
       <c r="CY34" t="n">
         <v>11.36</v>
+      </c>
+      <c r="CZ34" t="n">
+        <v>9.25925925925926</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -27903,12 +28146,15 @@
         <v>5.03432494279175</v>
       </c>
       <c r="CY35" t="n">
-        <v>5.6</v>
+        <v>-0.799999999999992</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>4.23452768729642</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -28214,12 +28460,15 @@
         <v>-0.13651877133107</v>
       </c>
       <c r="CY36" t="n">
-        <v>1.50087260034904</v>
+        <v>1.15183246073299</v>
+      </c>
+      <c r="CZ36" t="n">
+        <v>3.08695652173914</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -28525,12 +28774,15 @@
         <v>-1.76390773405698</v>
       </c>
       <c r="CY37" t="n">
-        <v>-3.7821482602118</v>
+        <v>-3.02571860816944</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>0.325732899022806</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -28836,12 +29088,15 @@
         <v>5.60598821468386</v>
       </c>
       <c r="CY38" t="n">
-        <v>5.177200718602</v>
+        <v>5.07920953780829</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>6.83847402597402</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -29147,12 +29402,15 @@
         <v>-2.76705276705276</v>
       </c>
       <c r="CY39" t="n">
-        <v>3.42335488779003</v>
+        <v>3.57550399391405</v>
+      </c>
+      <c r="CZ39" t="n">
+        <v>20.687984496124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -29459,11 +29717,14 @@
       </c>
       <c r="CY40" t="n">
         <v>14.1342756183745</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>3.55731225296444</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -29769,12 +30030,15 @@
         <v>-0.705563093622801</v>
       </c>
       <c r="CY41" t="n">
-        <v>1.07840279801805</v>
+        <v>0.874380647041662</v>
+      </c>
+      <c r="CZ41" t="n">
+        <v>0.182537268025545</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -30080,12 +30344,15 @@
         <v>4.83162518301608</v>
       </c>
       <c r="CY42" t="n">
-        <v>6.3341250989707</v>
+        <v>3.56294536817102</v>
+      </c>
+      <c r="CZ42" t="n">
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -30391,12 +30658,15 @@
         <v>-0.23828435266084</v>
       </c>
       <c r="CY43" t="n">
-        <v>3.04526748971194</v>
+        <v>2.79835390946503</v>
+      </c>
+      <c r="CZ43" t="n">
+        <v>9.6976016684046</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -30702,12 +30972,15 @@
         <v>0.568720379146923</v>
       </c>
       <c r="CY44" t="n">
-        <v>2.99523485364194</v>
+        <v>2.79101429543907</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>4.47987851176918</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -31013,12 +31286,15 @@
         <v>-3.16901408450705</v>
       </c>
       <c r="CY45" t="n">
-        <v>7.75510204081634</v>
+        <v>5.30612244897959</v>
+      </c>
+      <c r="CZ45" t="n">
+        <v>6.39269406392693</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -31324,12 +31600,15 @@
         <v>0.260926288323534</v>
       </c>
       <c r="CY46" t="n">
-        <v>3.87323943661972</v>
+        <v>3.943661971831</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>9.64705882352942</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -31635,12 +31914,15 @@
         <v>15.0159744408946</v>
       </c>
       <c r="CY47" t="n">
-        <v>8.1081081081081</v>
+        <v>8.44594594594595</v>
+      </c>
+      <c r="CZ47" t="n">
+        <v>9.71659919028341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -31946,12 +32228,15 @@
         <v>3.00000000000001</v>
       </c>
       <c r="CY48" t="n">
-        <v>6.09480812641084</v>
+        <v>7.11060948081264</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>8.65573770491802</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -32257,12 +32542,15 @@
         <v>3.27128639882049</v>
       </c>
       <c r="CY49" t="n">
-        <v>3.37709284627093</v>
+        <v>3.06316590563166</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>1.50823576106371</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -32568,12 +32856,15 @@
         <v>0.257731958762872</v>
       </c>
       <c r="CY50" t="n">
-        <v>5.25812619502868</v>
+        <v>1.81644359464628</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>-0.829875518672211</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -32879,12 +33170,15 @@
         <v>-2.10526315789474</v>
       </c>
       <c r="CY51" t="n">
-        <v>2.62172284644195</v>
+        <v>1.12359550561798</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>9.1324200913242</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -33190,12 +33484,15 @@
         <v>-1.43716577540109</v>
       </c>
       <c r="CY52" t="n">
-        <v>-0.20876826722339</v>
+        <v>0.243562978427295</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>3.23101777059773</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -33501,12 +33798,15 @@
         <v>1.09014675052412</v>
       </c>
       <c r="CY53" t="n">
-        <v>2.1973287376131</v>
+        <v>2.84360189573459</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>0.273597811217495</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -33812,12 +34112,15 @@
         <v>9.90825688073394</v>
       </c>
       <c r="CY54" t="n">
-        <v>5.51330798479089</v>
+        <v>3.99239543726237</v>
+      </c>
+      <c r="CZ54" t="n">
+        <v>5.50847457627117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -34123,12 +34426,15 @@
         <v>6.21220450797142</v>
       </c>
       <c r="CY55" t="n">
-        <v>12.0376175548589</v>
+        <v>11.3479623824451</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>4.25950196592397</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -34435,6 +34741,9 @@
       </c>
       <c r="CY56" t="n">
         <v>5.15873015873015</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>2.70270270270269</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t xml:space="preserve">07/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1197,10 +1200,13 @@
       <c r="DL4" t="s">
         <v>115</v>
       </c>
+      <c r="DM4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1542,15 +1548,18 @@
         <v>10109.4</v>
       </c>
       <c r="DK5" t="n">
-        <v>9676</v>
+        <v>9655.6</v>
       </c>
       <c r="DL5" t="n">
-        <v>8713.6</v>
+        <v>8703.6</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>8971.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1895,12 +1904,15 @@
         <v>155.7</v>
       </c>
       <c r="DL6" t="n">
-        <v>149</v>
+        <v>148.8</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>157.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2245,12 +2257,15 @@
         <v>22.5</v>
       </c>
       <c r="DL7" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2595,12 +2610,15 @@
         <v>149.6</v>
       </c>
       <c r="DL8" t="n">
-        <v>139.6</v>
+        <v>145.6</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>180.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2946,11 +2964,14 @@
       </c>
       <c r="DL9" t="n">
         <v>78.5</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>82.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3295,12 +3316,15 @@
         <v>1114.8</v>
       </c>
       <c r="DL10" t="n">
-        <v>951.2</v>
+        <v>950.1</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>1039.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3645,12 +3669,15 @@
         <v>194.7</v>
       </c>
       <c r="DL11" t="n">
-        <v>183.3</v>
+        <v>184.7</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>193.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -3995,12 +4022,15 @@
         <v>111.8</v>
       </c>
       <c r="DL12" t="n">
-        <v>96.4</v>
+        <v>96.6</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>95.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4345,12 +4375,15 @@
         <v>32.4</v>
       </c>
       <c r="DL13" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4467,10 +4500,11 @@
       <c r="DJ14"/>
       <c r="DK14"/>
       <c r="DL14"/>
+      <c r="DM14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4816,11 +4850,14 @@
       </c>
       <c r="DL15" t="n">
         <v>388.9</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>457.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5165,12 +5202,15 @@
         <v>325.3</v>
       </c>
       <c r="DL16" t="n">
-        <v>315.1</v>
+        <v>314.1</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>334.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5287,10 +5327,11 @@
       <c r="DJ17"/>
       <c r="DK17"/>
       <c r="DL17"/>
+      <c r="DM17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5636,11 +5677,14 @@
       </c>
       <c r="DL18" t="n">
         <v>53</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>52.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -5986,11 +6030,14 @@
       </c>
       <c r="DL19" t="n">
         <v>352.9</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6335,12 +6382,15 @@
         <v>189.1</v>
       </c>
       <c r="DL20" t="n">
-        <v>163.3</v>
+        <v>167</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>198.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6685,12 +6735,15 @@
         <v>130.7</v>
       </c>
       <c r="DL21" t="n">
-        <v>112.9</v>
+        <v>113.3</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>117.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7035,12 +7088,15 @@
         <v>118.7</v>
       </c>
       <c r="DL22" t="n">
-        <v>99.2</v>
+        <v>100.6</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>108.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7385,12 +7441,15 @@
         <v>143.4</v>
       </c>
       <c r="DL23" t="n">
-        <v>121</v>
+        <v>121.3</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>142.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7735,12 +7794,15 @@
         <v>136.2</v>
       </c>
       <c r="DL24" t="n">
-        <v>131.4</v>
+        <v>130.4</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>134.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8085,12 +8147,15 @@
         <v>45</v>
       </c>
       <c r="DL25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8436,11 +8501,14 @@
       </c>
       <c r="DL26" t="n">
         <v>188.4</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8786,11 +8854,14 @@
       </c>
       <c r="DL27" t="n">
         <v>191.9</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>190.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9135,12 +9206,15 @@
         <v>272.3</v>
       </c>
       <c r="DL28" t="n">
-        <v>242.6</v>
+        <v>245.5</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>248.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9485,12 +9559,15 @@
         <v>190.3</v>
       </c>
       <c r="DL29" t="n">
-        <v>164.4</v>
+        <v>165</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>161.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9835,12 +9912,15 @@
         <v>98.2</v>
       </c>
       <c r="DL30" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
+      </c>
+      <c r="DM30" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9957,10 +10037,11 @@
       <c r="DJ31"/>
       <c r="DK31"/>
       <c r="DL31"/>
+      <c r="DM31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10305,12 +10386,15 @@
         <v>40.3</v>
       </c>
       <c r="DL32" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
+      </c>
+      <c r="DM32" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10655,12 +10739,15 @@
         <v>85.3</v>
       </c>
       <c r="DL33" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
+      </c>
+      <c r="DM33" t="n">
+        <v>78.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11006,11 +11093,14 @@
       </c>
       <c r="DL34" t="n">
         <v>64.9</v>
+      </c>
+      <c r="DM34" t="n">
+        <v>67.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11355,12 +11445,15 @@
         <v>37.2</v>
       </c>
       <c r="DL35" t="n">
-        <v>32</v>
+        <v>32.3</v>
+      </c>
+      <c r="DM35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11705,12 +11798,15 @@
         <v>289.8</v>
       </c>
       <c r="DL36" t="n">
-        <v>237.1</v>
+        <v>240.5</v>
+      </c>
+      <c r="DM36" t="n">
+        <v>243.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12055,12 +12151,15 @@
         <v>64.1</v>
       </c>
       <c r="DL37" t="n">
-        <v>61.6</v>
+        <v>60.9</v>
+      </c>
+      <c r="DM37" t="n">
+        <v>65.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12406,11 +12505,14 @@
       </c>
       <c r="DL38" t="n">
         <v>526.5</v>
+      </c>
+      <c r="DM38" t="n">
+        <v>517</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12755,12 +12857,15 @@
         <v>272.3</v>
       </c>
       <c r="DL39" t="n">
-        <v>249.1</v>
+        <v>211.9</v>
+      </c>
+      <c r="DM39" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13106,11 +13211,14 @@
       </c>
       <c r="DL40" t="n">
         <v>26.2</v>
+      </c>
+      <c r="DM40" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13455,12 +13563,15 @@
         <v>346.1</v>
       </c>
       <c r="DL41" t="n">
-        <v>329.3</v>
+        <v>331.9</v>
+      </c>
+      <c r="DM41" t="n">
+        <v>335.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13805,12 +13916,15 @@
         <v>130.8</v>
       </c>
       <c r="DL42" t="n">
-        <v>118.5</v>
+        <v>119.2</v>
+      </c>
+      <c r="DM42" t="n">
+        <v>125.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14155,12 +14269,15 @@
         <v>124.9</v>
       </c>
       <c r="DL43" t="n">
-        <v>105.2</v>
+        <v>104.6</v>
+      </c>
+      <c r="DM43" t="n">
+        <v>106.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14505,12 +14622,15 @@
         <v>302</v>
       </c>
       <c r="DL44" t="n">
-        <v>275.2</v>
+        <v>275.5</v>
+      </c>
+      <c r="DM44" t="n">
+        <v>279.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14855,12 +14975,15 @@
         <v>25.8</v>
       </c>
       <c r="DL45" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
+      </c>
+      <c r="DM45" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -15205,12 +15328,15 @@
         <v>147.6</v>
       </c>
       <c r="DL46" t="n">
-        <v>139.8</v>
+        <v>138.6</v>
+      </c>
+      <c r="DM46" t="n">
+        <v>146.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15555,12 +15681,15 @@
         <v>32.1</v>
       </c>
       <c r="DL47" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
+      </c>
+      <c r="DM47" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -15905,12 +16034,15 @@
         <v>189.8</v>
       </c>
       <c r="DL48" t="n">
-        <v>165.7</v>
+        <v>164.2</v>
+      </c>
+      <c r="DM48" t="n">
+        <v>178.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -16255,12 +16387,15 @@
         <v>1083.4</v>
       </c>
       <c r="DL49" t="n">
-        <v>1023</v>
+        <v>1024.8</v>
+      </c>
+      <c r="DM49" t="n">
+        <v>1027</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16605,12 +16740,15 @@
         <v>106.5</v>
       </c>
       <c r="DL50" t="n">
-        <v>95.6</v>
+        <v>95.5</v>
+      </c>
+      <c r="DM50" t="n">
+        <v>100.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -16955,12 +17093,15 @@
         <v>27</v>
       </c>
       <c r="DL51" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
+      </c>
+      <c r="DM51" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17305,12 +17446,15 @@
         <v>288.1</v>
       </c>
       <c r="DL52" t="n">
-        <v>255.6</v>
+        <v>256.6</v>
+      </c>
+      <c r="DM52" t="n">
+        <v>264.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17655,12 +17799,15 @@
         <v>238.7</v>
       </c>
       <c r="DL53" t="n">
-        <v>219.9</v>
+        <v>224.6</v>
+      </c>
+      <c r="DM53" t="n">
+        <v>215.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -18006,11 +18153,14 @@
       </c>
       <c r="DL54" t="n">
         <v>49.8</v>
+      </c>
+      <c r="DM54" t="n">
+        <v>53.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18355,12 +18505,15 @@
         <v>177.6</v>
       </c>
       <c r="DL55" t="n">
-        <v>159.1</v>
+        <v>162.2</v>
+      </c>
+      <c r="DM55" t="n">
+        <v>158.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -18706,6 +18859,9 @@
       </c>
       <c r="DL56" t="n">
         <v>22.8</v>
+      </c>
+      <c r="DM56" t="n">
+        <v>23.9</v>
       </c>
     </row>
   </sheetData>
@@ -19035,10 +19191,13 @@
       <c r="CZ4" t="s">
         <v>115</v>
       </c>
+      <c r="DA4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19344,15 +19503,18 @@
         <v>1.83330982936116</v>
       </c>
       <c r="CY5" t="n">
-        <v>3.39042815775695</v>
+        <v>3.17244916494812</v>
       </c>
       <c r="CZ5" t="n">
-        <v>4.67415460388012</v>
+        <v>4.55402726890504</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>1.96633364021777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19661,12 +19823,15 @@
         <v>5.84636301835486</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.68780151619573</v>
+        <v>2.54996554100621</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>4.72074468085106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -19975,12 +20140,15 @@
         <v>4.16666666666666</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.534759358288778</v>
+        <v>1.06951871657754</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>-5.06912442396314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -20289,12 +20457,15 @@
         <v>7.54852624011503</v>
       </c>
       <c r="CZ8" t="n">
-        <v>2.57163850110213</v>
+        <v>6.98016164584866</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>-0.331858407079659</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -20604,11 +20775,14 @@
       </c>
       <c r="CZ9" t="n">
         <v>-2.96662546353524</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>-4.30232558139535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -20917,12 +21091,15 @@
         <v>-0.214822771213757</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-2.44102564102564</v>
+        <v>-2.55384615384615</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>3.63908275174477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -21231,12 +21408,15 @@
         <v>-0.256147540983621</v>
       </c>
       <c r="CZ11" t="n">
-        <v>3.0933633295838</v>
+        <v>3.88076490438694</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>3.91420911528149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -21545,12 +21725,15 @@
         <v>3.80687093779018</v>
       </c>
       <c r="CZ12" t="n">
-        <v>6.75526024363233</v>
+        <v>6.97674418604649</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>5.98669623059868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -21859,12 +22042,15 @@
         <v>3.18471337579618</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1.94174757281554</v>
+        <v>2.91262135922331</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>1.63934426229508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -21969,10 +22155,11 @@
       <c r="CX14"/>
       <c r="CY14"/>
       <c r="CZ14"/>
+      <c r="DA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -22282,11 +22469,14 @@
       </c>
       <c r="CZ15" t="n">
         <v>-3.23463548146305</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>4.40337668263745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -22595,12 +22785,15 @@
         <v>2.39219389361033</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.80936995153474</v>
+        <v>1.48626817447497</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>2.32700551132885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -22705,10 +22898,11 @@
       <c r="CX17"/>
       <c r="CY17"/>
       <c r="CZ17"/>
+      <c r="DA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -23018,11 +23212,14 @@
       </c>
       <c r="CZ18" t="n">
         <v>10.4166666666667</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>9.1097308488613</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -23332,11 +23529,14 @@
       </c>
       <c r="CZ19" t="n">
         <v>1.00171722953636</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>-2.72479564032698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -23645,12 +23845,15 @@
         <v>6.11672278338945</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.184049079754608</v>
+        <v>2.45398773006135</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0.0504286434694878</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -23959,12 +24162,15 @@
         <v>7.66062602965405</v>
       </c>
       <c r="CZ21" t="n">
-        <v>2.91704649042846</v>
+        <v>3.281677301732</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>0.686695278969955</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -24273,12 +24479,15 @@
         <v>5.13728963684676</v>
       </c>
       <c r="CZ22" t="n">
-        <v>1.5353121801433</v>
+        <v>2.9682702149437</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>-1.08991825613079</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -24587,12 +24796,15 @@
         <v>0.561009817671797</v>
       </c>
       <c r="CZ23" t="n">
-        <v>-2.10355987055017</v>
+        <v>-1.86084142394823</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>0.494699646643102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -24901,12 +25113,15 @@
         <v>3.65296803652967</v>
       </c>
       <c r="CZ24" t="n">
-        <v>3.54609929078012</v>
+        <v>2.75807722616233</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>1.66163141993957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -25215,12 +25430,15 @@
         <v>4.8951048951049</v>
       </c>
       <c r="CZ25" t="n">
-        <v>3.91061452513968</v>
+        <v>3.63128491620113</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0.274725274725279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -25530,11 +25748,14 @@
       </c>
       <c r="CZ26" t="n">
         <v>3.5164835164835</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>5.99439775910365</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -25844,11 +26065,14 @@
       </c>
       <c r="CZ27" t="n">
         <v>6.72969966629588</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>5.84307178631052</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -26157,12 +26381,15 @@
         <v>2.21471471471473</v>
       </c>
       <c r="CZ28" t="n">
-        <v>4.25440481306405</v>
+        <v>5.50064460678986</v>
+      </c>
+      <c r="DA28" t="n">
+        <v>2.98260149130076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -26471,12 +26698,15 @@
         <v>2.20193340494092</v>
       </c>
       <c r="CZ29" t="n">
-        <v>3.07210031347963</v>
+        <v>3.44827586206897</v>
+      </c>
+      <c r="DA29" t="n">
+        <v>0.813516896120139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -26785,12 +27015,15 @@
         <v>3.0430220356768</v>
       </c>
       <c r="CZ30" t="n">
-        <v>3.43680709534367</v>
+        <v>3.65853658536585</v>
+      </c>
+      <c r="DA30" t="n">
+        <v>3.97905759162303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -26895,10 +27128,11 @@
       <c r="CX31"/>
       <c r="CY31"/>
       <c r="CZ31"/>
+      <c r="DA31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -27207,12 +27441,15 @@
         <v>6.33245382585752</v>
       </c>
       <c r="CZ32" t="n">
-        <v>7.66871165644172</v>
+        <v>6.7484662576687</v>
+      </c>
+      <c r="DA32" t="n">
+        <v>4.20420420420422</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -27521,12 +27758,15 @@
         <v>7.29559748427673</v>
       </c>
       <c r="CZ33" t="n">
-        <v>3.60962566844918</v>
+        <v>3.87700534759357</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>0.898587933247739</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -27836,11 +28076,14 @@
       </c>
       <c r="CZ34" t="n">
         <v>9.25925925925926</v>
+      </c>
+      <c r="DA34" t="n">
+        <v>6.8362480127186</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -28149,12 +28392,15 @@
         <v>-0.799999999999992</v>
       </c>
       <c r="CZ35" t="n">
-        <v>4.23452768729642</v>
+        <v>5.21172638436481</v>
+      </c>
+      <c r="DA35" t="n">
+        <v>0.909090909090901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -28463,12 +28709,15 @@
         <v>1.15183246073299</v>
       </c>
       <c r="CZ36" t="n">
-        <v>3.08695652173914</v>
+        <v>4.56521739130435</v>
+      </c>
+      <c r="DA36" t="n">
+        <v>5.26542943461373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -28777,12 +29026,15 @@
         <v>-3.02571860816944</v>
       </c>
       <c r="CZ37" t="n">
-        <v>0.325732899022806</v>
+        <v>-0.814332247557003</v>
+      </c>
+      <c r="DA37" t="n">
+        <v>-4.2274052478134</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -29092,11 +29344,14 @@
       </c>
       <c r="CZ38" t="n">
         <v>6.83847402597402</v>
+      </c>
+      <c r="DA38" t="n">
+        <v>5.59640522875817</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -29405,12 +29660,15 @@
         <v>3.57550399391405</v>
       </c>
       <c r="CZ39" t="n">
-        <v>20.687984496124</v>
+        <v>2.66472868217053</v>
+      </c>
+      <c r="DA39" t="n">
+        <v>-3.3210332103321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -29720,11 +29978,14 @@
       </c>
       <c r="CZ40" t="n">
         <v>3.55731225296444</v>
+      </c>
+      <c r="DA40" t="n">
+        <v>7.75193798449614</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -30033,12 +30294,15 @@
         <v>0.874380647041662</v>
       </c>
       <c r="CZ41" t="n">
-        <v>0.182537268025545</v>
+        <v>0.973532096136308</v>
+      </c>
+      <c r="DA41" t="n">
+        <v>1.85241421196476</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -30347,12 +30611,15 @@
         <v>3.56294536817102</v>
       </c>
       <c r="CZ42" t="n">
-        <v>0.423728813559322</v>
+        <v>1.01694915254238</v>
+      </c>
+      <c r="DA42" t="n">
+        <v>1.86688311688311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -30661,12 +30928,15 @@
         <v>2.79835390946503</v>
       </c>
       <c r="CZ43" t="n">
-        <v>9.6976016684046</v>
+        <v>9.07194994786238</v>
+      </c>
+      <c r="DA43" t="n">
+        <v>9.97942386831276</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -30975,12 +31245,15 @@
         <v>2.79101429543907</v>
       </c>
       <c r="CZ44" t="n">
-        <v>4.47987851176918</v>
+        <v>4.59377372817009</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>3.8647342995169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -31289,12 +31562,15 @@
         <v>5.30612244897959</v>
       </c>
       <c r="CZ45" t="n">
-        <v>6.39269406392693</v>
+        <v>2.73972602739725</v>
+      </c>
+      <c r="DA45" t="n">
+        <v>5.6338028169014</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -31603,12 +31879,15 @@
         <v>3.943661971831</v>
       </c>
       <c r="CZ46" t="n">
-        <v>9.64705882352942</v>
+        <v>8.70588235294119</v>
+      </c>
+      <c r="DA46" t="n">
+        <v>3.16901408450704</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -31917,12 +32196,15 @@
         <v>8.44594594594595</v>
       </c>
       <c r="CZ47" t="n">
-        <v>9.71659919028341</v>
+        <v>10.9311740890688</v>
+      </c>
+      <c r="DA47" t="n">
+        <v>3.2258064516129</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -32231,12 +32513,15 @@
         <v>7.11060948081264</v>
       </c>
       <c r="CZ48" t="n">
-        <v>8.65573770491802</v>
+        <v>7.67213114754098</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>4.38084112149533</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -32545,12 +32830,15 @@
         <v>3.06316590563166</v>
       </c>
       <c r="CZ49" t="n">
-        <v>1.50823576106371</v>
+        <v>1.68684262750546</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>0.715896832401682</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -32859,12 +33147,15 @@
         <v>1.81644359464628</v>
       </c>
       <c r="CZ50" t="n">
-        <v>-0.829875518672211</v>
+        <v>-0.93360995850623</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>-1.94741966893866</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -33173,12 +33464,15 @@
         <v>1.12359550561798</v>
       </c>
       <c r="CZ51" t="n">
-        <v>9.1324200913242</v>
+        <v>8.2191780821918</v>
+      </c>
+      <c r="DA51" t="n">
+        <v>-1.7391304347826</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -33487,12 +33781,15 @@
         <v>0.243562978427295</v>
       </c>
       <c r="CZ52" t="n">
-        <v>3.23101777059773</v>
+        <v>3.63489499192246</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>-3.5727305869486</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -33801,12 +34098,15 @@
         <v>2.84360189573459</v>
       </c>
       <c r="CZ53" t="n">
-        <v>0.273597811217495</v>
+        <v>2.41678066575468</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>-0.644567219152844</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -34116,11 +34416,14 @@
       </c>
       <c r="CZ54" t="n">
         <v>5.50847457627117</v>
+      </c>
+      <c r="DA54" t="n">
+        <v>6.56063618290259</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -34429,12 +34732,15 @@
         <v>11.3479623824451</v>
       </c>
       <c r="CZ55" t="n">
-        <v>4.25950196592397</v>
+        <v>6.29095674967232</v>
+      </c>
+      <c r="DA55" t="n">
+        <v>1.8029620090148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -34744,6 +35050,9 @@
       </c>
       <c r="CZ56" t="n">
         <v>2.70270270270269</v>
+      </c>
+      <c r="DA56" t="n">
+        <v>0.420168067226882</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t xml:space="preserve">08/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1203,10 +1206,13 @@
       <c r="DM4" t="s">
         <v>116</v>
       </c>
+      <c r="DN4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1551,15 +1557,18 @@
         <v>9655.6</v>
       </c>
       <c r="DL5" t="n">
-        <v>8703.6</v>
+        <v>8692.7</v>
       </c>
       <c r="DM5" t="n">
-        <v>8971.1</v>
+        <v>9057.3</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>10090.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1907,12 +1916,15 @@
         <v>148.8</v>
       </c>
       <c r="DM6" t="n">
-        <v>157.5</v>
+        <v>156.5</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>164.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2260,12 +2272,15 @@
         <v>18.9</v>
       </c>
       <c r="DM7" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>24.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2613,12 +2628,15 @@
         <v>145.6</v>
       </c>
       <c r="DM8" t="n">
-        <v>180.2</v>
+        <v>177.7</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>192.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2967,11 +2985,14 @@
       </c>
       <c r="DM9" t="n">
         <v>82.3</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>94.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3319,12 +3340,15 @@
         <v>950.1</v>
       </c>
       <c r="DM10" t="n">
-        <v>1039.5</v>
+        <v>1020</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>1104.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3672,12 +3696,15 @@
         <v>184.7</v>
       </c>
       <c r="DM11" t="n">
-        <v>193.8</v>
+        <v>191.6</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>206.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4025,12 +4052,15 @@
         <v>96.6</v>
       </c>
       <c r="DM12" t="n">
-        <v>95.6</v>
+        <v>94.5</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>118.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4378,12 +4408,15 @@
         <v>31.8</v>
       </c>
       <c r="DM13" t="n">
-        <v>31</v>
+        <v>30.7</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4501,10 +4534,11 @@
       <c r="DK14"/>
       <c r="DL14"/>
       <c r="DM14"/>
+      <c r="DN14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4853,11 +4887,14 @@
       </c>
       <c r="DM15" t="n">
         <v>457.6</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>487.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5205,12 +5242,15 @@
         <v>314.1</v>
       </c>
       <c r="DM16" t="n">
-        <v>334.2</v>
+        <v>332.5</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>338.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5328,10 +5368,11 @@
       <c r="DK17"/>
       <c r="DL17"/>
       <c r="DM17"/>
+      <c r="DN17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5679,12 +5720,15 @@
         <v>53</v>
       </c>
       <c r="DM18" t="n">
-        <v>52.7</v>
+        <v>53</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>58.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6033,11 +6077,14 @@
       </c>
       <c r="DM19" t="n">
         <v>357</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>414.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6385,12 +6432,15 @@
         <v>167</v>
       </c>
       <c r="DM20" t="n">
-        <v>198.4</v>
+        <v>199.2</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>220.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6739,11 +6789,14 @@
       </c>
       <c r="DM21" t="n">
         <v>117.3</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>138.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7091,12 +7144,15 @@
         <v>100.6</v>
       </c>
       <c r="DM22" t="n">
-        <v>108.9</v>
+        <v>110.1</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>131.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7444,12 +7500,15 @@
         <v>121.3</v>
       </c>
       <c r="DM23" t="n">
-        <v>142.2</v>
+        <v>143</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>154.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7798,11 +7857,14 @@
       </c>
       <c r="DM24" t="n">
         <v>134.6</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>140.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8150,12 +8212,15 @@
         <v>37.1</v>
       </c>
       <c r="DM25" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8503,12 +8568,15 @@
         <v>188.4</v>
       </c>
       <c r="DM26" t="n">
-        <v>189.2</v>
+        <v>190.6</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>208.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8856,12 +8924,15 @@
         <v>191.9</v>
       </c>
       <c r="DM27" t="n">
-        <v>190.2</v>
+        <v>190.1</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>226.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9209,12 +9280,15 @@
         <v>245.5</v>
       </c>
       <c r="DM28" t="n">
-        <v>248.6</v>
+        <v>253.3</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>302.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9562,12 +9636,15 @@
         <v>165</v>
       </c>
       <c r="DM29" t="n">
-        <v>161.1</v>
+        <v>161</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>186.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9915,12 +9992,15 @@
         <v>93.5</v>
       </c>
       <c r="DM30" t="n">
-        <v>99.3</v>
+        <v>99.6</v>
+      </c>
+      <c r="DN30" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10038,10 +10118,11 @@
       <c r="DK31"/>
       <c r="DL31"/>
       <c r="DM31"/>
+      <c r="DN31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10389,12 +10470,15 @@
         <v>34.8</v>
       </c>
       <c r="DM32" t="n">
-        <v>34.7</v>
+        <v>35.4</v>
+      </c>
+      <c r="DN32" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10742,12 +10826,15 @@
         <v>77.7</v>
       </c>
       <c r="DM33" t="n">
-        <v>78.6</v>
+        <v>78.7</v>
+      </c>
+      <c r="DN33" t="n">
+        <v>88.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11096,11 +11183,14 @@
       </c>
       <c r="DM34" t="n">
         <v>67.2</v>
+      </c>
+      <c r="DN34" t="n">
+        <v>78.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11448,12 +11538,15 @@
         <v>32.3</v>
       </c>
       <c r="DM35" t="n">
-        <v>33.3</v>
+        <v>33.9</v>
+      </c>
+      <c r="DN35" t="n">
+        <v>46.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11801,12 +11894,15 @@
         <v>240.5</v>
       </c>
       <c r="DM36" t="n">
-        <v>243.9</v>
+        <v>244.8</v>
+      </c>
+      <c r="DN36" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12154,12 +12250,15 @@
         <v>60.9</v>
       </c>
       <c r="DM37" t="n">
-        <v>65.7</v>
+        <v>66.1</v>
+      </c>
+      <c r="DN37" t="n">
+        <v>70.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12507,12 +12606,15 @@
         <v>526.5</v>
       </c>
       <c r="DM38" t="n">
-        <v>517</v>
+        <v>520.4</v>
+      </c>
+      <c r="DN38" t="n">
+        <v>619.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12861,11 +12963,14 @@
       </c>
       <c r="DM39" t="n">
         <v>262</v>
+      </c>
+      <c r="DN39" t="n">
+        <v>300.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13214,11 +13319,14 @@
       </c>
       <c r="DM40" t="n">
         <v>27.8</v>
+      </c>
+      <c r="DN40" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13566,12 +13674,15 @@
         <v>331.9</v>
       </c>
       <c r="DM41" t="n">
-        <v>335.4</v>
+        <v>335.3</v>
+      </c>
+      <c r="DN41" t="n">
+        <v>376.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -13919,12 +14030,15 @@
         <v>119.2</v>
       </c>
       <c r="DM42" t="n">
-        <v>125.5</v>
+        <v>124.1</v>
+      </c>
+      <c r="DN42" t="n">
+        <v>142.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14272,12 +14386,15 @@
         <v>104.6</v>
       </c>
       <c r="DM43" t="n">
-        <v>106.9</v>
+        <v>106.7</v>
+      </c>
+      <c r="DN43" t="n">
+        <v>120.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14625,12 +14742,15 @@
         <v>275.5</v>
       </c>
       <c r="DM44" t="n">
-        <v>279.5</v>
+        <v>280.6</v>
+      </c>
+      <c r="DN44" t="n">
+        <v>317.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -14978,12 +15098,15 @@
         <v>22.5</v>
       </c>
       <c r="DM45" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
+      </c>
+      <c r="DN45" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -15331,12 +15454,15 @@
         <v>138.6</v>
       </c>
       <c r="DM46" t="n">
-        <v>146.5</v>
+        <v>146.3</v>
+      </c>
+      <c r="DN46" t="n">
+        <v>160.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15684,12 +15810,15 @@
         <v>27.4</v>
       </c>
       <c r="DM47" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
+      </c>
+      <c r="DN47" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -16037,12 +16166,15 @@
         <v>164.2</v>
       </c>
       <c r="DM48" t="n">
-        <v>178.7</v>
+        <v>180.4</v>
+      </c>
+      <c r="DN48" t="n">
+        <v>204.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -16390,12 +16522,15 @@
         <v>1024.8</v>
       </c>
       <c r="DM49" t="n">
-        <v>1027</v>
+        <v>1030</v>
+      </c>
+      <c r="DN49" t="n">
+        <v>1110.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16743,12 +16878,15 @@
         <v>95.5</v>
       </c>
       <c r="DM50" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>118.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -17096,12 +17234,15 @@
         <v>23.7</v>
       </c>
       <c r="DM51" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
+      </c>
+      <c r="DN51" t="n">
+        <v>28.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17449,12 +17590,15 @@
         <v>256.6</v>
       </c>
       <c r="DM52" t="n">
-        <v>264.5</v>
+        <v>277.4</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>301.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17802,12 +17946,15 @@
         <v>224.6</v>
       </c>
       <c r="DM53" t="n">
-        <v>215.8</v>
+        <v>217.1</v>
+      </c>
+      <c r="DN53" t="n">
+        <v>229.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -18156,11 +18303,14 @@
       </c>
       <c r="DM54" t="n">
         <v>53.6</v>
+      </c>
+      <c r="DN54" t="n">
+        <v>57.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18508,12 +18658,15 @@
         <v>162.2</v>
       </c>
       <c r="DM55" t="n">
-        <v>158.1</v>
+        <v>156.5</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>192.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -18861,7 +19014,10 @@
         <v>22.8</v>
       </c>
       <c r="DM56" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>25.9</v>
       </c>
     </row>
   </sheetData>
@@ -19194,10 +19350,13 @@
       <c r="DA4" t="s">
         <v>116</v>
       </c>
+      <c r="DB4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19506,15 +19665,18 @@
         <v>3.17244916494812</v>
       </c>
       <c r="CZ5" t="n">
-        <v>4.55402726890504</v>
+        <v>4.42308847378222</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.96633364021777</v>
+        <v>2.94609063320488</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>3.44562453866973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19826,12 +19988,15 @@
         <v>2.54996554100621</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.72074468085106</v>
+        <v>4.05585106382978</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>4.17457305502846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -20143,12 +20308,15 @@
         <v>1.06951871657754</v>
       </c>
       <c r="DA7" t="n">
-        <v>-5.06912442396314</v>
+        <v>-4.14746543778804</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>-2.73437500000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -20460,12 +20628,15 @@
         <v>6.98016164584866</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.331858407079659</v>
+        <v>-1.71460176991152</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>1.84794086589228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -20778,11 +20949,14 @@
       </c>
       <c r="DA9" t="n">
         <v>-4.30232558139535</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>-2.16494845360824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -21094,12 +21268,15 @@
         <v>-2.55384615384615</v>
       </c>
       <c r="DA10" t="n">
-        <v>3.63908275174477</v>
+        <v>1.69491525423729</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>3.03284807764091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -21411,12 +21588,15 @@
         <v>3.88076490438694</v>
       </c>
       <c r="DA11" t="n">
-        <v>3.91420911528149</v>
+        <v>2.73458445040214</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>2.89132602193419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -21728,12 +21908,15 @@
         <v>6.97674418604649</v>
       </c>
       <c r="DA12" t="n">
-        <v>5.98669623059868</v>
+        <v>4.76718403547673</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>1.36986301369861</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -22045,12 +22228,15 @@
         <v>2.91262135922331</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.63934426229508</v>
+        <v>0.655737704918042</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>3.59281437125745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -22156,10 +22342,11 @@
       <c r="CY14"/>
       <c r="CZ14"/>
       <c r="DA14"/>
+      <c r="DB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -22472,11 +22659,14 @@
       </c>
       <c r="DA15" t="n">
         <v>4.40337668263745</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>3.63288718929254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -22788,12 +22978,15 @@
         <v>1.48626817447497</v>
       </c>
       <c r="DA16" t="n">
-        <v>2.32700551132885</v>
+        <v>1.80649112063686</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>2.92237442922375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -22899,10 +23092,11 @@
       <c r="CY17"/>
       <c r="CZ17"/>
       <c r="DA17"/>
+      <c r="DB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -23214,12 +23408,15 @@
         <v>10.4166666666667</v>
       </c>
       <c r="DA18" t="n">
-        <v>9.1097308488613</v>
+        <v>9.73084886128365</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>3.88007054673721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -23532,11 +23729,14 @@
       </c>
       <c r="DA19" t="n">
         <v>-2.72479564032698</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0.949598246895553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -23848,12 +24048,15 @@
         <v>2.45398773006135</v>
       </c>
       <c r="DA20" t="n">
-        <v>0.0504286434694878</v>
+        <v>0.453857791225419</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0.914494741655222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -24165,12 +24368,15 @@
         <v>3.281677301732</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.686695278969955</v>
+        <v>0.686695278969967</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>2.13235294117647</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -24482,12 +24688,15 @@
         <v>2.9682702149437</v>
       </c>
       <c r="DA22" t="n">
-        <v>-1.08991825613079</v>
+        <v>-0.0000000000000129072249911008</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>4.84896661367249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -24799,12 +25008,15 @@
         <v>-1.86084142394823</v>
       </c>
       <c r="DA23" t="n">
-        <v>0.494699646643102</v>
+        <v>1.06007067137809</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>3.27759197324415</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -25117,11 +25329,14 @@
       </c>
       <c r="DA24" t="n">
         <v>1.66163141993957</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0.0713775874375202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -25433,12 +25648,15 @@
         <v>3.63128491620113</v>
       </c>
       <c r="DA25" t="n">
-        <v>0.274725274725279</v>
+        <v>-0.824175824175816</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>-0.862068965517254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -25750,12 +25968,15 @@
         <v>3.5164835164835</v>
       </c>
       <c r="DA26" t="n">
-        <v>5.99439775910365</v>
+        <v>6.77871148459385</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>7.90289256198345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -26067,12 +26288,15 @@
         <v>6.72969966629588</v>
       </c>
       <c r="DA27" t="n">
-        <v>5.84307178631052</v>
+        <v>5.78742348358377</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>8.53717026378897</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -26384,12 +26608,15 @@
         <v>5.50064460678986</v>
       </c>
       <c r="DA28" t="n">
-        <v>2.98260149130076</v>
+        <v>4.92957746478875</v>
+      </c>
+      <c r="DB28" t="n">
+        <v>6.21707060063224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -26701,12 +26928,15 @@
         <v>3.44827586206897</v>
       </c>
       <c r="DA29" t="n">
-        <v>0.813516896120139</v>
+        <v>0.75093867334167</v>
+      </c>
+      <c r="DB29" t="n">
+        <v>-0.21447721179625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -27018,12 +27248,15 @@
         <v>3.65853658536585</v>
       </c>
       <c r="DA30" t="n">
-        <v>3.97905759162303</v>
+        <v>4.29319371727748</v>
+      </c>
+      <c r="DB30" t="n">
+        <v>-0.19569471624265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -27129,10 +27362,11 @@
       <c r="CY31"/>
       <c r="CZ31"/>
       <c r="DA31"/>
+      <c r="DB31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -27444,12 +27678,15 @@
         <v>6.7484662576687</v>
       </c>
       <c r="DA32" t="n">
-        <v>4.20420420420422</v>
+        <v>6.30630630630631</v>
+      </c>
+      <c r="DB32" t="n">
+        <v>3.68550368550369</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -27761,12 +27998,15 @@
         <v>3.87700534759357</v>
       </c>
       <c r="DA33" t="n">
-        <v>0.898587933247739</v>
+        <v>1.02695763799743</v>
+      </c>
+      <c r="DB33" t="n">
+        <v>1.13765642775882</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -28079,11 +28319,14 @@
       </c>
       <c r="DA34" t="n">
         <v>6.8362480127186</v>
+      </c>
+      <c r="DB34" t="n">
+        <v>4.64190981432361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -28395,12 +28638,15 @@
         <v>5.21172638436481</v>
       </c>
       <c r="DA35" t="n">
-        <v>0.909090909090901</v>
+        <v>2.72727272727272</v>
+      </c>
+      <c r="DB35" t="n">
+        <v>8.21596244131455</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -28712,12 +28958,15 @@
         <v>4.56521739130435</v>
       </c>
       <c r="DA36" t="n">
-        <v>5.26542943461373</v>
+        <v>5.65386275356065</v>
+      </c>
+      <c r="DB36" t="n">
+        <v>1.59857904085258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -29029,12 +29278,15 @@
         <v>-0.814332247557003</v>
       </c>
       <c r="DA37" t="n">
-        <v>-4.2274052478134</v>
+        <v>-3.64431486880467</v>
+      </c>
+      <c r="DB37" t="n">
+        <v>-1.81058495821729</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -29346,12 +29598,15 @@
         <v>6.83847402597402</v>
       </c>
       <c r="DA38" t="n">
-        <v>5.59640522875817</v>
+        <v>6.2908496732026</v>
+      </c>
+      <c r="DB38" t="n">
+        <v>0.194080543425529</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -29664,11 +29919,14 @@
       </c>
       <c r="DA39" t="n">
         <v>-3.3210332103321</v>
+      </c>
+      <c r="DB39" t="n">
+        <v>-0.265604249667998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -29981,11 +30239,14 @@
       </c>
       <c r="DA40" t="n">
         <v>7.75193798449614</v>
+      </c>
+      <c r="DB40" t="n">
+        <v>2.57142857142859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -30297,12 +30558,15 @@
         <v>0.973532096136308</v>
       </c>
       <c r="DA41" t="n">
-        <v>1.85241421196476</v>
+        <v>1.82204676586697</v>
+      </c>
+      <c r="DB41" t="n">
+        <v>4.0342636087317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -30614,12 +30878,15 @@
         <v>1.01694915254238</v>
       </c>
       <c r="DA42" t="n">
-        <v>1.86688311688311</v>
+        <v>0.730519480519474</v>
+      </c>
+      <c r="DB42" t="n">
+        <v>1.63817663817663</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -30931,12 +31198,15 @@
         <v>9.07194994786238</v>
       </c>
       <c r="DA43" t="n">
-        <v>9.97942386831276</v>
+        <v>9.77366255144033</v>
+      </c>
+      <c r="DB43" t="n">
+        <v>8.43806104129263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -31248,12 +31518,15 @@
         <v>4.59377372817009</v>
       </c>
       <c r="DA44" t="n">
-        <v>3.8647342995169</v>
+        <v>4.27350427350427</v>
+      </c>
+      <c r="DB44" t="n">
+        <v>1.92678227360306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -31565,12 +31838,15 @@
         <v>2.73972602739725</v>
       </c>
       <c r="DA45" t="n">
-        <v>5.6338028169014</v>
+        <v>4.22535211267607</v>
+      </c>
+      <c r="DB45" t="n">
+        <v>9.57854406130267</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -31882,12 +32158,15 @@
         <v>8.70588235294119</v>
       </c>
       <c r="DA46" t="n">
-        <v>3.16901408450704</v>
+        <v>3.02816901408451</v>
+      </c>
+      <c r="DB46" t="n">
+        <v>5.31496062992126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -32199,12 +32478,15 @@
         <v>10.9311740890688</v>
       </c>
       <c r="DA47" t="n">
-        <v>3.2258064516129</v>
+        <v>1.7921146953405</v>
+      </c>
+      <c r="DB47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -32516,12 +32798,15 @@
         <v>7.67213114754098</v>
       </c>
       <c r="DA48" t="n">
-        <v>4.38084112149533</v>
+        <v>5.37383177570095</v>
+      </c>
+      <c r="DB48" t="n">
+        <v>4.6475995914198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -32833,12 +33118,15 @@
         <v>1.68684262750546</v>
       </c>
       <c r="DA49" t="n">
-        <v>0.715896832401682</v>
+        <v>1.01010101010101</v>
+      </c>
+      <c r="DB49" t="n">
+        <v>3.02383823393007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -33150,12 +33438,15 @@
         <v>-0.93360995850623</v>
       </c>
       <c r="DA50" t="n">
-        <v>-1.94741966893866</v>
+        <v>-1.85004868549173</v>
+      </c>
+      <c r="DB50" t="n">
+        <v>2.68166089965396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -33467,12 +33758,15 @@
         <v>8.2191780821918</v>
       </c>
       <c r="DA51" t="n">
-        <v>-1.7391304347826</v>
+        <v>-2.17391304347826</v>
+      </c>
+      <c r="DB51" t="n">
+        <v>1.42348754448398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -33784,12 +34078,15 @@
         <v>3.63489499192246</v>
       </c>
       <c r="DA52" t="n">
-        <v>-3.5727305869486</v>
+        <v>1.13014947138169</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>2.3066485753053</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -34101,12 +34398,15 @@
         <v>2.41678066575468</v>
       </c>
       <c r="DA53" t="n">
-        <v>-0.644567219152844</v>
+        <v>-0.0460405156537727</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>3.14042171377298</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -34419,11 +34719,14 @@
       </c>
       <c r="DA54" t="n">
         <v>6.56063618290259</v>
+      </c>
+      <c r="DB54" t="n">
+        <v>2.66429840142096</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -34735,12 +35038,15 @@
         <v>6.29095674967232</v>
       </c>
       <c r="DA55" t="n">
-        <v>1.8029620090148</v>
+        <v>0.772698003863483</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>3.05630026809652</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -35052,7 +35358,10 @@
         <v>2.70270270270269</v>
       </c>
       <c r="DA56" t="n">
-        <v>0.420168067226882</v>
+        <v>-2.52100840336135</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>-5.47445255474453</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t xml:space="preserve">09/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1209,10 +1212,13 @@
       <c r="DN4" t="s">
         <v>117</v>
       </c>
+      <c r="DO4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1560,15 +1566,18 @@
         <v>8692.7</v>
       </c>
       <c r="DM5" t="n">
-        <v>9057.3</v>
+        <v>9058</v>
       </c>
       <c r="DN5" t="n">
-        <v>10090.5</v>
+        <v>10084.2</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>10414.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1919,12 +1928,15 @@
         <v>156.5</v>
       </c>
       <c r="DN6" t="n">
-        <v>164.7</v>
+        <v>164.4</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>167.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2275,12 +2287,15 @@
         <v>20.8</v>
       </c>
       <c r="DN7" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2631,12 +2646,15 @@
         <v>177.7</v>
       </c>
       <c r="DN8" t="n">
-        <v>192.9</v>
+        <v>193</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>194.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -2988,11 +3006,14 @@
       </c>
       <c r="DN9" t="n">
         <v>94.9</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>96.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3343,12 +3364,15 @@
         <v>1020</v>
       </c>
       <c r="DN10" t="n">
-        <v>1104.1</v>
+        <v>1093.9</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>1149.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3699,12 +3723,15 @@
         <v>191.6</v>
       </c>
       <c r="DN11" t="n">
-        <v>206.4</v>
+        <v>209.3</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>216.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4055,12 +4082,15 @@
         <v>94.5</v>
       </c>
       <c r="DN12" t="n">
-        <v>118.4</v>
+        <v>118.8</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4412,11 +4442,14 @@
       </c>
       <c r="DN13" t="n">
         <v>34.6</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4535,10 +4568,11 @@
       <c r="DL14"/>
       <c r="DM14"/>
       <c r="DN14"/>
+      <c r="DO14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4889,12 +4923,15 @@
         <v>457.6</v>
       </c>
       <c r="DN15" t="n">
-        <v>487.8</v>
+        <v>487.3</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>492.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5245,12 +5282,15 @@
         <v>332.5</v>
       </c>
       <c r="DN16" t="n">
-        <v>338.1</v>
+        <v>338.3</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>341.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5369,10 +5409,11 @@
       <c r="DL17"/>
       <c r="DM17"/>
       <c r="DN17"/>
+      <c r="DO17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5723,12 +5764,15 @@
         <v>53</v>
       </c>
       <c r="DN18" t="n">
-        <v>58.9</v>
+        <v>60.2</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>63.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6080,11 +6124,14 @@
       </c>
       <c r="DN19" t="n">
         <v>414.6</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>427.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6435,12 +6482,15 @@
         <v>199.2</v>
       </c>
       <c r="DN20" t="n">
-        <v>220.7</v>
+        <v>221.4</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>222.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6791,12 +6841,15 @@
         <v>117.3</v>
       </c>
       <c r="DN21" t="n">
-        <v>138.9</v>
+        <v>139.7</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>145.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7147,12 +7200,15 @@
         <v>110.1</v>
       </c>
       <c r="DN22" t="n">
-        <v>131.9</v>
+        <v>130</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>133.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7503,12 +7559,15 @@
         <v>143</v>
       </c>
       <c r="DN23" t="n">
-        <v>154.4</v>
+        <v>154.8</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>157.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7859,12 +7918,15 @@
         <v>134.6</v>
       </c>
       <c r="DN24" t="n">
-        <v>140.2</v>
+        <v>140.9</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>142.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8215,12 +8277,15 @@
         <v>36.1</v>
       </c>
       <c r="DN25" t="n">
-        <v>46</v>
+        <v>46.6</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8572,11 +8637,14 @@
       </c>
       <c r="DN26" t="n">
         <v>208.9</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>219.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8927,12 +8995,15 @@
         <v>190.1</v>
       </c>
       <c r="DN27" t="n">
-        <v>226.3</v>
+        <v>227.8</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>234.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9283,12 +9354,15 @@
         <v>253.3</v>
       </c>
       <c r="DN28" t="n">
-        <v>302.4</v>
+        <v>301.5</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>312.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9639,12 +9713,15 @@
         <v>161</v>
       </c>
       <c r="DN29" t="n">
-        <v>186.1</v>
+        <v>186.6</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>199.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -9996,11 +10073,14 @@
       </c>
       <c r="DN30" t="n">
         <v>102</v>
+      </c>
+      <c r="DO30" t="n">
+        <v>103.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10119,10 +10199,11 @@
       <c r="DL31"/>
       <c r="DM31"/>
       <c r="DN31"/>
+      <c r="DO31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10473,12 +10554,15 @@
         <v>35.4</v>
       </c>
       <c r="DN32" t="n">
-        <v>42.2</v>
+        <v>41.1</v>
+      </c>
+      <c r="DO32" t="n">
+        <v>43.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10829,12 +10913,15 @@
         <v>78.7</v>
       </c>
       <c r="DN33" t="n">
-        <v>88.9</v>
+        <v>89.2</v>
+      </c>
+      <c r="DO33" t="n">
+        <v>92.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11186,11 +11273,14 @@
       </c>
       <c r="DN34" t="n">
         <v>78.9</v>
+      </c>
+      <c r="DO34" t="n">
+        <v>78.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11542,11 +11632,14 @@
       </c>
       <c r="DN35" t="n">
         <v>46.1</v>
+      </c>
+      <c r="DO35" t="n">
+        <v>47.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11897,12 +11990,15 @@
         <v>244.8</v>
       </c>
       <c r="DN36" t="n">
-        <v>286</v>
+        <v>286.4</v>
+      </c>
+      <c r="DO36" t="n">
+        <v>308.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12253,12 +12349,15 @@
         <v>66.1</v>
       </c>
       <c r="DN37" t="n">
-        <v>70.5</v>
+        <v>70.4</v>
+      </c>
+      <c r="DO37" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12609,12 +12708,15 @@
         <v>520.4</v>
       </c>
       <c r="DN38" t="n">
-        <v>619.5</v>
+        <v>624.1</v>
+      </c>
+      <c r="DO38" t="n">
+        <v>669.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -12966,11 +13068,14 @@
       </c>
       <c r="DN39" t="n">
         <v>300.4</v>
+      </c>
+      <c r="DO39" t="n">
+        <v>309.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13322,11 +13427,14 @@
       </c>
       <c r="DN40" t="n">
         <v>35.9</v>
+      </c>
+      <c r="DO40" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13677,12 +13785,15 @@
         <v>335.3</v>
       </c>
       <c r="DN41" t="n">
-        <v>376.5</v>
+        <v>377.8</v>
+      </c>
+      <c r="DO41" t="n">
+        <v>390.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14033,12 +14144,15 @@
         <v>124.1</v>
       </c>
       <c r="DN42" t="n">
-        <v>142.7</v>
+        <v>142.6</v>
+      </c>
+      <c r="DO42" t="n">
+        <v>145.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14389,12 +14503,15 @@
         <v>106.7</v>
       </c>
       <c r="DN43" t="n">
-        <v>120.8</v>
+        <v>121</v>
+      </c>
+      <c r="DO43" t="n">
+        <v>129.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14745,12 +14862,15 @@
         <v>280.6</v>
       </c>
       <c r="DN44" t="n">
-        <v>317.4</v>
+        <v>317.5</v>
+      </c>
+      <c r="DO44" t="n">
+        <v>324.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -15101,12 +15221,15 @@
         <v>22.2</v>
       </c>
       <c r="DN45" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
+      </c>
+      <c r="DO45" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -15457,12 +15580,15 @@
         <v>146.3</v>
       </c>
       <c r="DN46" t="n">
-        <v>160.5</v>
+        <v>158.6</v>
+      </c>
+      <c r="DO46" t="n">
+        <v>161.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15813,12 +15939,15 @@
         <v>28.4</v>
       </c>
       <c r="DN47" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
+      </c>
+      <c r="DO47" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -16170,11 +16299,14 @@
       </c>
       <c r="DN48" t="n">
         <v>204.9</v>
+      </c>
+      <c r="DO48" t="n">
+        <v>207.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -16525,12 +16657,15 @@
         <v>1030</v>
       </c>
       <c r="DN49" t="n">
-        <v>1110.7</v>
+        <v>1103.1</v>
+      </c>
+      <c r="DO49" t="n">
+        <v>1132.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -16882,11 +17017,14 @@
       </c>
       <c r="DN50" t="n">
         <v>118.7</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>122.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -17238,11 +17376,14 @@
       </c>
       <c r="DN51" t="n">
         <v>28.5</v>
+      </c>
+      <c r="DO51" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17593,12 +17734,15 @@
         <v>277.4</v>
       </c>
       <c r="DN52" t="n">
-        <v>301.6</v>
+        <v>306.1</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>315.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -17949,12 +18093,15 @@
         <v>217.1</v>
       </c>
       <c r="DN53" t="n">
-        <v>229.9</v>
+        <v>230</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>244.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -18306,11 +18453,14 @@
       </c>
       <c r="DN54" t="n">
         <v>57.8</v>
+      </c>
+      <c r="DO54" t="n">
+        <v>59.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18661,12 +18811,15 @@
         <v>156.5</v>
       </c>
       <c r="DN55" t="n">
-        <v>192.2</v>
+        <v>192.3</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>201.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -19017,7 +19170,10 @@
         <v>23.2</v>
       </c>
       <c r="DN56" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>27.4</v>
       </c>
     </row>
   </sheetData>
@@ -19353,10 +19509,13 @@
       <c r="DB4" t="s">
         <v>117</v>
       </c>
+      <c r="DC4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19668,15 +19827,18 @@
         <v>4.42308847378222</v>
       </c>
       <c r="DA5" t="n">
-        <v>2.94609063320488</v>
+        <v>2.95404689648901</v>
       </c>
       <c r="DB5" t="n">
-        <v>3.44562453866973</v>
+        <v>3.38103830066433</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>3.75277697526374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -19991,12 +20153,15 @@
         <v>4.05585106382978</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.17457305502846</v>
+        <v>3.98481973434536</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>2.94840294840294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -20311,12 +20476,15 @@
         <v>-4.14746543778804</v>
       </c>
       <c r="DB7" t="n">
-        <v>-2.73437500000001</v>
+        <v>-4.29687500000001</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-4.11985018726591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -20631,12 +20799,15 @@
         <v>-1.71460176991152</v>
       </c>
       <c r="DB8" t="n">
-        <v>1.84794086589228</v>
+        <v>1.90073917634635</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>2.36593059936909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -20952,11 +21123,14 @@
       </c>
       <c r="DB9" t="n">
         <v>-2.16494845360824</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-1.93482688391038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -21271,12 +21445,15 @@
         <v>1.69491525423729</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.03284807764091</v>
+        <v>2.08100037327363</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>3.2617485847785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -21591,12 +21768,15 @@
         <v>2.73458445040214</v>
       </c>
       <c r="DB11" t="n">
-        <v>2.89132602193419</v>
+        <v>4.3369890329013</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>4.53449107573564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -21911,12 +22091,15 @@
         <v>4.76718403547673</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.36986301369861</v>
+        <v>1.71232876712328</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.737100737100742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -22231,12 +22414,15 @@
         <v>0.655737704918042</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.59281437125745</v>
+        <v>3.59281437125747</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>5.20231213872832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -22343,10 +22529,11 @@
       <c r="CZ14"/>
       <c r="DA14"/>
       <c r="DB14"/>
+      <c r="DC14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -22661,12 +22848,15 @@
         <v>4.40337668263745</v>
       </c>
       <c r="DB15" t="n">
-        <v>3.63288718929254</v>
+        <v>3.52666241767579</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>3.57217902920782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -22981,12 +23171,15 @@
         <v>1.80649112063686</v>
       </c>
       <c r="DB16" t="n">
-        <v>2.92237442922375</v>
+        <v>2.98325722983258</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>2.61654135338347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -23093,10 +23286,11 @@
       <c r="CZ17"/>
       <c r="DA17"/>
       <c r="DB17"/>
+      <c r="DC17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -23411,12 +23605,15 @@
         <v>9.73084886128365</v>
       </c>
       <c r="DB18" t="n">
-        <v>3.88007054673721</v>
+        <v>6.17283950617283</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>6.86767169179229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -23732,11 +23929,14 @@
       </c>
       <c r="DB19" t="n">
         <v>0.949598246895553</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>2.22434824204735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -24051,12 +24251,15 @@
         <v>0.453857791225419</v>
       </c>
       <c r="DB20" t="n">
-        <v>0.914494741655222</v>
+        <v>1.23456790123455</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>1.13533151680291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -24371,12 +24574,15 @@
         <v>0.686695278969967</v>
       </c>
       <c r="DB21" t="n">
-        <v>2.13235294117647</v>
+        <v>2.72058823529411</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>2.47175141242938</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -24691,12 +24897,15 @@
         <v>-0.0000000000000129072249911008</v>
       </c>
       <c r="DB22" t="n">
-        <v>4.84896661367249</v>
+        <v>3.33863275039745</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>1.51975683890578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -25011,12 +25220,15 @@
         <v>1.06007067137809</v>
       </c>
       <c r="DB23" t="n">
-        <v>3.27759197324415</v>
+        <v>3.54515050167225</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>2.7468933943754</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -25331,12 +25543,15 @@
         <v>1.66163141993957</v>
       </c>
       <c r="DB24" t="n">
-        <v>0.0713775874375202</v>
+        <v>0.571020699500345</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0.210526315789482</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -25651,12 +25866,15 @@
         <v>-0.824175824175816</v>
       </c>
       <c r="DB25" t="n">
-        <v>-0.862068965517254</v>
+        <v>0.431034482758611</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>1.05042016806723</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -25972,11 +26190,14 @@
       </c>
       <c r="DB26" t="n">
         <v>7.90289256198345</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>6.13230323515211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -26291,12 +26512,15 @@
         <v>5.78742348358377</v>
       </c>
       <c r="DB27" t="n">
-        <v>8.53717026378897</v>
+        <v>9.25659472422063</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>9.66837926202708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -26611,12 +26835,15 @@
         <v>4.92957746478875</v>
       </c>
       <c r="DB28" t="n">
-        <v>6.21707060063224</v>
+        <v>5.9009483667018</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>4.90756302521009</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -26931,12 +27158,15 @@
         <v>0.75093867334167</v>
       </c>
       <c r="DB29" t="n">
-        <v>-0.21447721179625</v>
+        <v>0.0536193029490586</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>0.757193336698637</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -27252,11 +27482,14 @@
       </c>
       <c r="DB30" t="n">
         <v>-0.19569471624265</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>-0.386100386100392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -27363,10 +27596,11 @@
       <c r="CZ31"/>
       <c r="DA31"/>
       <c r="DB31"/>
+      <c r="DC31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -27681,12 +27915,15 @@
         <v>6.30630630630631</v>
       </c>
       <c r="DB32" t="n">
-        <v>3.68550368550369</v>
+        <v>0.982800982800962</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>2.1276595744681</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -28001,12 +28238,15 @@
         <v>1.02695763799743</v>
       </c>
       <c r="DB33" t="n">
-        <v>1.13765642775882</v>
+        <v>1.47895335608646</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>3.34448160535117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -28322,11 +28562,14 @@
       </c>
       <c r="DB34" t="n">
         <v>4.64190981432361</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>3.28947368421053</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -28641,12 +28884,15 @@
         <v>2.72727272727272</v>
       </c>
       <c r="DB35" t="n">
-        <v>8.21596244131455</v>
+        <v>8.21596244131454</v>
+      </c>
+      <c r="DC35" t="n">
+        <v>5.08849557522123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -28961,12 +29207,15 @@
         <v>5.65386275356065</v>
       </c>
       <c r="DB36" t="n">
-        <v>1.59857904085258</v>
+        <v>1.74067495559502</v>
+      </c>
+      <c r="DC36" t="n">
+        <v>5.65262076053441</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -29281,12 +29530,15 @@
         <v>-3.64431486880467</v>
       </c>
       <c r="DB37" t="n">
-        <v>-1.81058495821729</v>
+        <v>-1.94986072423399</v>
+      </c>
+      <c r="DC37" t="n">
+        <v>-2.59917920656636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -29601,12 +29853,15 @@
         <v>6.2908496732026</v>
       </c>
       <c r="DB38" t="n">
-        <v>0.194080543425529</v>
+        <v>0.938055959890032</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>3.20542456464786</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -29922,11 +30177,14 @@
       </c>
       <c r="DB39" t="n">
         <v>-0.265604249667998</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>1.71108917407043</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -30242,11 +30500,14 @@
       </c>
       <c r="DB40" t="n">
         <v>2.57142857142859</v>
+      </c>
+      <c r="DC40" t="n">
+        <v>4.94505494505494</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -30561,12 +30822,15 @@
         <v>1.82204676586697</v>
       </c>
       <c r="DB41" t="n">
-        <v>4.0342636087317</v>
+        <v>4.39347886156396</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>4.38619951858787</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -30881,12 +31145,15 @@
         <v>0.730519480519474</v>
       </c>
       <c r="DB42" t="n">
-        <v>1.63817663817663</v>
+        <v>1.56695156695158</v>
+      </c>
+      <c r="DC42" t="n">
+        <v>1.46341463414634</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -31201,12 +31468,15 @@
         <v>9.77366255144033</v>
       </c>
       <c r="DB43" t="n">
-        <v>8.43806104129263</v>
+        <v>8.61759425493716</v>
+      </c>
+      <c r="DC43" t="n">
+        <v>8.80134115674769</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -31521,12 +31791,15 @@
         <v>4.27350427350427</v>
       </c>
       <c r="DB44" t="n">
-        <v>1.92678227360306</v>
+        <v>1.95889531149646</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>1.7560363750392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -31841,12 +32114,15 @@
         <v>4.22535211267607</v>
       </c>
       <c r="DB45" t="n">
-        <v>9.57854406130267</v>
+        <v>9.96168582375478</v>
+      </c>
+      <c r="DC45" t="n">
+        <v>8.82352941176469</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -32161,12 +32437,15 @@
         <v>3.02816901408451</v>
       </c>
       <c r="DB46" t="n">
-        <v>5.31496062992126</v>
+        <v>4.06824146981628</v>
+      </c>
+      <c r="DC46" t="n">
+        <v>2.98982188295167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -32481,12 +32760,15 @@
         <v>1.7921146953405</v>
       </c>
       <c r="DB47" t="n">
-        <v>0</v>
+        <v>0.859598853868207</v>
+      </c>
+      <c r="DC47" t="n">
+        <v>2.20994475138121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -32801,12 +33083,15 @@
         <v>5.37383177570095</v>
       </c>
       <c r="DB48" t="n">
-        <v>4.6475995914198</v>
+        <v>4.64759959141981</v>
+      </c>
+      <c r="DC48" t="n">
+        <v>3.07845084409137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -33121,12 +33406,15 @@
         <v>1.01010101010101</v>
       </c>
       <c r="DB49" t="n">
-        <v>3.02383823393007</v>
+        <v>2.31889435117336</v>
+      </c>
+      <c r="DC49" t="n">
+        <v>1.55087404751232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -33442,11 +33730,14 @@
       </c>
       <c r="DB50" t="n">
         <v>2.68166089965396</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>5.24956970740104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -33762,11 +34053,14 @@
       </c>
       <c r="DB51" t="n">
         <v>1.42348754448398</v>
+      </c>
+      <c r="DC51" t="n">
+        <v>1.36054421768707</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -34081,12 +34375,15 @@
         <v>1.13014947138169</v>
       </c>
       <c r="DB52" t="n">
-        <v>2.3066485753053</v>
+        <v>3.83310719131615</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>5.37921817574339</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -34401,12 +34698,15 @@
         <v>-0.0460405156537727</v>
       </c>
       <c r="DB53" t="n">
-        <v>3.14042171377298</v>
+        <v>3.1852848811126</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>10.0269784172662</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -34722,11 +35022,14 @@
       </c>
       <c r="DB54" t="n">
         <v>2.66429840142096</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>0.676818950930636</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -35041,12 +35344,15 @@
         <v>0.772698003863483</v>
       </c>
       <c r="DB55" t="n">
-        <v>3.05630026809652</v>
+        <v>3.10991957104558</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>3.07534597642235</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -35361,7 +35667,10 @@
         <v>-2.52100840336135</v>
       </c>
       <c r="DB56" t="n">
-        <v>-5.47445255474453</v>
+        <v>-3.64963503649635</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>-3.52112676056337</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1215,10 +1218,13 @@
       <c r="DO4" t="s">
         <v>118</v>
       </c>
+      <c r="DP4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1569,15 +1575,18 @@
         <v>9058</v>
       </c>
       <c r="DN5" t="n">
-        <v>10084.2</v>
+        <v>10097.1</v>
       </c>
       <c r="DO5" t="n">
-        <v>10414.6</v>
+        <v>10405.6</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>10516.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1931,12 +1940,15 @@
         <v>164.4</v>
       </c>
       <c r="DO6" t="n">
-        <v>167.6</v>
+        <v>167.4</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>168.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2290,12 +2302,15 @@
         <v>24.5</v>
       </c>
       <c r="DO7" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>25.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2649,12 +2664,15 @@
         <v>193</v>
       </c>
       <c r="DO8" t="n">
-        <v>194.7</v>
+        <v>194.9</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>198.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3009,11 +3027,14 @@
       </c>
       <c r="DO9" t="n">
         <v>96.3</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3367,12 +3388,15 @@
         <v>1093.9</v>
       </c>
       <c r="DO10" t="n">
-        <v>1149.2</v>
+        <v>1145.2</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1169.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3726,12 +3750,15 @@
         <v>209.3</v>
       </c>
       <c r="DO11" t="n">
-        <v>216.7</v>
+        <v>214.8</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4086,11 +4113,14 @@
       </c>
       <c r="DO12" t="n">
         <v>123</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>124.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4444,12 +4474,15 @@
         <v>34.6</v>
       </c>
       <c r="DO13" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="DP13" t="n">
         <v>36.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4569,10 +4602,11 @@
       <c r="DM14"/>
       <c r="DN14"/>
       <c r="DO14"/>
+      <c r="DP14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4926,12 +4960,15 @@
         <v>487.3</v>
       </c>
       <c r="DO15" t="n">
-        <v>492.9</v>
+        <v>492.8</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>497.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5285,12 +5322,15 @@
         <v>338.3</v>
       </c>
       <c r="DO16" t="n">
-        <v>341.2</v>
+        <v>341.4</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>341.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5410,10 +5450,11 @@
       <c r="DM17"/>
       <c r="DN17"/>
       <c r="DO17"/>
+      <c r="DP17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5768,11 +5809,14 @@
       </c>
       <c r="DO18" t="n">
         <v>63.8</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>64.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6127,11 +6171,14 @@
       </c>
       <c r="DO19" t="n">
         <v>427.4</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>430.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6485,12 +6532,15 @@
         <v>221.4</v>
       </c>
       <c r="DO20" t="n">
-        <v>222.7</v>
+        <v>224.1</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>226.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6844,12 +6894,15 @@
         <v>139.7</v>
       </c>
       <c r="DO21" t="n">
-        <v>145.1</v>
+        <v>145.2</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>146.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7204,11 +7257,14 @@
       </c>
       <c r="DO22" t="n">
         <v>133.6</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>135.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7562,12 +7618,15 @@
         <v>154.8</v>
       </c>
       <c r="DO23" t="n">
-        <v>157.1</v>
+        <v>157.4</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>158.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7922,11 +7981,14 @@
       </c>
       <c r="DO24" t="n">
         <v>142.8</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>143.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8280,12 +8342,15 @@
         <v>46.6</v>
       </c>
       <c r="DO25" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8639,12 +8704,15 @@
         <v>208.9</v>
       </c>
       <c r="DO26" t="n">
-        <v>219.8</v>
+        <v>219.7</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>221.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -8998,12 +9066,15 @@
         <v>227.8</v>
       </c>
       <c r="DO27" t="n">
-        <v>234.8</v>
+        <v>234</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>236.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9357,12 +9428,15 @@
         <v>301.5</v>
       </c>
       <c r="DO28" t="n">
-        <v>312.1</v>
+        <v>311.6</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9716,12 +9790,15 @@
         <v>186.6</v>
       </c>
       <c r="DO29" t="n">
-        <v>199.6</v>
+        <v>198.3</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>200.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10076,11 +10153,14 @@
       </c>
       <c r="DO30" t="n">
         <v>103.2</v>
+      </c>
+      <c r="DP30" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10200,10 +10280,11 @@
       <c r="DM31"/>
       <c r="DN31"/>
       <c r="DO31"/>
+      <c r="DP31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10557,12 +10638,15 @@
         <v>41.1</v>
       </c>
       <c r="DO32" t="n">
-        <v>43.2</v>
+        <v>43</v>
+      </c>
+      <c r="DP32" t="n">
+        <v>43.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -10916,12 +11000,15 @@
         <v>89.2</v>
       </c>
       <c r="DO33" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
+      </c>
+      <c r="DP33" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11276,11 +11363,14 @@
       </c>
       <c r="DO34" t="n">
         <v>78.5</v>
+      </c>
+      <c r="DP34" t="n">
+        <v>79.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11635,11 +11725,14 @@
       </c>
       <c r="DO35" t="n">
         <v>47.5</v>
+      </c>
+      <c r="DP35" t="n">
+        <v>47.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -11994,11 +12087,14 @@
       </c>
       <c r="DO36" t="n">
         <v>308.4</v>
+      </c>
+      <c r="DP36" t="n">
+        <v>310.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12352,12 +12448,15 @@
         <v>70.4</v>
       </c>
       <c r="DO37" t="n">
-        <v>71.2</v>
+        <v>72.5</v>
+      </c>
+      <c r="DP37" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12711,12 +12810,15 @@
         <v>624.1</v>
       </c>
       <c r="DO38" t="n">
-        <v>669.7</v>
+        <v>658.6</v>
+      </c>
+      <c r="DP38" t="n">
+        <v>667.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13071,11 +13173,14 @@
       </c>
       <c r="DO39" t="n">
         <v>309.1</v>
+      </c>
+      <c r="DP39" t="n">
+        <v>312.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13430,11 +13535,14 @@
       </c>
       <c r="DO40" t="n">
         <v>38.2</v>
+      </c>
+      <c r="DP40" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13788,12 +13896,15 @@
         <v>377.8</v>
       </c>
       <c r="DO41" t="n">
-        <v>390.3</v>
+        <v>385.4</v>
+      </c>
+      <c r="DP41" t="n">
+        <v>390.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14147,12 +14258,15 @@
         <v>142.6</v>
       </c>
       <c r="DO42" t="n">
-        <v>145.6</v>
+        <v>146.9</v>
+      </c>
+      <c r="DP42" t="n">
+        <v>147.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14506,12 +14620,15 @@
         <v>121</v>
       </c>
       <c r="DO43" t="n">
-        <v>129.8</v>
+        <v>129.7</v>
+      </c>
+      <c r="DP43" t="n">
+        <v>131.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14865,12 +14982,15 @@
         <v>317.5</v>
       </c>
       <c r="DO44" t="n">
-        <v>324.5</v>
+        <v>324.1</v>
+      </c>
+      <c r="DP44" t="n">
+        <v>327.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -15225,11 +15345,14 @@
       </c>
       <c r="DO45" t="n">
         <v>29.6</v>
+      </c>
+      <c r="DP45" t="n">
+        <v>29.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -15583,12 +15706,15 @@
         <v>158.6</v>
       </c>
       <c r="DO46" t="n">
-        <v>161.9</v>
+        <v>161.8</v>
+      </c>
+      <c r="DP46" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -15942,12 +16068,15 @@
         <v>35.2</v>
       </c>
       <c r="DO47" t="n">
-        <v>37</v>
+        <v>36.9</v>
+      </c>
+      <c r="DP47" t="n">
+        <v>37.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -16301,12 +16430,15 @@
         <v>204.9</v>
       </c>
       <c r="DO48" t="n">
-        <v>207.6</v>
+        <v>207.9</v>
+      </c>
+      <c r="DP48" t="n">
+        <v>207.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -16660,12 +16792,15 @@
         <v>1103.1</v>
       </c>
       <c r="DO49" t="n">
-        <v>1132.8</v>
+        <v>1132.3</v>
+      </c>
+      <c r="DP49" t="n">
+        <v>1142.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -17020,11 +17155,14 @@
       </c>
       <c r="DO50" t="n">
         <v>122.3</v>
+      </c>
+      <c r="DP50" t="n">
+        <v>123.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -17379,11 +17517,14 @@
       </c>
       <c r="DO51" t="n">
         <v>29.8</v>
+      </c>
+      <c r="DP51" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17737,12 +17878,15 @@
         <v>306.1</v>
       </c>
       <c r="DO52" t="n">
-        <v>315.4</v>
+        <v>314.6</v>
+      </c>
+      <c r="DP52" t="n">
+        <v>317.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -18096,12 +18240,15 @@
         <v>230</v>
       </c>
       <c r="DO53" t="n">
-        <v>244.7</v>
+        <v>242.1</v>
+      </c>
+      <c r="DP53" t="n">
+        <v>247.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -18456,11 +18603,14 @@
       </c>
       <c r="DO54" t="n">
         <v>59.5</v>
+      </c>
+      <c r="DP54" t="n">
+        <v>60.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18814,12 +18964,15 @@
         <v>192.3</v>
       </c>
       <c r="DO55" t="n">
-        <v>201.1</v>
+        <v>201</v>
+      </c>
+      <c r="DP55" t="n">
+        <v>202.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -19173,7 +19326,10 @@
         <v>26.4</v>
       </c>
       <c r="DO56" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
+      </c>
+      <c r="DP56" t="n">
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -19512,10 +19668,13 @@
       <c r="DC4" t="s">
         <v>118</v>
       </c>
+      <c r="DD4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19830,15 +19989,18 @@
         <v>2.95404689648901</v>
       </c>
       <c r="DB5" t="n">
-        <v>3.38103830066433</v>
+        <v>3.51328631181826</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.75277697526374</v>
+        <v>3.66311678737583</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>4.020890827621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -20156,12 +20318,15 @@
         <v>3.98481973434536</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.94840294840294</v>
+        <v>2.82555282555282</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>2.61716372489348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -20479,12 +20644,15 @@
         <v>-4.29687500000001</v>
       </c>
       <c r="DC7" t="n">
-        <v>-4.11985018726591</v>
+        <v>-4.49438202247191</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-3.74531835205993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -20802,12 +20970,15 @@
         <v>1.90073917634635</v>
       </c>
       <c r="DC8" t="n">
-        <v>2.36593059936909</v>
+        <v>2.47108307045216</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>3.28295987493485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -21126,11 +21297,14 @@
       </c>
       <c r="DC9" t="n">
         <v>-1.93482688391038</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-1.92113245702731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -21448,12 +21622,15 @@
         <v>2.08100037327363</v>
       </c>
       <c r="DC10" t="n">
-        <v>3.2617485847785</v>
+        <v>2.90232725312247</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>4.1789182927916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -21771,12 +21948,15 @@
         <v>4.3369890329013</v>
       </c>
       <c r="DC11" t="n">
-        <v>4.53449107573564</v>
+        <v>3.61794500723588</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>4.50623202301054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -22095,11 +22275,14 @@
       </c>
       <c r="DC12" t="n">
         <v>0.737100737100742</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.647249190938498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -22417,12 +22600,15 @@
         <v>3.59281437125747</v>
       </c>
       <c r="DC13" t="n">
-        <v>5.20231213872832</v>
+        <v>3.46820809248554</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -22530,10 +22716,11 @@
       <c r="DA14"/>
       <c r="DB14"/>
       <c r="DC14"/>
+      <c r="DD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -22851,12 +23038,15 @@
         <v>3.52666241767579</v>
       </c>
       <c r="DC15" t="n">
-        <v>3.57217902920782</v>
+        <v>3.55116621138895</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>4.12220129734255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -23174,12 +23364,15 @@
         <v>2.98325722983258</v>
       </c>
       <c r="DC16" t="n">
-        <v>2.61654135338347</v>
+        <v>2.6766917293233</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>2.73848931688232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -23287,10 +23480,11 @@
       <c r="DA17"/>
       <c r="DB17"/>
       <c r="DC17"/>
+      <c r="DD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -23609,11 +23803,14 @@
       </c>
       <c r="DC18" t="n">
         <v>6.86767169179229</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>6.61157024793388</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -23932,11 +24129,14 @@
       </c>
       <c r="DC19" t="n">
         <v>2.22434824204735</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>2.59833134684149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -24254,12 +24454,15 @@
         <v>1.23456790123455</v>
       </c>
       <c r="DC20" t="n">
-        <v>1.13533151680291</v>
+        <v>1.77111716621254</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>2.39385727190606</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -24577,12 +24780,15 @@
         <v>2.72058823529411</v>
       </c>
       <c r="DC21" t="n">
-        <v>2.47175141242938</v>
+        <v>2.54237288135593</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>2.5928521373511</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -24901,11 +25107,14 @@
       </c>
       <c r="DC22" t="n">
         <v>1.51975683890578</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>1.80859080633007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -25223,12 +25432,15 @@
         <v>3.54515050167225</v>
       </c>
       <c r="DC23" t="n">
-        <v>2.7468933943754</v>
+        <v>2.94310006540222</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>2.98120544394035</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -25547,11 +25759,14 @@
       </c>
       <c r="DC24" t="n">
         <v>0.210526315789482</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0.0695410292072085</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -25869,12 +26084,15 @@
         <v>0.431034482758611</v>
       </c>
       <c r="DC25" t="n">
-        <v>1.05042016806723</v>
+        <v>0.630252100840345</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0.414937759336105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -26192,12 +26410,15 @@
         <v>7.90289256198345</v>
       </c>
       <c r="DC26" t="n">
-        <v>6.13230323515211</v>
+        <v>6.08401738290682</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>7.26040658276862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -26515,12 +26736,15 @@
         <v>9.25659472422063</v>
       </c>
       <c r="DC27" t="n">
-        <v>9.66837926202708</v>
+        <v>9.29472209248014</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>8.97376898297285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -26838,12 +27062,15 @@
         <v>5.9009483667018</v>
       </c>
       <c r="DC28" t="n">
-        <v>4.90756302521009</v>
+        <v>4.73949579831934</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>5.54621848739496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -27161,12 +27388,15 @@
         <v>0.0536193029490586</v>
       </c>
       <c r="DC29" t="n">
-        <v>0.757193336698637</v>
+        <v>0.100959111559827</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>0.149850149850156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -27485,11 +27715,14 @@
       </c>
       <c r="DC30" t="n">
         <v>-0.386100386100392</v>
+      </c>
+      <c r="DD30" t="n">
+        <v>1.35135135135136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -27597,10 +27830,11 @@
       <c r="DA31"/>
       <c r="DB31"/>
       <c r="DC31"/>
+      <c r="DD31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -27918,12 +28152,15 @@
         <v>0.982800982800962</v>
       </c>
       <c r="DC32" t="n">
-        <v>2.1276595744681</v>
+        <v>1.65484633569741</v>
+      </c>
+      <c r="DD32" t="n">
+        <v>2.58823529411763</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -28241,12 +28478,15 @@
         <v>1.47895335608646</v>
       </c>
       <c r="DC33" t="n">
-        <v>3.34448160535117</v>
+        <v>3.12151616499442</v>
+      </c>
+      <c r="DD33" t="n">
+        <v>2.76243093922652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -28565,11 +28805,14 @@
       </c>
       <c r="DC34" t="n">
         <v>3.28947368421053</v>
+      </c>
+      <c r="DD34" t="n">
+        <v>4.32503276539973</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -28888,11 +29131,14 @@
       </c>
       <c r="DC35" t="n">
         <v>5.08849557522123</v>
+      </c>
+      <c r="DD35" t="n">
+        <v>5.06607929515418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -29211,11 +29457,14 @@
       </c>
       <c r="DC36" t="n">
         <v>5.65262076053441</v>
+      </c>
+      <c r="DD36" t="n">
+        <v>5.50084889643463</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -29533,12 +29782,15 @@
         <v>-1.94986072423399</v>
       </c>
       <c r="DC37" t="n">
-        <v>-2.59917920656636</v>
+        <v>-0.820793433652523</v>
+      </c>
+      <c r="DD37" t="n">
+        <v>0.552486187845312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -29856,12 +30108,15 @@
         <v>0.938055959890032</v>
       </c>
       <c r="DC38" t="n">
-        <v>3.20542456464786</v>
+        <v>1.4948374171675</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>2.15893431327515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -30180,11 +30435,14 @@
       </c>
       <c r="DC39" t="n">
         <v>1.71108917407043</v>
+      </c>
+      <c r="DD39" t="n">
+        <v>1.72526041666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -30503,11 +30761,14 @@
       </c>
       <c r="DC40" t="n">
         <v>4.94505494505494</v>
+      </c>
+      <c r="DD40" t="n">
+        <v>4.8913043478261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -30825,12 +31086,15 @@
         <v>4.39347886156396</v>
       </c>
       <c r="DC41" t="n">
-        <v>4.38619951858787</v>
+        <v>3.07568868681466</v>
+      </c>
+      <c r="DD41" t="n">
+        <v>3.06472919418759</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -31148,12 +31412,15 @@
         <v>1.56695156695158</v>
       </c>
       <c r="DC42" t="n">
-        <v>1.46341463414634</v>
+        <v>2.36933797909406</v>
+      </c>
+      <c r="DD42" t="n">
+        <v>2.64439805149618</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -31471,12 +31738,15 @@
         <v>8.61759425493716</v>
       </c>
       <c r="DC43" t="n">
-        <v>8.80134115674769</v>
+        <v>8.71751886001677</v>
+      </c>
+      <c r="DD43" t="n">
+        <v>9.04564315352697</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -31794,12 +32064,15 @@
         <v>1.95889531149646</v>
       </c>
       <c r="DC44" t="n">
-        <v>1.7560363750392</v>
+        <v>1.63060520539355</v>
+      </c>
+      <c r="DD44" t="n">
+        <v>1.86683260734289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -32118,11 +32391,14 @@
       </c>
       <c r="DC45" t="n">
         <v>8.82352941176469</v>
+      </c>
+      <c r="DD45" t="n">
+        <v>8.72727272727274</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -32440,12 +32716,15 @@
         <v>4.06824146981628</v>
       </c>
       <c r="DC46" t="n">
-        <v>2.98982188295167</v>
+        <v>2.92620865139951</v>
+      </c>
+      <c r="DD46" t="n">
+        <v>3.03413400758534</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -32763,12 +33042,15 @@
         <v>0.859598853868207</v>
       </c>
       <c r="DC47" t="n">
-        <v>2.20994475138121</v>
+        <v>1.93370165745855</v>
+      </c>
+      <c r="DD47" t="n">
+        <v>3.31491712707181</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -33086,12 +33368,15 @@
         <v>4.64759959141981</v>
       </c>
       <c r="DC48" t="n">
-        <v>3.07845084409137</v>
+        <v>3.22740814299902</v>
+      </c>
+      <c r="DD48" t="n">
+        <v>3.17933432687531</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -33409,12 +33694,15 @@
         <v>2.31889435117336</v>
       </c>
       <c r="DC49" t="n">
-        <v>1.55087404751232</v>
+        <v>1.50605109816226</v>
+      </c>
+      <c r="DD49" t="n">
+        <v>1.42020237883898</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -33733,11 +34021,14 @@
       </c>
       <c r="DC50" t="n">
         <v>5.24956970740104</v>
+      </c>
+      <c r="DD50" t="n">
+        <v>5.74121679520139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -34056,11 +34347,14 @@
       </c>
       <c r="DC51" t="n">
         <v>1.36054421768707</v>
+      </c>
+      <c r="DD51" t="n">
+        <v>2.02702702702702</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -34378,12 +34672,15 @@
         <v>3.83310719131615</v>
       </c>
       <c r="DC52" t="n">
-        <v>5.37921817574339</v>
+        <v>5.11192783160709</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>5.27188328912466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -34701,12 +34998,15 @@
         <v>3.1852848811126</v>
       </c>
       <c r="DC53" t="n">
-        <v>10.0269784172662</v>
+        <v>8.85791366906474</v>
+      </c>
+      <c r="DD53" t="n">
+        <v>10.7334525939177</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -35025,11 +35325,14 @@
       </c>
       <c r="DC54" t="n">
         <v>0.676818950930636</v>
+      </c>
+      <c r="DD54" t="n">
+        <v>0.999999999999991</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -35347,12 +35650,15 @@
         <v>3.10991957104558</v>
       </c>
       <c r="DC55" t="n">
-        <v>3.07534597642235</v>
+        <v>3.02409021014863</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>3.47648261758692</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -35670,7 +35976,10 @@
         <v>-3.64963503649635</v>
       </c>
       <c r="DC56" t="n">
-        <v>-3.52112676056337</v>
+        <v>-3.87323943661971</v>
+      </c>
+      <c r="DD56" t="n">
+        <v>-2.82685512367491</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t xml:space="preserve">11/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1221,10 +1224,13 @@
       <c r="DP4" t="s">
         <v>119</v>
       </c>
+      <c r="DQ4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1578,15 +1584,18 @@
         <v>10097.1</v>
       </c>
       <c r="DO5" t="n">
-        <v>10405.6</v>
+        <v>10405.2</v>
       </c>
       <c r="DP5" t="n">
-        <v>10516.2</v>
+        <v>10500.3</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>10440.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1943,12 +1952,15 @@
         <v>167.4</v>
       </c>
       <c r="DP6" t="n">
-        <v>168.6</v>
+        <v>168.4</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>166.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2306,11 +2318,14 @@
       </c>
       <c r="DP7" t="n">
         <v>25.7</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>24.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2667,12 +2682,15 @@
         <v>194.9</v>
       </c>
       <c r="DP8" t="n">
-        <v>198.2</v>
+        <v>198</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>196.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3030,11 +3048,14 @@
       </c>
       <c r="DP9" t="n">
         <v>97</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>96.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3391,12 +3412,15 @@
         <v>1145.2</v>
       </c>
       <c r="DP10" t="n">
-        <v>1169.2</v>
+        <v>1167.8</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>1161.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3753,12 +3777,15 @@
         <v>214.8</v>
       </c>
       <c r="DP11" t="n">
-        <v>218</v>
+        <v>217.7</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>215.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4115,12 +4142,15 @@
         <v>123</v>
       </c>
       <c r="DP12" t="n">
-        <v>124.4</v>
+        <v>124.5</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>124.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4477,12 +4507,15 @@
         <v>35.8</v>
       </c>
       <c r="DP13" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4603,10 +4636,11 @@
       <c r="DN14"/>
       <c r="DO14"/>
       <c r="DP14"/>
+      <c r="DQ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -4963,12 +4997,15 @@
         <v>492.8</v>
       </c>
       <c r="DP15" t="n">
-        <v>497.6</v>
+        <v>497.3</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5325,12 +5362,15 @@
         <v>341.4</v>
       </c>
       <c r="DP16" t="n">
-        <v>341.4</v>
+        <v>341.3</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>341.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5451,10 +5491,11 @@
       <c r="DN17"/>
       <c r="DO17"/>
       <c r="DP17"/>
+      <c r="DQ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5812,11 +5853,14 @@
       </c>
       <c r="DP18" t="n">
         <v>64.5</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>63.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6174,11 +6218,14 @@
       </c>
       <c r="DP19" t="n">
         <v>430.4</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>426.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6535,12 +6582,15 @@
         <v>224.1</v>
       </c>
       <c r="DP20" t="n">
-        <v>226.7</v>
+        <v>226.2</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>227.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -6897,12 +6947,15 @@
         <v>145.2</v>
       </c>
       <c r="DP21" t="n">
-        <v>146.4</v>
+        <v>146.7</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>145.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7259,12 +7312,15 @@
         <v>133.6</v>
       </c>
       <c r="DP22" t="n">
-        <v>135.1</v>
+        <v>134.8</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>130.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7621,12 +7677,15 @@
         <v>157.4</v>
       </c>
       <c r="DP23" t="n">
-        <v>158.9</v>
+        <v>159</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>157.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -7983,12 +8042,15 @@
         <v>142.8</v>
       </c>
       <c r="DP24" t="n">
-        <v>143.9</v>
+        <v>143.7</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>142.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8345,12 +8407,15 @@
         <v>47.9</v>
       </c>
       <c r="DP25" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>48.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8707,12 +8772,15 @@
         <v>219.7</v>
       </c>
       <c r="DP26" t="n">
-        <v>221.6</v>
+        <v>221.5</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>220.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9069,12 +9137,15 @@
         <v>234</v>
       </c>
       <c r="DP27" t="n">
-        <v>236.8</v>
+        <v>236.7</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>236.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9432,11 +9503,14 @@
       </c>
       <c r="DP28" t="n">
         <v>314</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>310.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -9793,12 +9867,15 @@
         <v>198.3</v>
       </c>
       <c r="DP29" t="n">
-        <v>200.5</v>
+        <v>200.6</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>197.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10155,12 +10232,15 @@
         <v>103.2</v>
       </c>
       <c r="DP30" t="n">
-        <v>105</v>
+        <v>104.3</v>
+      </c>
+      <c r="DQ30" t="n">
+        <v>101.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10281,10 +10361,11 @@
       <c r="DN31"/>
       <c r="DO31"/>
       <c r="DP31"/>
+      <c r="DQ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10641,12 +10722,15 @@
         <v>43</v>
       </c>
       <c r="DP32" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
+      </c>
+      <c r="DQ32" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11004,11 +11088,14 @@
       </c>
       <c r="DP33" t="n">
         <v>93</v>
+      </c>
+      <c r="DQ33" t="n">
+        <v>93.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11365,12 +11452,15 @@
         <v>78.5</v>
       </c>
       <c r="DP34" t="n">
-        <v>79.6</v>
+        <v>78.1</v>
+      </c>
+      <c r="DQ34" t="n">
+        <v>77.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -11727,12 +11817,15 @@
         <v>47.5</v>
       </c>
       <c r="DP35" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
+      </c>
+      <c r="DQ35" t="n">
+        <v>47.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12089,12 +12182,15 @@
         <v>308.4</v>
       </c>
       <c r="DP36" t="n">
-        <v>310.7</v>
+        <v>310.8</v>
+      </c>
+      <c r="DQ36" t="n">
+        <v>312.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12451,12 +12547,15 @@
         <v>72.5</v>
       </c>
       <c r="DP37" t="n">
-        <v>72.8</v>
+        <v>73.1</v>
+      </c>
+      <c r="DQ37" t="n">
+        <v>73.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -12813,12 +12912,15 @@
         <v>658.6</v>
       </c>
       <c r="DP38" t="n">
-        <v>667.2</v>
+        <v>666.7</v>
+      </c>
+      <c r="DQ38" t="n">
+        <v>666.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13176,11 +13278,14 @@
       </c>
       <c r="DP39" t="n">
         <v>312.5</v>
+      </c>
+      <c r="DQ39" t="n">
+        <v>311.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13538,11 +13643,14 @@
       </c>
       <c r="DP40" t="n">
         <v>38.6</v>
+      </c>
+      <c r="DQ40" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -13899,12 +14007,15 @@
         <v>385.4</v>
       </c>
       <c r="DP41" t="n">
-        <v>390.1</v>
+        <v>390.5</v>
+      </c>
+      <c r="DQ41" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14261,12 +14372,15 @@
         <v>146.9</v>
       </c>
       <c r="DP42" t="n">
-        <v>147.5</v>
+        <v>147.3</v>
+      </c>
+      <c r="DQ42" t="n">
+        <v>146.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14623,12 +14737,15 @@
         <v>129.7</v>
       </c>
       <c r="DP43" t="n">
-        <v>131.4</v>
+        <v>131.3</v>
+      </c>
+      <c r="DQ43" t="n">
+        <v>130.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -14985,12 +15102,15 @@
         <v>324.1</v>
       </c>
       <c r="DP44" t="n">
-        <v>327.4</v>
+        <v>327.8</v>
+      </c>
+      <c r="DQ44" t="n">
+        <v>325.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -15348,11 +15468,14 @@
       </c>
       <c r="DP45" t="n">
         <v>29.9</v>
+      </c>
+      <c r="DQ45" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -15709,12 +15832,15 @@
         <v>161.8</v>
       </c>
       <c r="DP46" t="n">
-        <v>163</v>
+        <v>162.9</v>
+      </c>
+      <c r="DQ46" t="n">
+        <v>162.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -16071,12 +16197,15 @@
         <v>36.9</v>
       </c>
       <c r="DP47" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
+      </c>
+      <c r="DQ47" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -16433,12 +16562,15 @@
         <v>207.9</v>
       </c>
       <c r="DP48" t="n">
-        <v>207.7</v>
+        <v>207.4</v>
+      </c>
+      <c r="DQ48" t="n">
+        <v>203.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -16795,12 +16927,15 @@
         <v>1132.3</v>
       </c>
       <c r="DP49" t="n">
-        <v>1142.6</v>
+        <v>1143.9</v>
+      </c>
+      <c r="DQ49" t="n">
+        <v>1142.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -17157,12 +17292,15 @@
         <v>122.3</v>
       </c>
       <c r="DP50" t="n">
-        <v>123.4</v>
+        <v>123.1</v>
+      </c>
+      <c r="DQ50" t="n">
+        <v>121.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -17520,11 +17658,14 @@
       </c>
       <c r="DP51" t="n">
         <v>30.2</v>
+      </c>
+      <c r="DQ51" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -17882,11 +18023,14 @@
       </c>
       <c r="DP52" t="n">
         <v>317.5</v>
+      </c>
+      <c r="DQ52" t="n">
+        <v>316.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -18243,12 +18387,15 @@
         <v>242.1</v>
       </c>
       <c r="DP53" t="n">
-        <v>247.6</v>
+        <v>244.1</v>
+      </c>
+      <c r="DQ53" t="n">
+        <v>245.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -18605,12 +18752,15 @@
         <v>59.5</v>
       </c>
       <c r="DP54" t="n">
-        <v>60.6</v>
+        <v>60.5</v>
+      </c>
+      <c r="DQ54" t="n">
+        <v>59.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -18967,12 +19117,15 @@
         <v>201</v>
       </c>
       <c r="DP55" t="n">
-        <v>202.4</v>
+        <v>202.3</v>
+      </c>
+      <c r="DQ55" t="n">
+        <v>198.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -19329,6 +19482,9 @@
         <v>27.3</v>
       </c>
       <c r="DP56" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DQ56" t="n">
         <v>27.5</v>
       </c>
     </row>
@@ -19671,10 +19827,13 @@
       <c r="DD4" t="s">
         <v>119</v>
       </c>
+      <c r="DE4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -19992,15 +20151,18 @@
         <v>3.51328631181826</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.66311678737583</v>
+        <v>3.65913189013638</v>
       </c>
       <c r="DD5" t="n">
-        <v>4.020890827621</v>
+        <v>3.86361613104245</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>4.45413798623338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -20321,12 +20483,15 @@
         <v>2.82555282555282</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.61716372489348</v>
+        <v>2.4954351795496</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>2.78465346534653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -20648,11 +20813,14 @@
       </c>
       <c r="DD7" t="n">
         <v>-3.74531835205993</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-5.68181818181818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -20973,12 +21141,15 @@
         <v>2.47108307045216</v>
       </c>
       <c r="DD8" t="n">
-        <v>3.28295987493485</v>
+        <v>3.17873892652423</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>3.86039132734002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -21300,11 +21471,14 @@
       </c>
       <c r="DD9" t="n">
         <v>-1.92113245702731</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-2.1255060728745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -21625,12 +21799,15 @@
         <v>2.90232725312247</v>
       </c>
       <c r="DD10" t="n">
-        <v>4.1789182927916</v>
+        <v>4.05417446315602</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>4.72582972582973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -21951,12 +22128,15 @@
         <v>3.61794500723588</v>
       </c>
       <c r="DD11" t="n">
-        <v>4.50623202301054</v>
+        <v>4.36241610738253</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>4.21103581800582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -22277,12 +22457,15 @@
         <v>0.737100737100742</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.647249190938498</v>
+        <v>0.728155339805818</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>2.64681555004135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -22603,12 +22786,15 @@
         <v>3.46820809248554</v>
       </c>
       <c r="DD13" t="n">
-        <v>4</v>
+        <v>3.71428571428571</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>4.04624277456649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -22717,10 +22903,11 @@
       <c r="DB14"/>
       <c r="DC14"/>
       <c r="DD14"/>
+      <c r="DE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -23041,12 +23228,15 @@
         <v>3.55116621138895</v>
       </c>
       <c r="DD15" t="n">
-        <v>4.12220129734255</v>
+        <v>4.05942665829672</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>4.47441661314493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -23367,12 +23557,15 @@
         <v>2.6766917293233</v>
       </c>
       <c r="DD16" t="n">
-        <v>2.73848931688232</v>
+        <v>2.70839602768583</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>3.26382592928379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -23481,10 +23674,11 @@
       <c r="DB17"/>
       <c r="DC17"/>
       <c r="DD17"/>
+      <c r="DE17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -23806,11 +24000,14 @@
       </c>
       <c r="DD18" t="n">
         <v>6.61157024793388</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>6.40809443507588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -24132,11 +24329,14 @@
       </c>
       <c r="DD19" t="n">
         <v>2.59833134684149</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>2.57583052479539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -24457,12 +24657,15 @@
         <v>1.77111716621254</v>
       </c>
       <c r="DD20" t="n">
-        <v>2.39385727190606</v>
+        <v>2.16802168021681</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>5.31423290203327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -24783,12 +24986,15 @@
         <v>2.54237288135593</v>
       </c>
       <c r="DD21" t="n">
-        <v>2.5928521373511</v>
+        <v>2.8030833917309</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>4.53563714902806</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -25109,12 +25315,15 @@
         <v>1.51975683890578</v>
       </c>
       <c r="DD22" t="n">
-        <v>1.80859080633007</v>
+        <v>1.58251695553883</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>1.39534883720931</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -25435,12 +25644,15 @@
         <v>2.94310006540222</v>
       </c>
       <c r="DD23" t="n">
-        <v>2.98120544394035</v>
+        <v>3.04601425793907</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>7.00680272108844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -25761,12 +25973,15 @@
         <v>0.210526315789482</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.0695410292072085</v>
+        <v>-0.0695410292072481</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-0.488485694347535</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -26087,12 +26302,15 @@
         <v>0.630252100840345</v>
       </c>
       <c r="DD25" t="n">
-        <v>0.414937759336105</v>
+        <v>0.207468879668053</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>3.21199143468951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -26413,12 +26631,15 @@
         <v>6.08401738290682</v>
       </c>
       <c r="DD26" t="n">
-        <v>7.26040658276862</v>
+        <v>7.21200387221683</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>9.08641975308642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -26739,12 +26960,15 @@
         <v>9.29472209248014</v>
       </c>
       <c r="DD27" t="n">
-        <v>8.97376898297285</v>
+        <v>8.92774965485504</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>10.632318501171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -27066,11 +27290,14 @@
       </c>
       <c r="DD28" t="n">
         <v>5.54621848739496</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>7.40484429065743</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -27391,12 +27618,15 @@
         <v>0.100959111559827</v>
       </c>
       <c r="DD29" t="n">
-        <v>0.149850149850156</v>
+        <v>0.199800199800217</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>1.43516145566375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -27717,12 +27947,15 @@
         <v>-0.386100386100392</v>
       </c>
       <c r="DD30" t="n">
-        <v>1.35135135135136</v>
+        <v>0.675675675675692</v>
+      </c>
+      <c r="DE30" t="n">
+        <v>0.394866732477794</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -27831,10 +28064,11 @@
       <c r="DB31"/>
       <c r="DC31"/>
       <c r="DD31"/>
+      <c r="DE31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -28155,12 +28389,15 @@
         <v>1.65484633569741</v>
       </c>
       <c r="DD32" t="n">
-        <v>2.58823529411763</v>
+        <v>1.88235294117646</v>
+      </c>
+      <c r="DE32" t="n">
+        <v>3.11004784688995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -28482,11 +28719,14 @@
       </c>
       <c r="DD33" t="n">
         <v>2.76243093922652</v>
+      </c>
+      <c r="DE33" t="n">
+        <v>2.86975717439295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -28807,12 +29047,15 @@
         <v>3.28947368421053</v>
       </c>
       <c r="DD34" t="n">
-        <v>4.32503276539973</v>
+        <v>2.35910878112713</v>
+      </c>
+      <c r="DE34" t="n">
+        <v>2.77044854881268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -29133,12 +29376,15 @@
         <v>5.08849557522123</v>
       </c>
       <c r="DD35" t="n">
-        <v>5.06607929515418</v>
+        <v>4.84581497797356</v>
+      </c>
+      <c r="DE35" t="n">
+        <v>12.3809523809524</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -29459,12 +29705,15 @@
         <v>5.65262076053441</v>
       </c>
       <c r="DD36" t="n">
-        <v>5.50084889643463</v>
+        <v>5.53480475382004</v>
+      </c>
+      <c r="DE36" t="n">
+        <v>6.11620795107034</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -29785,12 +30034,15 @@
         <v>-0.820793433652523</v>
       </c>
       <c r="DD37" t="n">
-        <v>0.552486187845312</v>
+        <v>0.966850828729266</v>
+      </c>
+      <c r="DE37" t="n">
+        <v>1.95258019525801</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -30111,12 +30363,15 @@
         <v>1.4948374171675</v>
       </c>
       <c r="DD38" t="n">
-        <v>2.15893431327515</v>
+        <v>2.08237635890369</v>
+      </c>
+      <c r="DE38" t="n">
+        <v>2.82189668465689</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -30438,11 +30693,14 @@
       </c>
       <c r="DD39" t="n">
         <v>1.72526041666667</v>
+      </c>
+      <c r="DE39" t="n">
+        <v>2.0327868852459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -30764,11 +31022,14 @@
       </c>
       <c r="DD40" t="n">
         <v>4.8913043478261</v>
+      </c>
+      <c r="DE40" t="n">
+        <v>4.61956521739131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -31089,12 +31350,15 @@
         <v>3.07568868681466</v>
       </c>
       <c r="DD41" t="n">
-        <v>3.06472919418759</v>
+        <v>3.17040951122853</v>
+      </c>
+      <c r="DE41" t="n">
+        <v>2.85406569736134</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -31415,12 +31679,15 @@
         <v>2.36933797909406</v>
       </c>
       <c r="DD42" t="n">
-        <v>2.64439805149618</v>
+        <v>2.5052192066806</v>
+      </c>
+      <c r="DE42" t="n">
+        <v>2.09205020920502</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -31741,12 +32008,15 @@
         <v>8.71751886001677</v>
       </c>
       <c r="DD43" t="n">
-        <v>9.04564315352697</v>
+        <v>8.96265560165976</v>
+      </c>
+      <c r="DE43" t="n">
+        <v>8.72093023255814</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -32067,12 +32337,15 @@
         <v>1.63060520539355</v>
       </c>
       <c r="DD44" t="n">
-        <v>1.86683260734289</v>
+        <v>1.99128811449908</v>
+      </c>
+      <c r="DE44" t="n">
+        <v>3.49761526232114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -32394,11 +32667,14 @@
       </c>
       <c r="DD45" t="n">
         <v>8.72727272727274</v>
+      </c>
+      <c r="DE45" t="n">
+        <v>9.96309963099632</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -32719,12 +32995,15 @@
         <v>2.92620865139951</v>
       </c>
       <c r="DD46" t="n">
-        <v>3.03413400758534</v>
+        <v>2.9709228824273</v>
+      </c>
+      <c r="DE46" t="n">
+        <v>3.1766200762389</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -33045,12 +33324,15 @@
         <v>1.93370165745855</v>
       </c>
       <c r="DD47" t="n">
-        <v>3.31491712707181</v>
+        <v>2.48618784530386</v>
+      </c>
+      <c r="DE47" t="n">
+        <v>2.8169014084507</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -33371,12 +33653,15 @@
         <v>3.22740814299902</v>
       </c>
       <c r="DD48" t="n">
-        <v>3.17933432687531</v>
+        <v>3.03030303030303</v>
+      </c>
+      <c r="DE48" t="n">
+        <v>2.82400403429146</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -33697,12 +33982,15 @@
         <v>1.50605109816226</v>
       </c>
       <c r="DD49" t="n">
-        <v>1.42020237883898</v>
+        <v>1.53559382211967</v>
+      </c>
+      <c r="DE49" t="n">
+        <v>1.24911410347273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -34023,12 +34311,15 @@
         <v>5.24956970740104</v>
       </c>
       <c r="DD50" t="n">
-        <v>5.74121679520139</v>
+        <v>5.48414738646102</v>
+      </c>
+      <c r="DE50" t="n">
+        <v>3.04568527918784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -34350,11 +34641,14 @@
       </c>
       <c r="DD51" t="n">
         <v>2.02702702702702</v>
+      </c>
+      <c r="DE51" t="n">
+        <v>3.06122448979593</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -34676,11 +34970,14 @@
       </c>
       <c r="DD52" t="n">
         <v>5.27188328912466</v>
+      </c>
+      <c r="DE52" t="n">
+        <v>7.00744752877456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -35001,12 +35298,15 @@
         <v>8.85791366906474</v>
       </c>
       <c r="DD53" t="n">
-        <v>10.7334525939177</v>
+        <v>9.16815742397138</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>9.58110516934046</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -35327,12 +35627,15 @@
         <v>0.676818950930636</v>
       </c>
       <c r="DD54" t="n">
-        <v>0.999999999999991</v>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="DE54" t="n">
+        <v>4.00696864111499</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -35653,12 +35956,15 @@
         <v>3.02409021014863</v>
       </c>
       <c r="DD55" t="n">
-        <v>3.47648261758692</v>
+        <v>3.42535787321064</v>
+      </c>
+      <c r="DE55" t="n">
+        <v>3.70950888192267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -35980,6 +36286,9 @@
       </c>
       <c r="DD56" t="n">
         <v>-2.82685512367491</v>
+      </c>
+      <c r="DE56" t="n">
+        <v>-2.13523131672597</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t xml:space="preserve">02/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1239,10 +1242,13 @@
       <c r="DS4" t="s">
         <v>122</v>
       </c>
+      <c r="DT4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1605,15 +1611,18 @@
         <v>10626.9</v>
       </c>
       <c r="DR5" t="n">
-        <v>10326.2</v>
+        <v>10315.6</v>
       </c>
       <c r="DS5" t="n">
-        <v>10671</v>
+        <v>10637.7</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>10693.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1979,12 +1988,15 @@
         <v>164</v>
       </c>
       <c r="DS6" t="n">
-        <v>166.3</v>
+        <v>166.8</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>169.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2350,12 +2362,15 @@
         <v>26.6</v>
       </c>
       <c r="DS7" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="DT7" t="n">
         <v>27.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2721,12 +2736,15 @@
         <v>190.5</v>
       </c>
       <c r="DS8" t="n">
-        <v>195.1</v>
+        <v>195.6</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>194.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3093,11 +3111,14 @@
       </c>
       <c r="DS9" t="n">
         <v>102.5</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>102.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3463,12 +3484,15 @@
         <v>1188</v>
       </c>
       <c r="DS10" t="n">
-        <v>1209.2</v>
+        <v>1203.6</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>1215.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3834,12 +3858,15 @@
         <v>203.6</v>
       </c>
       <c r="DS11" t="n">
-        <v>214.4</v>
+        <v>213</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>216.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4205,12 +4232,15 @@
         <v>120.7</v>
       </c>
       <c r="DS12" t="n">
-        <v>122.8</v>
+        <v>123.1</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>123.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4576,12 +4606,15 @@
         <v>34.2</v>
       </c>
       <c r="DS13" t="n">
-        <v>35.6</v>
+        <v>36.1</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>36.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4705,10 +4738,11 @@
       <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
+      <c r="DT14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5075,11 +5109,14 @@
       </c>
       <c r="DS15" t="n">
         <v>486.7</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>485.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5445,12 +5482,15 @@
         <v>336.6</v>
       </c>
       <c r="DS16" t="n">
-        <v>340.2</v>
+        <v>340.3</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>340.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5574,10 +5614,11 @@
       <c r="DQ17"/>
       <c r="DR17"/>
       <c r="DS17"/>
+      <c r="DT17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5943,12 +5984,15 @@
         <v>61.5</v>
       </c>
       <c r="DS18" t="n">
-        <v>63.4</v>
+        <v>63.5</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>63.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6315,11 +6359,14 @@
       </c>
       <c r="DS19" t="n">
         <v>434.8</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>439.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6685,12 +6732,15 @@
         <v>226.4</v>
       </c>
       <c r="DS20" t="n">
-        <v>234.8</v>
+        <v>233.3</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7056,12 +7106,15 @@
         <v>138.6</v>
       </c>
       <c r="DS21" t="n">
-        <v>144.7</v>
+        <v>143.4</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>143.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7427,12 +7480,15 @@
         <v>129.4</v>
       </c>
       <c r="DS22" t="n">
-        <v>133.7</v>
+        <v>133.5</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>134.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7798,12 +7854,15 @@
         <v>153.7</v>
       </c>
       <c r="DS23" t="n">
-        <v>160.4</v>
+        <v>157.1</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>158.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8169,12 +8228,15 @@
         <v>142.8</v>
       </c>
       <c r="DS24" t="n">
-        <v>146.6</v>
+        <v>143.9</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>143.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8541,11 +8603,14 @@
       </c>
       <c r="DS25" t="n">
         <v>49.2</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8912,11 +8977,14 @@
       </c>
       <c r="DS26" t="n">
         <v>213.6</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>216.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9282,12 +9350,15 @@
         <v>219</v>
       </c>
       <c r="DS27" t="n">
-        <v>228.8</v>
+        <v>229.9</v>
+      </c>
+      <c r="DT27" t="n">
+        <v>231.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9653,12 +9724,15 @@
         <v>290.1</v>
       </c>
       <c r="DS28" t="n">
-        <v>302.3</v>
+        <v>304.4</v>
+      </c>
+      <c r="DT28" t="n">
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10024,12 +10098,15 @@
         <v>198.1</v>
       </c>
       <c r="DS29" t="n">
-        <v>202.6</v>
+        <v>202.5</v>
+      </c>
+      <c r="DT29" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10396,11 +10473,14 @@
       </c>
       <c r="DS30" t="n">
         <v>104</v>
+      </c>
+      <c r="DT30" t="n">
+        <v>103.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10524,10 +10604,11 @@
       <c r="DQ31"/>
       <c r="DR31"/>
       <c r="DS31"/>
+      <c r="DT31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10893,12 +10974,15 @@
         <v>43.1</v>
       </c>
       <c r="DS32" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
+      </c>
+      <c r="DT32" t="n">
+        <v>44.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11265,11 +11349,14 @@
       </c>
       <c r="DS33" t="n">
         <v>93.2</v>
+      </c>
+      <c r="DT33" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11636,11 +11723,14 @@
       </c>
       <c r="DS34" t="n">
         <v>76.3</v>
+      </c>
+      <c r="DT34" t="n">
+        <v>76.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12006,12 +12096,15 @@
         <v>42.2</v>
       </c>
       <c r="DS35" t="n">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="DT35" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12377,12 +12470,15 @@
         <v>299.1</v>
       </c>
       <c r="DS36" t="n">
-        <v>305.4</v>
+        <v>305.9</v>
+      </c>
+      <c r="DT36" t="n">
+        <v>307.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12748,12 +12844,15 @@
         <v>71.9</v>
       </c>
       <c r="DS37" t="n">
-        <v>76.4</v>
+        <v>76.3</v>
+      </c>
+      <c r="DT37" t="n">
+        <v>77.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13119,12 +13218,15 @@
         <v>658.1</v>
       </c>
       <c r="DS38" t="n">
-        <v>674.6</v>
+        <v>674.8</v>
+      </c>
+      <c r="DT38" t="n">
+        <v>677.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13491,11 +13593,14 @@
       </c>
       <c r="DS39" t="n">
         <v>321.7</v>
+      </c>
+      <c r="DT39" t="n">
+        <v>329.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13861,12 +13966,15 @@
         <v>37.9</v>
       </c>
       <c r="DS40" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="DT40" t="n">
         <v>38.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14232,12 +14340,15 @@
         <v>359.3</v>
       </c>
       <c r="DS41" t="n">
-        <v>375.4</v>
+        <v>378</v>
+      </c>
+      <c r="DT41" t="n">
+        <v>384.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14603,12 +14714,15 @@
         <v>139.2</v>
       </c>
       <c r="DS42" t="n">
-        <v>146.4</v>
+        <v>146.3</v>
+      </c>
+      <c r="DT42" t="n">
+        <v>147.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -14974,12 +15088,15 @@
         <v>127.8</v>
       </c>
       <c r="DS43" t="n">
-        <v>130.6</v>
+        <v>130.8</v>
+      </c>
+      <c r="DT43" t="n">
+        <v>131.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -15345,12 +15462,15 @@
         <v>309.4</v>
       </c>
       <c r="DS44" t="n">
-        <v>322.1</v>
+        <v>319.8</v>
+      </c>
+      <c r="DT44" t="n">
+        <v>321.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -15716,12 +15836,15 @@
         <v>28.5</v>
       </c>
       <c r="DS45" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
+      </c>
+      <c r="DT45" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16088,11 +16211,14 @@
       </c>
       <c r="DS46" t="n">
         <v>165.3</v>
+      </c>
+      <c r="DT46" t="n">
+        <v>166.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -16458,12 +16584,15 @@
         <v>36</v>
       </c>
       <c r="DS47" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
+      </c>
+      <c r="DT47" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -16829,12 +16958,15 @@
         <v>194.1</v>
       </c>
       <c r="DS48" t="n">
-        <v>204.2</v>
+        <v>203.4</v>
+      </c>
+      <c r="DT48" t="n">
+        <v>203.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -17200,12 +17332,15 @@
         <v>1121.5</v>
       </c>
       <c r="DS49" t="n">
-        <v>1141.4</v>
+        <v>1144.2</v>
+      </c>
+      <c r="DT49" t="n">
+        <v>1146.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -17572,11 +17707,14 @@
       </c>
       <c r="DS50" t="n">
         <v>125.7</v>
+      </c>
+      <c r="DT50" t="n">
+        <v>126.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -17942,12 +18080,15 @@
         <v>29.8</v>
       </c>
       <c r="DS51" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
+      </c>
+      <c r="DT51" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -18313,12 +18454,15 @@
         <v>296.5</v>
       </c>
       <c r="DS52" t="n">
-        <v>315.7</v>
+        <v>316</v>
+      </c>
+      <c r="DT52" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -18684,12 +18828,15 @@
         <v>244.4</v>
       </c>
       <c r="DS53" t="n">
-        <v>251.5</v>
+        <v>248.9</v>
+      </c>
+      <c r="DT53" t="n">
+        <v>249.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19055,12 +19202,15 @@
         <v>56.3</v>
       </c>
       <c r="DS54" t="n">
-        <v>60.2</v>
+        <v>60.3</v>
+      </c>
+      <c r="DT54" t="n">
+        <v>59.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -19427,11 +19577,14 @@
       </c>
       <c r="DS55" t="n">
         <v>206.4</v>
+      </c>
+      <c r="DT55" t="n">
+        <v>207.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -19797,7 +19950,10 @@
         <v>28.6</v>
       </c>
       <c r="DS56" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
+      </c>
+      <c r="DT56" t="n">
+        <v>30.2</v>
       </c>
     </row>
   </sheetData>
@@ -20148,10 +20304,13 @@
       <c r="DG4" t="s">
         <v>122</v>
       </c>
+      <c r="DH4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -20478,15 +20637,18 @@
         <v>4.73670204902282</v>
       </c>
       <c r="DF5" t="n">
-        <v>3.97422343049892</v>
+        <v>3.8674923224085</v>
       </c>
       <c r="DG5" t="n">
-        <v>4.08497688301047</v>
+        <v>3.76016854918944</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>3.1453456407882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -20816,12 +20978,15 @@
         <v>2.11706102117061</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.02453987730062</v>
+        <v>2.33128834355829</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>3.04506699147381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -21152,11 +21317,14 @@
       </c>
       <c r="DG7" t="n">
         <v>1.0989010989011</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1.09890109890109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -21486,12 +21654,15 @@
         <v>2.52960172228202</v>
       </c>
       <c r="DG8" t="n">
-        <v>2.79241306638567</v>
+        <v>3.05584826132772</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>2.26196738558652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -21822,11 +21993,14 @@
       </c>
       <c r="DG9" t="n">
         <v>2.6026026026026</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>2.39282153539382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -22156,12 +22330,15 @@
         <v>6.72895517024527</v>
       </c>
       <c r="DG10" t="n">
-        <v>8.05111250111694</v>
+        <v>7.55071039227949</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>6.99885553305751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -22491,12 +22668,15 @@
         <v>4.84037075180225</v>
       </c>
       <c r="DG11" t="n">
-        <v>4.38169425511196</v>
+        <v>3.70009737098344</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>3.49115255858441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -22826,12 +23006,15 @@
         <v>1.51387720773758</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.48760330578512</v>
+        <v>1.73553719008264</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.899427636958306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -23161,12 +23344,15 @@
         <v>4.26829268292685</v>
       </c>
       <c r="DG13" t="n">
-        <v>3.79008746355686</v>
+        <v>5.24781341107873</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>3.94366197183098</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -23278,10 +23464,11 @@
       <c r="DE14"/>
       <c r="DF14"/>
       <c r="DG14"/>
+      <c r="DH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -23611,12 +23798,15 @@
         <v>0.839278220730172</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.537079115885152</v>
+        <v>0.537079115885141</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.206355757325629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -23946,12 +24136,15 @@
         <v>2.84142988084327</v>
       </c>
       <c r="DG16" t="n">
-        <v>3.46715328467153</v>
+        <v>3.49756690997565</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>3.11837723281865</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -24063,10 +24256,11 @@
       <c r="DE17"/>
       <c r="DF17"/>
       <c r="DG17"/>
+      <c r="DH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -24396,12 +24590,15 @@
         <v>10.4129263913824</v>
       </c>
       <c r="DG18" t="n">
-        <v>7.45762711864407</v>
+        <v>7.6271186440678</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>6.03015075376885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -24732,11 +24929,14 @@
       </c>
       <c r="DG19" t="n">
         <v>5.73929961089492</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>5.72390572390573</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -25066,12 +25266,15 @@
         <v>6.94378837978272</v>
       </c>
       <c r="DG20" t="n">
-        <v>10.0796999531177</v>
+        <v>9.3764650726676</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>7.11030082041932</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -25401,12 +25604,15 @@
         <v>3.51008215085884</v>
       </c>
       <c r="DG21" t="n">
-        <v>4.02588066139465</v>
+        <v>3.09130122214233</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>2.50178699070765</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -25736,12 +25942,15 @@
         <v>1.88976377952756</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.829562594268472</v>
+        <v>0.678733031674213</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0.299177262528052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -26071,12 +26280,15 @@
         <v>5.41838134430725</v>
       </c>
       <c r="DG23" t="n">
-        <v>6.57807308970098</v>
+        <v>4.38538205980066</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>4.54545454545453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -26406,12 +26618,15 @@
         <v>-0.209643605870009</v>
       </c>
       <c r="DG24" t="n">
-        <v>0.410958904109585</v>
+        <v>-1.43835616438358</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>-1.50995195607412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -26742,11 +26957,14 @@
       </c>
       <c r="DG25" t="n">
         <v>2.50000000000001</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0.409836065573776</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -27077,11 +27295,14 @@
       </c>
       <c r="DG26" t="n">
         <v>7.01402805611222</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>6.74212598425196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -27411,12 +27632,15 @@
         <v>3.98860398860399</v>
       </c>
       <c r="DG27" t="n">
-        <v>4.18943533697633</v>
+        <v>4.69034608378871</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>4.23423423423422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -27746,12 +27970,15 @@
         <v>3.23843416370108</v>
       </c>
       <c r="DG28" t="n">
-        <v>2.96321525885556</v>
+        <v>3.6784741144414</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>3.48326006087251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -28081,12 +28308,15 @@
         <v>3.17708333333333</v>
       </c>
       <c r="DG29" t="n">
-        <v>2.01409869083587</v>
+        <v>1.96374622356496</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>1.2531328320802</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -28417,11 +28647,14 @@
       </c>
       <c r="DG30" t="n">
         <v>2.56410256410256</v>
+      </c>
+      <c r="DH30" t="n">
+        <v>1.96463654223967</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -28533,10 +28766,11 @@
       <c r="DE31"/>
       <c r="DF31"/>
       <c r="DG31"/>
+      <c r="DH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -28866,12 +29100,15 @@
         <v>2.86396181384247</v>
       </c>
       <c r="DG32" t="n">
-        <v>3.25581395348837</v>
+        <v>2.55813953488372</v>
+      </c>
+      <c r="DH32" t="n">
+        <v>2.29357798165138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -29202,11 +29439,14 @@
       </c>
       <c r="DG33" t="n">
         <v>2.75633958103638</v>
+      </c>
+      <c r="DH33" t="n">
+        <v>2.96703296703297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -29537,11 +29777,14 @@
       </c>
       <c r="DG34" t="n">
         <v>2.14190093708165</v>
+      </c>
+      <c r="DH34" t="n">
+        <v>1.73102529960055</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -29871,12 +30114,15 @@
         <v>1.4423076923077</v>
       </c>
       <c r="DG35" t="n">
-        <v>3.60360360360361</v>
+        <v>1.35135135135135</v>
+      </c>
+      <c r="DH35" t="n">
+        <v>-0.44052863436124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -30206,12 +30452,15 @@
         <v>7.01252236135958</v>
       </c>
       <c r="DG36" t="n">
-        <v>4.51745379876798</v>
+        <v>4.68856947296374</v>
+      </c>
+      <c r="DH36" t="n">
+        <v>4.76352500850629</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -30541,12 +30790,15 @@
         <v>6.20384047267359</v>
       </c>
       <c r="DG37" t="n">
-        <v>6.40668523676881</v>
+        <v>6.26740947075209</v>
+      </c>
+      <c r="DH37" t="n">
+        <v>6.17283950617284</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -30876,12 +31128,15 @@
         <v>6.90383365821962</v>
       </c>
       <c r="DG38" t="n">
-        <v>6.87579214195185</v>
+        <v>6.90747782002535</v>
+      </c>
+      <c r="DH38" t="n">
+        <v>6.90851735015774</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -31212,11 +31467,14 @@
       </c>
       <c r="DG39" t="n">
         <v>4.72005208333333</v>
+      </c>
+      <c r="DH39" t="n">
+        <v>4.07196969696969</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -31546,12 +31804,15 @@
         <v>6.16246498599439</v>
       </c>
       <c r="DG40" t="n">
-        <v>3.74331550802139</v>
+        <v>3.47593582887702</v>
+      </c>
+      <c r="DH40" t="n">
+        <v>4.58221024258759</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -31881,12 +32142,15 @@
         <v>-1.48066904304909</v>
       </c>
       <c r="DG41" t="n">
-        <v>-0.608948901244377</v>
+        <v>0.079428117553617</v>
+      </c>
+      <c r="DH41" t="n">
+        <v>1.29185341418402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -32216,12 +32480,15 @@
         <v>2.27773695811903</v>
       </c>
       <c r="DG42" t="n">
-        <v>1.66666666666667</v>
+        <v>1.59722222222223</v>
+      </c>
+      <c r="DH42" t="n">
+        <v>1.86980609418282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -32551,12 +32818,15 @@
         <v>7.03517587939698</v>
       </c>
       <c r="DG43" t="n">
-        <v>6.96150696150695</v>
+        <v>7.12530712530713</v>
+      </c>
+      <c r="DH43" t="n">
+        <v>6.21970920840064</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -32886,12 +33156,15 @@
         <v>2.5522041763341</v>
       </c>
       <c r="DG44" t="n">
-        <v>2.09191759112519</v>
+        <v>1.36291600633915</v>
+      </c>
+      <c r="DH44" t="n">
+        <v>0.311720698254364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -33221,12 +33494,15 @@
         <v>2.15053763440861</v>
       </c>
       <c r="DG45" t="n">
-        <v>1.76056338028168</v>
+        <v>3.16901408450704</v>
+      </c>
+      <c r="DH45" t="n">
+        <v>3.52112676056339</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -33557,11 +33833,14 @@
       </c>
       <c r="DG46" t="n">
         <v>3.9622641509434</v>
+      </c>
+      <c r="DH46" t="n">
+        <v>4.12757973733583</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -33891,12 +34170,15 @@
         <v>2.56410256410258</v>
       </c>
       <c r="DG47" t="n">
-        <v>2.76243093922652</v>
+        <v>3.31491712707181</v>
+      </c>
+      <c r="DH47" t="n">
+        <v>3.01369863013699</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -34226,12 +34508,15 @@
         <v>1.99684708355228</v>
       </c>
       <c r="DG48" t="n">
-        <v>1.79461615154535</v>
+        <v>1.39581256231304</v>
+      </c>
+      <c r="DH48" t="n">
+        <v>1.54382470119523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -34561,12 +34846,15 @@
         <v>2.41073874532005</v>
       </c>
       <c r="DG49" t="n">
-        <v>2.58853136796694</v>
+        <v>2.84019413985261</v>
+      </c>
+      <c r="DH49" t="n">
+        <v>2.96256396444925</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -34897,11 +35185,14 @@
       </c>
       <c r="DG50" t="n">
         <v>3.54200988467876</v>
+      </c>
+      <c r="DH50" t="n">
+        <v>3.34693877551021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -35231,12 +35522,15 @@
         <v>6.42857142857142</v>
       </c>
       <c r="DG51" t="n">
-        <v>0</v>
+        <v>0.324675324675329</v>
+      </c>
+      <c r="DH51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -35566,12 +35860,15 @@
         <v>2.34725578184329</v>
       </c>
       <c r="DG52" t="n">
-        <v>4.8140770252324</v>
+        <v>4.91367861885791</v>
+      </c>
+      <c r="DH52" t="n">
+        <v>4.36494913029209</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -35901,12 +36198,15 @@
         <v>6.95842450765863</v>
       </c>
       <c r="DG53" t="n">
-        <v>8.73324686554258</v>
+        <v>7.60916558581927</v>
+      </c>
+      <c r="DH53" t="n">
+        <v>6.11724723874257</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -36236,12 +36536,15 @@
         <v>4.06654343807764</v>
       </c>
       <c r="DG54" t="n">
-        <v>2.90598290598291</v>
+        <v>3.07692307692307</v>
+      </c>
+      <c r="DH54" t="n">
+        <v>1.01180438448567</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -36571,12 +36874,15 @@
         <v>3.69181380417336</v>
       </c>
       <c r="DG55" t="n">
-        <v>3.87518872672371</v>
+        <v>3.8751887267237</v>
+      </c>
+      <c r="DH55" t="n">
+        <v>3.59460808786819</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -36906,7 +37212,10 @@
         <v>1.41843971631205</v>
       </c>
       <c r="DG56" t="n">
-        <v>0.0000000000000120024110770287</v>
+        <v>0.337837837837843</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>0.332225913621255</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t xml:space="preserve">03/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1245,10 +1248,13 @@
       <c r="DT4" t="s">
         <v>123</v>
       </c>
+      <c r="DU4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1614,15 +1620,18 @@
         <v>10315.6</v>
       </c>
       <c r="DS5" t="n">
-        <v>10637.7</v>
+        <v>10643.2</v>
       </c>
       <c r="DT5" t="n">
-        <v>10693.8</v>
+        <v>10691.6</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>10712.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -1991,12 +2000,15 @@
         <v>166.8</v>
       </c>
       <c r="DT6" t="n">
-        <v>169.2</v>
+        <v>168.1</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>168.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2365,12 +2377,15 @@
         <v>27.6</v>
       </c>
       <c r="DT7" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2740,11 +2755,14 @@
       </c>
       <c r="DT8" t="n">
         <v>194.4</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>196.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3114,11 +3132,14 @@
       </c>
       <c r="DT9" t="n">
         <v>102.7</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>103.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3487,12 +3508,15 @@
         <v>1203.6</v>
       </c>
       <c r="DT10" t="n">
-        <v>1215.4</v>
+        <v>1220.3</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>1226.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3861,12 +3885,15 @@
         <v>213</v>
       </c>
       <c r="DT11" t="n">
-        <v>216.4</v>
+        <v>215.1</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>214.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4236,11 +4263,14 @@
       </c>
       <c r="DT12" t="n">
         <v>123.4</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>122.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4609,12 +4639,15 @@
         <v>36.1</v>
       </c>
       <c r="DT13" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4739,10 +4772,11 @@
       <c r="DR14"/>
       <c r="DS14"/>
       <c r="DT14"/>
+      <c r="DU14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5111,12 +5145,15 @@
         <v>486.7</v>
       </c>
       <c r="DT15" t="n">
-        <v>485.6</v>
+        <v>485.7</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>487.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5485,12 +5522,15 @@
         <v>340.3</v>
       </c>
       <c r="DT16" t="n">
-        <v>340.6</v>
+        <v>340.9</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>340.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5615,10 +5655,11 @@
       <c r="DR17"/>
       <c r="DS17"/>
       <c r="DT17"/>
+      <c r="DU17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -5987,12 +6028,15 @@
         <v>63.5</v>
       </c>
       <c r="DT18" t="n">
-        <v>63.3</v>
+        <v>63.4</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>63.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6361,12 +6405,15 @@
         <v>434.8</v>
       </c>
       <c r="DT19" t="n">
-        <v>439.6</v>
+        <v>436.4</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>441.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6735,12 +6782,15 @@
         <v>233.3</v>
       </c>
       <c r="DT20" t="n">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>233.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7109,12 +7159,15 @@
         <v>143.4</v>
       </c>
       <c r="DT21" t="n">
-        <v>143.4</v>
+        <v>143.6</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>143.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7483,12 +7536,15 @@
         <v>133.5</v>
       </c>
       <c r="DT22" t="n">
-        <v>134.1</v>
+        <v>133.9</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>133.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7857,12 +7913,15 @@
         <v>157.1</v>
       </c>
       <c r="DT23" t="n">
-        <v>158.7</v>
+        <v>158.4</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>158.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8232,11 +8291,14 @@
       </c>
       <c r="DT24" t="n">
         <v>143.5</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>143.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8605,12 +8667,15 @@
         <v>49.2</v>
       </c>
       <c r="DT25" t="n">
-        <v>49</v>
+        <v>49.2</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -8980,11 +9045,14 @@
       </c>
       <c r="DT26" t="n">
         <v>216.9</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>217.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9353,12 +9421,15 @@
         <v>229.9</v>
       </c>
       <c r="DT27" t="n">
-        <v>231.4</v>
+        <v>231.1</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>231.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9727,12 +9798,15 @@
         <v>304.4</v>
       </c>
       <c r="DT28" t="n">
-        <v>306</v>
+        <v>305.6</v>
+      </c>
+      <c r="DU28" t="n">
+        <v>306.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10102,11 +10176,14 @@
       </c>
       <c r="DT29" t="n">
         <v>202</v>
+      </c>
+      <c r="DU29" t="n">
+        <v>202.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10475,12 +10552,15 @@
         <v>104</v>
       </c>
       <c r="DT30" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
+      </c>
+      <c r="DU30" t="n">
+        <v>103.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10605,10 +10685,11 @@
       <c r="DR31"/>
       <c r="DS31"/>
       <c r="DT31"/>
+      <c r="DU31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -10977,12 +11058,15 @@
         <v>44.1</v>
       </c>
       <c r="DT32" t="n">
-        <v>44.6</v>
+        <v>44.2</v>
+      </c>
+      <c r="DU32" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11351,12 +11435,15 @@
         <v>93.2</v>
       </c>
       <c r="DT33" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
+      </c>
+      <c r="DU33" t="n">
+        <v>93.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11725,12 +11812,15 @@
         <v>76.3</v>
       </c>
       <c r="DT34" t="n">
-        <v>76.4</v>
+        <v>76.6</v>
+      </c>
+      <c r="DU34" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12099,12 +12189,15 @@
         <v>45</v>
       </c>
       <c r="DT35" t="n">
-        <v>45.2</v>
+        <v>44.8</v>
+      </c>
+      <c r="DU35" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12473,12 +12566,15 @@
         <v>305.9</v>
       </c>
       <c r="DT36" t="n">
-        <v>307.9</v>
+        <v>307.8</v>
+      </c>
+      <c r="DU36" t="n">
+        <v>309.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12847,12 +12943,15 @@
         <v>76.3</v>
       </c>
       <c r="DT37" t="n">
-        <v>77.4</v>
+        <v>77</v>
+      </c>
+      <c r="DU37" t="n">
+        <v>77.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13221,12 +13320,15 @@
         <v>674.8</v>
       </c>
       <c r="DT38" t="n">
-        <v>677.8</v>
+        <v>678.3</v>
+      </c>
+      <c r="DU38" t="n">
+        <v>683.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13596,11 +13698,14 @@
       </c>
       <c r="DT39" t="n">
         <v>329.7</v>
+      </c>
+      <c r="DU39" t="n">
+        <v>330.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -13970,11 +14075,14 @@
       </c>
       <c r="DT40" t="n">
         <v>38.8</v>
+      </c>
+      <c r="DU40" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14343,12 +14451,15 @@
         <v>378</v>
       </c>
       <c r="DT41" t="n">
-        <v>384.2</v>
+        <v>382.2</v>
+      </c>
+      <c r="DU41" t="n">
+        <v>380.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14717,12 +14828,15 @@
         <v>146.3</v>
       </c>
       <c r="DT42" t="n">
-        <v>147.1</v>
+        <v>147.2</v>
+      </c>
+      <c r="DU42" t="n">
+        <v>148.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15091,12 +15205,15 @@
         <v>130.8</v>
       </c>
       <c r="DT43" t="n">
-        <v>131.5</v>
+        <v>131.8</v>
+      </c>
+      <c r="DU43" t="n">
+        <v>131.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -15465,12 +15582,15 @@
         <v>319.8</v>
       </c>
       <c r="DT44" t="n">
-        <v>321.8</v>
+        <v>321.1</v>
+      </c>
+      <c r="DU44" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -15840,11 +15960,14 @@
       </c>
       <c r="DT45" t="n">
         <v>29.4</v>
+      </c>
+      <c r="DU45" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16213,12 +16336,15 @@
         <v>165.3</v>
       </c>
       <c r="DT46" t="n">
-        <v>166.5</v>
+        <v>166.6</v>
+      </c>
+      <c r="DU46" t="n">
+        <v>166.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -16587,12 +16713,15 @@
         <v>37.4</v>
       </c>
       <c r="DT47" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
+      </c>
+      <c r="DU47" t="n">
+        <v>37.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -16961,12 +17090,15 @@
         <v>203.4</v>
       </c>
       <c r="DT48" t="n">
-        <v>203.9</v>
+        <v>204.4</v>
+      </c>
+      <c r="DU48" t="n">
+        <v>203.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -17335,12 +17467,15 @@
         <v>1144.2</v>
       </c>
       <c r="DT49" t="n">
-        <v>1146.9</v>
+        <v>1146.7</v>
+      </c>
+      <c r="DU49" t="n">
+        <v>1147.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -17710,11 +17845,14 @@
       </c>
       <c r="DT50" t="n">
         <v>126.6</v>
+      </c>
+      <c r="DU50" t="n">
+        <v>125.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18083,12 +18221,15 @@
         <v>30.9</v>
       </c>
       <c r="DT51" t="n">
-        <v>30.3</v>
+        <v>30.7</v>
+      </c>
+      <c r="DU51" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -18457,12 +18598,15 @@
         <v>316</v>
       </c>
       <c r="DT52" t="n">
-        <v>318</v>
+        <v>316.6</v>
+      </c>
+      <c r="DU52" t="n">
+        <v>318.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -18831,12 +18975,15 @@
         <v>248.9</v>
       </c>
       <c r="DT53" t="n">
-        <v>249.8</v>
+        <v>250.4</v>
+      </c>
+      <c r="DU53" t="n">
+        <v>253.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19205,12 +19352,15 @@
         <v>60.3</v>
       </c>
       <c r="DT54" t="n">
-        <v>59.9</v>
+        <v>60.7</v>
+      </c>
+      <c r="DU54" t="n">
+        <v>60.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -19579,12 +19729,15 @@
         <v>206.4</v>
       </c>
       <c r="DT55" t="n">
-        <v>207.5</v>
+        <v>207.4</v>
+      </c>
+      <c r="DU55" t="n">
+        <v>208.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -19954,6 +20107,9 @@
       </c>
       <c r="DT56" t="n">
         <v>30.2</v>
+      </c>
+      <c r="DU56" t="n">
+        <v>30.1</v>
       </c>
     </row>
   </sheetData>
@@ -20307,10 +20463,13 @@
       <c r="DH4" t="s">
         <v>123</v>
       </c>
+      <c r="DI4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -20640,15 +20799,18 @@
         <v>3.8674923224085</v>
       </c>
       <c r="DG5" t="n">
-        <v>3.76016854918944</v>
+        <v>3.81381557129201</v>
       </c>
       <c r="DH5" t="n">
-        <v>3.1453456407882</v>
+        <v>3.12412589098834</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>2.93148342092872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -20981,12 +21143,15 @@
         <v>2.33128834355829</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.04506699147381</v>
+        <v>2.37515225334958</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>2.61557177615571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -21319,12 +21484,15 @@
         <v>1.0989010989011</v>
       </c>
       <c r="DH7" t="n">
-        <v>1.09890109890109</v>
+        <v>1.46520146520146</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.724637681159418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -21658,11 +21826,14 @@
       </c>
       <c r="DH8" t="n">
         <v>2.26196738558652</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>2.93193717277487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -21996,11 +22167,14 @@
       </c>
       <c r="DH9" t="n">
         <v>2.39282153539382</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>2.37859266600594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -22333,12 +22507,15 @@
         <v>7.55071039227949</v>
       </c>
       <c r="DH10" t="n">
-        <v>6.99885553305751</v>
+        <v>7.43023153446607</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>6.54270570857591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -22671,12 +22848,15 @@
         <v>3.70009737098344</v>
       </c>
       <c r="DH11" t="n">
-        <v>3.49115255858441</v>
+        <v>2.86944045911047</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>2.19570405727923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -23010,11 +23190,14 @@
       </c>
       <c r="DH12" t="n">
         <v>0.899427636958306</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>1.15321252059307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -23347,12 +23530,15 @@
         <v>5.24781341107873</v>
       </c>
       <c r="DH13" t="n">
-        <v>3.94366197183098</v>
+        <v>3.38028169014085</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>1.66204986149585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -23465,10 +23651,11 @@
       <c r="DF14"/>
       <c r="DG14"/>
       <c r="DH14"/>
+      <c r="DI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -23801,12 +23988,15 @@
         <v>0.537079115885141</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.206355757325629</v>
+        <v>0.226991333058185</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>1.26766417290109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -24139,12 +24329,15 @@
         <v>3.49756690997565</v>
       </c>
       <c r="DH16" t="n">
-        <v>3.11837723281865</v>
+        <v>3.20920375416287</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>2.93317205926822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -24257,10 +24450,11 @@
       <c r="DF17"/>
       <c r="DG17"/>
       <c r="DH17"/>
+      <c r="DI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -24593,12 +24787,15 @@
         <v>7.6271186440678</v>
       </c>
       <c r="DH18" t="n">
-        <v>6.03015075376885</v>
+        <v>6.19765494137355</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>7.41989881956155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -24931,12 +25128,15 @@
         <v>5.73929961089492</v>
       </c>
       <c r="DH19" t="n">
-        <v>5.72390572390573</v>
+        <v>4.95430495430495</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>5.02261366341349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -25269,12 +25469,15 @@
         <v>9.3764650726676</v>
       </c>
       <c r="DH20" t="n">
-        <v>7.11030082041932</v>
+        <v>6.65451230628988</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>6.3868613138686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -25607,12 +25810,15 @@
         <v>3.09130122214233</v>
       </c>
       <c r="DH21" t="n">
-        <v>2.50178699070765</v>
+        <v>2.64474624731953</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>2.49643366619116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -25945,12 +26151,15 @@
         <v>0.678733031674213</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.299177262528052</v>
+        <v>0.149588631264037</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>0.149588631264037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -26283,12 +26492,15 @@
         <v>4.38538205980066</v>
       </c>
       <c r="DH23" t="n">
-        <v>4.54545454545453</v>
+        <v>4.34782608695652</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>3.26370757180157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -26622,11 +26834,14 @@
       </c>
       <c r="DH24" t="n">
         <v>-1.50995195607412</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>-2.05058099794942</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -26959,12 +27174,15 @@
         <v>2.50000000000001</v>
       </c>
       <c r="DH25" t="n">
-        <v>0.409836065573776</v>
+        <v>0.819672131147553</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>0.204918032786888</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -27298,11 +27516,14 @@
       </c>
       <c r="DH26" t="n">
         <v>6.74212598425196</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>5.46950629235238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -27635,12 +27856,15 @@
         <v>4.69034608378871</v>
       </c>
       <c r="DH27" t="n">
-        <v>4.23423423423422</v>
+        <v>4.0990990990991</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>2.52100840336134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -27973,12 +28197,15 @@
         <v>3.6784741144414</v>
       </c>
       <c r="DH28" t="n">
-        <v>3.48326006087251</v>
+        <v>3.34798782549883</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>4.18225093505609</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -28312,11 +28539,14 @@
       </c>
       <c r="DH29" t="n">
         <v>1.2531328320802</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>0.847035376183353</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -28649,12 +28879,15 @@
         <v>2.56410256410256</v>
       </c>
       <c r="DH30" t="n">
-        <v>1.96463654223967</v>
+        <v>2.06286836935165</v>
+      </c>
+      <c r="DI30" t="n">
+        <v>1.96270853778214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -28767,10 +29000,11 @@
       <c r="DF31"/>
       <c r="DG31"/>
       <c r="DH31"/>
+      <c r="DI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -29103,12 +29337,15 @@
         <v>2.55813953488372</v>
       </c>
       <c r="DH32" t="n">
-        <v>2.29357798165138</v>
+        <v>1.37614678899083</v>
+      </c>
+      <c r="DI32" t="n">
+        <v>0.919540229885071</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -29441,12 +29678,15 @@
         <v>2.75633958103638</v>
       </c>
       <c r="DH33" t="n">
-        <v>2.96703296703297</v>
+        <v>3.07692307692307</v>
+      </c>
+      <c r="DI33" t="n">
+        <v>2.06746463547333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -29779,12 +30019,15 @@
         <v>2.14190093708165</v>
       </c>
       <c r="DH34" t="n">
-        <v>1.73102529960055</v>
+        <v>1.99733688415446</v>
+      </c>
+      <c r="DI34" t="n">
+        <v>1.8716577540107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -30117,12 +30360,15 @@
         <v>1.35135135135135</v>
       </c>
       <c r="DH35" t="n">
-        <v>-0.44052863436124</v>
+        <v>-1.3215859030837</v>
+      </c>
+      <c r="DI35" t="n">
+        <v>-2.18340611353713</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -30455,12 +30701,15 @@
         <v>4.68856947296374</v>
       </c>
       <c r="DH36" t="n">
-        <v>4.76352500850629</v>
+        <v>4.72949982987412</v>
+      </c>
+      <c r="DI36" t="n">
+        <v>4.52397029034437</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -30793,12 +31042,15 @@
         <v>6.26740947075209</v>
       </c>
       <c r="DH37" t="n">
-        <v>6.17283950617284</v>
+        <v>5.62414266117969</v>
+      </c>
+      <c r="DI37" t="n">
+        <v>5.47195622435021</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -31131,12 +31383,15 @@
         <v>6.90747782002535</v>
       </c>
       <c r="DH38" t="n">
-        <v>6.90851735015774</v>
+        <v>6.98738170347004</v>
+      </c>
+      <c r="DI38" t="n">
+        <v>7.75169371356549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -31470,11 +31725,14 @@
       </c>
       <c r="DH39" t="n">
         <v>4.07196969696969</v>
+      </c>
+      <c r="DI39" t="n">
+        <v>3.63294707171938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -31808,11 +32066,14 @@
       </c>
       <c r="DH40" t="n">
         <v>4.58221024258759</v>
+      </c>
+      <c r="DI40" t="n">
+        <v>5.39083557951482</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -32145,12 +32406,15 @@
         <v>0.079428117553617</v>
       </c>
       <c r="DH41" t="n">
-        <v>1.29185341418402</v>
+        <v>0.764566306353819</v>
+      </c>
+      <c r="DI41" t="n">
+        <v>-0.62679550796552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -32483,12 +32747,15 @@
         <v>1.59722222222223</v>
       </c>
       <c r="DH42" t="n">
-        <v>1.86980609418282</v>
+        <v>1.93905817174514</v>
+      </c>
+      <c r="DI42" t="n">
+        <v>1.64722031571723</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -32821,12 +33088,15 @@
         <v>7.12530712530713</v>
       </c>
       <c r="DH43" t="n">
-        <v>6.21970920840064</v>
+        <v>6.46203554119545</v>
+      </c>
+      <c r="DI43" t="n">
+        <v>4.27215189873416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -33159,12 +33429,15 @@
         <v>1.36291600633915</v>
       </c>
       <c r="DH44" t="n">
-        <v>0.311720698254364</v>
+        <v>0.0935162094763128</v>
+      </c>
+      <c r="DI44" t="n">
+        <v>0.249843847595239</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -33498,11 +33771,14 @@
       </c>
       <c r="DH45" t="n">
         <v>3.52112676056339</v>
+      </c>
+      <c r="DI45" t="n">
+        <v>3.85964912280702</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -33835,12 +34111,15 @@
         <v>3.9622641509434</v>
       </c>
       <c r="DH46" t="n">
-        <v>4.12757973733583</v>
+        <v>4.19011882426516</v>
+      </c>
+      <c r="DI46" t="n">
+        <v>4.25265791119449</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -34173,12 +34452,15 @@
         <v>3.31491712707181</v>
       </c>
       <c r="DH47" t="n">
-        <v>3.01369863013699</v>
+        <v>2.73972602739726</v>
+      </c>
+      <c r="DI47" t="n">
+        <v>1.92307692307693</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -34511,12 +34793,15 @@
         <v>1.39581256231304</v>
       </c>
       <c r="DH48" t="n">
-        <v>1.54382470119523</v>
+        <v>1.79282868525896</v>
+      </c>
+      <c r="DI48" t="n">
+        <v>1.04270109235352</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -34849,12 +35134,15 @@
         <v>2.84019413985261</v>
       </c>
       <c r="DH49" t="n">
-        <v>2.96256396444925</v>
+        <v>2.94460903133138</v>
+      </c>
+      <c r="DI49" t="n">
+        <v>2.95279124035181</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -35188,11 +35476,14 @@
       </c>
       <c r="DH50" t="n">
         <v>3.34693877551021</v>
+      </c>
+      <c r="DI50" t="n">
+        <v>3.53618421052633</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -35525,12 +35816,15 @@
         <v>0.324675324675329</v>
       </c>
       <c r="DH51" t="n">
-        <v>1</v>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="DI51" t="n">
+        <v>2.31788079470197</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -35863,12 +36157,15 @@
         <v>4.91367861885791</v>
       </c>
       <c r="DH52" t="n">
-        <v>4.36494913029209</v>
+        <v>3.90548080078767</v>
+      </c>
+      <c r="DI52" t="n">
+        <v>3.67838541666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -36201,12 +36498,15 @@
         <v>7.60916558581927</v>
       </c>
       <c r="DH53" t="n">
-        <v>6.11724723874257</v>
+        <v>6.37213254035683</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>4.96072757337743</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -36539,12 +36839,15 @@
         <v>3.07692307692307</v>
       </c>
       <c r="DH54" t="n">
-        <v>1.01180438448567</v>
+        <v>2.36087689713321</v>
+      </c>
+      <c r="DI54" t="n">
+        <v>1.16472545757072</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -36877,12 +37180,15 @@
         <v>3.8751887267237</v>
       </c>
       <c r="DH55" t="n">
-        <v>3.59460808786819</v>
+        <v>3.54468297553668</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>3.1604938271605</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -37216,6 +37522,9 @@
       </c>
       <c r="DH56" t="n">
         <v>0.332225913621255</v>
+      </c>
+      <c r="DI56" t="n">
+        <v>1.00671140939598</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1251,10 +1254,13 @@
       <c r="DU4" t="s">
         <v>124</v>
       </c>
+      <c r="DV4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1623,15 +1629,18 @@
         <v>10643.2</v>
       </c>
       <c r="DT5" t="n">
-        <v>10691.6</v>
+        <v>10692.1</v>
       </c>
       <c r="DU5" t="n">
-        <v>10712.8</v>
+        <v>10717.6</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>10609.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2003,12 +2012,15 @@
         <v>168.1</v>
       </c>
       <c r="DU6" t="n">
-        <v>168.7</v>
+        <v>169.3</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>169.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2381,11 +2393,14 @@
       </c>
       <c r="DU7" t="n">
         <v>27.8</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>26.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2757,12 +2772,15 @@
         <v>194.4</v>
       </c>
       <c r="DU8" t="n">
-        <v>196.6</v>
+        <v>196.5</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3135,11 +3153,14 @@
       </c>
       <c r="DU9" t="n">
         <v>103.3</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>102.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3511,12 +3532,15 @@
         <v>1220.3</v>
       </c>
       <c r="DU10" t="n">
-        <v>1226.2</v>
+        <v>1224.1</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3889,11 +3913,14 @@
       </c>
       <c r="DU11" t="n">
         <v>214.1</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>215.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4265,12 +4292,15 @@
         <v>123.4</v>
       </c>
       <c r="DU12" t="n">
-        <v>122.8</v>
+        <v>122.5</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>119.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4642,12 +4672,15 @@
         <v>36.7</v>
       </c>
       <c r="DU13" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4773,10 +4806,11 @@
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
+      <c r="DV14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5148,12 +5182,15 @@
         <v>485.7</v>
       </c>
       <c r="DU15" t="n">
-        <v>487.3</v>
+        <v>487.2</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>485.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5525,12 +5562,15 @@
         <v>340.9</v>
       </c>
       <c r="DU16" t="n">
-        <v>340.4</v>
+        <v>340.5</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5656,10 +5696,11 @@
       <c r="DS17"/>
       <c r="DT17"/>
       <c r="DU17"/>
+      <c r="DV17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6031,12 +6072,15 @@
         <v>63.4</v>
       </c>
       <c r="DU18" t="n">
-        <v>63.7</v>
+        <v>64.1</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>62.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6409,11 +6453,14 @@
       </c>
       <c r="DU19" t="n">
         <v>441.2</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>440.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6785,12 +6832,15 @@
         <v>234</v>
       </c>
       <c r="DU20" t="n">
-        <v>233.2</v>
+        <v>233.4</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>227.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7163,11 +7213,14 @@
       </c>
       <c r="DU21" t="n">
         <v>143.7</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>143.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7539,12 +7592,15 @@
         <v>133.9</v>
       </c>
       <c r="DU22" t="n">
-        <v>133.9</v>
+        <v>134</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>134.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7916,12 +7972,15 @@
         <v>158.4</v>
       </c>
       <c r="DU23" t="n">
-        <v>158.2</v>
+        <v>158.5</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>154.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8294,11 +8353,14 @@
       </c>
       <c r="DU24" t="n">
         <v>143.3</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>143.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8671,11 +8733,14 @@
       </c>
       <c r="DU25" t="n">
         <v>48.9</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9048,11 +9113,14 @@
       </c>
       <c r="DU26" t="n">
         <v>217.9</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>218.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9424,12 +9492,15 @@
         <v>231.1</v>
       </c>
       <c r="DU27" t="n">
-        <v>231.8</v>
+        <v>231.5</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9801,12 +9872,15 @@
         <v>305.6</v>
       </c>
       <c r="DU28" t="n">
-        <v>306.4</v>
+        <v>306.9</v>
+      </c>
+      <c r="DV28" t="n">
+        <v>283.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10178,12 +10252,15 @@
         <v>202</v>
       </c>
       <c r="DU29" t="n">
-        <v>202.4</v>
+        <v>201.6</v>
+      </c>
+      <c r="DV29" t="n">
+        <v>199.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10555,12 +10632,15 @@
         <v>103.9</v>
       </c>
       <c r="DU30" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
+      </c>
+      <c r="DV30" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10686,10 +10766,11 @@
       <c r="DS31"/>
       <c r="DT31"/>
       <c r="DU31"/>
+      <c r="DV31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11062,11 +11143,14 @@
       </c>
       <c r="DU32" t="n">
         <v>43.9</v>
+      </c>
+      <c r="DV32" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11438,12 +11522,15 @@
         <v>93.8</v>
       </c>
       <c r="DU33" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
+      </c>
+      <c r="DV33" t="n">
+        <v>93.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11815,12 +11902,15 @@
         <v>76.6</v>
       </c>
       <c r="DU34" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
+      </c>
+      <c r="DV34" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12192,12 +12282,15 @@
         <v>44.8</v>
       </c>
       <c r="DU35" t="n">
-        <v>44.8</v>
+        <v>45</v>
+      </c>
+      <c r="DV35" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12570,11 +12663,14 @@
       </c>
       <c r="DU36" t="n">
         <v>309.6</v>
+      </c>
+      <c r="DV36" t="n">
+        <v>305.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -12947,11 +13043,14 @@
       </c>
       <c r="DU37" t="n">
         <v>77.1</v>
+      </c>
+      <c r="DV37" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13323,12 +13422,15 @@
         <v>678.3</v>
       </c>
       <c r="DU38" t="n">
-        <v>683.9</v>
+        <v>683.7</v>
+      </c>
+      <c r="DV38" t="n">
+        <v>680.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13701,11 +13803,14 @@
       </c>
       <c r="DU39" t="n">
         <v>330.9</v>
+      </c>
+      <c r="DV39" t="n">
+        <v>328.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14078,11 +14183,14 @@
       </c>
       <c r="DU40" t="n">
         <v>39.1</v>
+      </c>
+      <c r="DV40" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14454,12 +14562,15 @@
         <v>382.2</v>
       </c>
       <c r="DU41" t="n">
-        <v>380.5</v>
+        <v>381</v>
+      </c>
+      <c r="DV41" t="n">
+        <v>372.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14831,12 +14942,15 @@
         <v>147.2</v>
       </c>
       <c r="DU42" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
+      </c>
+      <c r="DV42" t="n">
+        <v>147.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15209,11 +15323,14 @@
       </c>
       <c r="DU43" t="n">
         <v>131.8</v>
+      </c>
+      <c r="DV43" t="n">
+        <v>132.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -15586,11 +15703,14 @@
       </c>
       <c r="DU44" t="n">
         <v>321</v>
+      </c>
+      <c r="DV44" t="n">
+        <v>318.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -15963,11 +16083,14 @@
       </c>
       <c r="DU45" t="n">
         <v>29.6</v>
+      </c>
+      <c r="DV45" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16340,11 +16463,14 @@
       </c>
       <c r="DU46" t="n">
         <v>166.7</v>
+      </c>
+      <c r="DV46" t="n">
+        <v>165.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -16716,12 +16842,15 @@
         <v>37.5</v>
       </c>
       <c r="DU47" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
+      </c>
+      <c r="DV47" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17094,11 +17223,14 @@
       </c>
       <c r="DU48" t="n">
         <v>203.5</v>
+      </c>
+      <c r="DV48" t="n">
+        <v>200.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -17470,12 +17602,15 @@
         <v>1146.7</v>
       </c>
       <c r="DU49" t="n">
-        <v>1147.1</v>
+        <v>1146.8</v>
+      </c>
+      <c r="DV49" t="n">
+        <v>1142.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -17848,11 +17983,14 @@
       </c>
       <c r="DU50" t="n">
         <v>125.9</v>
+      </c>
+      <c r="DV50" t="n">
+        <v>125.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18225,11 +18363,14 @@
       </c>
       <c r="DU51" t="n">
         <v>30.9</v>
+      </c>
+      <c r="DV51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -18602,11 +18743,14 @@
       </c>
       <c r="DU52" t="n">
         <v>318.5</v>
+      </c>
+      <c r="DV52" t="n">
+        <v>310.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -18979,11 +19123,14 @@
       </c>
       <c r="DU53" t="n">
         <v>253.9</v>
+      </c>
+      <c r="DV53" t="n">
+        <v>254.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19356,11 +19503,14 @@
       </c>
       <c r="DU54" t="n">
         <v>60.8</v>
+      </c>
+      <c r="DV54" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -19732,12 +19882,15 @@
         <v>207.4</v>
       </c>
       <c r="DU55" t="n">
-        <v>208.9</v>
+        <v>208.7</v>
+      </c>
+      <c r="DV55" t="n">
+        <v>205.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -20109,6 +20262,9 @@
         <v>30.2</v>
       </c>
       <c r="DU56" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="DV56" t="n">
         <v>30.1</v>
       </c>
     </row>
@@ -20466,10 +20622,13 @@
       <c r="DI4" t="s">
         <v>124</v>
       </c>
+      <c r="DJ4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -20802,15 +20961,18 @@
         <v>3.81381557129201</v>
       </c>
       <c r="DH5" t="n">
-        <v>3.12412589098834</v>
+        <v>3.12894856139741</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.93148342092872</v>
+        <v>2.97760312076633</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>2.93601125503324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -21146,12 +21308,15 @@
         <v>2.37515225334958</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.61557177615571</v>
+        <v>2.98053527980536</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2.91262135922329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -21488,11 +21653,14 @@
       </c>
       <c r="DI7" t="n">
         <v>0.724637681159418</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.0000000000000135084170296597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -21828,12 +21996,15 @@
         <v>2.26196738558652</v>
       </c>
       <c r="DI8" t="n">
-        <v>2.93193717277487</v>
+        <v>2.87958115183246</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>2.39130434782607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -22170,11 +22341,14 @@
       </c>
       <c r="DI9" t="n">
         <v>2.37859266600594</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>2.40240240240239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -22510,12 +22684,15 @@
         <v>7.43023153446607</v>
       </c>
       <c r="DI10" t="n">
-        <v>6.54270570857591</v>
+        <v>6.3602398123208</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>5.74899478141841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -22852,11 +23029,14 @@
       </c>
       <c r="DI11" t="n">
         <v>2.19570405727923</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>2.28245363766049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -23192,12 +23372,15 @@
         <v>0.899427636958306</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.15321252059307</v>
+        <v>0.906095551894559</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.336417157275026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -23533,12 +23716,15 @@
         <v>3.38028169014085</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.66204986149585</v>
+        <v>1.10803324099723</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.852272727272719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -23652,10 +23838,11 @@
       <c r="DG14"/>
       <c r="DH14"/>
       <c r="DI14"/>
+      <c r="DJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -23991,12 +24178,15 @@
         <v>0.226991333058185</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.26766417290109</v>
+        <v>1.24688279301746</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>2.77072758037226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -24332,12 +24522,15 @@
         <v>3.20920375416287</v>
       </c>
       <c r="DI16" t="n">
-        <v>2.93317205926822</v>
+        <v>2.96341094647717</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>2.27617602427921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -24451,10 +24644,11 @@
       <c r="DG17"/>
       <c r="DH17"/>
       <c r="DI17"/>
+      <c r="DJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -24790,12 +24984,15 @@
         <v>6.19765494137355</v>
       </c>
       <c r="DI18" t="n">
-        <v>7.41989881956155</v>
+        <v>8.09443507588531</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>6.33561643835617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -25132,11 +25329,14 @@
       </c>
       <c r="DI19" t="n">
         <v>5.02261366341349</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>5.5861903620235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -25472,12 +25672,15 @@
         <v>6.65451230628988</v>
       </c>
       <c r="DI20" t="n">
-        <v>6.3868613138686</v>
+        <v>6.478102189781</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>2.89723856948846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -25814,11 +26017,14 @@
       </c>
       <c r="DI21" t="n">
         <v>2.49643366619116</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>1.91761363636363</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -26154,12 +26360,15 @@
         <v>0.149588631264037</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.149588631264037</v>
+        <v>0.224382946896044</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0.224215246636759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -26495,12 +26704,15 @@
         <v>4.34782608695652</v>
       </c>
       <c r="DI23" t="n">
-        <v>3.26370757180157</v>
+        <v>3.45953002610967</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>1.24426981008514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -26837,11 +27049,14 @@
       </c>
       <c r="DI24" t="n">
         <v>-2.05058099794942</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0.139275766016705</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -27178,11 +27393,14 @@
       </c>
       <c r="DI25" t="n">
         <v>0.204918032786888</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0.208333333333336</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -27519,11 +27737,14 @@
       </c>
       <c r="DI26" t="n">
         <v>5.46950629235238</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>5.5019305019305</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -27859,12 +28080,15 @@
         <v>4.0990990990991</v>
       </c>
       <c r="DI27" t="n">
-        <v>2.52100840336134</v>
+        <v>2.38832375055286</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>3.43290236290682</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -28200,12 +28424,15 @@
         <v>3.34798782549883</v>
       </c>
       <c r="DI28" t="n">
-        <v>4.18225093505609</v>
+        <v>4.35226113566812</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>1.50429799426934</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -28541,12 +28768,15 @@
         <v>1.2531328320802</v>
       </c>
       <c r="DI29" t="n">
-        <v>0.847035376183353</v>
+        <v>0.44843049327356</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>0.554435483870965</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -28882,12 +29112,15 @@
         <v>2.06286836935165</v>
       </c>
       <c r="DI30" t="n">
-        <v>1.96270853778214</v>
+        <v>1.86457311089302</v>
+      </c>
+      <c r="DJ30" t="n">
+        <v>1.88679245283018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -29001,10 +29234,11 @@
       <c r="DG31"/>
       <c r="DH31"/>
       <c r="DI31"/>
+      <c r="DJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -29341,11 +29575,14 @@
       </c>
       <c r="DI32" t="n">
         <v>0.919540229885071</v>
+      </c>
+      <c r="DJ32" t="n">
+        <v>0.921658986175112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -29681,12 +29918,15 @@
         <v>3.07692307692307</v>
       </c>
       <c r="DI33" t="n">
-        <v>2.06746463547333</v>
+        <v>2.17627856365615</v>
+      </c>
+      <c r="DJ33" t="n">
+        <v>1.62337662337662</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -30022,12 +30262,15 @@
         <v>1.99733688415446</v>
       </c>
       <c r="DI34" t="n">
-        <v>1.8716577540107</v>
+        <v>2.00534759358289</v>
+      </c>
+      <c r="DJ34" t="n">
+        <v>2.5537634408602</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -30363,12 +30606,15 @@
         <v>-1.3215859030837</v>
       </c>
       <c r="DI35" t="n">
-        <v>-2.18340611353713</v>
+        <v>-1.7467248908297</v>
+      </c>
+      <c r="DJ35" t="n">
+        <v>-2.42825607064016</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -30705,11 +30951,14 @@
       </c>
       <c r="DI36" t="n">
         <v>4.52397029034437</v>
+      </c>
+      <c r="DJ36" t="n">
+        <v>4.6949965729952</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -31046,11 +31295,14 @@
       </c>
       <c r="DI37" t="n">
         <v>5.47195622435021</v>
+      </c>
+      <c r="DJ37" t="n">
+        <v>6.10263522884883</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -31386,12 +31638,15 @@
         <v>6.98738170347004</v>
       </c>
       <c r="DI38" t="n">
-        <v>7.75169371356549</v>
+        <v>7.72018276351034</v>
+      </c>
+      <c r="DJ38" t="n">
+        <v>7.2137344463695</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -31728,11 +31983,14 @@
       </c>
       <c r="DI39" t="n">
         <v>3.63294707171938</v>
+      </c>
+      <c r="DJ39" t="n">
+        <v>3.07595731324543</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -32069,11 +32327,14 @@
       </c>
       <c r="DI40" t="n">
         <v>5.39083557951482</v>
+      </c>
+      <c r="DJ40" t="n">
+        <v>5.72207084468663</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -32409,12 +32670,15 @@
         <v>0.764566306353819</v>
       </c>
       <c r="DI41" t="n">
-        <v>-0.62679550796552</v>
+        <v>-0.496213110472702</v>
+      </c>
+      <c r="DJ41" t="n">
+        <v>-0.903774587985138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -32750,12 +33014,15 @@
         <v>1.93905817174514</v>
       </c>
       <c r="DI42" t="n">
-        <v>1.64722031571723</v>
+        <v>1.71585449553878</v>
+      </c>
+      <c r="DJ42" t="n">
+        <v>1.51410874053681</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -33092,11 +33359,14 @@
       </c>
       <c r="DI43" t="n">
         <v>4.27215189873416</v>
+      </c>
+      <c r="DJ43" t="n">
+        <v>4.17651694247438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -33433,11 +33703,14 @@
       </c>
       <c r="DI44" t="n">
         <v>0.249843847595239</v>
+      </c>
+      <c r="DJ44" t="n">
+        <v>0.505529225908362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -33774,11 +34047,14 @@
       </c>
       <c r="DI45" t="n">
         <v>3.85964912280702</v>
+      </c>
+      <c r="DJ45" t="n">
+        <v>1.38408304498271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -34115,11 +34391,14 @@
       </c>
       <c r="DI46" t="n">
         <v>4.25265791119449</v>
+      </c>
+      <c r="DJ46" t="n">
+        <v>3.96475770925109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -34455,12 +34734,15 @@
         <v>2.73972602739726</v>
       </c>
       <c r="DI47" t="n">
-        <v>1.92307692307693</v>
+        <v>2.47252747252747</v>
+      </c>
+      <c r="DJ47" t="n">
+        <v>1.93905817174514</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -34797,11 +35079,14 @@
       </c>
       <c r="DI48" t="n">
         <v>1.04270109235352</v>
+      </c>
+      <c r="DJ48" t="n">
+        <v>2.97435897435898</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -35137,12 +35422,15 @@
         <v>2.94460903133138</v>
       </c>
       <c r="DI49" t="n">
-        <v>2.95279124035181</v>
+        <v>2.9258660922635</v>
+      </c>
+      <c r="DJ49" t="n">
+        <v>2.66870338754603</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -35479,11 +35767,14 @@
       </c>
       <c r="DI50" t="n">
         <v>3.53618421052633</v>
+      </c>
+      <c r="DJ50" t="n">
+        <v>3.46534653465346</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -35820,11 +36111,14 @@
       </c>
       <c r="DI51" t="n">
         <v>2.31788079470197</v>
+      </c>
+      <c r="DJ51" t="n">
+        <v>-2.35690235690235</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -36161,11 +36455,14 @@
       </c>
       <c r="DI52" t="n">
         <v>3.67838541666667</v>
+      </c>
+      <c r="DJ52" t="n">
+        <v>3.26014637391881</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -36502,11 +36799,14 @@
       </c>
       <c r="DI53" t="n">
         <v>4.96072757337743</v>
+      </c>
+      <c r="DJ53" t="n">
+        <v>5.37856847331403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -36843,11 +37143,14 @@
       </c>
       <c r="DI54" t="n">
         <v>1.16472545757072</v>
+      </c>
+      <c r="DJ54" t="n">
+        <v>0.671140939597313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -37183,12 +37486,15 @@
         <v>3.54468297553668</v>
       </c>
       <c r="DI55" t="n">
-        <v>3.1604938271605</v>
+        <v>3.06172839506174</v>
+      </c>
+      <c r="DJ55" t="n">
+        <v>3.53178607467206</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -37524,6 +37830,9 @@
         <v>0.332225913621255</v>
       </c>
       <c r="DI56" t="n">
+        <v>1.00671140939598</v>
+      </c>
+      <c r="DJ56" t="n">
         <v>1.00671140939598</v>
       </c>
     </row>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t xml:space="preserve">05/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1257,10 +1260,13 @@
       <c r="DV4" t="s">
         <v>125</v>
       </c>
+      <c r="DW4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1632,15 +1638,18 @@
         <v>10692.1</v>
       </c>
       <c r="DU5" t="n">
-        <v>10717.6</v>
+        <v>10712.1</v>
       </c>
       <c r="DV5" t="n">
-        <v>10609.1</v>
+        <v>10588.7</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>10014.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2015,12 +2024,15 @@
         <v>169.3</v>
       </c>
       <c r="DV6" t="n">
-        <v>169.6</v>
+        <v>168.2</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>165.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2395,12 +2407,15 @@
         <v>27.8</v>
       </c>
       <c r="DV7" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2775,12 +2790,15 @@
         <v>196.5</v>
       </c>
       <c r="DV8" t="n">
-        <v>188.4</v>
+        <v>188.3</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3156,11 +3174,14 @@
       </c>
       <c r="DV9" t="n">
         <v>102.3</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>93.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3535,12 +3556,15 @@
         <v>1224.1</v>
       </c>
       <c r="DV10" t="n">
-        <v>1236.1</v>
+        <v>1238.2</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>1222.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3916,11 +3940,14 @@
       </c>
       <c r="DV11" t="n">
         <v>215.1</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>195.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4295,12 +4322,15 @@
         <v>122.5</v>
       </c>
       <c r="DV12" t="n">
-        <v>119.3</v>
+        <v>119.4</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>110.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4675,12 +4705,15 @@
         <v>36.5</v>
       </c>
       <c r="DV13" t="n">
-        <v>35.5</v>
+        <v>36.4</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>34.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4807,10 +4840,11 @@
       <c r="DT14"/>
       <c r="DU14"/>
       <c r="DV14"/>
+      <c r="DW14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5186,11 +5220,14 @@
       </c>
       <c r="DV15" t="n">
         <v>485.9</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>399.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5566,11 +5603,14 @@
       </c>
       <c r="DV16" t="n">
         <v>337</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>330.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5697,10 +5737,11 @@
       <c r="DT17"/>
       <c r="DU17"/>
       <c r="DV17"/>
+      <c r="DW17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6076,11 +6117,14 @@
       </c>
       <c r="DV18" t="n">
         <v>62.1</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6455,12 +6499,15 @@
         <v>441.2</v>
       </c>
       <c r="DV19" t="n">
-        <v>440.4</v>
+        <v>439.3</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>403.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6835,12 +6882,15 @@
         <v>233.4</v>
       </c>
       <c r="DV20" t="n">
-        <v>227.3</v>
+        <v>232.3</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>191.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7215,12 +7265,15 @@
         <v>143.7</v>
       </c>
       <c r="DV21" t="n">
-        <v>143.5</v>
+        <v>143.1</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>132.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7595,12 +7648,15 @@
         <v>134</v>
       </c>
       <c r="DV22" t="n">
-        <v>134.1</v>
+        <v>133.8</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -7975,12 +8031,15 @@
         <v>158.5</v>
       </c>
       <c r="DV23" t="n">
-        <v>154.6</v>
+        <v>156.3</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>148.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8355,12 +8414,15 @@
         <v>143.3</v>
       </c>
       <c r="DV24" t="n">
-        <v>143.8</v>
+        <v>143.4</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>132.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8736,11 +8798,14 @@
       </c>
       <c r="DV25" t="n">
         <v>48.1</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9115,12 +9180,15 @@
         <v>217.9</v>
       </c>
       <c r="DV26" t="n">
-        <v>218.6</v>
+        <v>217.7</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>202.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9495,12 +9563,15 @@
         <v>231.5</v>
       </c>
       <c r="DV27" t="n">
-        <v>232</v>
+        <v>231.3</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>224.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9875,12 +9946,15 @@
         <v>306.9</v>
       </c>
       <c r="DV28" t="n">
-        <v>283.4</v>
+        <v>289.6</v>
+      </c>
+      <c r="DW28" t="n">
+        <v>271.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10255,12 +10329,15 @@
         <v>201.6</v>
       </c>
       <c r="DV29" t="n">
-        <v>199.5</v>
+        <v>199.7</v>
+      </c>
+      <c r="DW29" t="n">
+        <v>193.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10635,12 +10712,15 @@
         <v>103.8</v>
       </c>
       <c r="DV30" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
+      </c>
+      <c r="DW30" t="n">
+        <v>99.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10767,10 +10847,11 @@
       <c r="DT31"/>
       <c r="DU31"/>
       <c r="DV31"/>
+      <c r="DW31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11145,12 +11226,15 @@
         <v>43.9</v>
       </c>
       <c r="DV32" t="n">
-        <v>43.8</v>
+        <v>42.5</v>
+      </c>
+      <c r="DW32" t="n">
+        <v>40.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11525,12 +11609,15 @@
         <v>93.9</v>
       </c>
       <c r="DV33" t="n">
-        <v>93.9</v>
+        <v>93.7</v>
+      </c>
+      <c r="DW33" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11905,12 +11992,15 @@
         <v>76.3</v>
       </c>
       <c r="DV34" t="n">
-        <v>76.3</v>
+        <v>75.9</v>
+      </c>
+      <c r="DW34" t="n">
+        <v>69.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12285,12 +12375,15 @@
         <v>45</v>
       </c>
       <c r="DV35" t="n">
-        <v>44.2</v>
+        <v>44</v>
+      </c>
+      <c r="DW35" t="n">
+        <v>37.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12665,12 +12758,15 @@
         <v>309.6</v>
       </c>
       <c r="DV36" t="n">
-        <v>305.5</v>
+        <v>304.7</v>
+      </c>
+      <c r="DW36" t="n">
+        <v>302.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13045,12 +13141,15 @@
         <v>77.1</v>
       </c>
       <c r="DV37" t="n">
-        <v>76.5</v>
+        <v>76.4</v>
+      </c>
+      <c r="DW37" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13425,12 +13524,15 @@
         <v>683.7</v>
       </c>
       <c r="DV38" t="n">
-        <v>680.7</v>
+        <v>681.1</v>
+      </c>
+      <c r="DW38" t="n">
+        <v>667.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13805,12 +13907,15 @@
         <v>330.9</v>
       </c>
       <c r="DV39" t="n">
-        <v>328.4</v>
+        <v>328.3</v>
+      </c>
+      <c r="DW39" t="n">
+        <v>288.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14185,12 +14290,15 @@
         <v>39.1</v>
       </c>
       <c r="DV40" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
+      </c>
+      <c r="DW40" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14565,12 +14673,15 @@
         <v>381</v>
       </c>
       <c r="DV41" t="n">
-        <v>372.8</v>
+        <v>373.6</v>
+      </c>
+      <c r="DW41" t="n">
+        <v>340.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -14945,12 +15056,15 @@
         <v>148.2</v>
       </c>
       <c r="DV42" t="n">
-        <v>147.5</v>
+        <v>147.2</v>
+      </c>
+      <c r="DW42" t="n">
+        <v>133.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15325,12 +15439,15 @@
         <v>131.8</v>
       </c>
       <c r="DV43" t="n">
-        <v>132.2</v>
+        <v>132.4</v>
+      </c>
+      <c r="DW43" t="n">
+        <v>130.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -15705,12 +15822,15 @@
         <v>321</v>
       </c>
       <c r="DV44" t="n">
-        <v>318.1</v>
+        <v>318.3</v>
+      </c>
+      <c r="DW44" t="n">
+        <v>300.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -16086,11 +16206,14 @@
       </c>
       <c r="DV45" t="n">
         <v>29.3</v>
+      </c>
+      <c r="DW45" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16466,11 +16589,14 @@
       </c>
       <c r="DV46" t="n">
         <v>165.2</v>
+      </c>
+      <c r="DW46" t="n">
+        <v>155.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -16846,11 +16972,14 @@
       </c>
       <c r="DV47" t="n">
         <v>36.8</v>
+      </c>
+      <c r="DW47" t="n">
+        <v>33.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17225,12 +17354,15 @@
         <v>203.5</v>
       </c>
       <c r="DV48" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
+      </c>
+      <c r="DW48" t="n">
+        <v>191.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -17606,11 +17738,14 @@
       </c>
       <c r="DV49" t="n">
         <v>1142.6</v>
+      </c>
+      <c r="DW49" t="n">
+        <v>1103.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -17986,11 +18121,14 @@
       </c>
       <c r="DV50" t="n">
         <v>125.4</v>
+      </c>
+      <c r="DW50" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18365,12 +18503,15 @@
         <v>30.9</v>
       </c>
       <c r="DV51" t="n">
-        <v>29</v>
+        <v>29.1</v>
+      </c>
+      <c r="DW51" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -18745,12 +18886,15 @@
         <v>318.5</v>
       </c>
       <c r="DV52" t="n">
-        <v>310.4</v>
+        <v>309.8</v>
+      </c>
+      <c r="DW52" t="n">
+        <v>294.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -19125,12 +19269,15 @@
         <v>253.9</v>
       </c>
       <c r="DV53" t="n">
-        <v>254.7</v>
+        <v>254.9</v>
+      </c>
+      <c r="DW53" t="n">
+        <v>247.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19506,11 +19653,14 @@
       </c>
       <c r="DV54" t="n">
         <v>60</v>
+      </c>
+      <c r="DW54" t="n">
+        <v>55.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -19886,11 +20036,14 @@
       </c>
       <c r="DV55" t="n">
         <v>205.2</v>
+      </c>
+      <c r="DW55" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -20266,6 +20419,9 @@
       </c>
       <c r="DV56" t="n">
         <v>30.1</v>
+      </c>
+      <c r="DW56" t="n">
+        <v>27.4</v>
       </c>
     </row>
   </sheetData>
@@ -20625,10 +20781,13 @@
       <c r="DJ4" t="s">
         <v>125</v>
       </c>
+      <c r="DK4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -20964,15 +21123,18 @@
         <v>3.12894856139741</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.97760312076633</v>
+        <v>2.92475763136908</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2.93601125503324</v>
+        <v>2.73807791199729</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>1.79816625668342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -21311,12 +21473,15 @@
         <v>2.98053527980536</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2.91262135922329</v>
+        <v>2.06310679611649</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>2.0923076923077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -21655,12 +21820,15 @@
         <v>0.724637681159418</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0000000000000135084170296597</v>
+        <v>-0.380228136882121</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-7.26495726495726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -21999,12 +22167,15 @@
         <v>2.87958115183246</v>
       </c>
       <c r="DJ8" t="n">
-        <v>2.39130434782607</v>
+        <v>2.33695652173914</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-0.332225913621262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -22344,11 +22515,14 @@
       </c>
       <c r="DJ9" t="n">
         <v>2.40240240240239</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>2.39912758996729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -22687,12 +22861,15 @@
         <v>6.3602398123208</v>
       </c>
       <c r="DJ10" t="n">
-        <v>5.74899478141841</v>
+        <v>5.92865086833773</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>5.95578673602081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -23032,11 +23209,14 @@
       </c>
       <c r="DJ11" t="n">
         <v>2.28245363766049</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-0.407539480387168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -23375,12 +23555,15 @@
         <v>0.906095551894559</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.336417157275026</v>
+        <v>0.420521446593776</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-1.16591928251122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -23719,12 +23902,15 @@
         <v>1.10803324099723</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.852272727272719</v>
+        <v>3.4090909090909</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>2.39520958083834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -23839,10 +24025,11 @@
       <c r="DH14"/>
       <c r="DI14"/>
       <c r="DJ14"/>
+      <c r="DK14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -24182,11 +24369,14 @@
       </c>
       <c r="DJ15" t="n">
         <v>2.77072758037226</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>1.5497967479675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -24526,11 +24716,14 @@
       </c>
       <c r="DJ16" t="n">
         <v>2.27617602427921</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>3.60501567398119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -24645,10 +24838,11 @@
       <c r="DH17"/>
       <c r="DI17"/>
       <c r="DJ17"/>
+      <c r="DK17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -24988,11 +25182,14 @@
       </c>
       <c r="DJ18" t="n">
         <v>6.33561643835617</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>8.07899461400359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -25331,12 +25528,15 @@
         <v>5.02261366341349</v>
       </c>
       <c r="DJ19" t="n">
-        <v>5.5861903620235</v>
+        <v>5.32246463677775</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>5.15490757615203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -25675,12 +25875,15 @@
         <v>6.478102189781</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2.89723856948846</v>
+        <v>5.16070620190131</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-1.84899845916795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -26019,12 +26222,15 @@
         <v>2.49643366619116</v>
       </c>
       <c r="DJ21" t="n">
-        <v>1.91761363636363</v>
+        <v>1.63352272727272</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>1.84331797235023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -26363,12 +26569,15 @@
         <v>0.224382946896044</v>
       </c>
       <c r="DJ22" t="n">
-        <v>0.224215246636759</v>
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0.416319733555371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -26707,12 +26916,15 @@
         <v>3.45953002610967</v>
       </c>
       <c r="DJ23" t="n">
-        <v>1.24426981008514</v>
+        <v>2.35756385068764</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>1.02179836512262</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -27051,12 +27263,15 @@
         <v>-2.05058099794942</v>
       </c>
       <c r="DJ24" t="n">
-        <v>0.139275766016705</v>
+        <v>-0.139275766016725</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-0.897531787584135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -27396,11 +27611,14 @@
       </c>
       <c r="DJ25" t="n">
         <v>0.208333333333336</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>-1.08695652173913</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -27739,12 +27957,15 @@
         <v>5.46950629235238</v>
       </c>
       <c r="DJ26" t="n">
-        <v>5.5019305019305</v>
+        <v>5.06756756756757</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>3.85405960945529</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -28083,12 +28304,15 @@
         <v>2.38832375055286</v>
       </c>
       <c r="DJ27" t="n">
-        <v>3.43290236290682</v>
+        <v>3.12082032991529</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-0.088967971530244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -28427,12 +28651,15 @@
         <v>4.35226113566812</v>
       </c>
       <c r="DJ28" t="n">
-        <v>1.50429799426934</v>
+        <v>3.72492836676219</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>1.87758167480285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -28771,12 +28998,15 @@
         <v>0.44843049327356</v>
       </c>
       <c r="DJ29" t="n">
-        <v>0.554435483870965</v>
+        <v>0.655241935483862</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-0.360082304526743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -29115,12 +29345,15 @@
         <v>1.86457311089302</v>
       </c>
       <c r="DJ30" t="n">
-        <v>1.88679245283018</v>
+        <v>1.68818272095333</v>
+      </c>
+      <c r="DK30" t="n">
+        <v>2.16271884654996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -29235,10 +29468,11 @@
       <c r="DH31"/>
       <c r="DI31"/>
       <c r="DJ31"/>
+      <c r="DK31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -29577,12 +29811,15 @@
         <v>0.919540229885071</v>
       </c>
       <c r="DJ32" t="n">
-        <v>0.921658986175112</v>
+        <v>-2.07373271889401</v>
+      </c>
+      <c r="DK32" t="n">
+        <v>-1.95599022004889</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -29921,12 +30158,15 @@
         <v>2.17627856365615</v>
       </c>
       <c r="DJ33" t="n">
-        <v>1.62337662337662</v>
+        <v>1.40692640692639</v>
+      </c>
+      <c r="DK33" t="n">
+        <v>2.66203703703703</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -30265,12 +30505,15 @@
         <v>2.00534759358289</v>
       </c>
       <c r="DJ34" t="n">
-        <v>2.5537634408602</v>
+        <v>2.01612903225806</v>
+      </c>
+      <c r="DK34" t="n">
+        <v>1.91740412979351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -30609,12 +30852,15 @@
         <v>-1.7467248908297</v>
       </c>
       <c r="DJ35" t="n">
-        <v>-2.42825607064016</v>
+        <v>-2.86975717439293</v>
+      </c>
+      <c r="DK35" t="n">
+        <v>0.537634408602139</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -30953,12 +31199,15 @@
         <v>4.52397029034437</v>
       </c>
       <c r="DJ36" t="n">
-        <v>4.6949965729952</v>
+        <v>4.42083618917066</v>
+      </c>
+      <c r="DK36" t="n">
+        <v>4.96527777777778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -31297,12 +31546,15 @@
         <v>5.47195622435021</v>
       </c>
       <c r="DJ37" t="n">
-        <v>6.10263522884883</v>
+        <v>5.96393897364773</v>
+      </c>
+      <c r="DK37" t="n">
+        <v>2.04081632653061</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -31641,12 +31893,15 @@
         <v>7.72018276351034</v>
       </c>
       <c r="DJ38" t="n">
-        <v>7.2137344463695</v>
+        <v>7.27673649393604</v>
+      </c>
+      <c r="DK38" t="n">
+        <v>7.41395947249918</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -31985,12 +32240,15 @@
         <v>3.63294707171938</v>
       </c>
       <c r="DJ39" t="n">
-        <v>3.07595731324543</v>
+        <v>3.04456999372253</v>
+      </c>
+      <c r="DK39" t="n">
+        <v>-2.76001346348032</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -32329,12 +32587,15 @@
         <v>5.39083557951482</v>
       </c>
       <c r="DJ40" t="n">
-        <v>5.72207084468663</v>
+        <v>5.44959128065395</v>
+      </c>
+      <c r="DK40" t="n">
+        <v>4.93827160493825</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -32673,12 +32934,15 @@
         <v>-0.496213110472702</v>
       </c>
       <c r="DJ41" t="n">
-        <v>-0.903774587985138</v>
+        <v>-0.691121743753329</v>
+      </c>
+      <c r="DK41" t="n">
+        <v>-3.92655367231638</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -33017,12 +33281,15 @@
         <v>1.71585449553878</v>
       </c>
       <c r="DJ42" t="n">
-        <v>1.51410874053681</v>
+        <v>1.30763936682724</v>
+      </c>
+      <c r="DK42" t="n">
+        <v>0.677710843373477</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -33361,12 +33628,15 @@
         <v>4.27215189873416</v>
       </c>
       <c r="DJ43" t="n">
-        <v>4.17651694247438</v>
+        <v>4.33412135539795</v>
+      </c>
+      <c r="DK43" t="n">
+        <v>6.28571428571428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -33705,12 +33975,15 @@
         <v>0.249843847595239</v>
       </c>
       <c r="DJ44" t="n">
-        <v>0.505529225908362</v>
+        <v>0.568720379146923</v>
+      </c>
+      <c r="DK44" t="n">
+        <v>0.838363514419852</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -34050,11 +34323,14 @@
       </c>
       <c r="DJ45" t="n">
         <v>1.38408304498271</v>
+      </c>
+      <c r="DK45" t="n">
+        <v>0.740740740740751</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -34394,11 +34670,14 @@
       </c>
       <c r="DJ46" t="n">
         <v>3.96475770925109</v>
+      </c>
+      <c r="DK46" t="n">
+        <v>0.843608046722915</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -34738,11 +35017,14 @@
       </c>
       <c r="DJ47" t="n">
         <v>1.93905817174514</v>
+      </c>
+      <c r="DK47" t="n">
+        <v>2.7863777089783</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -35081,12 +35363,15 @@
         <v>1.04270109235352</v>
       </c>
       <c r="DJ48" t="n">
-        <v>2.97435897435898</v>
+        <v>2.87179487179487</v>
+      </c>
+      <c r="DK48" t="n">
+        <v>1.59066808059385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -35426,11 +35711,14 @@
       </c>
       <c r="DJ49" t="n">
         <v>2.66870338754603</v>
+      </c>
+      <c r="DK49" t="n">
+        <v>1.84655156495247</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -35770,11 +36058,14 @@
       </c>
       <c r="DJ50" t="n">
         <v>3.46534653465346</v>
+      </c>
+      <c r="DK50" t="n">
+        <v>1.69491525423729</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -36113,12 +36404,15 @@
         <v>2.31788079470197</v>
       </c>
       <c r="DJ51" t="n">
-        <v>-2.35690235690235</v>
+        <v>-2.02020202020201</v>
+      </c>
+      <c r="DK51" t="n">
+        <v>3.77358490566038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -36457,12 +36751,15 @@
         <v>3.67838541666667</v>
       </c>
       <c r="DJ52" t="n">
-        <v>3.26014637391881</v>
+        <v>3.06054557551563</v>
+      </c>
+      <c r="DK52" t="n">
+        <v>0.204081632653069</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -36801,12 +37098,15 @@
         <v>4.96072757337743</v>
       </c>
       <c r="DJ53" t="n">
-        <v>5.37856847331403</v>
+        <v>5.46131568059579</v>
+      </c>
+      <c r="DK53" t="n">
+        <v>3.46989966555184</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -37146,11 +37446,14 @@
       </c>
       <c r="DJ54" t="n">
         <v>0.671140939597313</v>
+      </c>
+      <c r="DK54" t="n">
+        <v>0.362976406533568</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -37490,11 +37793,14 @@
       </c>
       <c r="DJ55" t="n">
         <v>3.53178607467206</v>
+      </c>
+      <c r="DK55" t="n">
+        <v>2.18459858001092</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -37834,6 +38140,9 @@
       </c>
       <c r="DJ56" t="n">
         <v>1.00671140939598</v>
+      </c>
+      <c r="DK56" t="n">
+        <v>-1.7921146953405</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -396,6 +396,9 @@
     <t xml:space="preserve">06/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">07/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -555,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -874,10 +877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1263,10 +1266,13 @@
       <c r="DW4" t="s">
         <v>126</v>
       </c>
+      <c r="DX4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1641,15 +1647,18 @@
         <v>10712.1</v>
       </c>
       <c r="DV5" t="n">
-        <v>10588.7</v>
+        <v>10590.2</v>
       </c>
       <c r="DW5" t="n">
-        <v>10014.7</v>
+        <v>9994.4</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>8985.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2027,12 +2036,15 @@
         <v>168.2</v>
       </c>
       <c r="DW6" t="n">
-        <v>165.9</v>
+        <v>165.8</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>157.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2410,12 +2422,15 @@
         <v>26.2</v>
       </c>
       <c r="DW7" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>16.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2793,12 +2808,15 @@
         <v>188.3</v>
       </c>
       <c r="DW8" t="n">
-        <v>150</v>
+        <v>150.2</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>146.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3177,11 +3195,14 @@
       </c>
       <c r="DW9" t="n">
         <v>93.9</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>82.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3559,12 +3580,15 @@
         <v>1238.2</v>
       </c>
       <c r="DW10" t="n">
-        <v>1222.2</v>
+        <v>1223.2</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>1053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3942,12 +3966,15 @@
         <v>215.1</v>
       </c>
       <c r="DW11" t="n">
-        <v>195.5</v>
+        <v>195.4</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>181.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4325,12 +4352,15 @@
         <v>119.4</v>
       </c>
       <c r="DW12" t="n">
-        <v>110.2</v>
+        <v>110.4</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>97.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4708,12 +4738,15 @@
         <v>36.4</v>
       </c>
       <c r="DW13" t="n">
-        <v>34.2</v>
+        <v>33.5</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4841,10 +4874,11 @@
       <c r="DU14"/>
       <c r="DV14"/>
       <c r="DW14"/>
+      <c r="DX14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5223,11 +5257,14 @@
       </c>
       <c r="DW15" t="n">
         <v>399.7</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5605,12 +5642,15 @@
         <v>337</v>
       </c>
       <c r="DW16" t="n">
-        <v>330.5</v>
+        <v>330.9</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>318.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5738,10 +5778,11 @@
       <c r="DU17"/>
       <c r="DV17"/>
       <c r="DW17"/>
+      <c r="DX17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6120,11 +6161,14 @@
       </c>
       <c r="DW18" t="n">
         <v>60.2</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>54.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6502,12 +6546,15 @@
         <v>439.3</v>
       </c>
       <c r="DW19" t="n">
-        <v>403.9</v>
+        <v>405.1</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>377.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6885,12 +6932,15 @@
         <v>232.3</v>
       </c>
       <c r="DW20" t="n">
-        <v>191.1</v>
+        <v>191.4</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>173.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7268,12 +7318,15 @@
         <v>143.1</v>
       </c>
       <c r="DW21" t="n">
-        <v>132.6</v>
+        <v>131.5</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7651,12 +7704,15 @@
         <v>133.8</v>
       </c>
       <c r="DW22" t="n">
-        <v>120.6</v>
+        <v>119.6</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>100.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8034,12 +8090,15 @@
         <v>156.3</v>
       </c>
       <c r="DW23" t="n">
-        <v>148.3</v>
+        <v>147.4</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>121.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8417,12 +8476,15 @@
         <v>143.4</v>
       </c>
       <c r="DW24" t="n">
-        <v>132.5</v>
+        <v>132.8</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>127.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8800,12 +8862,15 @@
         <v>48.1</v>
       </c>
       <c r="DW25" t="n">
-        <v>45.5</v>
+        <v>46.7</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9184,11 +9249,14 @@
       </c>
       <c r="DW26" t="n">
         <v>202.1</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9566,12 +9634,15 @@
         <v>231.3</v>
       </c>
       <c r="DW27" t="n">
-        <v>224.6</v>
+        <v>221.5</v>
+      </c>
+      <c r="DX27" t="n">
+        <v>194.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -9949,12 +10020,15 @@
         <v>289.6</v>
       </c>
       <c r="DW28" t="n">
-        <v>271.3</v>
+        <v>270.8</v>
+      </c>
+      <c r="DX28" t="n">
+        <v>243.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10332,12 +10406,15 @@
         <v>199.7</v>
       </c>
       <c r="DW29" t="n">
-        <v>193.7</v>
+        <v>192.9</v>
+      </c>
+      <c r="DX29" t="n">
+        <v>165.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10716,11 +10793,14 @@
       </c>
       <c r="DW30" t="n">
         <v>99.2</v>
+      </c>
+      <c r="DX30" t="n">
+        <v>93.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10848,10 +10928,11 @@
       <c r="DU31"/>
       <c r="DV31"/>
       <c r="DW31"/>
+      <c r="DX31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11229,12 +11310,15 @@
         <v>42.5</v>
       </c>
       <c r="DW32" t="n">
-        <v>40.1</v>
+        <v>39.6</v>
+      </c>
+      <c r="DX32" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11612,12 +11696,15 @@
         <v>93.7</v>
       </c>
       <c r="DW33" t="n">
-        <v>88.7</v>
+        <v>88.2</v>
+      </c>
+      <c r="DX33" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -11995,12 +12082,15 @@
         <v>75.9</v>
       </c>
       <c r="DW34" t="n">
-        <v>69.1</v>
+        <v>67.7</v>
+      </c>
+      <c r="DX34" t="n">
+        <v>64.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12378,12 +12468,15 @@
         <v>44</v>
       </c>
       <c r="DW35" t="n">
-        <v>37.4</v>
+        <v>38.3</v>
+      </c>
+      <c r="DX35" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12761,12 +12854,15 @@
         <v>304.7</v>
       </c>
       <c r="DW36" t="n">
-        <v>302.3</v>
+        <v>302.2</v>
+      </c>
+      <c r="DX36" t="n">
+        <v>247.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13144,12 +13240,15 @@
         <v>76.4</v>
       </c>
       <c r="DW37" t="n">
-        <v>65</v>
+        <v>63.8</v>
+      </c>
+      <c r="DX37" t="n">
+        <v>61.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13527,12 +13626,15 @@
         <v>681.1</v>
       </c>
       <c r="DW38" t="n">
-        <v>667.9</v>
+        <v>666.6</v>
+      </c>
+      <c r="DX38" t="n">
+        <v>546.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -13911,11 +14013,14 @@
       </c>
       <c r="DW39" t="n">
         <v>288.9</v>
+      </c>
+      <c r="DX39" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14293,12 +14398,15 @@
         <v>38.7</v>
       </c>
       <c r="DW40" t="n">
-        <v>34</v>
+        <v>34.1</v>
+      </c>
+      <c r="DX40" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14676,12 +14784,15 @@
         <v>373.6</v>
       </c>
       <c r="DW41" t="n">
-        <v>340.1</v>
+        <v>344.9</v>
+      </c>
+      <c r="DX41" t="n">
+        <v>330.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15059,12 +15170,15 @@
         <v>147.2</v>
       </c>
       <c r="DW42" t="n">
-        <v>133.7</v>
+        <v>131.1</v>
+      </c>
+      <c r="DX42" t="n">
+        <v>119.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15442,12 +15556,15 @@
         <v>132.4</v>
       </c>
       <c r="DW43" t="n">
-        <v>130.2</v>
+        <v>129.7</v>
+      </c>
+      <c r="DX43" t="n">
+        <v>99.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -15825,12 +15942,15 @@
         <v>318.3</v>
       </c>
       <c r="DW44" t="n">
-        <v>300.7</v>
+        <v>293.7</v>
+      </c>
+      <c r="DX44" t="n">
+        <v>264.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -16209,11 +16329,14 @@
       </c>
       <c r="DW45" t="n">
         <v>27.2</v>
+      </c>
+      <c r="DX45" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16591,12 +16714,15 @@
         <v>165.2</v>
       </c>
       <c r="DW46" t="n">
-        <v>155.4</v>
+        <v>159.5</v>
+      </c>
+      <c r="DX46" t="n">
+        <v>152.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -16975,11 +17101,14 @@
       </c>
       <c r="DW47" t="n">
         <v>33.2</v>
+      </c>
+      <c r="DX47" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17357,12 +17486,15 @@
         <v>200.6</v>
       </c>
       <c r="DW48" t="n">
-        <v>191.6</v>
+        <v>191.3</v>
+      </c>
+      <c r="DX48" t="n">
+        <v>167.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -17740,12 +17872,15 @@
         <v>1142.6</v>
       </c>
       <c r="DW49" t="n">
-        <v>1103.1</v>
+        <v>1104.1</v>
+      </c>
+      <c r="DX49" t="n">
+        <v>1032.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -18124,11 +18259,14 @@
       </c>
       <c r="DW50" t="n">
         <v>114</v>
+      </c>
+      <c r="DX50" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18506,12 +18644,15 @@
         <v>29.1</v>
       </c>
       <c r="DW51" t="n">
-        <v>27.5</v>
+        <v>28.8</v>
+      </c>
+      <c r="DX51" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -18889,12 +19030,15 @@
         <v>309.8</v>
       </c>
       <c r="DW52" t="n">
-        <v>294.6</v>
+        <v>295.2</v>
+      </c>
+      <c r="DX52" t="n">
+        <v>261.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -19272,12 +19416,15 @@
         <v>254.9</v>
       </c>
       <c r="DW53" t="n">
-        <v>247.5</v>
+        <v>247.9</v>
+      </c>
+      <c r="DX53" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19655,12 +19802,15 @@
         <v>60</v>
       </c>
       <c r="DW54" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
+      </c>
+      <c r="DX54" t="n">
+        <v>49.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -20038,12 +20188,15 @@
         <v>205.2</v>
       </c>
       <c r="DW55" t="n">
-        <v>187.1</v>
+        <v>186.3</v>
+      </c>
+      <c r="DX55" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -20421,7 +20574,10 @@
         <v>30.1</v>
       </c>
       <c r="DW56" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
+      </c>
+      <c r="DX56" t="n">
+        <v>24.3</v>
       </c>
     </row>
   </sheetData>
@@ -20431,10 +20587,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -20784,10 +20940,13 @@
       <c r="DK4" t="s">
         <v>126</v>
       </c>
+      <c r="DL4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -21126,15 +21285,18 @@
         <v>2.92475763136908</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2.73807791199729</v>
+        <v>2.75263183427935</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.79816625668342</v>
+        <v>1.59181930919515</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>1.38902993579545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -21476,12 +21638,15 @@
         <v>2.06310679611649</v>
       </c>
       <c r="DK6" t="n">
-        <v>2.0923076923077</v>
+        <v>2.03076923076924</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>1.15606936416186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -21823,12 +21988,15 @@
         <v>-0.380228136882121</v>
       </c>
       <c r="DK7" t="n">
-        <v>-7.26495726495726</v>
+        <v>-8.11965811965811</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-17.4129353233831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -22170,12 +22338,15 @@
         <v>2.33695652173914</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.332225913621262</v>
+        <v>-0.199335548172765</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.479123887748129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -22518,11 +22689,14 @@
       </c>
       <c r="DK9" t="n">
         <v>2.39912758996729</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>1.97044334975369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -22864,12 +23038,15 @@
         <v>5.92865086833773</v>
       </c>
       <c r="DK10" t="n">
-        <v>5.95578673602081</v>
+        <v>6.04247941048982</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>4.526503871352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -23211,12 +23388,15 @@
         <v>2.28245363766049</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0.407539480387168</v>
+        <v>-0.458481915435575</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>-2.89544235924932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -23558,12 +23738,15 @@
         <v>0.420521446593776</v>
       </c>
       <c r="DK12" t="n">
-        <v>-1.16591928251122</v>
+        <v>-0.986547085201789</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.413650465356794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -23905,12 +24088,15 @@
         <v>3.4090909090909</v>
       </c>
       <c r="DK13" t="n">
-        <v>2.39520958083834</v>
+        <v>0.299401197604795</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-0.30487804878047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -24026,10 +24212,11 @@
       <c r="DI14"/>
       <c r="DJ14"/>
       <c r="DK14"/>
+      <c r="DL14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -24372,11 +24559,14 @@
       </c>
       <c r="DK15" t="n">
         <v>1.5497967479675</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.851173587825641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -24718,12 +24908,15 @@
         <v>2.27617602427921</v>
       </c>
       <c r="DK16" t="n">
-        <v>3.60501567398119</v>
+        <v>3.73040752351096</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>4.07963446475196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -24839,10 +25032,11 @@
       <c r="DI17"/>
       <c r="DJ17"/>
       <c r="DK17"/>
+      <c r="DL17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -25185,11 +25379,14 @@
       </c>
       <c r="DK18" t="n">
         <v>8.07899461400359</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>9.51417004048581</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -25531,12 +25728,15 @@
         <v>5.32246463677775</v>
       </c>
       <c r="DK19" t="n">
-        <v>5.15490757615203</v>
+        <v>5.46732621713095</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>5.38805136795087</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -25878,12 +26078,15 @@
         <v>5.16070620190131</v>
       </c>
       <c r="DK20" t="n">
-        <v>-1.84899845916795</v>
+        <v>-1.69491525423729</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>3.03571428571428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -26225,12 +26428,15 @@
         <v>1.63352272727272</v>
       </c>
       <c r="DK21" t="n">
-        <v>1.84331797235023</v>
+        <v>0.998463901689717</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>1.06382978723405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -26572,12 +26778,15 @@
         <v>0</v>
       </c>
       <c r="DK22" t="n">
-        <v>0.416319733555371</v>
+        <v>-0.416319733555371</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>-0.493096646942787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -26919,12 +27128,15 @@
         <v>2.35756385068764</v>
       </c>
       <c r="DK23" t="n">
-        <v>1.02179836512262</v>
+        <v>0.408719346049042</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>-1.45513338722717</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -27266,12 +27478,15 @@
         <v>-0.139275766016725</v>
       </c>
       <c r="DK24" t="n">
-        <v>-0.897531787584135</v>
+        <v>-0.673148840688091</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>-0.545171339563854</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -27613,12 +27828,15 @@
         <v>0.208333333333336</v>
       </c>
       <c r="DK25" t="n">
-        <v>-1.08695652173913</v>
+        <v>1.52173913043479</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>3.11688311688312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -27961,11 +28179,14 @@
       </c>
       <c r="DK26" t="n">
         <v>3.85405960945529</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>3.56359649122807</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -28307,12 +28528,15 @@
         <v>3.12082032991529</v>
       </c>
       <c r="DK27" t="n">
-        <v>-0.088967971530244</v>
+        <v>-1.46797153024912</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-2.25790265930759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -28654,12 +28878,15 @@
         <v>3.72492836676219</v>
       </c>
       <c r="DK28" t="n">
-        <v>1.87758167480285</v>
+        <v>1.68982350732257</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>2.0973154362416</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -29001,12 +29228,15 @@
         <v>0.655241935483862</v>
       </c>
       <c r="DK29" t="n">
-        <v>-0.360082304526743</v>
+        <v>-0.77160493827159</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>-2.35849056603774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -29349,11 +29579,14 @@
       </c>
       <c r="DK30" t="n">
         <v>2.16271884654996</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>1.51843817787418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -29469,10 +29702,11 @@
       <c r="DI31"/>
       <c r="DJ31"/>
       <c r="DK31"/>
+      <c r="DL31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -29814,12 +30048,15 @@
         <v>-2.07373271889401</v>
       </c>
       <c r="DK32" t="n">
-        <v>-1.95599022004889</v>
+        <v>-3.17848410757946</v>
+      </c>
+      <c r="DL32" t="n">
+        <v>0.301204819277091</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -30161,12 +30398,15 @@
         <v>1.40692640692639</v>
       </c>
       <c r="DK33" t="n">
-        <v>2.66203703703703</v>
+        <v>2.08333333333333</v>
+      </c>
+      <c r="DL33" t="n">
+        <v>-1.39949109414758</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -30508,12 +30748,15 @@
         <v>2.01612903225806</v>
       </c>
       <c r="DK34" t="n">
-        <v>1.91740412979351</v>
+        <v>-0.147492625368723</v>
+      </c>
+      <c r="DL34" t="n">
+        <v>1.42405063291138</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -30855,12 +31098,15 @@
         <v>-2.86975717439293</v>
       </c>
       <c r="DK35" t="n">
-        <v>0.537634408602139</v>
+        <v>2.95698924731181</v>
+      </c>
+      <c r="DL35" t="n">
+        <v>-0.314465408805025</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -31202,12 +31448,15 @@
         <v>4.42083618917066</v>
       </c>
       <c r="DK36" t="n">
-        <v>4.96527777777778</v>
+        <v>4.93055555555555</v>
+      </c>
+      <c r="DL36" t="n">
+        <v>2.10743801652892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -31549,12 +31798,15 @@
         <v>5.96393897364773</v>
       </c>
       <c r="DK37" t="n">
-        <v>2.04081632653061</v>
+        <v>0.156985871271588</v>
+      </c>
+      <c r="DL37" t="n">
+        <v>0.490998363338796</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -31896,12 +32148,15 @@
         <v>7.27673649393604</v>
       </c>
       <c r="DK38" t="n">
-        <v>7.41395947249918</v>
+        <v>7.20488903184303</v>
+      </c>
+      <c r="DL38" t="n">
+        <v>7.06734534064212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -32244,11 +32499,14 @@
       </c>
       <c r="DK39" t="n">
         <v>-2.76001346348032</v>
+      </c>
+      <c r="DL39" t="n">
+        <v>0.292519849561215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -32590,12 +32848,15 @@
         <v>5.44959128065395</v>
       </c>
       <c r="DK40" t="n">
-        <v>4.93827160493825</v>
+        <v>5.2469135802469</v>
+      </c>
+      <c r="DL40" t="n">
+        <v>10.6870229007634</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -32937,12 +33198,15 @@
         <v>-0.691121743753329</v>
       </c>
       <c r="DK41" t="n">
-        <v>-3.92655367231638</v>
+        <v>-2.57062146892656</v>
+      </c>
+      <c r="DL41" t="n">
+        <v>-0.45194335643266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -33284,12 +33548,15 @@
         <v>1.30763936682724</v>
       </c>
       <c r="DK42" t="n">
-        <v>0.677710843373477</v>
+        <v>-1.28012048192772</v>
+      </c>
+      <c r="DL42" t="n">
+        <v>-0.909090909090916</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -33631,12 +33898,15 @@
         <v>4.33412135539795</v>
       </c>
       <c r="DK43" t="n">
-        <v>6.28571428571428</v>
+        <v>5.87755102040815</v>
+      </c>
+      <c r="DL43" t="n">
+        <v>-9.85533453887884</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -33978,12 +34248,15 @@
         <v>0.568720379146923</v>
       </c>
       <c r="DK44" t="n">
-        <v>0.838363514419852</v>
+        <v>-1.50905432595573</v>
+      </c>
+      <c r="DL44" t="n">
+        <v>-2.75938189845475</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -34326,11 +34599,14 @@
       </c>
       <c r="DK45" t="n">
         <v>0.740740740740751</v>
+      </c>
+      <c r="DL45" t="n">
+        <v>3.05676855895196</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -34672,12 +34948,15 @@
         <v>3.96475770925109</v>
       </c>
       <c r="DK46" t="n">
-        <v>0.843608046722915</v>
+        <v>3.50421804023362</v>
+      </c>
+      <c r="DL46" t="n">
+        <v>5.89459084604716</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -35020,11 +35299,14 @@
       </c>
       <c r="DK47" t="n">
         <v>2.7863777089783</v>
+      </c>
+      <c r="DL47" t="n">
+        <v>1.08303249097472</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -35366,12 +35648,15 @@
         <v>2.87179487179487</v>
       </c>
       <c r="DK48" t="n">
-        <v>1.59066808059385</v>
+        <v>1.43160127253447</v>
+      </c>
+      <c r="DL48" t="n">
+        <v>4.09429280397024</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -35713,12 +35998,15 @@
         <v>2.66870338754603</v>
       </c>
       <c r="DK49" t="n">
-        <v>1.84655156495247</v>
+        <v>1.93887914320009</v>
+      </c>
+      <c r="DL49" t="n">
+        <v>0.301175556203236</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -36061,11 +36349,14 @@
       </c>
       <c r="DK50" t="n">
         <v>1.69491525423729</v>
+      </c>
+      <c r="DL50" t="n">
+        <v>1.89431704885345</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -36407,12 +36698,15 @@
         <v>-2.02020202020201</v>
       </c>
       <c r="DK51" t="n">
-        <v>3.77358490566038</v>
+        <v>8.67924528301886</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>10.3448275862069</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -36754,12 +37048,15 @@
         <v>3.06054557551563</v>
       </c>
       <c r="DK52" t="n">
-        <v>0.204081632653069</v>
+        <v>0.408163265306138</v>
+      </c>
+      <c r="DL52" t="n">
+        <v>-0.229182582123746</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -37101,12 +37398,15 @@
         <v>5.46131568059579</v>
       </c>
       <c r="DK53" t="n">
-        <v>3.46989966555184</v>
+        <v>3.63712374581941</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>4.74922325787838</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -37448,12 +37748,15 @@
         <v>0.671140939597313</v>
       </c>
       <c r="DK54" t="n">
-        <v>0.362976406533568</v>
+        <v>-1.4519056261343</v>
+      </c>
+      <c r="DL54" t="n">
+        <v>-0.799999999999997</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -37795,12 +38098,15 @@
         <v>3.53178607467206</v>
       </c>
       <c r="DK55" t="n">
-        <v>2.18459858001092</v>
+        <v>1.74767886400875</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>-0.772430184194897</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -38142,7 +38448,10 @@
         <v>1.00671140939598</v>
       </c>
       <c r="DK56" t="n">
-        <v>-1.7921146953405</v>
+        <v>-2.15053763440859</v>
+      </c>
+      <c r="DL56" t="n">
+        <v>0.413223140495874</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t xml:space="preserve">07/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1269,10 +1272,13 @@
       <c r="DX4" t="s">
         <v>127</v>
       </c>
+      <c r="DY4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1650,15 +1656,18 @@
         <v>10590.2</v>
       </c>
       <c r="DW5" t="n">
-        <v>9994.4</v>
+        <v>9977.4</v>
       </c>
       <c r="DX5" t="n">
-        <v>8985.4</v>
+        <v>8986.4</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>9266.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2039,12 +2048,15 @@
         <v>165.8</v>
       </c>
       <c r="DX6" t="n">
-        <v>157.5</v>
+        <v>157.7</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>161.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2426,11 +2438,14 @@
       </c>
       <c r="DX7" t="n">
         <v>16.6</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2811,12 +2826,15 @@
         <v>150.2</v>
       </c>
       <c r="DX8" t="n">
-        <v>146.8</v>
+        <v>148.1</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3198,11 +3216,14 @@
       </c>
       <c r="DX9" t="n">
         <v>82.8</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>87.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3583,12 +3604,15 @@
         <v>1223.2</v>
       </c>
       <c r="DX10" t="n">
-        <v>1053</v>
+        <v>1051.5</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>1087.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3969,12 +3993,15 @@
         <v>195.4</v>
       </c>
       <c r="DX11" t="n">
-        <v>181.1</v>
+        <v>181.7</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4355,12 +4382,15 @@
         <v>110.4</v>
       </c>
       <c r="DX12" t="n">
-        <v>97.1</v>
+        <v>96.6</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4741,12 +4771,15 @@
         <v>33.5</v>
       </c>
       <c r="DX13" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>31.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4875,10 +4908,11 @@
       <c r="DV14"/>
       <c r="DW14"/>
       <c r="DX14"/>
+      <c r="DY14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5260,11 +5294,14 @@
       </c>
       <c r="DX15" t="n">
         <v>391</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>459.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5645,12 +5682,15 @@
         <v>330.9</v>
       </c>
       <c r="DX16" t="n">
-        <v>318.9</v>
+        <v>320</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5779,10 +5819,11 @@
       <c r="DV17"/>
       <c r="DW17"/>
       <c r="DX17"/>
+      <c r="DY17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6163,12 +6204,15 @@
         <v>60.2</v>
       </c>
       <c r="DX18" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>53.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6549,12 +6593,15 @@
         <v>405.1</v>
       </c>
       <c r="DX19" t="n">
-        <v>377.5</v>
+        <v>378.9</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>385.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6935,12 +6982,15 @@
         <v>191.4</v>
       </c>
       <c r="DX20" t="n">
-        <v>173.1</v>
+        <v>173.8</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>207.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7321,12 +7371,15 @@
         <v>131.5</v>
       </c>
       <c r="DX21" t="n">
-        <v>114</v>
+        <v>114.4</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>117.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7707,12 +7760,15 @@
         <v>119.6</v>
       </c>
       <c r="DX22" t="n">
-        <v>100.9</v>
+        <v>101.7</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>110.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8093,12 +8149,15 @@
         <v>147.4</v>
       </c>
       <c r="DX23" t="n">
-        <v>121.9</v>
+        <v>122.8</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>147.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8480,11 +8539,14 @@
       </c>
       <c r="DX24" t="n">
         <v>127.7</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>135.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8865,12 +8927,15 @@
         <v>46.7</v>
       </c>
       <c r="DX25" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9251,12 +9316,15 @@
         <v>202.1</v>
       </c>
       <c r="DX26" t="n">
-        <v>188.9</v>
+        <v>189.6</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9637,12 +9705,15 @@
         <v>221.5</v>
       </c>
       <c r="DX27" t="n">
-        <v>194.8</v>
+        <v>195.4</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10023,12 +10094,15 @@
         <v>270.8</v>
       </c>
       <c r="DX28" t="n">
-        <v>243.4</v>
+        <v>243.5</v>
+      </c>
+      <c r="DY28" t="n">
+        <v>250.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10409,12 +10483,15 @@
         <v>192.9</v>
       </c>
       <c r="DX29" t="n">
-        <v>165.6</v>
+        <v>166.4</v>
+      </c>
+      <c r="DY29" t="n">
+        <v>162.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10796,11 +10873,14 @@
       </c>
       <c r="DX30" t="n">
         <v>93.6</v>
+      </c>
+      <c r="DY30" t="n">
+        <v>97.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -10929,10 +11009,11 @@
       <c r="DV31"/>
       <c r="DW31"/>
       <c r="DX31"/>
+      <c r="DY31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11313,12 +11394,15 @@
         <v>39.6</v>
       </c>
       <c r="DX32" t="n">
-        <v>33.3</v>
+        <v>32.4</v>
+      </c>
+      <c r="DY32" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11700,11 +11784,14 @@
       </c>
       <c r="DX33" t="n">
         <v>77.5</v>
+      </c>
+      <c r="DY33" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12086,11 +12173,14 @@
       </c>
       <c r="DX34" t="n">
         <v>64.1</v>
+      </c>
+      <c r="DY34" t="n">
+        <v>67.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12471,12 +12561,15 @@
         <v>38.3</v>
       </c>
       <c r="DX35" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="DY35" t="n">
         <v>31.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12857,12 +12950,15 @@
         <v>302.2</v>
       </c>
       <c r="DX36" t="n">
-        <v>247.1</v>
+        <v>248.3</v>
+      </c>
+      <c r="DY36" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13243,12 +13339,15 @@
         <v>63.8</v>
       </c>
       <c r="DX37" t="n">
-        <v>61.4</v>
+        <v>60.5</v>
+      </c>
+      <c r="DY37" t="n">
+        <v>68.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13629,12 +13728,15 @@
         <v>666.6</v>
       </c>
       <c r="DX38" t="n">
-        <v>546.9</v>
+        <v>547.3</v>
+      </c>
+      <c r="DY38" t="n">
+        <v>542.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14016,11 +14118,14 @@
       </c>
       <c r="DX39" t="n">
         <v>240</v>
+      </c>
+      <c r="DY39" t="n">
+        <v>286.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14401,12 +14506,15 @@
         <v>34.1</v>
       </c>
       <c r="DX40" t="n">
-        <v>29</v>
+        <v>29.1</v>
+      </c>
+      <c r="DY40" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14787,12 +14895,15 @@
         <v>344.9</v>
       </c>
       <c r="DX41" t="n">
-        <v>330.4</v>
+        <v>330</v>
+      </c>
+      <c r="DY41" t="n">
+        <v>332.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15173,12 +15284,15 @@
         <v>131.1</v>
       </c>
       <c r="DX42" t="n">
-        <v>119.9</v>
+        <v>121.2</v>
+      </c>
+      <c r="DY42" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15559,12 +15673,15 @@
         <v>129.7</v>
       </c>
       <c r="DX43" t="n">
-        <v>99.7</v>
+        <v>107.3</v>
+      </c>
+      <c r="DY43" t="n">
+        <v>109.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -15945,12 +16062,15 @@
         <v>293.7</v>
       </c>
       <c r="DX44" t="n">
-        <v>264.3</v>
+        <v>267</v>
+      </c>
+      <c r="DY44" t="n">
+        <v>269.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -16332,11 +16452,14 @@
       </c>
       <c r="DX45" t="n">
         <v>23.6</v>
+      </c>
+      <c r="DY45" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16717,12 +16840,15 @@
         <v>159.5</v>
       </c>
       <c r="DX46" t="n">
-        <v>152.7</v>
+        <v>151</v>
+      </c>
+      <c r="DY46" t="n">
+        <v>158.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -17103,12 +17229,15 @@
         <v>33.2</v>
       </c>
       <c r="DX47" t="n">
-        <v>28</v>
+        <v>28.2</v>
+      </c>
+      <c r="DY47" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17489,12 +17618,15 @@
         <v>191.3</v>
       </c>
       <c r="DX48" t="n">
-        <v>167.8</v>
+        <v>168.3</v>
+      </c>
+      <c r="DY48" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -17875,12 +18007,15 @@
         <v>1104.1</v>
       </c>
       <c r="DX49" t="n">
-        <v>1032.4</v>
+        <v>1036.4</v>
+      </c>
+      <c r="DY49" t="n">
+        <v>1048.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -18262,11 +18397,14 @@
       </c>
       <c r="DX50" t="n">
         <v>102.2</v>
+      </c>
+      <c r="DY50" t="n">
+        <v>108.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18648,11 +18786,14 @@
       </c>
       <c r="DX51" t="n">
         <v>25.6</v>
+      </c>
+      <c r="DY51" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -19033,12 +19174,15 @@
         <v>295.2</v>
       </c>
       <c r="DX52" t="n">
-        <v>261.2</v>
+        <v>261.6</v>
+      </c>
+      <c r="DY52" t="n">
+        <v>283.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -19419,12 +19563,15 @@
         <v>247.9</v>
       </c>
       <c r="DX53" t="n">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="DY53" t="n">
+        <v>226.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19806,11 +19953,14 @@
       </c>
       <c r="DX54" t="n">
         <v>49.6</v>
+      </c>
+      <c r="DY54" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -20191,12 +20341,15 @@
         <v>186.3</v>
       </c>
       <c r="DX55" t="n">
-        <v>167</v>
+        <v>169.4</v>
+      </c>
+      <c r="DY55" t="n">
+        <v>166.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -20578,6 +20731,9 @@
       </c>
       <c r="DX56" t="n">
         <v>24.3</v>
+      </c>
+      <c r="DY56" t="n">
+        <v>24.6</v>
       </c>
     </row>
   </sheetData>
@@ -20943,10 +21099,13 @@
       <c r="DL4" t="s">
         <v>127</v>
       </c>
+      <c r="DM4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -21288,15 +21447,18 @@
         <v>2.75263183427935</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.59181930919515</v>
+        <v>1.41901644676658</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.38902993579545</v>
+        <v>1.40031368832019</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.359583662771165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -21641,12 +21803,15 @@
         <v>2.03076923076924</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.15606936416186</v>
+        <v>1.28452151573539</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>1.57331655129012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -21992,11 +22157,14 @@
       </c>
       <c r="DL7" t="n">
         <v>-17.4129353233831</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-8.07174887892375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -22341,12 +22509,15 @@
         <v>-0.199335548172765</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.479123887748129</v>
+        <v>1.36892539356605</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>4.66292134831461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -22692,11 +22863,14 @@
       </c>
       <c r="DL9" t="n">
         <v>1.97044334975369</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>2.21703617269544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -23041,12 +23215,15 @@
         <v>6.04247941048982</v>
       </c>
       <c r="DL10" t="n">
-        <v>4.526503871352</v>
+        <v>4.3776057176891</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>2.4110001883594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -23391,12 +23568,15 @@
         <v>-0.458481915435575</v>
       </c>
       <c r="DL11" t="n">
-        <v>-2.89544235924932</v>
+        <v>-2.57372654155497</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>-1.82672233820459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -23741,12 +23921,15 @@
         <v>-0.986547085201789</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.413650465356794</v>
+        <v>-0.103412616339173</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>-0.846560846560844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -24091,12 +24274,15 @@
         <v>0.299401197604795</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0.30487804878047</v>
+        <v>-0.914634146341455</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>-0.0000000000000111720555937123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -24213,10 +24399,11 @@
       <c r="DJ14"/>
       <c r="DK14"/>
       <c r="DL14"/>
+      <c r="DM14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -24562,11 +24749,14 @@
       </c>
       <c r="DL15" t="n">
         <v>0.851173587825641</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>1.47902869757175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -24911,12 +25101,15 @@
         <v>3.73040752351096</v>
       </c>
       <c r="DL16" t="n">
-        <v>4.07963446475196</v>
+        <v>4.43864229765014</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>3.75075620084694</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -25033,10 +25226,11 @@
       <c r="DJ17"/>
       <c r="DK17"/>
       <c r="DL17"/>
+      <c r="DM17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -25381,12 +25575,15 @@
         <v>8.07899461400359</v>
       </c>
       <c r="DL18" t="n">
-        <v>9.51417004048581</v>
+        <v>10.1214574898785</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>8.50202429149797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -25731,12 +25928,15 @@
         <v>5.46732621713095</v>
       </c>
       <c r="DL19" t="n">
-        <v>5.38805136795087</v>
+        <v>5.77889447236181</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>5.7628979143798</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -26081,12 +26281,15 @@
         <v>-1.69491525423729</v>
       </c>
       <c r="DL20" t="n">
-        <v>3.03571428571428</v>
+        <v>3.45238095238096</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>0.925925925925929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -26431,12 +26634,15 @@
         <v>0.998463901689717</v>
       </c>
       <c r="DL21" t="n">
-        <v>1.06382978723405</v>
+        <v>1.41843971631206</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>0.686106346483715</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -26781,12 +26987,15 @@
         <v>-0.416319733555371</v>
       </c>
       <c r="DL22" t="n">
-        <v>-0.493096646942787</v>
+        <v>0.295857988165692</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-0.361663652802886</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -27131,12 +27340,15 @@
         <v>0.408719346049042</v>
       </c>
       <c r="DL23" t="n">
-        <v>-1.45513338722717</v>
+        <v>-0.727566693613586</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>1.65175498967652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -27482,11 +27694,14 @@
       </c>
       <c r="DL24" t="n">
         <v>-0.545171339563854</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>0.741289844329112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -27831,12 +28046,15 @@
         <v>1.52173913043479</v>
       </c>
       <c r="DL25" t="n">
-        <v>3.11688311688312</v>
+        <v>3.37662337662337</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>2.38726790450928</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -28181,12 +28399,15 @@
         <v>3.85405960945529</v>
       </c>
       <c r="DL26" t="n">
-        <v>3.56359649122807</v>
+        <v>3.94736842105263</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>1.61637931034481</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -28531,12 +28752,15 @@
         <v>-1.46797153024912</v>
       </c>
       <c r="DL27" t="n">
-        <v>-2.25790265930759</v>
+        <v>-1.9568489713999</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-2.03045685279188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -28881,12 +29105,15 @@
         <v>1.68982350732257</v>
       </c>
       <c r="DL28" t="n">
-        <v>2.0973154362416</v>
+        <v>2.13926174496644</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>0.846774193548385</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -29231,12 +29458,15 @@
         <v>-0.77160493827159</v>
       </c>
       <c r="DL29" t="n">
-        <v>-2.35849056603774</v>
+        <v>-1.88679245283018</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-2.11097708082027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -29582,11 +29812,14 @@
       </c>
       <c r="DL30" t="n">
         <v>1.51843817787418</v>
+      </c>
+      <c r="DM30" t="n">
+        <v>-0.815494393476027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -29703,10 +29936,11 @@
       <c r="DJ31"/>
       <c r="DK31"/>
       <c r="DL31"/>
+      <c r="DM31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -30051,12 +30285,15 @@
         <v>-3.17848410757946</v>
       </c>
       <c r="DL32" t="n">
-        <v>0.301204819277091</v>
+        <v>-2.40963855421688</v>
+      </c>
+      <c r="DM32" t="n">
+        <v>-5.21739130434782</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -30402,11 +30639,14 @@
       </c>
       <c r="DL33" t="n">
         <v>-1.39949109414758</v>
+      </c>
+      <c r="DM33" t="n">
+        <v>0.755667506297222</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -30752,11 +30992,14 @@
       </c>
       <c r="DL34" t="n">
         <v>1.42405063291138</v>
+      </c>
+      <c r="DM34" t="n">
+        <v>3.37423312883436</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -31101,12 +31344,15 @@
         <v>2.95698924731181</v>
       </c>
       <c r="DL35" t="n">
-        <v>-0.314465408805025</v>
+        <v>-0.628930817610061</v>
+      </c>
+      <c r="DM35" t="n">
+        <v>-3.05810397553517</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -31451,12 +31697,15 @@
         <v>4.93055555555555</v>
       </c>
       <c r="DL36" t="n">
-        <v>2.10743801652892</v>
+        <v>2.60330578512397</v>
+      </c>
+      <c r="DM36" t="n">
+        <v>1.90824198132358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -31801,12 +32050,15 @@
         <v>0.156985871271588</v>
       </c>
       <c r="DL37" t="n">
-        <v>0.490998363338796</v>
+        <v>-0.981996726677569</v>
+      </c>
+      <c r="DM37" t="n">
+        <v>2.68256333830106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -32151,12 +32403,15 @@
         <v>7.20488903184303</v>
       </c>
       <c r="DL38" t="n">
-        <v>7.06734534064212</v>
+        <v>7.1456538762725</v>
+      </c>
+      <c r="DM38" t="n">
+        <v>7.34653465346535</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -32502,11 +32757,14 @@
       </c>
       <c r="DL39" t="n">
         <v>0.292519849561215</v>
+      </c>
+      <c r="DM39" t="n">
+        <v>-0.554785020804426</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -32851,12 +33109,15 @@
         <v>5.2469135802469</v>
       </c>
       <c r="DL40" t="n">
-        <v>10.6870229007634</v>
+        <v>11.0687022900763</v>
+      </c>
+      <c r="DM40" t="n">
+        <v>6.83453237410073</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -33201,12 +33462,15 @@
         <v>-2.57062146892656</v>
       </c>
       <c r="DL41" t="n">
-        <v>-0.45194335643266</v>
+        <v>-0.572461584814696</v>
+      </c>
+      <c r="DM41" t="n">
+        <v>0.544299969761116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -33551,12 +33815,15 @@
         <v>-1.28012048192772</v>
       </c>
       <c r="DL42" t="n">
-        <v>-0.909090909090916</v>
+        <v>0.165289256198338</v>
+      </c>
+      <c r="DM42" t="n">
+        <v>0.0794281175536208</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -33901,12 +34168,15 @@
         <v>5.87755102040815</v>
       </c>
       <c r="DL43" t="n">
-        <v>-9.85533453887884</v>
+        <v>-2.98372513562387</v>
+      </c>
+      <c r="DM43" t="n">
+        <v>0.826446280991728</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -34251,12 +34521,15 @@
         <v>-1.50905432595573</v>
       </c>
       <c r="DL44" t="n">
-        <v>-2.75938189845475</v>
+        <v>-1.76600441501104</v>
+      </c>
+      <c r="DM44" t="n">
+        <v>-2.67631103074142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -34602,11 +34875,14 @@
       </c>
       <c r="DL45" t="n">
         <v>3.05676855895196</v>
+      </c>
+      <c r="DM45" t="n">
+        <v>9.1324200913242</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -34951,12 +35227,15 @@
         <v>3.50421804023362</v>
       </c>
       <c r="DL46" t="n">
-        <v>5.89459084604716</v>
+        <v>4.71567267683773</v>
+      </c>
+      <c r="DM46" t="n">
+        <v>4.42244224422442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -35301,12 +35580,15 @@
         <v>2.7863777089783</v>
       </c>
       <c r="DL47" t="n">
-        <v>1.08303249097472</v>
+        <v>1.80505415162454</v>
+      </c>
+      <c r="DM47" t="n">
+        <v>1.38888888888891</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -35651,12 +35933,15 @@
         <v>1.43160127253447</v>
       </c>
       <c r="DL48" t="n">
-        <v>4.09429280397024</v>
+        <v>4.40446650124071</v>
+      </c>
+      <c r="DM48" t="n">
+        <v>2.92463442069741</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -36001,12 +36286,15 @@
         <v>1.93887914320009</v>
       </c>
       <c r="DL49" t="n">
-        <v>0.301175556203236</v>
+        <v>0.689789177110649</v>
+      </c>
+      <c r="DM49" t="n">
+        <v>1.13844669561022</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -36352,11 +36640,14 @@
       </c>
       <c r="DL50" t="n">
         <v>1.89431704885345</v>
+      </c>
+      <c r="DM50" t="n">
+        <v>1.7873941674506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -36702,11 +36993,14 @@
       </c>
       <c r="DL51" t="n">
         <v>10.3448275862069</v>
+      </c>
+      <c r="DM51" t="n">
+        <v>2.4793388429752</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -37051,12 +37345,15 @@
         <v>0.408163265306138</v>
       </c>
       <c r="DL52" t="n">
-        <v>-0.229182582123746</v>
+        <v>-0.0763941940412485</v>
+      </c>
+      <c r="DM52" t="n">
+        <v>1.61521895190237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -37401,12 +37698,15 @@
         <v>3.63712374581941</v>
       </c>
       <c r="DL53" t="n">
-        <v>4.74922325787838</v>
+        <v>5.19307589880159</v>
+      </c>
+      <c r="DM53" t="n">
+        <v>3.98716773602199</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -37752,11 +38052,14 @@
       </c>
       <c r="DL54" t="n">
         <v>-0.799999999999997</v>
+      </c>
+      <c r="DM54" t="n">
+        <v>0.189035916824199</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -38101,12 +38404,15 @@
         <v>1.74767886400875</v>
       </c>
       <c r="DL55" t="n">
-        <v>-0.772430184194897</v>
+        <v>0.65359477124181</v>
+      </c>
+      <c r="DM55" t="n">
+        <v>2.71270036991371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -38452,6 +38758,9 @@
       </c>
       <c r="DL56" t="n">
         <v>0.413223140495874</v>
+      </c>
+      <c r="DM56" t="n">
+        <v>-0.404858299595162</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t xml:space="preserve">08/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1275,10 +1278,13 @@
       <c r="DY4" t="s">
         <v>128</v>
       </c>
+      <c r="DZ4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1659,15 +1665,18 @@
         <v>9977.4</v>
       </c>
       <c r="DX5" t="n">
-        <v>8986.4</v>
+        <v>8988.5</v>
       </c>
       <c r="DY5" t="n">
-        <v>9266.1</v>
+        <v>9363</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>10427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2051,12 +2060,15 @@
         <v>157.7</v>
       </c>
       <c r="DY6" t="n">
-        <v>161.4</v>
+        <v>161.2</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>167.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2440,12 +2452,15 @@
         <v>16.6</v>
       </c>
       <c r="DY7" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2829,12 +2844,15 @@
         <v>148.1</v>
       </c>
       <c r="DY8" t="n">
-        <v>186.3</v>
+        <v>181.1</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>195.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3219,11 +3237,14 @@
       </c>
       <c r="DY9" t="n">
         <v>87.6</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>101.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3607,12 +3628,15 @@
         <v>1051.5</v>
       </c>
       <c r="DY10" t="n">
-        <v>1087.4</v>
+        <v>1107.4</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>1174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -3996,12 +4020,15 @@
         <v>181.7</v>
       </c>
       <c r="DY11" t="n">
-        <v>188.1</v>
+        <v>194.2</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>210.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4385,12 +4412,15 @@
         <v>96.6</v>
       </c>
       <c r="DY12" t="n">
-        <v>93.7</v>
+        <v>96.7</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>121.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4775,11 +4805,14 @@
       </c>
       <c r="DY13" t="n">
         <v>31.8</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4909,10 +4942,11 @@
       <c r="DW14"/>
       <c r="DX14"/>
       <c r="DY14"/>
+      <c r="DZ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5296,12 +5330,15 @@
         <v>391</v>
       </c>
       <c r="DY15" t="n">
-        <v>459.7</v>
+        <v>460.3</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>483.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5685,12 +5722,15 @@
         <v>320</v>
       </c>
       <c r="DY16" t="n">
-        <v>343</v>
+        <v>341.8</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>348.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5820,10 +5860,11 @@
       <c r="DW17"/>
       <c r="DX17"/>
       <c r="DY17"/>
+      <c r="DZ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6207,12 +6248,15 @@
         <v>54.4</v>
       </c>
       <c r="DY18" t="n">
-        <v>53.6</v>
+        <v>55.1</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>62.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6596,12 +6640,15 @@
         <v>378.9</v>
       </c>
       <c r="DY19" t="n">
-        <v>385.4</v>
+        <v>383.5</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>444.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -6985,12 +7032,15 @@
         <v>173.8</v>
       </c>
       <c r="DY20" t="n">
-        <v>207.1</v>
+        <v>208.6</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>231.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7374,12 +7424,15 @@
         <v>114.4</v>
       </c>
       <c r="DY21" t="n">
-        <v>117.4</v>
+        <v>119.4</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>142.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7763,12 +7816,15 @@
         <v>101.7</v>
       </c>
       <c r="DY22" t="n">
-        <v>110.2</v>
+        <v>111.1</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>131.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8152,12 +8208,15 @@
         <v>122.8</v>
       </c>
       <c r="DY23" t="n">
-        <v>147.7</v>
+        <v>149.3</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>165.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8542,11 +8601,14 @@
       </c>
       <c r="DY24" t="n">
         <v>135.9</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8930,12 +8992,15 @@
         <v>39.8</v>
       </c>
       <c r="DY25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9320,11 +9385,14 @@
       </c>
       <c r="DY26" t="n">
         <v>188.6</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>213.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9708,12 +9776,15 @@
         <v>195.4</v>
       </c>
       <c r="DY27" t="n">
-        <v>193</v>
+        <v>191.7</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>219.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10097,12 +10168,15 @@
         <v>243.5</v>
       </c>
       <c r="DY28" t="n">
-        <v>250.1</v>
+        <v>250.3</v>
+      </c>
+      <c r="DZ28" t="n">
+        <v>296.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10487,11 +10561,14 @@
       </c>
       <c r="DY29" t="n">
         <v>162.3</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10875,12 +10952,15 @@
         <v>93.6</v>
       </c>
       <c r="DY30" t="n">
-        <v>97.3</v>
+        <v>99.2</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>103.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11010,10 +11090,11 @@
       <c r="DW31"/>
       <c r="DX31"/>
       <c r="DY31"/>
+      <c r="DZ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11397,12 +11478,15 @@
         <v>32.4</v>
       </c>
       <c r="DY32" t="n">
-        <v>32.7</v>
+        <v>31.8</v>
+      </c>
+      <c r="DZ32" t="n">
+        <v>39.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11786,12 +11870,15 @@
         <v>77.5</v>
       </c>
       <c r="DY33" t="n">
-        <v>80</v>
+        <v>80.3</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12175,12 +12262,15 @@
         <v>64.1</v>
       </c>
       <c r="DY34" t="n">
-        <v>67.4</v>
+        <v>67.2</v>
+      </c>
+      <c r="DZ34" t="n">
+        <v>75.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12564,12 +12654,15 @@
         <v>31.6</v>
       </c>
       <c r="DY35" t="n">
-        <v>31.7</v>
+        <v>32.2</v>
+      </c>
+      <c r="DZ35" t="n">
+        <v>44.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -12953,12 +13046,15 @@
         <v>248.3</v>
       </c>
       <c r="DY36" t="n">
-        <v>251</v>
+        <v>251.1</v>
+      </c>
+      <c r="DZ36" t="n">
+        <v>297.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13342,12 +13438,15 @@
         <v>60.5</v>
       </c>
       <c r="DY37" t="n">
-        <v>68.9</v>
+        <v>69.3</v>
+      </c>
+      <c r="DZ37" t="n">
+        <v>75.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13731,12 +13830,15 @@
         <v>547.3</v>
       </c>
       <c r="DY38" t="n">
-        <v>542.1</v>
+        <v>544.1</v>
+      </c>
+      <c r="DZ38" t="n">
+        <v>646.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14121,11 +14223,14 @@
       </c>
       <c r="DY39" t="n">
         <v>286.8</v>
+      </c>
+      <c r="DZ39" t="n">
+        <v>317.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14509,12 +14614,15 @@
         <v>29.1</v>
       </c>
       <c r="DY40" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
+      </c>
+      <c r="DZ40" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -14898,12 +15006,15 @@
         <v>330</v>
       </c>
       <c r="DY41" t="n">
-        <v>332.5</v>
+        <v>333.9</v>
+      </c>
+      <c r="DZ41" t="n">
+        <v>369.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15287,12 +15398,15 @@
         <v>121.2</v>
       </c>
       <c r="DY42" t="n">
-        <v>126</v>
+        <v>124.7</v>
+      </c>
+      <c r="DZ42" t="n">
+        <v>140.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15677,11 +15791,14 @@
       </c>
       <c r="DY43" t="n">
         <v>109.8</v>
+      </c>
+      <c r="DZ43" t="n">
+        <v>122.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -16065,12 +16182,15 @@
         <v>267</v>
       </c>
       <c r="DY44" t="n">
-        <v>269.1</v>
+        <v>270.9</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>319.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -16455,11 +16575,14 @@
       </c>
       <c r="DY45" t="n">
         <v>23.9</v>
+      </c>
+      <c r="DZ45" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16843,12 +16966,15 @@
         <v>151</v>
       </c>
       <c r="DY46" t="n">
-        <v>158.2</v>
+        <v>153.1</v>
+      </c>
+      <c r="DZ46" t="n">
+        <v>165.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -17232,12 +17358,15 @@
         <v>28.2</v>
       </c>
       <c r="DY47" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
+      </c>
+      <c r="DZ47" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17622,11 +17751,14 @@
       </c>
       <c r="DY48" t="n">
         <v>183</v>
+      </c>
+      <c r="DZ48" t="n">
+        <v>206.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -18010,12 +18142,15 @@
         <v>1036.4</v>
       </c>
       <c r="DY49" t="n">
-        <v>1048.3</v>
+        <v>1051.7</v>
+      </c>
+      <c r="DZ49" t="n">
+        <v>1116.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -18400,11 +18535,14 @@
       </c>
       <c r="DY50" t="n">
         <v>108.2</v>
+      </c>
+      <c r="DZ50" t="n">
+        <v>121.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18788,12 +18926,15 @@
         <v>25.6</v>
       </c>
       <c r="DY51" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
+      </c>
+      <c r="DZ51" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -19177,12 +19318,15 @@
         <v>261.6</v>
       </c>
       <c r="DY52" t="n">
-        <v>283.1</v>
+        <v>283.4</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>315.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -19566,12 +19710,15 @@
         <v>237</v>
       </c>
       <c r="DY53" t="n">
-        <v>226.9</v>
+        <v>231.7</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -19955,12 +20102,15 @@
         <v>49.6</v>
       </c>
       <c r="DY54" t="n">
-        <v>53</v>
+        <v>52.9</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>57.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -20344,12 +20494,15 @@
         <v>169.4</v>
       </c>
       <c r="DY55" t="n">
-        <v>166.6</v>
+        <v>166.5</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>202.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -20733,7 +20886,10 @@
         <v>24.3</v>
       </c>
       <c r="DY56" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
+      </c>
+      <c r="DZ56" t="n">
+        <v>28.9</v>
       </c>
     </row>
   </sheetData>
@@ -21102,10 +21258,13 @@
       <c r="DM4" t="s">
         <v>128</v>
       </c>
+      <c r="DN4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -21450,15 +21609,18 @@
         <v>1.41901644676658</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.40031368832019</v>
+        <v>1.42400956862215</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.359583662771165</v>
+        <v>1.40909140140149</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>1.27037159340338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -21806,12 +21968,15 @@
         <v>1.28452151573539</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.57331655129012</v>
+        <v>1.4474512271869</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>1.64133738601823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -22159,12 +22324,15 @@
         <v>-17.4129353233831</v>
       </c>
       <c r="DM7" t="n">
-        <v>-8.07174887892375</v>
+        <v>-10.762331838565</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-6.76691729323309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -22512,12 +22680,15 @@
         <v>1.36892539356605</v>
       </c>
       <c r="DM8" t="n">
-        <v>4.66292134831461</v>
+        <v>1.74157303370788</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>1.29466597617816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -22866,11 +23037,14 @@
       </c>
       <c r="DM9" t="n">
         <v>2.21703617269544</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>2.2199798183653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -23218,12 +23392,15 @@
         <v>4.3776057176891</v>
       </c>
       <c r="DM10" t="n">
-        <v>2.4110001883594</v>
+        <v>4.29459408551518</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>2.59547321506598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -23571,12 +23748,15 @@
         <v>-2.57372654155497</v>
       </c>
       <c r="DM11" t="n">
-        <v>-1.82672233820459</v>
+        <v>1.35699373695198</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.76701821668263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -23924,12 +24104,15 @@
         <v>-0.103412616339173</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0.846560846560844</v>
+        <v>2.32804232804233</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>1.93277310924371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -24278,11 +24461,14 @@
       </c>
       <c r="DM13" t="n">
         <v>-0.0000000000000111720555937123</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0.86705202312142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -24400,10 +24586,11 @@
       <c r="DK14"/>
       <c r="DL14"/>
       <c r="DM14"/>
+      <c r="DN14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -24751,12 +24938,15 @@
         <v>0.851173587825641</v>
       </c>
       <c r="DM15" t="n">
-        <v>1.47902869757175</v>
+        <v>1.61147902869757</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>1.06538541884269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -25104,12 +25294,15 @@
         <v>4.43864229765014</v>
       </c>
       <c r="DM16" t="n">
-        <v>3.75075620084694</v>
+        <v>3.38777979431337</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>3.72467222884386</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -25227,10 +25420,11 @@
       <c r="DK17"/>
       <c r="DL17"/>
       <c r="DM17"/>
+      <c r="DN17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -25578,12 +25772,15 @@
         <v>10.1214574898785</v>
       </c>
       <c r="DM18" t="n">
-        <v>8.50202429149797</v>
+        <v>11.5384615384615</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>6.27118644067797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -25931,12 +26128,15 @@
         <v>5.77889447236181</v>
       </c>
       <c r="DM19" t="n">
-        <v>5.7628979143798</v>
+        <v>5.24149286498352</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>5.15854235683861</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -26284,12 +26484,15 @@
         <v>3.45238095238096</v>
       </c>
       <c r="DM20" t="n">
-        <v>0.925925925925929</v>
+        <v>1.65692007797273</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0.957771005659563</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -26637,12 +26840,15 @@
         <v>1.41843971631206</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.686106346483715</v>
+        <v>2.40137221269298</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>2.52343186733958</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -26990,12 +27196,15 @@
         <v>0.295857988165692</v>
       </c>
       <c r="DM22" t="n">
-        <v>-0.361663652802886</v>
+        <v>0.45207956600363</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0.843558282208585</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -27343,12 +27552,15 @@
         <v>-0.727566693613586</v>
       </c>
       <c r="DM23" t="n">
-        <v>1.65175498967652</v>
+        <v>2.75292498279422</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>7.12896953985742</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -27697,11 +27909,14 @@
       </c>
       <c r="DM24" t="n">
         <v>0.741289844329112</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0.769769069279212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -28049,12 +28264,15 @@
         <v>3.37662337662337</v>
       </c>
       <c r="DM25" t="n">
-        <v>2.38726790450928</v>
+        <v>2.6525198938992</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -28403,11 +28621,14 @@
       </c>
       <c r="DM26" t="n">
         <v>1.61637931034481</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>4.86486486486487</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -28755,12 +28976,15 @@
         <v>-1.9568489713999</v>
       </c>
       <c r="DM27" t="n">
-        <v>-2.03045685279188</v>
+        <v>-2.69035532994923</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>-1.34710372698699</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -29108,12 +29332,15 @@
         <v>2.13926174496644</v>
       </c>
       <c r="DM28" t="n">
-        <v>0.846774193548385</v>
+        <v>0.927419354838714</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>1.09066121336062</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -29462,11 +29689,14 @@
       </c>
       <c r="DM29" t="n">
         <v>-2.11097708082027</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>-0.158478605388279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -29814,12 +30044,15 @@
         <v>1.51843817787418</v>
       </c>
       <c r="DM30" t="n">
-        <v>-0.815494393476027</v>
+        <v>1.12130479102956</v>
+      </c>
+      <c r="DN30" t="n">
+        <v>-0.289017341040473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -29937,10 +30170,11 @@
       <c r="DK31"/>
       <c r="DL31"/>
       <c r="DM31"/>
+      <c r="DN31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -30288,12 +30522,15 @@
         <v>-2.40963855421688</v>
       </c>
       <c r="DM32" t="n">
-        <v>-5.21739130434782</v>
+        <v>-7.82608695652174</v>
+      </c>
+      <c r="DN32" t="n">
+        <v>-4.54545454545453</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -30641,12 +30878,15 @@
         <v>-1.39949109414758</v>
       </c>
       <c r="DM33" t="n">
-        <v>0.755667506297222</v>
+        <v>1.13350125944583</v>
+      </c>
+      <c r="DN33" t="n">
+        <v>1.77580466148725</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -30994,12 +31234,15 @@
         <v>1.42405063291138</v>
       </c>
       <c r="DM34" t="n">
-        <v>3.37423312883436</v>
+        <v>3.06748466257666</v>
+      </c>
+      <c r="DN34" t="n">
+        <v>-1.55642023346302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -31347,12 +31590,15 @@
         <v>-0.628930817610061</v>
       </c>
       <c r="DM35" t="n">
-        <v>-3.05810397553517</v>
+        <v>-1.52905198776758</v>
+      </c>
+      <c r="DN35" t="n">
+        <v>2.27790432801821</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -31700,12 +31946,15 @@
         <v>2.60330578512397</v>
       </c>
       <c r="DM36" t="n">
-        <v>1.90824198132358</v>
+        <v>1.94884287454324</v>
+      </c>
+      <c r="DN36" t="n">
+        <v>3.01664355062415</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -32053,12 +32302,15 @@
         <v>-0.981996726677569</v>
       </c>
       <c r="DM37" t="n">
-        <v>2.68256333830106</v>
+        <v>3.27868852459017</v>
+      </c>
+      <c r="DN37" t="n">
+        <v>4.13223140495868</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -32406,12 +32658,15 @@
         <v>7.1456538762725</v>
       </c>
       <c r="DM38" t="n">
-        <v>7.34653465346535</v>
+        <v>7.74257425742575</v>
+      </c>
+      <c r="DN38" t="n">
+        <v>3.47311139564661</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -32760,11 +33015,14 @@
       </c>
       <c r="DM39" t="n">
         <v>-0.554785020804426</v>
+      </c>
+      <c r="DN39" t="n">
+        <v>0.189334174818562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -33112,12 +33370,15 @@
         <v>11.0687022900763</v>
       </c>
       <c r="DM40" t="n">
-        <v>6.83453237410073</v>
+        <v>7.19424460431653</v>
+      </c>
+      <c r="DN40" t="n">
+        <v>3.32409972299168</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -33465,12 +33726,15 @@
         <v>-0.572461584814696</v>
       </c>
       <c r="DM41" t="n">
-        <v>0.544299969761116</v>
+        <v>0.967644390686419</v>
+      </c>
+      <c r="DN41" t="n">
+        <v>1.84471365638766</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -33818,12 +34082,15 @@
         <v>0.165289256198338</v>
       </c>
       <c r="DM42" t="n">
-        <v>0.0794281175536208</v>
+        <v>-0.95313741064337</v>
+      </c>
+      <c r="DN42" t="n">
+        <v>-1.81564245810055</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -34172,11 +34439,14 @@
       </c>
       <c r="DM43" t="n">
         <v>0.826446280991728</v>
+      </c>
+      <c r="DN43" t="n">
+        <v>2.09030100334448</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -34524,12 +34794,15 @@
         <v>-1.76600441501104</v>
       </c>
       <c r="DM44" t="n">
-        <v>-2.67631103074142</v>
+        <v>-2.02531645569621</v>
+      </c>
+      <c r="DN44" t="n">
+        <v>0.440251572327037</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -34878,11 +35151,14 @@
       </c>
       <c r="DM45" t="n">
         <v>9.1324200913242</v>
+      </c>
+      <c r="DN45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -35230,12 +35506,15 @@
         <v>4.71567267683773</v>
       </c>
       <c r="DM46" t="n">
-        <v>4.42244224422442</v>
+        <v>1.05610561056105</v>
+      </c>
+      <c r="DN46" t="n">
+        <v>2.79503105590062</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -35583,12 +35862,15 @@
         <v>1.80505415162454</v>
       </c>
       <c r="DM47" t="n">
-        <v>1.38888888888891</v>
+        <v>1.73611111111111</v>
+      </c>
+      <c r="DN47" t="n">
+        <v>3.08123249299718</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -35937,11 +36219,14 @@
       </c>
       <c r="DM48" t="n">
         <v>2.92463442069741</v>
+      </c>
+      <c r="DN48" t="n">
+        <v>1.92878338278933</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -36289,12 +36574,15 @@
         <v>0.689789177110649</v>
       </c>
       <c r="DM49" t="n">
-        <v>1.13844669561022</v>
+        <v>1.46647370959962</v>
+      </c>
+      <c r="DN49" t="n">
+        <v>0.549450549450541</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -36643,11 +36931,14 @@
       </c>
       <c r="DM50" t="n">
         <v>1.7873941674506</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>1.67224080267559</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -36995,12 +37286,15 @@
         <v>10.3448275862069</v>
       </c>
       <c r="DM51" t="n">
-        <v>2.4793388429752</v>
+        <v>0.826446280991733</v>
+      </c>
+      <c r="DN51" t="n">
+        <v>5.46075085324234</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -37348,12 +37642,15 @@
         <v>-0.0763941940412485</v>
       </c>
       <c r="DM52" t="n">
-        <v>1.61521895190237</v>
+        <v>1.72290021536251</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>3.75123395853899</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -37701,12 +37998,15 @@
         <v>5.19307589880159</v>
       </c>
       <c r="DM53" t="n">
-        <v>3.98716773602199</v>
+        <v>6.18698441796518</v>
+      </c>
+      <c r="DN53" t="n">
+        <v>2.3993144815767</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -38054,12 +38354,15 @@
         <v>-0.799999999999997</v>
       </c>
       <c r="DM54" t="n">
-        <v>0.189035916824199</v>
+        <v>0.0000000000000134318097497183</v>
+      </c>
+      <c r="DN54" t="n">
+        <v>-1.71526586620926</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -38407,12 +38710,15 @@
         <v>0.65359477124181</v>
       </c>
       <c r="DM55" t="n">
-        <v>2.71270036991371</v>
+        <v>2.65104808877929</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>2.27387569479537</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -38760,7 +39066,10 @@
         <v>0.413223140495874</v>
       </c>
       <c r="DM56" t="n">
-        <v>-0.404858299595162</v>
+        <v>-0.0000000000000143834561894757</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>0.696864111498255</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t xml:space="preserve">09/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1281,10 +1284,13 @@
       <c r="DZ4" t="s">
         <v>129</v>
       </c>
+      <c r="EA4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1668,15 +1674,18 @@
         <v>8988.5</v>
       </c>
       <c r="DY5" t="n">
-        <v>9363</v>
+        <v>9367.3</v>
       </c>
       <c r="DZ5" t="n">
-        <v>10427</v>
+        <v>10451.6</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>10779.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2063,12 +2072,15 @@
         <v>161.2</v>
       </c>
       <c r="DZ6" t="n">
-        <v>167.2</v>
+        <v>167.4</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>170.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2455,12 +2467,15 @@
         <v>19.9</v>
       </c>
       <c r="DZ7" t="n">
-        <v>24.8</v>
+        <v>28.2</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2847,12 +2862,15 @@
         <v>181.1</v>
       </c>
       <c r="DZ8" t="n">
-        <v>195.6</v>
+        <v>195.3</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3240,11 +3258,14 @@
       </c>
       <c r="DZ9" t="n">
         <v>101.3</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>103.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3631,12 +3652,15 @@
         <v>1107.4</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1174</v>
+        <v>1172.9</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1210.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4023,12 +4047,15 @@
         <v>194.2</v>
       </c>
       <c r="DZ11" t="n">
-        <v>210.2</v>
+        <v>210.6</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>216.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4416,11 +4443,14 @@
       </c>
       <c r="DZ12" t="n">
         <v>121.3</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>124.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4807,12 +4837,15 @@
         <v>31.8</v>
       </c>
       <c r="DZ13" t="n">
-        <v>34.9</v>
+        <v>36.3</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4943,10 +4976,11 @@
       <c r="DX14"/>
       <c r="DY14"/>
       <c r="DZ14"/>
+      <c r="EA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5334,11 +5368,14 @@
       </c>
       <c r="DZ15" t="n">
         <v>483.8</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>489.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5725,12 +5762,15 @@
         <v>341.8</v>
       </c>
       <c r="DZ16" t="n">
-        <v>348.1</v>
+        <v>348</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5861,10 +5901,11 @@
       <c r="DX17"/>
       <c r="DY17"/>
       <c r="DZ17"/>
+      <c r="EA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6251,12 +6292,15 @@
         <v>55.1</v>
       </c>
       <c r="DZ18" t="n">
-        <v>62.7</v>
+        <v>62.8</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>65.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6643,12 +6687,15 @@
         <v>383.5</v>
       </c>
       <c r="DZ19" t="n">
-        <v>444.4</v>
+        <v>443</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>446.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7035,12 +7082,15 @@
         <v>208.6</v>
       </c>
       <c r="DZ20" t="n">
-        <v>231.9</v>
+        <v>232.4</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>234.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7427,12 +7477,15 @@
         <v>119.4</v>
       </c>
       <c r="DZ21" t="n">
-        <v>142.2</v>
+        <v>141.5</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>146.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7819,12 +7872,15 @@
         <v>111.1</v>
       </c>
       <c r="DZ22" t="n">
-        <v>131.5</v>
+        <v>131.3</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>135.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8211,12 +8267,15 @@
         <v>149.3</v>
       </c>
       <c r="DZ23" t="n">
-        <v>165.3</v>
+        <v>161.9</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>163.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8603,12 +8662,15 @@
         <v>135.9</v>
       </c>
       <c r="DZ24" t="n">
-        <v>144</v>
+        <v>144.2</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>145.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -8995,12 +9057,15 @@
         <v>38.7</v>
       </c>
       <c r="DZ25" t="n">
-        <v>49</v>
+        <v>48.8</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>50.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9388,11 +9453,14 @@
       </c>
       <c r="DZ26" t="n">
         <v>213.4</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>217.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9779,12 +9847,15 @@
         <v>191.7</v>
       </c>
       <c r="DZ27" t="n">
-        <v>219.7</v>
+        <v>231</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>241.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10171,12 +10242,15 @@
         <v>250.3</v>
       </c>
       <c r="DZ28" t="n">
-        <v>296.6</v>
+        <v>297.5</v>
+      </c>
+      <c r="EA28" t="n">
+        <v>311.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10563,12 +10637,15 @@
         <v>162.3</v>
       </c>
       <c r="DZ29" t="n">
-        <v>189</v>
+        <v>189.1</v>
+      </c>
+      <c r="EA29" t="n">
+        <v>200.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -10955,12 +11032,15 @@
         <v>99.2</v>
       </c>
       <c r="DZ30" t="n">
-        <v>103.5</v>
+        <v>103.9</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>104.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11091,10 +11171,11 @@
       <c r="DX31"/>
       <c r="DY31"/>
       <c r="DZ31"/>
+      <c r="EA31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11481,12 +11562,15 @@
         <v>31.8</v>
       </c>
       <c r="DZ32" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
+      </c>
+      <c r="EA32" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11873,12 +11957,15 @@
         <v>80.3</v>
       </c>
       <c r="DZ33" t="n">
-        <v>91.7</v>
+        <v>91.6</v>
+      </c>
+      <c r="EA33" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12265,12 +12352,15 @@
         <v>67.2</v>
       </c>
       <c r="DZ34" t="n">
-        <v>75.9</v>
+        <v>75.8</v>
+      </c>
+      <c r="EA34" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12657,12 +12747,15 @@
         <v>32.2</v>
       </c>
       <c r="DZ35" t="n">
-        <v>44.9</v>
+        <v>44.1</v>
+      </c>
+      <c r="EA35" t="n">
+        <v>46.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13049,12 +13142,15 @@
         <v>251.1</v>
       </c>
       <c r="DZ36" t="n">
-        <v>297.1</v>
+        <v>297.6</v>
+      </c>
+      <c r="EA36" t="n">
+        <v>313.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13441,12 +13537,15 @@
         <v>69.3</v>
       </c>
       <c r="DZ37" t="n">
-        <v>75.6</v>
+        <v>75.7</v>
+      </c>
+      <c r="EA37" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13833,12 +13932,15 @@
         <v>544.1</v>
       </c>
       <c r="DZ38" t="n">
-        <v>646.5</v>
+        <v>646.1</v>
+      </c>
+      <c r="EA38" t="n">
+        <v>687.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14226,11 +14328,14 @@
       </c>
       <c r="DZ39" t="n">
         <v>317.5</v>
+      </c>
+      <c r="EA39" t="n">
+        <v>327.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14617,12 +14722,15 @@
         <v>29.8</v>
       </c>
       <c r="DZ40" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
+      </c>
+      <c r="EA40" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15009,12 +15117,15 @@
         <v>333.9</v>
       </c>
       <c r="DZ41" t="n">
-        <v>369.9</v>
+        <v>368</v>
+      </c>
+      <c r="EA41" t="n">
+        <v>387.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15401,12 +15512,15 @@
         <v>124.7</v>
       </c>
       <c r="DZ42" t="n">
-        <v>140.6</v>
+        <v>141.2</v>
+      </c>
+      <c r="EA42" t="n">
+        <v>144.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15793,12 +15907,15 @@
         <v>109.8</v>
       </c>
       <c r="DZ43" t="n">
-        <v>122.1</v>
+        <v>123.7</v>
+      </c>
+      <c r="EA43" t="n">
+        <v>135.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -16185,12 +16302,15 @@
         <v>270.9</v>
       </c>
       <c r="DZ44" t="n">
-        <v>319.4</v>
+        <v>318.3</v>
+      </c>
+      <c r="EA44" t="n">
+        <v>326.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -16578,11 +16698,14 @@
       </c>
       <c r="DZ45" t="n">
         <v>28</v>
+      </c>
+      <c r="EA45" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -16969,12 +17092,15 @@
         <v>153.1</v>
       </c>
       <c r="DZ46" t="n">
-        <v>165.5</v>
+        <v>165.4</v>
+      </c>
+      <c r="EA46" t="n">
+        <v>169.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -17361,12 +17487,15 @@
         <v>29.3</v>
       </c>
       <c r="DZ47" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
+      </c>
+      <c r="EA47" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17753,12 +17882,15 @@
         <v>183</v>
       </c>
       <c r="DZ48" t="n">
-        <v>206.1</v>
+        <v>205.9</v>
+      </c>
+      <c r="EA48" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -18145,12 +18277,15 @@
         <v>1051.7</v>
       </c>
       <c r="DZ49" t="n">
-        <v>1116.3</v>
+        <v>1116.9</v>
+      </c>
+      <c r="EA49" t="n">
+        <v>1153.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -18538,11 +18673,14 @@
       </c>
       <c r="DZ50" t="n">
         <v>121.6</v>
+      </c>
+      <c r="EA50" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -18929,12 +19067,15 @@
         <v>24.4</v>
       </c>
       <c r="DZ51" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
+      </c>
+      <c r="EA51" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -19321,12 +19462,15 @@
         <v>283.4</v>
       </c>
       <c r="DZ52" t="n">
-        <v>315.3</v>
+        <v>315.5</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>319.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -19713,12 +19857,15 @@
         <v>231.7</v>
       </c>
       <c r="DZ53" t="n">
-        <v>239</v>
+        <v>242.8</v>
+      </c>
+      <c r="EA53" t="n">
+        <v>260.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -20105,12 +20252,15 @@
         <v>52.9</v>
       </c>
       <c r="DZ54" t="n">
-        <v>57.3</v>
+        <v>56.9</v>
+      </c>
+      <c r="EA54" t="n">
+        <v>58.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -20497,12 +20647,15 @@
         <v>166.5</v>
       </c>
       <c r="DZ55" t="n">
-        <v>202.4</v>
+        <v>202.9</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>212.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -20889,7 +21042,10 @@
         <v>24.7</v>
       </c>
       <c r="DZ56" t="n">
-        <v>28.9</v>
+        <v>29</v>
+      </c>
+      <c r="EA56" t="n">
+        <v>30.2</v>
       </c>
     </row>
   </sheetData>
@@ -21261,10 +21417,13 @@
       <c r="DN4" t="s">
         <v>129</v>
       </c>
+      <c r="DO4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -21612,15 +21771,18 @@
         <v>1.42400956862215</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.40909140140149</v>
+        <v>1.45566398423028</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.27037159340338</v>
+        <v>1.50929469124531</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>1.56211724358855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -21971,12 +22133,15 @@
         <v>1.4474512271869</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.64133738601823</v>
+        <v>1.7629179331307</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>1.67164179104478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -22327,12 +22492,15 @@
         <v>-10.762331838565</v>
       </c>
       <c r="DN7" t="n">
-        <v>-6.76691729323309</v>
+        <v>6.01503759398498</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>5.79710144927535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -22683,12 +22851,15 @@
         <v>1.74157303370788</v>
       </c>
       <c r="DN8" t="n">
-        <v>1.29466597617816</v>
+        <v>1.13930605903678</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>1.59055926115957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -23040,11 +23211,14 @@
       </c>
       <c r="DN9" t="n">
         <v>2.2199798183653</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.781249999999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -23395,12 +23569,15 @@
         <v>4.29459408551518</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.59547321506598</v>
+        <v>2.49934457747095</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>1.0015858442534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -23751,12 +23928,15 @@
         <v>1.35699373695198</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.76701821668263</v>
+        <v>0.958772770853294</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>1.88058298072404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -24108,11 +24288,14 @@
       </c>
       <c r="DN12" t="n">
         <v>1.93277310924371</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>1.5459723352319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -24463,12 +24646,15 @@
         <v>-0.0000000000000111720555937123</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.86705202312142</v>
+        <v>4.91329479768787</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>4.18994413407821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -24587,10 +24773,11 @@
       <c r="DL14"/>
       <c r="DM14"/>
       <c r="DN14"/>
+      <c r="DO14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -24942,11 +25129,14 @@
       </c>
       <c r="DN15" t="n">
         <v>1.06538541884269</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>1.19834710743802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -25297,12 +25487,15 @@
         <v>3.38777979431337</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.72467222884386</v>
+        <v>3.6948748510131</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>3.66213821618428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -25421,10 +25614,11 @@
       <c r="DL17"/>
       <c r="DM17"/>
       <c r="DN17"/>
+      <c r="DO17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -25775,12 +25969,15 @@
         <v>11.5384615384615</v>
       </c>
       <c r="DN18" t="n">
-        <v>6.27118644067797</v>
+        <v>6.4406779661017</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>5.28846153846155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -26131,12 +26328,15 @@
         <v>5.24149286498352</v>
       </c>
       <c r="DN19" t="n">
-        <v>5.15854235683861</v>
+        <v>4.8272598201609</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>2.90255701451278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -26487,12 +26687,15 @@
         <v>1.65692007797273</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.957771005659563</v>
+        <v>1.17544623421855</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0.816852966466026</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -26843,12 +27046,15 @@
         <v>2.40137221269298</v>
       </c>
       <c r="DN21" t="n">
-        <v>2.52343186733958</v>
+        <v>2.01874549387167</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>1.87630298818625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -27199,12 +27405,15 @@
         <v>0.45207956600363</v>
       </c>
       <c r="DN22" t="n">
-        <v>0.843558282208585</v>
+        <v>0.690184049079759</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>1.4179104477612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -27555,12 +27764,15 @@
         <v>2.75292498279422</v>
       </c>
       <c r="DN23" t="n">
-        <v>7.12896953985742</v>
+        <v>4.92546986390147</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>4.5338441890166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -27911,12 +28123,15 @@
         <v>0.741289844329112</v>
       </c>
       <c r="DN24" t="n">
-        <v>0.769769069279212</v>
+        <v>0.909727081875425</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>0.413793103448292</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -28267,12 +28482,15 @@
         <v>2.6525198938992</v>
       </c>
       <c r="DN25" t="n">
-        <v>2.08333333333333</v>
+        <v>1.66666666666666</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>1.62271805273833</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -28624,11 +28842,14 @@
       </c>
       <c r="DN26" t="n">
         <v>4.86486486486487</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>1.8232819074334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -28979,12 +29200,15 @@
         <v>-2.69035532994923</v>
       </c>
       <c r="DN27" t="n">
-        <v>-1.34710372698699</v>
+        <v>3.7269869779973</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>6.14574187884109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -29335,12 +29559,15 @@
         <v>0.927419354838714</v>
       </c>
       <c r="DN28" t="n">
-        <v>1.09066121336062</v>
+        <v>1.39740967961828</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>2.80435499835038</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -29691,12 +29918,15 @@
         <v>-2.11097708082027</v>
       </c>
       <c r="DN29" t="n">
-        <v>-0.158478605388279</v>
+        <v>-0.105652403592176</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>0.500250125062517</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -30047,12 +30277,15 @@
         <v>1.12130479102956</v>
       </c>
       <c r="DN30" t="n">
-        <v>-0.289017341040473</v>
+        <v>0.0963391136801486</v>
+      </c>
+      <c r="DO30" t="n">
+        <v>0.0957854406130214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -30171,10 +30404,11 @@
       <c r="DL31"/>
       <c r="DM31"/>
       <c r="DN31"/>
+      <c r="DO31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -30525,12 +30759,15 @@
         <v>-7.82608695652174</v>
       </c>
       <c r="DN32" t="n">
-        <v>-4.54545454545453</v>
+        <v>-2.39234449760766</v>
+      </c>
+      <c r="DO32" t="n">
+        <v>-3.86363636363637</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -30881,12 +31118,15 @@
         <v>1.13350125944583</v>
       </c>
       <c r="DN33" t="n">
-        <v>1.77580466148725</v>
+        <v>1.66481687014428</v>
+      </c>
+      <c r="DO33" t="n">
+        <v>2.24839400428265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -31237,12 +31477,15 @@
         <v>3.06748466257666</v>
       </c>
       <c r="DN34" t="n">
-        <v>-1.55642023346302</v>
+        <v>-1.68612191958495</v>
+      </c>
+      <c r="DO34" t="n">
+        <v>-1.03092783505152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -31593,12 +31836,15 @@
         <v>-1.52905198776758</v>
       </c>
       <c r="DN35" t="n">
-        <v>2.27790432801821</v>
+        <v>0.455580865603635</v>
+      </c>
+      <c r="DO35" t="n">
+        <v>1.76600441501103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -31949,12 +32195,15 @@
         <v>1.94884287454324</v>
       </c>
       <c r="DN36" t="n">
-        <v>3.01664355062415</v>
+        <v>3.19001386962554</v>
+      </c>
+      <c r="DO36" t="n">
+        <v>2.88998357963874</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -32305,12 +32554,15 @@
         <v>3.27868852459017</v>
       </c>
       <c r="DN37" t="n">
-        <v>4.13223140495868</v>
+        <v>4.26997245179065</v>
+      </c>
+      <c r="DO37" t="n">
+        <v>2.67737617135209</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -32661,12 +32913,15 @@
         <v>7.74257425742575</v>
       </c>
       <c r="DN38" t="n">
-        <v>3.47311139564661</v>
+        <v>3.40909090909092</v>
+      </c>
+      <c r="DO38" t="n">
+        <v>2.76490808548795</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -33018,11 +33273,14 @@
       </c>
       <c r="DN39" t="n">
         <v>0.189334174818562</v>
+      </c>
+      <c r="DO39" t="n">
+        <v>1.67493796526056</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -33373,12 +33631,15 @@
         <v>7.19424460431653</v>
       </c>
       <c r="DN40" t="n">
-        <v>3.32409972299168</v>
+        <v>3.60110803324099</v>
+      </c>
+      <c r="DO40" t="n">
+        <v>1.03359173126615</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -33729,12 +33990,15 @@
         <v>0.967644390686419</v>
       </c>
       <c r="DN41" t="n">
-        <v>1.84471365638766</v>
+        <v>1.3215859030837</v>
+      </c>
+      <c r="DO41" t="n">
+        <v>4.50134770889489</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -34085,12 +34349,15 @@
         <v>-0.95313741064337</v>
       </c>
       <c r="DN42" t="n">
-        <v>-1.81564245810055</v>
+        <v>-1.39664804469274</v>
+      </c>
+      <c r="DO42" t="n">
+        <v>-2.17096336499321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -34441,12 +34708,15 @@
         <v>0.826446280991728</v>
       </c>
       <c r="DN43" t="n">
-        <v>2.09030100334448</v>
+        <v>3.42809364548496</v>
+      </c>
+      <c r="DO43" t="n">
+        <v>5.78577013291632</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -34797,12 +35067,15 @@
         <v>-2.02531645569621</v>
       </c>
       <c r="DN44" t="n">
-        <v>0.440251572327037</v>
+        <v>0.094339622641513</v>
+      </c>
+      <c r="DO44" t="n">
+        <v>0.616712920135677</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -35153,12 +35426,15 @@
         <v>9.1324200913242</v>
       </c>
       <c r="DN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -35509,12 +35785,15 @@
         <v>1.05610561056105</v>
       </c>
       <c r="DN46" t="n">
-        <v>2.79503105590062</v>
+        <v>2.73291925465839</v>
+      </c>
+      <c r="DO46" t="n">
+        <v>3.34957369062119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -35865,12 +36144,15 @@
         <v>1.73611111111111</v>
       </c>
       <c r="DN47" t="n">
-        <v>3.08123249299718</v>
+        <v>2.80112044817927</v>
+      </c>
+      <c r="DO47" t="n">
+        <v>2.13903743315509</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -36221,12 +36503,15 @@
         <v>2.92463442069741</v>
       </c>
       <c r="DN48" t="n">
-        <v>1.92878338278933</v>
+        <v>1.82987141444116</v>
+      </c>
+      <c r="DO48" t="n">
+        <v>1.90151145782545</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -36577,12 +36862,15 @@
         <v>1.46647370959962</v>
       </c>
       <c r="DN49" t="n">
-        <v>0.549450549450541</v>
+        <v>0.603494865789952</v>
+      </c>
+      <c r="DO49" t="n">
+        <v>1.40671707402849</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -36934,11 +37222,14 @@
       </c>
       <c r="DN50" t="n">
         <v>1.67224080267559</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>1.05092966855295</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -37289,12 +37580,15 @@
         <v>0.826446280991733</v>
       </c>
       <c r="DN51" t="n">
-        <v>5.46075085324234</v>
+        <v>5.11945392491469</v>
+      </c>
+      <c r="DO51" t="n">
+        <v>5.2117263843648</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -37645,12 +37939,15 @@
         <v>1.72290021536251</v>
       </c>
       <c r="DN52" t="n">
-        <v>3.75123395853899</v>
+        <v>3.81704508061863</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>2.37027546444588</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -38001,12 +38298,15 @@
         <v>6.18698441796518</v>
       </c>
       <c r="DN53" t="n">
-        <v>2.3993144815767</v>
+        <v>4.02742073693232</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>6.22964169381107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -38357,12 +38657,15 @@
         <v>0.0000000000000134318097497183</v>
       </c>
       <c r="DN54" t="n">
-        <v>-1.71526586620926</v>
+        <v>-2.40137221269297</v>
+      </c>
+      <c r="DO54" t="n">
+        <v>-2.33333333333334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -38713,12 +39016,15 @@
         <v>2.65104808877929</v>
       </c>
       <c r="DN55" t="n">
-        <v>2.27387569479537</v>
+        <v>2.52652854977263</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>2.66086115142719</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -39069,7 +39375,10 @@
         <v>-0.0000000000000143834561894757</v>
       </c>
       <c r="DN56" t="n">
-        <v>0.696864111498255</v>
+        <v>1.04529616724739</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>1.6835016835017</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2022</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1287,10 +1290,13 @@
       <c r="EA4" t="s">
         <v>130</v>
       </c>
+      <c r="EB4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1677,15 +1683,18 @@
         <v>9367.3</v>
       </c>
       <c r="DZ5" t="n">
-        <v>10451.6</v>
+        <v>10465.6</v>
       </c>
       <c r="EA5" t="n">
-        <v>10779.6</v>
+        <v>10783.6</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>10896.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2075,12 +2084,15 @@
         <v>167.4</v>
       </c>
       <c r="EA6" t="n">
-        <v>170.3</v>
+        <v>170.2</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>171.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2471,11 +2483,14 @@
       </c>
       <c r="EA7" t="n">
         <v>29.2</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2865,12 +2880,15 @@
         <v>195.3</v>
       </c>
       <c r="EA8" t="n">
-        <v>198</v>
+        <v>198.2</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>201.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3261,11 +3279,14 @@
       </c>
       <c r="EA9" t="n">
         <v>103.2</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>103.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3655,12 +3676,15 @@
         <v>1172.9</v>
       </c>
       <c r="EA10" t="n">
-        <v>1210.1</v>
+        <v>1216.4</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>1239.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4050,12 +4074,15 @@
         <v>210.6</v>
       </c>
       <c r="EA11" t="n">
-        <v>216.7</v>
+        <v>216.6</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4445,12 +4472,15 @@
         <v>121.3</v>
       </c>
       <c r="EA12" t="n">
-        <v>124.8</v>
+        <v>124.2</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>126.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4840,12 +4870,15 @@
         <v>36.3</v>
       </c>
       <c r="EA13" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4977,10 +5010,11 @@
       <c r="DY14"/>
       <c r="DZ14"/>
       <c r="EA14"/>
+      <c r="EB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5371,11 +5405,14 @@
       </c>
       <c r="EA15" t="n">
         <v>489.8</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>493.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5765,12 +5802,15 @@
         <v>348</v>
       </c>
       <c r="EA16" t="n">
-        <v>351</v>
+        <v>350.9</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>352.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -5902,10 +5942,11 @@
       <c r="DY17"/>
       <c r="DZ17"/>
       <c r="EA17"/>
+      <c r="EB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6295,12 +6336,15 @@
         <v>62.8</v>
       </c>
       <c r="EA18" t="n">
-        <v>65.7</v>
+        <v>65.6</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>66.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6690,12 +6734,15 @@
         <v>443</v>
       </c>
       <c r="EA19" t="n">
-        <v>446.7</v>
+        <v>446.8</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>447.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7085,12 +7132,15 @@
         <v>232.4</v>
       </c>
       <c r="EA20" t="n">
-        <v>234.5</v>
+        <v>234.3</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>235.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7480,12 +7530,15 @@
         <v>141.5</v>
       </c>
       <c r="EA21" t="n">
-        <v>146.6</v>
+        <v>146.7</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -7875,12 +7928,15 @@
         <v>131.3</v>
       </c>
       <c r="EA22" t="n">
-        <v>135.9</v>
+        <v>135.8</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>136.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8270,12 +8326,15 @@
         <v>161.9</v>
       </c>
       <c r="EA23" t="n">
-        <v>163.7</v>
+        <v>163.5</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>165.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8665,12 +8724,15 @@
         <v>144.2</v>
       </c>
       <c r="EA24" t="n">
-        <v>145.6</v>
+        <v>145.3</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>147.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9061,11 +9123,14 @@
       </c>
       <c r="EA25" t="n">
         <v>50.1</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>49.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9456,11 +9521,14 @@
       </c>
       <c r="EA26" t="n">
         <v>217.8</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>220.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -9850,12 +9918,15 @@
         <v>231</v>
       </c>
       <c r="EA27" t="n">
-        <v>241.8</v>
+        <v>241.5</v>
+      </c>
+      <c r="EB27" t="n">
+        <v>245.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10246,11 +10317,14 @@
       </c>
       <c r="EA28" t="n">
         <v>311.6</v>
+      </c>
+      <c r="EB28" t="n">
+        <v>315.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10640,12 +10714,15 @@
         <v>189.1</v>
       </c>
       <c r="EA29" t="n">
-        <v>200.9</v>
+        <v>200.8</v>
+      </c>
+      <c r="EB29" t="n">
+        <v>203.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11035,12 +11112,15 @@
         <v>103.9</v>
       </c>
       <c r="EA30" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
+      </c>
+      <c r="EB30" t="n">
+        <v>104.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11172,10 +11252,11 @@
       <c r="DY31"/>
       <c r="DZ31"/>
       <c r="EA31"/>
+      <c r="EB31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11565,12 +11646,15 @@
         <v>40.8</v>
       </c>
       <c r="EA32" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
+      </c>
+      <c r="EB32" t="n">
+        <v>42.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -11960,12 +12044,15 @@
         <v>91.6</v>
       </c>
       <c r="EA33" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
+      </c>
+      <c r="EB33" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12355,12 +12442,15 @@
         <v>75.8</v>
       </c>
       <c r="EA34" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
+      </c>
+      <c r="EB34" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -12750,12 +12840,15 @@
         <v>44.1</v>
       </c>
       <c r="EA35" t="n">
-        <v>46.1</v>
+        <v>45.3</v>
+      </c>
+      <c r="EB35" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13145,12 +13238,15 @@
         <v>297.6</v>
       </c>
       <c r="EA36" t="n">
-        <v>313.3</v>
+        <v>312.8</v>
+      </c>
+      <c r="EB36" t="n">
+        <v>315.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13541,11 +13637,14 @@
       </c>
       <c r="EA37" t="n">
         <v>76.7</v>
+      </c>
+      <c r="EB37" t="n">
+        <v>77.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -13935,12 +14034,15 @@
         <v>646.1</v>
       </c>
       <c r="EA38" t="n">
-        <v>687.6</v>
+        <v>687.4</v>
+      </c>
+      <c r="EB38" t="n">
+        <v>693.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14331,11 +14433,14 @@
       </c>
       <c r="EA39" t="n">
         <v>327.8</v>
+      </c>
+      <c r="EB39" t="n">
+        <v>334.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -14726,11 +14831,14 @@
       </c>
       <c r="EA40" t="n">
         <v>39.1</v>
+      </c>
+      <c r="EB40" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15120,12 +15228,15 @@
         <v>368</v>
       </c>
       <c r="EA41" t="n">
-        <v>387.7</v>
+        <v>377.6</v>
+      </c>
+      <c r="EB41" t="n">
+        <v>383.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15515,12 +15626,15 @@
         <v>141.2</v>
       </c>
       <c r="EA42" t="n">
-        <v>144.2</v>
+        <v>144.3</v>
+      </c>
+      <c r="EB42" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -15910,12 +16024,15 @@
         <v>123.7</v>
       </c>
       <c r="EA43" t="n">
-        <v>135.3</v>
+        <v>134.5</v>
+      </c>
+      <c r="EB43" t="n">
+        <v>137.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -16305,12 +16422,15 @@
         <v>318.3</v>
       </c>
       <c r="EA44" t="n">
-        <v>326.3</v>
+        <v>325.7</v>
+      </c>
+      <c r="EB44" t="n">
+        <v>330.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -16701,11 +16821,14 @@
       </c>
       <c r="EA45" t="n">
         <v>28.9</v>
+      </c>
+      <c r="EB45" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17095,12 +17218,15 @@
         <v>165.4</v>
       </c>
       <c r="EA46" t="n">
-        <v>169.7</v>
+        <v>169.6</v>
+      </c>
+      <c r="EB46" t="n">
+        <v>171.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -17491,11 +17617,14 @@
       </c>
       <c r="EA47" t="n">
         <v>38.2</v>
+      </c>
+      <c r="EB47" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -17886,11 +18015,14 @@
       </c>
       <c r="EA48" t="n">
         <v>209</v>
+      </c>
+      <c r="EB48" t="n">
+        <v>209.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -18280,12 +18412,15 @@
         <v>1116.9</v>
       </c>
       <c r="EA49" t="n">
-        <v>1153.4</v>
+        <v>1152.2</v>
+      </c>
+      <c r="EB49" t="n">
+        <v>1161.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -18676,11 +18811,14 @@
       </c>
       <c r="EA50" t="n">
         <v>125</v>
+      </c>
+      <c r="EB50" t="n">
+        <v>126.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19070,12 +19208,15 @@
         <v>30.8</v>
       </c>
       <c r="EA51" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
+      </c>
+      <c r="EB51" t="n">
+        <v>32.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -19465,12 +19606,15 @@
         <v>315.5</v>
       </c>
       <c r="EA52" t="n">
-        <v>319.6</v>
+        <v>322</v>
+      </c>
+      <c r="EB52" t="n">
+        <v>325.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -19860,12 +20004,15 @@
         <v>242.8</v>
       </c>
       <c r="EA53" t="n">
-        <v>260.9</v>
+        <v>257</v>
+      </c>
+      <c r="EB53" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -20256,11 +20403,14 @@
       </c>
       <c r="EA54" t="n">
         <v>58.6</v>
+      </c>
+      <c r="EB54" t="n">
+        <v>59.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -20650,12 +20800,15 @@
         <v>202.9</v>
       </c>
       <c r="EA55" t="n">
-        <v>212.2</v>
+        <v>212.3</v>
+      </c>
+      <c r="EB55" t="n">
+        <v>213.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21046,6 +21199,9 @@
       </c>
       <c r="EA56" t="n">
         <v>30.2</v>
+      </c>
+      <c r="EB56" t="n">
+        <v>30.4</v>
       </c>
     </row>
   </sheetData>
@@ -21420,10 +21576,13 @@
       <c r="DO4" t="s">
         <v>130</v>
       </c>
+      <c r="DP4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -21774,15 +21933,18 @@
         <v>1.45566398423028</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.50929469124531</v>
+        <v>1.6452671859521</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.56211724358855</v>
+        <v>1.59980402871734</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1.80031204163045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -22136,12 +22298,15 @@
         <v>1.7629179331307</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.67164179104478</v>
+        <v>1.61194029850746</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>1.78041543026706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -22496,11 +22661,14 @@
       </c>
       <c r="DO7" t="n">
         <v>5.79710144927535</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>7.22021660649821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -22854,12 +23022,15 @@
         <v>1.13930605903678</v>
       </c>
       <c r="DO8" t="n">
-        <v>1.59055926115957</v>
+        <v>1.69317598768598</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>1.86868686868686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -23214,11 +23385,14 @@
       </c>
       <c r="DO9" t="n">
         <v>0.781249999999997</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.971817298347911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -23572,12 +23746,15 @@
         <v>2.49934457747095</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.0015858442534</v>
+        <v>1.52741841248645</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1.62335000409936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -23931,12 +24108,15 @@
         <v>0.958772770853294</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.88058298072404</v>
+        <v>1.83356840620593</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>1.81311018131101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -24290,12 +24470,15 @@
         <v>1.93277310924371</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.5459723352319</v>
+        <v>1.05777054515865</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>1.28514056224899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -24649,12 +24832,15 @@
         <v>4.91329479768787</v>
       </c>
       <c r="DO13" t="n">
-        <v>4.18994413407821</v>
+        <v>3.91061452513968</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>4.13223140495868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -24774,10 +24960,11 @@
       <c r="DM14"/>
       <c r="DN14"/>
       <c r="DO14"/>
+      <c r="DP14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -25132,11 +25319,14 @@
       </c>
       <c r="DO15" t="n">
         <v>1.19834710743802</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>1.06404747288725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -25490,12 +25680,15 @@
         <v>3.6948748510131</v>
       </c>
       <c r="DO16" t="n">
-        <v>3.66213821618428</v>
+        <v>3.63260484347311</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>4.19497784342688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -25615,10 +25808,11 @@
       <c r="DM17"/>
       <c r="DN17"/>
       <c r="DO17"/>
+      <c r="DP17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -25972,12 +26166,15 @@
         <v>6.4406779661017</v>
       </c>
       <c r="DO18" t="n">
-        <v>5.28846153846155</v>
+        <v>5.12820512820512</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>5.22979397781301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -26331,12 +26528,15 @@
         <v>4.8272598201609</v>
       </c>
       <c r="DO19" t="n">
-        <v>2.90255701451278</v>
+        <v>2.92559318129463</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>2.054325496462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -26690,12 +26890,15 @@
         <v>1.17544623421855</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.816852966466026</v>
+        <v>0.730868443680133</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0.38314176245211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -27049,12 +27252,15 @@
         <v>2.01874549387167</v>
       </c>
       <c r="DO21" t="n">
-        <v>1.87630298818625</v>
+        <v>1.94579569145239</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>1.92837465564739</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -27408,12 +27614,15 @@
         <v>0.690184049079759</v>
       </c>
       <c r="DO22" t="n">
-        <v>1.4179104477612</v>
+        <v>1.34328358208954</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>1.18343195266274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -27767,12 +27976,15 @@
         <v>4.92546986390147</v>
       </c>
       <c r="DO23" t="n">
-        <v>4.5338441890166</v>
+        <v>4.40613026819924</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>4.93983533882203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -28126,12 +28338,15 @@
         <v>0.909727081875425</v>
       </c>
       <c r="DO24" t="n">
-        <v>0.413793103448292</v>
+        <v>0.206896551724146</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0.891021247429735</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -28486,11 +28701,14 @@
       </c>
       <c r="DO25" t="n">
         <v>1.62271805273833</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0.201207243460753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -28845,11 +29063,14 @@
       </c>
       <c r="DO26" t="n">
         <v>1.8232819074334</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>2.03987019007882</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -29203,12 +29424,15 @@
         <v>3.7269869779973</v>
       </c>
       <c r="DO27" t="n">
-        <v>6.14574187884109</v>
+        <v>6.01404741000877</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>6.91605045672032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -29563,11 +29787,14 @@
       </c>
       <c r="DO28" t="n">
         <v>2.80435499835038</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>3.07390451275343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -29921,12 +30148,15 @@
         <v>-0.105652403592176</v>
       </c>
       <c r="DO29" t="n">
-        <v>0.500250125062517</v>
+        <v>0.450225112556281</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>0.544015825914933</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -30280,12 +30510,15 @@
         <v>0.0963391136801486</v>
       </c>
       <c r="DO30" t="n">
-        <v>0.0957854406130214</v>
+        <v>0</v>
+      </c>
+      <c r="DP30" t="n">
+        <v>0.0959692898272635</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -30405,10 +30638,11 @@
       <c r="DM31"/>
       <c r="DN31"/>
       <c r="DO31"/>
+      <c r="DP31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -30762,12 +30996,15 @@
         <v>-2.39234449760766</v>
       </c>
       <c r="DO32" t="n">
-        <v>-3.86363636363637</v>
+        <v>-5.00000000000001</v>
+      </c>
+      <c r="DP32" t="n">
+        <v>-4.28893905191872</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -31121,12 +31358,15 @@
         <v>1.66481687014428</v>
       </c>
       <c r="DO33" t="n">
-        <v>2.24839400428265</v>
+        <v>2.03426124197001</v>
+      </c>
+      <c r="DP33" t="n">
+        <v>2.12765957446809</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -31480,12 +31720,15 @@
         <v>-1.68612191958495</v>
       </c>
       <c r="DO34" t="n">
-        <v>-1.03092783505152</v>
+        <v>-0.515463917525762</v>
+      </c>
+      <c r="DP34" t="n">
+        <v>1.80878552971575</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -31839,12 +32082,15 @@
         <v>0.455580865603635</v>
       </c>
       <c r="DO35" t="n">
-        <v>1.76600441501103</v>
+        <v>0</v>
+      </c>
+      <c r="DP35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -32198,12 +32444,15 @@
         <v>3.19001386962554</v>
       </c>
       <c r="DO36" t="n">
-        <v>2.88998357963874</v>
+        <v>2.72577996715926</v>
+      </c>
+      <c r="DP36" t="n">
+        <v>2.8366481904141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -32558,11 +32807,14 @@
       </c>
       <c r="DO37" t="n">
         <v>2.67737617135209</v>
+      </c>
+      <c r="DP37" t="n">
+        <v>3.31564986737401</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -32916,12 +33168,15 @@
         <v>3.40909090909092</v>
       </c>
       <c r="DO38" t="n">
-        <v>2.76490808548795</v>
+        <v>2.73501718726647</v>
+      </c>
+      <c r="DP38" t="n">
+        <v>2.55728011825572</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -33276,11 +33531,14 @@
       </c>
       <c r="DO39" t="n">
         <v>1.67493796526056</v>
+      </c>
+      <c r="DP39" t="n">
+        <v>2.1659548505186</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -33635,11 +33893,14 @@
       </c>
       <c r="DO40" t="n">
         <v>1.03359173126615</v>
+      </c>
+      <c r="DP40" t="n">
+        <v>1.53452685421995</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -33993,12 +34254,15 @@
         <v>1.3215859030837</v>
       </c>
       <c r="DO41" t="n">
-        <v>4.50134770889489</v>
+        <v>1.7789757412399</v>
+      </c>
+      <c r="DP41" t="n">
+        <v>2.10274154910834</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -34352,12 +34616,15 @@
         <v>-1.39664804469274</v>
       </c>
       <c r="DO42" t="n">
-        <v>-2.17096336499321</v>
+        <v>-2.10312075983716</v>
+      </c>
+      <c r="DP42" t="n">
+        <v>-1.89445196211097</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -34711,12 +34978,15 @@
         <v>3.42809364548496</v>
       </c>
       <c r="DO43" t="n">
-        <v>5.78577013291632</v>
+        <v>5.16028146989835</v>
+      </c>
+      <c r="DP43" t="n">
+        <v>6.33204633204632</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -35070,12 +35340,15 @@
         <v>0.094339622641513</v>
       </c>
       <c r="DO44" t="n">
-        <v>0.616712920135677</v>
+        <v>0.431699044094984</v>
+      </c>
+      <c r="DP44" t="n">
+        <v>0.670936261055196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -35430,11 +35703,14 @@
       </c>
       <c r="DO45" t="n">
         <v>0</v>
+      </c>
+      <c r="DP45" t="n">
+        <v>0.000000000000012166827667125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -35788,12 +36064,15 @@
         <v>2.73291925465839</v>
       </c>
       <c r="DO46" t="n">
-        <v>3.34957369062119</v>
+        <v>3.28867235079172</v>
+      </c>
+      <c r="DP46" t="n">
+        <v>3.56495468277946</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -36148,11 +36427,14 @@
       </c>
       <c r="DO47" t="n">
         <v>2.13903743315509</v>
+      </c>
+      <c r="DP47" t="n">
+        <v>2.39361702127659</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -36507,11 +36789,14 @@
       </c>
       <c r="DO48" t="n">
         <v>1.90151145782545</v>
+      </c>
+      <c r="DP48" t="n">
+        <v>2.39374694675135</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -36865,12 +37150,15 @@
         <v>0.603494865789952</v>
       </c>
       <c r="DO49" t="n">
-        <v>1.40671707402849</v>
+        <v>1.30121329347635</v>
+      </c>
+      <c r="DP49" t="n">
+        <v>1.23725712294154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -37225,11 +37513,14 @@
       </c>
       <c r="DO50" t="n">
         <v>1.05092966855295</v>
+      </c>
+      <c r="DP50" t="n">
+        <v>1.12179487179486</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -37583,12 +37874,15 @@
         <v>5.11945392491469</v>
       </c>
       <c r="DO51" t="n">
-        <v>5.2117263843648</v>
+        <v>4.88599348534202</v>
+      </c>
+      <c r="DP51" t="n">
+        <v>4.20711974110034</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -37942,12 +38236,15 @@
         <v>3.81704508061863</v>
       </c>
       <c r="DO52" t="n">
-        <v>2.37027546444588</v>
+        <v>3.1390134529148</v>
+      </c>
+      <c r="DP52" t="n">
+        <v>3.36401142494445</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -38301,12 +38598,15 @@
         <v>4.02742073693232</v>
       </c>
       <c r="DO53" t="n">
-        <v>6.22964169381107</v>
+        <v>4.64169381107492</v>
+      </c>
+      <c r="DP53" t="n">
+        <v>4.96568429551878</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -38661,11 +38961,14 @@
       </c>
       <c r="DO54" t="n">
         <v>-2.33333333333334</v>
+      </c>
+      <c r="DP54" t="n">
+        <v>-2.45901639344262</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -39019,12 +39322,15 @@
         <v>2.52652854977263</v>
       </c>
       <c r="DO55" t="n">
-        <v>2.66086115142719</v>
+        <v>2.70924044508951</v>
+      </c>
+      <c r="DP55" t="n">
+        <v>2.73775216138329</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -39379,6 +39685,9 @@
       </c>
       <c r="DO56" t="n">
         <v>1.6835016835017</v>
+      </c>
+      <c r="DP56" t="n">
+        <v>1.67224080267559</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t xml:space="preserve">02/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1311,10 +1314,13 @@
       <c r="EE4" t="s">
         <v>134</v>
       </c>
+      <c r="EF4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1713,15 +1719,18 @@
         <v>10626.2</v>
       </c>
       <c r="ED5" t="n">
-        <v>10408.5</v>
+        <v>10405.4</v>
       </c>
       <c r="EE5" t="n">
-        <v>10757.6</v>
+        <v>10780.1</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>10823.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2124,11 +2133,14 @@
       </c>
       <c r="EE6" t="n">
         <v>171.1</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>172.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2530,12 +2542,15 @@
         <v>26.9</v>
       </c>
       <c r="EE7" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2937,12 +2952,15 @@
         <v>191.8</v>
       </c>
       <c r="EE8" t="n">
-        <v>197.8</v>
+        <v>198</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3345,11 +3363,14 @@
       </c>
       <c r="EE9" t="n">
         <v>101.8</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>102.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3751,12 +3772,15 @@
         <v>1211.5</v>
       </c>
       <c r="EE10" t="n">
-        <v>1225.4</v>
+        <v>1226.7</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>1246.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4158,12 +4182,15 @@
         <v>212.5</v>
       </c>
       <c r="EE11" t="n">
-        <v>223.4</v>
+        <v>223.3</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>225.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4565,12 +4592,15 @@
         <v>123.6</v>
       </c>
       <c r="EE12" t="n">
-        <v>125.2</v>
+        <v>125.6</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>126.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4972,12 +5002,15 @@
         <v>36</v>
       </c>
       <c r="EE13" t="n">
-        <v>37.6</v>
+        <v>38</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5113,10 +5146,11 @@
       <c r="EC14"/>
       <c r="ED14"/>
       <c r="EE14"/>
+      <c r="EF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5518,12 +5552,15 @@
         <v>477.4</v>
       </c>
       <c r="EE15" t="n">
-        <v>488.4</v>
+        <v>489.9</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>489.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5925,12 +5962,15 @@
         <v>342</v>
       </c>
       <c r="EE16" t="n">
-        <v>346.1</v>
+        <v>346.3</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>347.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6066,10 +6106,11 @@
       <c r="EC17"/>
       <c r="ED17"/>
       <c r="EE17"/>
+      <c r="EF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6472,11 +6513,14 @@
       </c>
       <c r="EE18" t="n">
         <v>66</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>66.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6878,12 +6922,15 @@
         <v>422</v>
       </c>
       <c r="EE19" t="n">
-        <v>446.5</v>
+        <v>444.3</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>445.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7285,12 +7332,15 @@
         <v>220.9</v>
       </c>
       <c r="EE20" t="n">
-        <v>224.1</v>
+        <v>229.2</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>229.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7693,11 +7743,14 @@
       </c>
       <c r="EE21" t="n">
         <v>145.7</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>145.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8099,12 +8152,15 @@
         <v>132.8</v>
       </c>
       <c r="EE22" t="n">
-        <v>136</v>
+        <v>135.7</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>135.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8506,12 +8562,15 @@
         <v>152.5</v>
       </c>
       <c r="EE23" t="n">
-        <v>163.6</v>
+        <v>160.6</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>161.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8914,11 +8973,14 @@
       </c>
       <c r="EE24" t="n">
         <v>150.2</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>149.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9320,12 +9382,15 @@
         <v>49</v>
       </c>
       <c r="EE25" t="n">
-        <v>50.5</v>
+        <v>50.3</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>50.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9727,12 +9792,15 @@
         <v>203.4</v>
       </c>
       <c r="EE26" t="n">
-        <v>217</v>
+        <v>217.1</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>220.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10134,12 +10202,15 @@
         <v>234.8</v>
       </c>
       <c r="EE27" t="n">
-        <v>245.6</v>
+        <v>245.2</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>245.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10541,12 +10612,15 @@
         <v>304.9</v>
       </c>
       <c r="EE28" t="n">
-        <v>323.9</v>
+        <v>323.7</v>
+      </c>
+      <c r="EF28" t="n">
+        <v>323.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10948,12 +11022,15 @@
         <v>201.4</v>
       </c>
       <c r="EE29" t="n">
-        <v>207.4</v>
+        <v>207.5</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>205.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11356,11 +11433,14 @@
       </c>
       <c r="EE30" t="n">
         <v>103.3</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>103.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11496,10 +11576,11 @@
       <c r="EC31"/>
       <c r="ED31"/>
       <c r="EE31"/>
+      <c r="EF31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11901,12 +11982,15 @@
         <v>43.2</v>
       </c>
       <c r="EE32" t="n">
-        <v>44</v>
+        <v>43.7</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12309,11 +12393,14 @@
       </c>
       <c r="EE33" t="n">
         <v>94.4</v>
+      </c>
+      <c r="EF33" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12716,11 +12803,14 @@
       </c>
       <c r="EE34" t="n">
         <v>82.8</v>
+      </c>
+      <c r="EF34" t="n">
+        <v>82.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13122,12 +13212,15 @@
         <v>43.6</v>
       </c>
       <c r="EE35" t="n">
-        <v>46.9</v>
+        <v>46.3</v>
+      </c>
+      <c r="EF35" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13529,12 +13622,15 @@
         <v>305.2</v>
       </c>
       <c r="EE36" t="n">
-        <v>312.2</v>
+        <v>312.6</v>
+      </c>
+      <c r="EF36" t="n">
+        <v>312.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13936,12 +14032,15 @@
         <v>73.6</v>
       </c>
       <c r="EE37" t="n">
-        <v>77.7</v>
+        <v>77.6</v>
+      </c>
+      <c r="EF37" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14343,12 +14442,15 @@
         <v>657.2</v>
       </c>
       <c r="EE38" t="n">
-        <v>677.6</v>
+        <v>678</v>
+      </c>
+      <c r="EF38" t="n">
+        <v>675.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14751,11 +14853,14 @@
       </c>
       <c r="EE39" t="n">
         <v>324.4</v>
+      </c>
+      <c r="EF39" t="n">
+        <v>333.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15157,12 +15262,15 @@
         <v>37.4</v>
       </c>
       <c r="EE40" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
+      </c>
+      <c r="EF40" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15564,12 +15672,15 @@
         <v>378.2</v>
       </c>
       <c r="EE41" t="n">
-        <v>394.9</v>
+        <v>394.7</v>
+      </c>
+      <c r="EF41" t="n">
+        <v>397.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15971,12 +16082,15 @@
         <v>137.6</v>
       </c>
       <c r="EE42" t="n">
-        <v>144.4</v>
+        <v>145.9</v>
+      </c>
+      <c r="EF42" t="n">
+        <v>146.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16378,12 +16492,15 @@
         <v>136.5</v>
       </c>
       <c r="EE43" t="n">
-        <v>140.4</v>
+        <v>140.3</v>
+      </c>
+      <c r="EF43" t="n">
+        <v>141.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -16786,11 +16903,14 @@
       </c>
       <c r="EE44" t="n">
         <v>330</v>
+      </c>
+      <c r="EF44" t="n">
+        <v>331.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17193,11 +17313,14 @@
       </c>
       <c r="EE45" t="n">
         <v>29.1</v>
+      </c>
+      <c r="EF45" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17599,12 +17722,15 @@
         <v>159.4</v>
       </c>
       <c r="EE46" t="n">
-        <v>164.5</v>
+        <v>165.3</v>
+      </c>
+      <c r="EF46" t="n">
+        <v>166.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18007,11 +18133,14 @@
       </c>
       <c r="EE47" t="n">
         <v>38.1</v>
+      </c>
+      <c r="EF47" t="n">
+        <v>38.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18413,12 +18542,15 @@
         <v>198.5</v>
       </c>
       <c r="EE48" t="n">
-        <v>205.7</v>
+        <v>207.7</v>
+      </c>
+      <c r="EF48" t="n">
+        <v>208.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -18820,12 +18952,15 @@
         <v>1148.7</v>
       </c>
       <c r="EE49" t="n">
-        <v>1178.5</v>
+        <v>1178.2</v>
+      </c>
+      <c r="EF49" t="n">
+        <v>1182.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19228,11 +19363,14 @@
       </c>
       <c r="EE50" t="n">
         <v>127.3</v>
+      </c>
+      <c r="EF50" t="n">
+        <v>128.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19635,11 +19773,14 @@
       </c>
       <c r="EE51" t="n">
         <v>32.4</v>
+      </c>
+      <c r="EF51" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20042,11 +20183,14 @@
       </c>
       <c r="EE52" t="n">
         <v>322.8</v>
+      </c>
+      <c r="EF52" t="n">
+        <v>323.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20448,12 +20592,15 @@
         <v>248.4</v>
       </c>
       <c r="EE53" t="n">
-        <v>252.1</v>
+        <v>251.5</v>
+      </c>
+      <c r="EF53" t="n">
+        <v>251.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -20856,11 +21003,14 @@
       </c>
       <c r="EE54" t="n">
         <v>62.3</v>
+      </c>
+      <c r="EF54" t="n">
+        <v>62.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21262,12 +21412,15 @@
         <v>197.6</v>
       </c>
       <c r="EE55" t="n">
-        <v>214.6</v>
+        <v>214.5</v>
+      </c>
+      <c r="EF55" t="n">
+        <v>213.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21669,7 +21822,10 @@
         <v>28.7</v>
       </c>
       <c r="EE56" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
+      </c>
+      <c r="EF56" t="n">
+        <v>30.7</v>
       </c>
     </row>
   </sheetData>
@@ -22056,10 +22212,13 @@
       <c r="DS4" t="s">
         <v>134</v>
       </c>
+      <c r="DT4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22422,15 +22581,18 @@
         <v>0.880049366307502</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.92819930275373</v>
+        <v>1.89784167025735</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.17211674533901</v>
+        <v>2.38581428259363</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>2.42254480761589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -22797,11 +22959,14 @@
       </c>
       <c r="DS6" t="n">
         <v>2.27136879856546</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>2.43902439024388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23167,12 +23332,15 @@
         <v>-1.82481751824818</v>
       </c>
       <c r="DS7" t="n">
-        <v>3.90070921985816</v>
+        <v>3.54609929078014</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>2.45614035087719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -23538,12 +23706,15 @@
         <v>0.10438413361167</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.55922724961872</v>
+        <v>0.660904931367571</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.767263427109974</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -23910,11 +24081,14 @@
       </c>
       <c r="DS9" t="n">
         <v>0.792079207920789</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.789733464955575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24280,12 +24454,15 @@
         <v>2.8962119925259</v>
       </c>
       <c r="DS10" t="n">
-        <v>3.39183260209248</v>
+        <v>3.50151873101586</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>3.23755899643951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -24651,12 +24828,15 @@
         <v>2.21260221260222</v>
       </c>
       <c r="DS11" t="n">
-        <v>3.09183202584217</v>
+        <v>3.04568527918783</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>3.10786106032907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25022,12 +25202,15 @@
         <v>1.64473684210527</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.21261115602264</v>
+        <v>1.53597413096201</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>1.44694533762058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25393,12 +25576,15 @@
         <v>2.85714285714286</v>
       </c>
       <c r="DS13" t="n">
-        <v>2.45231607629427</v>
+        <v>3.54223433242506</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>3.74331550802137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -25522,10 +25708,11 @@
       <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
+      <c r="DT14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -25891,12 +26078,15 @@
         <v>0.844951415293621</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.68644597126797</v>
+        <v>1.99875078076204</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>1.85339441899209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26262,12 +26452,15 @@
         <v>2.36456150853037</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.7918027918028</v>
+        <v>2.85120285120286</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>3.14726840855106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26391,10 +26584,11 @@
       <c r="DQ17"/>
       <c r="DR17"/>
       <c r="DS17"/>
+      <c r="DT17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -26761,11 +26955,14 @@
       </c>
       <c r="DS18" t="n">
         <v>6.28019323671497</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>7.08534621578101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27131,12 +27328,15 @@
         <v>0.309008794865703</v>
       </c>
       <c r="DS19" t="n">
-        <v>4.46888160973326</v>
+        <v>3.95414131960692</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>3.67527331937662</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -27502,12 +27702,15 @@
         <v>0.135992747053483</v>
       </c>
       <c r="DS20" t="n">
-        <v>1.58658204895739</v>
+        <v>3.89845874886672</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>2.22518914107699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -27874,11 +28077,14 @@
       </c>
       <c r="DS21" t="n">
         <v>2.38931834153196</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>2.31578947368422</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28244,12 +28450,15 @@
         <v>1.06544901065449</v>
       </c>
       <c r="DS22" t="n">
-        <v>0.443131462333822</v>
+        <v>0.2215657311669</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0.221238938053106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -28615,12 +28824,15 @@
         <v>-1.73969072164948</v>
       </c>
       <c r="DS23" t="n">
-        <v>3.54430379746835</v>
+        <v>1.64556962025318</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>1.63214061519144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -28987,11 +29199,14 @@
       </c>
       <c r="DS24" t="n">
         <v>2.94722412611378</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>3.39335180055402</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -29357,12 +29572,15 @@
         <v>1.87110187110188</v>
       </c>
       <c r="DS25" t="n">
-        <v>0.798403193612786</v>
+        <v>0.399201596806393</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0.400801603206419</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -29728,12 +29946,15 @@
         <v>2.83114256825076</v>
       </c>
       <c r="DS26" t="n">
-        <v>3.43183984747378</v>
+        <v>3.4795042897998</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>3.8135593220339</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30099,12 +30320,15 @@
         <v>3.57300397000442</v>
       </c>
       <c r="DS27" t="n">
-        <v>3.71621621621622</v>
+        <v>3.54729729729729</v>
+      </c>
+      <c r="DT27" t="n">
+        <v>3.44972654606645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -30470,12 +30694,15 @@
         <v>5.35590877677954</v>
       </c>
       <c r="DS28" t="n">
-        <v>6.93298118190822</v>
+        <v>6.86695278969959</v>
+      </c>
+      <c r="DT28" t="n">
+        <v>6.20689655172413</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -30841,12 +31068,15 @@
         <v>0.649675162418796</v>
       </c>
       <c r="DS29" t="n">
-        <v>1.26953125</v>
+        <v>1.31835937499999</v>
+      </c>
+      <c r="DT29" t="n">
+        <v>0.636319138521787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31213,11 +31443,14 @@
       </c>
       <c r="DS30" t="n">
         <v>0.682261208577015</v>
+      </c>
+      <c r="DT30" t="n">
+        <v>1.07108081791627</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -31341,10 +31574,11 @@
       <c r="DQ31"/>
       <c r="DR31"/>
       <c r="DS31"/>
+      <c r="DT31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -31710,12 +31944,15 @@
         <v>1.17096018735363</v>
       </c>
       <c r="DS32" t="n">
-        <v>0.917431192660547</v>
+        <v>0.229357798165141</v>
+      </c>
+      <c r="DT32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32082,11 +32319,14 @@
       </c>
       <c r="DS33" t="n">
         <v>1.72413793103448</v>
+      </c>
+      <c r="DT33" t="n">
+        <v>2.04081632653062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -32453,11 +32693,14 @@
       </c>
       <c r="DS34" t="n">
         <v>4.94296577946767</v>
+      </c>
+      <c r="DT34" t="n">
+        <v>4.2983565107459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -32823,12 +33066,15 @@
         <v>0.69284064665128</v>
       </c>
       <c r="DS35" t="n">
-        <v>0.860215053763438</v>
+        <v>-0.430107526881727</v>
+      </c>
+      <c r="DT35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33194,12 +33440,15 @@
         <v>3.24763193504735</v>
       </c>
       <c r="DS36" t="n">
-        <v>1.66069684141974</v>
+        <v>1.7909475740801</v>
+      </c>
+      <c r="DT36" t="n">
+        <v>1.06865284974094</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -33565,12 +33814,15 @@
         <v>2.93706293706293</v>
       </c>
       <c r="DS37" t="n">
-        <v>3.05039787798408</v>
+        <v>2.91777188328911</v>
+      </c>
+      <c r="DT37" t="n">
+        <v>2.49017038007864</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -33936,12 +34188,15 @@
         <v>3.18731355000786</v>
       </c>
       <c r="DS38" t="n">
-        <v>4.08602150537633</v>
+        <v>4.14746543778802</v>
+      </c>
+      <c r="DT38" t="n">
+        <v>3.33537331701346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -34308,11 +34563,14 @@
       </c>
       <c r="DS39" t="n">
         <v>0.996264009962637</v>
+      </c>
+      <c r="DT39" t="n">
+        <v>0.725513905683185</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -34678,12 +34936,15 @@
         <v>0.808625336927216</v>
       </c>
       <c r="DS40" t="n">
-        <v>1.05263157894736</v>
+        <v>0.789473684210519</v>
+      </c>
+      <c r="DT40" t="n">
+        <v>0.263157894736846</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35049,12 +35310,15 @@
         <v>0.934080597811583</v>
       </c>
       <c r="DS41" t="n">
-        <v>1.51670951156812</v>
+        <v>1.46529562982006</v>
+      </c>
+      <c r="DT41" t="n">
+        <v>2.84531815830314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -35420,12 +35684,15 @@
         <v>-2.4113475177305</v>
       </c>
       <c r="DS42" t="n">
-        <v>-2.69541778975741</v>
+        <v>-1.68463611859838</v>
+      </c>
+      <c r="DT42" t="n">
+        <v>-1.47849462365593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -35791,12 +36058,15 @@
         <v>4.67791411042944</v>
       </c>
       <c r="DS43" t="n">
-        <v>5.01121914734482</v>
+        <v>4.93642483171281</v>
+      </c>
+      <c r="DT43" t="n">
+        <v>4.97771173848441</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36163,11 +36433,14 @@
       </c>
       <c r="DS44" t="n">
         <v>1.9147621988882</v>
+      </c>
+      <c r="DT44" t="n">
+        <v>1.780233271946</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -36534,11 +36807,14 @@
       </c>
       <c r="DS45" t="n">
         <v>0.344827586206889</v>
+      </c>
+      <c r="DT45" t="n">
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -36904,12 +37180,15 @@
         <v>3.50649350649351</v>
       </c>
       <c r="DS46" t="n">
-        <v>2.42839352428394</v>
+        <v>2.92652552926527</v>
+      </c>
+      <c r="DT46" t="n">
+        <v>3.0284301606922</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -37276,11 +37555,14 @@
       </c>
       <c r="DS47" t="n">
         <v>1.59999999999998</v>
+      </c>
+      <c r="DT47" t="n">
+        <v>1.32275132275132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -37646,12 +37928,15 @@
         <v>0.966429298067144</v>
       </c>
       <c r="DS48" t="n">
-        <v>-0.0485908649173928</v>
+        <v>0.923226433430518</v>
+      </c>
+      <c r="DT48" t="n">
+        <v>0.920096852300231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38017,12 +38302,15 @@
         <v>2.39793189516849</v>
       </c>
       <c r="DS49" t="n">
-        <v>3.06077831219939</v>
+        <v>3.0345430695234</v>
+      </c>
+      <c r="DT49" t="n">
+        <v>3.21257092972501</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -38389,11 +38677,14 @@
       </c>
       <c r="DS50" t="n">
         <v>2.57856567284448</v>
+      </c>
+      <c r="DT50" t="n">
+        <v>2.89156626506024</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -38760,11 +39051,14 @@
       </c>
       <c r="DS51" t="n">
         <v>2.53164556962027</v>
+      </c>
+      <c r="DT51" t="n">
+        <v>2.22929936305733</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -39131,11 +39425,14 @@
       </c>
       <c r="DS52" t="n">
         <v>3.76084860173577</v>
+      </c>
+      <c r="DT52" t="n">
+        <v>3.38766379034836</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -39501,12 +39798,15 @@
         <v>3.28482328482329</v>
       </c>
       <c r="DS53" t="n">
-        <v>3.06623058053966</v>
+        <v>2.82093213409649</v>
+      </c>
+      <c r="DT53" t="n">
+        <v>2.35676554246239</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -39872,12 +40172,15 @@
         <v>0.511073253833045</v>
       </c>
       <c r="DS54" t="n">
-        <v>1.63132137030994</v>
+        <v>1.63132137030995</v>
+      </c>
+      <c r="DT54" t="n">
+        <v>1.29240710823909</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -40243,12 +40546,15 @@
         <v>2.59605399792314</v>
       </c>
       <c r="DS55" t="n">
-        <v>4.1747572815534</v>
+        <v>4.12621359223301</v>
+      </c>
+      <c r="DT55" t="n">
+        <v>3.18379160636758</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -40614,7 +40920,10 @@
         <v>0.349650349650355</v>
       </c>
       <c r="DS56" t="n">
-        <v>1.34228187919464</v>
+        <v>1.00671140939598</v>
+      </c>
+      <c r="DT56" t="n">
+        <v>1.99335548172757</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t xml:space="preserve">02/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1311,10 +1317,16 @@
       <c r="EE4" t="s">
         <v>134</v>
       </c>
+      <c r="EF4" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1713,15 +1725,21 @@
         <v>10626.2</v>
       </c>
       <c r="ED5" t="n">
-        <v>10408.5</v>
+        <v>10405.4</v>
       </c>
       <c r="EE5" t="n">
-        <v>10757.6</v>
+        <v>10787.5</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>10819</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>10820.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2124,11 +2142,17 @@
       </c>
       <c r="EE6" t="n">
         <v>171.1</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>171.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2530,12 +2554,18 @@
         <v>26.9</v>
       </c>
       <c r="EE7" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="EF7" t="n">
         <v>29.3</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2937,12 +2967,18 @@
         <v>191.8</v>
       </c>
       <c r="EE8" t="n">
-        <v>197.8</v>
+        <v>198</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>197</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>199.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3345,11 +3381,17 @@
       </c>
       <c r="EE9" t="n">
         <v>101.8</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3751,12 +3793,18 @@
         <v>1211.5</v>
       </c>
       <c r="EE10" t="n">
-        <v>1225.4</v>
+        <v>1226.7</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>1244.2</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>1248.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4158,12 +4206,18 @@
         <v>212.5</v>
       </c>
       <c r="EE11" t="n">
-        <v>223.4</v>
+        <v>223.3</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>224.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4565,12 +4619,18 @@
         <v>123.6</v>
       </c>
       <c r="EE12" t="n">
-        <v>125.2</v>
+        <v>125.6</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>124.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -4972,12 +5032,18 @@
         <v>36</v>
       </c>
       <c r="EE13" t="n">
-        <v>37.6</v>
+        <v>38</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5113,10 +5179,12 @@
       <c r="EC14"/>
       <c r="ED14"/>
       <c r="EE14"/>
+      <c r="EF14"/>
+      <c r="EG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5518,12 +5586,18 @@
         <v>477.4</v>
       </c>
       <c r="EE15" t="n">
-        <v>488.4</v>
+        <v>489.9</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>488.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5925,12 +5999,18 @@
         <v>342</v>
       </c>
       <c r="EE16" t="n">
-        <v>346.1</v>
+        <v>346.3</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>346.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6066,10 +6146,12 @@
       <c r="EC17"/>
       <c r="ED17"/>
       <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6472,11 +6554,17 @@
       </c>
       <c r="EE18" t="n">
         <v>66</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>66.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6878,12 +6966,18 @@
         <v>422</v>
       </c>
       <c r="EE19" t="n">
-        <v>446.5</v>
+        <v>444.3</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>446.1</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>445.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7285,12 +7379,18 @@
         <v>220.9</v>
       </c>
       <c r="EE20" t="n">
-        <v>224.1</v>
+        <v>229.2</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>228.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7693,11 +7793,17 @@
       </c>
       <c r="EE21" t="n">
         <v>145.7</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>145.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8099,12 +8205,18 @@
         <v>132.8</v>
       </c>
       <c r="EE22" t="n">
-        <v>136</v>
+        <v>135.7</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>135.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8506,12 +8618,18 @@
         <v>152.5</v>
       </c>
       <c r="EE23" t="n">
-        <v>163.6</v>
+        <v>160.6</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>161.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8914,11 +9032,17 @@
       </c>
       <c r="EE24" t="n">
         <v>150.2</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>150.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9320,12 +9444,18 @@
         <v>49</v>
       </c>
       <c r="EE25" t="n">
-        <v>50.5</v>
+        <v>50.3</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>50</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>49.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9727,12 +9857,18 @@
         <v>203.4</v>
       </c>
       <c r="EE26" t="n">
-        <v>217</v>
+        <v>217.1</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10134,12 +10270,18 @@
         <v>234.8</v>
       </c>
       <c r="EE27" t="n">
-        <v>245.6</v>
+        <v>245.2</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>245.9</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>246.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10541,12 +10683,18 @@
         <v>304.9</v>
       </c>
       <c r="EE28" t="n">
+        <v>323.7</v>
+      </c>
+      <c r="EF28" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="EG28" t="n">
         <v>323.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -10948,12 +11096,18 @@
         <v>201.4</v>
       </c>
       <c r="EE29" t="n">
-        <v>207.4</v>
+        <v>207.5</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11356,11 +11510,17 @@
       </c>
       <c r="EE30" t="n">
         <v>103.3</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>103.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11496,10 +11656,12 @@
       <c r="EC31"/>
       <c r="ED31"/>
       <c r="EE31"/>
+      <c r="EF31"/>
+      <c r="EG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11901,12 +12063,18 @@
         <v>43.2</v>
       </c>
       <c r="EE32" t="n">
-        <v>44</v>
+        <v>43.7</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12309,11 +12477,17 @@
       </c>
       <c r="EE33" t="n">
         <v>94.4</v>
+      </c>
+      <c r="EF33" t="n">
+        <v>95</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12716,11 +12890,17 @@
       </c>
       <c r="EE34" t="n">
         <v>82.8</v>
+      </c>
+      <c r="EF34" t="n">
+        <v>83</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>83.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13122,12 +13302,18 @@
         <v>43.6</v>
       </c>
       <c r="EE35" t="n">
-        <v>46.9</v>
+        <v>46.3</v>
+      </c>
+      <c r="EF35" t="n">
+        <v>46</v>
+      </c>
+      <c r="EG35" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13529,12 +13715,18 @@
         <v>305.2</v>
       </c>
       <c r="EE36" t="n">
-        <v>312.2</v>
+        <v>312.6</v>
+      </c>
+      <c r="EF36" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="EG36" t="n">
+        <v>312.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -13936,12 +14128,18 @@
         <v>73.6</v>
       </c>
       <c r="EE37" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="EF37" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="EG37" t="n">
         <v>77.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14343,12 +14541,18 @@
         <v>657.2</v>
       </c>
       <c r="EE38" t="n">
-        <v>677.6</v>
+        <v>678</v>
+      </c>
+      <c r="EF38" t="n">
+        <v>675.5</v>
+      </c>
+      <c r="EG38" t="n">
+        <v>676.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14751,11 +14955,17 @@
       </c>
       <c r="EE39" t="n">
         <v>324.4</v>
+      </c>
+      <c r="EF39" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="EG39" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15157,12 +15367,18 @@
         <v>37.4</v>
       </c>
       <c r="EE40" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
+      </c>
+      <c r="EF40" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="EG40" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15564,12 +15780,18 @@
         <v>378.2</v>
       </c>
       <c r="EE41" t="n">
-        <v>394.9</v>
+        <v>394.7</v>
+      </c>
+      <c r="EF41" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>394.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -15971,12 +16193,18 @@
         <v>137.6</v>
       </c>
       <c r="EE42" t="n">
-        <v>144.4</v>
+        <v>145.9</v>
+      </c>
+      <c r="EF42" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="EG42" t="n">
+        <v>147.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16378,12 +16606,18 @@
         <v>136.5</v>
       </c>
       <c r="EE43" t="n">
-        <v>140.4</v>
+        <v>140.3</v>
+      </c>
+      <c r="EF43" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="EG43" t="n">
+        <v>141.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -16786,11 +17020,17 @@
       </c>
       <c r="EE44" t="n">
         <v>330</v>
+      </c>
+      <c r="EF44" t="n">
+        <v>331.4</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>331.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17193,11 +17433,17 @@
       </c>
       <c r="EE45" t="n">
         <v>29.1</v>
+      </c>
+      <c r="EF45" t="n">
+        <v>30</v>
+      </c>
+      <c r="EG45" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17599,12 +17845,18 @@
         <v>159.4</v>
       </c>
       <c r="EE46" t="n">
-        <v>164.5</v>
+        <v>165.3</v>
+      </c>
+      <c r="EF46" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="EG46" t="n">
+        <v>166.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18007,11 +18259,17 @@
       </c>
       <c r="EE47" t="n">
         <v>38.1</v>
+      </c>
+      <c r="EF47" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="EG47" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18413,12 +18671,18 @@
         <v>198.5</v>
       </c>
       <c r="EE48" t="n">
-        <v>205.7</v>
+        <v>207.7</v>
+      </c>
+      <c r="EF48" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="EG48" t="n">
+        <v>209.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -18820,12 +19084,18 @@
         <v>1148.7</v>
       </c>
       <c r="EE49" t="n">
-        <v>1178.5</v>
+        <v>1178.2</v>
+      </c>
+      <c r="EF49" t="n">
+        <v>1182.3</v>
+      </c>
+      <c r="EG49" t="n">
+        <v>1182.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19228,11 +19498,17 @@
       </c>
       <c r="EE50" t="n">
         <v>127.3</v>
+      </c>
+      <c r="EF50" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="EG50" t="n">
+        <v>128.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19635,11 +19911,17 @@
       </c>
       <c r="EE51" t="n">
         <v>32.4</v>
+      </c>
+      <c r="EF51" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="EG51" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20042,11 +20324,17 @@
       </c>
       <c r="EE52" t="n">
         <v>322.8</v>
+      </c>
+      <c r="EF52" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>323.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20448,12 +20736,18 @@
         <v>248.4</v>
       </c>
       <c r="EE53" t="n">
-        <v>252.1</v>
+        <v>251.5</v>
+      </c>
+      <c r="EF53" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="EG53" t="n">
+        <v>252.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -20855,12 +21149,18 @@
         <v>59</v>
       </c>
       <c r="EE54" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="EF54" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="EG54" t="n">
         <v>62.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21262,12 +21562,18 @@
         <v>197.6</v>
       </c>
       <c r="EE55" t="n">
-        <v>214.6</v>
+        <v>214.5</v>
+      </c>
+      <c r="EF55" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="EG55" t="n">
+        <v>214.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21669,7 +21975,13 @@
         <v>28.7</v>
       </c>
       <c r="EE56" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
+      </c>
+      <c r="EF56" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -22056,10 +22368,16 @@
       <c r="DS4" t="s">
         <v>134</v>
       </c>
+      <c r="DT4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22422,15 +22740,21 @@
         <v>0.880049366307502</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.92819930275373</v>
+        <v>1.89784167025735</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.17211674533901</v>
+        <v>2.45609702817959</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>2.38090731873498</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>2.21416156578251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -22797,11 +23121,17 @@
       </c>
       <c r="DS6" t="n">
         <v>2.27136879856546</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>2.20107079119571</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.999999999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23167,12 +23497,18 @@
         <v>-1.82481751824818</v>
       </c>
       <c r="DS7" t="n">
-        <v>3.90070921985816</v>
+        <v>3.54609929078014</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>2.80701754385965</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>4.67625899280576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -23538,12 +23874,18 @@
         <v>0.10438413361167</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.55922724961872</v>
+        <v>0.660904931367571</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.767263427109974</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>1.78753830439224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -23910,11 +24252,17 @@
       </c>
       <c r="DS9" t="n">
         <v>0.792079207920789</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.789733464955575</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.686947988223738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24280,12 +24628,18 @@
         <v>2.8962119925259</v>
       </c>
       <c r="DS10" t="n">
-        <v>3.39183260209248</v>
+        <v>3.50151873101586</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>3.02227374347934</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>2.94287362954415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -24651,12 +25005,18 @@
         <v>2.21260221260222</v>
       </c>
       <c r="DS11" t="n">
-        <v>3.09183202584217</v>
+        <v>3.04568527918783</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>3.10786106032907</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>2.93040293040293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25022,12 +25382,18 @@
         <v>1.64473684210527</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.21261115602264</v>
+        <v>1.53597413096201</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>1.5273311897106</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0.321802091713601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25393,12 +25759,18 @@
         <v>2.85714285714286</v>
       </c>
       <c r="DS13" t="n">
-        <v>2.45231607629427</v>
+        <v>3.54223433242506</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>2.40641711229944</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>2.64550264550265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -25522,10 +25894,12 @@
       <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
+      <c r="DT14"/>
+      <c r="DU14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -25891,12 +26265,18 @@
         <v>0.844951415293621</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.68644597126797</v>
+        <v>1.99875078076204</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>1.85339441899209</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>1.72772689425479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26262,12 +26642,18 @@
         <v>2.36456150853037</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.7918027918028</v>
+        <v>2.85120285120286</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>3.08788598574821</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>2.85035629453681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26391,10 +26777,12 @@
       <c r="DQ17"/>
       <c r="DR17"/>
       <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -26761,11 +27149,17 @@
       </c>
       <c r="DS18" t="n">
         <v>6.28019323671497</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>6.92431561996781</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>7.60517799352751</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27131,12 +27525,18 @@
         <v>0.309008794865703</v>
       </c>
       <c r="DS19" t="n">
-        <v>4.46888160973326</v>
+        <v>3.95414131960692</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>3.76831821353804</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>3.8667598416026</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -27502,12 +27902,18 @@
         <v>0.135992747053483</v>
       </c>
       <c r="DS20" t="n">
-        <v>1.58658204895739</v>
+        <v>3.89845874886672</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>2.18068535825547</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>2.14190093708165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -27874,11 +28280,17 @@
       </c>
       <c r="DS21" t="n">
         <v>2.38931834153196</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>2.24561403508771</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>1.95804195804197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28244,12 +28656,18 @@
         <v>1.06544901065449</v>
       </c>
       <c r="DS22" t="n">
-        <v>0.443131462333822</v>
+        <v>0.2215657311669</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0.221238938053106</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>-0.294550810014732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -28615,12 +29033,18 @@
         <v>-1.73969072164948</v>
       </c>
       <c r="DS23" t="n">
-        <v>3.54430379746835</v>
+        <v>1.64556962025318</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>1.31826741996233</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>1.76879343019582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -28987,11 +29411,17 @@
       </c>
       <c r="DS24" t="n">
         <v>2.94722412611378</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>3.39335180055402</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>3.36769759450172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -29357,12 +29787,18 @@
         <v>1.87110187110188</v>
       </c>
       <c r="DS25" t="n">
-        <v>0.798403193612786</v>
+        <v>0.399201596806393</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0.200400801603209</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>-1.19760479041916</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -29728,12 +30164,18 @@
         <v>2.83114256825076</v>
       </c>
       <c r="DS26" t="n">
-        <v>3.43183984747378</v>
+        <v>3.4795042897998</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>3.8135593220339</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>3.3532384014699</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30099,12 +30541,18 @@
         <v>3.57300397000442</v>
       </c>
       <c r="DS27" t="n">
-        <v>3.71621621621622</v>
+        <v>3.54729729729729</v>
+      </c>
+      <c r="DT27" t="n">
+        <v>3.44972654606645</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>3.31098072087174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -30470,12 +30918,18 @@
         <v>5.35590877677954</v>
       </c>
       <c r="DS28" t="n">
-        <v>6.93298118190822</v>
+        <v>6.86695278969959</v>
+      </c>
+      <c r="DT28" t="n">
+        <v>6.27257799671594</v>
+      </c>
+      <c r="DU28" t="n">
+        <v>5.84967320261437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -30841,12 +31295,18 @@
         <v>0.649675162418796</v>
       </c>
       <c r="DS29" t="n">
-        <v>1.26953125</v>
+        <v>1.31835937499999</v>
+      </c>
+      <c r="DT29" t="n">
+        <v>0.636319138521787</v>
+      </c>
+      <c r="DU29" t="n">
+        <v>0.340964442279585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31213,11 +31673,17 @@
       </c>
       <c r="DS30" t="n">
         <v>0.682261208577015</v>
+      </c>
+      <c r="DT30" t="n">
+        <v>1.07108081791627</v>
+      </c>
+      <c r="DU30" t="n">
+        <v>1.07421874999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -31341,10 +31807,12 @@
       <c r="DQ31"/>
       <c r="DR31"/>
       <c r="DS31"/>
+      <c r="DT31"/>
+      <c r="DU31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -31710,12 +32178,18 @@
         <v>1.17096018735363</v>
       </c>
       <c r="DS32" t="n">
-        <v>0.917431192660547</v>
+        <v>0.229357798165141</v>
+      </c>
+      <c r="DT32" t="n">
+        <v>-1.35746606334842</v>
+      </c>
+      <c r="DU32" t="n">
+        <v>-1.58371040723983</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32082,11 +32556,17 @@
       </c>
       <c r="DS33" t="n">
         <v>1.72413793103448</v>
+      </c>
+      <c r="DT33" t="n">
+        <v>2.04081632653062</v>
+      </c>
+      <c r="DU33" t="n">
+        <v>1.28342245989305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -32453,11 +32933,17 @@
       </c>
       <c r="DS34" t="n">
         <v>4.94296577946767</v>
+      </c>
+      <c r="DT34" t="n">
+        <v>4.93046776232618</v>
+      </c>
+      <c r="DU34" t="n">
+        <v>4.36953807740325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -32823,12 +33309,18 @@
         <v>0.69284064665128</v>
       </c>
       <c r="DS35" t="n">
-        <v>0.860215053763438</v>
+        <v>-0.430107526881727</v>
+      </c>
+      <c r="DT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU35" t="n">
+        <v>0.216450216450204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33194,12 +33686,18 @@
         <v>3.24763193504735</v>
       </c>
       <c r="DS36" t="n">
-        <v>1.66069684141974</v>
+        <v>1.7909475740801</v>
+      </c>
+      <c r="DT36" t="n">
+        <v>1.06865284974094</v>
+      </c>
+      <c r="DU36" t="n">
+        <v>0.838439213157053</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -33565,12 +34063,18 @@
         <v>2.93706293706293</v>
       </c>
       <c r="DS37" t="n">
-        <v>3.05039787798408</v>
+        <v>2.91777188328911</v>
+      </c>
+      <c r="DT37" t="n">
+        <v>2.35910878112713</v>
+      </c>
+      <c r="DU37" t="n">
+        <v>2.50659630606861</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -33936,12 +34440,18 @@
         <v>3.18731355000786</v>
       </c>
       <c r="DS38" t="n">
-        <v>4.08602150537633</v>
+        <v>4.14746543778802</v>
+      </c>
+      <c r="DT38" t="n">
+        <v>3.35067319461444</v>
+      </c>
+      <c r="DU38" t="n">
+        <v>3.56760067370999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -34308,11 +34818,17 @@
       </c>
       <c r="DS39" t="n">
         <v>0.996264009962637</v>
+      </c>
+      <c r="DT39" t="n">
+        <v>0.725513905683185</v>
+      </c>
+      <c r="DU39" t="n">
+        <v>0.850546780072908</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -34678,12 +35194,18 @@
         <v>0.808625336927216</v>
       </c>
       <c r="DS40" t="n">
-        <v>1.05263157894736</v>
+        <v>0.789473684210519</v>
+      </c>
+      <c r="DT40" t="n">
+        <v>0.263157894736846</v>
+      </c>
+      <c r="DU40" t="n">
+        <v>0.795755968169754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35049,12 +35571,18 @@
         <v>0.934080597811583</v>
       </c>
       <c r="DS41" t="n">
-        <v>1.51670951156812</v>
+        <v>1.46529562982006</v>
+      </c>
+      <c r="DT41" t="n">
+        <v>2.8194516295913</v>
+      </c>
+      <c r="DU41" t="n">
+        <v>0.0761228114691587</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -35420,12 +35948,18 @@
         <v>-2.4113475177305</v>
       </c>
       <c r="DS42" t="n">
-        <v>-2.69541778975741</v>
+        <v>-1.68463611859838</v>
+      </c>
+      <c r="DT42" t="n">
+        <v>-1.07526881720432</v>
+      </c>
+      <c r="DU42" t="n">
+        <v>-1.20562625586069</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -35791,12 +36325,18 @@
         <v>4.67791411042944</v>
       </c>
       <c r="DS43" t="n">
-        <v>5.01121914734482</v>
+        <v>4.93642483171281</v>
+      </c>
+      <c r="DT43" t="n">
+        <v>5.05200594353641</v>
+      </c>
+      <c r="DU43" t="n">
+        <v>4.98511904761906</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36163,11 +36703,17 @@
       </c>
       <c r="DS44" t="n">
         <v>1.9147621988882</v>
+      </c>
+      <c r="DT44" t="n">
+        <v>1.71884591774097</v>
+      </c>
+      <c r="DU44" t="n">
+        <v>1.93488943488944</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -36534,11 +37080,17 @@
       </c>
       <c r="DS45" t="n">
         <v>0.344827586206889</v>
+      </c>
+      <c r="DT45" t="n">
+        <v>2.73972602739726</v>
+      </c>
+      <c r="DU45" t="n">
+        <v>0.684931506849313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -36904,12 +37456,18 @@
         <v>3.50649350649351</v>
       </c>
       <c r="DS46" t="n">
-        <v>2.42839352428394</v>
+        <v>2.92652552926527</v>
+      </c>
+      <c r="DT46" t="n">
+        <v>3.0284301606922</v>
+      </c>
+      <c r="DU46" t="n">
+        <v>2.78121137206428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -37276,11 +37834,17 @@
       </c>
       <c r="DS47" t="n">
         <v>1.59999999999998</v>
+      </c>
+      <c r="DT47" t="n">
+        <v>1.32275132275132</v>
+      </c>
+      <c r="DU47" t="n">
+        <v>1.59574468085107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -37646,12 +38210,18 @@
         <v>0.966429298067144</v>
       </c>
       <c r="DS48" t="n">
-        <v>-0.0485908649173928</v>
+        <v>0.923226433430518</v>
+      </c>
+      <c r="DT48" t="n">
+        <v>0.920096852300231</v>
+      </c>
+      <c r="DU48" t="n">
+        <v>1.21006776379477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38017,12 +38587,18 @@
         <v>2.39793189516849</v>
       </c>
       <c r="DS49" t="n">
-        <v>3.06077831219939</v>
+        <v>3.0345430695234</v>
+      </c>
+      <c r="DT49" t="n">
+        <v>3.21257092972501</v>
+      </c>
+      <c r="DU49" t="n">
+        <v>3.0778620629523</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -38389,11 +38965,17 @@
       </c>
       <c r="DS50" t="n">
         <v>2.57856567284448</v>
+      </c>
+      <c r="DT50" t="n">
+        <v>2.89156626506024</v>
+      </c>
+      <c r="DU50" t="n">
+        <v>2.88461538461539</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -38760,11 +39342,17 @@
       </c>
       <c r="DS51" t="n">
         <v>2.53164556962027</v>
+      </c>
+      <c r="DT51" t="n">
+        <v>3.5031847133758</v>
+      </c>
+      <c r="DU51" t="n">
+        <v>4.48717948717949</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -39131,11 +39719,17 @@
       </c>
       <c r="DS52" t="n">
         <v>3.76084860173577</v>
+      </c>
+      <c r="DT52" t="n">
+        <v>3.41962288271015</v>
+      </c>
+      <c r="DU52" t="n">
+        <v>2.7980922098569</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -39501,12 +40095,18 @@
         <v>3.28482328482329</v>
       </c>
       <c r="DS53" t="n">
-        <v>3.06623058053966</v>
+        <v>2.82093213409649</v>
+      </c>
+      <c r="DT53" t="n">
+        <v>2.55993498577813</v>
+      </c>
+      <c r="DU53" t="n">
+        <v>2.27088402270884</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -39872,12 +40472,18 @@
         <v>0.511073253833045</v>
       </c>
       <c r="DS54" t="n">
-        <v>1.63132137030994</v>
+        <v>1.63132137030995</v>
+      </c>
+      <c r="DT54" t="n">
+        <v>1.13085621970919</v>
+      </c>
+      <c r="DU54" t="n">
+        <v>1.13636363636363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -40243,12 +40849,18 @@
         <v>2.59605399792314</v>
       </c>
       <c r="DS55" t="n">
-        <v>4.1747572815534</v>
+        <v>4.12621359223301</v>
+      </c>
+      <c r="DT55" t="n">
+        <v>3.08731307284128</v>
+      </c>
+      <c r="DU55" t="n">
+        <v>2.88184438040347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -40614,7 +41226,13 @@
         <v>0.349650349650355</v>
       </c>
       <c r="DS56" t="n">
-        <v>1.34228187919464</v>
+        <v>1.00671140939598</v>
+      </c>
+      <c r="DT56" t="n">
+        <v>2.32558139534883</v>
+      </c>
+      <c r="DU56" t="n">
+        <v>1.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t xml:space="preserve">03/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1317,10 +1320,13 @@
       <c r="EF4" t="s">
         <v>135</v>
       </c>
+      <c r="EG4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1722,15 +1728,18 @@
         <v>10405.4</v>
       </c>
       <c r="EE5" t="n">
-        <v>10780.1</v>
+        <v>10787.5</v>
       </c>
       <c r="EF5" t="n">
-        <v>10823.4</v>
+        <v>10819</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>10820.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2135,12 +2144,15 @@
         <v>171.1</v>
       </c>
       <c r="EF6" t="n">
-        <v>172.2</v>
+        <v>171.8</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>171.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2545,12 +2557,15 @@
         <v>29.2</v>
       </c>
       <c r="EF7" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2956,11 +2971,14 @@
       </c>
       <c r="EF8" t="n">
         <v>197</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>199.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3366,11 +3384,14 @@
       </c>
       <c r="EF9" t="n">
         <v>102.1</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3775,12 +3796,15 @@
         <v>1226.7</v>
       </c>
       <c r="EF10" t="n">
-        <v>1246.8</v>
+        <v>1244.2</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>1248.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4186,11 +4210,14 @@
       </c>
       <c r="EF11" t="n">
         <v>225.6</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>224.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4595,12 +4622,15 @@
         <v>125.6</v>
       </c>
       <c r="EF12" t="n">
-        <v>126.2</v>
+        <v>126.3</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>124.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5005,12 +5035,15 @@
         <v>38</v>
       </c>
       <c r="EF13" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="EG13" t="n">
         <v>38.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5147,10 +5180,11 @@
       <c r="ED14"/>
       <c r="EE14"/>
       <c r="EF14"/>
+      <c r="EG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5556,11 +5590,14 @@
       </c>
       <c r="EF15" t="n">
         <v>489.1</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>488.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -5965,12 +6002,15 @@
         <v>346.3</v>
       </c>
       <c r="EF16" t="n">
-        <v>347.4</v>
+        <v>347.2</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>346.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6107,10 +6147,11 @@
       <c r="ED17"/>
       <c r="EE17"/>
       <c r="EF17"/>
+      <c r="EG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6515,12 +6556,15 @@
         <v>66</v>
       </c>
       <c r="EF18" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="EG18" t="n">
         <v>66.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6925,12 +6969,15 @@
         <v>444.3</v>
       </c>
       <c r="EF19" t="n">
-        <v>445.7</v>
+        <v>446.1</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>445.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7335,12 +7382,15 @@
         <v>229.2</v>
       </c>
       <c r="EF20" t="n">
-        <v>229.7</v>
+        <v>229.6</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>228.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7745,12 +7795,15 @@
         <v>145.7</v>
       </c>
       <c r="EF21" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="EG21" t="n">
         <v>145.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8156,11 +8209,14 @@
       </c>
       <c r="EF22" t="n">
         <v>135.9</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>135.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8565,12 +8621,15 @@
         <v>160.6</v>
       </c>
       <c r="EF23" t="n">
-        <v>161.9</v>
+        <v>161.4</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>161.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -8976,11 +9035,14 @@
       </c>
       <c r="EF24" t="n">
         <v>149.3</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>150.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9385,12 +9447,15 @@
         <v>50.3</v>
       </c>
       <c r="EF25" t="n">
-        <v>50.1</v>
+        <v>50</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>49.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9796,11 +9861,14 @@
       </c>
       <c r="EF26" t="n">
         <v>220.5</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10206,11 +10274,14 @@
       </c>
       <c r="EF27" t="n">
         <v>245.9</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>246.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10615,12 +10686,15 @@
         <v>323.7</v>
       </c>
       <c r="EF28" t="n">
-        <v>323.4</v>
+        <v>323.6</v>
+      </c>
+      <c r="EG28" t="n">
+        <v>323.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11026,11 +11100,14 @@
       </c>
       <c r="EF29" t="n">
         <v>205.6</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11436,11 +11513,14 @@
       </c>
       <c r="EF30" t="n">
         <v>103.8</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>103.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11577,10 +11657,11 @@
       <c r="ED31"/>
       <c r="EE31"/>
       <c r="EF31"/>
+      <c r="EG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -11985,12 +12066,15 @@
         <v>43.7</v>
       </c>
       <c r="EF32" t="n">
-        <v>44.2</v>
+        <v>43.6</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12396,11 +12480,14 @@
       </c>
       <c r="EF33" t="n">
         <v>95</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12805,12 +12892,15 @@
         <v>82.8</v>
       </c>
       <c r="EF34" t="n">
-        <v>82.5</v>
+        <v>83</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>83.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13216,11 +13306,14 @@
       </c>
       <c r="EF35" t="n">
         <v>46</v>
+      </c>
+      <c r="EG35" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13626,11 +13719,14 @@
       </c>
       <c r="EF36" t="n">
         <v>312.1</v>
+      </c>
+      <c r="EG36" t="n">
+        <v>312.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14035,12 +14131,15 @@
         <v>77.6</v>
       </c>
       <c r="EF37" t="n">
-        <v>78.2</v>
+        <v>78.1</v>
+      </c>
+      <c r="EG37" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14445,12 +14544,15 @@
         <v>678</v>
       </c>
       <c r="EF38" t="n">
-        <v>675.4</v>
+        <v>675.5</v>
+      </c>
+      <c r="EG38" t="n">
+        <v>676.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14856,11 +14958,14 @@
       </c>
       <c r="EF39" t="n">
         <v>333.2</v>
+      </c>
+      <c r="EG39" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15266,11 +15371,14 @@
       </c>
       <c r="EF40" t="n">
         <v>38.1</v>
+      </c>
+      <c r="EG40" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15675,12 +15783,15 @@
         <v>394.7</v>
       </c>
       <c r="EF41" t="n">
-        <v>397.6</v>
+        <v>397.5</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>394.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16085,12 +16196,15 @@
         <v>145.9</v>
       </c>
       <c r="EF42" t="n">
-        <v>146.6</v>
+        <v>147.2</v>
+      </c>
+      <c r="EG42" t="n">
+        <v>147.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16495,12 +16609,15 @@
         <v>140.3</v>
       </c>
       <c r="EF43" t="n">
-        <v>141.3</v>
+        <v>141.4</v>
+      </c>
+      <c r="EG43" t="n">
+        <v>141.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -16905,12 +17022,15 @@
         <v>330</v>
       </c>
       <c r="EF44" t="n">
-        <v>331.6</v>
+        <v>331.4</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>331.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17316,11 +17436,14 @@
       </c>
       <c r="EF45" t="n">
         <v>30</v>
+      </c>
+      <c r="EG45" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17726,11 +17849,14 @@
       </c>
       <c r="EF46" t="n">
         <v>166.7</v>
+      </c>
+      <c r="EG46" t="n">
+        <v>166.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18136,11 +18262,14 @@
       </c>
       <c r="EF47" t="n">
         <v>38.3</v>
+      </c>
+      <c r="EG47" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18546,11 +18675,14 @@
       </c>
       <c r="EF48" t="n">
         <v>208.4</v>
+      </c>
+      <c r="EG48" t="n">
+        <v>209.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -18956,11 +19088,14 @@
       </c>
       <c r="EF49" t="n">
         <v>1182.3</v>
+      </c>
+      <c r="EG49" t="n">
+        <v>1182.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19366,11 +19501,14 @@
       </c>
       <c r="EF50" t="n">
         <v>128.1</v>
+      </c>
+      <c r="EG50" t="n">
+        <v>128.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19775,12 +19913,15 @@
         <v>32.4</v>
       </c>
       <c r="EF51" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
+      </c>
+      <c r="EG51" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20185,12 +20326,15 @@
         <v>322.8</v>
       </c>
       <c r="EF52" t="n">
-        <v>323.5</v>
+        <v>323.6</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>323.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20595,12 +20739,15 @@
         <v>251.5</v>
       </c>
       <c r="EF53" t="n">
-        <v>251.9</v>
+        <v>252.4</v>
+      </c>
+      <c r="EG53" t="n">
+        <v>252.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21005,12 +21152,15 @@
         <v>62.3</v>
       </c>
       <c r="EF54" t="n">
-        <v>62.7</v>
+        <v>62.6</v>
+      </c>
+      <c r="EG54" t="n">
+        <v>62.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21415,12 +21565,15 @@
         <v>214.5</v>
       </c>
       <c r="EF55" t="n">
-        <v>213.9</v>
+        <v>213.7</v>
+      </c>
+      <c r="EG55" t="n">
+        <v>214.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21825,7 +21978,10 @@
         <v>30.1</v>
       </c>
       <c r="EF56" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -22215,10 +22371,13 @@
       <c r="DT4" t="s">
         <v>135</v>
       </c>
+      <c r="DU4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22584,15 +22743,18 @@
         <v>1.89784167025735</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.38581428259363</v>
+        <v>2.45609702817959</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.42254480761589</v>
+        <v>2.38090731873498</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>2.21416156578251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -22961,12 +23123,15 @@
         <v>2.27136879856546</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.43902439024388</v>
+        <v>2.20107079119571</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.999999999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23335,12 +23500,15 @@
         <v>3.54609929078014</v>
       </c>
       <c r="DT7" t="n">
-        <v>2.45614035087719</v>
+        <v>2.80701754385965</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>4.67625899280576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -23710,11 +23878,14 @@
       </c>
       <c r="DT8" t="n">
         <v>0.767263427109974</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>1.78753830439224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24084,11 +24255,14 @@
       </c>
       <c r="DT9" t="n">
         <v>0.789733464955575</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.686947988223738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24457,12 +24631,15 @@
         <v>3.50151873101586</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.23755899643951</v>
+        <v>3.02227374347934</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>2.94287362954415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -24832,11 +25009,14 @@
       </c>
       <c r="DT11" t="n">
         <v>3.10786106032907</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>2.93040293040293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25205,12 +25385,15 @@
         <v>1.53597413096201</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.44694533762058</v>
+        <v>1.5273311897106</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0.321802091713601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25579,12 +25762,15 @@
         <v>3.54223433242506</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.74331550802137</v>
+        <v>2.40641711229944</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>2.64550264550265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -25709,10 +25895,11 @@
       <c r="DR14"/>
       <c r="DS14"/>
       <c r="DT14"/>
+      <c r="DU14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26082,11 +26269,14 @@
       </c>
       <c r="DT15" t="n">
         <v>1.85339441899209</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>1.72772689425479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26455,12 +26645,15 @@
         <v>2.85120285120286</v>
       </c>
       <c r="DT16" t="n">
-        <v>3.14726840855106</v>
+        <v>3.08788598574821</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>2.85035629453681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26585,10 +26778,11 @@
       <c r="DR17"/>
       <c r="DS17"/>
       <c r="DT17"/>
+      <c r="DU17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -26957,12 +27151,15 @@
         <v>6.28019323671497</v>
       </c>
       <c r="DT18" t="n">
-        <v>7.08534621578101</v>
+        <v>6.92431561996781</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>7.60517799352751</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27331,12 +27528,15 @@
         <v>3.95414131960692</v>
       </c>
       <c r="DT19" t="n">
-        <v>3.67527331937662</v>
+        <v>3.76831821353804</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>3.8667598416026</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -27705,12 +27905,15 @@
         <v>3.89845874886672</v>
       </c>
       <c r="DT20" t="n">
-        <v>2.22518914107699</v>
+        <v>2.18068535825547</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>2.14190093708165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28079,12 +28282,15 @@
         <v>2.38931834153196</v>
       </c>
       <c r="DT21" t="n">
-        <v>2.31578947368422</v>
+        <v>2.24561403508771</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>1.95804195804197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28454,11 +28660,14 @@
       </c>
       <c r="DT22" t="n">
         <v>0.221238938053106</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>-0.294550810014732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -28827,12 +29036,15 @@
         <v>1.64556962025318</v>
       </c>
       <c r="DT23" t="n">
-        <v>1.63214061519144</v>
+        <v>1.31826741996233</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>1.76879343019582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -29202,11 +29414,14 @@
       </c>
       <c r="DT24" t="n">
         <v>3.39335180055402</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>3.36769759450172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -29575,12 +29790,15 @@
         <v>0.399201596806393</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.400801603206419</v>
+        <v>0.200400801603209</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>-1.19760479041916</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -29950,11 +30168,14 @@
       </c>
       <c r="DT26" t="n">
         <v>3.8135593220339</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>3.3532384014699</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30324,11 +30545,14 @@
       </c>
       <c r="DT27" t="n">
         <v>3.44972654606645</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>3.31098072087174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -30697,12 +30921,15 @@
         <v>6.86695278969959</v>
       </c>
       <c r="DT28" t="n">
-        <v>6.20689655172413</v>
+        <v>6.27257799671594</v>
+      </c>
+      <c r="DU28" t="n">
+        <v>5.84967320261437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31072,11 +31299,14 @@
       </c>
       <c r="DT29" t="n">
         <v>0.636319138521787</v>
+      </c>
+      <c r="DU29" t="n">
+        <v>0.340964442279585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31446,11 +31676,14 @@
       </c>
       <c r="DT30" t="n">
         <v>1.07108081791627</v>
+      </c>
+      <c r="DU30" t="n">
+        <v>1.07421874999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -31575,10 +31808,11 @@
       <c r="DR31"/>
       <c r="DS31"/>
       <c r="DT31"/>
+      <c r="DU31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -31947,12 +32181,15 @@
         <v>0.229357798165141</v>
       </c>
       <c r="DT32" t="n">
-        <v>0</v>
+        <v>-1.35746606334842</v>
+      </c>
+      <c r="DU32" t="n">
+        <v>-1.58371040723983</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32322,11 +32559,14 @@
       </c>
       <c r="DT33" t="n">
         <v>2.04081632653062</v>
+      </c>
+      <c r="DU33" t="n">
+        <v>1.28342245989305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -32695,12 +32935,15 @@
         <v>4.94296577946767</v>
       </c>
       <c r="DT34" t="n">
-        <v>4.2983565107459</v>
+        <v>4.93046776232618</v>
+      </c>
+      <c r="DU34" t="n">
+        <v>4.36953807740325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -33070,11 +33313,14 @@
       </c>
       <c r="DT35" t="n">
         <v>0</v>
+      </c>
+      <c r="DU35" t="n">
+        <v>0.216450216450204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33444,11 +33690,14 @@
       </c>
       <c r="DT36" t="n">
         <v>1.06865284974094</v>
+      </c>
+      <c r="DU36" t="n">
+        <v>0.838439213157053</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -33817,12 +34066,15 @@
         <v>2.91777188328911</v>
       </c>
       <c r="DT37" t="n">
-        <v>2.49017038007864</v>
+        <v>2.35910878112713</v>
+      </c>
+      <c r="DU37" t="n">
+        <v>2.50659630606861</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -34191,12 +34443,15 @@
         <v>4.14746543778802</v>
       </c>
       <c r="DT38" t="n">
-        <v>3.33537331701346</v>
+        <v>3.35067319461444</v>
+      </c>
+      <c r="DU38" t="n">
+        <v>3.56760067370999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -34566,11 +34821,14 @@
       </c>
       <c r="DT39" t="n">
         <v>0.725513905683185</v>
+      </c>
+      <c r="DU39" t="n">
+        <v>0.850546780072908</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -34940,11 +35198,14 @@
       </c>
       <c r="DT40" t="n">
         <v>0.263157894736846</v>
+      </c>
+      <c r="DU40" t="n">
+        <v>0.795755968169754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35313,12 +35574,15 @@
         <v>1.46529562982006</v>
       </c>
       <c r="DT41" t="n">
-        <v>2.84531815830314</v>
+        <v>2.8194516295913</v>
+      </c>
+      <c r="DU41" t="n">
+        <v>0.0761228114691587</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -35687,12 +35951,15 @@
         <v>-1.68463611859838</v>
       </c>
       <c r="DT42" t="n">
-        <v>-1.47849462365593</v>
+        <v>-1.07526881720432</v>
+      </c>
+      <c r="DU42" t="n">
+        <v>-1.20562625586069</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -36061,12 +36328,15 @@
         <v>4.93642483171281</v>
       </c>
       <c r="DT43" t="n">
-        <v>4.97771173848441</v>
+        <v>5.05200594353641</v>
+      </c>
+      <c r="DU43" t="n">
+        <v>4.98511904761906</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36435,12 +36705,15 @@
         <v>1.9147621988882</v>
       </c>
       <c r="DT44" t="n">
-        <v>1.780233271946</v>
+        <v>1.71884591774097</v>
+      </c>
+      <c r="DU44" t="n">
+        <v>1.93488943488944</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -36810,11 +37083,14 @@
       </c>
       <c r="DT45" t="n">
         <v>2.73972602739726</v>
+      </c>
+      <c r="DU45" t="n">
+        <v>0.684931506849313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -37184,11 +37460,14 @@
       </c>
       <c r="DT46" t="n">
         <v>3.0284301606922</v>
+      </c>
+      <c r="DU46" t="n">
+        <v>2.78121137206428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -37558,11 +37837,14 @@
       </c>
       <c r="DT47" t="n">
         <v>1.32275132275132</v>
+      </c>
+      <c r="DU47" t="n">
+        <v>1.59574468085107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -37932,11 +38214,14 @@
       </c>
       <c r="DT48" t="n">
         <v>0.920096852300231</v>
+      </c>
+      <c r="DU48" t="n">
+        <v>1.21006776379477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38306,11 +38591,14 @@
       </c>
       <c r="DT49" t="n">
         <v>3.21257092972501</v>
+      </c>
+      <c r="DU49" t="n">
+        <v>3.0778620629523</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -38680,11 +38968,14 @@
       </c>
       <c r="DT50" t="n">
         <v>2.89156626506024</v>
+      </c>
+      <c r="DU50" t="n">
+        <v>2.88461538461539</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -39053,12 +39344,15 @@
         <v>2.53164556962027</v>
       </c>
       <c r="DT51" t="n">
-        <v>2.22929936305733</v>
+        <v>3.5031847133758</v>
+      </c>
+      <c r="DU51" t="n">
+        <v>4.48717948717949</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -39427,12 +39721,15 @@
         <v>3.76084860173577</v>
       </c>
       <c r="DT52" t="n">
-        <v>3.38766379034836</v>
+        <v>3.41962288271015</v>
+      </c>
+      <c r="DU52" t="n">
+        <v>2.7980922098569</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -39801,12 +40098,15 @@
         <v>2.82093213409649</v>
       </c>
       <c r="DT53" t="n">
-        <v>2.35676554246239</v>
+        <v>2.55993498577813</v>
+      </c>
+      <c r="DU53" t="n">
+        <v>2.27088402270884</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -40175,12 +40475,15 @@
         <v>1.63132137030995</v>
       </c>
       <c r="DT54" t="n">
-        <v>1.29240710823909</v>
+        <v>1.13085621970919</v>
+      </c>
+      <c r="DU54" t="n">
+        <v>1.13636363636363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -40549,12 +40852,15 @@
         <v>4.12621359223301</v>
       </c>
       <c r="DT55" t="n">
-        <v>3.18379160636758</v>
+        <v>3.08731307284128</v>
+      </c>
+      <c r="DU55" t="n">
+        <v>2.88184438040347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -40923,7 +41229,10 @@
         <v>1.00671140939598</v>
       </c>
       <c r="DT56" t="n">
-        <v>1.99335548172757</v>
+        <v>2.32558139534883</v>
+      </c>
+      <c r="DU56" t="n">
+        <v>1.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1323,10 +1326,13 @@
       <c r="EG4" t="s">
         <v>136</v>
       </c>
+      <c r="EH4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1731,15 +1737,18 @@
         <v>10787.5</v>
       </c>
       <c r="EF5" t="n">
-        <v>10819</v>
+        <v>10817.6</v>
       </c>
       <c r="EG5" t="n">
-        <v>10820.8</v>
+        <v>10830.7</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>10734.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2147,12 +2156,15 @@
         <v>171.8</v>
       </c>
       <c r="EG6" t="n">
-        <v>171.7</v>
+        <v>171.6</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>171.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2561,11 +2573,14 @@
       </c>
       <c r="EG7" t="n">
         <v>29.1</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2973,12 +2988,15 @@
         <v>197</v>
       </c>
       <c r="EG8" t="n">
-        <v>199.3</v>
+        <v>199.4</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>192.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3387,11 +3405,14 @@
       </c>
       <c r="EG9" t="n">
         <v>102.6</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>101.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3800,11 +3821,14 @@
       </c>
       <c r="EG10" t="n">
         <v>1248.8</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>1258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4213,11 +4237,14 @@
       </c>
       <c r="EG11" t="n">
         <v>224.8</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>225.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4625,12 +4652,15 @@
         <v>126.3</v>
       </c>
       <c r="EG12" t="n">
-        <v>124.7</v>
+        <v>124.8</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>123.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5038,12 +5068,15 @@
         <v>38.3</v>
       </c>
       <c r="EG13" t="n">
-        <v>38.8</v>
+        <v>38.2</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5181,10 +5214,11 @@
       <c r="EE14"/>
       <c r="EF14"/>
       <c r="EG14"/>
+      <c r="EH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5592,12 +5626,15 @@
         <v>489.1</v>
       </c>
       <c r="EG15" t="n">
-        <v>488.7</v>
+        <v>488.9</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>481.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6005,12 +6042,15 @@
         <v>347.2</v>
       </c>
       <c r="EG16" t="n">
-        <v>346.4</v>
+        <v>346.3</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>342.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6148,10 +6188,11 @@
       <c r="EE17"/>
       <c r="EF17"/>
       <c r="EG17"/>
+      <c r="EH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6560,11 +6601,14 @@
       </c>
       <c r="EG18" t="n">
         <v>66.5</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>64.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6972,12 +7016,15 @@
         <v>446.1</v>
       </c>
       <c r="EG19" t="n">
-        <v>445.9</v>
+        <v>446</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>444.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7385,12 +7432,15 @@
         <v>229.6</v>
       </c>
       <c r="EG20" t="n">
-        <v>228.9</v>
+        <v>229</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>230.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7798,12 +7848,15 @@
         <v>145.7</v>
       </c>
       <c r="EG21" t="n">
-        <v>145.8</v>
+        <v>146.2</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>145.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8211,12 +8264,15 @@
         <v>135.9</v>
       </c>
       <c r="EG22" t="n">
-        <v>135.4</v>
+        <v>135.6</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>135.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8624,12 +8680,15 @@
         <v>161.4</v>
       </c>
       <c r="EG23" t="n">
-        <v>161.1</v>
+        <v>161</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>160.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9037,12 +9096,15 @@
         <v>149.3</v>
       </c>
       <c r="EG24" t="n">
-        <v>150.4</v>
+        <v>150.3</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>149.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9450,12 +9512,15 @@
         <v>50</v>
       </c>
       <c r="EG25" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>49.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9863,12 +9928,15 @@
         <v>220.5</v>
       </c>
       <c r="EG26" t="n">
+        <v>225</v>
+      </c>
+      <c r="EH26" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10276,12 +10344,15 @@
         <v>245.9</v>
       </c>
       <c r="EG27" t="n">
-        <v>246.5</v>
+        <v>245.9</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>245.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10689,12 +10760,15 @@
         <v>323.6</v>
       </c>
       <c r="EG28" t="n">
-        <v>323.9</v>
+        <v>324.6</v>
+      </c>
+      <c r="EH28" t="n">
+        <v>307.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11102,12 +11176,15 @@
         <v>205.6</v>
       </c>
       <c r="EG29" t="n">
-        <v>206</v>
+        <v>205.9</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11516,11 +11593,14 @@
       </c>
       <c r="EG30" t="n">
         <v>103.5</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>101.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11658,10 +11738,11 @@
       <c r="EE31"/>
       <c r="EF31"/>
       <c r="EG31"/>
+      <c r="EH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12069,12 +12150,15 @@
         <v>43.6</v>
       </c>
       <c r="EG32" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12483,11 +12567,14 @@
       </c>
       <c r="EG33" t="n">
         <v>94.7</v>
+      </c>
+      <c r="EH33" t="n">
+        <v>94.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12896,11 +12983,14 @@
       </c>
       <c r="EG34" t="n">
         <v>83.6</v>
+      </c>
+      <c r="EH34" t="n">
+        <v>83.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13308,12 +13398,15 @@
         <v>46</v>
       </c>
       <c r="EG35" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
+      </c>
+      <c r="EH35" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13721,12 +13814,15 @@
         <v>312.1</v>
       </c>
       <c r="EG36" t="n">
-        <v>312.7</v>
+        <v>312.6</v>
+      </c>
+      <c r="EH36" t="n">
+        <v>309.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14135,11 +14231,14 @@
       </c>
       <c r="EG37" t="n">
         <v>77.7</v>
+      </c>
+      <c r="EH37" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14547,12 +14646,15 @@
         <v>675.5</v>
       </c>
       <c r="EG38" t="n">
-        <v>676.4</v>
+        <v>676.1</v>
+      </c>
+      <c r="EH38" t="n">
+        <v>672.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14961,11 +15063,14 @@
       </c>
       <c r="EG39" t="n">
         <v>332</v>
+      </c>
+      <c r="EH39" t="n">
+        <v>333.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15373,12 +15478,15 @@
         <v>38.1</v>
       </c>
       <c r="EG40" t="n">
-        <v>38</v>
+        <v>38.2</v>
+      </c>
+      <c r="EH40" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15787,11 +15895,14 @@
       </c>
       <c r="EG41" t="n">
         <v>394.4</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>385.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16199,12 +16310,15 @@
         <v>147.2</v>
       </c>
       <c r="EG42" t="n">
-        <v>147.5</v>
+        <v>147.7</v>
+      </c>
+      <c r="EH42" t="n">
+        <v>146.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16613,11 +16727,14 @@
       </c>
       <c r="EG43" t="n">
         <v>141.1</v>
+      </c>
+      <c r="EH43" t="n">
+        <v>142.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17025,12 +17142,15 @@
         <v>331.4</v>
       </c>
       <c r="EG44" t="n">
-        <v>331.9</v>
+        <v>332</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>326.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17438,12 +17558,15 @@
         <v>30</v>
       </c>
       <c r="EG45" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
+      </c>
+      <c r="EH45" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17852,11 +17975,14 @@
       </c>
       <c r="EG46" t="n">
         <v>166.3</v>
+      </c>
+      <c r="EH46" t="n">
+        <v>160.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18265,11 +18391,14 @@
       </c>
       <c r="EG47" t="n">
         <v>38.2</v>
+      </c>
+      <c r="EH47" t="n">
+        <v>37.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18677,12 +18806,15 @@
         <v>208.4</v>
       </c>
       <c r="EG48" t="n">
-        <v>209.1</v>
+        <v>209.4</v>
+      </c>
+      <c r="EH48" t="n">
+        <v>202.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19091,11 +19223,14 @@
       </c>
       <c r="EG49" t="n">
         <v>1182.2</v>
+      </c>
+      <c r="EH49" t="n">
+        <v>1178.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19504,11 +19639,14 @@
       </c>
       <c r="EG50" t="n">
         <v>128.4</v>
+      </c>
+      <c r="EH50" t="n">
+        <v>128.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19917,11 +20055,14 @@
       </c>
       <c r="EG51" t="n">
         <v>32.6</v>
+      </c>
+      <c r="EH51" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20329,12 +20470,15 @@
         <v>323.6</v>
       </c>
       <c r="EG52" t="n">
-        <v>323.3</v>
+        <v>323.7</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>314.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20742,12 +20886,15 @@
         <v>252.4</v>
       </c>
       <c r="EG53" t="n">
-        <v>252.2</v>
+        <v>252.1</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>249.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21156,11 +21303,14 @@
       </c>
       <c r="EG54" t="n">
         <v>62.3</v>
+      </c>
+      <c r="EH54" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21569,11 +21719,14 @@
       </c>
       <c r="EG55" t="n">
         <v>214.2</v>
+      </c>
+      <c r="EH55" t="n">
+        <v>211.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21981,7 +22134,10 @@
         <v>30.8</v>
       </c>
       <c r="EG56" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>30.7</v>
       </c>
     </row>
   </sheetData>
@@ -22374,10 +22530,13 @@
       <c r="DU4" t="s">
         <v>136</v>
       </c>
+      <c r="DV4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22746,15 +22905,18 @@
         <v>2.45609702817959</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.38090731873498</v>
+        <v>2.36765902681833</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.21416156578251</v>
+        <v>2.30767777525883</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>2.49694446566343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23126,12 +23288,15 @@
         <v>2.20107079119571</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.999999999999993</v>
+        <v>0.941176470588232</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0.764256319811848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23504,11 +23669,14 @@
       </c>
       <c r="DU7" t="n">
         <v>4.67625899280576</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>5.99250936329586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -23880,12 +24048,15 @@
         <v>0.767263427109974</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.78753830439224</v>
+        <v>1.83861082737485</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>1.47523709167544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24258,11 +24429,14 @@
       </c>
       <c r="DU9" t="n">
         <v>0.686947988223738</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.594059405940588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24635,11 +24809,14 @@
       </c>
       <c r="DU10" t="n">
         <v>2.94287362954415</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>2.92914416625756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25012,11 +25189,14 @@
       </c>
       <c r="DU11" t="n">
         <v>2.93040293040293</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>3.15500685871058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25388,12 +25568,15 @@
         <v>1.5273311897106</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.321802091713601</v>
+        <v>0.402252614641995</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0.571428571428574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25765,12 +25948,15 @@
         <v>2.40641711229944</v>
       </c>
       <c r="DU13" t="n">
-        <v>2.64550264550265</v>
+        <v>1.05820105820107</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>1.08401084010838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -25896,10 +26082,11 @@
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
+      <c r="DV14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26271,12 +26458,15 @@
         <v>1.85339441899209</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.72772689425479</v>
+        <v>1.76935886761032</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>1.64800338051976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26648,12 +26838,15 @@
         <v>3.08788598574821</v>
       </c>
       <c r="DU16" t="n">
-        <v>2.85035629453681</v>
+        <v>2.82066508313539</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>1.93509973206311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26779,10 +26972,11 @@
       <c r="DS17"/>
       <c r="DT17"/>
       <c r="DU17"/>
+      <c r="DV17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27155,11 +27349,14 @@
       </c>
       <c r="DU18" t="n">
         <v>7.60517799352751</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>5.73770491803279</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27531,12 +27728,15 @@
         <v>3.76831821353804</v>
       </c>
       <c r="DU19" t="n">
-        <v>3.8667598416026</v>
+        <v>3.89005357558816</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>3.973819541842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -27908,12 +28108,15 @@
         <v>2.18068535825547</v>
       </c>
       <c r="DU20" t="n">
-        <v>2.14190093708165</v>
+        <v>2.18652387327086</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>2.54010695187165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28285,12 +28488,15 @@
         <v>2.24561403508771</v>
       </c>
       <c r="DU21" t="n">
-        <v>1.95804195804197</v>
+        <v>2.23776223776223</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>1.96215837421164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28662,12 +28868,15 @@
         <v>0.221238938053106</v>
       </c>
       <c r="DU22" t="n">
-        <v>-0.294550810014732</v>
+        <v>-0.147275405007376</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>0.147601476014752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29039,12 +29248,15 @@
         <v>1.31826741996233</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.76879343019582</v>
+        <v>1.70562223626026</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>1.64452877925363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -29416,12 +29628,15 @@
         <v>3.39335180055402</v>
       </c>
       <c r="DU24" t="n">
-        <v>3.36769759450172</v>
+        <v>3.29896907216496</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>2.95532646048111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -29793,12 +30008,15 @@
         <v>0.200400801603209</v>
       </c>
       <c r="DU25" t="n">
-        <v>-1.19760479041916</v>
+        <v>-1.39720558882235</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>1.22199592668026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30171,11 +30389,14 @@
       </c>
       <c r="DU26" t="n">
         <v>3.3532384014699</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>2.92772186642268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30547,12 +30768,15 @@
         <v>3.44972654606645</v>
       </c>
       <c r="DU27" t="n">
-        <v>3.31098072087174</v>
+        <v>3.05951383067894</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>2.8439983270598</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -30924,12 +31148,15 @@
         <v>6.27257799671594</v>
       </c>
       <c r="DU28" t="n">
-        <v>5.84967320261437</v>
+        <v>6.07843137254903</v>
+      </c>
+      <c r="DV28" t="n">
+        <v>5.89655172413794</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31301,12 +31528,15 @@
         <v>0.636319138521787</v>
       </c>
       <c r="DU29" t="n">
-        <v>0.340964442279585</v>
+        <v>0.292255236239646</v>
+      </c>
+      <c r="DV29" t="n">
+        <v>0.644521566683198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31679,11 +31909,14 @@
       </c>
       <c r="DU30" t="n">
         <v>1.07421874999999</v>
+      </c>
+      <c r="DV30" t="n">
+        <v>1.09126984126985</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -31809,10 +32042,11 @@
       <c r="DS31"/>
       <c r="DT31"/>
       <c r="DU31"/>
+      <c r="DV31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32184,12 +32418,15 @@
         <v>-1.35746606334842</v>
       </c>
       <c r="DU32" t="n">
-        <v>-1.58371040723983</v>
+        <v>-1.35746606334842</v>
+      </c>
+      <c r="DV32" t="n">
+        <v>-4.48430493273543</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32562,11 +32799,14 @@
       </c>
       <c r="DU33" t="n">
         <v>1.28342245989305</v>
+      </c>
+      <c r="DV33" t="n">
+        <v>1.60599571734474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -32939,11 +33179,14 @@
       </c>
       <c r="DU34" t="n">
         <v>4.36953807740325</v>
+      </c>
+      <c r="DV34" t="n">
+        <v>4.61922596754058</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -33315,12 +33558,15 @@
         <v>0</v>
       </c>
       <c r="DU35" t="n">
-        <v>0.216450216450204</v>
+        <v>0.432900432900424</v>
+      </c>
+      <c r="DV35" t="n">
+        <v>0.886917960088689</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33692,12 +33938,15 @@
         <v>1.06865284974094</v>
       </c>
       <c r="DU36" t="n">
-        <v>0.838439213157053</v>
+        <v>0.806191551112544</v>
+      </c>
+      <c r="DV36" t="n">
+        <v>1.53997378768022</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34070,11 +34319,14 @@
       </c>
       <c r="DU37" t="n">
         <v>2.50659630606861</v>
+      </c>
+      <c r="DV37" t="n">
+        <v>3.61930294906167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -34446,12 +34698,15 @@
         <v>3.35067319461444</v>
       </c>
       <c r="DU38" t="n">
-        <v>3.56760067370999</v>
+        <v>3.52166590108712</v>
+      </c>
+      <c r="DV38" t="n">
+        <v>3.49392027089425</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -34824,11 +35079,14 @@
       </c>
       <c r="DU39" t="n">
         <v>0.850546780072908</v>
+      </c>
+      <c r="DV39" t="n">
+        <v>0.725733293014827</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35200,12 +35458,15 @@
         <v>0.263157894736846</v>
       </c>
       <c r="DU40" t="n">
-        <v>0.795755968169754</v>
+        <v>1.3262599469496</v>
+      </c>
+      <c r="DV40" t="n">
+        <v>1.06100795755968</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35578,11 +35839,14 @@
       </c>
       <c r="DU41" t="n">
         <v>0.0761228114691587</v>
+      </c>
+      <c r="DV41" t="n">
+        <v>-0.926164136866484</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -35954,12 +36218,15 @@
         <v>-1.07526881720432</v>
       </c>
       <c r="DU42" t="n">
-        <v>-1.20562625586069</v>
+        <v>-1.07166778298729</v>
+      </c>
+      <c r="DV42" t="n">
+        <v>-1.14401076716017</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -36332,11 +36599,14 @@
       </c>
       <c r="DU43" t="n">
         <v>4.98511904761906</v>
+      </c>
+      <c r="DV43" t="n">
+        <v>5.47337278106509</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36708,12 +36978,15 @@
         <v>1.71884591774097</v>
       </c>
       <c r="DU44" t="n">
-        <v>1.93488943488944</v>
+        <v>1.96560196560196</v>
+      </c>
+      <c r="DV44" t="n">
+        <v>2.02998126171143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37085,12 +37358,15 @@
         <v>2.73972602739726</v>
       </c>
       <c r="DU45" t="n">
-        <v>0.684931506849313</v>
+        <v>1.02739726027398</v>
+      </c>
+      <c r="DV45" t="n">
+        <v>2.75862068965516</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -37463,11 +37739,14 @@
       </c>
       <c r="DU46" t="n">
         <v>2.78121137206428</v>
+      </c>
+      <c r="DV46" t="n">
+        <v>-0.0621504039776223</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -37840,11 +38119,14 @@
       </c>
       <c r="DU47" t="n">
         <v>1.59574468085107</v>
+      </c>
+      <c r="DV47" t="n">
+        <v>1.8918918918919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -38216,12 +38498,15 @@
         <v>0.920096852300231</v>
       </c>
       <c r="DU48" t="n">
-        <v>1.21006776379477</v>
+        <v>1.35527589545014</v>
+      </c>
+      <c r="DV48" t="n">
+        <v>1.29805292061907</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38594,11 +38879,14 @@
       </c>
       <c r="DU49" t="n">
         <v>3.0778620629523</v>
+      </c>
+      <c r="DV49" t="n">
+        <v>3.07988450433107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -38971,11 +39259,14 @@
       </c>
       <c r="DU50" t="n">
         <v>2.88461538461539</v>
+      </c>
+      <c r="DV50" t="n">
+        <v>3.04487179487179</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -39348,11 +39639,14 @@
       </c>
       <c r="DU51" t="n">
         <v>4.48717948717949</v>
+      </c>
+      <c r="DV51" t="n">
+        <v>-2.8846153846154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -39724,12 +40018,15 @@
         <v>3.41962288271015</v>
       </c>
       <c r="DU52" t="n">
-        <v>2.7980922098569</v>
+        <v>2.92527821939586</v>
+      </c>
+      <c r="DV52" t="n">
+        <v>2.2121014964216</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -40101,12 +40398,15 @@
         <v>2.55993498577813</v>
       </c>
       <c r="DU53" t="n">
-        <v>2.27088402270884</v>
+        <v>2.23033252230333</v>
+      </c>
+      <c r="DV53" t="n">
+        <v>0.646464646464656</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -40479,11 +40779,14 @@
       </c>
       <c r="DU54" t="n">
         <v>1.13636363636363</v>
+      </c>
+      <c r="DV54" t="n">
+        <v>0.985221674876838</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -40855,12 +41158,15 @@
         <v>3.08731307284128</v>
       </c>
       <c r="DU55" t="n">
-        <v>2.88184438040347</v>
+        <v>2.88184438040346</v>
+      </c>
+      <c r="DV55" t="n">
+        <v>3.72549019607843</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -41232,7 +41538,10 @@
         <v>2.32558139534883</v>
       </c>
       <c r="DU56" t="n">
-        <v>1.66666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="DV56" t="n">
+        <v>2.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1326,13 +1323,10 @@
       <c r="EG4" t="s">
         <v>136</v>
       </c>
-      <c r="EH4" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1737,18 +1731,15 @@
         <v>10787.5</v>
       </c>
       <c r="EF5" t="n">
-        <v>10817.6</v>
+        <v>10819</v>
       </c>
       <c r="EG5" t="n">
-        <v>10830.7</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>10734.3</v>
+        <v>10820.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2156,15 +2147,12 @@
         <v>171.8</v>
       </c>
       <c r="EG6" t="n">
-        <v>171.6</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>171.4</v>
+        <v>171.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2573,14 +2561,11 @@
       </c>
       <c r="EG7" t="n">
         <v>29.1</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>28.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2988,15 +2973,12 @@
         <v>197</v>
       </c>
       <c r="EG8" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>192.6</v>
+        <v>199.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3405,14 +3387,11 @@
       </c>
       <c r="EG9" t="n">
         <v>102.6</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>101.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3821,14 +3800,11 @@
       </c>
       <c r="EG10" t="n">
         <v>1248.8</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>1258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4237,14 +4213,11 @@
       </c>
       <c r="EG11" t="n">
         <v>224.8</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>225.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4652,15 +4625,12 @@
         <v>126.3</v>
       </c>
       <c r="EG12" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>123.2</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5068,15 +5038,12 @@
         <v>38.3</v>
       </c>
       <c r="EG13" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>37.3</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5214,11 +5181,10 @@
       <c r="EE14"/>
       <c r="EF14"/>
       <c r="EG14"/>
-      <c r="EH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5626,15 +5592,12 @@
         <v>489.1</v>
       </c>
       <c r="EG15" t="n">
-        <v>488.9</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>481.1</v>
+        <v>488.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6042,15 +6005,12 @@
         <v>347.2</v>
       </c>
       <c r="EG16" t="n">
-        <v>346.3</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>342.4</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6188,11 +6148,10 @@
       <c r="EE17"/>
       <c r="EF17"/>
       <c r="EG17"/>
-      <c r="EH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6601,14 +6560,11 @@
       </c>
       <c r="EG18" t="n">
         <v>66.5</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>64.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7016,15 +6972,12 @@
         <v>446.1</v>
       </c>
       <c r="EG19" t="n">
-        <v>446</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>444.8</v>
+        <v>445.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7432,15 +7385,12 @@
         <v>229.6</v>
       </c>
       <c r="EG20" t="n">
-        <v>229</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>230.1</v>
+        <v>228.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7848,15 +7798,12 @@
         <v>145.7</v>
       </c>
       <c r="EG21" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>145.5</v>
+        <v>145.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8264,15 +8211,12 @@
         <v>135.9</v>
       </c>
       <c r="EG22" t="n">
-        <v>135.6</v>
-      </c>
-      <c r="EH22" t="n">
-        <v>135.7</v>
+        <v>135.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8680,15 +8624,12 @@
         <v>161.4</v>
       </c>
       <c r="EG23" t="n">
-        <v>161</v>
-      </c>
-      <c r="EH23" t="n">
-        <v>160.7</v>
+        <v>161.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9096,15 +9037,12 @@
         <v>149.3</v>
       </c>
       <c r="EG24" t="n">
-        <v>150.3</v>
-      </c>
-      <c r="EH24" t="n">
-        <v>149.8</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9512,15 +9450,12 @@
         <v>50</v>
       </c>
       <c r="EG25" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="EH25" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9928,15 +9863,12 @@
         <v>220.5</v>
       </c>
       <c r="EG26" t="n">
-        <v>225</v>
-      </c>
-      <c r="EH26" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10344,15 +10276,12 @@
         <v>245.9</v>
       </c>
       <c r="EG27" t="n">
-        <v>245.9</v>
-      </c>
-      <c r="EH27" t="n">
-        <v>245.9</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10760,15 +10689,12 @@
         <v>323.6</v>
       </c>
       <c r="EG28" t="n">
-        <v>324.6</v>
-      </c>
-      <c r="EH28" t="n">
-        <v>307.1</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11176,15 +11102,12 @@
         <v>205.6</v>
       </c>
       <c r="EG29" t="n">
-        <v>205.9</v>
-      </c>
-      <c r="EH29" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11593,14 +11516,11 @@
       </c>
       <c r="EG30" t="n">
         <v>103.5</v>
-      </c>
-      <c r="EH30" t="n">
-        <v>101.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11738,11 +11658,10 @@
       <c r="EE31"/>
       <c r="EF31"/>
       <c r="EG31"/>
-      <c r="EH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12150,15 +12069,12 @@
         <v>43.6</v>
       </c>
       <c r="EG32" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="EH32" t="n">
-        <v>42.6</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12567,14 +12483,11 @@
       </c>
       <c r="EG33" t="n">
         <v>94.7</v>
-      </c>
-      <c r="EH33" t="n">
-        <v>94.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12983,14 +12896,11 @@
       </c>
       <c r="EG34" t="n">
         <v>83.6</v>
-      </c>
-      <c r="EH34" t="n">
-        <v>83.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13398,15 +13308,12 @@
         <v>46</v>
       </c>
       <c r="EG35" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="EH35" t="n">
-        <v>45.5</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13814,15 +13721,12 @@
         <v>312.1</v>
       </c>
       <c r="EG36" t="n">
-        <v>312.6</v>
-      </c>
-      <c r="EH36" t="n">
-        <v>309.9</v>
+        <v>312.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14231,14 +14135,11 @@
       </c>
       <c r="EG37" t="n">
         <v>77.7</v>
-      </c>
-      <c r="EH37" t="n">
-        <v>77.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14646,15 +14547,12 @@
         <v>675.5</v>
       </c>
       <c r="EG38" t="n">
-        <v>676.1</v>
-      </c>
-      <c r="EH38" t="n">
-        <v>672.4</v>
+        <v>676.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15063,14 +14961,11 @@
       </c>
       <c r="EG39" t="n">
         <v>332</v>
-      </c>
-      <c r="EH39" t="n">
-        <v>333.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15478,15 +15373,12 @@
         <v>38.1</v>
       </c>
       <c r="EG40" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="EH40" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15895,14 +15787,11 @@
       </c>
       <c r="EG41" t="n">
         <v>394.4</v>
-      </c>
-      <c r="EH41" t="n">
-        <v>385.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16310,15 +16199,12 @@
         <v>147.2</v>
       </c>
       <c r="EG42" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="EH42" t="n">
-        <v>146.9</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16727,14 +16613,11 @@
       </c>
       <c r="EG43" t="n">
         <v>141.1</v>
-      </c>
-      <c r="EH43" t="n">
-        <v>142.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17142,15 +17025,12 @@
         <v>331.4</v>
       </c>
       <c r="EG44" t="n">
-        <v>332</v>
-      </c>
-      <c r="EH44" t="n">
-        <v>326.7</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17558,15 +17438,12 @@
         <v>30</v>
       </c>
       <c r="EG45" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="EH45" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17975,14 +17852,11 @@
       </c>
       <c r="EG46" t="n">
         <v>166.3</v>
-      </c>
-      <c r="EH46" t="n">
-        <v>160.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18391,14 +18265,11 @@
       </c>
       <c r="EG47" t="n">
         <v>38.2</v>
-      </c>
-      <c r="EH47" t="n">
-        <v>37.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18806,15 +18677,12 @@
         <v>208.4</v>
       </c>
       <c r="EG48" t="n">
-        <v>209.4</v>
-      </c>
-      <c r="EH48" t="n">
-        <v>202.9</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19223,14 +19091,11 @@
       </c>
       <c r="EG49" t="n">
         <v>1182.2</v>
-      </c>
-      <c r="EH49" t="n">
-        <v>1178.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19639,14 +19504,11 @@
       </c>
       <c r="EG50" t="n">
         <v>128.4</v>
-      </c>
-      <c r="EH50" t="n">
-        <v>128.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20055,14 +19917,11 @@
       </c>
       <c r="EG51" t="n">
         <v>32.6</v>
-      </c>
-      <c r="EH51" t="n">
-        <v>30.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20470,15 +20329,12 @@
         <v>323.6</v>
       </c>
       <c r="EG52" t="n">
-        <v>323.7</v>
-      </c>
-      <c r="EH52" t="n">
-        <v>314.2</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20886,15 +20742,12 @@
         <v>252.4</v>
       </c>
       <c r="EG53" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="EH53" t="n">
-        <v>249.1</v>
+        <v>252.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21303,14 +21156,11 @@
       </c>
       <c r="EG54" t="n">
         <v>62.3</v>
-      </c>
-      <c r="EH54" t="n">
-        <v>61.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21719,14 +21569,11 @@
       </c>
       <c r="EG55" t="n">
         <v>214.2</v>
-      </c>
-      <c r="EH55" t="n">
-        <v>211.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22134,10 +21981,7 @@
         <v>30.8</v>
       </c>
       <c r="EG56" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="EH56" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -22530,13 +22374,10 @@
       <c r="DU4" t="s">
         <v>136</v>
       </c>
-      <c r="DV4" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22905,18 +22746,15 @@
         <v>2.45609702817959</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.36765902681833</v>
+        <v>2.38090731873498</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.30767777525883</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>2.49694446566343</v>
+        <v>2.21416156578251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23288,15 +23126,12 @@
         <v>2.20107079119571</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.941176470588232</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0.764256319811848</v>
+        <v>0.999999999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23669,14 +23504,11 @@
       </c>
       <c r="DU7" t="n">
         <v>4.67625899280576</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>5.99250936329586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24048,15 +23880,12 @@
         <v>0.767263427109974</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.83861082737485</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>1.47523709167544</v>
+        <v>1.78753830439224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24429,14 +24258,11 @@
       </c>
       <c r="DU9" t="n">
         <v>0.686947988223738</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>0.594059405940588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24809,14 +24635,11 @@
       </c>
       <c r="DU10" t="n">
         <v>2.94287362954415</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>2.92914416625756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25189,14 +25012,11 @@
       </c>
       <c r="DU11" t="n">
         <v>2.93040293040293</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>3.15500685871058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25568,15 +25388,12 @@
         <v>1.5273311897106</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.402252614641995</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>0.571428571428574</v>
+        <v>0.321802091713601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25948,15 +25765,12 @@
         <v>2.40641711229944</v>
       </c>
       <c r="DU13" t="n">
-        <v>1.05820105820107</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>1.08401084010838</v>
+        <v>2.64550264550265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -26082,11 +25896,10 @@
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
-      <c r="DV14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26458,15 +26271,12 @@
         <v>1.85339441899209</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.76935886761032</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>1.64800338051976</v>
+        <v>1.72772689425479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26838,15 +26648,12 @@
         <v>3.08788598574821</v>
       </c>
       <c r="DU16" t="n">
-        <v>2.82066508313539</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>1.93509973206311</v>
+        <v>2.85035629453681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26972,11 +26779,10 @@
       <c r="DS17"/>
       <c r="DT17"/>
       <c r="DU17"/>
-      <c r="DV17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27349,14 +27155,11 @@
       </c>
       <c r="DU18" t="n">
         <v>7.60517799352751</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>5.73770491803279</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27728,15 +27531,12 @@
         <v>3.76831821353804</v>
       </c>
       <c r="DU19" t="n">
-        <v>3.89005357558816</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>3.973819541842</v>
+        <v>3.8667598416026</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -28108,15 +27908,12 @@
         <v>2.18068535825547</v>
       </c>
       <c r="DU20" t="n">
-        <v>2.18652387327086</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>2.54010695187165</v>
+        <v>2.14190093708165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28488,15 +28285,12 @@
         <v>2.24561403508771</v>
       </c>
       <c r="DU21" t="n">
-        <v>2.23776223776223</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>1.96215837421164</v>
+        <v>1.95804195804197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28868,15 +28662,12 @@
         <v>0.221238938053106</v>
       </c>
       <c r="DU22" t="n">
-        <v>-0.147275405007376</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>0.147601476014752</v>
+        <v>-0.294550810014732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29248,15 +29039,12 @@
         <v>1.31826741996233</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.70562223626026</v>
-      </c>
-      <c r="DV23" t="n">
-        <v>1.64452877925363</v>
+        <v>1.76879343019582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -29628,15 +29416,12 @@
         <v>3.39335180055402</v>
       </c>
       <c r="DU24" t="n">
-        <v>3.29896907216496</v>
-      </c>
-      <c r="DV24" t="n">
-        <v>2.95532646048111</v>
+        <v>3.36769759450172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -30008,15 +29793,12 @@
         <v>0.200400801603209</v>
       </c>
       <c r="DU25" t="n">
-        <v>-1.39720558882235</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>1.22199592668026</v>
+        <v>-1.19760479041916</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30389,14 +30171,11 @@
       </c>
       <c r="DU26" t="n">
         <v>3.3532384014699</v>
-      </c>
-      <c r="DV26" t="n">
-        <v>2.92772186642268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30768,15 +30547,12 @@
         <v>3.44972654606645</v>
       </c>
       <c r="DU27" t="n">
-        <v>3.05951383067894</v>
-      </c>
-      <c r="DV27" t="n">
-        <v>2.8439983270598</v>
+        <v>3.31098072087174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -31148,15 +30924,12 @@
         <v>6.27257799671594</v>
       </c>
       <c r="DU28" t="n">
-        <v>6.07843137254903</v>
-      </c>
-      <c r="DV28" t="n">
-        <v>5.89655172413794</v>
+        <v>5.84967320261437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31528,15 +31301,12 @@
         <v>0.636319138521787</v>
       </c>
       <c r="DU29" t="n">
-        <v>0.292255236239646</v>
-      </c>
-      <c r="DV29" t="n">
-        <v>0.644521566683198</v>
+        <v>0.340964442279585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31909,14 +31679,11 @@
       </c>
       <c r="DU30" t="n">
         <v>1.07421874999999</v>
-      </c>
-      <c r="DV30" t="n">
-        <v>1.09126984126985</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -32042,11 +31809,10 @@
       <c r="DS31"/>
       <c r="DT31"/>
       <c r="DU31"/>
-      <c r="DV31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32418,15 +32184,12 @@
         <v>-1.35746606334842</v>
       </c>
       <c r="DU32" t="n">
-        <v>-1.35746606334842</v>
-      </c>
-      <c r="DV32" t="n">
-        <v>-4.48430493273543</v>
+        <v>-1.58371040723983</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32799,14 +32562,11 @@
       </c>
       <c r="DU33" t="n">
         <v>1.28342245989305</v>
-      </c>
-      <c r="DV33" t="n">
-        <v>1.60599571734474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -33179,14 +32939,11 @@
       </c>
       <c r="DU34" t="n">
         <v>4.36953807740325</v>
-      </c>
-      <c r="DV34" t="n">
-        <v>4.61922596754058</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -33558,15 +33315,12 @@
         <v>0</v>
       </c>
       <c r="DU35" t="n">
-        <v>0.432900432900424</v>
-      </c>
-      <c r="DV35" t="n">
-        <v>0.886917960088689</v>
+        <v>0.216450216450204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33938,15 +33692,12 @@
         <v>1.06865284974094</v>
       </c>
       <c r="DU36" t="n">
-        <v>0.806191551112544</v>
-      </c>
-      <c r="DV36" t="n">
-        <v>1.53997378768022</v>
+        <v>0.838439213157053</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34319,14 +34070,11 @@
       </c>
       <c r="DU37" t="n">
         <v>2.50659630606861</v>
-      </c>
-      <c r="DV37" t="n">
-        <v>3.61930294906167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -34698,15 +34446,12 @@
         <v>3.35067319461444</v>
       </c>
       <c r="DU38" t="n">
-        <v>3.52166590108712</v>
-      </c>
-      <c r="DV38" t="n">
-        <v>3.49392027089425</v>
+        <v>3.56760067370999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -35079,14 +34824,11 @@
       </c>
       <c r="DU39" t="n">
         <v>0.850546780072908</v>
-      </c>
-      <c r="DV39" t="n">
-        <v>0.725733293014827</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35458,15 +35200,12 @@
         <v>0.263157894736846</v>
       </c>
       <c r="DU40" t="n">
-        <v>1.3262599469496</v>
-      </c>
-      <c r="DV40" t="n">
-        <v>1.06100795755968</v>
+        <v>0.795755968169754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35839,14 +35578,11 @@
       </c>
       <c r="DU41" t="n">
         <v>0.0761228114691587</v>
-      </c>
-      <c r="DV41" t="n">
-        <v>-0.926164136866484</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -36218,15 +35954,12 @@
         <v>-1.07526881720432</v>
       </c>
       <c r="DU42" t="n">
-        <v>-1.07166778298729</v>
-      </c>
-      <c r="DV42" t="n">
-        <v>-1.14401076716017</v>
+        <v>-1.20562625586069</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -36599,14 +36332,11 @@
       </c>
       <c r="DU43" t="n">
         <v>4.98511904761906</v>
-      </c>
-      <c r="DV43" t="n">
-        <v>5.47337278106509</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36978,15 +36708,12 @@
         <v>1.71884591774097</v>
       </c>
       <c r="DU44" t="n">
-        <v>1.96560196560196</v>
-      </c>
-      <c r="DV44" t="n">
-        <v>2.02998126171143</v>
+        <v>1.93488943488944</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37358,15 +37085,12 @@
         <v>2.73972602739726</v>
       </c>
       <c r="DU45" t="n">
-        <v>1.02739726027398</v>
-      </c>
-      <c r="DV45" t="n">
-        <v>2.75862068965516</v>
+        <v>0.684931506849313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -37739,14 +37463,11 @@
       </c>
       <c r="DU46" t="n">
         <v>2.78121137206428</v>
-      </c>
-      <c r="DV46" t="n">
-        <v>-0.0621504039776223</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -38119,14 +37840,11 @@
       </c>
       <c r="DU47" t="n">
         <v>1.59574468085107</v>
-      </c>
-      <c r="DV47" t="n">
-        <v>1.8918918918919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -38498,15 +38216,12 @@
         <v>0.920096852300231</v>
       </c>
       <c r="DU48" t="n">
-        <v>1.35527589545014</v>
-      </c>
-      <c r="DV48" t="n">
-        <v>1.29805292061907</v>
+        <v>1.21006776379477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38879,14 +38594,11 @@
       </c>
       <c r="DU49" t="n">
         <v>3.0778620629523</v>
-      </c>
-      <c r="DV49" t="n">
-        <v>3.07988450433107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -39259,14 +38971,11 @@
       </c>
       <c r="DU50" t="n">
         <v>2.88461538461539</v>
-      </c>
-      <c r="DV50" t="n">
-        <v>3.04487179487179</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -39639,14 +39348,11 @@
       </c>
       <c r="DU51" t="n">
         <v>4.48717948717949</v>
-      </c>
-      <c r="DV51" t="n">
-        <v>-2.8846153846154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -40018,15 +39724,12 @@
         <v>3.41962288271015</v>
       </c>
       <c r="DU52" t="n">
-        <v>2.92527821939586</v>
-      </c>
-      <c r="DV52" t="n">
-        <v>2.2121014964216</v>
+        <v>2.7980922098569</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -40398,15 +40101,12 @@
         <v>2.55993498577813</v>
       </c>
       <c r="DU53" t="n">
-        <v>2.23033252230333</v>
-      </c>
-      <c r="DV53" t="n">
-        <v>0.646464646464656</v>
+        <v>2.27088402270884</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -40779,14 +40479,11 @@
       </c>
       <c r="DU54" t="n">
         <v>1.13636363636363</v>
-      </c>
-      <c r="DV54" t="n">
-        <v>0.985221674876838</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -41158,15 +40855,12 @@
         <v>3.08731307284128</v>
       </c>
       <c r="DU55" t="n">
-        <v>2.88184438040346</v>
-      </c>
-      <c r="DV55" t="n">
-        <v>3.72549019607843</v>
+        <v>2.88184438040347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -41538,10 +41232,7 @@
         <v>2.32558139534883</v>
       </c>
       <c r="DU56" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV56" t="n">
-        <v>2.33333333333333</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1323,10 +1329,16 @@
       <c r="EG4" t="s">
         <v>136</v>
       </c>
+      <c r="EH4" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1731,15 +1743,21 @@
         <v>10787.5</v>
       </c>
       <c r="EF5" t="n">
-        <v>10819</v>
+        <v>10817.6</v>
       </c>
       <c r="EG5" t="n">
-        <v>10820.8</v>
+        <v>10826.6</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>10719.1</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>10154.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2147,12 +2165,18 @@
         <v>171.8</v>
       </c>
       <c r="EG6" t="n">
-        <v>171.7</v>
+        <v>171.6</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>169.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2561,11 +2585,17 @@
       </c>
       <c r="EG7" t="n">
         <v>29.1</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2973,12 +3003,18 @@
         <v>197</v>
       </c>
       <c r="EG8" t="n">
-        <v>199.3</v>
+        <v>199.4</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>152.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3387,11 +3423,17 @@
       </c>
       <c r="EG9" t="n">
         <v>102.6</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>93.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3800,11 +3842,17 @@
       </c>
       <c r="EG10" t="n">
         <v>1248.8</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>1255.9</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>1233.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4213,11 +4261,17 @@
       </c>
       <c r="EG11" t="n">
         <v>224.8</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>211.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4625,12 +4679,18 @@
         <v>126.3</v>
       </c>
       <c r="EG12" t="n">
-        <v>124.7</v>
+        <v>124.8</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>123</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>113.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5038,12 +5098,18 @@
         <v>38.3</v>
       </c>
       <c r="EG13" t="n">
-        <v>38.8</v>
+        <v>38.2</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5181,10 +5247,12 @@
       <c r="EE14"/>
       <c r="EF14"/>
       <c r="EG14"/>
+      <c r="EH14"/>
+      <c r="EI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5592,12 +5660,18 @@
         <v>489.1</v>
       </c>
       <c r="EG15" t="n">
-        <v>488.7</v>
+        <v>488.9</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>480.4</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>399.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6005,12 +6079,18 @@
         <v>347.2</v>
       </c>
       <c r="EG16" t="n">
-        <v>346.4</v>
+        <v>346.3</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>335.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6148,10 +6228,12 @@
       <c r="EE17"/>
       <c r="EF17"/>
       <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6560,11 +6642,17 @@
       </c>
       <c r="EG18" t="n">
         <v>66.5</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6972,12 +7060,18 @@
         <v>446.1</v>
       </c>
       <c r="EG19" t="n">
-        <v>445.9</v>
+        <v>446</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>445</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>410.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7385,12 +7479,18 @@
         <v>229.6</v>
       </c>
       <c r="EG20" t="n">
-        <v>228.9</v>
+        <v>229</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>185.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7798,12 +7898,18 @@
         <v>145.7</v>
       </c>
       <c r="EG21" t="n">
-        <v>145.8</v>
+        <v>146.2</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>133.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8211,12 +8317,18 @@
         <v>135.9</v>
       </c>
       <c r="EG22" t="n">
-        <v>135.4</v>
+        <v>135.6</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>120.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8624,12 +8736,18 @@
         <v>161.4</v>
       </c>
       <c r="EG23" t="n">
-        <v>161.1</v>
+        <v>161</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>151.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9037,12 +9155,18 @@
         <v>149.3</v>
       </c>
       <c r="EG24" t="n">
-        <v>150.4</v>
+        <v>150.3</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>149</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>138.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9450,12 +9574,18 @@
         <v>50</v>
       </c>
       <c r="EG25" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>47.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9864,11 +9994,17 @@
       </c>
       <c r="EG26" t="n">
         <v>225</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>209.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10276,12 +10412,18 @@
         <v>245.9</v>
       </c>
       <c r="EG27" t="n">
-        <v>246.5</v>
+        <v>245.9</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>239.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10689,12 +10831,18 @@
         <v>323.6</v>
       </c>
       <c r="EG28" t="n">
-        <v>323.9</v>
+        <v>324.6</v>
+      </c>
+      <c r="EH28" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="EI28" t="n">
+        <v>291.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11102,12 +11250,18 @@
         <v>205.6</v>
       </c>
       <c r="EG29" t="n">
-        <v>206</v>
+        <v>205.9</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>203</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>198.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11516,11 +11670,17 @@
       </c>
       <c r="EG30" t="n">
         <v>103.5</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="EI30" t="n">
+        <v>98.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11658,10 +11818,12 @@
       <c r="EE31"/>
       <c r="EF31"/>
       <c r="EG31"/>
+      <c r="EH31"/>
+      <c r="EI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12069,12 +12231,18 @@
         <v>43.6</v>
       </c>
       <c r="EG32" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12483,11 +12651,17 @@
       </c>
       <c r="EG33" t="n">
         <v>94.7</v>
+      </c>
+      <c r="EH33" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="EI33" t="n">
+        <v>91.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12896,11 +13070,17 @@
       </c>
       <c r="EG34" t="n">
         <v>83.6</v>
+      </c>
+      <c r="EH34" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="EI34" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13308,12 +13488,18 @@
         <v>46</v>
       </c>
       <c r="EG35" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
+      </c>
+      <c r="EH35" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="EI35" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13721,12 +13907,18 @@
         <v>312.1</v>
       </c>
       <c r="EG36" t="n">
-        <v>312.7</v>
+        <v>312.6</v>
+      </c>
+      <c r="EH36" t="n">
+        <v>310</v>
+      </c>
+      <c r="EI36" t="n">
+        <v>304.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14135,11 +14327,17 @@
       </c>
       <c r="EG37" t="n">
         <v>77.7</v>
+      </c>
+      <c r="EH37" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="EI37" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14547,12 +14745,18 @@
         <v>675.5</v>
       </c>
       <c r="EG38" t="n">
-        <v>676.4</v>
+        <v>676.1</v>
+      </c>
+      <c r="EH38" t="n">
+        <v>672.4</v>
+      </c>
+      <c r="EI38" t="n">
+        <v>661.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14961,11 +15165,17 @@
       </c>
       <c r="EG39" t="n">
         <v>332</v>
+      </c>
+      <c r="EH39" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="EI39" t="n">
+        <v>293.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15373,12 +15583,18 @@
         <v>38.1</v>
       </c>
       <c r="EG40" t="n">
-        <v>38</v>
+        <v>38.2</v>
+      </c>
+      <c r="EH40" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="EI40" t="n">
+        <v>32.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15787,11 +16003,17 @@
       </c>
       <c r="EG41" t="n">
         <v>394.4</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="EI41" t="n">
+        <v>354.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16199,12 +16421,18 @@
         <v>147.2</v>
       </c>
       <c r="EG42" t="n">
-        <v>147.5</v>
+        <v>147.7</v>
+      </c>
+      <c r="EH42" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="EI42" t="n">
+        <v>133.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16613,11 +16841,17 @@
       </c>
       <c r="EG43" t="n">
         <v>141.1</v>
+      </c>
+      <c r="EH43" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="EI43" t="n">
+        <v>142.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17025,12 +17259,18 @@
         <v>331.4</v>
       </c>
       <c r="EG44" t="n">
-        <v>331.9</v>
+        <v>332</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="EI44" t="n">
+        <v>303.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17438,12 +17678,18 @@
         <v>30</v>
       </c>
       <c r="EG45" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
+      </c>
+      <c r="EH45" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="EI45" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17852,11 +18098,17 @@
       </c>
       <c r="EG46" t="n">
         <v>166.3</v>
+      </c>
+      <c r="EH46" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="EI46" t="n">
+        <v>155.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18265,11 +18517,17 @@
       </c>
       <c r="EG47" t="n">
         <v>38.2</v>
+      </c>
+      <c r="EH47" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="EI47" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18677,12 +18935,18 @@
         <v>208.4</v>
       </c>
       <c r="EG48" t="n">
-        <v>209.1</v>
+        <v>209.4</v>
+      </c>
+      <c r="EH48" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="EI48" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19091,11 +19355,17 @@
       </c>
       <c r="EG49" t="n">
         <v>1182.2</v>
+      </c>
+      <c r="EH49" t="n">
+        <v>1178.1</v>
+      </c>
+      <c r="EI49" t="n">
+        <v>1132.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19504,11 +19774,17 @@
       </c>
       <c r="EG50" t="n">
         <v>128.4</v>
+      </c>
+      <c r="EH50" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="EI50" t="n">
+        <v>119.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19917,11 +20193,17 @@
       </c>
       <c r="EG51" t="n">
         <v>32.6</v>
+      </c>
+      <c r="EH51" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="EI51" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20329,12 +20611,18 @@
         <v>323.6</v>
       </c>
       <c r="EG52" t="n">
-        <v>323.3</v>
+        <v>323.7</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="EI52" t="n">
+        <v>305.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20742,12 +21030,18 @@
         <v>252.4</v>
       </c>
       <c r="EG53" t="n">
-        <v>252.2</v>
+        <v>252.1</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="EI53" t="n">
+        <v>247.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21156,11 +21450,17 @@
       </c>
       <c r="EG54" t="n">
         <v>62.3</v>
+      </c>
+      <c r="EH54" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="EI54" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21569,11 +21869,17 @@
       </c>
       <c r="EG55" t="n">
         <v>214.2</v>
+      </c>
+      <c r="EH55" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="EI55" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21981,7 +22287,13 @@
         <v>30.8</v>
       </c>
       <c r="EG56" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="EI56" t="n">
+        <v>28.2</v>
       </c>
     </row>
   </sheetData>
@@ -22374,10 +22686,16 @@
       <c r="DU4" t="s">
         <v>136</v>
       </c>
+      <c r="DV4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22746,15 +23064,21 @@
         <v>2.45609702817959</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.38090731873498</v>
+        <v>2.36765902681833</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.21416156578251</v>
+        <v>2.26894884002117</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>2.35180658467651</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>2.82199270959904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23126,12 +23450,18 @@
         <v>2.20107079119571</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.999999999999993</v>
+        <v>0.941176470588232</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0.823045267489698</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0.832342449464926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23504,11 +23834,17 @@
       </c>
       <c r="DU7" t="n">
         <v>4.67625899280576</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>5.99250936329586</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>14.5454545454546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -23880,12 +24216,18 @@
         <v>0.767263427109974</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.78753830439224</v>
+        <v>1.83861082737485</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>1.94942044257112</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>1.39906728847435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24258,11 +24600,17 @@
       </c>
       <c r="DU9" t="n">
         <v>0.686947988223738</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.594059405940588</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0.755124056094948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24635,11 +24983,17 @@
       </c>
       <c r="DU10" t="n">
         <v>2.94287362954415</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>2.75732286041565</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>2.61253016057909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25012,11 +25366,17 @@
       </c>
       <c r="DU11" t="n">
         <v>2.93040293040293</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>3.15500685871058</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>3.3757338551859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25388,12 +25748,18 @@
         <v>1.5273311897106</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.321802091713601</v>
+        <v>0.402252614641995</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0.408163265306122</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>1.79372197309417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25765,12 +26131,18 @@
         <v>2.40641711229944</v>
       </c>
       <c r="DU13" t="n">
-        <v>2.64550264550265</v>
+        <v>1.05820105820107</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>1.89701897018969</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>2.00000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -25896,10 +26268,12 @@
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26271,12 +26645,18 @@
         <v>1.85339441899209</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.72772689425479</v>
+        <v>1.76935886761032</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>1.50010564124233</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>1.91473066122032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26648,12 +27028,18 @@
         <v>3.08788598574821</v>
       </c>
       <c r="DU16" t="n">
-        <v>2.85035629453681</v>
+        <v>2.82066508313539</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>2.02441202738911</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>3.45785736338377</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26779,10 +27165,12 @@
       <c r="DS17"/>
       <c r="DT17"/>
       <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27155,11 +27543,17 @@
       </c>
       <c r="DU18" t="n">
         <v>7.60517799352751</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>5.73770491803279</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>4.81927710843374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27531,12 +27925,18 @@
         <v>3.76831821353804</v>
       </c>
       <c r="DU19" t="n">
-        <v>3.8667598416026</v>
+        <v>3.89005357558816</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>4.02057035998131</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>4.1085467917829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -27908,12 +28308,18 @@
         <v>2.18068535825547</v>
       </c>
       <c r="DU20" t="n">
-        <v>2.14190093708165</v>
+        <v>2.18652387327086</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>2.27272727272727</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>-3.0890052356021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28285,12 +28691,18 @@
         <v>2.24561403508771</v>
       </c>
       <c r="DU21" t="n">
-        <v>1.95804195804197</v>
+        <v>2.23776223776223</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>1.89208128941837</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>1.67046317388004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28662,12 +29074,18 @@
         <v>0.221238938053106</v>
       </c>
       <c r="DU22" t="n">
-        <v>-0.294550810014732</v>
+        <v>-0.147275405007376</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>-0.147601476014773</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>-0.331674958540623</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29039,12 +29457,18 @@
         <v>1.31826741996233</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.76879343019582</v>
+        <v>1.70562223626026</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>1.64452877925363</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>1.75084175084175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -29416,12 +29840,18 @@
         <v>3.39335180055402</v>
       </c>
       <c r="DU24" t="n">
-        <v>3.36769759450172</v>
+        <v>3.29896907216496</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>2.40549828178694</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>3.19465081723624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -29793,12 +30223,18 @@
         <v>0.200400801603209</v>
       </c>
       <c r="DU25" t="n">
-        <v>-1.19760479041916</v>
+        <v>-1.39720558882235</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>1.22199592668026</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0.421940928270033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30171,11 +30607,17 @@
       </c>
       <c r="DU26" t="n">
         <v>3.3532384014699</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>3.01921317474838</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>2.04379562043796</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30547,12 +30989,18 @@
         <v>3.44972654606645</v>
       </c>
       <c r="DU27" t="n">
-        <v>3.31098072087174</v>
+        <v>3.05951383067894</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>2.50941028858217</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>2.22222222222222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -30924,12 +31372,18 @@
         <v>6.27257799671594</v>
       </c>
       <c r="DU28" t="n">
-        <v>5.84967320261437</v>
+        <v>6.07843137254903</v>
+      </c>
+      <c r="DV28" t="n">
+        <v>6.24137931034484</v>
+      </c>
+      <c r="DW28" t="n">
+        <v>5.6842867487328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31301,12 +31755,18 @@
         <v>0.636319138521787</v>
       </c>
       <c r="DU29" t="n">
-        <v>0.340964442279585</v>
+        <v>0.292255236239646</v>
+      </c>
+      <c r="DV29" t="n">
+        <v>0.644521566683198</v>
+      </c>
+      <c r="DW29" t="n">
+        <v>1.27811860940695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31679,11 +32139,17 @@
       </c>
       <c r="DU30" t="n">
         <v>1.07421874999999</v>
+      </c>
+      <c r="DV30" t="n">
+        <v>1.09126984126985</v>
+      </c>
+      <c r="DW30" t="n">
+        <v>1.54479917610711</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -31809,10 +32275,12 @@
       <c r="DS31"/>
       <c r="DT31"/>
       <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32184,12 +32652,18 @@
         <v>-1.35746606334842</v>
       </c>
       <c r="DU32" t="n">
-        <v>-1.58371040723983</v>
+        <v>-1.35746606334842</v>
+      </c>
+      <c r="DV32" t="n">
+        <v>-4.26008968609865</v>
+      </c>
+      <c r="DW32" t="n">
+        <v>-6.9047619047619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32562,11 +33036,17 @@
       </c>
       <c r="DU33" t="n">
         <v>1.28342245989305</v>
+      </c>
+      <c r="DV33" t="n">
+        <v>1.39186295503212</v>
+      </c>
+      <c r="DW33" t="n">
+        <v>3.6405005688282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -32939,11 +33419,17 @@
       </c>
       <c r="DU34" t="n">
         <v>4.36953807740325</v>
+      </c>
+      <c r="DV34" t="n">
+        <v>4.74406991260925</v>
+      </c>
+      <c r="DW34" t="n">
+        <v>7.74647887323944</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -33315,12 +33801,18 @@
         <v>0</v>
       </c>
       <c r="DU35" t="n">
-        <v>0.216450216450204</v>
+        <v>0.432900432900424</v>
+      </c>
+      <c r="DV35" t="n">
+        <v>0.886917960088689</v>
+      </c>
+      <c r="DW35" t="n">
+        <v>-0.51282051282052</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33692,12 +34184,18 @@
         <v>1.06865284974094</v>
       </c>
       <c r="DU36" t="n">
-        <v>0.838439213157053</v>
+        <v>0.806191551112544</v>
+      </c>
+      <c r="DV36" t="n">
+        <v>1.57273918741809</v>
+      </c>
+      <c r="DW36" t="n">
+        <v>0.99535500995355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34070,11 +34568,17 @@
       </c>
       <c r="DU37" t="n">
         <v>2.50659630606861</v>
+      </c>
+      <c r="DV37" t="n">
+        <v>3.35120643431635</v>
+      </c>
+      <c r="DW37" t="n">
+        <v>14.3081761006289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -34446,12 +34950,18 @@
         <v>3.35067319461444</v>
       </c>
       <c r="DU38" t="n">
-        <v>3.56760067370999</v>
+        <v>3.52166590108712</v>
+      </c>
+      <c r="DV38" t="n">
+        <v>3.49392027089425</v>
+      </c>
+      <c r="DW38" t="n">
+        <v>3.57086922474551</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -34824,11 +35334,17 @@
       </c>
       <c r="DU39" t="n">
         <v>0.850546780072908</v>
+      </c>
+      <c r="DV39" t="n">
+        <v>0.725733293014827</v>
+      </c>
+      <c r="DW39" t="n">
+        <v>0.789022298456265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35200,12 +35716,18 @@
         <v>0.263157894736846</v>
       </c>
       <c r="DU40" t="n">
-        <v>0.795755968169754</v>
+        <v>1.3262599469496</v>
+      </c>
+      <c r="DV40" t="n">
+        <v>0.530503978779829</v>
+      </c>
+      <c r="DW40" t="n">
+        <v>-2.40240240240239</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35578,11 +36100,17 @@
       </c>
       <c r="DU41" t="n">
         <v>0.0761228114691587</v>
+      </c>
+      <c r="DV41" t="n">
+        <v>-0.874710573707223</v>
+      </c>
+      <c r="DW41" t="n">
+        <v>-0.393590104020251</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -35954,12 +36482,18 @@
         <v>-1.07526881720432</v>
       </c>
       <c r="DU42" t="n">
-        <v>-1.20562625586069</v>
+        <v>-1.07166778298729</v>
+      </c>
+      <c r="DV42" t="n">
+        <v>-1.21130551816957</v>
+      </c>
+      <c r="DW42" t="n">
+        <v>0.830188679245279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -36332,11 +36866,17 @@
       </c>
       <c r="DU43" t="n">
         <v>4.98511904761906</v>
+      </c>
+      <c r="DV43" t="n">
+        <v>5.17751479289943</v>
+      </c>
+      <c r="DW43" t="n">
+        <v>7.57002271006813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36708,12 +37248,18 @@
         <v>1.71884591774097</v>
       </c>
       <c r="DU44" t="n">
-        <v>1.93488943488944</v>
+        <v>1.96560196560196</v>
+      </c>
+      <c r="DV44" t="n">
+        <v>2.02998126171143</v>
+      </c>
+      <c r="DW44" t="n">
+        <v>1.40468227424749</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37085,12 +37631,18 @@
         <v>2.73972602739726</v>
       </c>
       <c r="DU45" t="n">
-        <v>0.684931506849313</v>
+        <v>1.02739726027398</v>
+      </c>
+      <c r="DV45" t="n">
+        <v>2.75862068965516</v>
+      </c>
+      <c r="DW45" t="n">
+        <v>2.23048327137547</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -37463,11 +38015,17 @@
       </c>
       <c r="DU46" t="n">
         <v>2.78121137206428</v>
+      </c>
+      <c r="DV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW46" t="n">
+        <v>0.0643500643500607</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -37840,11 +38398,17 @@
       </c>
       <c r="DU47" t="n">
         <v>1.59574468085107</v>
+      </c>
+      <c r="DV47" t="n">
+        <v>1.8918918918919</v>
+      </c>
+      <c r="DW47" t="n">
+        <v>2.40240240240242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -38216,12 +38780,18 @@
         <v>0.920096852300231</v>
       </c>
       <c r="DU48" t="n">
-        <v>1.21006776379477</v>
+        <v>1.35527589545014</v>
+      </c>
+      <c r="DV48" t="n">
+        <v>2.74588117823265</v>
+      </c>
+      <c r="DW48" t="n">
+        <v>1.2526096033403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38594,11 +39164,17 @@
       </c>
       <c r="DU49" t="n">
         <v>3.0778620629523</v>
+      </c>
+      <c r="DV49" t="n">
+        <v>3.07988450433107</v>
+      </c>
+      <c r="DW49" t="n">
+        <v>2.24729241877257</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -38971,11 +39547,17 @@
       </c>
       <c r="DU50" t="n">
         <v>2.88461538461539</v>
+      </c>
+      <c r="DV50" t="n">
+        <v>3.04487179487179</v>
+      </c>
+      <c r="DW50" t="n">
+        <v>3.10880829015544</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -39348,11 +39930,17 @@
       </c>
       <c r="DU51" t="n">
         <v>4.48717948717949</v>
+      </c>
+      <c r="DV51" t="n">
+        <v>-5.12820512820513</v>
+      </c>
+      <c r="DW51" t="n">
+        <v>7.72058823529411</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -39724,12 +40312,18 @@
         <v>3.41962288271015</v>
       </c>
       <c r="DU52" t="n">
-        <v>2.7980922098569</v>
+        <v>2.92527821939586</v>
+      </c>
+      <c r="DV52" t="n">
+        <v>2.01691607026677</v>
+      </c>
+      <c r="DW52" t="n">
+        <v>2.24080267558528</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -40101,12 +40695,18 @@
         <v>2.55993498577813</v>
       </c>
       <c r="DU53" t="n">
-        <v>2.27088402270884</v>
+        <v>2.23033252230333</v>
+      </c>
+      <c r="DV53" t="n">
+        <v>2.10101010101011</v>
+      </c>
+      <c r="DW53" t="n">
+        <v>2.48550124275062</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -40479,11 +41079,17 @@
       </c>
       <c r="DU54" t="n">
         <v>1.13636363636363</v>
+      </c>
+      <c r="DV54" t="n">
+        <v>1.14942528735631</v>
+      </c>
+      <c r="DW54" t="n">
+        <v>-0.17825311942958</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -40855,12 +41461,18 @@
         <v>3.08731307284128</v>
       </c>
       <c r="DU55" t="n">
-        <v>2.88184438040347</v>
+        <v>2.88184438040346</v>
+      </c>
+      <c r="DV55" t="n">
+        <v>3.62745098039216</v>
+      </c>
+      <c r="DW55" t="n">
+        <v>2.46781115879828</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -41232,7 +41844,13 @@
         <v>2.32558139534883</v>
       </c>
       <c r="DU56" t="n">
-        <v>1.66666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="DV56" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="DW56" t="n">
+        <v>3.2967032967033</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1323,10 +1332,19 @@
       <c r="EG4" t="s">
         <v>136</v>
       </c>
+      <c r="EH4" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1731,15 +1749,24 @@
         <v>10787.5</v>
       </c>
       <c r="EF5" t="n">
-        <v>10819</v>
+        <v>10817.6</v>
       </c>
       <c r="EG5" t="n">
-        <v>10820.8</v>
+        <v>10826.6</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>10720.3</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>10139.8</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>9046.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2147,12 +2174,21 @@
         <v>171.8</v>
       </c>
       <c r="EG6" t="n">
-        <v>171.7</v>
+        <v>171.6</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>160.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2561,11 +2597,20 @@
       </c>
       <c r="EG7" t="n">
         <v>29.1</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -2973,12 +3018,21 @@
         <v>197</v>
       </c>
       <c r="EG8" t="n">
-        <v>199.3</v>
+        <v>199.4</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>151.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3387,11 +3441,20 @@
       </c>
       <c r="EG9" t="n">
         <v>102.6</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>82.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3800,11 +3863,20 @@
       </c>
       <c r="EG10" t="n">
         <v>1248.8</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>1255.9</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>1234.6</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>1074.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4213,11 +4285,20 @@
       </c>
       <c r="EG11" t="n">
         <v>224.8</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4625,12 +4706,21 @@
         <v>126.3</v>
       </c>
       <c r="EG12" t="n">
-        <v>124.7</v>
+        <v>124.8</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>123</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>96.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5038,12 +5128,21 @@
         <v>38.3</v>
       </c>
       <c r="EG13" t="n">
-        <v>38.8</v>
+        <v>38.2</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5181,10 +5280,13 @@
       <c r="EE14"/>
       <c r="EF14"/>
       <c r="EG14"/>
+      <c r="EH14"/>
+      <c r="EI14"/>
+      <c r="EJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5592,12 +5694,21 @@
         <v>489.1</v>
       </c>
       <c r="EG15" t="n">
-        <v>488.7</v>
+        <v>488.9</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>480.4</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6005,12 +6116,21 @@
         <v>347.2</v>
       </c>
       <c r="EG16" t="n">
-        <v>346.4</v>
+        <v>346.3</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>335.3</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6148,10 +6268,13 @@
       <c r="EE17"/>
       <c r="EF17"/>
       <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6560,11 +6683,20 @@
       </c>
       <c r="EG18" t="n">
         <v>66.5</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>54.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -6972,12 +7104,21 @@
         <v>446.1</v>
       </c>
       <c r="EG19" t="n">
-        <v>445.9</v>
+        <v>446</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>445</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>408.7</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>380.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7385,12 +7526,21 @@
         <v>229.6</v>
       </c>
       <c r="EG20" t="n">
-        <v>228.9</v>
+        <v>229</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>167.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7798,12 +7948,21 @@
         <v>145.7</v>
       </c>
       <c r="EG21" t="n">
-        <v>145.8</v>
+        <v>146.2</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>114.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8211,12 +8370,21 @@
         <v>135.9</v>
       </c>
       <c r="EG22" t="n">
-        <v>135.4</v>
+        <v>135.6</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8624,12 +8792,21 @@
         <v>161.4</v>
       </c>
       <c r="EG23" t="n">
-        <v>161.1</v>
+        <v>161</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>126.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9037,12 +9214,21 @@
         <v>149.3</v>
       </c>
       <c r="EG24" t="n">
-        <v>150.4</v>
+        <v>150.3</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>149</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>131.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9450,12 +9636,21 @@
         <v>50</v>
       </c>
       <c r="EG25" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -9864,11 +10059,20 @@
       </c>
       <c r="EG26" t="n">
         <v>225</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>196.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10276,12 +10480,21 @@
         <v>245.9</v>
       </c>
       <c r="EG27" t="n">
-        <v>246.5</v>
+        <v>245.9</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>239.7</v>
+      </c>
+      <c r="EJ27" t="n">
+        <v>212.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10689,12 +10902,21 @@
         <v>323.6</v>
       </c>
       <c r="EG28" t="n">
-        <v>323.9</v>
+        <v>324.6</v>
+      </c>
+      <c r="EH28" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="EI28" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="EJ28" t="n">
+        <v>263.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11102,12 +11324,21 @@
         <v>205.6</v>
       </c>
       <c r="EG29" t="n">
-        <v>206</v>
+        <v>205.9</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>203</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="EJ29" t="n">
+        <v>167.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11516,11 +11747,20 @@
       </c>
       <c r="EG30" t="n">
         <v>103.5</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="EI30" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="EJ30" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11658,10 +11898,13 @@
       <c r="EE31"/>
       <c r="EF31"/>
       <c r="EG31"/>
+      <c r="EH31"/>
+      <c r="EI31"/>
+      <c r="EJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12069,12 +12312,21 @@
         <v>43.6</v>
       </c>
       <c r="EG32" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12483,11 +12735,20 @@
       </c>
       <c r="EG33" t="n">
         <v>94.7</v>
+      </c>
+      <c r="EH33" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="EI33" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="EJ33" t="n">
+        <v>78.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -12896,11 +13157,20 @@
       </c>
       <c r="EG34" t="n">
         <v>83.6</v>
+      </c>
+      <c r="EH34" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="EI34" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="EJ34" t="n">
+        <v>70.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13308,12 +13578,21 @@
         <v>46</v>
       </c>
       <c r="EG35" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
+      </c>
+      <c r="EH35" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="EI35" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="EJ35" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13721,12 +14000,21 @@
         <v>312.1</v>
       </c>
       <c r="EG36" t="n">
-        <v>312.7</v>
+        <v>312.6</v>
+      </c>
+      <c r="EH36" t="n">
+        <v>310</v>
+      </c>
+      <c r="EI36" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="EJ36" t="n">
+        <v>257.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14135,11 +14423,20 @@
       </c>
       <c r="EG37" t="n">
         <v>77.7</v>
+      </c>
+      <c r="EH37" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="EI37" t="n">
+        <v>71</v>
+      </c>
+      <c r="EJ37" t="n">
+        <v>65.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14547,12 +14844,21 @@
         <v>675.5</v>
       </c>
       <c r="EG38" t="n">
-        <v>676.4</v>
+        <v>676.1</v>
+      </c>
+      <c r="EH38" t="n">
+        <v>672.4</v>
+      </c>
+      <c r="EI38" t="n">
+        <v>659.8</v>
+      </c>
+      <c r="EJ38" t="n">
+        <v>538.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -14961,11 +15267,20 @@
       </c>
       <c r="EG39" t="n">
         <v>332</v>
+      </c>
+      <c r="EH39" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="EI39" t="n">
+        <v>293.8</v>
+      </c>
+      <c r="EJ39" t="n">
+        <v>237.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15373,12 +15688,21 @@
         <v>38.1</v>
       </c>
       <c r="EG40" t="n">
-        <v>38</v>
+        <v>38.2</v>
+      </c>
+      <c r="EH40" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="EI40" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="EJ40" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -15787,11 +16111,20 @@
       </c>
       <c r="EG41" t="n">
         <v>394.4</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="EI41" t="n">
+        <v>357.7</v>
+      </c>
+      <c r="EJ41" t="n">
+        <v>348.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16199,12 +16532,21 @@
         <v>147.2</v>
       </c>
       <c r="EG42" t="n">
-        <v>147.5</v>
+        <v>147.7</v>
+      </c>
+      <c r="EH42" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="EI42" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="EJ42" t="n">
+        <v>125.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16613,11 +16955,20 @@
       </c>
       <c r="EG43" t="n">
         <v>141.1</v>
+      </c>
+      <c r="EH43" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="EI43" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="EJ43" t="n">
+        <v>111.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17025,12 +17376,21 @@
         <v>331.4</v>
       </c>
       <c r="EG44" t="n">
-        <v>331.9</v>
+        <v>332</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="EI44" t="n">
+        <v>302.2</v>
+      </c>
+      <c r="EJ44" t="n">
+        <v>271.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17438,12 +17798,21 @@
         <v>30</v>
       </c>
       <c r="EG45" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
+      </c>
+      <c r="EH45" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="EI45" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="EJ45" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -17852,11 +18221,20 @@
       </c>
       <c r="EG46" t="n">
         <v>166.3</v>
+      </c>
+      <c r="EH46" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="EI46" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="EJ46" t="n">
+        <v>147.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18265,11 +18643,20 @@
       </c>
       <c r="EG47" t="n">
         <v>38.2</v>
+      </c>
+      <c r="EH47" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="EI47" t="n">
+        <v>34</v>
+      </c>
+      <c r="EJ47" t="n">
+        <v>28.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18677,12 +19064,21 @@
         <v>208.4</v>
       </c>
       <c r="EG48" t="n">
-        <v>209.1</v>
+        <v>209.4</v>
+      </c>
+      <c r="EH48" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="EI48" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="EJ48" t="n">
+        <v>168.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19091,11 +19487,20 @@
       </c>
       <c r="EG49" t="n">
         <v>1182.2</v>
+      </c>
+      <c r="EH49" t="n">
+        <v>1178.1</v>
+      </c>
+      <c r="EI49" t="n">
+        <v>1133.6</v>
+      </c>
+      <c r="EJ49" t="n">
+        <v>1061</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19504,11 +19909,20 @@
       </c>
       <c r="EG50" t="n">
         <v>128.4</v>
+      </c>
+      <c r="EH50" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="EI50" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="EJ50" t="n">
+        <v>107.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -19917,11 +20331,20 @@
       </c>
       <c r="EG51" t="n">
         <v>32.6</v>
+      </c>
+      <c r="EH51" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="EI51" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="EJ51" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20329,12 +20752,21 @@
         <v>323.6</v>
       </c>
       <c r="EG52" t="n">
-        <v>323.3</v>
+        <v>323.7</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="EI52" t="n">
+        <v>305.8</v>
+      </c>
+      <c r="EJ52" t="n">
+        <v>273.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -20742,12 +21174,21 @@
         <v>252.4</v>
       </c>
       <c r="EG53" t="n">
-        <v>252.2</v>
+        <v>252.1</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="EI53" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="EJ53" t="n">
+        <v>230.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21156,11 +21597,20 @@
       </c>
       <c r="EG54" t="n">
         <v>62.3</v>
+      </c>
+      <c r="EH54" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="EI54" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="EJ54" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21569,11 +22019,20 @@
       </c>
       <c r="EG55" t="n">
         <v>214.2</v>
+      </c>
+      <c r="EH55" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="EI55" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="EJ55" t="n">
+        <v>168.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -21981,7 +22440,16 @@
         <v>30.8</v>
       </c>
       <c r="EG56" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="EI56" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="EJ56" t="n">
+        <v>24.1</v>
       </c>
     </row>
   </sheetData>
@@ -22374,10 +22842,19 @@
       <c r="DU4" t="s">
         <v>136</v>
       </c>
+      <c r="DV4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>138</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -22746,15 +23223,24 @@
         <v>2.45609702817959</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.38090731873498</v>
+        <v>2.36765902681833</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.21416156578251</v>
+        <v>2.26894884002117</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>2.36326483843862</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>2.67112191170514</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>1.785573645068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23126,12 +23612,21 @@
         <v>2.20107079119571</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.999999999999993</v>
+        <v>0.941176470588232</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0.823045267489698</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0.594530321046373</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0.06222775357811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23504,11 +23999,20 @@
       </c>
       <c r="DU7" t="n">
         <v>4.67625899280576</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>5.99250936329586</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>4.09090909090908</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>2.11640211640213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -23880,12 +24384,21 @@
         <v>0.767263427109974</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.78753830439224</v>
+        <v>1.83861082737485</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>1.94942044257112</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>1.73217854763491</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>3.47411444141689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24258,11 +24771,20 @@
       </c>
       <c r="DU9" t="n">
         <v>0.686947988223738</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.594059405940588</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0.755124056094948</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.611995104039185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24635,11 +25157,20 @@
       </c>
       <c r="DU10" t="n">
         <v>2.94287362954415</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>2.75732286041565</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>2.72069223729094</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>3.08932169241102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25012,11 +25543,20 @@
       </c>
       <c r="DU11" t="n">
         <v>2.93040293040293</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>3.15500685871058</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>3.32681017612524</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>5.74342458400429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25388,12 +25928,21 @@
         <v>1.5273311897106</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.321802091713601</v>
+        <v>0.402252614641995</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0.408163265306122</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>2.42152466367713</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>-0.309278350515461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -25765,12 +26314,21 @@
         <v>2.40641711229944</v>
       </c>
       <c r="DU13" t="n">
-        <v>2.64550264550265</v>
+        <v>1.05820105820107</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>1.89701897018969</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0.57142857142858</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>0.887573964497054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -25896,10 +26454,13 @@
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
+      <c r="DX14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26271,12 +26832,21 @@
         <v>1.85339441899209</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.72772689425479</v>
+        <v>1.76935886761032</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>1.50010564124233</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>1.91473066122032</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>1.83985488468516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -26648,12 +27218,21 @@
         <v>3.08788598574821</v>
       </c>
       <c r="DU16" t="n">
-        <v>2.85035629453681</v>
+        <v>2.82066508313539</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>2.02441202738911</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>3.51960481630134</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>3.55987055016181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -26779,10 +27358,13 @@
       <c r="DS17"/>
       <c r="DT17"/>
       <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27155,11 +27737,20 @@
       </c>
       <c r="DU18" t="n">
         <v>7.60517799352751</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>5.73770491803279</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>5.67986230636834</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>6.60194174757281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27531,12 +28122,21 @@
         <v>3.76831821353804</v>
       </c>
       <c r="DU19" t="n">
-        <v>3.8667598416026</v>
+        <v>3.89005357558816</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>4.02057035998131</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>3.65204159269591</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>3.42391304347827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -27908,12 +28508,21 @@
         <v>2.18068535825547</v>
       </c>
       <c r="DU20" t="n">
-        <v>2.14190093708165</v>
+        <v>2.18652387327086</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>2.27272727272727</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>-2.87958115183246</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>-1.46799765120376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28285,12 +28894,21 @@
         <v>2.24561403508771</v>
       </c>
       <c r="DU21" t="n">
-        <v>1.95804195804197</v>
+        <v>2.23776223776223</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>1.89208128941837</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>0.379650721336371</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -28662,12 +29280,21 @@
         <v>0.221238938053106</v>
       </c>
       <c r="DU22" t="n">
-        <v>-0.294550810014732</v>
+        <v>-0.147275405007376</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>-0.147601476014773</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>-0.580431177446093</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0.686947988223738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29039,12 +29666,21 @@
         <v>1.31826741996233</v>
       </c>
       <c r="DU23" t="n">
-        <v>1.76879343019582</v>
+        <v>1.70562223626026</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>1.64452877925363</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>1.75084175084175</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>3.42298288508559</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -29416,12 +30052,21 @@
         <v>3.39335180055402</v>
       </c>
       <c r="DU24" t="n">
-        <v>3.36769759450172</v>
+        <v>3.29896907216496</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>2.40549828178694</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>3.34323922734027</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>2.08978328173376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -29793,12 +30438,21 @@
         <v>0.200400801603209</v>
       </c>
       <c r="DU25" t="n">
-        <v>-1.19760479041916</v>
+        <v>-1.39720558882235</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>1.22199592668026</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0.632911392405072</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0.742574257425753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30171,11 +30825,20 @@
       </c>
       <c r="DU26" t="n">
         <v>3.3532384014699</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>3.01921317474838</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>2.04379562043796</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>2.56276150627615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30547,12 +31210,21 @@
         <v>3.44972654606645</v>
       </c>
       <c r="DU27" t="n">
-        <v>3.31098072087174</v>
+        <v>3.05951383067894</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>2.50941028858217</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>2.43589743589743</v>
+      </c>
+      <c r="DX27" t="n">
+        <v>2.70531400966183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -30924,12 +31596,21 @@
         <v>6.27257799671594</v>
       </c>
       <c r="DU28" t="n">
-        <v>5.84967320261437</v>
+        <v>6.07843137254903</v>
+      </c>
+      <c r="DV28" t="n">
+        <v>6.24137931034484</v>
+      </c>
+      <c r="DW28" t="n">
+        <v>5.6842867487328</v>
+      </c>
+      <c r="DX28" t="n">
+        <v>5.73606097071801</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31301,12 +31982,21 @@
         <v>0.636319138521787</v>
       </c>
       <c r="DU29" t="n">
-        <v>0.340964442279585</v>
+        <v>0.292255236239646</v>
+      </c>
+      <c r="DV29" t="n">
+        <v>0.644521566683198</v>
+      </c>
+      <c r="DW29" t="n">
+        <v>1.07361963190182</v>
+      </c>
+      <c r="DX29" t="n">
+        <v>-0.475341651812247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -31679,11 +32369,20 @@
       </c>
       <c r="DU30" t="n">
         <v>1.07421874999999</v>
+      </c>
+      <c r="DV30" t="n">
+        <v>1.09126984126985</v>
+      </c>
+      <c r="DW30" t="n">
+        <v>1.64778578784757</v>
+      </c>
+      <c r="DX30" t="n">
+        <v>-1.06044538706257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -31809,10 +32508,13 @@
       <c r="DS31"/>
       <c r="DT31"/>
       <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
+      <c r="DX31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32184,12 +32886,21 @@
         <v>-1.35746606334842</v>
       </c>
       <c r="DU32" t="n">
-        <v>-1.58371040723983</v>
+        <v>-1.35746606334842</v>
+      </c>
+      <c r="DV32" t="n">
+        <v>-4.26008968609865</v>
+      </c>
+      <c r="DW32" t="n">
+        <v>-6.9047619047619</v>
+      </c>
+      <c r="DX32" t="n">
+        <v>-7.49279538904899</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -32562,11 +33273,20 @@
       </c>
       <c r="DU33" t="n">
         <v>1.28342245989305</v>
+      </c>
+      <c r="DV33" t="n">
+        <v>1.39186295503212</v>
+      </c>
+      <c r="DW33" t="n">
+        <v>2.95790671217292</v>
+      </c>
+      <c r="DX33" t="n">
+        <v>1.94300518134717</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -32939,11 +33659,20 @@
       </c>
       <c r="DU34" t="n">
         <v>4.36953807740325</v>
+      </c>
+      <c r="DV34" t="n">
+        <v>4.74406991260925</v>
+      </c>
+      <c r="DW34" t="n">
+        <v>7.74647887323944</v>
+      </c>
+      <c r="DX34" t="n">
+        <v>5.68862275449101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -33315,12 +34044,21 @@
         <v>0</v>
       </c>
       <c r="DU35" t="n">
-        <v>0.216450216450204</v>
+        <v>0.432900432900424</v>
+      </c>
+      <c r="DV35" t="n">
+        <v>0.886917960088689</v>
+      </c>
+      <c r="DW35" t="n">
+        <v>0.25641025641026</v>
+      </c>
+      <c r="DX35" t="n">
+        <v>-0.0000000000000219982271133158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -33692,12 +34430,21 @@
         <v>1.06865284974094</v>
       </c>
       <c r="DU36" t="n">
-        <v>0.838439213157053</v>
+        <v>0.806191551112544</v>
+      </c>
+      <c r="DV36" t="n">
+        <v>1.57273918741809</v>
+      </c>
+      <c r="DW36" t="n">
+        <v>0.729927007299285</v>
+      </c>
+      <c r="DX36" t="n">
+        <v>3.66935483870969</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34070,11 +34817,20 @@
       </c>
       <c r="DU37" t="n">
         <v>2.50659630606861</v>
+      </c>
+      <c r="DV37" t="n">
+        <v>3.35120643431635</v>
+      </c>
+      <c r="DW37" t="n">
+        <v>11.6352201257862</v>
+      </c>
+      <c r="DX37" t="n">
+        <v>7.75577557755775</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -34446,12 +35202,21 @@
         <v>3.35067319461444</v>
       </c>
       <c r="DU38" t="n">
-        <v>3.56760067370999</v>
+        <v>3.52166590108712</v>
+      </c>
+      <c r="DV38" t="n">
+        <v>3.49392027089425</v>
+      </c>
+      <c r="DW38" t="n">
+        <v>3.33594361785436</v>
+      </c>
+      <c r="DX38" t="n">
+        <v>1.7961807525052</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -34824,11 +35589,20 @@
       </c>
       <c r="DU39" t="n">
         <v>0.850546780072908</v>
+      </c>
+      <c r="DV39" t="n">
+        <v>0.725733293014827</v>
+      </c>
+      <c r="DW39" t="n">
+        <v>0.789022298456265</v>
+      </c>
+      <c r="DX39" t="n">
+        <v>0.721561969439736</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35200,12 +35974,21 @@
         <v>0.263157894736846</v>
       </c>
       <c r="DU40" t="n">
-        <v>0.795755968169754</v>
+        <v>1.3262599469496</v>
+      </c>
+      <c r="DV40" t="n">
+        <v>0.530503978779829</v>
+      </c>
+      <c r="DW40" t="n">
+        <v>-2.7027027027027</v>
+      </c>
+      <c r="DX40" t="n">
+        <v>-6.4516129032258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -35578,11 +36361,20 @@
       </c>
       <c r="DU41" t="n">
         <v>0.0761228114691587</v>
+      </c>
+      <c r="DV41" t="n">
+        <v>-0.874710573707223</v>
+      </c>
+      <c r="DW41" t="n">
+        <v>0.562271577171774</v>
+      </c>
+      <c r="DX41" t="n">
+        <v>1.39494333042719</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -35954,12 +36746,21 @@
         <v>-1.07526881720432</v>
       </c>
       <c r="DU42" t="n">
-        <v>-1.20562625586069</v>
+        <v>-1.07166778298729</v>
+      </c>
+      <c r="DV42" t="n">
+        <v>-1.21130551816957</v>
+      </c>
+      <c r="DW42" t="n">
+        <v>1.73584905660378</v>
+      </c>
+      <c r="DX42" t="n">
+        <v>2.61437908496731</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -36332,11 +37133,20 @@
       </c>
       <c r="DU43" t="n">
         <v>4.98511904761906</v>
+      </c>
+      <c r="DV43" t="n">
+        <v>5.17751479289943</v>
+      </c>
+      <c r="DW43" t="n">
+        <v>7.19152157456472</v>
+      </c>
+      <c r="DX43" t="n">
+        <v>2.39190432382705</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -36708,12 +37518,21 @@
         <v>1.71884591774097</v>
       </c>
       <c r="DU44" t="n">
-        <v>1.93488943488944</v>
+        <v>1.96560196560196</v>
+      </c>
+      <c r="DV44" t="n">
+        <v>2.02998126171143</v>
+      </c>
+      <c r="DW44" t="n">
+        <v>1.07023411371237</v>
+      </c>
+      <c r="DX44" t="n">
+        <v>0.930059523809524</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37085,12 +37904,21 @@
         <v>2.73972602739726</v>
       </c>
       <c r="DU45" t="n">
-        <v>0.684931506849313</v>
+        <v>1.02739726027398</v>
+      </c>
+      <c r="DV45" t="n">
+        <v>2.75862068965516</v>
+      </c>
+      <c r="DW45" t="n">
+        <v>1.48698884758365</v>
+      </c>
+      <c r="DX45" t="n">
+        <v>-2.13675213675214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -37463,11 +38291,20 @@
       </c>
       <c r="DU46" t="n">
         <v>2.78121137206428</v>
+      </c>
+      <c r="DV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW46" t="n">
+        <v>0.257400257400261</v>
+      </c>
+      <c r="DX46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -37840,11 +38677,20 @@
       </c>
       <c r="DU47" t="n">
         <v>1.59574468085107</v>
+      </c>
+      <c r="DV47" t="n">
+        <v>1.8918918918919</v>
+      </c>
+      <c r="DW47" t="n">
+        <v>2.10210210210211</v>
+      </c>
+      <c r="DX47" t="n">
+        <v>1.06761565836298</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -38216,12 +39062,21 @@
         <v>0.920096852300231</v>
       </c>
       <c r="DU48" t="n">
-        <v>1.21006776379477</v>
+        <v>1.35527589545014</v>
+      </c>
+      <c r="DV48" t="n">
+        <v>2.74588117823265</v>
+      </c>
+      <c r="DW48" t="n">
+        <v>0.626304801670155</v>
+      </c>
+      <c r="DX48" t="n">
+        <v>0.899820035992801</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -38594,11 +39449,20 @@
       </c>
       <c r="DU49" t="n">
         <v>3.0778620629523</v>
+      </c>
+      <c r="DV49" t="n">
+        <v>3.07988450433107</v>
+      </c>
+      <c r="DW49" t="n">
+        <v>2.31046931407941</v>
+      </c>
+      <c r="DX49" t="n">
+        <v>1.50196115947575</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -38971,11 +39835,20 @@
       </c>
       <c r="DU50" t="n">
         <v>2.88461538461539</v>
+      </c>
+      <c r="DV50" t="n">
+        <v>3.04487179487179</v>
+      </c>
+      <c r="DW50" t="n">
+        <v>3.10880829015544</v>
+      </c>
+      <c r="DX50" t="n">
+        <v>6.01577909270216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -39348,11 +40221,20 @@
       </c>
       <c r="DU51" t="n">
         <v>4.48717948717949</v>
+      </c>
+      <c r="DV51" t="n">
+        <v>-5.12820512820513</v>
+      </c>
+      <c r="DW51" t="n">
+        <v>8.08823529411764</v>
+      </c>
+      <c r="DX51" t="n">
+        <v>5.24193548387099</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -39724,12 +40606,21 @@
         <v>3.41962288271015</v>
       </c>
       <c r="DU52" t="n">
-        <v>2.7980922098569</v>
+        <v>2.92527821939586</v>
+      </c>
+      <c r="DV52" t="n">
+        <v>2.01691607026677</v>
+      </c>
+      <c r="DW52" t="n">
+        <v>2.27424749163878</v>
+      </c>
+      <c r="DX52" t="n">
+        <v>3.09433962264151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -40101,12 +40992,21 @@
         <v>2.55993498577813</v>
       </c>
       <c r="DU53" t="n">
-        <v>2.27088402270884</v>
+        <v>2.23033252230333</v>
+      </c>
+      <c r="DV53" t="n">
+        <v>2.10101010101011</v>
+      </c>
+      <c r="DW53" t="n">
+        <v>3.35542667771334</v>
+      </c>
+      <c r="DX53" t="n">
+        <v>0.43630017452007</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -40479,11 +41379,20 @@
       </c>
       <c r="DU54" t="n">
         <v>1.13636363636363</v>
+      </c>
+      <c r="DV54" t="n">
+        <v>1.14942528735631</v>
+      </c>
+      <c r="DW54" t="n">
+        <v>-0.356506238859172</v>
+      </c>
+      <c r="DX54" t="n">
+        <v>1.57170923379176</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -40855,12 +41764,21 @@
         <v>3.08731307284128</v>
       </c>
       <c r="DU55" t="n">
-        <v>2.88184438040347</v>
+        <v>2.88184438040346</v>
+      </c>
+      <c r="DV55" t="n">
+        <v>3.62745098039216</v>
+      </c>
+      <c r="DW55" t="n">
+        <v>1.77038626609441</v>
+      </c>
+      <c r="DX55" t="n">
+        <v>-1.05944673337256</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -41232,7 +42150,16 @@
         <v>2.32558139534883</v>
       </c>
       <c r="DU56" t="n">
-        <v>1.66666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="DV56" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="DW56" t="n">
+        <v>2.93040293040293</v>
+      </c>
+      <c r="DX56" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t xml:space="preserve">06/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1335,10 +1338,13 @@
       <c r="EI4" t="s">
         <v>138</v>
       </c>
+      <c r="EJ4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1749,15 +1755,18 @@
         <v>10826.6</v>
       </c>
       <c r="EH5" t="n">
-        <v>10719.1</v>
+        <v>10720.3</v>
       </c>
       <c r="EI5" t="n">
-        <v>10154.7</v>
+        <v>10139.8</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>9046.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2171,12 +2180,15 @@
         <v>171.5</v>
       </c>
       <c r="EI6" t="n">
-        <v>169.6</v>
+        <v>169.2</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>160.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2590,12 +2602,15 @@
         <v>28.3</v>
       </c>
       <c r="EI7" t="n">
-        <v>25.2</v>
+        <v>22.9</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3009,12 +3024,15 @@
         <v>193.5</v>
       </c>
       <c r="EI8" t="n">
-        <v>152.2</v>
+        <v>152.7</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>151.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3429,11 +3447,14 @@
       </c>
       <c r="EI9" t="n">
         <v>93.4</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>82.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3847,12 +3868,15 @@
         <v>1255.9</v>
       </c>
       <c r="EI10" t="n">
-        <v>1233.3</v>
+        <v>1234.6</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>1074.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4266,12 +4290,15 @@
         <v>225.6</v>
       </c>
       <c r="EI11" t="n">
-        <v>211.3</v>
+        <v>211.2</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4685,12 +4712,15 @@
         <v>123</v>
       </c>
       <c r="EI12" t="n">
-        <v>113.5</v>
+        <v>114.2</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>96.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5104,12 +5134,15 @@
         <v>37.6</v>
       </c>
       <c r="EI13" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5249,10 +5282,11 @@
       <c r="EG14"/>
       <c r="EH14"/>
       <c r="EI14"/>
+      <c r="EJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5667,11 +5701,14 @@
       </c>
       <c r="EI15" t="n">
         <v>399.2</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6085,12 +6122,15 @@
         <v>342.7</v>
       </c>
       <c r="EI16" t="n">
-        <v>335.1</v>
+        <v>335.3</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6230,10 +6270,11 @@
       <c r="EG17"/>
       <c r="EH17"/>
       <c r="EI17"/>
+      <c r="EJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6647,12 +6688,15 @@
         <v>64.5</v>
       </c>
       <c r="EI18" t="n">
-        <v>60.9</v>
+        <v>61.4</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>54.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7066,12 +7110,15 @@
         <v>445</v>
       </c>
       <c r="EI19" t="n">
-        <v>410.5</v>
+        <v>408.7</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>380.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7485,12 +7532,15 @@
         <v>229.5</v>
       </c>
       <c r="EI20" t="n">
-        <v>185.1</v>
+        <v>185.5</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>167.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7904,12 +7954,15 @@
         <v>145.4</v>
       </c>
       <c r="EI21" t="n">
-        <v>133.9</v>
+        <v>132.2</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>114.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8323,12 +8376,15 @@
         <v>135.3</v>
       </c>
       <c r="EI22" t="n">
-        <v>120.2</v>
+        <v>119.9</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8743,11 +8799,14 @@
       </c>
       <c r="EI23" t="n">
         <v>151.1</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>126.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9161,12 +9220,15 @@
         <v>149</v>
       </c>
       <c r="EI24" t="n">
-        <v>138.9</v>
+        <v>139.1</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>131.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9580,12 +9642,15 @@
         <v>49.7</v>
       </c>
       <c r="EI25" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10000,11 +10065,14 @@
       </c>
       <c r="EI26" t="n">
         <v>209.7</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>196.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10418,12 +10486,15 @@
         <v>245.1</v>
       </c>
       <c r="EI27" t="n">
-        <v>239.2</v>
+        <v>239.7</v>
+      </c>
+      <c r="EJ27" t="n">
+        <v>212.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10838,11 +10909,14 @@
       </c>
       <c r="EI28" t="n">
         <v>291.9</v>
+      </c>
+      <c r="EJ28" t="n">
+        <v>263.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11256,12 +11330,15 @@
         <v>203</v>
       </c>
       <c r="EI29" t="n">
-        <v>198.1</v>
+        <v>197.7</v>
+      </c>
+      <c r="EJ29" t="n">
+        <v>167.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11675,12 +11752,15 @@
         <v>101.9</v>
       </c>
       <c r="EI30" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
+      </c>
+      <c r="EJ30" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11820,10 +11900,11 @@
       <c r="EG31"/>
       <c r="EH31"/>
       <c r="EI31"/>
+      <c r="EJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12238,11 +12319,14 @@
       </c>
       <c r="EI32" t="n">
         <v>39.1</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12656,12 +12740,15 @@
         <v>94.7</v>
       </c>
       <c r="EI33" t="n">
-        <v>91.1</v>
+        <v>90.5</v>
+      </c>
+      <c r="EJ33" t="n">
+        <v>78.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13076,11 +13163,14 @@
       </c>
       <c r="EI34" t="n">
         <v>76.5</v>
+      </c>
+      <c r="EJ34" t="n">
+        <v>70.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13494,12 +13584,15 @@
         <v>45.5</v>
       </c>
       <c r="EI35" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
+      </c>
+      <c r="EJ35" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -13913,12 +14006,15 @@
         <v>310</v>
       </c>
       <c r="EI36" t="n">
-        <v>304.4</v>
+        <v>303.6</v>
+      </c>
+      <c r="EJ36" t="n">
+        <v>257.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14332,12 +14428,15 @@
         <v>77.1</v>
       </c>
       <c r="EI37" t="n">
-        <v>72.7</v>
+        <v>71</v>
+      </c>
+      <c r="EJ37" t="n">
+        <v>65.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14751,12 +14850,15 @@
         <v>672.4</v>
       </c>
       <c r="EI38" t="n">
-        <v>661.3</v>
+        <v>659.8</v>
+      </c>
+      <c r="EJ38" t="n">
+        <v>538.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15171,11 +15273,14 @@
       </c>
       <c r="EI39" t="n">
         <v>293.8</v>
+      </c>
+      <c r="EJ39" t="n">
+        <v>237.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15589,12 +15694,15 @@
         <v>37.9</v>
       </c>
       <c r="EI40" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
+      </c>
+      <c r="EJ40" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16008,12 +16116,15 @@
         <v>385.3</v>
       </c>
       <c r="EI41" t="n">
-        <v>354.3</v>
+        <v>357.7</v>
+      </c>
+      <c r="EJ41" t="n">
+        <v>348.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16427,12 +16538,15 @@
         <v>146.8</v>
       </c>
       <c r="EI42" t="n">
-        <v>133.6</v>
+        <v>134.8</v>
+      </c>
+      <c r="EJ42" t="n">
+        <v>125.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16846,12 +16960,15 @@
         <v>142.2</v>
       </c>
       <c r="EI43" t="n">
-        <v>142.1</v>
+        <v>141.6</v>
+      </c>
+      <c r="EJ43" t="n">
+        <v>111.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17265,12 +17382,15 @@
         <v>326.7</v>
       </c>
       <c r="EI44" t="n">
-        <v>303.2</v>
+        <v>302.2</v>
+      </c>
+      <c r="EJ44" t="n">
+        <v>271.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17684,12 +17804,15 @@
         <v>29.8</v>
       </c>
       <c r="EI45" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
+      </c>
+      <c r="EJ45" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18103,12 +18226,15 @@
         <v>160.9</v>
       </c>
       <c r="EI46" t="n">
-        <v>155.5</v>
+        <v>155.8</v>
+      </c>
+      <c r="EJ46" t="n">
+        <v>147.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18522,12 +18648,15 @@
         <v>37.7</v>
       </c>
       <c r="EI47" t="n">
-        <v>34.1</v>
+        <v>34</v>
+      </c>
+      <c r="EJ47" t="n">
+        <v>28.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -18941,12 +19070,15 @@
         <v>205.8</v>
       </c>
       <c r="EI48" t="n">
-        <v>194</v>
+        <v>192.8</v>
+      </c>
+      <c r="EJ48" t="n">
+        <v>168.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19360,12 +19492,15 @@
         <v>1178.1</v>
       </c>
       <c r="EI49" t="n">
-        <v>1132.9</v>
+        <v>1133.6</v>
+      </c>
+      <c r="EJ49" t="n">
+        <v>1061</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19780,11 +19915,14 @@
       </c>
       <c r="EI50" t="n">
         <v>119.4</v>
+      </c>
+      <c r="EJ50" t="n">
+        <v>107.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20198,12 +20336,15 @@
         <v>29.6</v>
       </c>
       <c r="EI51" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
+      </c>
+      <c r="EJ51" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20617,12 +20758,15 @@
         <v>313.6</v>
       </c>
       <c r="EI52" t="n">
-        <v>305.7</v>
+        <v>305.8</v>
+      </c>
+      <c r="EJ52" t="n">
+        <v>273.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21036,12 +21180,15 @@
         <v>252.7</v>
       </c>
       <c r="EI53" t="n">
-        <v>247.4</v>
+        <v>249.5</v>
+      </c>
+      <c r="EJ53" t="n">
+        <v>230.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21455,12 +21602,15 @@
         <v>61.6</v>
       </c>
       <c r="EI54" t="n">
-        <v>56</v>
+        <v>55.9</v>
+      </c>
+      <c r="EJ54" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -21874,12 +22024,15 @@
         <v>211.4</v>
       </c>
       <c r="EI55" t="n">
-        <v>191</v>
+        <v>189.7</v>
+      </c>
+      <c r="EJ55" t="n">
+        <v>168.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22293,7 +22446,10 @@
         <v>30.7</v>
       </c>
       <c r="EI56" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
+      </c>
+      <c r="EJ56" t="n">
+        <v>24.1</v>
       </c>
     </row>
   </sheetData>
@@ -22692,10 +22848,13 @@
       <c r="DW4" t="s">
         <v>138</v>
       </c>
+      <c r="DX4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23070,15 +23229,18 @@
         <v>2.26894884002117</v>
       </c>
       <c r="DV5" t="n">
-        <v>2.35180658467651</v>
+        <v>2.36326483843862</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.82199270959904</v>
+        <v>2.67112191170514</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>1.785573645068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23456,12 +23618,15 @@
         <v>0.823045267489698</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.832342449464926</v>
+        <v>0.594530321046373</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0.06222775357811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -23839,12 +24004,15 @@
         <v>5.99250936329586</v>
       </c>
       <c r="DW7" t="n">
-        <v>14.5454545454546</v>
+        <v>4.09090909090908</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>2.11640211640213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24222,12 +24390,15 @@
         <v>1.94942044257112</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.39906728847435</v>
+        <v>1.73217854763491</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>3.47411444141689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24606,11 +24777,14 @@
       </c>
       <c r="DW9" t="n">
         <v>0.755124056094948</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.611995104039185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -24988,12 +25162,15 @@
         <v>2.75732286041565</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.61253016057909</v>
+        <v>2.72069223729094</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>3.08932169241102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25371,12 +25548,15 @@
         <v>3.15500685871058</v>
       </c>
       <c r="DW11" t="n">
-        <v>3.3757338551859</v>
+        <v>3.32681017612524</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>5.74342458400429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25754,12 +25934,15 @@
         <v>0.408163265306122</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.79372197309417</v>
+        <v>2.42152466367713</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>-0.309278350515461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -26137,12 +26320,15 @@
         <v>1.89701897018969</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.00000000000001</v>
+        <v>0.57142857142858</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>0.887573964497054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -26270,10 +26456,11 @@
       <c r="DU14"/>
       <c r="DV14"/>
       <c r="DW14"/>
+      <c r="DX14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26652,11 +26839,14 @@
       </c>
       <c r="DW15" t="n">
         <v>1.91473066122032</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>1.83985488468516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27034,12 +27224,15 @@
         <v>2.02441202738911</v>
       </c>
       <c r="DW16" t="n">
-        <v>3.45785736338377</v>
+        <v>3.51960481630134</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>3.55987055016181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -27167,10 +27360,11 @@
       <c r="DU17"/>
       <c r="DV17"/>
       <c r="DW17"/>
+      <c r="DX17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27548,12 +27742,15 @@
         <v>5.73770491803279</v>
       </c>
       <c r="DW18" t="n">
-        <v>4.81927710843374</v>
+        <v>5.67986230636834</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>6.60194174757281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -27931,12 +28128,15 @@
         <v>4.02057035998131</v>
       </c>
       <c r="DW19" t="n">
-        <v>4.1085467917829</v>
+        <v>3.65204159269591</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>3.42391304347827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -28314,12 +28514,15 @@
         <v>2.27272727272727</v>
       </c>
       <c r="DW20" t="n">
-        <v>-3.0890052356021</v>
+        <v>-2.87958115183246</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>-1.46799765120376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28697,12 +28900,15 @@
         <v>1.89208128941837</v>
       </c>
       <c r="DW21" t="n">
-        <v>1.67046317388004</v>
+        <v>0.379650721336371</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -29080,12 +29286,15 @@
         <v>-0.147601476014773</v>
       </c>
       <c r="DW22" t="n">
-        <v>-0.331674958540623</v>
+        <v>-0.580431177446093</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0.686947988223738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29464,11 +29673,14 @@
       </c>
       <c r="DW23" t="n">
         <v>1.75084175084175</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>3.42298288508559</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -29846,12 +30058,15 @@
         <v>2.40549828178694</v>
       </c>
       <c r="DW24" t="n">
-        <v>3.19465081723624</v>
+        <v>3.34323922734027</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>2.08978328173376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -30229,12 +30444,15 @@
         <v>1.22199592668026</v>
       </c>
       <c r="DW25" t="n">
-        <v>0.421940928270033</v>
+        <v>0.632911392405072</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0.742574257425753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30613,11 +30831,14 @@
       </c>
       <c r="DW26" t="n">
         <v>2.04379562043796</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>2.56276150627615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -30995,12 +31216,15 @@
         <v>2.50941028858217</v>
       </c>
       <c r="DW27" t="n">
-        <v>2.22222222222222</v>
+        <v>2.43589743589743</v>
+      </c>
+      <c r="DX27" t="n">
+        <v>2.70531400966183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -31379,11 +31603,14 @@
       </c>
       <c r="DW28" t="n">
         <v>5.6842867487328</v>
+      </c>
+      <c r="DX28" t="n">
+        <v>5.73606097071801</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31761,12 +31988,15 @@
         <v>0.644521566683198</v>
       </c>
       <c r="DW29" t="n">
-        <v>1.27811860940695</v>
+        <v>1.07361963190182</v>
+      </c>
+      <c r="DX29" t="n">
+        <v>-0.475341651812247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -32144,12 +32374,15 @@
         <v>1.09126984126985</v>
       </c>
       <c r="DW30" t="n">
-        <v>1.54479917610711</v>
+        <v>1.64778578784757</v>
+      </c>
+      <c r="DX30" t="n">
+        <v>-1.06044538706257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -32277,10 +32510,11 @@
       <c r="DU31"/>
       <c r="DV31"/>
       <c r="DW31"/>
+      <c r="DX31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32659,11 +32893,14 @@
       </c>
       <c r="DW32" t="n">
         <v>-6.9047619047619</v>
+      </c>
+      <c r="DX32" t="n">
+        <v>-7.49279538904899</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -33041,12 +33278,15 @@
         <v>1.39186295503212</v>
       </c>
       <c r="DW33" t="n">
-        <v>3.6405005688282</v>
+        <v>2.95790671217292</v>
+      </c>
+      <c r="DX33" t="n">
+        <v>1.94300518134717</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -33425,11 +33665,14 @@
       </c>
       <c r="DW34" t="n">
         <v>7.74647887323944</v>
+      </c>
+      <c r="DX34" t="n">
+        <v>5.68862275449101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -33807,12 +34050,15 @@
         <v>0.886917960088689</v>
       </c>
       <c r="DW35" t="n">
-        <v>-0.51282051282052</v>
+        <v>0.25641025641026</v>
+      </c>
+      <c r="DX35" t="n">
+        <v>-0.0000000000000219982271133158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -34190,12 +34436,15 @@
         <v>1.57273918741809</v>
       </c>
       <c r="DW36" t="n">
-        <v>0.99535500995355</v>
+        <v>0.729927007299285</v>
+      </c>
+      <c r="DX36" t="n">
+        <v>3.66935483870969</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34573,12 +34822,15 @@
         <v>3.35120643431635</v>
       </c>
       <c r="DW37" t="n">
-        <v>14.3081761006289</v>
+        <v>11.6352201257862</v>
+      </c>
+      <c r="DX37" t="n">
+        <v>7.75577557755775</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -34956,12 +35208,15 @@
         <v>3.49392027089425</v>
       </c>
       <c r="DW38" t="n">
-        <v>3.57086922474551</v>
+        <v>3.33594361785436</v>
+      </c>
+      <c r="DX38" t="n">
+        <v>1.7961807525052</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -35340,11 +35595,14 @@
       </c>
       <c r="DW39" t="n">
         <v>0.789022298456265</v>
+      </c>
+      <c r="DX39" t="n">
+        <v>0.721561969439736</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35722,12 +35980,15 @@
         <v>0.530503978779829</v>
       </c>
       <c r="DW40" t="n">
-        <v>-2.40240240240239</v>
+        <v>-2.7027027027027</v>
+      </c>
+      <c r="DX40" t="n">
+        <v>-6.4516129032258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -36105,12 +36366,15 @@
         <v>-0.874710573707223</v>
       </c>
       <c r="DW41" t="n">
-        <v>-0.393590104020251</v>
+        <v>0.562271577171774</v>
+      </c>
+      <c r="DX41" t="n">
+        <v>1.39494333042719</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -36488,12 +36752,15 @@
         <v>-1.21130551816957</v>
       </c>
       <c r="DW42" t="n">
-        <v>0.830188679245279</v>
+        <v>1.73584905660378</v>
+      </c>
+      <c r="DX42" t="n">
+        <v>2.61437908496731</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -36871,12 +37138,15 @@
         <v>5.17751479289943</v>
       </c>
       <c r="DW43" t="n">
-        <v>7.57002271006813</v>
+        <v>7.19152157456472</v>
+      </c>
+      <c r="DX43" t="n">
+        <v>2.39190432382705</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -37254,12 +37524,15 @@
         <v>2.02998126171143</v>
       </c>
       <c r="DW44" t="n">
-        <v>1.40468227424749</v>
+        <v>1.07023411371237</v>
+      </c>
+      <c r="DX44" t="n">
+        <v>0.930059523809524</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37637,12 +37910,15 @@
         <v>2.75862068965516</v>
       </c>
       <c r="DW45" t="n">
-        <v>2.23048327137547</v>
+        <v>1.48698884758365</v>
+      </c>
+      <c r="DX45" t="n">
+        <v>-2.13675213675214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -38020,12 +38296,15 @@
         <v>0</v>
       </c>
       <c r="DW46" t="n">
-        <v>0.0643500643500607</v>
+        <v>0.257400257400261</v>
+      </c>
+      <c r="DX46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -38403,12 +38682,15 @@
         <v>1.8918918918919</v>
       </c>
       <c r="DW47" t="n">
-        <v>2.40240240240242</v>
+        <v>2.10210210210211</v>
+      </c>
+      <c r="DX47" t="n">
+        <v>1.06761565836298</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -38786,12 +39068,15 @@
         <v>2.74588117823265</v>
       </c>
       <c r="DW48" t="n">
-        <v>1.2526096033403</v>
+        <v>0.626304801670155</v>
+      </c>
+      <c r="DX48" t="n">
+        <v>0.899820035992801</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -39169,12 +39454,15 @@
         <v>3.07988450433107</v>
       </c>
       <c r="DW49" t="n">
-        <v>2.24729241877257</v>
+        <v>2.31046931407941</v>
+      </c>
+      <c r="DX49" t="n">
+        <v>1.50196115947575</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -39553,11 +39841,14 @@
       </c>
       <c r="DW50" t="n">
         <v>3.10880829015544</v>
+      </c>
+      <c r="DX50" t="n">
+        <v>6.01577909270216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -39935,12 +40226,15 @@
         <v>-5.12820512820513</v>
       </c>
       <c r="DW51" t="n">
-        <v>7.72058823529411</v>
+        <v>8.08823529411764</v>
+      </c>
+      <c r="DX51" t="n">
+        <v>5.24193548387099</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -40318,12 +40612,15 @@
         <v>2.01691607026677</v>
       </c>
       <c r="DW52" t="n">
-        <v>2.24080267558528</v>
+        <v>2.27424749163878</v>
+      </c>
+      <c r="DX52" t="n">
+        <v>3.09433962264151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -40701,12 +40998,15 @@
         <v>2.10101010101011</v>
       </c>
       <c r="DW53" t="n">
-        <v>2.48550124275062</v>
+        <v>3.35542667771334</v>
+      </c>
+      <c r="DX53" t="n">
+        <v>0.43630017452007</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -41084,12 +41384,15 @@
         <v>1.14942528735631</v>
       </c>
       <c r="DW54" t="n">
-        <v>-0.17825311942958</v>
+        <v>-0.356506238859172</v>
+      </c>
+      <c r="DX54" t="n">
+        <v>1.57170923379176</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -41467,12 +41770,15 @@
         <v>3.62745098039216</v>
       </c>
       <c r="DW55" t="n">
-        <v>2.46781115879828</v>
+        <v>1.77038626609441</v>
+      </c>
+      <c r="DX55" t="n">
+        <v>-1.05944673337256</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -41850,7 +42156,10 @@
         <v>2.33333333333333</v>
       </c>
       <c r="DW56" t="n">
-        <v>3.2967032967033</v>
+        <v>2.93040293040293</v>
+      </c>
+      <c r="DX56" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t xml:space="preserve">07/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1341,10 +1344,13 @@
       <c r="EJ4" t="s">
         <v>139</v>
       </c>
+      <c r="EK4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1758,15 +1764,18 @@
         <v>10720.3</v>
       </c>
       <c r="EI5" t="n">
-        <v>10139.8</v>
+        <v>10121.8</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9046.6</v>
+        <v>9035.6</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>9318.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2183,12 +2192,15 @@
         <v>169.2</v>
       </c>
       <c r="EJ6" t="n">
-        <v>160.8</v>
+        <v>160.7</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>163.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2606,11 +2618,14 @@
       </c>
       <c r="EJ7" t="n">
         <v>19.3</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3027,12 +3042,15 @@
         <v>152.7</v>
       </c>
       <c r="EJ8" t="n">
-        <v>151.9</v>
+        <v>151</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>182.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3450,11 +3468,14 @@
       </c>
       <c r="EJ9" t="n">
         <v>82.2</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3871,12 +3892,15 @@
         <v>1234.6</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1074.5</v>
+        <v>1065.7</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>1115.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4293,12 +4317,15 @@
         <v>211.2</v>
       </c>
       <c r="EJ11" t="n">
-        <v>197</v>
+        <v>197.5</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>203.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4716,11 +4743,14 @@
       </c>
       <c r="EJ12" t="n">
         <v>96.7</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>97.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5137,12 +5167,15 @@
         <v>35.2</v>
       </c>
       <c r="EJ13" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>32.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5283,10 +5316,11 @@
       <c r="EH14"/>
       <c r="EI14"/>
       <c r="EJ14"/>
+      <c r="EK14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5703,12 +5737,15 @@
         <v>399.2</v>
       </c>
       <c r="EJ15" t="n">
-        <v>393</v>
+        <v>392.9</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>461.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6125,12 +6162,15 @@
         <v>335.3</v>
       </c>
       <c r="EJ16" t="n">
-        <v>320</v>
+        <v>321.8</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>343.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6271,10 +6311,11 @@
       <c r="EH17"/>
       <c r="EI17"/>
       <c r="EJ17"/>
+      <c r="EK17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6692,11 +6733,14 @@
       </c>
       <c r="EJ18" t="n">
         <v>54.9</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>54.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7113,12 +7157,15 @@
         <v>408.7</v>
       </c>
       <c r="EJ19" t="n">
-        <v>380.6</v>
+        <v>380.8</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7535,12 +7582,15 @@
         <v>185.5</v>
       </c>
       <c r="EJ20" t="n">
-        <v>167.8</v>
+        <v>171.2</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>207.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7957,12 +8007,15 @@
         <v>132.2</v>
       </c>
       <c r="EJ21" t="n">
-        <v>114.6</v>
+        <v>115.4</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>120.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8379,12 +8432,15 @@
         <v>119.9</v>
       </c>
       <c r="EJ22" t="n">
-        <v>102.6</v>
+        <v>103.3</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>110.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8801,12 +8857,15 @@
         <v>151.1</v>
       </c>
       <c r="EJ23" t="n">
-        <v>126.9</v>
+        <v>127.7</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>150.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9223,12 +9282,15 @@
         <v>139.1</v>
       </c>
       <c r="EJ24" t="n">
-        <v>131.9</v>
+        <v>132.1</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>139.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9646,11 +9708,14 @@
       </c>
       <c r="EJ25" t="n">
         <v>40.7</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10068,11 +10133,14 @@
       </c>
       <c r="EJ26" t="n">
         <v>196.1</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>198.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10489,12 +10557,15 @@
         <v>239.7</v>
       </c>
       <c r="EJ27" t="n">
-        <v>212.6</v>
+        <v>210.8</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>207.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10912,11 +10983,14 @@
       </c>
       <c r="EJ28" t="n">
         <v>263.6</v>
+      </c>
+      <c r="EK28" t="n">
+        <v>274.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11333,12 +11407,15 @@
         <v>197.7</v>
       </c>
       <c r="EJ29" t="n">
-        <v>167.5</v>
+        <v>168.1</v>
+      </c>
+      <c r="EK29" t="n">
+        <v>163.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11755,12 +11832,15 @@
         <v>98.7</v>
       </c>
       <c r="EJ30" t="n">
-        <v>93.3</v>
+        <v>94.5</v>
+      </c>
+      <c r="EK30" t="n">
+        <v>97.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11901,10 +11981,11 @@
       <c r="EH31"/>
       <c r="EI31"/>
       <c r="EJ31"/>
+      <c r="EK31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12321,12 +12402,15 @@
         <v>39.1</v>
       </c>
       <c r="EJ32" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>33.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12743,12 +12827,15 @@
         <v>90.5</v>
       </c>
       <c r="EJ33" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
+      </c>
+      <c r="EK33" t="n">
+        <v>80.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13166,11 +13253,14 @@
       </c>
       <c r="EJ34" t="n">
         <v>70.6</v>
+      </c>
+      <c r="EK34" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13587,12 +13677,15 @@
         <v>39.1</v>
       </c>
       <c r="EJ35" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
+      </c>
+      <c r="EK35" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14010,11 +14103,14 @@
       </c>
       <c r="EJ36" t="n">
         <v>257.1</v>
+      </c>
+      <c r="EK36" t="n">
+        <v>259.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14431,12 +14527,15 @@
         <v>71</v>
       </c>
       <c r="EJ37" t="n">
-        <v>65.3</v>
+        <v>65.7</v>
+      </c>
+      <c r="EK37" t="n">
+        <v>70.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14853,12 +14952,15 @@
         <v>659.8</v>
       </c>
       <c r="EJ38" t="n">
-        <v>538.4</v>
+        <v>546.1</v>
+      </c>
+      <c r="EK38" t="n">
+        <v>542.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15276,11 +15378,14 @@
       </c>
       <c r="EJ39" t="n">
         <v>237.3</v>
+      </c>
+      <c r="EK39" t="n">
+        <v>286.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15698,11 +15803,14 @@
       </c>
       <c r="EJ40" t="n">
         <v>26.1</v>
+      </c>
+      <c r="EK40" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16119,12 +16227,15 @@
         <v>357.7</v>
       </c>
       <c r="EJ41" t="n">
-        <v>348.9</v>
+        <v>349.3</v>
+      </c>
+      <c r="EK41" t="n">
+        <v>353.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16541,12 +16652,15 @@
         <v>134.8</v>
       </c>
       <c r="EJ42" t="n">
-        <v>125.6</v>
+        <v>122.3</v>
+      </c>
+      <c r="EK42" t="n">
+        <v>127.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16963,12 +17077,15 @@
         <v>141.6</v>
       </c>
       <c r="EJ43" t="n">
-        <v>111.3</v>
+        <v>110.8</v>
+      </c>
+      <c r="EK43" t="n">
+        <v>112.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17386,11 +17503,14 @@
       </c>
       <c r="EJ44" t="n">
         <v>271.3</v>
+      </c>
+      <c r="EK44" t="n">
+        <v>277.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17807,12 +17927,15 @@
         <v>27.3</v>
       </c>
       <c r="EJ45" t="n">
-        <v>22.9</v>
+        <v>23</v>
+      </c>
+      <c r="EK45" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18229,12 +18352,15 @@
         <v>155.8</v>
       </c>
       <c r="EJ46" t="n">
-        <v>147.1</v>
+        <v>146</v>
+      </c>
+      <c r="EK46" t="n">
+        <v>147.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18651,12 +18777,15 @@
         <v>34</v>
       </c>
       <c r="EJ47" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
+      </c>
+      <c r="EK47" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19073,12 +19202,15 @@
         <v>192.8</v>
       </c>
       <c r="EJ48" t="n">
-        <v>168.2</v>
+        <v>168.6</v>
+      </c>
+      <c r="EK48" t="n">
+        <v>182.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19495,12 +19627,15 @@
         <v>1133.6</v>
       </c>
       <c r="EJ49" t="n">
-        <v>1061</v>
+        <v>1060.3</v>
+      </c>
+      <c r="EK49" t="n">
+        <v>1082.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19918,11 +20053,14 @@
       </c>
       <c r="EJ50" t="n">
         <v>107.5</v>
+      </c>
+      <c r="EK50" t="n">
+        <v>113.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20339,12 +20477,15 @@
         <v>29.4</v>
       </c>
       <c r="EJ51" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
+      </c>
+      <c r="EK51" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20761,12 +20902,15 @@
         <v>305.8</v>
       </c>
       <c r="EJ52" t="n">
-        <v>273.2</v>
+        <v>275.1</v>
+      </c>
+      <c r="EK52" t="n">
+        <v>295.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21183,12 +21327,15 @@
         <v>249.5</v>
       </c>
       <c r="EJ53" t="n">
-        <v>230.2</v>
+        <v>230</v>
+      </c>
+      <c r="EK53" t="n">
+        <v>216.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21606,11 +21753,14 @@
       </c>
       <c r="EJ54" t="n">
         <v>51.7</v>
+      </c>
+      <c r="EK54" t="n">
+        <v>54.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -22027,12 +22177,15 @@
         <v>189.7</v>
       </c>
       <c r="EJ55" t="n">
-        <v>168.1</v>
+        <v>169.9</v>
+      </c>
+      <c r="EK55" t="n">
+        <v>165.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22449,7 +22602,10 @@
         <v>28.1</v>
       </c>
       <c r="EJ56" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
+      </c>
+      <c r="EK56" t="n">
+        <v>24.6</v>
       </c>
     </row>
   </sheetData>
@@ -22851,10 +23007,13 @@
       <c r="DX4" t="s">
         <v>139</v>
       </c>
+      <c r="DY4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23232,15 +23391,18 @@
         <v>2.36326483843862</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.67112191170514</v>
+        <v>2.4888618874038</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.785573645068</v>
+        <v>1.66180987634875</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0.572039157699323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23621,12 +23783,15 @@
         <v>0.594530321046373</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.06222775357811</v>
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -24008,11 +24173,14 @@
       </c>
       <c r="DX7" t="n">
         <v>2.11640211640213</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.0000000000000166014657887874</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24393,12 +24561,15 @@
         <v>1.73217854763491</v>
       </c>
       <c r="DX8" t="n">
-        <v>3.47411444141689</v>
+        <v>2.86103542234332</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>2.46498599439775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24780,11 +24951,14 @@
       </c>
       <c r="DX9" t="n">
         <v>0.611995104039185</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.578034682080925</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -25165,12 +25339,15 @@
         <v>2.72069223729094</v>
       </c>
       <c r="DX10" t="n">
-        <v>3.08932169241102</v>
+        <v>2.24503501870863</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>2.78341013824885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25551,12 +25728,15 @@
         <v>3.32681017612524</v>
       </c>
       <c r="DX11" t="n">
-        <v>5.74342458400429</v>
+        <v>6.01180891035963</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>2.57186081694401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25938,11 +26118,14 @@
       </c>
       <c r="DX12" t="n">
         <v>-0.309278350515461</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>-0.305498981670058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -26323,12 +26506,15 @@
         <v>0.57142857142858</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.887573964497054</v>
+        <v>0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>0.611620795107042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -26457,10 +26643,11 @@
       <c r="DV14"/>
       <c r="DW14"/>
       <c r="DX14"/>
+      <c r="DY14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26841,12 +27028,15 @@
         <v>1.91473066122032</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.83985488468516</v>
+        <v>1.81394143560509</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>1.98719364098035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27227,12 +27417,15 @@
         <v>3.51960481630134</v>
       </c>
       <c r="DX16" t="n">
-        <v>3.55987055016181</v>
+        <v>4.14239482200648</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>2.4179104477612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -27361,10 +27554,11 @@
       <c r="DV17"/>
       <c r="DW17"/>
       <c r="DX17"/>
+      <c r="DY17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27746,11 +27940,14 @@
       </c>
       <c r="DX18" t="n">
         <v>6.60194174757281</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>3.79506641366223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -28131,12 +28328,15 @@
         <v>3.65204159269591</v>
       </c>
       <c r="DX19" t="n">
-        <v>3.42391304347827</v>
+        <v>3.4782608695652</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>2.92146877512732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -28517,12 +28717,15 @@
         <v>-2.87958115183246</v>
       </c>
       <c r="DX20" t="n">
-        <v>-1.46799765120376</v>
+        <v>0.528479154433339</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>-0.62260536398468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28903,12 +29106,15 @@
         <v>0.379650721336371</v>
       </c>
       <c r="DX21" t="n">
-        <v>0</v>
+        <v>0.698080279232122</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>1.34680134680134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -29289,12 +29495,15 @@
         <v>-0.580431177446093</v>
       </c>
       <c r="DX22" t="n">
-        <v>0.686947988223738</v>
+        <v>1.37389597644749</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>0.362318840579702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29675,12 +29884,15 @@
         <v>1.75084175084175</v>
       </c>
       <c r="DX23" t="n">
-        <v>3.42298288508559</v>
+        <v>4.07497962510188</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>3.07377049180326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -30061,12 +30273,15 @@
         <v>3.34323922734027</v>
       </c>
       <c r="DX24" t="n">
-        <v>2.08978328173376</v>
+        <v>2.24458204334366</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>1.52838427947598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -30448,11 +30663,14 @@
       </c>
       <c r="DX25" t="n">
         <v>0.742574257425753</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>0.50890585241731</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30834,11 +31052,14 @@
       </c>
       <c r="DX26" t="n">
         <v>2.56276150627615</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>4.42804428044281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -31219,12 +31440,15 @@
         <v>2.43589743589743</v>
       </c>
       <c r="DX27" t="n">
-        <v>2.70531400966183</v>
+        <v>1.83574879227054</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>1.96463654223967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -31606,11 +31830,14 @@
       </c>
       <c r="DX28" t="n">
         <v>5.73606097071801</v>
+      </c>
+      <c r="DY28" t="n">
+        <v>5.90050134978789</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31991,12 +32218,15 @@
         <v>1.07361963190182</v>
       </c>
       <c r="DX29" t="n">
-        <v>-0.475341651812247</v>
+        <v>-0.11883541295307</v>
+      </c>
+      <c r="DY29" t="n">
+        <v>-0.366076876143987</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -32377,12 +32607,15 @@
         <v>1.64778578784757</v>
       </c>
       <c r="DX30" t="n">
-        <v>-1.06044538706257</v>
+        <v>0.212089077412516</v>
+      </c>
+      <c r="DY30" t="n">
+        <v>0.410677618069836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -32511,10 +32744,11 @@
       <c r="DV31"/>
       <c r="DW31"/>
       <c r="DX31"/>
+      <c r="DY31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32895,12 +33129,15 @@
         <v>-6.9047619047619</v>
       </c>
       <c r="DX32" t="n">
-        <v>-7.49279538904899</v>
+        <v>-6.91642651296832</v>
+      </c>
+      <c r="DY32" t="n">
+        <v>-3.18840579710145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -33281,12 +33518,15 @@
         <v>2.95790671217292</v>
       </c>
       <c r="DX33" t="n">
-        <v>1.94300518134717</v>
+        <v>2.07253886010364</v>
+      </c>
+      <c r="DY33" t="n">
+        <v>0.876095118898609</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -33668,11 +33908,14 @@
       </c>
       <c r="DX34" t="n">
         <v>5.68862275449101</v>
+      </c>
+      <c r="DY34" t="n">
+        <v>5.60344827586208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -34053,12 +34296,15 @@
         <v>0.25641025641026</v>
       </c>
       <c r="DX35" t="n">
-        <v>-0.0000000000000219982271133158</v>
+        <v>2.4767801857585</v>
+      </c>
+      <c r="DY35" t="n">
+        <v>2.73556231003039</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -34440,11 +34686,14 @@
       </c>
       <c r="DX36" t="n">
         <v>3.66935483870969</v>
+      </c>
+      <c r="DY36" t="n">
+        <v>4.17000801924619</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34825,12 +35074,15 @@
         <v>11.6352201257862</v>
       </c>
       <c r="DX37" t="n">
-        <v>7.75577557755775</v>
+        <v>8.41584158415842</v>
+      </c>
+      <c r="DY37" t="n">
+        <v>1.88133140376268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -35211,12 +35463,15 @@
         <v>3.33594361785436</v>
       </c>
       <c r="DX38" t="n">
-        <v>1.7961807525052</v>
+        <v>3.25203252032521</v>
+      </c>
+      <c r="DY38" t="n">
+        <v>2.45561012466944</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -35598,11 +35853,14 @@
       </c>
       <c r="DX39" t="n">
         <v>0.721561969439736</v>
+      </c>
+      <c r="DY39" t="n">
+        <v>0.632688927943745</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35984,11 +36242,14 @@
       </c>
       <c r="DX40" t="n">
         <v>-6.4516129032258</v>
+      </c>
+      <c r="DY40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -36369,12 +36630,15 @@
         <v>0.562271577171774</v>
       </c>
       <c r="DX41" t="n">
-        <v>1.39494333042719</v>
+        <v>1.5111886079628</v>
+      </c>
+      <c r="DY41" t="n">
+        <v>1.90311418685122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -36755,12 +37019,15 @@
         <v>1.73584905660378</v>
       </c>
       <c r="DX42" t="n">
-        <v>2.61437908496731</v>
+        <v>-0.0816993464052357</v>
+      </c>
+      <c r="DY42" t="n">
+        <v>0.952380952380943</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -37141,12 +37408,15 @@
         <v>7.19152157456472</v>
       </c>
       <c r="DX43" t="n">
-        <v>2.39190432382705</v>
+        <v>1.93192272309108</v>
+      </c>
+      <c r="DY43" t="n">
+        <v>1.806684733514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -37528,11 +37798,14 @@
       </c>
       <c r="DX44" t="n">
         <v>0.930059523809524</v>
+      </c>
+      <c r="DY44" t="n">
+        <v>2.05655526992287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37913,12 +38186,15 @@
         <v>1.48698884758365</v>
       </c>
       <c r="DX45" t="n">
-        <v>-2.13675213675214</v>
+        <v>-1.7094017094017</v>
+      </c>
+      <c r="DY45" t="n">
+        <v>-4.64135021097046</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -38299,12 +38575,15 @@
         <v>0.257400257400261</v>
       </c>
       <c r="DX46" t="n">
-        <v>0</v>
+        <v>-0.747790618626781</v>
+      </c>
+      <c r="DY46" t="n">
+        <v>-1.00468854655057</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -38685,12 +38964,15 @@
         <v>2.10210210210211</v>
       </c>
       <c r="DX47" t="n">
-        <v>1.06761565836298</v>
+        <v>0.355871886121001</v>
+      </c>
+      <c r="DY47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -39071,12 +39353,15 @@
         <v>0.626304801670155</v>
       </c>
       <c r="DX48" t="n">
-        <v>0.899820035992801</v>
+        <v>1.13977204559089</v>
+      </c>
+      <c r="DY48" t="n">
+        <v>0.773053561568182</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -39457,12 +39742,15 @@
         <v>2.31046931407941</v>
       </c>
       <c r="DX49" t="n">
-        <v>1.50196115947575</v>
+        <v>1.43499473835263</v>
+      </c>
+      <c r="DY49" t="n">
+        <v>1.77631578947369</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -39844,11 +40132,14 @@
       </c>
       <c r="DX50" t="n">
         <v>6.01577909270216</v>
+      </c>
+      <c r="DY50" t="n">
+        <v>5.28756957328386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -40229,12 +40520,15 @@
         <v>8.08823529411764</v>
       </c>
       <c r="DX51" t="n">
-        <v>5.24193548387099</v>
+        <v>6.04838709677421</v>
+      </c>
+      <c r="DY51" t="n">
+        <v>5.57768924302788</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -40615,12 +40909,15 @@
         <v>2.27424749163878</v>
       </c>
       <c r="DX52" t="n">
-        <v>3.09433962264151</v>
+        <v>3.81132075471699</v>
+      </c>
+      <c r="DY52" t="n">
+        <v>4.67753366406803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -41001,12 +41298,15 @@
         <v>3.35542667771334</v>
       </c>
       <c r="DX53" t="n">
-        <v>0.43630017452007</v>
+        <v>0.349040139616061</v>
+      </c>
+      <c r="DY53" t="n">
+        <v>-2.52593594948128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -41388,11 +41688,14 @@
       </c>
       <c r="DX54" t="n">
         <v>1.57170923379176</v>
+      </c>
+      <c r="DY54" t="n">
+        <v>1.48148148148149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -41773,12 +42076,15 @@
         <v>1.77038626609441</v>
       </c>
       <c r="DX55" t="n">
-        <v>-1.05944673337256</v>
+        <v>0.0000000000000167284928960589</v>
+      </c>
+      <c r="DY55" t="n">
+        <v>-0.777511961722495</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -42159,7 +42465,10 @@
         <v>2.93040293040293</v>
       </c>
       <c r="DX56" t="n">
-        <v>0</v>
+        <v>-0.829875518672211</v>
+      </c>
+      <c r="DY56" t="n">
+        <v>-0.0000000000000144419255235793</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t xml:space="preserve">08/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1347,10 +1350,13 @@
       <c r="EK4" t="s">
         <v>140</v>
       </c>
+      <c r="EL4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1767,15 +1773,18 @@
         <v>10121.8</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9035.6</v>
+        <v>9039</v>
       </c>
       <c r="EK5" t="n">
-        <v>9318.1</v>
+        <v>9474.7</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>10620.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2195,12 +2204,15 @@
         <v>160.7</v>
       </c>
       <c r="EK6" t="n">
-        <v>163.9</v>
+        <v>165</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>171.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2621,11 +2633,14 @@
       </c>
       <c r="EK7" t="n">
         <v>21.4</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3045,12 +3060,15 @@
         <v>151</v>
       </c>
       <c r="EK8" t="n">
-        <v>182.9</v>
+        <v>185.5</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>201.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3471,11 +3489,14 @@
       </c>
       <c r="EK9" t="n">
         <v>87</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>100.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3895,12 +3916,15 @@
         <v>1065.7</v>
       </c>
       <c r="EK10" t="n">
-        <v>1115.2</v>
+        <v>1111</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>1187.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4320,12 +4344,15 @@
         <v>197.5</v>
       </c>
       <c r="EK11" t="n">
-        <v>203.4</v>
+        <v>206.3</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>224.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4745,12 +4772,15 @@
         <v>96.7</v>
       </c>
       <c r="EK12" t="n">
-        <v>97.9</v>
+        <v>97.8</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>124.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5170,12 +5200,15 @@
         <v>33.8</v>
       </c>
       <c r="EK13" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5317,10 +5350,11 @@
       <c r="EI14"/>
       <c r="EJ14"/>
       <c r="EK14"/>
+      <c r="EL14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5740,12 +5774,15 @@
         <v>392.9</v>
       </c>
       <c r="EK15" t="n">
-        <v>461.9</v>
+        <v>459.2</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>487.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6165,12 +6202,15 @@
         <v>321.8</v>
       </c>
       <c r="EK16" t="n">
-        <v>343.1</v>
+        <v>344.2</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>350.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6312,10 +6352,11 @@
       <c r="EI17"/>
       <c r="EJ17"/>
       <c r="EK17"/>
+      <c r="EL17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6735,12 +6776,15 @@
         <v>54.9</v>
       </c>
       <c r="EK18" t="n">
-        <v>54.7</v>
+        <v>57.1</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7160,12 +7204,15 @@
         <v>380.8</v>
       </c>
       <c r="EK19" t="n">
-        <v>384</v>
+        <v>384.8</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>445.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7585,12 +7632,15 @@
         <v>171.2</v>
       </c>
       <c r="EK20" t="n">
-        <v>207.5</v>
+        <v>206.5</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>229.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8010,12 +8060,15 @@
         <v>115.4</v>
       </c>
       <c r="EK21" t="n">
-        <v>120.4</v>
+        <v>119.2</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>142.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8435,12 +8488,15 @@
         <v>103.3</v>
       </c>
       <c r="EK22" t="n">
-        <v>110.8</v>
+        <v>112.2</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>132.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8861,11 +8917,14 @@
       </c>
       <c r="EK23" t="n">
         <v>150.9</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>161.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9285,12 +9344,15 @@
         <v>132.1</v>
       </c>
       <c r="EK24" t="n">
-        <v>139.5</v>
+        <v>140.5</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9711,11 +9773,14 @@
       </c>
       <c r="EK25" t="n">
         <v>39.5</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>49.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10135,12 +10200,15 @@
         <v>196.1</v>
       </c>
       <c r="EK26" t="n">
-        <v>198.1</v>
+        <v>197.7</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>220.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10560,12 +10628,15 @@
         <v>210.8</v>
       </c>
       <c r="EK27" t="n">
-        <v>207.6</v>
+        <v>207.5</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>239.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10985,12 +11056,15 @@
         <v>263.6</v>
       </c>
       <c r="EK28" t="n">
-        <v>274.6</v>
+        <v>272.7</v>
+      </c>
+      <c r="EL28" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11410,12 +11484,15 @@
         <v>168.1</v>
       </c>
       <c r="EK29" t="n">
-        <v>163.3</v>
+        <v>164.3</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>194.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11835,12 +11912,15 @@
         <v>94.5</v>
       </c>
       <c r="EK30" t="n">
-        <v>97.8</v>
+        <v>99.6</v>
+      </c>
+      <c r="EL30" t="n">
+        <v>104.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11982,10 +12062,11 @@
       <c r="EI31"/>
       <c r="EJ31"/>
       <c r="EK31"/>
+      <c r="EL31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12406,11 +12487,14 @@
       </c>
       <c r="EK32" t="n">
         <v>33.4</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>39.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12830,12 +12914,15 @@
         <v>78.8</v>
       </c>
       <c r="EK33" t="n">
-        <v>80.6</v>
+        <v>81</v>
+      </c>
+      <c r="EL33" t="n">
+        <v>92.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13255,12 +13342,15 @@
         <v>70.6</v>
       </c>
       <c r="EK34" t="n">
-        <v>73.5</v>
+        <v>69</v>
+      </c>
+      <c r="EL34" t="n">
+        <v>78.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13680,12 +13770,15 @@
         <v>33.1</v>
       </c>
       <c r="EK35" t="n">
-        <v>33.8</v>
+        <v>33.1</v>
+      </c>
+      <c r="EL35" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14105,12 +14198,15 @@
         <v>257.1</v>
       </c>
       <c r="EK36" t="n">
-        <v>259.8</v>
+        <v>259.6</v>
+      </c>
+      <c r="EL36" t="n">
+        <v>303.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14530,12 +14626,15 @@
         <v>65.7</v>
       </c>
       <c r="EK37" t="n">
-        <v>70.4</v>
+        <v>71.6</v>
+      </c>
+      <c r="EL37" t="n">
+        <v>78.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14955,12 +15054,15 @@
         <v>546.1</v>
       </c>
       <c r="EK38" t="n">
-        <v>542.4</v>
+        <v>532.9</v>
+      </c>
+      <c r="EL38" t="n">
+        <v>651.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15381,11 +15483,14 @@
       </c>
       <c r="EK39" t="n">
         <v>286.3</v>
+      </c>
+      <c r="EL39" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15806,11 +15911,14 @@
       </c>
       <c r="EK40" t="n">
         <v>28.8</v>
+      </c>
+      <c r="EL40" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16230,12 +16338,15 @@
         <v>349.3</v>
       </c>
       <c r="EK41" t="n">
-        <v>353.4</v>
+        <v>349.8</v>
+      </c>
+      <c r="EL41" t="n">
+        <v>383.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16655,12 +16766,15 @@
         <v>122.3</v>
       </c>
       <c r="EK42" t="n">
-        <v>127.2</v>
+        <v>129.1</v>
+      </c>
+      <c r="EL42" t="n">
+        <v>148.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -17080,12 +17194,15 @@
         <v>110.8</v>
       </c>
       <c r="EK43" t="n">
-        <v>112.7</v>
+        <v>112.5</v>
+      </c>
+      <c r="EL43" t="n">
+        <v>127.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17505,12 +17622,15 @@
         <v>271.3</v>
       </c>
       <c r="EK44" t="n">
-        <v>277.9</v>
+        <v>278</v>
+      </c>
+      <c r="EL44" t="n">
+        <v>319.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17930,12 +18050,15 @@
         <v>23</v>
       </c>
       <c r="EK45" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
+      </c>
+      <c r="EL45" t="n">
+        <v>28.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18355,12 +18478,15 @@
         <v>146</v>
       </c>
       <c r="EK46" t="n">
-        <v>147.8</v>
+        <v>150.8</v>
+      </c>
+      <c r="EL46" t="n">
+        <v>161.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18780,12 +18906,15 @@
         <v>28.2</v>
       </c>
       <c r="EK47" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
+      </c>
+      <c r="EL47" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19205,12 +19334,15 @@
         <v>168.6</v>
       </c>
       <c r="EK48" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
+      </c>
+      <c r="EL48" t="n">
+        <v>206.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19630,12 +19762,15 @@
         <v>1060.3</v>
       </c>
       <c r="EK49" t="n">
-        <v>1082.9</v>
+        <v>1087.7</v>
+      </c>
+      <c r="EL49" t="n">
+        <v>1154.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -20056,11 +20191,14 @@
       </c>
       <c r="EK50" t="n">
         <v>113.5</v>
+      </c>
+      <c r="EL50" t="n">
+        <v>128.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20481,11 +20619,14 @@
       </c>
       <c r="EK51" t="n">
         <v>26.5</v>
+      </c>
+      <c r="EL51" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20905,12 +21046,15 @@
         <v>275.1</v>
       </c>
       <c r="EK52" t="n">
-        <v>295.4</v>
+        <v>292.2</v>
+      </c>
+      <c r="EL52" t="n">
+        <v>318.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21330,12 +21474,15 @@
         <v>230</v>
       </c>
       <c r="EK53" t="n">
-        <v>216.1</v>
+        <v>218.8</v>
+      </c>
+      <c r="EL53" t="n">
+        <v>230.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21755,12 +21902,15 @@
         <v>51.7</v>
       </c>
       <c r="EK54" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
+      </c>
+      <c r="EL54" t="n">
+        <v>59.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -22180,12 +22330,15 @@
         <v>169.9</v>
       </c>
       <c r="EK55" t="n">
-        <v>165.9</v>
+        <v>166.8</v>
+      </c>
+      <c r="EL55" t="n">
+        <v>206.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22605,7 +22758,10 @@
         <v>23.9</v>
       </c>
       <c r="EK56" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
+      </c>
+      <c r="EL56" t="n">
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -23010,10 +23166,13 @@
       <c r="DY4" t="s">
         <v>140</v>
       </c>
+      <c r="DZ4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23394,15 +23553,18 @@
         <v>2.4888618874038</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.66180987634875</v>
+        <v>1.7000641321347</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.572039157699323</v>
+        <v>2.26225297082601</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>2.69590778989711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23786,12 +23948,15 @@
         <v>0</v>
       </c>
       <c r="DY6" t="n">
-        <v>0</v>
+        <v>0.671140939597312</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0.999412110523232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -24176,11 +24341,14 @@
       </c>
       <c r="DY7" t="n">
         <v>0.0000000000000166014657887874</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.740740740740751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24564,12 +24732,15 @@
         <v>2.86103542234332</v>
       </c>
       <c r="DY8" t="n">
-        <v>2.46498599439775</v>
+        <v>3.92156862745098</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>5.32637075718015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24954,11 +25125,14 @@
       </c>
       <c r="DY9" t="n">
         <v>0.578034682080925</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.599999999999994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -25342,12 +25516,15 @@
         <v>2.24503501870863</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.78341013824885</v>
+        <v>2.3963133640553</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>2.34422132207188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25731,12 +25908,15 @@
         <v>6.01180891035963</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.57186081694401</v>
+        <v>4.03429147755925</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>2.79431974347227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -26120,12 +26300,15 @@
         <v>-0.309278350515461</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.305498981670058</v>
+        <v>-0.407331975560073</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>2.55354200988467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -26509,12 +26692,15 @@
         <v>0</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.611620795107042</v>
+        <v>1.52905198776758</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>0.54794520547946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -26644,10 +26830,11 @@
       <c r="DW14"/>
       <c r="DX14"/>
       <c r="DY14"/>
+      <c r="DZ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -27031,12 +27218,15 @@
         <v>1.81394143560509</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.98719364098035</v>
+        <v>1.39103554868625</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>2.22408728493495</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27420,12 +27610,15 @@
         <v>4.14239482200648</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.4179104477612</v>
+        <v>2.74626865671641</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>3.35886859163229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -27555,10 +27748,11 @@
       <c r="DW17"/>
       <c r="DX17"/>
       <c r="DY17"/>
+      <c r="DZ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27942,12 +28136,15 @@
         <v>6.60194174757281</v>
       </c>
       <c r="DY18" t="n">
-        <v>3.79506641366223</v>
+        <v>8.34914611005691</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>8.88157894736841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -28331,12 +28528,15 @@
         <v>3.4782608695652</v>
       </c>
       <c r="DY19" t="n">
-        <v>2.92146877512732</v>
+        <v>3.13588850174216</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>3.68040996971815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -28720,12 +28920,15 @@
         <v>0.528479154433339</v>
       </c>
       <c r="DY20" t="n">
-        <v>-0.62260536398468</v>
+        <v>-1.10153256704981</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>2.40963855421686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -29109,12 +29312,15 @@
         <v>0.698080279232122</v>
       </c>
       <c r="DY21" t="n">
-        <v>1.34680134680134</v>
+        <v>0.336700336700341</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0.995024875621895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -29498,12 +29704,15 @@
         <v>1.37389597644749</v>
       </c>
       <c r="DY22" t="n">
-        <v>0.362318840579702</v>
+        <v>1.63043478260869</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>1.22137404580152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29888,11 +30097,14 @@
       </c>
       <c r="DY23" t="n">
         <v>3.07377049180326</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>2.21940393151554</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -30276,12 +30488,15 @@
         <v>2.24458204334366</v>
       </c>
       <c r="DY24" t="n">
-        <v>1.52838427947598</v>
+        <v>2.25618631732168</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>3.09278350515464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -30666,11 +30881,14 @@
       </c>
       <c r="DY25" t="n">
         <v>0.50890585241731</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>-0.201612903225809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -31054,12 +31272,15 @@
         <v>2.56276150627615</v>
       </c>
       <c r="DY26" t="n">
-        <v>4.42804428044281</v>
+        <v>4.21718502899313</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>3.57142857142856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -31443,12 +31664,15 @@
         <v>1.83574879227054</v>
       </c>
       <c r="DY27" t="n">
-        <v>1.96463654223967</v>
+        <v>1.91552062868368</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>0.587248322147665</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -31832,12 +32056,15 @@
         <v>5.73606097071801</v>
       </c>
       <c r="DY28" t="n">
-        <v>5.90050134978789</v>
+        <v>5.1677593521018</v>
+      </c>
+      <c r="DZ28" t="n">
+        <v>5.43442889684347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -32221,12 +32448,15 @@
         <v>-0.11883541295307</v>
       </c>
       <c r="DY29" t="n">
-        <v>-0.366076876143987</v>
+        <v>0.244051250762664</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>1.67451596023025</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -32610,12 +32840,15 @@
         <v>0.212089077412516</v>
       </c>
       <c r="DY30" t="n">
-        <v>0.410677618069836</v>
+        <v>2.25872689938399</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>0.965250965250951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -32745,10 +32978,11 @@
       <c r="DW31"/>
       <c r="DX31"/>
       <c r="DY31"/>
+      <c r="DZ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -33133,11 +33367,14 @@
       </c>
       <c r="DY32" t="n">
         <v>-3.18840579710145</v>
+      </c>
+      <c r="DZ32" t="n">
+        <v>-6.57276995305165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -33521,12 +33758,15 @@
         <v>2.07253886010364</v>
       </c>
       <c r="DY33" t="n">
-        <v>0.876095118898609</v>
+        <v>1.3767209011264</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>1.64654226125137</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -33910,12 +34150,15 @@
         <v>5.68862275449101</v>
       </c>
       <c r="DY34" t="n">
-        <v>5.60344827586208</v>
+        <v>-0.862068965517233</v>
+      </c>
+      <c r="DZ34" t="n">
+        <v>-1.13924050632912</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -34299,12 +34542,15 @@
         <v>2.4767801857585</v>
       </c>
       <c r="DY35" t="n">
-        <v>2.73556231003039</v>
+        <v>0.607902735562319</v>
+      </c>
+      <c r="DZ35" t="n">
+        <v>2.70270270270269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -34688,12 +34934,15 @@
         <v>3.66935483870969</v>
       </c>
       <c r="DY36" t="n">
-        <v>4.17000801924619</v>
+        <v>4.08981555733762</v>
+      </c>
+      <c r="DZ36" t="n">
+        <v>3.72777017783857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -35077,12 +35326,15 @@
         <v>8.41584158415842</v>
       </c>
       <c r="DY37" t="n">
-        <v>1.88133140376268</v>
+        <v>3.61794500723589</v>
+      </c>
+      <c r="DZ37" t="n">
+        <v>4.95314591700136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -35466,12 +35718,15 @@
         <v>3.25203252032521</v>
       </c>
       <c r="DY38" t="n">
-        <v>2.45561012466944</v>
+        <v>0.661125802795618</v>
+      </c>
+      <c r="DZ38" t="n">
+        <v>3.25087218522042</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -35856,11 +36111,14 @@
       </c>
       <c r="DY39" t="n">
         <v>0.632688927943745</v>
+      </c>
+      <c r="DZ39" t="n">
+        <v>0.726239343227032</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -36245,11 +36503,14 @@
       </c>
       <c r="DY40" t="n">
         <v>0</v>
+      </c>
+      <c r="DZ40" t="n">
+        <v>3.55191256830602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -36633,12 +36894,15 @@
         <v>1.5111886079628</v>
       </c>
       <c r="DY41" t="n">
-        <v>1.90311418685122</v>
+        <v>0.865051903114187</v>
+      </c>
+      <c r="DZ41" t="n">
+        <v>1.32135306553913</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -37022,12 +37286,15 @@
         <v>-0.0816993464052357</v>
       </c>
       <c r="DY42" t="n">
-        <v>0.952380952380943</v>
+        <v>2.46031746031746</v>
+      </c>
+      <c r="DZ42" t="n">
+        <v>2.70457697642164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -37411,12 +37678,15 @@
         <v>1.93192272309108</v>
       </c>
       <c r="DY43" t="n">
-        <v>1.806684733514</v>
+        <v>1.6260162601626</v>
+      </c>
+      <c r="DZ43" t="n">
+        <v>2.24899598393575</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -37800,12 +38070,15 @@
         <v>0.930059523809524</v>
       </c>
       <c r="DY44" t="n">
-        <v>2.05655526992287</v>
+        <v>2.0932794711715</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>-0.621310966138552</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -38189,12 +38462,15 @@
         <v>-1.7094017094017</v>
       </c>
       <c r="DY45" t="n">
-        <v>-4.64135021097046</v>
+        <v>-2.1097046413502</v>
+      </c>
+      <c r="DZ45" t="n">
+        <v>1.79211469534049</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -38578,12 +38854,15 @@
         <v>-0.747790618626781</v>
       </c>
       <c r="DY46" t="n">
-        <v>-1.00468854655057</v>
+        <v>1.00468854655057</v>
+      </c>
+      <c r="DZ46" t="n">
+        <v>-0.0620347394540908</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -38967,12 +39246,15 @@
         <v>0.355871886121001</v>
       </c>
       <c r="DY47" t="n">
-        <v>0</v>
+        <v>2.39726027397259</v>
+      </c>
+      <c r="DZ47" t="n">
+        <v>3.83561643835616</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -39356,12 +39638,15 @@
         <v>1.13977204559089</v>
       </c>
       <c r="DY48" t="n">
-        <v>0.773053561568182</v>
+        <v>0.552181115405853</v>
+      </c>
+      <c r="DZ48" t="n">
+        <v>0.632911392405055</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -39745,12 +40030,15 @@
         <v>1.43499473835263</v>
       </c>
       <c r="DY49" t="n">
-        <v>1.77631578947369</v>
+        <v>2.22744360902256</v>
+      </c>
+      <c r="DZ49" t="n">
+        <v>2.03323903818953</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -40135,11 +40423,14 @@
       </c>
       <c r="DY50" t="n">
         <v>5.28756957328386</v>
+      </c>
+      <c r="DZ50" t="n">
+        <v>4.56769983686785</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -40524,11 +40815,14 @@
       </c>
       <c r="DY51" t="n">
         <v>5.57768924302788</v>
+      </c>
+      <c r="DZ51" t="n">
+        <v>5.2117263843648</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -40912,12 +41206,15 @@
         <v>3.81132075471699</v>
       </c>
       <c r="DY52" t="n">
-        <v>4.67753366406803</v>
+        <v>3.54358610914245</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>1.75887432043492</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -41301,12 +41598,15 @@
         <v>0.349040139616061</v>
       </c>
       <c r="DY53" t="n">
-        <v>-2.52593594948128</v>
+        <v>-1.30807397383851</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>-1.82978723404256</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -41690,12 +41990,15 @@
         <v>1.57170923379176</v>
       </c>
       <c r="DY54" t="n">
-        <v>1.48148148148149</v>
+        <v>1.66666666666668</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>-0.834724540901491</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -42079,12 +42382,15 @@
         <v>0.0000000000000167284928960589</v>
       </c>
       <c r="DY55" t="n">
-        <v>-0.777511961722495</v>
+        <v>-0.239234449760752</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>2.02269363591516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -42468,7 +42774,10 @@
         <v>-0.829875518672211</v>
       </c>
       <c r="DY56" t="n">
-        <v>-0.0000000000000144419255235793</v>
+        <v>-0.406504065040656</v>
+      </c>
+      <c r="DZ56" t="n">
+        <v>1.37931034482758</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t xml:space="preserve">08/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1347,10 +1353,16 @@
       <c r="EK4" t="s">
         <v>140</v>
       </c>
+      <c r="EL4" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1767,15 +1779,21 @@
         <v>10121.8</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9035.6</v>
+        <v>9039</v>
       </c>
       <c r="EK5" t="n">
-        <v>9318.1</v>
+        <v>9484.3</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>10584.9</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>10929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2195,12 +2213,18 @@
         <v>160.7</v>
       </c>
       <c r="EK6" t="n">
-        <v>163.9</v>
+        <v>165</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>174.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2621,11 +2645,17 @@
       </c>
       <c r="EK7" t="n">
         <v>21.4</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>28.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3045,12 +3075,18 @@
         <v>151</v>
       </c>
       <c r="EK8" t="n">
-        <v>182.9</v>
+        <v>185.5</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>202.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3471,11 +3507,17 @@
       </c>
       <c r="EK9" t="n">
         <v>87</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3895,12 +3937,18 @@
         <v>1065.7</v>
       </c>
       <c r="EK10" t="n">
-        <v>1115.2</v>
+        <v>1111</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>1184.1</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>1234.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4320,12 +4368,18 @@
         <v>197.5</v>
       </c>
       <c r="EK11" t="n">
-        <v>203.4</v>
+        <v>206.3</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>231.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4745,12 +4799,18 @@
         <v>96.7</v>
       </c>
       <c r="EK12" t="n">
-        <v>97.9</v>
+        <v>97.8</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>127.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5170,12 +5230,18 @@
         <v>33.8</v>
       </c>
       <c r="EK13" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5317,10 +5383,12 @@
       <c r="EI14"/>
       <c r="EJ14"/>
       <c r="EK14"/>
+      <c r="EL14"/>
+      <c r="EM14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5740,12 +5808,18 @@
         <v>392.9</v>
       </c>
       <c r="EK15" t="n">
-        <v>461.9</v>
+        <v>459.2</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>484</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>491.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6165,12 +6239,18 @@
         <v>321.8</v>
       </c>
       <c r="EK16" t="n">
-        <v>343.1</v>
+        <v>344.2</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>350.4</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>352.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6312,10 +6392,12 @@
       <c r="EI17"/>
       <c r="EJ17"/>
       <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6735,12 +6817,18 @@
         <v>54.9</v>
       </c>
       <c r="EK18" t="n">
-        <v>54.7</v>
+        <v>57.1</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>64</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7160,12 +7248,18 @@
         <v>380.8</v>
       </c>
       <c r="EK19" t="n">
-        <v>384</v>
+        <v>384.8</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>445</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>456.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7585,12 +7679,18 @@
         <v>171.2</v>
       </c>
       <c r="EK20" t="n">
-        <v>207.5</v>
+        <v>206.5</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>235.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8010,12 +8110,18 @@
         <v>115.4</v>
       </c>
       <c r="EK21" t="n">
-        <v>120.4</v>
+        <v>119.2</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>147.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8435,12 +8541,18 @@
         <v>103.3</v>
       </c>
       <c r="EK22" t="n">
-        <v>110.8</v>
+        <v>112.2</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>138.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8861,11 +8973,17 @@
       </c>
       <c r="EK23" t="n">
         <v>150.9</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>163.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9285,12 +9403,18 @@
         <v>132.1</v>
       </c>
       <c r="EK24" t="n">
-        <v>139.5</v>
+        <v>140.5</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>151.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9711,11 +9835,17 @@
       </c>
       <c r="EK25" t="n">
         <v>39.5</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10135,12 +10265,18 @@
         <v>196.1</v>
       </c>
       <c r="EK26" t="n">
-        <v>198.1</v>
+        <v>197.7</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>219.8</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>224.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10560,12 +10696,18 @@
         <v>210.8</v>
       </c>
       <c r="EK27" t="n">
-        <v>207.6</v>
+        <v>207.5</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>240</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>247.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10985,12 +11127,18 @@
         <v>263.6</v>
       </c>
       <c r="EK28" t="n">
-        <v>274.6</v>
+        <v>272.7</v>
+      </c>
+      <c r="EL28" t="n">
+        <v>324</v>
+      </c>
+      <c r="EM28" t="n">
+        <v>334.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11410,12 +11558,18 @@
         <v>168.1</v>
       </c>
       <c r="EK29" t="n">
-        <v>163.3</v>
+        <v>164.3</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>194</v>
+      </c>
+      <c r="EM29" t="n">
+        <v>207.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11835,12 +11989,18 @@
         <v>94.5</v>
       </c>
       <c r="EK30" t="n">
-        <v>97.8</v>
+        <v>99.6</v>
+      </c>
+      <c r="EL30" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="EM30" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11982,10 +12142,12 @@
       <c r="EI31"/>
       <c r="EJ31"/>
       <c r="EK31"/>
+      <c r="EL31"/>
+      <c r="EM31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12406,11 +12568,17 @@
       </c>
       <c r="EK32" t="n">
         <v>33.4</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>42.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12830,12 +12998,18 @@
         <v>78.8</v>
       </c>
       <c r="EK33" t="n">
-        <v>80.6</v>
+        <v>81</v>
+      </c>
+      <c r="EL33" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="EM33" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13255,12 +13429,18 @@
         <v>70.6</v>
       </c>
       <c r="EK34" t="n">
-        <v>73.5</v>
+        <v>69</v>
+      </c>
+      <c r="EL34" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="EM34" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13680,12 +13860,18 @@
         <v>33.1</v>
       </c>
       <c r="EK35" t="n">
-        <v>33.8</v>
+        <v>33.1</v>
+      </c>
+      <c r="EL35" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="EM35" t="n">
+        <v>46.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14105,12 +14291,18 @@
         <v>257.1</v>
       </c>
       <c r="EK36" t="n">
-        <v>259.8</v>
+        <v>259.6</v>
+      </c>
+      <c r="EL36" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="EM36" t="n">
+        <v>323.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14530,12 +14722,18 @@
         <v>65.7</v>
       </c>
       <c r="EK37" t="n">
-        <v>70.4</v>
+        <v>71.6</v>
+      </c>
+      <c r="EL37" t="n">
+        <v>78.6</v>
+      </c>
+      <c r="EM37" t="n">
+        <v>81.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14955,12 +15153,18 @@
         <v>546.1</v>
       </c>
       <c r="EK38" t="n">
-        <v>542.4</v>
+        <v>532.9</v>
+      </c>
+      <c r="EL38" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="EM38" t="n">
+        <v>675.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15381,11 +15585,17 @@
       </c>
       <c r="EK39" t="n">
         <v>286.3</v>
+      </c>
+      <c r="EL39" t="n">
+        <v>319</v>
+      </c>
+      <c r="EM39" t="n">
+        <v>327.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15806,11 +16016,17 @@
       </c>
       <c r="EK40" t="n">
         <v>28.8</v>
+      </c>
+      <c r="EL40" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="EM40" t="n">
+        <v>39.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16230,12 +16446,18 @@
         <v>349.3</v>
       </c>
       <c r="EK41" t="n">
-        <v>353.4</v>
+        <v>349.8</v>
+      </c>
+      <c r="EL41" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="EM41" t="n">
+        <v>394.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16655,12 +16877,18 @@
         <v>122.3</v>
       </c>
       <c r="EK42" t="n">
-        <v>127.2</v>
+        <v>129.1</v>
+      </c>
+      <c r="EL42" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="EM42" t="n">
+        <v>153.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -17080,12 +17308,18 @@
         <v>110.8</v>
       </c>
       <c r="EK43" t="n">
-        <v>112.7</v>
+        <v>112.5</v>
+      </c>
+      <c r="EL43" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="EM43" t="n">
+        <v>137.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17505,12 +17739,18 @@
         <v>271.3</v>
       </c>
       <c r="EK44" t="n">
-        <v>277.9</v>
+        <v>278</v>
+      </c>
+      <c r="EL44" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="EM44" t="n">
+        <v>327.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17930,12 +18170,18 @@
         <v>23</v>
       </c>
       <c r="EK45" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
+      </c>
+      <c r="EL45" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="EM45" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18355,12 +18601,18 @@
         <v>146</v>
       </c>
       <c r="EK46" t="n">
-        <v>147.8</v>
+        <v>150.8</v>
+      </c>
+      <c r="EL46" t="n">
+        <v>161</v>
+      </c>
+      <c r="EM46" t="n">
+        <v>164.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18780,12 +19032,18 @@
         <v>28.2</v>
       </c>
       <c r="EK47" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
+      </c>
+      <c r="EL47" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="EM47" t="n">
+        <v>38.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19205,12 +19463,18 @@
         <v>168.6</v>
       </c>
       <c r="EK48" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
+      </c>
+      <c r="EL48" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="EM48" t="n">
+        <v>212.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19630,12 +19894,18 @@
         <v>1060.3</v>
       </c>
       <c r="EK49" t="n">
-        <v>1082.9</v>
+        <v>1087.7</v>
+      </c>
+      <c r="EL49" t="n">
+        <v>1156.5</v>
+      </c>
+      <c r="EM49" t="n">
+        <v>1191.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -20056,11 +20326,17 @@
       </c>
       <c r="EK50" t="n">
         <v>113.5</v>
+      </c>
+      <c r="EL50" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="EM50" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20481,11 +20757,17 @@
       </c>
       <c r="EK51" t="n">
         <v>26.5</v>
+      </c>
+      <c r="EL51" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="EM51" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20905,12 +21187,18 @@
         <v>275.1</v>
       </c>
       <c r="EK52" t="n">
-        <v>295.4</v>
+        <v>292.2</v>
+      </c>
+      <c r="EL52" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="EM52" t="n">
+        <v>328.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21330,12 +21618,18 @@
         <v>230</v>
       </c>
       <c r="EK53" t="n">
-        <v>216.1</v>
+        <v>218.8</v>
+      </c>
+      <c r="EL53" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="EM53" t="n">
+        <v>248.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21755,12 +22049,18 @@
         <v>51.7</v>
       </c>
       <c r="EK54" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
+      </c>
+      <c r="EL54" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="EM54" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -22180,12 +22480,18 @@
         <v>169.9</v>
       </c>
       <c r="EK55" t="n">
-        <v>165.9</v>
+        <v>166.8</v>
+      </c>
+      <c r="EL55" t="n">
+        <v>207</v>
+      </c>
+      <c r="EM55" t="n">
+        <v>216.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22605,7 +22911,13 @@
         <v>23.9</v>
       </c>
       <c r="EK56" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
+      </c>
+      <c r="EL56" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="EM56" t="n">
+        <v>30.3</v>
       </c>
     </row>
   </sheetData>
@@ -23010,10 +23322,16 @@
       <c r="DY4" t="s">
         <v>140</v>
       </c>
+      <c r="DZ4" t="s">
+        <v>141</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23394,15 +23712,21 @@
         <v>2.4888618874038</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.66180987634875</v>
+        <v>1.7000641321347</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.572039157699323</v>
+        <v>2.36586761071115</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>2.35263402181482</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>2.60719348811883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23786,12 +24110,18 @@
         <v>0</v>
       </c>
       <c r="DY6" t="n">
-        <v>0</v>
+        <v>0.671140939597312</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0.823045267489715</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.694042799305951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -24176,11 +24506,17 @@
       </c>
       <c r="DY7" t="n">
         <v>0.0000000000000166014657887874</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.740740740740751</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.714285714285724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24564,12 +24900,18 @@
         <v>2.86103542234332</v>
       </c>
       <c r="DY8" t="n">
-        <v>2.46498599439775</v>
+        <v>3.92156862745098</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>4.75195822454308</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>4.26954732510289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24954,11 +25296,17 @@
       </c>
       <c r="DY9" t="n">
         <v>0.578034682080925</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.599999999999994</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.293255131964821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -25342,12 +25690,18 @@
         <v>2.24503501870863</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.78341013824885</v>
+        <v>2.3963133640553</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>2.05119365681289</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1.76451187335093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25731,12 +26085,18 @@
         <v>6.01180891035963</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.57186081694401</v>
+        <v>4.03429147755925</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>2.70270270270269</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>3.75838926174497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -26120,12 +26480,18 @@
         <v>-0.309278350515461</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.305498981670058</v>
+        <v>-0.407331975560073</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1.72981878088962</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>2.08333333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -26509,12 +26875,18 @@
         <v>0</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.611620795107042</v>
+        <v>1.52905198776758</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>3.83561643835616</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>5.61497326203209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -26644,10 +27016,12 @@
       <c r="DW14"/>
       <c r="DX14"/>
       <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -27031,12 +27405,18 @@
         <v>1.81394143560509</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.98719364098035</v>
+        <v>1.39103554868625</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>1.55266470835081</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>1.80310880829015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27420,12 +27800,18 @@
         <v>4.14239482200648</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.4179104477612</v>
+        <v>2.74626865671641</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>3.24101355332941</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>3.09669880222026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -27555,10 +27941,12 @@
       <c r="DW17"/>
       <c r="DX17"/>
       <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27942,12 +28330,18 @@
         <v>6.60194174757281</v>
       </c>
       <c r="DY18" t="n">
-        <v>3.79506641366223</v>
+        <v>8.34914611005691</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>5.26315789473685</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>6.61417322834646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -28331,12 +28725,18 @@
         <v>3.4782608695652</v>
       </c>
       <c r="DY19" t="n">
-        <v>2.92146877512732</v>
+        <v>3.13588850174216</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>3.65711623573259</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>3.65576748410536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -28720,12 +29120,18 @@
         <v>0.528479154433339</v>
       </c>
       <c r="DY20" t="n">
-        <v>-0.62260536398468</v>
+        <v>-1.10153256704981</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>2.40963855421686</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>4.1611332447986</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -29109,12 +29515,18 @@
         <v>0.698080279232122</v>
       </c>
       <c r="DY21" t="n">
-        <v>1.34680134680134</v>
+        <v>0.336700336700341</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0.995024875621895</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>1.37080191912269</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -29498,12 +29910,18 @@
         <v>1.37389597644749</v>
       </c>
       <c r="DY22" t="n">
-        <v>0.362318840579702</v>
+        <v>1.63043478260869</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>1.45038167938932</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>2.28782287822878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29888,11 +30306,17 @@
       </c>
       <c r="DY23" t="n">
         <v>3.07377049180326</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>2.21940393151554</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>2.31684408265499</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -30276,12 +30700,18 @@
         <v>2.24458204334366</v>
       </c>
       <c r="DY24" t="n">
-        <v>1.52838427947598</v>
+        <v>2.25618631732168</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>3.1615120274914</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>2.22222222222223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -30666,11 +31096,17 @@
       </c>
       <c r="DY25" t="n">
         <v>0.50890585241731</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0.806451612903223</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>1.17878192534381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -31054,12 +31490,18 @@
         <v>2.56276150627615</v>
       </c>
       <c r="DY26" t="n">
-        <v>4.42804428044281</v>
+        <v>4.21718502899313</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>3.28947368421053</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>3.68833563854311</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -31443,12 +31885,18 @@
         <v>1.83574879227054</v>
       </c>
       <c r="DY27" t="n">
-        <v>1.96463654223967</v>
+        <v>1.91552062868368</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>0.671140939597325</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0.731409995936604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -31832,12 +32280,18 @@
         <v>5.73606097071801</v>
       </c>
       <c r="DY28" t="n">
-        <v>5.90050134978789</v>
+        <v>5.1677593521018</v>
+      </c>
+      <c r="DZ28" t="n">
+        <v>5.43442889684347</v>
+      </c>
+      <c r="EA28" t="n">
+        <v>4.47154471544716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -32221,12 +32675,18 @@
         <v>-0.11883541295307</v>
       </c>
       <c r="DY29" t="n">
-        <v>-0.366076876143987</v>
+        <v>0.244051250762664</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>1.51753008895866</v>
+      </c>
+      <c r="EA29" t="n">
+        <v>1.76730486008838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -32610,12 +33070,18 @@
         <v>0.212089077412516</v>
       </c>
       <c r="DY30" t="n">
-        <v>0.410677618069836</v>
+        <v>2.25872689938399</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>0.965250965250951</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>0.767754318618053</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -32745,10 +33211,12 @@
       <c r="DW31"/>
       <c r="DX31"/>
       <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -33133,11 +33601,17 @@
       </c>
       <c r="DY32" t="n">
         <v>-3.18840579710145</v>
+      </c>
+      <c r="DZ32" t="n">
+        <v>-4.46009389671361</v>
+      </c>
+      <c r="EA32" t="n">
+        <v>-2.97482837528605</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -33521,12 +33995,18 @@
         <v>2.07253886010364</v>
       </c>
       <c r="DY33" t="n">
-        <v>0.876095118898609</v>
+        <v>1.3767209011264</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>1.75631174533479</v>
+      </c>
+      <c r="EA33" t="n">
+        <v>1.15911485774499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -33910,12 +34390,18 @@
         <v>5.68862275449101</v>
       </c>
       <c r="DY34" t="n">
-        <v>5.60344827586208</v>
+        <v>-0.862068965517233</v>
+      </c>
+      <c r="DZ34" t="n">
+        <v>4.68354430379747</v>
+      </c>
+      <c r="EA34" t="n">
+        <v>5.97014925373134</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -34299,12 +34785,18 @@
         <v>2.4767801857585</v>
       </c>
       <c r="DY35" t="n">
-        <v>2.73556231003039</v>
+        <v>0.607902735562319</v>
+      </c>
+      <c r="DZ35" t="n">
+        <v>2.02702702702702</v>
+      </c>
+      <c r="EA35" t="n">
+        <v>1.96936542669582</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -34688,12 +35180,18 @@
         <v>3.66935483870969</v>
       </c>
       <c r="DY36" t="n">
-        <v>4.17000801924619</v>
+        <v>4.08981555733762</v>
+      </c>
+      <c r="DZ36" t="n">
+        <v>3.89876880984951</v>
+      </c>
+      <c r="EA36" t="n">
+        <v>5.19987000324994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -35077,12 +35575,18 @@
         <v>8.41584158415842</v>
       </c>
       <c r="DY37" t="n">
-        <v>1.88133140376268</v>
+        <v>3.61794500723589</v>
+      </c>
+      <c r="DZ37" t="n">
+        <v>5.22088353413655</v>
+      </c>
+      <c r="EA37" t="n">
+        <v>7.67195767195769</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -35466,12 +35970,18 @@
         <v>3.25203252032521</v>
       </c>
       <c r="DY38" t="n">
-        <v>2.45561012466944</v>
+        <v>0.661125802795618</v>
+      </c>
+      <c r="DZ38" t="n">
+        <v>3.25087218522042</v>
+      </c>
+      <c r="EA38" t="n">
+        <v>0.640739085084183</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -35856,11 +36366,17 @@
       </c>
       <c r="DY39" t="n">
         <v>0.632688927943745</v>
+      </c>
+      <c r="DZ39" t="n">
+        <v>0.726239343227032</v>
+      </c>
+      <c r="EA39" t="n">
+        <v>1.48837209302326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -36245,11 +36761,17 @@
       </c>
       <c r="DY40" t="n">
         <v>0</v>
+      </c>
+      <c r="DZ40" t="n">
+        <v>3.55191256830602</v>
+      </c>
+      <c r="EA40" t="n">
+        <v>3.64583333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -36633,12 +37155,18 @@
         <v>1.5111886079628</v>
       </c>
       <c r="DY41" t="n">
-        <v>1.90311418685122</v>
+        <v>0.865051903114187</v>
+      </c>
+      <c r="DZ41" t="n">
+        <v>1.42706131078225</v>
+      </c>
+      <c r="EA41" t="n">
+        <v>1.15384615384615</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -37022,12 +37550,18 @@
         <v>-0.0816993464052357</v>
       </c>
       <c r="DY42" t="n">
-        <v>0.952380952380943</v>
+        <v>2.46031746031746</v>
+      </c>
+      <c r="DZ42" t="n">
+        <v>3.74479889042996</v>
+      </c>
+      <c r="EA42" t="n">
+        <v>4.70668485675307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -37411,12 +37945,18 @@
         <v>1.93192272309108</v>
       </c>
       <c r="DY43" t="n">
-        <v>1.806684733514</v>
+        <v>1.6260162601626</v>
+      </c>
+      <c r="DZ43" t="n">
+        <v>1.9277108433735</v>
+      </c>
+      <c r="EA43" t="n">
+        <v>1.54981549815498</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -37800,12 +38340,18 @@
         <v>0.930059523809524</v>
       </c>
       <c r="DY44" t="n">
-        <v>2.05655526992287</v>
+        <v>2.0932794711715</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>-0.77663870767319</v>
+      </c>
+      <c r="EA44" t="n">
+        <v>-0.485731633272641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -38189,12 +38735,18 @@
         <v>-1.7094017094017</v>
       </c>
       <c r="DY45" t="n">
-        <v>-4.64135021097046</v>
+        <v>-2.1097046413502</v>
+      </c>
+      <c r="DZ45" t="n">
+        <v>1.4336917562724</v>
+      </c>
+      <c r="EA45" t="n">
+        <v>3.12500000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -38578,12 +39130,18 @@
         <v>-0.747790618626781</v>
       </c>
       <c r="DY46" t="n">
-        <v>-1.00468854655057</v>
+        <v>1.00468854655057</v>
+      </c>
+      <c r="DZ46" t="n">
+        <v>-0.124069478908182</v>
+      </c>
+      <c r="EA46" t="n">
+        <v>0.121951219512188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -38967,12 +39525,18 @@
         <v>0.355871886121001</v>
       </c>
       <c r="DY47" t="n">
-        <v>0</v>
+        <v>2.39726027397259</v>
+      </c>
+      <c r="DZ47" t="n">
+        <v>2.1917808219178</v>
+      </c>
+      <c r="EA47" t="n">
+        <v>1.8421052631579</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -39356,12 +39920,18 @@
         <v>1.13977204559089</v>
       </c>
       <c r="DY48" t="n">
-        <v>0.773053561568182</v>
+        <v>0.552181115405853</v>
+      </c>
+      <c r="DZ48" t="n">
+        <v>0.632911392405055</v>
+      </c>
+      <c r="EA48" t="n">
+        <v>1.9664268585132</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -39745,12 +40315,18 @@
         <v>1.43499473835263</v>
       </c>
       <c r="DY49" t="n">
-        <v>1.77631578947369</v>
+        <v>2.22744360902256</v>
+      </c>
+      <c r="DZ49" t="n">
+        <v>2.23656294200848</v>
+      </c>
+      <c r="EA49" t="n">
+        <v>1.86308862490387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -40135,11 +40711,17 @@
       </c>
       <c r="DY50" t="n">
         <v>5.28756957328386</v>
+      </c>
+      <c r="DZ50" t="n">
+        <v>4.56769983686785</v>
+      </c>
+      <c r="EA50" t="n">
+        <v>4.5958795562599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -40524,11 +41106,17 @@
       </c>
       <c r="DY51" t="n">
         <v>5.57768924302788</v>
+      </c>
+      <c r="DZ51" t="n">
+        <v>6.84039087947881</v>
+      </c>
+      <c r="EA51" t="n">
+        <v>6.23052959501558</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -40912,12 +41500,18 @@
         <v>3.81132075471699</v>
       </c>
       <c r="DY52" t="n">
-        <v>4.67753366406803</v>
+        <v>3.54358610914245</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>3.74160537256156</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>3.92156862745099</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -41301,12 +41895,18 @@
         <v>0.349040139616061</v>
       </c>
       <c r="DY53" t="n">
-        <v>-2.52593594948128</v>
+        <v>-1.30807397383851</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>-2.63829787234042</v>
+      </c>
+      <c r="EA53" t="n">
+        <v>-0.241157556270094</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -41690,12 +42290,18 @@
         <v>1.57170923379176</v>
       </c>
       <c r="DY54" t="n">
-        <v>1.48148148148149</v>
+        <v>1.66666666666668</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>-0.834724540901491</v>
+      </c>
+      <c r="EA54" t="n">
+        <v>-0.648298217179912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -42079,12 +42685,18 @@
         <v>0.0000000000000167284928960589</v>
       </c>
       <c r="DY55" t="n">
-        <v>-0.777511961722495</v>
+        <v>-0.239234449760752</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>2.12136161815491</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>2.26308345120227</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -42468,7 +43080,13 @@
         <v>-0.829875518672211</v>
       </c>
       <c r="DY56" t="n">
-        <v>-0.0000000000000144419255235793</v>
+        <v>-0.406504065040656</v>
+      </c>
+      <c r="DZ56" t="n">
+        <v>0.689655172413803</v>
+      </c>
+      <c r="EA56" t="n">
+        <v>0.664451827242522</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t xml:space="preserve">07/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1341,10 +1350,19 @@
       <c r="EJ4" t="s">
         <v>139</v>
       </c>
+      <c r="EK4" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1758,15 +1776,24 @@
         <v>10720.3</v>
       </c>
       <c r="EI5" t="n">
-        <v>10139.8</v>
+        <v>10121.8</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9046.6</v>
+        <v>9039</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>9484.3</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>10584.9</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>10929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2183,12 +2210,21 @@
         <v>169.2</v>
       </c>
       <c r="EJ6" t="n">
-        <v>160.8</v>
+        <v>160.7</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>165</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>174.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2606,11 +2642,20 @@
       </c>
       <c r="EJ7" t="n">
         <v>19.3</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>28.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3027,12 +3072,21 @@
         <v>152.7</v>
       </c>
       <c r="EJ8" t="n">
-        <v>151.9</v>
+        <v>151</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>202.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3450,11 +3504,20 @@
       </c>
       <c r="EJ9" t="n">
         <v>82.2</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>87</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>102.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3871,12 +3934,21 @@
         <v>1234.6</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1074.5</v>
+        <v>1065.7</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>1111</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>1184.1</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>1234.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4293,12 +4365,21 @@
         <v>211.2</v>
       </c>
       <c r="EJ11" t="n">
-        <v>197</v>
+        <v>197.5</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>231.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4716,11 +4797,20 @@
       </c>
       <c r="EJ12" t="n">
         <v>96.7</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>127.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5137,12 +5227,21 @@
         <v>35.2</v>
       </c>
       <c r="EJ13" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5283,10 +5382,13 @@
       <c r="EH14"/>
       <c r="EI14"/>
       <c r="EJ14"/>
+      <c r="EK14"/>
+      <c r="EL14"/>
+      <c r="EM14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5703,12 +5805,21 @@
         <v>399.2</v>
       </c>
       <c r="EJ15" t="n">
-        <v>393</v>
+        <v>392.9</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>459.2</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>484</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>491.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6125,12 +6236,21 @@
         <v>335.3</v>
       </c>
       <c r="EJ16" t="n">
-        <v>320</v>
+        <v>321.8</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>350.4</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>352.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6271,10 +6391,13 @@
       <c r="EH17"/>
       <c r="EI17"/>
       <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6692,11 +6815,20 @@
       </c>
       <c r="EJ18" t="n">
         <v>54.9</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>64</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7113,12 +7245,21 @@
         <v>408.7</v>
       </c>
       <c r="EJ19" t="n">
-        <v>380.6</v>
+        <v>380.8</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>445</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>456.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7535,12 +7676,21 @@
         <v>185.5</v>
       </c>
       <c r="EJ20" t="n">
-        <v>167.8</v>
+        <v>171.2</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>235.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -7957,12 +8107,21 @@
         <v>132.2</v>
       </c>
       <c r="EJ21" t="n">
-        <v>114.6</v>
+        <v>115.4</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>147.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8379,12 +8538,21 @@
         <v>119.9</v>
       </c>
       <c r="EJ22" t="n">
-        <v>102.6</v>
+        <v>103.3</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>138.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8801,12 +8969,21 @@
         <v>151.1</v>
       </c>
       <c r="EJ23" t="n">
-        <v>126.9</v>
+        <v>127.7</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>163.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9223,12 +9400,21 @@
         <v>139.1</v>
       </c>
       <c r="EJ24" t="n">
-        <v>131.9</v>
+        <v>132.1</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>151.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9646,11 +9832,20 @@
       </c>
       <c r="EJ25" t="n">
         <v>40.7</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10068,11 +10263,20 @@
       </c>
       <c r="EJ26" t="n">
         <v>196.1</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>219.8</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>224.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10489,12 +10693,21 @@
         <v>239.7</v>
       </c>
       <c r="EJ27" t="n">
-        <v>212.6</v>
+        <v>210.8</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>240</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>247.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -10912,11 +11125,20 @@
       </c>
       <c r="EJ28" t="n">
         <v>263.6</v>
+      </c>
+      <c r="EK28" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="EL28" t="n">
+        <v>324</v>
+      </c>
+      <c r="EM28" t="n">
+        <v>334.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11333,12 +11555,21 @@
         <v>197.7</v>
       </c>
       <c r="EJ29" t="n">
-        <v>167.5</v>
+        <v>168.1</v>
+      </c>
+      <c r="EK29" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>194</v>
+      </c>
+      <c r="EM29" t="n">
+        <v>207.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11755,12 +11986,21 @@
         <v>98.7</v>
       </c>
       <c r="EJ30" t="n">
-        <v>93.3</v>
+        <v>94.5</v>
+      </c>
+      <c r="EK30" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="EL30" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="EM30" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -11901,10 +12141,13 @@
       <c r="EH31"/>
       <c r="EI31"/>
       <c r="EJ31"/>
+      <c r="EK31"/>
+      <c r="EL31"/>
+      <c r="EM31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12321,12 +12564,21 @@
         <v>39.1</v>
       </c>
       <c r="EJ32" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>42.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -12743,12 +12995,21 @@
         <v>90.5</v>
       </c>
       <c r="EJ33" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
+      </c>
+      <c r="EK33" t="n">
+        <v>81</v>
+      </c>
+      <c r="EL33" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="EM33" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13166,11 +13427,20 @@
       </c>
       <c r="EJ34" t="n">
         <v>70.6</v>
+      </c>
+      <c r="EK34" t="n">
+        <v>69</v>
+      </c>
+      <c r="EL34" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="EM34" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13587,12 +13857,21 @@
         <v>39.1</v>
       </c>
       <c r="EJ35" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
+      </c>
+      <c r="EK35" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="EL35" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="EM35" t="n">
+        <v>46.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14010,11 +14289,20 @@
       </c>
       <c r="EJ36" t="n">
         <v>257.1</v>
+      </c>
+      <c r="EK36" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="EL36" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="EM36" t="n">
+        <v>323.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14431,12 +14719,21 @@
         <v>71</v>
       </c>
       <c r="EJ37" t="n">
-        <v>65.3</v>
+        <v>65.7</v>
+      </c>
+      <c r="EK37" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="EL37" t="n">
+        <v>78.6</v>
+      </c>
+      <c r="EM37" t="n">
+        <v>81.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -14853,12 +15150,21 @@
         <v>659.8</v>
       </c>
       <c r="EJ38" t="n">
-        <v>538.4</v>
+        <v>546.1</v>
+      </c>
+      <c r="EK38" t="n">
+        <v>532.9</v>
+      </c>
+      <c r="EL38" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="EM38" t="n">
+        <v>675.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15276,11 +15582,20 @@
       </c>
       <c r="EJ39" t="n">
         <v>237.3</v>
+      </c>
+      <c r="EK39" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="EL39" t="n">
+        <v>319</v>
+      </c>
+      <c r="EM39" t="n">
+        <v>327.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -15698,11 +16013,20 @@
       </c>
       <c r="EJ40" t="n">
         <v>26.1</v>
+      </c>
+      <c r="EK40" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="EL40" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="EM40" t="n">
+        <v>39.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16119,12 +16443,21 @@
         <v>357.7</v>
       </c>
       <c r="EJ41" t="n">
-        <v>348.9</v>
+        <v>349.3</v>
+      </c>
+      <c r="EK41" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="EL41" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="EM41" t="n">
+        <v>394.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16541,12 +16874,21 @@
         <v>134.8</v>
       </c>
       <c r="EJ42" t="n">
-        <v>125.6</v>
+        <v>122.3</v>
+      </c>
+      <c r="EK42" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="EL42" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="EM42" t="n">
+        <v>153.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -16963,12 +17305,21 @@
         <v>141.6</v>
       </c>
       <c r="EJ43" t="n">
-        <v>111.3</v>
+        <v>110.8</v>
+      </c>
+      <c r="EK43" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="EL43" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="EM43" t="n">
+        <v>137.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17386,11 +17737,20 @@
       </c>
       <c r="EJ44" t="n">
         <v>271.3</v>
+      </c>
+      <c r="EK44" t="n">
+        <v>278</v>
+      </c>
+      <c r="EL44" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="EM44" t="n">
+        <v>327.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -17807,12 +18167,21 @@
         <v>27.3</v>
       </c>
       <c r="EJ45" t="n">
-        <v>22.9</v>
+        <v>23</v>
+      </c>
+      <c r="EK45" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="EL45" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="EM45" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18229,12 +18598,21 @@
         <v>155.8</v>
       </c>
       <c r="EJ46" t="n">
-        <v>147.1</v>
+        <v>146</v>
+      </c>
+      <c r="EK46" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="EL46" t="n">
+        <v>161</v>
+      </c>
+      <c r="EM46" t="n">
+        <v>164.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -18651,12 +19029,21 @@
         <v>34</v>
       </c>
       <c r="EJ47" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
+      </c>
+      <c r="EK47" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="EL47" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="EM47" t="n">
+        <v>38.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19073,12 +19460,21 @@
         <v>192.8</v>
       </c>
       <c r="EJ48" t="n">
-        <v>168.2</v>
+        <v>168.6</v>
+      </c>
+      <c r="EK48" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="EL48" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="EM48" t="n">
+        <v>212.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19495,12 +19891,21 @@
         <v>1133.6</v>
       </c>
       <c r="EJ49" t="n">
-        <v>1061</v>
+        <v>1060.3</v>
+      </c>
+      <c r="EK49" t="n">
+        <v>1087.7</v>
+      </c>
+      <c r="EL49" t="n">
+        <v>1156.5</v>
+      </c>
+      <c r="EM49" t="n">
+        <v>1191.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -19918,11 +20323,20 @@
       </c>
       <c r="EJ50" t="n">
         <v>107.5</v>
+      </c>
+      <c r="EK50" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="EL50" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="EM50" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20339,12 +20753,21 @@
         <v>29.4</v>
       </c>
       <c r="EJ51" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
+      </c>
+      <c r="EK51" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="EL51" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="EM51" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -20761,12 +21184,21 @@
         <v>305.8</v>
       </c>
       <c r="EJ52" t="n">
-        <v>273.2</v>
+        <v>275.1</v>
+      </c>
+      <c r="EK52" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="EL52" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="EM52" t="n">
+        <v>328.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21183,12 +21615,21 @@
         <v>249.5</v>
       </c>
       <c r="EJ53" t="n">
-        <v>230.2</v>
+        <v>230</v>
+      </c>
+      <c r="EK53" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="EL53" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="EM53" t="n">
+        <v>248.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -21606,11 +22047,20 @@
       </c>
       <c r="EJ54" t="n">
         <v>51.7</v>
+      </c>
+      <c r="EK54" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="EL54" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="EM54" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -22027,12 +22477,21 @@
         <v>189.7</v>
       </c>
       <c r="EJ55" t="n">
-        <v>168.1</v>
+        <v>169.9</v>
+      </c>
+      <c r="EK55" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="EL55" t="n">
+        <v>207</v>
+      </c>
+      <c r="EM55" t="n">
+        <v>216.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22449,7 +22908,16 @@
         <v>28.1</v>
       </c>
       <c r="EJ56" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
+      </c>
+      <c r="EK56" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="EL56" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="EM56" t="n">
+        <v>30.3</v>
       </c>
     </row>
   </sheetData>
@@ -22851,10 +23319,19 @@
       <c r="DX4" t="s">
         <v>139</v>
       </c>
+      <c r="DY4" t="s">
+        <v>140</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>141</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23232,15 +23709,24 @@
         <v>2.36326483843862</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.67112191170514</v>
+        <v>2.4888618874038</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.785573645068</v>
+        <v>1.7000641321347</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>2.36586761071115</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>2.35263402181482</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>2.60719348811883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -23621,12 +24107,21 @@
         <v>0.594530321046373</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.06222775357811</v>
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0.671140939597312</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0.823045267489715</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.694042799305951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -24008,11 +24503,20 @@
       </c>
       <c r="DX7" t="n">
         <v>2.11640211640213</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.0000000000000166014657887874</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.740740740740751</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.714285714285724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24393,12 +24897,21 @@
         <v>1.73217854763491</v>
       </c>
       <c r="DX8" t="n">
-        <v>3.47411444141689</v>
+        <v>2.86103542234332</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>4.75195822454308</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>4.26954732510289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -24780,11 +25293,20 @@
       </c>
       <c r="DX9" t="n">
         <v>0.611995104039185</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.578034682080925</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.599999999999994</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.293255131964821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -25165,12 +25687,21 @@
         <v>2.72069223729094</v>
       </c>
       <c r="DX10" t="n">
-        <v>3.08932169241102</v>
+        <v>2.24503501870863</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>2.3963133640553</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>2.05119365681289</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1.76451187335093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -25551,12 +26082,21 @@
         <v>3.32681017612524</v>
       </c>
       <c r="DX11" t="n">
-        <v>5.74342458400429</v>
+        <v>6.01180891035963</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>4.03429147755925</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>2.70270270270269</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>3.75838926174497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -25938,11 +26478,20 @@
       </c>
       <c r="DX12" t="n">
         <v>-0.309278350515461</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>-0.407331975560073</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1.72981878088962</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>2.08333333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -26323,12 +26872,21 @@
         <v>0.57142857142858</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.887573964497054</v>
+        <v>0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>1.52905198776758</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>3.83561643835616</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>5.61497326203209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -26457,10 +27015,13 @@
       <c r="DV14"/>
       <c r="DW14"/>
       <c r="DX14"/>
+      <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -26841,12 +27402,21 @@
         <v>1.91473066122032</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.83985488468516</v>
+        <v>1.81394143560509</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>1.39103554868625</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>1.55266470835081</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>1.80310880829015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27227,12 +27797,21 @@
         <v>3.51960481630134</v>
       </c>
       <c r="DX16" t="n">
-        <v>3.55987055016181</v>
+        <v>4.14239482200648</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>2.74626865671641</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>3.24101355332941</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>3.09669880222026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -27361,10 +27940,13 @@
       <c r="DV17"/>
       <c r="DW17"/>
       <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -27746,11 +28328,20 @@
       </c>
       <c r="DX18" t="n">
         <v>6.60194174757281</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>8.34914611005691</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>5.26315789473685</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>6.61417322834646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -28131,12 +28722,21 @@
         <v>3.65204159269591</v>
       </c>
       <c r="DX19" t="n">
-        <v>3.42391304347827</v>
+        <v>3.4782608695652</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>3.13588850174216</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>3.65711623573259</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>3.65576748410536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -28517,12 +29117,21 @@
         <v>-2.87958115183246</v>
       </c>
       <c r="DX20" t="n">
-        <v>-1.46799765120376</v>
+        <v>0.528479154433339</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>-1.10153256704981</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>2.40963855421686</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>4.1611332447986</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -28903,12 +29512,21 @@
         <v>0.379650721336371</v>
       </c>
       <c r="DX21" t="n">
-        <v>0</v>
+        <v>0.698080279232122</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>0.336700336700341</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0.995024875621895</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>1.37080191912269</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -29289,12 +29907,21 @@
         <v>-0.580431177446093</v>
       </c>
       <c r="DX22" t="n">
-        <v>0.686947988223738</v>
+        <v>1.37389597644749</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>1.63043478260869</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>1.45038167938932</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>2.28782287822878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -29675,12 +30302,21 @@
         <v>1.75084175084175</v>
       </c>
       <c r="DX23" t="n">
-        <v>3.42298288508559</v>
+        <v>4.07497962510188</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>3.07377049180326</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>2.21940393151554</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>2.31684408265499</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -30061,12 +30697,21 @@
         <v>3.34323922734027</v>
       </c>
       <c r="DX24" t="n">
-        <v>2.08978328173376</v>
+        <v>2.24458204334366</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>2.25618631732168</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>3.1615120274914</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>2.22222222222223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -30448,11 +31093,20 @@
       </c>
       <c r="DX25" t="n">
         <v>0.742574257425753</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>0.50890585241731</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0.806451612903223</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>1.17878192534381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -30834,11 +31488,20 @@
       </c>
       <c r="DX26" t="n">
         <v>2.56276150627615</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>4.21718502899313</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>3.28947368421053</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>3.68833563854311</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -31219,12 +31882,21 @@
         <v>2.43589743589743</v>
       </c>
       <c r="DX27" t="n">
-        <v>2.70531400966183</v>
+        <v>1.83574879227054</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>1.91552062868368</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>0.671140939597325</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0.731409995936604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -31606,11 +32278,20 @@
       </c>
       <c r="DX28" t="n">
         <v>5.73606097071801</v>
+      </c>
+      <c r="DY28" t="n">
+        <v>5.1677593521018</v>
+      </c>
+      <c r="DZ28" t="n">
+        <v>5.43442889684347</v>
+      </c>
+      <c r="EA28" t="n">
+        <v>4.47154471544716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -31991,12 +32672,21 @@
         <v>1.07361963190182</v>
       </c>
       <c r="DX29" t="n">
-        <v>-0.475341651812247</v>
+        <v>-0.11883541295307</v>
+      </c>
+      <c r="DY29" t="n">
+        <v>0.244051250762664</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>1.51753008895866</v>
+      </c>
+      <c r="EA29" t="n">
+        <v>1.76730486008838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -32377,12 +33067,21 @@
         <v>1.64778578784757</v>
       </c>
       <c r="DX30" t="n">
-        <v>-1.06044538706257</v>
+        <v>0.212089077412516</v>
+      </c>
+      <c r="DY30" t="n">
+        <v>2.25872689938399</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>0.965250965250951</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>0.767754318618053</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -32511,10 +33210,13 @@
       <c r="DV31"/>
       <c r="DW31"/>
       <c r="DX31"/>
+      <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -32895,12 +33597,21 @@
         <v>-6.9047619047619</v>
       </c>
       <c r="DX32" t="n">
-        <v>-7.49279538904899</v>
+        <v>-6.91642651296832</v>
+      </c>
+      <c r="DY32" t="n">
+        <v>-3.18840579710145</v>
+      </c>
+      <c r="DZ32" t="n">
+        <v>-4.46009389671361</v>
+      </c>
+      <c r="EA32" t="n">
+        <v>-2.97482837528605</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -33281,12 +33992,21 @@
         <v>2.95790671217292</v>
       </c>
       <c r="DX33" t="n">
-        <v>1.94300518134717</v>
+        <v>2.07253886010364</v>
+      </c>
+      <c r="DY33" t="n">
+        <v>1.3767209011264</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>1.75631174533479</v>
+      </c>
+      <c r="EA33" t="n">
+        <v>1.15911485774499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -33668,11 +34388,20 @@
       </c>
       <c r="DX34" t="n">
         <v>5.68862275449101</v>
+      </c>
+      <c r="DY34" t="n">
+        <v>-0.862068965517233</v>
+      </c>
+      <c r="DZ34" t="n">
+        <v>4.68354430379747</v>
+      </c>
+      <c r="EA34" t="n">
+        <v>5.97014925373134</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -34053,12 +34782,21 @@
         <v>0.25641025641026</v>
       </c>
       <c r="DX35" t="n">
-        <v>-0.0000000000000219982271133158</v>
+        <v>2.4767801857585</v>
+      </c>
+      <c r="DY35" t="n">
+        <v>0.607902735562319</v>
+      </c>
+      <c r="DZ35" t="n">
+        <v>2.02702702702702</v>
+      </c>
+      <c r="EA35" t="n">
+        <v>1.96936542669582</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -34440,11 +35178,20 @@
       </c>
       <c r="DX36" t="n">
         <v>3.66935483870969</v>
+      </c>
+      <c r="DY36" t="n">
+        <v>4.08981555733762</v>
+      </c>
+      <c r="DZ36" t="n">
+        <v>3.89876880984951</v>
+      </c>
+      <c r="EA36" t="n">
+        <v>5.19987000324994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -34825,12 +35572,21 @@
         <v>11.6352201257862</v>
       </c>
       <c r="DX37" t="n">
-        <v>7.75577557755775</v>
+        <v>8.41584158415842</v>
+      </c>
+      <c r="DY37" t="n">
+        <v>3.61794500723589</v>
+      </c>
+      <c r="DZ37" t="n">
+        <v>5.22088353413655</v>
+      </c>
+      <c r="EA37" t="n">
+        <v>7.67195767195769</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -35211,12 +35967,21 @@
         <v>3.33594361785436</v>
       </c>
       <c r="DX38" t="n">
-        <v>1.7961807525052</v>
+        <v>3.25203252032521</v>
+      </c>
+      <c r="DY38" t="n">
+        <v>0.661125802795618</v>
+      </c>
+      <c r="DZ38" t="n">
+        <v>3.25087218522042</v>
+      </c>
+      <c r="EA38" t="n">
+        <v>0.640739085084183</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -35598,11 +36363,20 @@
       </c>
       <c r="DX39" t="n">
         <v>0.721561969439736</v>
+      </c>
+      <c r="DY39" t="n">
+        <v>0.632688927943745</v>
+      </c>
+      <c r="DZ39" t="n">
+        <v>0.726239343227032</v>
+      </c>
+      <c r="EA39" t="n">
+        <v>1.48837209302326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -35984,11 +36758,20 @@
       </c>
       <c r="DX40" t="n">
         <v>-6.4516129032258</v>
+      </c>
+      <c r="DY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ40" t="n">
+        <v>3.55191256830602</v>
+      </c>
+      <c r="EA40" t="n">
+        <v>3.64583333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -36369,12 +37152,21 @@
         <v>0.562271577171774</v>
       </c>
       <c r="DX41" t="n">
-        <v>1.39494333042719</v>
+        <v>1.5111886079628</v>
+      </c>
+      <c r="DY41" t="n">
+        <v>0.865051903114187</v>
+      </c>
+      <c r="DZ41" t="n">
+        <v>1.42706131078225</v>
+      </c>
+      <c r="EA41" t="n">
+        <v>1.15384615384615</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -36755,12 +37547,21 @@
         <v>1.73584905660378</v>
       </c>
       <c r="DX42" t="n">
-        <v>2.61437908496731</v>
+        <v>-0.0816993464052357</v>
+      </c>
+      <c r="DY42" t="n">
+        <v>2.46031746031746</v>
+      </c>
+      <c r="DZ42" t="n">
+        <v>3.74479889042996</v>
+      </c>
+      <c r="EA42" t="n">
+        <v>4.70668485675307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -37141,12 +37942,21 @@
         <v>7.19152157456472</v>
       </c>
       <c r="DX43" t="n">
-        <v>2.39190432382705</v>
+        <v>1.93192272309108</v>
+      </c>
+      <c r="DY43" t="n">
+        <v>1.6260162601626</v>
+      </c>
+      <c r="DZ43" t="n">
+        <v>1.9277108433735</v>
+      </c>
+      <c r="EA43" t="n">
+        <v>1.54981549815498</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -37528,11 +38338,20 @@
       </c>
       <c r="DX44" t="n">
         <v>0.930059523809524</v>
+      </c>
+      <c r="DY44" t="n">
+        <v>2.0932794711715</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>-0.77663870767319</v>
+      </c>
+      <c r="EA44" t="n">
+        <v>-0.485731633272641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -37913,12 +38732,21 @@
         <v>1.48698884758365</v>
       </c>
       <c r="DX45" t="n">
-        <v>-2.13675213675214</v>
+        <v>-1.7094017094017</v>
+      </c>
+      <c r="DY45" t="n">
+        <v>-2.1097046413502</v>
+      </c>
+      <c r="DZ45" t="n">
+        <v>1.4336917562724</v>
+      </c>
+      <c r="EA45" t="n">
+        <v>3.12500000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -38299,12 +39127,21 @@
         <v>0.257400257400261</v>
       </c>
       <c r="DX46" t="n">
-        <v>0</v>
+        <v>-0.747790618626781</v>
+      </c>
+      <c r="DY46" t="n">
+        <v>1.00468854655057</v>
+      </c>
+      <c r="DZ46" t="n">
+        <v>-0.124069478908182</v>
+      </c>
+      <c r="EA46" t="n">
+        <v>0.121951219512188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -38685,12 +39522,21 @@
         <v>2.10210210210211</v>
       </c>
       <c r="DX47" t="n">
-        <v>1.06761565836298</v>
+        <v>0.355871886121001</v>
+      </c>
+      <c r="DY47" t="n">
+        <v>2.39726027397259</v>
+      </c>
+      <c r="DZ47" t="n">
+        <v>2.1917808219178</v>
+      </c>
+      <c r="EA47" t="n">
+        <v>1.8421052631579</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -39071,12 +39917,21 @@
         <v>0.626304801670155</v>
       </c>
       <c r="DX48" t="n">
-        <v>0.899820035992801</v>
+        <v>1.13977204559089</v>
+      </c>
+      <c r="DY48" t="n">
+        <v>0.552181115405853</v>
+      </c>
+      <c r="DZ48" t="n">
+        <v>0.632911392405055</v>
+      </c>
+      <c r="EA48" t="n">
+        <v>1.9664268585132</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -39457,12 +40312,21 @@
         <v>2.31046931407941</v>
       </c>
       <c r="DX49" t="n">
-        <v>1.50196115947575</v>
+        <v>1.43499473835263</v>
+      </c>
+      <c r="DY49" t="n">
+        <v>2.22744360902256</v>
+      </c>
+      <c r="DZ49" t="n">
+        <v>2.23656294200848</v>
+      </c>
+      <c r="EA49" t="n">
+        <v>1.86308862490387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -39844,11 +40708,20 @@
       </c>
       <c r="DX50" t="n">
         <v>6.01577909270216</v>
+      </c>
+      <c r="DY50" t="n">
+        <v>5.28756957328386</v>
+      </c>
+      <c r="DZ50" t="n">
+        <v>4.56769983686785</v>
+      </c>
+      <c r="EA50" t="n">
+        <v>4.5958795562599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -40229,12 +41102,21 @@
         <v>8.08823529411764</v>
       </c>
       <c r="DX51" t="n">
-        <v>5.24193548387099</v>
+        <v>6.04838709677421</v>
+      </c>
+      <c r="DY51" t="n">
+        <v>5.57768924302788</v>
+      </c>
+      <c r="DZ51" t="n">
+        <v>6.84039087947881</v>
+      </c>
+      <c r="EA51" t="n">
+        <v>6.23052959501558</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -40615,12 +41497,21 @@
         <v>2.27424749163878</v>
       </c>
       <c r="DX52" t="n">
-        <v>3.09433962264151</v>
+        <v>3.81132075471699</v>
+      </c>
+      <c r="DY52" t="n">
+        <v>3.54358610914245</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>3.74160537256156</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>3.92156862745099</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -41001,12 +41892,21 @@
         <v>3.35542667771334</v>
       </c>
       <c r="DX53" t="n">
-        <v>0.43630017452007</v>
+        <v>0.349040139616061</v>
+      </c>
+      <c r="DY53" t="n">
+        <v>-1.30807397383851</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>-2.63829787234042</v>
+      </c>
+      <c r="EA53" t="n">
+        <v>-0.241157556270094</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -41388,11 +42288,20 @@
       </c>
       <c r="DX54" t="n">
         <v>1.57170923379176</v>
+      </c>
+      <c r="DY54" t="n">
+        <v>1.66666666666668</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>-0.834724540901491</v>
+      </c>
+      <c r="EA54" t="n">
+        <v>-0.648298217179912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -41773,12 +42682,21 @@
         <v>1.77038626609441</v>
       </c>
       <c r="DX55" t="n">
-        <v>-1.05944673337256</v>
+        <v>0.0000000000000167284928960589</v>
+      </c>
+      <c r="DY55" t="n">
+        <v>-0.239234449760752</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>2.12136161815491</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>2.26308345120227</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -42159,7 +43077,16 @@
         <v>2.93040293040293</v>
       </c>
       <c r="DX56" t="n">
-        <v>0</v>
+        <v>-0.829875518672211</v>
+      </c>
+      <c r="DY56" t="n">
+        <v>-0.406504065040656</v>
+      </c>
+      <c r="DZ56" t="n">
+        <v>0.689655172413803</v>
+      </c>
+      <c r="EA56" t="n">
+        <v>0.664451827242522</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1359,10 +1362,13 @@
       <c r="EM4" t="s">
         <v>142</v>
       </c>
+      <c r="EN4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1785,15 +1791,18 @@
         <v>9484.3</v>
       </c>
       <c r="EL5" t="n">
-        <v>10584.9</v>
+        <v>10596.8</v>
       </c>
       <c r="EM5" t="n">
-        <v>10929</v>
+        <v>10957.3</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>11085.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2220,11 +2229,14 @@
       </c>
       <c r="EM6" t="n">
         <v>174.1</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>174.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2650,12 +2662,15 @@
         <v>27.2</v>
       </c>
       <c r="EM7" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3081,12 +3096,15 @@
         <v>200.6</v>
       </c>
       <c r="EM8" t="n">
-        <v>202.7</v>
+        <v>203.6</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>204.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3512,12 +3530,15 @@
         <v>100.6</v>
       </c>
       <c r="EM9" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="EN9" t="n">
         <v>102.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3943,12 +3964,15 @@
         <v>1184.1</v>
       </c>
       <c r="EM10" t="n">
-        <v>1234.2</v>
+        <v>1234.8</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>1250.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4374,12 +4398,15 @@
         <v>224.2</v>
       </c>
       <c r="EM11" t="n">
-        <v>231.9</v>
+        <v>231.6</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>234.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4805,12 +4832,15 @@
         <v>123.5</v>
       </c>
       <c r="EM12" t="n">
-        <v>127.4</v>
+        <v>127.5</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>128.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5236,12 +5266,15 @@
         <v>37.9</v>
       </c>
       <c r="EM13" t="n">
-        <v>39.5</v>
+        <v>39</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5385,10 +5418,11 @@
       <c r="EK14"/>
       <c r="EL14"/>
       <c r="EM14"/>
+      <c r="EN14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5814,12 +5848,15 @@
         <v>484</v>
       </c>
       <c r="EM15" t="n">
-        <v>491.2</v>
+        <v>490</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>494.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6245,12 +6282,15 @@
         <v>350.4</v>
       </c>
       <c r="EM16" t="n">
-        <v>352.9</v>
+        <v>352.5</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>353.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6394,10 +6434,11 @@
       <c r="EK17"/>
       <c r="EL17"/>
       <c r="EM17"/>
+      <c r="EN17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6823,12 +6864,15 @@
         <v>64</v>
       </c>
       <c r="EM18" t="n">
-        <v>67.7</v>
+        <v>66.8</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>67.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7254,12 +7298,15 @@
         <v>445</v>
       </c>
       <c r="EM19" t="n">
-        <v>456.5</v>
+        <v>456.8</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>460</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7685,12 +7732,15 @@
         <v>229.5</v>
       </c>
       <c r="EM20" t="n">
-        <v>235.3</v>
+        <v>233</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>235.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8116,12 +8166,15 @@
         <v>142.1</v>
       </c>
       <c r="EM21" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>149.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8548,11 +8601,14 @@
       </c>
       <c r="EM22" t="n">
         <v>138.6</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>140.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -8978,12 +9034,15 @@
         <v>161.2</v>
       </c>
       <c r="EM23" t="n">
-        <v>163.4</v>
+        <v>163.8</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>165.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9409,12 +9468,15 @@
         <v>150.1</v>
       </c>
       <c r="EM24" t="n">
-        <v>151.8</v>
+        <v>152.8</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9840,12 +9902,15 @@
         <v>50</v>
       </c>
       <c r="EM25" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10272,11 +10337,14 @@
       </c>
       <c r="EM26" t="n">
         <v>224.9</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>226.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10702,12 +10770,15 @@
         <v>240</v>
       </c>
       <c r="EM27" t="n">
-        <v>247.9</v>
+        <v>247.5</v>
+      </c>
+      <c r="EN27" t="n">
+        <v>251.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -11134,11 +11205,14 @@
       </c>
       <c r="EM28" t="n">
         <v>334.1</v>
+      </c>
+      <c r="EN28" t="n">
+        <v>335.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11564,12 +11638,15 @@
         <v>194</v>
       </c>
       <c r="EM29" t="n">
-        <v>207.3</v>
+        <v>207</v>
+      </c>
+      <c r="EN29" t="n">
+        <v>210.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -11995,12 +12072,15 @@
         <v>104.6</v>
       </c>
       <c r="EM30" t="n">
-        <v>105</v>
+        <v>105.1</v>
+      </c>
+      <c r="EN30" t="n">
+        <v>105.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -12144,10 +12224,11 @@
       <c r="EK31"/>
       <c r="EL31"/>
       <c r="EM31"/>
+      <c r="EN31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12574,11 +12655,14 @@
       </c>
       <c r="EM32" t="n">
         <v>42.4</v>
+      </c>
+      <c r="EN32" t="n">
+        <v>42.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -13004,12 +13088,15 @@
         <v>92.7</v>
       </c>
       <c r="EM33" t="n">
-        <v>96</v>
+        <v>95.3</v>
+      </c>
+      <c r="EN33" t="n">
+        <v>96.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13435,12 +13522,15 @@
         <v>82.7</v>
       </c>
       <c r="EM34" t="n">
-        <v>85.2</v>
+        <v>84.5</v>
+      </c>
+      <c r="EN34" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13867,11 +13957,14 @@
       </c>
       <c r="EM35" t="n">
         <v>46.6</v>
+      </c>
+      <c r="EN35" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14298,11 +14391,14 @@
       </c>
       <c r="EM36" t="n">
         <v>323.7</v>
+      </c>
+      <c r="EN36" t="n">
+        <v>327.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14728,12 +14824,15 @@
         <v>78.6</v>
       </c>
       <c r="EM37" t="n">
-        <v>81.4</v>
+        <v>81.5</v>
+      </c>
+      <c r="EN37" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -15160,11 +15259,14 @@
       </c>
       <c r="EM38" t="n">
         <v>675.4</v>
+      </c>
+      <c r="EN38" t="n">
+        <v>683.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15591,11 +15693,14 @@
       </c>
       <c r="EM39" t="n">
         <v>327.3</v>
+      </c>
+      <c r="EN39" t="n">
+        <v>331.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -16021,12 +16126,15 @@
         <v>37.9</v>
       </c>
       <c r="EM40" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="EN40" t="n">
         <v>39.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16452,12 +16560,15 @@
         <v>383.8</v>
       </c>
       <c r="EM41" t="n">
-        <v>394.5</v>
+        <v>393</v>
+      </c>
+      <c r="EN41" t="n">
+        <v>396.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16883,12 +16994,15 @@
         <v>149.6</v>
       </c>
       <c r="EM42" t="n">
-        <v>153.5</v>
+        <v>152.6</v>
+      </c>
+      <c r="EN42" t="n">
+        <v>153.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -17314,12 +17428,15 @@
         <v>126.9</v>
       </c>
       <c r="EM43" t="n">
-        <v>137.6</v>
+        <v>138.4</v>
+      </c>
+      <c r="EN43" t="n">
+        <v>140.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17745,12 +17862,15 @@
         <v>319.4</v>
       </c>
       <c r="EM44" t="n">
-        <v>327.8</v>
+        <v>327.3</v>
+      </c>
+      <c r="EN44" t="n">
+        <v>332.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -18176,12 +18296,15 @@
         <v>28.3</v>
       </c>
       <c r="EM45" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
+      </c>
+      <c r="EN45" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18607,12 +18730,15 @@
         <v>161</v>
       </c>
       <c r="EM46" t="n">
-        <v>164.2</v>
+        <v>164</v>
+      </c>
+      <c r="EN46" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -19038,12 +19164,15 @@
         <v>37.3</v>
       </c>
       <c r="EM47" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
+      </c>
+      <c r="EN47" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19469,12 +19598,15 @@
         <v>206.7</v>
       </c>
       <c r="EM48" t="n">
-        <v>212.6</v>
+        <v>210.2</v>
+      </c>
+      <c r="EN48" t="n">
+        <v>211.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -19900,12 +20032,15 @@
         <v>1156.5</v>
       </c>
       <c r="EM49" t="n">
-        <v>1191.9</v>
+        <v>1191.4</v>
+      </c>
+      <c r="EN49" t="n">
+        <v>1200.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -20332,11 +20467,14 @@
       </c>
       <c r="EM50" t="n">
         <v>132</v>
+      </c>
+      <c r="EN50" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20762,12 +20900,15 @@
         <v>32.8</v>
       </c>
       <c r="EM51" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
+      </c>
+      <c r="EN51" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -21194,11 +21335,14 @@
       </c>
       <c r="EM52" t="n">
         <v>328.6</v>
+      </c>
+      <c r="EN52" t="n">
+        <v>333.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21624,12 +21768,15 @@
         <v>228.8</v>
       </c>
       <c r="EM53" t="n">
-        <v>248.2</v>
+        <v>244.1</v>
+      </c>
+      <c r="EN53" t="n">
+        <v>246.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -22055,12 +22202,15 @@
         <v>59.4</v>
       </c>
       <c r="EM54" t="n">
-        <v>61.3</v>
+        <v>61.6</v>
+      </c>
+      <c r="EN54" t="n">
+        <v>62.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -22486,12 +22636,15 @@
         <v>207</v>
       </c>
       <c r="EM55" t="n">
-        <v>216.9</v>
+        <v>216.5</v>
+      </c>
+      <c r="EN55" t="n">
+        <v>217.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -22917,7 +23070,10 @@
         <v>29.2</v>
       </c>
       <c r="EM56" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
+      </c>
+      <c r="EN56" t="n">
+        <v>30.6</v>
       </c>
     </row>
   </sheetData>
@@ -23328,10 +23484,13 @@
       <c r="EA4" t="s">
         <v>142</v>
       </c>
+      <c r="EB4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23718,15 +23877,18 @@
         <v>2.36586761071115</v>
       </c>
       <c r="DZ5" t="n">
-        <v>2.35263402181482</v>
+        <v>2.46770325674943</v>
       </c>
       <c r="EA5" t="n">
-        <v>2.60719348811883</v>
+        <v>2.8728887553632</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>2.92948801277647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -24117,11 +24279,14 @@
       </c>
       <c r="EA6" t="n">
         <v>0.694042799305951</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.286861732644865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -24511,12 +24676,15 @@
         <v>0.740740740740751</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.714285714285724</v>
+        <v>1.07142857142856</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.350877192982461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -24906,12 +25074,15 @@
         <v>4.75195822454308</v>
       </c>
       <c r="EA8" t="n">
-        <v>4.26954732510289</v>
+        <v>4.73251028806585</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>3.54251012145749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -25302,11 +25473,14 @@
       </c>
       <c r="EA9" t="n">
         <v>0.293255131964821</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.195312499999989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -25696,12 +25870,15 @@
         <v>2.05119365681289</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.76451187335093</v>
+        <v>1.81398416886544</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>1.21408336705787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -26091,12 +26268,15 @@
         <v>2.70270270270269</v>
       </c>
       <c r="EA11" t="n">
-        <v>3.75838926174497</v>
+        <v>3.6241610738255</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>3.95028850421659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -26486,12 +26666,15 @@
         <v>1.72981878088962</v>
       </c>
       <c r="EA12" t="n">
-        <v>2.08333333333334</v>
+        <v>2.16346153846154</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>1.57728706624607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -26881,12 +27064,15 @@
         <v>3.83561643835616</v>
       </c>
       <c r="EA13" t="n">
-        <v>5.61497326203209</v>
+        <v>4.27807486631016</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>3.70370370370372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -27018,10 +27204,11 @@
       <c r="DY14"/>
       <c r="DZ14"/>
       <c r="EA14"/>
+      <c r="EB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -27411,12 +27598,15 @@
         <v>1.55266470835081</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.80310880829015</v>
+        <v>1.55440414507772</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>1.62351006987258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27806,12 +27996,15 @@
         <v>3.24101355332941</v>
       </c>
       <c r="EA16" t="n">
-        <v>3.09669880222026</v>
+        <v>2.97984224364592</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>2.78988666085441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -27943,10 +28136,11 @@
       <c r="DY17"/>
       <c r="DZ17"/>
       <c r="EA17"/>
+      <c r="EB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -28336,12 +28530,15 @@
         <v>5.26315789473685</v>
       </c>
       <c r="EA18" t="n">
-        <v>6.61417322834646</v>
+        <v>5.19685039370078</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>4.82115085536549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -28731,12 +28928,15 @@
         <v>3.65711623573259</v>
       </c>
       <c r="EA19" t="n">
-        <v>3.65576748410536</v>
+        <v>3.72388737511353</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>3.51035103510352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -29126,12 +29326,15 @@
         <v>2.40963855421686</v>
       </c>
       <c r="EA20" t="n">
-        <v>4.1611332447986</v>
+        <v>3.14298362107128</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>3.01837270341208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -29521,12 +29724,15 @@
         <v>0.995024875621895</v>
       </c>
       <c r="EA21" t="n">
-        <v>1.37080191912269</v>
+        <v>1.50788211103495</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>1.42857142857142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -29917,11 +30123,14 @@
       </c>
       <c r="EA22" t="n">
         <v>2.28782287822878</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>2.6354319180088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -30311,12 +30520,15 @@
         <v>2.21940393151554</v>
       </c>
       <c r="EA23" t="n">
-        <v>2.31684408265499</v>
+        <v>2.56731371321229</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>2.16049382716049</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -30706,12 +30918,15 @@
         <v>3.1615120274914</v>
       </c>
       <c r="EA24" t="n">
-        <v>2.22222222222223</v>
+        <v>2.8956228956229</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>2.59826782145237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -31101,12 +31316,15 @@
         <v>0.806451612903223</v>
       </c>
       <c r="EA25" t="n">
-        <v>1.17878192534381</v>
+        <v>1.37524557956779</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>1.76125244618395</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -31497,11 +31715,14 @@
       </c>
       <c r="EA26" t="n">
         <v>3.68833563854311</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>3.23905109489052</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -31891,12 +32112,15 @@
         <v>0.671140939597325</v>
       </c>
       <c r="EA27" t="n">
-        <v>0.731409995936604</v>
+        <v>0.568874441284022</v>
+      </c>
+      <c r="EB27" t="n">
+        <v>0.88353413654618</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -32287,11 +32511,14 @@
       </c>
       <c r="EA28" t="n">
         <v>4.47154471544716</v>
+      </c>
+      <c r="EB28" t="n">
+        <v>3.96284829721363</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -32681,12 +32908,15 @@
         <v>1.51753008895866</v>
       </c>
       <c r="EA29" t="n">
-        <v>1.76730486008838</v>
+        <v>1.62002945508101</v>
+      </c>
+      <c r="EB29" t="n">
+        <v>2.33009708737865</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -33076,12 +33306,15 @@
         <v>0.965250965250951</v>
       </c>
       <c r="EA30" t="n">
-        <v>0.767754318618053</v>
+        <v>0.863723608445303</v>
+      </c>
+      <c r="EB30" t="n">
+        <v>0.764818355640546</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -33213,10 +33446,11 @@
       <c r="DY31"/>
       <c r="DZ31"/>
       <c r="EA31"/>
+      <c r="EB31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -33607,11 +33841,14 @@
       </c>
       <c r="EA32" t="n">
         <v>-2.97482837528605</v>
+      </c>
+      <c r="EB32" t="n">
+        <v>-3.39366515837104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -34001,12 +34238,15 @@
         <v>1.75631174533479</v>
       </c>
       <c r="EA33" t="n">
-        <v>1.15911485774499</v>
+        <v>0.421496311907277</v>
+      </c>
+      <c r="EB33" t="n">
+        <v>1.36125654450263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -34396,12 +34636,15 @@
         <v>4.68354430379747</v>
       </c>
       <c r="EA34" t="n">
-        <v>5.97014925373134</v>
+        <v>5.09950248756218</v>
+      </c>
+      <c r="EB34" t="n">
+        <v>3.93603936039359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -34792,11 +35035,14 @@
       </c>
       <c r="EA35" t="n">
         <v>1.96936542669582</v>
+      </c>
+      <c r="EB35" t="n">
+        <v>1.52173913043479</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -35187,11 +35433,14 @@
       </c>
       <c r="EA36" t="n">
         <v>5.19987000324994</v>
+      </c>
+      <c r="EB36" t="n">
+        <v>5.60386473429951</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -35581,12 +35830,15 @@
         <v>5.22088353413655</v>
       </c>
       <c r="EA37" t="n">
-        <v>7.67195767195769</v>
+        <v>7.80423280423281</v>
+      </c>
+      <c r="EB37" t="n">
+        <v>8.07291666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -35977,11 +36229,14 @@
       </c>
       <c r="EA38" t="n">
         <v>0.640739085084183</v>
+      </c>
+      <c r="EB38" t="n">
+        <v>0.633284241531658</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -36372,11 +36627,14 @@
       </c>
       <c r="EA39" t="n">
         <v>1.48837209302326</v>
+      </c>
+      <c r="EB39" t="n">
+        <v>1.81037127953359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -36767,11 +37025,14 @@
       </c>
       <c r="EA40" t="n">
         <v>3.64583333333333</v>
+      </c>
+      <c r="EB40" t="n">
+        <v>2.8423772609819</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -37161,12 +37422,15 @@
         <v>1.42706131078225</v>
       </c>
       <c r="EA41" t="n">
-        <v>1.15384615384615</v>
+        <v>0.769230769230769</v>
+      </c>
+      <c r="EB41" t="n">
+        <v>0.303720577069108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -37556,12 +37820,15 @@
         <v>3.74479889042996</v>
       </c>
       <c r="EA42" t="n">
-        <v>4.70668485675307</v>
+        <v>4.09276944065484</v>
+      </c>
+      <c r="EB42" t="n">
+        <v>3.7237643872715</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -37951,12 +38218,15 @@
         <v>1.9277108433735</v>
       </c>
       <c r="EA43" t="n">
-        <v>1.54981549815498</v>
+        <v>2.14022140221403</v>
+      </c>
+      <c r="EB43" t="n">
+        <v>1.80766449746929</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -38346,12 +38616,15 @@
         <v>-0.77663870767319</v>
       </c>
       <c r="EA44" t="n">
-        <v>-0.485731633272641</v>
+        <v>-0.637522768670334</v>
+      </c>
+      <c r="EB44" t="n">
+        <v>-0.329934013197367</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -38741,12 +39014,15 @@
         <v>1.4336917562724</v>
       </c>
       <c r="EA45" t="n">
-        <v>3.12500000000001</v>
+        <v>3.47222222222221</v>
+      </c>
+      <c r="EB45" t="n">
+        <v>3.44827586206897</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -39136,12 +39412,15 @@
         <v>-0.124069478908182</v>
       </c>
       <c r="EA46" t="n">
-        <v>0.121951219512188</v>
+        <v>0</v>
+      </c>
+      <c r="EB46" t="n">
+        <v>-0.482509047044639</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -39531,12 +39810,15 @@
         <v>2.1917808219178</v>
       </c>
       <c r="EA47" t="n">
-        <v>1.8421052631579</v>
+        <v>2.10526315789473</v>
+      </c>
+      <c r="EB47" t="n">
+        <v>2.61096605744125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -39926,12 +40208,15 @@
         <v>0.632911392405055</v>
       </c>
       <c r="EA48" t="n">
-        <v>1.9664268585132</v>
+        <v>0.815347721822537</v>
+      </c>
+      <c r="EB48" t="n">
+        <v>1.29248444231689</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -40321,12 +40606,15 @@
         <v>2.23656294200848</v>
       </c>
       <c r="EA49" t="n">
-        <v>1.86308862490387</v>
+        <v>1.82035723442442</v>
+      </c>
+      <c r="EB49" t="n">
+        <v>1.82296082753943</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -40717,11 +41005,14 @@
       </c>
       <c r="EA50" t="n">
         <v>4.5958795562599</v>
+      </c>
+      <c r="EB50" t="n">
+        <v>4.4776119402985</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -41111,12 +41402,15 @@
         <v>6.84039087947881</v>
       </c>
       <c r="EA51" t="n">
-        <v>6.23052959501558</v>
+        <v>6.54205607476636</v>
+      </c>
+      <c r="EB51" t="n">
+        <v>7.12074303405574</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -41507,11 +41801,14 @@
       </c>
       <c r="EA52" t="n">
         <v>3.92156862745099</v>
+      </c>
+      <c r="EB52" t="n">
+        <v>4.47854682117132</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -41901,12 +42198,15 @@
         <v>-2.63829787234042</v>
       </c>
       <c r="EA53" t="n">
-        <v>-0.241157556270094</v>
+        <v>-1.88906752411576</v>
+      </c>
+      <c r="EB53" t="n">
+        <v>-1.20433560818947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -42296,12 +42596,15 @@
         <v>-0.834724540901491</v>
       </c>
       <c r="EA54" t="n">
-        <v>-0.648298217179912</v>
+        <v>-0.162074554294978</v>
+      </c>
+      <c r="EB54" t="n">
+        <v>-0.319488817891378</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -42691,12 +42994,15 @@
         <v>2.12136161815491</v>
       </c>
       <c r="EA55" t="n">
-        <v>2.26308345120227</v>
+        <v>2.07449316360208</v>
+      </c>
+      <c r="EB55" t="n">
+        <v>2.1586109807602</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -43086,7 +43392,10 @@
         <v>0.689655172413803</v>
       </c>
       <c r="EA56" t="n">
-        <v>0.664451827242522</v>
+        <v>0.996677740863778</v>
+      </c>
+      <c r="EB56" t="n">
+        <v>0.990099009900993</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t xml:space="preserve">11/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1365,10 +1368,13 @@
       <c r="EN4" t="s">
         <v>143</v>
       </c>
+      <c r="EO4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1794,15 +1800,18 @@
         <v>10596.8</v>
       </c>
       <c r="EM5" t="n">
-        <v>10957.3</v>
+        <v>10951.6</v>
       </c>
       <c r="EN5" t="n">
-        <v>11085.3</v>
+        <v>11070.5</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>10981.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2231,12 +2240,15 @@
         <v>174.1</v>
       </c>
       <c r="EN6" t="n">
-        <v>174.8</v>
+        <v>175</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>173.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2666,11 +2678,14 @@
       </c>
       <c r="EN7" t="n">
         <v>28.6</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3099,12 +3114,15 @@
         <v>203.6</v>
       </c>
       <c r="EN8" t="n">
-        <v>204.6</v>
+        <v>205.1</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>202.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3534,11 +3552,14 @@
       </c>
       <c r="EN9" t="n">
         <v>102.6</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>102.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -3968,11 +3989,14 @@
       </c>
       <c r="EN10" t="n">
         <v>1250.5</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>1248.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4401,12 +4425,15 @@
         <v>231.6</v>
       </c>
       <c r="EN11" t="n">
-        <v>234.2</v>
+        <v>234</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>232.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4836,11 +4863,14 @@
       </c>
       <c r="EN12" t="n">
         <v>128.8</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>127.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5269,12 +5299,15 @@
         <v>39</v>
       </c>
       <c r="EN13" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="EO13" t="n">
         <v>39.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5419,10 +5452,11 @@
       <c r="EL14"/>
       <c r="EM14"/>
       <c r="EN14"/>
+      <c r="EO14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5851,12 +5885,15 @@
         <v>490</v>
       </c>
       <c r="EN15" t="n">
-        <v>494.5</v>
+        <v>490.5</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6285,12 +6322,15 @@
         <v>352.5</v>
       </c>
       <c r="EN16" t="n">
-        <v>353.7</v>
+        <v>353.9</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6435,10 +6475,11 @@
       <c r="EL17"/>
       <c r="EM17"/>
       <c r="EN17"/>
+      <c r="EO17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6868,11 +6909,14 @@
       </c>
       <c r="EN18" t="n">
         <v>67.4</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7301,12 +7345,15 @@
         <v>456.8</v>
       </c>
       <c r="EN19" t="n">
-        <v>460</v>
+        <v>461.3</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>453.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7736,11 +7783,14 @@
       </c>
       <c r="EN20" t="n">
         <v>235.5</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>235.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8170,11 +8220,14 @@
       </c>
       <c r="EN21" t="n">
         <v>149.1</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>146.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8604,11 +8657,14 @@
       </c>
       <c r="EN22" t="n">
         <v>140.2</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>137.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -9037,12 +9093,15 @@
         <v>163.8</v>
       </c>
       <c r="EN23" t="n">
-        <v>165.5</v>
+        <v>165.2</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>164.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9471,12 +9530,15 @@
         <v>152.8</v>
       </c>
       <c r="EN24" t="n">
-        <v>154</v>
+        <v>153.7</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>152.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -9905,12 +9967,15 @@
         <v>51.6</v>
       </c>
       <c r="EN25" t="n">
-        <v>52</v>
+        <v>51.9</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>49.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10339,12 +10404,15 @@
         <v>224.9</v>
       </c>
       <c r="EN26" t="n">
-        <v>226.3</v>
+        <v>226.2</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>225.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10773,12 +10841,15 @@
         <v>247.5</v>
       </c>
       <c r="EN27" t="n">
-        <v>251.2</v>
+        <v>251.4</v>
+      </c>
+      <c r="EO27" t="n">
+        <v>249.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -11207,12 +11278,15 @@
         <v>334.1</v>
       </c>
       <c r="EN28" t="n">
-        <v>335.8</v>
+        <v>337.2</v>
+      </c>
+      <c r="EO28" t="n">
+        <v>331.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11642,11 +11716,14 @@
       </c>
       <c r="EN29" t="n">
         <v>210.8</v>
+      </c>
+      <c r="EO29" t="n">
+        <v>205.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -12076,11 +12153,14 @@
       </c>
       <c r="EN30" t="n">
         <v>105.4</v>
+      </c>
+      <c r="EO30" t="n">
+        <v>101.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -12225,10 +12305,11 @@
       <c r="EL31"/>
       <c r="EM31"/>
       <c r="EN31"/>
+      <c r="EO31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12658,11 +12739,14 @@
       </c>
       <c r="EN32" t="n">
         <v>42.7</v>
+      </c>
+      <c r="EO32" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -13091,12 +13175,15 @@
         <v>95.3</v>
       </c>
       <c r="EN33" t="n">
-        <v>96.8</v>
+        <v>96.6</v>
+      </c>
+      <c r="EO33" t="n">
+        <v>95.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13526,11 +13613,14 @@
       </c>
       <c r="EN34" t="n">
         <v>84.5</v>
+      </c>
+      <c r="EO34" t="n">
+        <v>84.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -13960,11 +14050,14 @@
       </c>
       <c r="EN35" t="n">
         <v>46.7</v>
+      </c>
+      <c r="EO35" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14393,12 +14486,15 @@
         <v>323.7</v>
       </c>
       <c r="EN36" t="n">
-        <v>327.9</v>
+        <v>328</v>
+      </c>
+      <c r="EO36" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -14827,12 +14923,15 @@
         <v>81.5</v>
       </c>
       <c r="EN37" t="n">
-        <v>83</v>
+        <v>82.9</v>
+      </c>
+      <c r="EO37" t="n">
+        <v>80.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -15262,11 +15361,14 @@
       </c>
       <c r="EN38" t="n">
         <v>683.3</v>
+      </c>
+      <c r="EO38" t="n">
+        <v>686.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -15696,11 +15798,14 @@
       </c>
       <c r="EN39" t="n">
         <v>331.8</v>
+      </c>
+      <c r="EO39" t="n">
+        <v>328.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -16130,11 +16235,14 @@
       </c>
       <c r="EN40" t="n">
         <v>39.8</v>
+      </c>
+      <c r="EO40" t="n">
+        <v>40.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16564,11 +16672,14 @@
       </c>
       <c r="EN41" t="n">
         <v>396.3</v>
+      </c>
+      <c r="EO41" t="n">
+        <v>390.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -16998,11 +17109,14 @@
       </c>
       <c r="EN42" t="n">
         <v>153.2</v>
+      </c>
+      <c r="EO42" t="n">
+        <v>152.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -17431,12 +17545,15 @@
         <v>138.4</v>
       </c>
       <c r="EN43" t="n">
-        <v>140.8</v>
+        <v>140.6</v>
+      </c>
+      <c r="EO43" t="n">
+        <v>139.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -17865,12 +17982,15 @@
         <v>327.3</v>
       </c>
       <c r="EN44" t="n">
-        <v>332.3</v>
+        <v>332.1</v>
+      </c>
+      <c r="EO44" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -18300,11 +18420,14 @@
       </c>
       <c r="EN45" t="n">
         <v>30</v>
+      </c>
+      <c r="EO45" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -18734,11 +18857,14 @@
       </c>
       <c r="EN46" t="n">
         <v>165</v>
+      </c>
+      <c r="EO46" t="n">
+        <v>163.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -19168,11 +19294,14 @@
       </c>
       <c r="EN47" t="n">
         <v>39.3</v>
+      </c>
+      <c r="EO47" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19602,11 +19731,14 @@
       </c>
       <c r="EN48" t="n">
         <v>211.6</v>
+      </c>
+      <c r="EO48" t="n">
+        <v>209.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -20035,12 +20167,15 @@
         <v>1191.4</v>
       </c>
       <c r="EN49" t="n">
-        <v>1200.9</v>
+        <v>1200.7</v>
+      </c>
+      <c r="EO49" t="n">
+        <v>1197.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -20470,11 +20605,14 @@
       </c>
       <c r="EN50" t="n">
         <v>133</v>
+      </c>
+      <c r="EO50" t="n">
+        <v>132.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -20903,12 +21041,15 @@
         <v>34.2</v>
       </c>
       <c r="EN51" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
+      </c>
+      <c r="EO51" t="n">
+        <v>34.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -21337,12 +21478,15 @@
         <v>328.6</v>
       </c>
       <c r="EN52" t="n">
-        <v>333.6</v>
+        <v>333.1</v>
+      </c>
+      <c r="EO52" t="n">
+        <v>327.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -21771,12 +21915,15 @@
         <v>244.1</v>
       </c>
       <c r="EN53" t="n">
-        <v>246.1</v>
+        <v>246.5</v>
+      </c>
+      <c r="EO53" t="n">
+        <v>245.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -22205,12 +22352,15 @@
         <v>61.6</v>
       </c>
       <c r="EN54" t="n">
-        <v>62.4</v>
+        <v>62.2</v>
+      </c>
+      <c r="EO54" t="n">
+        <v>61.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -22639,12 +22789,15 @@
         <v>216.5</v>
       </c>
       <c r="EN55" t="n">
-        <v>217.7</v>
+        <v>217.4</v>
+      </c>
+      <c r="EO55" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -23073,6 +23226,9 @@
         <v>30.4</v>
       </c>
       <c r="EN56" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="EO56" t="n">
         <v>30.6</v>
       </c>
     </row>
@@ -23487,10 +23643,13 @@
       <c r="EB4" t="s">
         <v>143</v>
       </c>
+      <c r="EC4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -23880,15 +24039,18 @@
         <v>2.46770325674943</v>
       </c>
       <c r="EA5" t="n">
-        <v>2.8728887553632</v>
+        <v>2.81937416090056</v>
       </c>
       <c r="EB5" t="n">
-        <v>2.92948801277647</v>
+        <v>2.7920667050456</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>3.34550450772619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -24281,12 +24443,15 @@
         <v>0.694042799305951</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.286861732644865</v>
+        <v>0.401606425702805</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0.636942675159249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -24680,11 +24845,14 @@
       </c>
       <c r="EB7" t="n">
         <v>0.350877192982461</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>1.76678445229682</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -25077,12 +25245,15 @@
         <v>4.73251028806585</v>
       </c>
       <c r="EB8" t="n">
-        <v>3.54251012145749</v>
+        <v>3.79554655870447</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>7.35449735449736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -25476,11 +25647,14 @@
       </c>
       <c r="EB9" t="n">
         <v>0.195312499999989</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.195694716242678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -25874,11 +26048,14 @@
       </c>
       <c r="EB10" t="n">
         <v>1.21408336705787</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>4.8710842361636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -26271,12 +26448,15 @@
         <v>3.6241610738255</v>
       </c>
       <c r="EB11" t="n">
-        <v>3.95028850421659</v>
+        <v>3.86151797603195</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>4.26200089726336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -26670,11 +26850,14 @@
       </c>
       <c r="EB12" t="n">
         <v>1.57728706624607</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>1.75718849840257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -27068,11 +27251,14 @@
       </c>
       <c r="EB13" t="n">
         <v>3.70370370370372</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>2.61780104712042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -27205,10 +27391,11 @@
       <c r="DZ14"/>
       <c r="EA14"/>
       <c r="EB14"/>
+      <c r="EC14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -27601,12 +27788,15 @@
         <v>1.55440414507772</v>
       </c>
       <c r="EB15" t="n">
-        <v>1.62351006987258</v>
+        <v>0.801479654747221</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>0.665557404326121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -27999,12 +28189,15 @@
         <v>2.97984224364592</v>
       </c>
       <c r="EB16" t="n">
-        <v>2.78988666085441</v>
+        <v>2.84800929962219</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>2.88545613523753</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -28137,10 +28330,11 @@
       <c r="DZ17"/>
       <c r="EA17"/>
       <c r="EB17"/>
+      <c r="EC17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -28534,11 +28728,14 @@
       </c>
       <c r="EB18" t="n">
         <v>4.82115085536549</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>6.24999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -28931,12 +29128,15 @@
         <v>3.72388737511353</v>
       </c>
       <c r="EB19" t="n">
-        <v>3.51035103510352</v>
+        <v>3.80288028802881</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>3.67915904936015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -29330,11 +29530,14 @@
       </c>
       <c r="EB20" t="n">
         <v>3.01837270341208</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>4.56560283687942</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -29728,11 +29931,14 @@
       </c>
       <c r="EB21" t="n">
         <v>1.42857142857142</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>0.688231245698555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -30126,11 +30332,14 @@
       </c>
       <c r="EB22" t="n">
         <v>2.6354319180088</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>2.61976047904192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -30523,12 +30732,15 @@
         <v>2.56731371321229</v>
       </c>
       <c r="EB23" t="n">
-        <v>2.16049382716049</v>
+        <v>1.9753086419753</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>3.52201257861635</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -30921,12 +31133,15 @@
         <v>2.8956228956229</v>
       </c>
       <c r="EB24" t="n">
-        <v>2.59826782145237</v>
+        <v>2.39840106595603</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>2.54862508383636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -31319,12 +31534,15 @@
         <v>1.37524557956779</v>
       </c>
       <c r="EB25" t="n">
-        <v>1.76125244618395</v>
+        <v>1.5655577299413</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>1.84804928131417</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -31717,12 +31935,15 @@
         <v>3.68833563854311</v>
       </c>
       <c r="EB26" t="n">
-        <v>3.23905109489052</v>
+        <v>3.19343065693431</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>3.15934065934066</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -32115,12 +32336,15 @@
         <v>0.568874441284022</v>
       </c>
       <c r="EB27" t="n">
-        <v>0.88353413654618</v>
+        <v>0.963855421686749</v>
+      </c>
+      <c r="EC27" t="n">
+        <v>1.54408776919952</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -32513,12 +32737,15 @@
         <v>4.47154471544716</v>
       </c>
       <c r="EB28" t="n">
-        <v>3.96284829721363</v>
+        <v>4.39628482972136</v>
+      </c>
+      <c r="EC28" t="n">
+        <v>4.17713567839196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -32912,11 +33139,14 @@
       </c>
       <c r="EB29" t="n">
         <v>2.33009708737865</v>
+      </c>
+      <c r="EC29" t="n">
+        <v>1.78306092124815</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -33310,11 +33540,14 @@
       </c>
       <c r="EB30" t="n">
         <v>0.764818355640546</v>
+      </c>
+      <c r="EC30" t="n">
+        <v>1.19284294234594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -33447,10 +33680,11 @@
       <c r="DZ31"/>
       <c r="EA31"/>
       <c r="EB31"/>
+      <c r="EC31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -33844,11 +34078,14 @@
       </c>
       <c r="EB32" t="n">
         <v>-3.39366515837104</v>
+      </c>
+      <c r="EC32" t="n">
+        <v>-2.27790432801822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -34241,12 +34478,15 @@
         <v>0.421496311907277</v>
       </c>
       <c r="EB33" t="n">
-        <v>1.36125654450263</v>
+        <v>1.15183246073298</v>
+      </c>
+      <c r="EC33" t="n">
+        <v>-0.20876826722337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -34640,11 +34880,14 @@
       </c>
       <c r="EB34" t="n">
         <v>3.93603936039359</v>
+      </c>
+      <c r="EC34" t="n">
+        <v>3.3169533169533</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -35038,11 +35281,14 @@
       </c>
       <c r="EB35" t="n">
         <v>1.52173913043479</v>
+      </c>
+      <c r="EC35" t="n">
+        <v>2.42290748898679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -35435,12 +35681,15 @@
         <v>5.19987000324994</v>
       </c>
       <c r="EB36" t="n">
-        <v>5.60386473429951</v>
+        <v>5.63607085346216</v>
+      </c>
+      <c r="EC36" t="n">
+        <v>5.26315789473685</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -35833,12 +36082,15 @@
         <v>7.80423280423281</v>
       </c>
       <c r="EB37" t="n">
-        <v>8.07291666666667</v>
+        <v>7.94270833333335</v>
+      </c>
+      <c r="EC37" t="n">
+        <v>5.23560209424084</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -36232,11 +36484,14 @@
       </c>
       <c r="EB38" t="n">
         <v>0.633284241531658</v>
+      </c>
+      <c r="EC38" t="n">
+        <v>1.65778567199527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -36630,11 +36885,14 @@
       </c>
       <c r="EB39" t="n">
         <v>1.81037127953359</v>
+      </c>
+      <c r="EC39" t="n">
+        <v>1.79733498605516</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -37028,11 +37286,14 @@
       </c>
       <c r="EB40" t="n">
         <v>2.8423772609819</v>
+      </c>
+      <c r="EC40" t="n">
+        <v>3.8860103626943</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -37426,11 +37687,14 @@
       </c>
       <c r="EB41" t="n">
         <v>0.303720577069108</v>
+      </c>
+      <c r="EC41" t="n">
+        <v>0.878099173553728</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -37824,11 +38088,14 @@
       </c>
       <c r="EB42" t="n">
         <v>3.7237643872715</v>
+      </c>
+      <c r="EC42" t="n">
+        <v>3.66350067842608</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -38221,12 +38488,15 @@
         <v>2.14022140221403</v>
       </c>
       <c r="EB43" t="n">
-        <v>1.80766449746929</v>
+        <v>1.66305133767174</v>
+      </c>
+      <c r="EC43" t="n">
+        <v>1.52394775036284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -38619,12 +38889,15 @@
         <v>-0.637522768670334</v>
       </c>
       <c r="EB44" t="n">
-        <v>-0.329934013197367</v>
+        <v>-0.389922015596884</v>
+      </c>
+      <c r="EC44" t="n">
+        <v>-0.0911023382933357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -39018,11 +39291,14 @@
       </c>
       <c r="EB45" t="n">
         <v>3.44827586206897</v>
+      </c>
+      <c r="EC45" t="n">
+        <v>4.13793103448276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -39416,11 +39692,14 @@
       </c>
       <c r="EB46" t="n">
         <v>-0.482509047044639</v>
+      </c>
+      <c r="EC46" t="n">
+        <v>-0.548780487804864</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -39814,11 +40093,14 @@
       </c>
       <c r="EB47" t="n">
         <v>2.61096605744125</v>
+      </c>
+      <c r="EC47" t="n">
+        <v>3.17460317460318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -40212,11 +40494,14 @@
       </c>
       <c r="EB48" t="n">
         <v>1.29248444231689</v>
+      </c>
+      <c r="EC48" t="n">
+        <v>0.768122899663944</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -40609,12 +40894,15 @@
         <v>1.82035723442442</v>
       </c>
       <c r="EB49" t="n">
-        <v>1.82296082753943</v>
+        <v>1.80600305239952</v>
+      </c>
+      <c r="EC49" t="n">
+        <v>1.97530864197531</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -41008,11 +41296,14 @@
       </c>
       <c r="EB50" t="n">
         <v>4.4776119402985</v>
+      </c>
+      <c r="EC50" t="n">
+        <v>4.32389937106918</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -41405,12 +41696,15 @@
         <v>6.54205607476636</v>
       </c>
       <c r="EB51" t="n">
-        <v>7.12074303405574</v>
+        <v>6.5015479876161</v>
+      </c>
+      <c r="EC51" t="n">
+        <v>6.2111801242236</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -41803,12 +42097,15 @@
         <v>3.92156862745099</v>
       </c>
       <c r="EB52" t="n">
-        <v>4.47854682117132</v>
+        <v>4.32195427497651</v>
+      </c>
+      <c r="EC52" t="n">
+        <v>2.53441802252817</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -42201,12 +42498,15 @@
         <v>-1.88906752411576</v>
       </c>
       <c r="EB53" t="n">
-        <v>-1.20433560818947</v>
+        <v>-1.04375752709755</v>
+      </c>
+      <c r="EC53" t="n">
+        <v>-1.2464817048653</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -42599,12 +42899,15 @@
         <v>-0.162074554294978</v>
       </c>
       <c r="EB54" t="n">
-        <v>-0.319488817891378</v>
+        <v>-0.638977635782757</v>
+      </c>
+      <c r="EC54" t="n">
+        <v>-0.484652665589668</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -42997,12 +43300,15 @@
         <v>2.07449316360208</v>
       </c>
       <c r="EB55" t="n">
-        <v>2.1586109807602</v>
+        <v>2.01783200375411</v>
+      </c>
+      <c r="EC55" t="n">
+        <v>1.99240986717267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -43396,6 +43702,9 @@
       </c>
       <c r="EB56" t="n">
         <v>0.990099009900993</v>
+      </c>
+      <c r="EC56" t="n">
+        <v>0.990099009900981</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t xml:space="preserve">02/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2024</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1383,10 +1386,13 @@
       <c r="EQ4" t="s">
         <v>146</v>
       </c>
+      <c r="ER4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1821,15 +1827,18 @@
         <v>11046.7</v>
       </c>
       <c r="EP5" t="n">
-        <v>10725.7</v>
+        <v>10720.4</v>
       </c>
       <c r="EQ5" t="n">
-        <v>11104.8</v>
+        <v>11103.8</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>11161.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2267,12 +2276,15 @@
         <v>172.2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>174.5</v>
+        <v>174.3</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>175.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2710,12 +2722,15 @@
         <v>27.2</v>
       </c>
       <c r="EQ7" t="n">
-        <v>29</v>
+        <v>28.9</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3153,12 +3168,15 @@
         <v>197.2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>203</v>
+        <v>203.1</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>202.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3597,11 +3615,14 @@
       </c>
       <c r="EQ9" t="n">
         <v>102.9</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>103.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -4039,12 +4060,15 @@
         <v>1253.8</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1264</v>
+        <v>1266.2</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>1284.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4482,12 +4506,15 @@
         <v>226.2</v>
       </c>
       <c r="EQ11" t="n">
-        <v>236.8</v>
+        <v>236.7</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>239.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4926,11 +4953,14 @@
       </c>
       <c r="EQ12" t="n">
         <v>125.1</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>125.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5368,12 +5398,15 @@
         <v>37.8</v>
       </c>
       <c r="EQ13" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5521,10 +5554,11 @@
       <c r="EO14"/>
       <c r="EP14"/>
       <c r="EQ14"/>
+      <c r="ER14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -5962,12 +5996,15 @@
         <v>489</v>
       </c>
       <c r="EQ15" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="ER15" t="n">
         <v>499.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6405,12 +6442,15 @@
         <v>351.6</v>
       </c>
       <c r="EQ16" t="n">
-        <v>354.7</v>
+        <v>354.8</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>355.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6558,10 +6598,11 @@
       <c r="EO17"/>
       <c r="EP17"/>
       <c r="EQ17"/>
+      <c r="ER17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -6999,12 +7040,15 @@
         <v>63.9</v>
       </c>
       <c r="EQ18" t="n">
-        <v>66.5</v>
+        <v>66.6</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7442,12 +7486,15 @@
         <v>431.2</v>
       </c>
       <c r="EQ19" t="n">
-        <v>456.6</v>
+        <v>458.3</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>461.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7886,11 +7933,14 @@
       </c>
       <c r="EQ20" t="n">
         <v>235.1</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8328,12 +8378,15 @@
         <v>142.6</v>
       </c>
       <c r="EQ21" t="n">
-        <v>147.4</v>
+        <v>148</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>148.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8772,11 +8825,14 @@
       </c>
       <c r="EQ22" t="n">
         <v>137.3</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>137.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -9215,11 +9271,14 @@
       </c>
       <c r="EQ23" t="n">
         <v>164.6</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>165.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9657,12 +9716,15 @@
         <v>145.6</v>
       </c>
       <c r="EQ24" t="n">
-        <v>146.4</v>
+        <v>147</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>147.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -10100,12 +10162,15 @@
         <v>49.6</v>
       </c>
       <c r="EQ25" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="ER25" t="n">
         <v>50.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10544,11 +10609,14 @@
       </c>
       <c r="EQ26" t="n">
         <v>221.9</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>224.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -10987,11 +11055,14 @@
       </c>
       <c r="EQ27" t="n">
         <v>246.3</v>
+      </c>
+      <c r="ER27" t="n">
+        <v>247.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -11429,12 +11500,15 @@
         <v>306.5</v>
       </c>
       <c r="EQ28" t="n">
-        <v>327.8</v>
+        <v>328.7</v>
+      </c>
+      <c r="ER28" t="n">
+        <v>329.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11873,11 +11947,14 @@
       </c>
       <c r="EQ29" t="n">
         <v>219.2</v>
+      </c>
+      <c r="ER29" t="n">
+        <v>219.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -12315,12 +12392,15 @@
         <v>102</v>
       </c>
       <c r="EQ30" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
+      </c>
+      <c r="ER30" t="n">
+        <v>105.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -12468,10 +12548,11 @@
       <c r="EO31"/>
       <c r="EP31"/>
       <c r="EQ31"/>
+      <c r="ER31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12910,11 +12991,14 @@
       </c>
       <c r="EQ32" t="n">
         <v>44.6</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -13353,11 +13437,14 @@
       </c>
       <c r="EQ33" t="n">
         <v>94</v>
+      </c>
+      <c r="ER33" t="n">
+        <v>94.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13795,12 +13882,15 @@
         <v>77.3</v>
       </c>
       <c r="EQ34" t="n">
-        <v>85</v>
+        <v>85.2</v>
+      </c>
+      <c r="ER34" t="n">
+        <v>85.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -14238,12 +14328,15 @@
         <v>43</v>
       </c>
       <c r="EQ35" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
+      </c>
+      <c r="ER35" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14681,12 +14774,15 @@
         <v>309.9</v>
       </c>
       <c r="EQ36" t="n">
-        <v>321.2</v>
+        <v>321.1</v>
+      </c>
+      <c r="ER36" t="n">
+        <v>322.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -15124,12 +15220,15 @@
         <v>76.7</v>
       </c>
       <c r="EQ37" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
+      </c>
+      <c r="ER37" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -15568,11 +15667,14 @@
       </c>
       <c r="EQ38" t="n">
         <v>680.7</v>
+      </c>
+      <c r="ER38" t="n">
+        <v>683.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -16011,11 +16113,14 @@
       </c>
       <c r="EQ39" t="n">
         <v>340.1</v>
+      </c>
+      <c r="ER39" t="n">
+        <v>343.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -16454,11 +16559,14 @@
       </c>
       <c r="EQ40" t="n">
         <v>39.5</v>
+      </c>
+      <c r="ER40" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -16896,12 +17004,15 @@
         <v>378.7</v>
       </c>
       <c r="EQ41" t="n">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="ER41" t="n">
+        <v>395.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -17339,12 +17450,15 @@
         <v>141.3</v>
       </c>
       <c r="EQ42" t="n">
-        <v>149.5</v>
+        <v>152.5</v>
+      </c>
+      <c r="ER42" t="n">
+        <v>153.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -17782,12 +17896,15 @@
         <v>138.1</v>
       </c>
       <c r="EQ43" t="n">
-        <v>142.2</v>
+        <v>142.1</v>
+      </c>
+      <c r="ER43" t="n">
+        <v>143.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -18226,11 +18343,14 @@
       </c>
       <c r="EQ44" t="n">
         <v>334.9</v>
+      </c>
+      <c r="ER44" t="n">
+        <v>336.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -18669,11 +18789,14 @@
       </c>
       <c r="EQ45" t="n">
         <v>29.6</v>
+      </c>
+      <c r="ER45" t="n">
+        <v>29.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -19111,12 +19234,15 @@
         <v>158.8</v>
       </c>
       <c r="EQ46" t="n">
-        <v>163.9</v>
+        <v>164.3</v>
+      </c>
+      <c r="ER46" t="n">
+        <v>164.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -19554,12 +19680,15 @@
         <v>37.5</v>
       </c>
       <c r="EQ47" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
+      </c>
+      <c r="ER47" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -19997,12 +20126,15 @@
         <v>198.2</v>
       </c>
       <c r="EQ48" t="n">
-        <v>208.2</v>
+        <v>207.8</v>
+      </c>
+      <c r="ER48" t="n">
+        <v>208.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -20440,12 +20572,15 @@
         <v>1170.5</v>
       </c>
       <c r="EQ49" t="n">
-        <v>1204</v>
+        <v>1205</v>
+      </c>
+      <c r="ER49" t="n">
+        <v>1206.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -20884,11 +21019,14 @@
       </c>
       <c r="EQ50" t="n">
         <v>135</v>
+      </c>
+      <c r="ER50" t="n">
+        <v>135.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -21326,12 +21464,15 @@
         <v>31.8</v>
       </c>
       <c r="EQ51" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
+      </c>
+      <c r="ER51" t="n">
+        <v>32.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -21770,11 +21911,14 @@
       </c>
       <c r="EQ52" t="n">
         <v>332</v>
+      </c>
+      <c r="ER52" t="n">
+        <v>334.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -22212,12 +22356,15 @@
         <v>253.8</v>
       </c>
       <c r="EQ53" t="n">
-        <v>255.5</v>
+        <v>255.8</v>
+      </c>
+      <c r="ER53" t="n">
+        <v>257.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -22656,11 +22803,14 @@
       </c>
       <c r="EQ54" t="n">
         <v>63.6</v>
+      </c>
+      <c r="ER54" t="n">
+        <v>64.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -23098,12 +23248,15 @@
         <v>198.6</v>
       </c>
       <c r="EQ55" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="ER55" t="n">
         <v>216.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -23542,6 +23695,9 @@
       </c>
       <c r="EQ56" t="n">
         <v>31.2</v>
+      </c>
+      <c r="ER56" t="n">
+        <v>31.6</v>
       </c>
     </row>
   </sheetData>
@@ -23964,10 +24120,13 @@
       <c r="EE4" t="s">
         <v>146</v>
       </c>
+      <c r="EF4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -24366,15 +24525,18 @@
         <v>3.4499873575382</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.50879272115605</v>
+        <v>2.4581390014527</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.33895493502902</v>
+        <v>2.32973919454429</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>2.52048352132858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -24776,12 +24938,15 @@
         <v>1.11567821491484</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.1008111239861</v>
+        <v>0.984936268829674</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>1.09383995394358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -25183,12 +25348,15 @@
         <v>-0.366300366300346</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.34602076124568</v>
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.347222222222215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -25590,12 +25758,15 @@
         <v>0.869565217391299</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.644521566683198</v>
+        <v>0.694100148735763</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>1.19940029985006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -25998,11 +26169,14 @@
       </c>
       <c r="EE9" t="n">
         <v>0.98135426889107</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>1.07421874999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -26404,12 +26578,15 @@
         <v>3.00690108445612</v>
       </c>
       <c r="EE10" t="n">
-        <v>3.05748063595597</v>
+        <v>3.23685283326539</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>3.11571508873363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -26811,12 +26988,15 @@
         <v>4.77072718851319</v>
       </c>
       <c r="EE11" t="n">
-        <v>5.99820948970457</v>
+        <v>5.95344673231872</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>6.15316511730855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -27219,11 +27399,14 @@
       </c>
       <c r="EE12" t="n">
         <v>-0.318725099601598</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>-0.475435816164824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -27625,12 +27808,15 @@
         <v>3.27868852459015</v>
       </c>
       <c r="EE13" t="n">
-        <v>2.8423772609819</v>
+        <v>4.13436692506458</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>4.31472081218271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -27766,10 +27952,11 @@
       <c r="EC14"/>
       <c r="ED14"/>
       <c r="EE14"/>
+      <c r="EF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -28172,11 +28359,14 @@
       </c>
       <c r="EE15" t="n">
         <v>1.17480251164674</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>1.40073081607796</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -28578,12 +28768,15 @@
         <v>2.5371828521435</v>
       </c>
       <c r="EE16" t="n">
-        <v>2.42564250649725</v>
+        <v>2.45451920300318</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>2.33227756982435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -28719,10 +28912,11 @@
       <c r="EC17"/>
       <c r="ED17"/>
       <c r="EE17"/>
+      <c r="EF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -29124,12 +29318,15 @@
         <v>4.58265139116202</v>
       </c>
       <c r="EE18" t="n">
-        <v>3.58255451713395</v>
+        <v>3.73831775700933</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>5.34591194968553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -29531,12 +29728,15 @@
         <v>1.12570356472796</v>
       </c>
       <c r="EE19" t="n">
-        <v>3.30316742081447</v>
+        <v>3.68778280542985</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>3.59469782071443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -29938,12 +30138,15 @@
         <v>1.52877697841727</v>
       </c>
       <c r="EE20" t="n">
-        <v>2.5294374182294</v>
+        <v>2.52943741822939</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>1.1139674378749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -30345,12 +30548,15 @@
         <v>0.706214689265537</v>
       </c>
       <c r="EE21" t="n">
-        <v>0.683060109289617</v>
+        <v>1.09289617486338</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>1.43344709897611</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -30753,11 +30959,14 @@
       </c>
       <c r="EE22" t="n">
         <v>0.218978102189789</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0.877834674469654</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -31160,11 +31369,14 @@
       </c>
       <c r="EE23" t="n">
         <v>1.04358502148557</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0.79123554473523</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -31566,12 +31778,15 @@
         <v>-0.884955752212378</v>
       </c>
       <c r="EE24" t="n">
-        <v>-1.74496644295304</v>
+        <v>-1.34228187919463</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>-0.40567951318458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -31973,12 +32188,15 @@
         <v>3.11850311850312</v>
       </c>
       <c r="EE25" t="n">
-        <v>3.07377049180329</v>
+        <v>3.27868852459018</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>2.65306122448979</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -32381,11 +32599,14 @@
       </c>
       <c r="EE26" t="n">
         <v>2.92207792207793</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>2.41678066575467</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -32788,11 +33009,14 @@
       </c>
       <c r="EE27" t="n">
         <v>1.39975298476738</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>1.3120131201312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -33194,12 +33418,15 @@
         <v>3.58229131463333</v>
       </c>
       <c r="EE28" t="n">
-        <v>4.96317643291707</v>
+        <v>5.2513608709574</v>
+      </c>
+      <c r="EF28" t="n">
+        <v>5.7784911717496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -33602,11 +33829,14 @@
       </c>
       <c r="EE29" t="n">
         <v>5.33397405093703</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>5.3872053872054</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -34008,12 +34238,15 @@
         <v>1.49253731343284</v>
       </c>
       <c r="EE30" t="n">
-        <v>1.15718418514949</v>
+        <v>1.06075216972037</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>1.0576923076923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -34149,10 +34382,11 @@
       <c r="EC31"/>
       <c r="ED31"/>
       <c r="EE31"/>
+      <c r="EF31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -34555,11 +34789,14 @@
       </c>
       <c r="EE32" t="n">
         <v>1.82648401826485</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>1.81818181818181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -34962,11 +35199,14 @@
       </c>
       <c r="EE33" t="n">
         <v>-0.212314225053082</v>
+      </c>
+      <c r="EF33" t="n">
+        <v>0.105596620908125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -35368,12 +35608,15 @@
         <v>4.88466757123473</v>
       </c>
       <c r="EE34" t="n">
-        <v>4.16666666666667</v>
+        <v>4.41176470588235</v>
+      </c>
+      <c r="EF34" t="n">
+        <v>4.40097799511002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -35775,12 +36018,15 @@
         <v>0.233100233100236</v>
       </c>
       <c r="EE35" t="n">
-        <v>0.87336244541486</v>
+        <v>1.09170305676856</v>
+      </c>
+      <c r="EF35" t="n">
+        <v>1.52838427947597</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -36182,12 +36428,15 @@
         <v>2.7860696517413</v>
       </c>
       <c r="EE36" t="n">
-        <v>2.06545916746107</v>
+        <v>2.03368287257707</v>
+      </c>
+      <c r="EF36" t="n">
+        <v>2.24897054165346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -36589,12 +36838,15 @@
         <v>3.23014804845223</v>
       </c>
       <c r="EE37" t="n">
-        <v>3.86100386100386</v>
+        <v>3.989703989704</v>
+      </c>
+      <c r="EF37" t="n">
+        <v>3.97946084724004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -36997,11 +37249,14 @@
       </c>
       <c r="EE38" t="n">
         <v>2.51506024096386</v>
+      </c>
+      <c r="EF38" t="n">
+        <v>2.50374812593704</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -37404,11 +37659,14 @@
       </c>
       <c r="EE39" t="n">
         <v>2.04020402040204</v>
+      </c>
+      <c r="EF39" t="n">
+        <v>2.08147487362472</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -37811,11 +38069,14 @@
       </c>
       <c r="EE40" t="n">
         <v>1.54241645244216</v>
+      </c>
+      <c r="EF40" t="n">
+        <v>0.771208226221091</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -38217,12 +38478,15 @@
         <v>-0.525348043078525</v>
       </c>
       <c r="EE41" t="n">
-        <v>-1.52843898772238</v>
+        <v>-1.77900275620146</v>
+      </c>
+      <c r="EF41" t="n">
+        <v>-0.100984599848532</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -38624,12 +38888,15 @@
         <v>1.21776504297995</v>
       </c>
       <c r="EE42" t="n">
-        <v>1.01351351351351</v>
+        <v>3.04054054054054</v>
+      </c>
+      <c r="EF42" t="n">
+        <v>2.8169014084507</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -39031,12 +39298,15 @@
         <v>2.37212750185326</v>
       </c>
       <c r="EE43" t="n">
-        <v>2.52343186733958</v>
+        <v>2.45133381398703</v>
+      </c>
+      <c r="EF43" t="n">
+        <v>2.79369627507162</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -39439,11 +39709,14 @@
       </c>
       <c r="EE44" t="n">
         <v>1.60800970873788</v>
+      </c>
+      <c r="EF44" t="n">
+        <v>1.60217654171704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -39846,11 +40119,14 @@
       </c>
       <c r="EE45" t="n">
         <v>0.338983050847462</v>
+      </c>
+      <c r="EF45" t="n">
+        <v>-0.993377483443711</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -40252,12 +40528,15 @@
         <v>0.889453621346909</v>
       </c>
       <c r="EE46" t="n">
-        <v>0.490496627835691</v>
+        <v>0.735744941753536</v>
+      </c>
+      <c r="EF46" t="n">
+        <v>0.365853658536582</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -40659,12 +40938,15 @@
         <v>2.73972602739726</v>
       </c>
       <c r="EE47" t="n">
-        <v>2.09973753280841</v>
+        <v>1.83727034120736</v>
+      </c>
+      <c r="EF47" t="n">
+        <v>2.08877284595301</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -41066,12 +41348,15 @@
         <v>-1.34395221503233</v>
       </c>
       <c r="EE48" t="n">
-        <v>-1.18652112007592</v>
+        <v>-1.37636449928808</v>
+      </c>
+      <c r="EF48" t="n">
+        <v>-1.0421601136902</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -41473,12 +41758,15 @@
         <v>2.12895907861444</v>
       </c>
       <c r="EE49" t="n">
-        <v>2.80932456664675</v>
+        <v>2.8947143711041</v>
+      </c>
+      <c r="EF49" t="n">
+        <v>2.83814881104576</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -41881,11 +42169,14 @@
       </c>
       <c r="EE50" t="n">
         <v>4.8951048951049</v>
+      </c>
+      <c r="EF50" t="n">
+        <v>4.88372093023257</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -42287,12 +42578,15 @@
         <v>2.9126213592233</v>
       </c>
       <c r="EE51" t="n">
-        <v>3.09597523219814</v>
+        <v>2.78637770897835</v>
+      </c>
+      <c r="EF51" t="n">
+        <v>2.49221183800627</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -42695,11 +42989,14 @@
       </c>
       <c r="EE52" t="n">
         <v>2.85006195786865</v>
+      </c>
+      <c r="EF52" t="n">
+        <v>3.08546744831842</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -43101,12 +43398,15 @@
         <v>1.72344689378758</v>
       </c>
       <c r="EE53" t="n">
-        <v>1.10803324099723</v>
+        <v>1.22675108824694</v>
+      </c>
+      <c r="EF53" t="n">
+        <v>1.49960536700871</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -43509,11 +43809,14 @@
       </c>
       <c r="EE54" t="n">
         <v>1.27388535031848</v>
+      </c>
+      <c r="EF54" t="n">
+        <v>1.26182965299685</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -43915,12 +44218,15 @@
         <v>1.95071868583161</v>
       </c>
       <c r="EE55" t="n">
-        <v>1.93032015065913</v>
+        <v>1.9774011299435</v>
+      </c>
+      <c r="EF55" t="n">
+        <v>1.73872180451127</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -44323,6 +44629,9 @@
       </c>
       <c r="EE56" t="n">
         <v>2.97029702970298</v>
+      </c>
+      <c r="EF56" t="n">
+        <v>2.5974025974026</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t xml:space="preserve">03/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2024</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1389,10 +1392,13 @@
       <c r="ER4" t="s">
         <v>147</v>
       </c>
+      <c r="ES4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1830,15 +1836,18 @@
         <v>10720.4</v>
       </c>
       <c r="EQ5" t="n">
-        <v>11103.8</v>
+        <v>11113.4</v>
       </c>
       <c r="ER5" t="n">
-        <v>11161.2</v>
+        <v>11168.8</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>11161.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2279,12 +2288,15 @@
         <v>174.3</v>
       </c>
       <c r="ER6" t="n">
-        <v>175.6</v>
+        <v>175.5</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>175.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2725,12 +2737,15 @@
         <v>28.9</v>
       </c>
       <c r="ER7" t="n">
+        <v>29</v>
+      </c>
+      <c r="ES7" t="n">
         <v>28.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3171,12 +3186,15 @@
         <v>203.1</v>
       </c>
       <c r="ER8" t="n">
-        <v>202.5</v>
+        <v>202.1</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>203.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3618,11 +3636,14 @@
       </c>
       <c r="ER9" t="n">
         <v>103.5</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>104.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -4063,12 +4084,15 @@
         <v>1266.2</v>
       </c>
       <c r="ER10" t="n">
-        <v>1284.1</v>
+        <v>1283.8</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>1290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4509,12 +4533,15 @@
         <v>236.7</v>
       </c>
       <c r="ER11" t="n">
-        <v>239.8</v>
+        <v>239.7</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>239.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4955,12 +4982,15 @@
         <v>125.1</v>
       </c>
       <c r="ER12" t="n">
-        <v>125.6</v>
+        <v>125.5</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>125.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5401,12 +5431,15 @@
         <v>40.3</v>
       </c>
       <c r="ER13" t="n">
-        <v>41.1</v>
+        <v>40.6</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5555,10 +5588,11 @@
       <c r="EP14"/>
       <c r="EQ14"/>
       <c r="ER14"/>
+      <c r="ES14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -6000,11 +6034,14 @@
       </c>
       <c r="ER15" t="n">
         <v>499.5</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>500.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6445,12 +6482,15 @@
         <v>354.8</v>
       </c>
       <c r="ER16" t="n">
-        <v>355.4</v>
+        <v>355.5</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>354.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6599,10 +6639,11 @@
       <c r="EP17"/>
       <c r="EQ17"/>
       <c r="ER17"/>
+      <c r="ES17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -7043,12 +7084,15 @@
         <v>66.6</v>
       </c>
       <c r="ER18" t="n">
+        <v>67</v>
+      </c>
+      <c r="ES18" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7489,12 +7533,15 @@
         <v>458.3</v>
       </c>
       <c r="ER19" t="n">
-        <v>461.1</v>
+        <v>461.2</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>458.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7935,12 +7982,15 @@
         <v>235.1</v>
       </c>
       <c r="ER20" t="n">
-        <v>236</v>
+        <v>235.7</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>234.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8382,11 +8432,14 @@
       </c>
       <c r="ER21" t="n">
         <v>148.6</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>148.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8828,11 +8881,14 @@
       </c>
       <c r="ER22" t="n">
         <v>137.9</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>137.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -9273,12 +9329,15 @@
         <v>164.6</v>
       </c>
       <c r="ER23" t="n">
-        <v>165.6</v>
+        <v>166</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>165.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9719,12 +9778,15 @@
         <v>147</v>
       </c>
       <c r="ER24" t="n">
-        <v>147.3</v>
+        <v>147.4</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>147.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -10165,12 +10227,15 @@
         <v>50.4</v>
       </c>
       <c r="ER25" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>49.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10612,11 +10677,14 @@
       </c>
       <c r="ER26" t="n">
         <v>224.6</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>228.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -11058,11 +11126,14 @@
       </c>
       <c r="ER27" t="n">
         <v>247.1</v>
+      </c>
+      <c r="ES27" t="n">
+        <v>246.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -11503,12 +11574,15 @@
         <v>328.7</v>
       </c>
       <c r="ER28" t="n">
-        <v>329.5</v>
+        <v>328.9</v>
+      </c>
+      <c r="ES28" t="n">
+        <v>329.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -11950,11 +12024,14 @@
       </c>
       <c r="ER29" t="n">
         <v>219.1</v>
+      </c>
+      <c r="ES29" t="n">
+        <v>217.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -12396,11 +12473,14 @@
       </c>
       <c r="ER30" t="n">
         <v>105.1</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -12549,10 +12629,11 @@
       <c r="EP31"/>
       <c r="EQ31"/>
       <c r="ER31"/>
+      <c r="ES31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -12994,11 +13075,14 @@
       </c>
       <c r="ER32" t="n">
         <v>44.8</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -13439,12 +13523,15 @@
         <v>94</v>
       </c>
       <c r="ER33" t="n">
-        <v>94.8</v>
+        <v>95</v>
+      </c>
+      <c r="ES33" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13885,12 +13972,15 @@
         <v>85.2</v>
       </c>
       <c r="ER34" t="n">
-        <v>85.4</v>
+        <v>85.5</v>
+      </c>
+      <c r="ES34" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -14331,12 +14421,15 @@
         <v>46.3</v>
       </c>
       <c r="ER35" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
+      </c>
+      <c r="ES35" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14777,12 +14870,15 @@
         <v>321.1</v>
       </c>
       <c r="ER36" t="n">
-        <v>322.8</v>
+        <v>322.7</v>
+      </c>
+      <c r="ES36" t="n">
+        <v>323.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -15224,11 +15320,14 @@
       </c>
       <c r="ER37" t="n">
         <v>81</v>
+      </c>
+      <c r="ES37" t="n">
+        <v>80.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -15670,11 +15769,14 @@
       </c>
       <c r="ER38" t="n">
         <v>683.7</v>
+      </c>
+      <c r="ES38" t="n">
+        <v>682.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -16116,11 +16218,14 @@
       </c>
       <c r="ER39" t="n">
         <v>343.3</v>
+      </c>
+      <c r="ES39" t="n">
+        <v>343.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -16561,12 +16666,15 @@
         <v>39.5</v>
       </c>
       <c r="ER40" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="ES40" t="n">
         <v>39.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -17007,12 +17115,15 @@
         <v>392</v>
       </c>
       <c r="ER41" t="n">
-        <v>395.7</v>
+        <v>395.8</v>
+      </c>
+      <c r="ES41" t="n">
+        <v>391.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -17453,12 +17564,15 @@
         <v>152.5</v>
       </c>
       <c r="ER42" t="n">
-        <v>153.3</v>
+        <v>154</v>
+      </c>
+      <c r="ES42" t="n">
+        <v>153.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -17899,12 +18013,15 @@
         <v>142.1</v>
       </c>
       <c r="ER43" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="ES43" t="n">
         <v>143.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -18346,11 +18463,14 @@
       </c>
       <c r="ER44" t="n">
         <v>336.1</v>
+      </c>
+      <c r="ES44" t="n">
+        <v>336.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -18791,12 +18911,15 @@
         <v>29.6</v>
       </c>
       <c r="ER45" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="ES45" t="n">
         <v>29.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -19238,11 +19361,14 @@
       </c>
       <c r="ER46" t="n">
         <v>164.6</v>
+      </c>
+      <c r="ES46" t="n">
+        <v>165.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -19683,12 +19809,15 @@
         <v>38.8</v>
       </c>
       <c r="ER47" t="n">
-        <v>39.1</v>
+        <v>39</v>
+      </c>
+      <c r="ES47" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -20129,12 +20258,15 @@
         <v>207.8</v>
       </c>
       <c r="ER48" t="n">
-        <v>208.9</v>
+        <v>209</v>
+      </c>
+      <c r="ES48" t="n">
+        <v>209.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -20575,12 +20707,15 @@
         <v>1205</v>
       </c>
       <c r="ER49" t="n">
-        <v>1206.6</v>
+        <v>1206.8</v>
+      </c>
+      <c r="ES49" t="n">
+        <v>1207.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -21021,12 +21156,15 @@
         <v>135</v>
       </c>
       <c r="ER50" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="ES50" t="n">
         <v>135.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -21467,12 +21605,15 @@
         <v>33.2</v>
       </c>
       <c r="ER51" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
+      </c>
+      <c r="ES51" t="n">
+        <v>33.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -21913,12 +22054,15 @@
         <v>332</v>
       </c>
       <c r="ER52" t="n">
-        <v>334.1</v>
+        <v>333.9</v>
+      </c>
+      <c r="ES52" t="n">
+        <v>331.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -22359,12 +22503,15 @@
         <v>255.8</v>
       </c>
       <c r="ER53" t="n">
-        <v>257.2</v>
+        <v>259</v>
+      </c>
+      <c r="ES53" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -22806,11 +22953,14 @@
       </c>
       <c r="ER54" t="n">
         <v>64.2</v>
+      </c>
+      <c r="ES54" t="n">
+        <v>63.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -23252,11 +23402,14 @@
       </c>
       <c r="ER55" t="n">
         <v>216.5</v>
+      </c>
+      <c r="ES55" t="n">
+        <v>215.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -23697,6 +23850,9 @@
         <v>31.2</v>
       </c>
       <c r="ER56" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="ES56" t="n">
         <v>31.6</v>
       </c>
     </row>
@@ -24123,10 +24279,13 @@
       <c r="EF4" t="s">
         <v>147</v>
       </c>
+      <c r="EG4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -24528,15 +24687,18 @@
         <v>2.4581390014527</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.32973919454429</v>
+        <v>2.41821030319786</v>
       </c>
       <c r="EF5" t="n">
-        <v>2.52048352132858</v>
+        <v>2.59029283168606</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>2.43477143617558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -24941,12 +25103,15 @@
         <v>0.984936268829674</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.09383995394358</v>
+        <v>1.03626943005182</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>1.09447004608294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -25351,12 +25516,15 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.347222222222215</v>
+        <v>0.694444444444442</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>-0.0000000000000122931269162647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -25761,12 +25929,15 @@
         <v>0.694100148735763</v>
       </c>
       <c r="EF8" t="n">
-        <v>1.19940029985006</v>
+        <v>0.999500249875062</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0.0491400491400603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -26172,11 +26343,14 @@
       </c>
       <c r="EF9" t="n">
         <v>1.07421874999999</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>1.06796116504854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -26581,12 +26755,15 @@
         <v>3.23685283326539</v>
       </c>
       <c r="EF10" t="n">
-        <v>3.11571508873363</v>
+        <v>3.09162450815066</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>3.05160568780956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -26991,12 +27168,15 @@
         <v>5.95344673231872</v>
       </c>
       <c r="EF11" t="n">
-        <v>6.15316511730855</v>
+        <v>6.10889774236388</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>4.99561787905346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -27401,12 +27581,15 @@
         <v>-0.318725099601598</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.475435816164824</v>
+        <v>-0.554675118858956</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>1.20967741935484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -27811,12 +27994,15 @@
         <v>4.13436692506458</v>
       </c>
       <c r="EF13" t="n">
-        <v>4.31472081218271</v>
+        <v>3.04568527918779</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>3.8265306122449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -27953,10 +28139,11 @@
       <c r="ED14"/>
       <c r="EE14"/>
       <c r="EF14"/>
+      <c r="EG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -28362,11 +28549,14 @@
       </c>
       <c r="EF15" t="n">
         <v>1.40073081607796</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>1.45896656534954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -28771,12 +28961,15 @@
         <v>2.45451920300318</v>
       </c>
       <c r="EF16" t="n">
-        <v>2.33227756982435</v>
+        <v>2.3610711200691</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>3.0796048808832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -28913,10 +29106,11 @@
       <c r="ED17"/>
       <c r="EE17"/>
       <c r="EF17"/>
+      <c r="EG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -29322,11 +29516,14 @@
       </c>
       <c r="EF18" t="n">
         <v>5.34591194968553</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>6.0126582278481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -29731,12 +29928,15 @@
         <v>3.68778280542985</v>
       </c>
       <c r="EF19" t="n">
-        <v>3.59469782071443</v>
+        <v>3.6171646820939</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>3.64253393665159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -30141,12 +30341,15 @@
         <v>2.52943741822939</v>
       </c>
       <c r="EF20" t="n">
-        <v>1.1139674378749</v>
+        <v>0.985432733504718</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>1.38588133391079</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -30552,11 +30755,14 @@
       </c>
       <c r="EF21" t="n">
         <v>1.43344709897611</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>1.43442622950819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -30962,11 +31168,14 @@
       </c>
       <c r="EF22" t="n">
         <v>0.877834674469654</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>0.510948905109481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -31371,12 +31580,15 @@
         <v>1.04358502148557</v>
       </c>
       <c r="EF23" t="n">
-        <v>0.79123554473523</v>
+        <v>1.034692635423</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>2.02952029520296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -31781,12 +31993,15 @@
         <v>-1.34228187919463</v>
       </c>
       <c r="EF24" t="n">
-        <v>-0.40567951318458</v>
+        <v>-0.338066260987153</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>-1.07599193006052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -32191,12 +32406,15 @@
         <v>3.27868852459018</v>
       </c>
       <c r="EF25" t="n">
-        <v>2.65306122448979</v>
+        <v>2.44897959183674</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>2.46913580246914</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -32602,11 +32820,14 @@
       </c>
       <c r="EF26" t="n">
         <v>2.41678066575467</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>3.21121664405245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -33012,11 +33233,14 @@
       </c>
       <c r="EF27" t="n">
         <v>1.3120131201312</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>1.35858377933305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -33421,12 +33645,15 @@
         <v>5.2513608709574</v>
       </c>
       <c r="EF28" t="n">
-        <v>5.7784911717496</v>
+        <v>5.58587479935794</v>
+      </c>
+      <c r="EG28" t="n">
+        <v>5.51458800897725</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -33832,11 +34059,14 @@
       </c>
       <c r="EF29" t="n">
         <v>5.3872053872054</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>4.81231953801732</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -34242,11 +34472,14 @@
       </c>
       <c r="EF30" t="n">
         <v>1.0576923076923</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>1.25361620057859</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -34383,10 +34616,11 @@
       <c r="ED31"/>
       <c r="EE31"/>
       <c r="EF31"/>
+      <c r="EG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -34792,11 +35026,14 @@
       </c>
       <c r="EF32" t="n">
         <v>1.81818181818181</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>1.79372197309416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -35201,12 +35438,15 @@
         <v>-0.212314225053082</v>
       </c>
       <c r="EF33" t="n">
-        <v>0.105596620908125</v>
+        <v>0.31678986272439</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>-0.0000000000000150061823814171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -35611,12 +35851,15 @@
         <v>4.41176470588235</v>
       </c>
       <c r="EF34" t="n">
-        <v>4.40097799511002</v>
+        <v>4.52322738386307</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>4.02930402930403</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -36021,12 +36264,15 @@
         <v>1.09170305676856</v>
       </c>
       <c r="EF35" t="n">
-        <v>1.52838427947597</v>
+        <v>1.31004366812226</v>
+      </c>
+      <c r="EG35" t="n">
+        <v>0.877192982456137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -36431,12 +36677,15 @@
         <v>2.03368287257707</v>
       </c>
       <c r="EF36" t="n">
-        <v>2.24897054165346</v>
+        <v>2.21729490022173</v>
+      </c>
+      <c r="EG36" t="n">
+        <v>2.53646163601774</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -36842,11 +37091,14 @@
       </c>
       <c r="EF37" t="n">
         <v>3.97946084724004</v>
+      </c>
+      <c r="EG37" t="n">
+        <v>3.59897172236504</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -37252,11 +37504,14 @@
       </c>
       <c r="EF38" t="n">
         <v>2.50374812593704</v>
+      </c>
+      <c r="EG38" t="n">
+        <v>2.49361574282712</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -37662,11 +37917,14 @@
       </c>
       <c r="EF39" t="n">
         <v>2.08147487362472</v>
+      </c>
+      <c r="EG39" t="n">
+        <v>2.1093285799168</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -38072,11 +38330,14 @@
       </c>
       <c r="EF40" t="n">
         <v>0.771208226221091</v>
+      </c>
+      <c r="EG40" t="n">
+        <v>2.34986945169714</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -38481,12 +38742,15 @@
         <v>-1.77900275620146</v>
       </c>
       <c r="EF41" t="n">
-        <v>-0.100984599848532</v>
+        <v>-0.0757384498864095</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>-1.85510152920531</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -38891,12 +39155,15 @@
         <v>3.04054054054054</v>
       </c>
       <c r="EF42" t="n">
-        <v>2.8169014084507</v>
+        <v>3.28638497652581</v>
+      </c>
+      <c r="EG42" t="n">
+        <v>3.35795836131632</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -39301,12 +39568,15 @@
         <v>2.45133381398703</v>
       </c>
       <c r="EF43" t="n">
-        <v>2.79369627507162</v>
+        <v>2.86532951289398</v>
+      </c>
+      <c r="EG43" t="n">
+        <v>2.64663805436337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -39712,11 +39982,14 @@
       </c>
       <c r="EF44" t="n">
         <v>1.60217654171704</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>1.90793458509993</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -40122,11 +40395,14 @@
       </c>
       <c r="EF45" t="n">
         <v>-0.993377483443711</v>
+      </c>
+      <c r="EG45" t="n">
+        <v>1.35593220338984</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -40532,11 +40808,14 @@
       </c>
       <c r="EF46" t="n">
         <v>0.365853658536582</v>
+      </c>
+      <c r="EG46" t="n">
+        <v>0.485731633272624</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -40941,12 +41220,15 @@
         <v>1.83727034120736</v>
       </c>
       <c r="EF47" t="n">
-        <v>2.08877284595301</v>
+        <v>1.82767624020888</v>
+      </c>
+      <c r="EG47" t="n">
+        <v>1.57068062827224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -41351,12 +41633,15 @@
         <v>-1.37636449928808</v>
       </c>
       <c r="EF48" t="n">
-        <v>-1.0421601136902</v>
+        <v>-0.99478919943156</v>
+      </c>
+      <c r="EG48" t="n">
+        <v>-1.36470588235294</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -41761,12 +42046,15 @@
         <v>2.8947143711041</v>
       </c>
       <c r="EF49" t="n">
-        <v>2.83814881104576</v>
+        <v>2.85519474985085</v>
+      </c>
+      <c r="EG49" t="n">
+        <v>2.99462503199385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -42171,12 +42459,15 @@
         <v>4.8951048951049</v>
       </c>
       <c r="EF50" t="n">
+        <v>4.88372093023257</v>
+      </c>
+      <c r="EG50" t="n">
         <v>4.88372093023257</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -42581,12 +42872,15 @@
         <v>2.78637770897835</v>
       </c>
       <c r="EF51" t="n">
-        <v>2.49221183800627</v>
+        <v>3.42679127725859</v>
+      </c>
+      <c r="EG51" t="n">
+        <v>2.1604938271605</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -42991,12 +43285,15 @@
         <v>2.85006195786865</v>
       </c>
       <c r="EF52" t="n">
-        <v>3.08546744831842</v>
+        <v>3.02375809935204</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>2.19068188830607</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -43401,12 +43698,15 @@
         <v>1.22675108824694</v>
       </c>
       <c r="EF53" t="n">
-        <v>1.49960536700871</v>
+        <v>2.20994475138122</v>
+      </c>
+      <c r="EG53" t="n">
+        <v>0.154679040989937</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -43812,11 +44112,14 @@
       </c>
       <c r="EF54" t="n">
         <v>1.26182965299685</v>
+      </c>
+      <c r="EG54" t="n">
+        <v>1.11111111111112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -44222,11 +44525,14 @@
       </c>
       <c r="EF55" t="n">
         <v>1.73872180451127</v>
+      </c>
+      <c r="EG55" t="n">
+        <v>1.12676056338028</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -44632,6 +44938,9 @@
       </c>
       <c r="EF56" t="n">
         <v>2.5974025974026</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>3.26797385620916</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t xml:space="preserve">04/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/2024</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1395,10 +1398,13 @@
       <c r="ES4" t="s">
         <v>148</v>
       </c>
+      <c r="ET4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1839,15 +1845,18 @@
         <v>11113.4</v>
       </c>
       <c r="ER5" t="n">
-        <v>11168.8</v>
+        <v>11169.1</v>
       </c>
       <c r="ES5" t="n">
-        <v>11161.6</v>
+        <v>11158</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>11036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2291,12 +2300,15 @@
         <v>175.5</v>
       </c>
       <c r="ES6" t="n">
-        <v>175.5</v>
+        <v>175.6</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>175.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2740,12 +2752,15 @@
         <v>29</v>
       </c>
       <c r="ES7" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3190,11 +3205,14 @@
       </c>
       <c r="ES8" t="n">
         <v>203.6</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>195.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3639,11 +3657,14 @@
       </c>
       <c r="ES9" t="n">
         <v>104.1</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>103.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -4087,12 +4108,15 @@
         <v>1283.8</v>
       </c>
       <c r="ES10" t="n">
-        <v>1290</v>
+        <v>1292.2</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>1303.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4536,12 +4560,15 @@
         <v>239.7</v>
       </c>
       <c r="ES11" t="n">
-        <v>239.6</v>
+        <v>239.7</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>240.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -4985,12 +5012,15 @@
         <v>125.5</v>
       </c>
       <c r="ES12" t="n">
-        <v>125.5</v>
+        <v>125.4</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>126.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5434,12 +5464,15 @@
         <v>40.6</v>
       </c>
       <c r="ES13" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5589,10 +5622,11 @@
       <c r="EQ14"/>
       <c r="ER14"/>
       <c r="ES14"/>
+      <c r="ET14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -6036,12 +6070,15 @@
         <v>499.5</v>
       </c>
       <c r="ES15" t="n">
-        <v>500.7</v>
+        <v>501</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6485,12 +6522,15 @@
         <v>355.5</v>
       </c>
       <c r="ES16" t="n">
-        <v>354.8</v>
+        <v>354.9</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6640,10 +6680,11 @@
       <c r="EQ17"/>
       <c r="ER17"/>
       <c r="ES17"/>
+      <c r="ET17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -7087,12 +7128,15 @@
         <v>67</v>
       </c>
       <c r="ES18" t="n">
-        <v>67</v>
+        <v>66.8</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>65.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7536,12 +7580,15 @@
         <v>461.2</v>
       </c>
       <c r="ES19" t="n">
-        <v>458.1</v>
+        <v>458.6</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -7985,12 +8032,15 @@
         <v>235.7</v>
       </c>
       <c r="ES20" t="n">
-        <v>234.1</v>
+        <v>234.3</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>232.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8435,11 +8485,14 @@
       </c>
       <c r="ES21" t="n">
         <v>148.5</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8884,11 +8937,14 @@
       </c>
       <c r="ES22" t="n">
         <v>137.7</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -9332,12 +9388,15 @@
         <v>166</v>
       </c>
       <c r="ES23" t="n">
-        <v>165.9</v>
+        <v>165.1</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>164.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9781,12 +9840,15 @@
         <v>147.4</v>
       </c>
       <c r="ES24" t="n">
-        <v>147.1</v>
+        <v>148.4</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>147.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -10230,12 +10292,15 @@
         <v>50.2</v>
       </c>
       <c r="ES25" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>49.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10679,12 +10744,15 @@
         <v>224.6</v>
       </c>
       <c r="ES26" t="n">
-        <v>228.2</v>
+        <v>228.3</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -11129,11 +11197,14 @@
       </c>
       <c r="ES27" t="n">
         <v>246.2</v>
+      </c>
+      <c r="ET27" t="n">
+        <v>244.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -11577,12 +11648,15 @@
         <v>328.9</v>
       </c>
       <c r="ES28" t="n">
-        <v>329.1</v>
+        <v>328.9</v>
+      </c>
+      <c r="ET28" t="n">
+        <v>310.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -12026,12 +12100,15 @@
         <v>219.1</v>
       </c>
       <c r="ES29" t="n">
-        <v>217.8</v>
+        <v>218</v>
+      </c>
+      <c r="ET29" t="n">
+        <v>215.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -12476,11 +12553,14 @@
       </c>
       <c r="ES30" t="n">
         <v>105</v>
+      </c>
+      <c r="ET30" t="n">
+        <v>103.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -12630,10 +12710,11 @@
       <c r="EQ31"/>
       <c r="ER31"/>
       <c r="ES31"/>
+      <c r="ET31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -13078,11 +13159,14 @@
       </c>
       <c r="ES32" t="n">
         <v>45.4</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -13527,11 +13611,14 @@
       </c>
       <c r="ES33" t="n">
         <v>94.7</v>
+      </c>
+      <c r="ET33" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -13976,11 +14063,14 @@
       </c>
       <c r="ES34" t="n">
         <v>85.2</v>
+      </c>
+      <c r="ET34" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -14425,11 +14515,14 @@
       </c>
       <c r="ES35" t="n">
         <v>46</v>
+      </c>
+      <c r="ET35" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14873,12 +14966,15 @@
         <v>322.7</v>
       </c>
       <c r="ES36" t="n">
-        <v>323.4</v>
+        <v>323.7</v>
+      </c>
+      <c r="ET36" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -15322,12 +15418,15 @@
         <v>81</v>
       </c>
       <c r="ES37" t="n">
-        <v>80.6</v>
+        <v>80.4</v>
+      </c>
+      <c r="ET37" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -15772,11 +15871,14 @@
       </c>
       <c r="ES38" t="n">
         <v>682.3</v>
+      </c>
+      <c r="ET38" t="n">
+        <v>682.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -16221,11 +16323,14 @@
       </c>
       <c r="ES39" t="n">
         <v>343.7</v>
+      </c>
+      <c r="ET39" t="n">
+        <v>343.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -16669,12 +16774,15 @@
         <v>39.2</v>
       </c>
       <c r="ES40" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
+      </c>
+      <c r="ET40" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -17118,12 +17226,15 @@
         <v>395.8</v>
       </c>
       <c r="ES41" t="n">
-        <v>391.5</v>
+        <v>391.8</v>
+      </c>
+      <c r="ET41" t="n">
+        <v>381.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -17567,12 +17678,15 @@
         <v>154</v>
       </c>
       <c r="ES42" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
+      </c>
+      <c r="ET42" t="n">
+        <v>153.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -18016,12 +18130,15 @@
         <v>143.6</v>
       </c>
       <c r="ES43" t="n">
-        <v>143.5</v>
+        <v>143.3</v>
+      </c>
+      <c r="ET43" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -18466,11 +18583,14 @@
       </c>
       <c r="ES44" t="n">
         <v>336.5</v>
+      </c>
+      <c r="ET44" t="n">
+        <v>333.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -18915,11 +19035,14 @@
       </c>
       <c r="ES45" t="n">
         <v>29.9</v>
+      </c>
+      <c r="ET45" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -19363,12 +19486,15 @@
         <v>164.6</v>
       </c>
       <c r="ES46" t="n">
-        <v>165.5</v>
+        <v>165.3</v>
+      </c>
+      <c r="ET46" t="n">
+        <v>161.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -19813,11 +19939,14 @@
       </c>
       <c r="ES47" t="n">
         <v>38.8</v>
+      </c>
+      <c r="ET47" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -20261,12 +20390,15 @@
         <v>209</v>
       </c>
       <c r="ES48" t="n">
-        <v>209.6</v>
+        <v>209.1</v>
+      </c>
+      <c r="ET48" t="n">
+        <v>202.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -20711,11 +20843,14 @@
       </c>
       <c r="ES49" t="n">
         <v>1207.2</v>
+      </c>
+      <c r="ET49" t="n">
+        <v>1205.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -21160,11 +21295,14 @@
       </c>
       <c r="ES50" t="n">
         <v>135.3</v>
+      </c>
+      <c r="ET50" t="n">
+        <v>135.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -21609,11 +21747,14 @@
       </c>
       <c r="ES51" t="n">
         <v>33.1</v>
+      </c>
+      <c r="ET51" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -22057,12 +22198,15 @@
         <v>333.9</v>
       </c>
       <c r="ES52" t="n">
-        <v>331.2</v>
+        <v>333.3</v>
+      </c>
+      <c r="ET52" t="n">
+        <v>325.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -22506,12 +22650,15 @@
         <v>259</v>
       </c>
       <c r="ES53" t="n">
-        <v>259</v>
+        <v>259.2</v>
+      </c>
+      <c r="ET53" t="n">
+        <v>258.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -22956,11 +23103,14 @@
       </c>
       <c r="ES54" t="n">
         <v>63.7</v>
+      </c>
+      <c r="ET54" t="n">
+        <v>61.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -23405,11 +23555,14 @@
       </c>
       <c r="ES55" t="n">
         <v>215.4</v>
+      </c>
+      <c r="ET55" t="n">
+        <v>206.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -23854,6 +24007,9 @@
       </c>
       <c r="ES56" t="n">
         <v>31.6</v>
+      </c>
+      <c r="ET56" t="n">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -24282,10 +24438,13 @@
       <c r="EG4" t="s">
         <v>148</v>
       </c>
+      <c r="EH4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -24690,15 +24849,18 @@
         <v>2.41821030319786</v>
       </c>
       <c r="EF5" t="n">
-        <v>2.59029283168606</v>
+        <v>2.59304846235806</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.43477143617558</v>
+        <v>2.40173269825538</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>2.29031689977663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -25106,12 +25268,15 @@
         <v>1.03626943005182</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.09447004608294</v>
+        <v>1.15207373271888</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>1.0938399539436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -25519,12 +25684,15 @@
         <v>0.694444444444442</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0.0000000000000122931269162647</v>
+        <v>-0.34602076124568</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>-1.06761565836298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -25933,11 +26101,14 @@
       </c>
       <c r="EG8" t="n">
         <v>0.0491400491400603</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>-1.21273370389084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -26346,11 +26517,14 @@
       </c>
       <c r="EG9" t="n">
         <v>1.06796116504854</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>1.07843137254901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -26758,12 +26932,15 @@
         <v>3.09162450815066</v>
       </c>
       <c r="EG10" t="n">
-        <v>3.05160568780956</v>
+        <v>3.22735261223837</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>3.01161963481147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -27171,12 +27348,15 @@
         <v>6.10889774236388</v>
       </c>
       <c r="EG11" t="n">
-        <v>4.99561787905346</v>
+        <v>5.03943908851886</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>5.66534914361002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -27584,12 +27764,15 @@
         <v>-0.554675118858956</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.20967741935484</v>
+        <v>1.12903225806452</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>1.12269446672012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -27997,12 +28180,15 @@
         <v>3.04568527918779</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.8265306122449</v>
+        <v>3.06122448979593</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>2.85714285714284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -28140,10 +28326,11 @@
       <c r="EE14"/>
       <c r="EF14"/>
       <c r="EG14"/>
+      <c r="EH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -28551,12 +28738,15 @@
         <v>1.40073081607796</v>
       </c>
       <c r="EG15" t="n">
-        <v>1.45896656534954</v>
+        <v>1.51975683890578</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>1.38917686087498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -28964,12 +29154,15 @@
         <v>2.3610711200691</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.0796048808832</v>
+        <v>3.10865775711795</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>1.77377144518756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -29107,10 +29300,11 @@
       <c r="EE17"/>
       <c r="EF17"/>
       <c r="EG17"/>
+      <c r="EH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -29518,12 +29712,15 @@
         <v>5.34591194968553</v>
       </c>
       <c r="EG18" t="n">
-        <v>6.0126582278481</v>
+        <v>5.69620253164556</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>6.30048465266561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -29931,12 +30128,15 @@
         <v>3.6171646820939</v>
       </c>
       <c r="EG19" t="n">
-        <v>3.64253393665159</v>
+        <v>3.75565610859729</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>3.47159603246167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -30344,12 +30544,15 @@
         <v>0.985432733504718</v>
       </c>
       <c r="EG20" t="n">
-        <v>1.38588133391079</v>
+        <v>1.47249891728022</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0.912250217202443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -30758,11 +30961,14 @@
       </c>
       <c r="EG21" t="n">
         <v>1.43442622950819</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>1.09289617486338</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -31171,11 +31377,14 @@
       </c>
       <c r="EG22" t="n">
         <v>0.510948905109481</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0.146198830409348</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -31583,12 +31792,15 @@
         <v>1.034692635423</v>
       </c>
       <c r="EG23" t="n">
-        <v>2.02952029520296</v>
+        <v>1.53751537515375</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>1.16707616707615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -31996,12 +32208,15 @@
         <v>-0.338066260987153</v>
       </c>
       <c r="EG24" t="n">
-        <v>-1.07599193006052</v>
+        <v>-0.201748486886356</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>-0.203252032520314</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -32409,12 +32624,15 @@
         <v>2.44897959183674</v>
       </c>
       <c r="EG25" t="n">
-        <v>2.46913580246914</v>
+        <v>2.26337448559673</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>1.63599182004091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -32822,12 +33040,15 @@
         <v>2.41678066575467</v>
       </c>
       <c r="EG26" t="n">
-        <v>3.21121664405245</v>
+        <v>3.25644504748982</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>2.78276481149012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -33236,11 +33457,14 @@
       </c>
       <c r="EG27" t="n">
         <v>1.35858377933305</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>1.32450331125827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -33648,12 +33872,15 @@
         <v>5.58587479935794</v>
       </c>
       <c r="EG28" t="n">
-        <v>5.51458800897725</v>
+        <v>5.45046489259378</v>
+      </c>
+      <c r="EH28" t="n">
+        <v>2.40447957839261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -34061,12 +34288,15 @@
         <v>5.3872053872054</v>
       </c>
       <c r="EG29" t="n">
-        <v>4.81231953801732</v>
+        <v>4.90856592877766</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>5.26572403705509</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -34475,11 +34705,14 @@
       </c>
       <c r="EG30" t="n">
         <v>1.25361620057859</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>0.779727095516553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -34617,10 +34850,11 @@
       <c r="EE31"/>
       <c r="EF31"/>
       <c r="EG31"/>
+      <c r="EH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -35029,11 +35263,14 @@
       </c>
       <c r="EG32" t="n">
         <v>1.79372197309416</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>1.75824175824175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -35442,11 +35679,14 @@
       </c>
       <c r="EG33" t="n">
         <v>-0.0000000000000150061823814171</v>
+      </c>
+      <c r="EH33" t="n">
+        <v>0.844772967265044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -35855,11 +36095,14 @@
       </c>
       <c r="EG34" t="n">
         <v>4.02930402930403</v>
+      </c>
+      <c r="EH34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -36268,11 +36511,14 @@
       </c>
       <c r="EG35" t="n">
         <v>0.877192982456137</v>
+      </c>
+      <c r="EH35" t="n">
+        <v>0.442477876106201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -36680,12 +36926,15 @@
         <v>2.21729490022173</v>
       </c>
       <c r="EG36" t="n">
-        <v>2.53646163601774</v>
+        <v>2.63157894736841</v>
+      </c>
+      <c r="EH36" t="n">
+        <v>2.59698621352997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -37093,12 +37342,15 @@
         <v>3.97946084724004</v>
       </c>
       <c r="EG37" t="n">
-        <v>3.59897172236504</v>
+        <v>3.34190231362469</v>
+      </c>
+      <c r="EH37" t="n">
+        <v>3.09278350515465</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -37507,11 +37759,14 @@
       </c>
       <c r="EG38" t="n">
         <v>2.49361574282712</v>
+      </c>
+      <c r="EH38" t="n">
+        <v>2.47599039615848</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -37920,11 +38175,14 @@
       </c>
       <c r="EG39" t="n">
         <v>2.1093285799168</v>
+      </c>
+      <c r="EH39" t="n">
+        <v>2.08023774145617</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -38332,12 +38590,15 @@
         <v>0.771208226221091</v>
       </c>
       <c r="EG40" t="n">
-        <v>2.34986945169714</v>
+        <v>2.61096605744125</v>
+      </c>
+      <c r="EH40" t="n">
+        <v>1.83727034120736</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -38745,12 +39006,15 @@
         <v>-0.0757384498864095</v>
       </c>
       <c r="EG41" t="n">
-        <v>-1.85510152920531</v>
+        <v>-1.77989471045375</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>-2.99872935196951</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -39158,12 +39422,15 @@
         <v>3.28638497652581</v>
       </c>
       <c r="EG42" t="n">
-        <v>3.35795836131632</v>
+        <v>3.29079919409</v>
+      </c>
+      <c r="EH42" t="n">
+        <v>3.304113283884</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -39571,12 +39838,15 @@
         <v>2.86532951289398</v>
       </c>
       <c r="EG43" t="n">
-        <v>2.64663805436337</v>
+        <v>2.5035765379113</v>
+      </c>
+      <c r="EH43" t="n">
+        <v>2.49110320284698</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -39985,11 +40255,14 @@
       </c>
       <c r="EG44" t="n">
         <v>1.90793458509993</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>4.48135380758383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -40398,11 +40671,14 @@
       </c>
       <c r="EG45" t="n">
         <v>1.35593220338984</v>
+      </c>
+      <c r="EH45" t="n">
+        <v>-2.68456375838925</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -40810,12 +41086,15 @@
         <v>0.365853658536582</v>
       </c>
       <c r="EG46" t="n">
-        <v>0.485731633272624</v>
+        <v>0.364298724954477</v>
+      </c>
+      <c r="EH46" t="n">
+        <v>1.12781954887219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -41224,11 +41503,14 @@
       </c>
       <c r="EG47" t="n">
         <v>1.57068062827224</v>
+      </c>
+      <c r="EH47" t="n">
+        <v>1.58730158730159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -41636,12 +41918,15 @@
         <v>-0.99478919943156</v>
       </c>
       <c r="EG48" t="n">
-        <v>-1.36470588235294</v>
+        <v>-1.6</v>
+      </c>
+      <c r="EH48" t="n">
+        <v>-2.87631831255991</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -42050,11 +42335,14 @@
       </c>
       <c r="EG49" t="n">
         <v>2.99462503199385</v>
+      </c>
+      <c r="EH49" t="n">
+        <v>2.92058070025619</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -42463,11 +42751,14 @@
       </c>
       <c r="EG50" t="n">
         <v>4.88372093023257</v>
+      </c>
+      <c r="EH50" t="n">
+        <v>4.88750969743986</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -42876,11 +43167,14 @@
       </c>
       <c r="EG51" t="n">
         <v>2.1604938271605</v>
+      </c>
+      <c r="EH51" t="n">
+        <v>-7.07692307692308</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -43288,12 +43582,15 @@
         <v>3.02375809935204</v>
       </c>
       <c r="EG52" t="n">
-        <v>2.19068188830607</v>
+        <v>2.83863005245294</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>2.90495737290811</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -43701,12 +43998,15 @@
         <v>2.20994475138122</v>
       </c>
       <c r="EG53" t="n">
-        <v>0.154679040989937</v>
+        <v>0.232018561484906</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>-0.615148019992319</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -44115,11 +44415,14 @@
       </c>
       <c r="EG54" t="n">
         <v>1.11111111111112</v>
+      </c>
+      <c r="EH54" t="n">
+        <v>-1.60771704180064</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -44528,11 +44831,14 @@
       </c>
       <c r="EG55" t="n">
         <v>1.12676056338028</v>
+      </c>
+      <c r="EH55" t="n">
+        <v>-1.28939828080227</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -44941,6 +45247,9 @@
       </c>
       <c r="EG56" t="n">
         <v>3.26797385620916</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>2.92207792207793</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t xml:space="preserve">05/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2024</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1401,10 +1404,13 @@
       <c r="ET4" t="s">
         <v>149</v>
       </c>
+      <c r="EU4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1848,15 +1854,18 @@
         <v>11169.1</v>
       </c>
       <c r="ES5" t="n">
-        <v>11158</v>
+        <v>11158.9</v>
       </c>
       <c r="ET5" t="n">
-        <v>11036</v>
+        <v>10998.9</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>10401.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2303,12 +2312,15 @@
         <v>175.6</v>
       </c>
       <c r="ET6" t="n">
-        <v>175.6</v>
+        <v>175.9</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2755,12 +2767,15 @@
         <v>28.8</v>
       </c>
       <c r="ET7" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3207,12 +3222,15 @@
         <v>203.6</v>
       </c>
       <c r="ET8" t="n">
-        <v>195.5</v>
+        <v>195.2</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>158.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="n">
         <v>104.8</v>
@@ -3660,11 +3678,14 @@
       </c>
       <c r="ET9" t="n">
         <v>103.1</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>94.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="n">
         <v>1132.3</v>
@@ -4112,11 +4133,14 @@
       </c>
       <c r="ET10" t="n">
         <v>1303.2</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>1287.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="n">
         <v>184.5</v>
@@ -4564,11 +4588,14 @@
       </c>
       <c r="ET11" t="n">
         <v>240.6</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>224.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="n">
         <v>122.1</v>
@@ -5016,11 +5043,14 @@
       </c>
       <c r="ET12" t="n">
         <v>126.1</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>118.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="n">
         <v>30.9</v>
@@ -5467,12 +5497,15 @@
         <v>40.4</v>
       </c>
       <c r="ET13" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -5623,10 +5656,11 @@
       <c r="ER14"/>
       <c r="ES14"/>
       <c r="ET14"/>
+      <c r="EU14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
         <v>490.3</v>
@@ -6073,12 +6107,15 @@
         <v>501</v>
       </c>
       <c r="ET15" t="n">
-        <v>489</v>
+        <v>489.1</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>409.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="n">
         <v>345.9</v>
@@ -6526,11 +6563,14 @@
       </c>
       <c r="ET16" t="n">
         <v>350</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6681,10 +6721,11 @@
       <c r="ER17"/>
       <c r="ES17"/>
       <c r="ET17"/>
+      <c r="EU17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="n">
         <v>52.4</v>
@@ -7132,11 +7173,14 @@
       </c>
       <c r="ET18" t="n">
         <v>65.8</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>62.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="n">
         <v>435.1</v>
@@ -7584,11 +7628,14 @@
       </c>
       <c r="ET19" t="n">
         <v>459</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>419.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -8035,12 +8082,15 @@
         <v>234.3</v>
       </c>
       <c r="ET20" t="n">
-        <v>232.3</v>
+        <v>232.4</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>190.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="n">
         <v>139</v>
@@ -8487,12 +8537,15 @@
         <v>148.5</v>
       </c>
       <c r="ET21" t="n">
-        <v>148</v>
+        <v>147.4</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="n">
         <v>135.1</v>
@@ -8939,12 +8992,15 @@
         <v>137.7</v>
       </c>
       <c r="ET22" t="n">
-        <v>137</v>
+        <v>130.8</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>119.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="n">
         <v>171.5</v>
@@ -9391,12 +9447,15 @@
         <v>165.1</v>
       </c>
       <c r="ET23" t="n">
-        <v>164.7</v>
+        <v>164.5</v>
+      </c>
+      <c r="EU23" t="n">
+        <v>154.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="n">
         <v>160.9</v>
@@ -9844,11 +9903,14 @@
       </c>
       <c r="ET24" t="n">
         <v>147.3</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>137.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="n">
         <v>50.7</v>
@@ -10295,12 +10357,15 @@
         <v>49.7</v>
       </c>
       <c r="ET25" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="n">
         <v>194.8</v>
@@ -10748,11 +10813,14 @@
       </c>
       <c r="ET26" t="n">
         <v>229</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>215.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="n">
         <v>216.5</v>
@@ -11200,11 +11268,14 @@
       </c>
       <c r="ET27" t="n">
         <v>244.8</v>
+      </c>
+      <c r="EU27" t="n">
+        <v>240.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" t="n">
         <v>326.8</v>
@@ -11651,12 +11722,15 @@
         <v>328.9</v>
       </c>
       <c r="ET28" t="n">
-        <v>310.9</v>
+        <v>314.5</v>
+      </c>
+      <c r="EU28" t="n">
+        <v>294.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29" t="n">
         <v>201</v>
@@ -12103,12 +12177,15 @@
         <v>218</v>
       </c>
       <c r="ET29" t="n">
-        <v>215.9</v>
+        <v>216.3</v>
+      </c>
+      <c r="EU29" t="n">
+        <v>205.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" t="n">
         <v>106.5</v>
@@ -12555,12 +12632,15 @@
         <v>105</v>
       </c>
       <c r="ET30" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
+      </c>
+      <c r="EU30" t="n">
+        <v>99.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -12711,10 +12791,11 @@
       <c r="ER31"/>
       <c r="ES31"/>
       <c r="ET31"/>
+      <c r="EU31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B32" t="n">
         <v>42.2</v>
@@ -13162,11 +13243,14 @@
       </c>
       <c r="ET32" t="n">
         <v>46.3</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" t="n">
         <v>86.4</v>
@@ -13613,12 +13697,15 @@
         <v>94.7</v>
       </c>
       <c r="ET33" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
+      </c>
+      <c r="EU33" t="n">
+        <v>87.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B34" t="n">
         <v>66.2</v>
@@ -14065,12 +14152,15 @@
         <v>85.2</v>
       </c>
       <c r="ET34" t="n">
-        <v>85.8</v>
+        <v>86.3</v>
+      </c>
+      <c r="EU34" t="n">
+        <v>73.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35" t="n">
         <v>47.3</v>
@@ -14517,12 +14607,15 @@
         <v>46</v>
       </c>
       <c r="ET35" t="n">
-        <v>45.4</v>
+        <v>43.9</v>
+      </c>
+      <c r="EU35" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B36" t="n">
         <v>307.9</v>
@@ -14969,12 +15062,15 @@
         <v>323.7</v>
       </c>
       <c r="ET36" t="n">
-        <v>320</v>
+        <v>319.5</v>
+      </c>
+      <c r="EU36" t="n">
+        <v>316.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37" t="n">
         <v>77.3</v>
@@ -15422,11 +15518,14 @@
       </c>
       <c r="ET37" t="n">
         <v>80</v>
+      </c>
+      <c r="EU37" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
         <v>634.6</v>
@@ -15874,11 +15973,14 @@
       </c>
       <c r="ET38" t="n">
         <v>682.9</v>
+      </c>
+      <c r="EU38" t="n">
+        <v>670.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B39" t="n">
         <v>340.2</v>
@@ -16326,11 +16428,14 @@
       </c>
       <c r="ET39" t="n">
         <v>343.5</v>
+      </c>
+      <c r="EU39" t="n">
+        <v>319.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B40" t="n">
         <v>37.1</v>
@@ -16778,11 +16883,14 @@
       </c>
       <c r="ET40" t="n">
         <v>38.8</v>
+      </c>
+      <c r="EU40" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B41" t="n">
         <v>374.9</v>
@@ -17229,12 +17337,15 @@
         <v>391.8</v>
       </c>
       <c r="ET41" t="n">
-        <v>381.7</v>
+        <v>379.6</v>
+      </c>
+      <c r="EU41" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" t="n">
         <v>146.7</v>
@@ -17681,12 +17792,15 @@
         <v>153.8</v>
       </c>
       <c r="ET42" t="n">
-        <v>153.2</v>
+        <v>153.6</v>
+      </c>
+      <c r="EU42" t="n">
+        <v>139.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B43" t="n">
         <v>130.3</v>
@@ -18133,12 +18247,15 @@
         <v>143.3</v>
       </c>
       <c r="ET43" t="n">
-        <v>144</v>
+        <v>143.2</v>
+      </c>
+      <c r="EU43" t="n">
+        <v>141.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B44" t="n">
         <v>343.9</v>
@@ -18585,12 +18702,15 @@
         <v>336.5</v>
       </c>
       <c r="ET44" t="n">
-        <v>333.4</v>
+        <v>333.5</v>
+      </c>
+      <c r="EU44" t="n">
+        <v>304.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B45" t="n">
         <v>31</v>
@@ -19038,11 +19158,14 @@
       </c>
       <c r="ET45" t="n">
         <v>29</v>
+      </c>
+      <c r="EU45" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B46" t="n">
         <v>158.2</v>
@@ -19489,12 +19612,15 @@
         <v>165.3</v>
       </c>
       <c r="ET46" t="n">
-        <v>161.4</v>
+        <v>161.6</v>
+      </c>
+      <c r="EU46" t="n">
+        <v>156.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47" t="n">
         <v>35</v>
@@ -19941,12 +20067,15 @@
         <v>38.8</v>
       </c>
       <c r="ET47" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
+      </c>
+      <c r="EU47" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" t="n">
         <v>194.7</v>
@@ -20393,12 +20522,15 @@
         <v>209.1</v>
       </c>
       <c r="ET48" t="n">
-        <v>202.6</v>
+        <v>202</v>
+      </c>
+      <c r="EU48" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" t="n">
         <v>1029.4</v>
@@ -20845,12 +20977,15 @@
         <v>1207.2</v>
       </c>
       <c r="ET49" t="n">
-        <v>1205.2</v>
+        <v>1204.6</v>
+      </c>
+      <c r="EU49" t="n">
+        <v>1164.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B50" t="n">
         <v>109.5</v>
@@ -21298,11 +21433,14 @@
       </c>
       <c r="ET50" t="n">
         <v>135.2</v>
+      </c>
+      <c r="EU50" t="n">
+        <v>127.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -21750,11 +21888,14 @@
       </c>
       <c r="ET51" t="n">
         <v>30.2</v>
+      </c>
+      <c r="EU51" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B52" t="n">
         <v>311.5</v>
@@ -22201,12 +22342,15 @@
         <v>333.3</v>
       </c>
       <c r="ET52" t="n">
-        <v>325.9</v>
+        <v>328.6</v>
+      </c>
+      <c r="EU52" t="n">
+        <v>320.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B53" t="n">
         <v>240.6</v>
@@ -22653,12 +22797,15 @@
         <v>259.2</v>
       </c>
       <c r="ET53" t="n">
-        <v>258.5</v>
+        <v>260.4</v>
+      </c>
+      <c r="EU53" t="n">
+        <v>256.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B54" t="n">
         <v>68.9</v>
@@ -23106,11 +23253,14 @@
       </c>
       <c r="ET54" t="n">
         <v>61.2</v>
+      </c>
+      <c r="EU54" t="n">
+        <v>57.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B55" t="n">
         <v>199.2</v>
@@ -23558,11 +23708,14 @@
       </c>
       <c r="ET55" t="n">
         <v>206.7</v>
+      </c>
+      <c r="EU55" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B56" t="n">
         <v>31.4</v>
@@ -24009,7 +24162,10 @@
         <v>31.6</v>
       </c>
       <c r="ET56" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
+      </c>
+      <c r="EU56" t="n">
+        <v>29.1</v>
       </c>
     </row>
   </sheetData>
@@ -24441,10 +24597,13 @@
       <c r="EH4" t="s">
         <v>149</v>
       </c>
+      <c r="EI4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="n">
         <v>-0.321009954253634</v>
@@ -24852,15 +25011,18 @@
         <v>2.59304846235806</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.40173269825538</v>
+        <v>2.40999238273543</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.29031689977663</v>
+        <v>1.94644495731726</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>2.12469317623958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="n">
         <v>-0.370370370370367</v>
@@ -25271,12 +25433,15 @@
         <v>1.15207373271888</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.0938399539436</v>
+        <v>1.26655152561889</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>1.11046171829338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="n">
         <v>-0.328947368421057</v>
@@ -25687,12 +25852,15 @@
         <v>-0.34602076124568</v>
       </c>
       <c r="EH7" t="n">
-        <v>-1.06761565836298</v>
+        <v>-2.13523131672597</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>-4.40528634361234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="n">
         <v>1.67979002624671</v>
@@ -26103,12 +26271,15 @@
         <v>0.0491400491400603</v>
       </c>
       <c r="EH8" t="n">
-        <v>-1.21273370389084</v>
+        <v>-1.36432541687719</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>2.64857881136951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="n">
         <v>0.0954198473282388</v>
@@ -26520,11 +26691,14 @@
       </c>
       <c r="EH9" t="n">
         <v>1.07843137254901</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>1.17395944503736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="n">
         <v>-0.556389649386201</v>
@@ -26936,11 +27110,14 @@
       </c>
       <c r="EH10" t="n">
         <v>3.01161963481147</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>3.03321328531413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="n">
         <v>0.433604336043367</v>
@@ -27352,11 +27529,14 @@
       </c>
       <c r="EH11" t="n">
         <v>5.66534914361002</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>4.46719404374129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="n">
         <v>1.06470106470107</v>
@@ -27768,11 +27948,14 @@
       </c>
       <c r="EH12" t="n">
         <v>1.12269446672012</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>2.06008583690988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="n">
         <v>-1.61812297734628</v>
@@ -28183,12 +28366,15 @@
         <v>3.06122448979593</v>
       </c>
       <c r="EH13" t="n">
-        <v>2.85714285714284</v>
+        <v>4.15584415584416</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>4.45682451253482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -28327,10 +28513,11 @@
       <c r="EF14"/>
       <c r="EG14"/>
       <c r="EH14"/>
+      <c r="EI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
         <v>0.877014073016534</v>
@@ -28741,12 +28928,15 @@
         <v>1.51975683890578</v>
       </c>
       <c r="EH15" t="n">
-        <v>1.38917686087498</v>
+        <v>1.40991084387312</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>1.21227115289459</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="n">
         <v>-1.35877421220004</v>
@@ -29158,11 +29348,14 @@
       </c>
       <c r="EH16" t="n">
         <v>1.77377144518756</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>2.44049412473637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -29301,10 +29494,11 @@
       <c r="EF17"/>
       <c r="EG17"/>
       <c r="EH17"/>
+      <c r="EI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="n">
         <v>3.43511450381679</v>
@@ -29716,11 +29910,14 @@
       </c>
       <c r="EH18" t="n">
         <v>6.30048465266561</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>5.0761421319797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="n">
         <v>1.33302689037002</v>
@@ -30132,11 +30329,14 @@
       </c>
       <c r="EH19" t="n">
         <v>3.47159603246167</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0.623501199040773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="n">
         <v>-1.48305084745763</v>
@@ -30547,12 +30747,15 @@
         <v>1.47249891728022</v>
       </c>
       <c r="EH20" t="n">
-        <v>0.912250217202443</v>
+        <v>0.955690703735889</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0.741525423728801</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="n">
         <v>0.143884892086323</v>
@@ -30963,12 +31166,15 @@
         <v>1.43442622950819</v>
       </c>
       <c r="EH21" t="n">
-        <v>1.09289617486338</v>
+        <v>0.683060109289598</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>-0.374531835205993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="n">
         <v>-0.888230940044403</v>
@@ -31379,12 +31585,15 @@
         <v>0.510948905109481</v>
       </c>
       <c r="EH22" t="n">
-        <v>0.146198830409348</v>
+        <v>-4.3859649122807</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0.252312867956251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="n">
         <v>-0.349854227405261</v>
@@ -31795,12 +32004,15 @@
         <v>1.53751537515375</v>
       </c>
       <c r="EH23" t="n">
-        <v>1.16707616707615</v>
+        <v>1.04422604422604</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>0.847457627118633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="n">
         <v>-3.60472343070231</v>
@@ -32212,11 +32424,14 @@
       </c>
       <c r="EH24" t="n">
         <v>-0.203252032520314</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>-0.21834061135372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="n">
         <v>0.986193293885616</v>
@@ -32627,12 +32842,15 @@
         <v>2.26337448559673</v>
       </c>
       <c r="EH25" t="n">
-        <v>1.63599182004091</v>
+        <v>2.04498977505112</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>1.90677966101695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="n">
         <v>1.43737166324436</v>
@@ -33044,11 +33262,14 @@
       </c>
       <c r="EH26" t="n">
         <v>2.78276481149012</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>3.75180375180377</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="n">
         <v>1.10854503464202</v>
@@ -33460,11 +33681,14 @@
       </c>
       <c r="EH27" t="n">
         <v>1.32450331125827</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>1.34850400337127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" t="n">
         <v>-2.47858017135862</v>
@@ -33875,12 +34099,15 @@
         <v>5.45046489259378</v>
       </c>
       <c r="EH28" t="n">
-        <v>2.40447957839261</v>
+        <v>3.59025032938076</v>
+      </c>
+      <c r="EI28" t="n">
+        <v>4.02400282386164</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29" t="n">
         <v>1.19402985074626</v>
@@ -34291,12 +34518,15 @@
         <v>4.90856592877766</v>
       </c>
       <c r="EH29" t="n">
-        <v>5.26572403705509</v>
+        <v>5.46075085324232</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>3.05458187280921</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" t="n">
         <v>0.281690140845068</v>
@@ -34707,12 +34937,15 @@
         <v>1.25361620057859</v>
       </c>
       <c r="EH30" t="n">
-        <v>0.779727095516553</v>
+        <v>0.682261208576987</v>
+      </c>
+      <c r="EI30" t="n">
+        <v>2.0429009193054</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -34851,10 +35084,11 @@
       <c r="EF31"/>
       <c r="EG31"/>
       <c r="EH31"/>
+      <c r="EI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B32" t="n">
         <v>3.31753554502368</v>
@@ -35266,11 +35500,14 @@
       </c>
       <c r="EH32" t="n">
         <v>1.75824175824175</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>1.89573459715639</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" t="n">
         <v>0.694444444444438</v>
@@ -35681,12 +35918,15 @@
         <v>-0.0000000000000150061823814171</v>
       </c>
       <c r="EH33" t="n">
-        <v>0.844772967265044</v>
+        <v>0.63357972544878</v>
+      </c>
+      <c r="EI33" t="n">
+        <v>-2.98013245033111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B34" t="n">
         <v>2.71903323262839</v>
@@ -36097,12 +36337,15 @@
         <v>4.02930402930403</v>
       </c>
       <c r="EH34" t="n">
-        <v>4</v>
+        <v>4.6060606060606</v>
+      </c>
+      <c r="EI34" t="n">
+        <v>1.24653739612187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35" t="n">
         <v>0.211416490486261</v>
@@ -36513,12 +36756,15 @@
         <v>0.877192982456137</v>
       </c>
       <c r="EH35" t="n">
-        <v>0.442477876106201</v>
+        <v>-2.87610619469024</v>
+      </c>
+      <c r="EI35" t="n">
+        <v>5.44041450777202</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B36" t="n">
         <v>2.5657681065281</v>
@@ -36929,12 +37175,15 @@
         <v>2.63157894736841</v>
       </c>
       <c r="EH36" t="n">
-        <v>2.59698621352997</v>
+        <v>2.43667842257133</v>
+      </c>
+      <c r="EI36" t="n">
+        <v>2.69655620532814</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37" t="n">
         <v>2.84605433376456</v>
@@ -37346,11 +37595,14 @@
       </c>
       <c r="EH37" t="n">
         <v>3.09278350515465</v>
+      </c>
+      <c r="EI37" t="n">
+        <v>4.60431654676259</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
         <v>-1.41821619918059</v>
@@ -37762,11 +38014,14 @@
       </c>
       <c r="EH38" t="n">
         <v>2.47599039615848</v>
+      </c>
+      <c r="EI38" t="n">
+        <v>2.47592847317743</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B39" t="n">
         <v>0.205761316872425</v>
@@ -38178,11 +38433,14 @@
       </c>
       <c r="EH39" t="n">
         <v>2.08023774145617</v>
+      </c>
+      <c r="EI39" t="n">
+        <v>1.85007974481659</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B40" t="n">
         <v>1.61725067385445</v>
@@ -38594,11 +38852,14 @@
       </c>
       <c r="EH40" t="n">
         <v>1.83727034120736</v>
+      </c>
+      <c r="EI40" t="n">
+        <v>5.90062111801242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B41" t="n">
         <v>1.94718591624434</v>
@@ -39009,12 +39270,15 @@
         <v>-1.77989471045375</v>
       </c>
       <c r="EH41" t="n">
-        <v>-2.99872935196951</v>
+        <v>-3.53240152477763</v>
+      </c>
+      <c r="EI41" t="n">
+        <v>-0.826446280991736</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" t="n">
         <v>0.749829584185428</v>
@@ -39425,12 +39689,15 @@
         <v>3.29079919409</v>
       </c>
       <c r="EH42" t="n">
-        <v>3.304113283884</v>
+        <v>3.57383681726231</v>
+      </c>
+      <c r="EI42" t="n">
+        <v>2.64317180616742</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B43" t="n">
         <v>-0.383729854182655</v>
@@ -39841,12 +40108,15 @@
         <v>2.5035765379113</v>
       </c>
       <c r="EH43" t="n">
-        <v>2.49110320284698</v>
+        <v>1.92170818505339</v>
+      </c>
+      <c r="EI43" t="n">
+        <v>0.926585887384165</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B44" t="n">
         <v>-0.726955510322752</v>
@@ -40257,12 +40527,15 @@
         <v>1.90793458509993</v>
       </c>
       <c r="EH44" t="n">
-        <v>4.48135380758383</v>
+        <v>4.51269194609841</v>
+      </c>
+      <c r="EI44" t="n">
+        <v>1.83762111593719</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B45" t="n">
         <v>0.322580645161295</v>
@@ -40674,11 +40947,14 @@
       </c>
       <c r="EH45" t="n">
         <v>-2.68456375838925</v>
+      </c>
+      <c r="EI45" t="n">
+        <v>2.94117647058824</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B46" t="n">
         <v>0.758533501896345</v>
@@ -41089,12 +41365,15 @@
         <v>0.364298724954477</v>
       </c>
       <c r="EH46" t="n">
-        <v>1.12781954887219</v>
+        <v>1.2531328320802</v>
+      </c>
+      <c r="EI46" t="n">
+        <v>1.42210730446026</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -41505,12 +41784,15 @@
         <v>1.57068062827224</v>
       </c>
       <c r="EH47" t="n">
-        <v>1.58730158730159</v>
+        <v>1.32275132275132</v>
+      </c>
+      <c r="EI47" t="n">
+        <v>1.46627565982405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" t="n">
         <v>-0.924499229583967</v>
@@ -41921,12 +42203,15 @@
         <v>-1.6</v>
       </c>
       <c r="EH48" t="n">
-        <v>-2.87631831255991</v>
+        <v>-3.16395014381591</v>
+      </c>
+      <c r="EI48" t="n">
+        <v>-2.87326834273985</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" t="n">
         <v>0.553720613949856</v>
@@ -42337,12 +42622,15 @@
         <v>2.99462503199385</v>
       </c>
       <c r="EH49" t="n">
-        <v>2.92058070025619</v>
+        <v>2.86934244235695</v>
+      </c>
+      <c r="EI49" t="n">
+        <v>3.0085833112114</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B50" t="n">
         <v>1.91780821917808</v>
@@ -42754,11 +43042,14 @@
       </c>
       <c r="EH50" t="n">
         <v>4.88750969743986</v>
+      </c>
+      <c r="EI50" t="n">
+        <v>3.83360522022838</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B51" t="n">
         <v>1.81818181818182</v>
@@ -43170,11 +43461,14 @@
       </c>
       <c r="EH51" t="n">
         <v>-7.07692307692308</v>
+      </c>
+      <c r="EI51" t="n">
+        <v>-0.687285223367707</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B52" t="n">
         <v>-0.802568218298555</v>
@@ -43585,12 +43879,15 @@
         <v>2.83863005245294</v>
       </c>
       <c r="EH52" t="n">
-        <v>2.90495737290811</v>
+        <v>3.75749921060942</v>
+      </c>
+      <c r="EI52" t="n">
+        <v>4.19921875000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B53" t="n">
         <v>1.91188694929342</v>
@@ -44001,12 +44298,15 @@
         <v>0.232018561484906</v>
       </c>
       <c r="EH53" t="n">
-        <v>-0.615148019992319</v>
+        <v>0.115340253748541</v>
+      </c>
+      <c r="EI53" t="n">
+        <v>-0.0779119594857766</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B54" t="n">
         <v>-0.290275761973879</v>
@@ -44417,12 +44717,15 @@
         <v>1.11111111111112</v>
       </c>
       <c r="EH54" t="n">
-        <v>-1.60771704180064</v>
+        <v>-1.60771704180065</v>
+      </c>
+      <c r="EI54" t="n">
+        <v>-0.692041522491347</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B55" t="n">
         <v>-0.753012048192771</v>
@@ -44834,11 +45137,14 @@
       </c>
       <c r="EH55" t="n">
         <v>-1.28939828080227</v>
+      </c>
+      <c r="EI55" t="n">
+        <v>-0.475687103594068</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B56" t="n">
         <v>0.955414012738856</v>
@@ -45249,7 +45555,10 @@
         <v>3.26797385620916</v>
       </c>
       <c r="EH56" t="n">
-        <v>2.92207792207793</v>
+        <v>2.5974025974026</v>
+      </c>
+      <c r="EI56" t="n">
+        <v>3.19148936170214</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_and_local_public_education_employment.xlsx
+++ b/static/data/source/state_and_local_public_education_employment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t xml:space="preserve">06/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2024</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
@@ -1407,10 +1410,13 @@
       <c r="EU4" t="s">
         <v>150</v>
       </c>
+      <c r="EV4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="n">
         <v>10186.6</v>
@@ -1857,15 +1863,18 @@
         <v>11158.9</v>
       </c>
       <c r="ET5" t="n">
-        <v>10998.9</v>
+        <v>10987.9</v>
       </c>
       <c r="EU5" t="n">
-        <v>10401.4</v>
+        <v>10350.2</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>9275.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="n">
         <v>162</v>
@@ -2316,11 +2325,14 @@
       </c>
       <c r="EU6" t="n">
         <v>173</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>163.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="n">
         <v>30.4</v>
@@ -2770,12 +2782,15 @@
         <v>27.5</v>
       </c>
       <c r="EU7" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="n">
         <v>190.5</v>
@@ -3225,12 +3240,15 @@
         <v>195.2</v>
       </c>
       <c r="EU8" t="n">
-        <v>158.9</v>
+        <v>155.6</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
     